--- a/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="388">
   <si>
     <t>Timestamp</t>
   </si>
@@ -28,868 +28,1156 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>28.01.20251</t>
-  </si>
-  <si>
-    <t>28.01.20252</t>
-  </si>
-  <si>
-    <t>28.01.20253</t>
-  </si>
-  <si>
-    <t>28.01.20254</t>
-  </si>
-  <si>
-    <t>28.01.20255</t>
-  </si>
-  <si>
-    <t>28.01.20256</t>
-  </si>
-  <si>
-    <t>28.01.20257</t>
-  </si>
-  <si>
-    <t>28.01.20258</t>
-  </si>
-  <si>
-    <t>28.01.20259</t>
-  </si>
-  <si>
-    <t>28.01.202510</t>
-  </si>
-  <si>
-    <t>28.01.202511</t>
-  </si>
-  <si>
-    <t>28.01.202512</t>
-  </si>
-  <si>
-    <t>28.01.202513</t>
-  </si>
-  <si>
-    <t>28.01.202514</t>
-  </si>
-  <si>
-    <t>28.01.202515</t>
-  </si>
-  <si>
-    <t>28.01.202516</t>
-  </si>
-  <si>
-    <t>28.01.202517</t>
-  </si>
-  <si>
-    <t>28.01.202518</t>
-  </si>
-  <si>
-    <t>28.01.202519</t>
-  </si>
-  <si>
-    <t>28.01.202520</t>
-  </si>
-  <si>
-    <t>28.01.202521</t>
-  </si>
-  <si>
-    <t>28.01.202522</t>
-  </si>
-  <si>
-    <t>28.01.202523</t>
-  </si>
-  <si>
-    <t>28.01.202524</t>
-  </si>
-  <si>
-    <t>28.01.202525</t>
-  </si>
-  <si>
-    <t>28.01.202526</t>
-  </si>
-  <si>
-    <t>28.01.202527</t>
-  </si>
-  <si>
-    <t>28.01.202528</t>
-  </si>
-  <si>
-    <t>28.01.202529</t>
-  </si>
-  <si>
-    <t>28.01.202530</t>
-  </si>
-  <si>
-    <t>28.01.202531</t>
-  </si>
-  <si>
-    <t>28.01.202532</t>
-  </si>
-  <si>
-    <t>28.01.202533</t>
-  </si>
-  <si>
-    <t>28.01.202534</t>
-  </si>
-  <si>
-    <t>28.01.202535</t>
-  </si>
-  <si>
-    <t>28.01.202536</t>
-  </si>
-  <si>
-    <t>28.01.202537</t>
-  </si>
-  <si>
-    <t>28.01.202538</t>
-  </si>
-  <si>
-    <t>28.01.202539</t>
-  </si>
-  <si>
-    <t>28.01.202540</t>
-  </si>
-  <si>
-    <t>28.01.202541</t>
-  </si>
-  <si>
-    <t>28.01.202542</t>
-  </si>
-  <si>
-    <t>28.01.202543</t>
-  </si>
-  <si>
-    <t>28.01.202544</t>
-  </si>
-  <si>
-    <t>28.01.202545</t>
-  </si>
-  <si>
-    <t>28.01.202546</t>
-  </si>
-  <si>
-    <t>28.01.202547</t>
-  </si>
-  <si>
-    <t>28.01.202548</t>
-  </si>
-  <si>
-    <t>28.01.202549</t>
-  </si>
-  <si>
-    <t>28.01.202550</t>
-  </si>
-  <si>
-    <t>28.01.202551</t>
-  </si>
-  <si>
-    <t>28.01.202552</t>
-  </si>
-  <si>
-    <t>28.01.202553</t>
-  </si>
-  <si>
-    <t>28.01.202554</t>
-  </si>
-  <si>
-    <t>28.01.202555</t>
-  </si>
-  <si>
-    <t>28.01.202556</t>
-  </si>
-  <si>
-    <t>28.01.202557</t>
-  </si>
-  <si>
-    <t>28.01.202558</t>
-  </si>
-  <si>
-    <t>28.01.202559</t>
-  </si>
-  <si>
-    <t>28.01.202560</t>
-  </si>
-  <si>
-    <t>28.01.202561</t>
-  </si>
-  <si>
-    <t>28.01.202562</t>
-  </si>
-  <si>
-    <t>28.01.202563</t>
-  </si>
-  <si>
-    <t>28.01.202564</t>
-  </si>
-  <si>
-    <t>28.01.202565</t>
-  </si>
-  <si>
-    <t>28.01.202566</t>
-  </si>
-  <si>
-    <t>28.01.202567</t>
-  </si>
-  <si>
-    <t>28.01.202568</t>
-  </si>
-  <si>
-    <t>28.01.202569</t>
-  </si>
-  <si>
-    <t>28.01.202570</t>
-  </si>
-  <si>
-    <t>28.01.202571</t>
-  </si>
-  <si>
-    <t>28.01.202572</t>
-  </si>
-  <si>
-    <t>28.01.202573</t>
-  </si>
-  <si>
-    <t>28.01.202574</t>
-  </si>
-  <si>
-    <t>28.01.202575</t>
-  </si>
-  <si>
-    <t>28.01.202576</t>
-  </si>
-  <si>
-    <t>28.01.202577</t>
-  </si>
-  <si>
-    <t>28.01.202578</t>
-  </si>
-  <si>
-    <t>28.01.202579</t>
-  </si>
-  <si>
-    <t>28.01.202580</t>
-  </si>
-  <si>
-    <t>28.01.202581</t>
-  </si>
-  <si>
-    <t>28.01.202582</t>
-  </si>
-  <si>
-    <t>28.01.202583</t>
-  </si>
-  <si>
-    <t>28.01.202584</t>
-  </si>
-  <si>
-    <t>28.01.202585</t>
-  </si>
-  <si>
-    <t>28.01.202586</t>
-  </si>
-  <si>
-    <t>28.01.202587</t>
-  </si>
-  <si>
-    <t>28.01.202588</t>
-  </si>
-  <si>
-    <t>28.01.202589</t>
-  </si>
-  <si>
-    <t>28.01.202590</t>
-  </si>
-  <si>
-    <t>28.01.202591</t>
-  </si>
-  <si>
-    <t>28.01.202592</t>
-  </si>
-  <si>
-    <t>28.01.202593</t>
-  </si>
-  <si>
-    <t>28.01.202594</t>
-  </si>
-  <si>
-    <t>28.01.202595</t>
-  </si>
-  <si>
-    <t>28.01.202596</t>
-  </si>
-  <si>
-    <t>29.01.20251</t>
-  </si>
-  <si>
-    <t>29.01.20252</t>
-  </si>
-  <si>
-    <t>29.01.20253</t>
-  </si>
-  <si>
-    <t>29.01.20254</t>
-  </si>
-  <si>
-    <t>29.01.20255</t>
-  </si>
-  <si>
-    <t>29.01.20256</t>
-  </si>
-  <si>
-    <t>29.01.20257</t>
-  </si>
-  <si>
-    <t>29.01.20258</t>
-  </si>
-  <si>
-    <t>29.01.20259</t>
-  </si>
-  <si>
-    <t>29.01.202510</t>
-  </si>
-  <si>
-    <t>29.01.202511</t>
-  </si>
-  <si>
-    <t>29.01.202512</t>
-  </si>
-  <si>
-    <t>29.01.202513</t>
-  </si>
-  <si>
-    <t>29.01.202514</t>
-  </si>
-  <si>
-    <t>29.01.202515</t>
-  </si>
-  <si>
-    <t>29.01.202516</t>
-  </si>
-  <si>
-    <t>29.01.202517</t>
-  </si>
-  <si>
-    <t>29.01.202518</t>
-  </si>
-  <si>
-    <t>29.01.202519</t>
-  </si>
-  <si>
-    <t>29.01.202520</t>
-  </si>
-  <si>
-    <t>29.01.202521</t>
-  </si>
-  <si>
-    <t>29.01.202522</t>
-  </si>
-  <si>
-    <t>29.01.202523</t>
-  </si>
-  <si>
-    <t>29.01.202524</t>
-  </si>
-  <si>
-    <t>29.01.202525</t>
-  </si>
-  <si>
-    <t>29.01.202526</t>
-  </si>
-  <si>
-    <t>29.01.202527</t>
-  </si>
-  <si>
-    <t>29.01.202528</t>
-  </si>
-  <si>
-    <t>29.01.202529</t>
-  </si>
-  <si>
-    <t>29.01.202530</t>
-  </si>
-  <si>
-    <t>29.01.202531</t>
-  </si>
-  <si>
-    <t>29.01.202532</t>
-  </si>
-  <si>
-    <t>29.01.202533</t>
-  </si>
-  <si>
-    <t>29.01.202534</t>
-  </si>
-  <si>
-    <t>29.01.202535</t>
-  </si>
-  <si>
-    <t>29.01.202536</t>
-  </si>
-  <si>
-    <t>29.01.202537</t>
-  </si>
-  <si>
-    <t>29.01.202538</t>
-  </si>
-  <si>
-    <t>29.01.202539</t>
-  </si>
-  <si>
-    <t>29.01.202540</t>
-  </si>
-  <si>
-    <t>29.01.202541</t>
-  </si>
-  <si>
-    <t>29.01.202542</t>
-  </si>
-  <si>
-    <t>29.01.202543</t>
-  </si>
-  <si>
-    <t>29.01.202544</t>
-  </si>
-  <si>
-    <t>29.01.202545</t>
-  </si>
-  <si>
-    <t>29.01.202546</t>
-  </si>
-  <si>
-    <t>29.01.202547</t>
-  </si>
-  <si>
-    <t>29.01.202548</t>
-  </si>
-  <si>
-    <t>29.01.202549</t>
-  </si>
-  <si>
-    <t>29.01.202550</t>
-  </si>
-  <si>
-    <t>29.01.202551</t>
-  </si>
-  <si>
-    <t>29.01.202552</t>
-  </si>
-  <si>
-    <t>29.01.202553</t>
-  </si>
-  <si>
-    <t>29.01.202554</t>
-  </si>
-  <si>
-    <t>29.01.202555</t>
-  </si>
-  <si>
-    <t>29.01.202556</t>
-  </si>
-  <si>
-    <t>29.01.202557</t>
-  </si>
-  <si>
-    <t>29.01.202558</t>
-  </si>
-  <si>
-    <t>29.01.202559</t>
-  </si>
-  <si>
-    <t>29.01.202560</t>
-  </si>
-  <si>
-    <t>29.01.202561</t>
-  </si>
-  <si>
-    <t>29.01.202562</t>
-  </si>
-  <si>
-    <t>29.01.202563</t>
-  </si>
-  <si>
-    <t>29.01.202564</t>
-  </si>
-  <si>
-    <t>29.01.202565</t>
-  </si>
-  <si>
-    <t>29.01.202566</t>
-  </si>
-  <si>
-    <t>29.01.202567</t>
-  </si>
-  <si>
-    <t>29.01.202568</t>
-  </si>
-  <si>
-    <t>29.01.202569</t>
-  </si>
-  <si>
-    <t>29.01.202570</t>
-  </si>
-  <si>
-    <t>29.01.202571</t>
-  </si>
-  <si>
-    <t>29.01.202572</t>
-  </si>
-  <si>
-    <t>29.01.202573</t>
-  </si>
-  <si>
-    <t>29.01.202574</t>
-  </si>
-  <si>
-    <t>29.01.202575</t>
-  </si>
-  <si>
-    <t>29.01.202576</t>
-  </si>
-  <si>
-    <t>29.01.202577</t>
-  </si>
-  <si>
-    <t>29.01.202578</t>
-  </si>
-  <si>
-    <t>29.01.202579</t>
-  </si>
-  <si>
-    <t>29.01.202580</t>
-  </si>
-  <si>
-    <t>29.01.202581</t>
-  </si>
-  <si>
-    <t>29.01.202582</t>
-  </si>
-  <si>
-    <t>29.01.202583</t>
-  </si>
-  <si>
-    <t>29.01.202584</t>
-  </si>
-  <si>
-    <t>29.01.202585</t>
-  </si>
-  <si>
-    <t>29.01.202586</t>
-  </si>
-  <si>
-    <t>29.01.202587</t>
-  </si>
-  <si>
-    <t>29.01.202588</t>
-  </si>
-  <si>
-    <t>29.01.202589</t>
-  </si>
-  <si>
-    <t>29.01.202590</t>
-  </si>
-  <si>
-    <t>29.01.202591</t>
-  </si>
-  <si>
-    <t>29.01.202592</t>
-  </si>
-  <si>
-    <t>29.01.202593</t>
-  </si>
-  <si>
-    <t>29.01.202594</t>
-  </si>
-  <si>
-    <t>29.01.202595</t>
-  </si>
-  <si>
-    <t>29.01.202596</t>
-  </si>
-  <si>
-    <t>30.01.20251</t>
-  </si>
-  <si>
-    <t>30.01.20252</t>
-  </si>
-  <si>
-    <t>30.01.20253</t>
-  </si>
-  <si>
-    <t>30.01.20254</t>
-  </si>
-  <si>
-    <t>30.01.20255</t>
-  </si>
-  <si>
-    <t>30.01.20256</t>
-  </si>
-  <si>
-    <t>30.01.20257</t>
-  </si>
-  <si>
-    <t>30.01.20258</t>
-  </si>
-  <si>
-    <t>30.01.20259</t>
-  </si>
-  <si>
-    <t>30.01.202510</t>
-  </si>
-  <si>
-    <t>30.01.202511</t>
-  </si>
-  <si>
-    <t>30.01.202512</t>
-  </si>
-  <si>
-    <t>30.01.202513</t>
-  </si>
-  <si>
-    <t>30.01.202514</t>
-  </si>
-  <si>
-    <t>30.01.202515</t>
-  </si>
-  <si>
-    <t>30.01.202516</t>
-  </si>
-  <si>
-    <t>30.01.202517</t>
-  </si>
-  <si>
-    <t>30.01.202518</t>
-  </si>
-  <si>
-    <t>30.01.202519</t>
-  </si>
-  <si>
-    <t>30.01.202520</t>
-  </si>
-  <si>
-    <t>30.01.202521</t>
-  </si>
-  <si>
-    <t>30.01.202522</t>
-  </si>
-  <si>
-    <t>30.01.202523</t>
-  </si>
-  <si>
-    <t>30.01.202524</t>
-  </si>
-  <si>
-    <t>30.01.202525</t>
-  </si>
-  <si>
-    <t>30.01.202526</t>
-  </si>
-  <si>
-    <t>30.01.202527</t>
-  </si>
-  <si>
-    <t>30.01.202528</t>
-  </si>
-  <si>
-    <t>30.01.202529</t>
-  </si>
-  <si>
-    <t>30.01.202530</t>
-  </si>
-  <si>
-    <t>30.01.202531</t>
-  </si>
-  <si>
-    <t>30.01.202532</t>
-  </si>
-  <si>
-    <t>30.01.202533</t>
-  </si>
-  <si>
-    <t>30.01.202534</t>
-  </si>
-  <si>
-    <t>30.01.202535</t>
-  </si>
-  <si>
-    <t>30.01.202536</t>
-  </si>
-  <si>
-    <t>30.01.202537</t>
-  </si>
-  <si>
-    <t>30.01.202538</t>
-  </si>
-  <si>
-    <t>30.01.202539</t>
-  </si>
-  <si>
-    <t>30.01.202540</t>
-  </si>
-  <si>
-    <t>30.01.202541</t>
-  </si>
-  <si>
-    <t>30.01.202542</t>
-  </si>
-  <si>
-    <t>30.01.202543</t>
-  </si>
-  <si>
-    <t>30.01.202544</t>
-  </si>
-  <si>
-    <t>30.01.202545</t>
-  </si>
-  <si>
-    <t>30.01.202546</t>
-  </si>
-  <si>
-    <t>30.01.202547</t>
-  </si>
-  <si>
-    <t>30.01.202548</t>
-  </si>
-  <si>
-    <t>30.01.202549</t>
-  </si>
-  <si>
-    <t>30.01.202550</t>
-  </si>
-  <si>
-    <t>30.01.202551</t>
-  </si>
-  <si>
-    <t>30.01.202552</t>
-  </si>
-  <si>
-    <t>30.01.202553</t>
-  </si>
-  <si>
-    <t>30.01.202554</t>
-  </si>
-  <si>
-    <t>30.01.202555</t>
-  </si>
-  <si>
-    <t>30.01.202556</t>
-  </si>
-  <si>
-    <t>30.01.202557</t>
-  </si>
-  <si>
-    <t>30.01.202558</t>
-  </si>
-  <si>
-    <t>30.01.202559</t>
-  </si>
-  <si>
-    <t>30.01.202560</t>
-  </si>
-  <si>
-    <t>30.01.202561</t>
-  </si>
-  <si>
-    <t>30.01.202562</t>
-  </si>
-  <si>
-    <t>30.01.202563</t>
-  </si>
-  <si>
-    <t>30.01.202564</t>
-  </si>
-  <si>
-    <t>30.01.202565</t>
-  </si>
-  <si>
-    <t>30.01.202566</t>
-  </si>
-  <si>
-    <t>30.01.202567</t>
-  </si>
-  <si>
-    <t>30.01.202568</t>
-  </si>
-  <si>
-    <t>30.01.202569</t>
-  </si>
-  <si>
-    <t>30.01.202570</t>
-  </si>
-  <si>
-    <t>30.01.202571</t>
-  </si>
-  <si>
-    <t>30.01.202572</t>
-  </si>
-  <si>
-    <t>30.01.202573</t>
-  </si>
-  <si>
-    <t>30.01.202574</t>
-  </si>
-  <si>
-    <t>30.01.202575</t>
-  </si>
-  <si>
-    <t>30.01.202576</t>
-  </si>
-  <si>
-    <t>30.01.202577</t>
-  </si>
-  <si>
-    <t>30.01.202578</t>
-  </si>
-  <si>
-    <t>30.01.202579</t>
-  </si>
-  <si>
-    <t>30.01.202580</t>
-  </si>
-  <si>
-    <t>30.01.202581</t>
-  </si>
-  <si>
-    <t>30.01.202582</t>
-  </si>
-  <si>
-    <t>30.01.202583</t>
-  </si>
-  <si>
-    <t>30.01.202584</t>
-  </si>
-  <si>
-    <t>30.01.202585</t>
-  </si>
-  <si>
-    <t>30.01.202586</t>
-  </si>
-  <si>
-    <t>30.01.202587</t>
-  </si>
-  <si>
-    <t>30.01.202588</t>
-  </si>
-  <si>
-    <t>30.01.202589</t>
-  </si>
-  <si>
-    <t>30.01.202590</t>
-  </si>
-  <si>
-    <t>30.01.202591</t>
-  </si>
-  <si>
-    <t>30.01.202592</t>
-  </si>
-  <si>
-    <t>30.01.202593</t>
-  </si>
-  <si>
-    <t>30.01.202594</t>
-  </si>
-  <si>
-    <t>30.01.202595</t>
-  </si>
-  <si>
-    <t>30.01.202596</t>
+    <t>14.03.20251</t>
+  </si>
+  <si>
+    <t>14.03.20252</t>
+  </si>
+  <si>
+    <t>14.03.20253</t>
+  </si>
+  <si>
+    <t>14.03.20254</t>
+  </si>
+  <si>
+    <t>14.03.20255</t>
+  </si>
+  <si>
+    <t>14.03.20256</t>
+  </si>
+  <si>
+    <t>14.03.20257</t>
+  </si>
+  <si>
+    <t>14.03.20258</t>
+  </si>
+  <si>
+    <t>14.03.20259</t>
+  </si>
+  <si>
+    <t>14.03.202510</t>
+  </si>
+  <si>
+    <t>14.03.202511</t>
+  </si>
+  <si>
+    <t>14.03.202512</t>
+  </si>
+  <si>
+    <t>14.03.202513</t>
+  </si>
+  <si>
+    <t>14.03.202514</t>
+  </si>
+  <si>
+    <t>14.03.202515</t>
+  </si>
+  <si>
+    <t>14.03.202516</t>
+  </si>
+  <si>
+    <t>14.03.202517</t>
+  </si>
+  <si>
+    <t>14.03.202518</t>
+  </si>
+  <si>
+    <t>14.03.202519</t>
+  </si>
+  <si>
+    <t>14.03.202520</t>
+  </si>
+  <si>
+    <t>14.03.202521</t>
+  </si>
+  <si>
+    <t>14.03.202522</t>
+  </si>
+  <si>
+    <t>14.03.202523</t>
+  </si>
+  <si>
+    <t>14.03.202524</t>
+  </si>
+  <si>
+    <t>14.03.202525</t>
+  </si>
+  <si>
+    <t>14.03.202526</t>
+  </si>
+  <si>
+    <t>14.03.202527</t>
+  </si>
+  <si>
+    <t>14.03.202528</t>
+  </si>
+  <si>
+    <t>14.03.202529</t>
+  </si>
+  <si>
+    <t>14.03.202530</t>
+  </si>
+  <si>
+    <t>14.03.202531</t>
+  </si>
+  <si>
+    <t>14.03.202532</t>
+  </si>
+  <si>
+    <t>14.03.202533</t>
+  </si>
+  <si>
+    <t>14.03.202534</t>
+  </si>
+  <si>
+    <t>14.03.202535</t>
+  </si>
+  <si>
+    <t>14.03.202536</t>
+  </si>
+  <si>
+    <t>14.03.202537</t>
+  </si>
+  <si>
+    <t>14.03.202538</t>
+  </si>
+  <si>
+    <t>14.03.202539</t>
+  </si>
+  <si>
+    <t>14.03.202540</t>
+  </si>
+  <si>
+    <t>14.03.202541</t>
+  </si>
+  <si>
+    <t>14.03.202542</t>
+  </si>
+  <si>
+    <t>14.03.202543</t>
+  </si>
+  <si>
+    <t>14.03.202544</t>
+  </si>
+  <si>
+    <t>14.03.202545</t>
+  </si>
+  <si>
+    <t>14.03.202546</t>
+  </si>
+  <si>
+    <t>14.03.202547</t>
+  </si>
+  <si>
+    <t>14.03.202548</t>
+  </si>
+  <si>
+    <t>14.03.202549</t>
+  </si>
+  <si>
+    <t>14.03.202550</t>
+  </si>
+  <si>
+    <t>14.03.202551</t>
+  </si>
+  <si>
+    <t>14.03.202552</t>
+  </si>
+  <si>
+    <t>14.03.202553</t>
+  </si>
+  <si>
+    <t>14.03.202554</t>
+  </si>
+  <si>
+    <t>14.03.202555</t>
+  </si>
+  <si>
+    <t>14.03.202556</t>
+  </si>
+  <si>
+    <t>14.03.202557</t>
+  </si>
+  <si>
+    <t>14.03.202558</t>
+  </si>
+  <si>
+    <t>14.03.202559</t>
+  </si>
+  <si>
+    <t>14.03.202560</t>
+  </si>
+  <si>
+    <t>14.03.202561</t>
+  </si>
+  <si>
+    <t>14.03.202562</t>
+  </si>
+  <si>
+    <t>14.03.202563</t>
+  </si>
+  <si>
+    <t>14.03.202564</t>
+  </si>
+  <si>
+    <t>14.03.202565</t>
+  </si>
+  <si>
+    <t>14.03.202566</t>
+  </si>
+  <si>
+    <t>14.03.202567</t>
+  </si>
+  <si>
+    <t>14.03.202568</t>
+  </si>
+  <si>
+    <t>14.03.202569</t>
+  </si>
+  <si>
+    <t>14.03.202570</t>
+  </si>
+  <si>
+    <t>14.03.202571</t>
+  </si>
+  <si>
+    <t>14.03.202572</t>
+  </si>
+  <si>
+    <t>14.03.202573</t>
+  </si>
+  <si>
+    <t>14.03.202574</t>
+  </si>
+  <si>
+    <t>14.03.202575</t>
+  </si>
+  <si>
+    <t>14.03.202576</t>
+  </si>
+  <si>
+    <t>14.03.202577</t>
+  </si>
+  <si>
+    <t>14.03.202578</t>
+  </si>
+  <si>
+    <t>14.03.202579</t>
+  </si>
+  <si>
+    <t>14.03.202580</t>
+  </si>
+  <si>
+    <t>14.03.202581</t>
+  </si>
+  <si>
+    <t>14.03.202582</t>
+  </si>
+  <si>
+    <t>14.03.202583</t>
+  </si>
+  <si>
+    <t>14.03.202584</t>
+  </si>
+  <si>
+    <t>14.03.202585</t>
+  </si>
+  <si>
+    <t>14.03.202586</t>
+  </si>
+  <si>
+    <t>14.03.202587</t>
+  </si>
+  <si>
+    <t>14.03.202588</t>
+  </si>
+  <si>
+    <t>14.03.202589</t>
+  </si>
+  <si>
+    <t>14.03.202590</t>
+  </si>
+  <si>
+    <t>14.03.202591</t>
+  </si>
+  <si>
+    <t>14.03.202592</t>
+  </si>
+  <si>
+    <t>14.03.202593</t>
+  </si>
+  <si>
+    <t>14.03.202594</t>
+  </si>
+  <si>
+    <t>14.03.202595</t>
+  </si>
+  <si>
+    <t>14.03.202596</t>
+  </si>
+  <si>
+    <t>15.03.20251</t>
+  </si>
+  <si>
+    <t>15.03.20252</t>
+  </si>
+  <si>
+    <t>15.03.20253</t>
+  </si>
+  <si>
+    <t>15.03.20254</t>
+  </si>
+  <si>
+    <t>15.03.20255</t>
+  </si>
+  <si>
+    <t>15.03.20256</t>
+  </si>
+  <si>
+    <t>15.03.20257</t>
+  </si>
+  <si>
+    <t>15.03.20258</t>
+  </si>
+  <si>
+    <t>15.03.20259</t>
+  </si>
+  <si>
+    <t>15.03.202510</t>
+  </si>
+  <si>
+    <t>15.03.202511</t>
+  </si>
+  <si>
+    <t>15.03.202512</t>
+  </si>
+  <si>
+    <t>15.03.202513</t>
+  </si>
+  <si>
+    <t>15.03.202514</t>
+  </si>
+  <si>
+    <t>15.03.202515</t>
+  </si>
+  <si>
+    <t>15.03.202516</t>
+  </si>
+  <si>
+    <t>15.03.202517</t>
+  </si>
+  <si>
+    <t>15.03.202518</t>
+  </si>
+  <si>
+    <t>15.03.202519</t>
+  </si>
+  <si>
+    <t>15.03.202520</t>
+  </si>
+  <si>
+    <t>15.03.202521</t>
+  </si>
+  <si>
+    <t>15.03.202522</t>
+  </si>
+  <si>
+    <t>15.03.202523</t>
+  </si>
+  <si>
+    <t>15.03.202524</t>
+  </si>
+  <si>
+    <t>15.03.202525</t>
+  </si>
+  <si>
+    <t>15.03.202526</t>
+  </si>
+  <si>
+    <t>15.03.202527</t>
+  </si>
+  <si>
+    <t>15.03.202528</t>
+  </si>
+  <si>
+    <t>15.03.202529</t>
+  </si>
+  <si>
+    <t>15.03.202530</t>
+  </si>
+  <si>
+    <t>15.03.202531</t>
+  </si>
+  <si>
+    <t>15.03.202532</t>
+  </si>
+  <si>
+    <t>15.03.202533</t>
+  </si>
+  <si>
+    <t>15.03.202534</t>
+  </si>
+  <si>
+    <t>15.03.202535</t>
+  </si>
+  <si>
+    <t>15.03.202536</t>
+  </si>
+  <si>
+    <t>15.03.202537</t>
+  </si>
+  <si>
+    <t>15.03.202538</t>
+  </si>
+  <si>
+    <t>15.03.202539</t>
+  </si>
+  <si>
+    <t>15.03.202540</t>
+  </si>
+  <si>
+    <t>15.03.202541</t>
+  </si>
+  <si>
+    <t>15.03.202542</t>
+  </si>
+  <si>
+    <t>15.03.202543</t>
+  </si>
+  <si>
+    <t>15.03.202544</t>
+  </si>
+  <si>
+    <t>15.03.202545</t>
+  </si>
+  <si>
+    <t>15.03.202546</t>
+  </si>
+  <si>
+    <t>15.03.202547</t>
+  </si>
+  <si>
+    <t>15.03.202548</t>
+  </si>
+  <si>
+    <t>15.03.202549</t>
+  </si>
+  <si>
+    <t>15.03.202550</t>
+  </si>
+  <si>
+    <t>15.03.202551</t>
+  </si>
+  <si>
+    <t>15.03.202552</t>
+  </si>
+  <si>
+    <t>15.03.202553</t>
+  </si>
+  <si>
+    <t>15.03.202554</t>
+  </si>
+  <si>
+    <t>15.03.202555</t>
+  </si>
+  <si>
+    <t>15.03.202556</t>
+  </si>
+  <si>
+    <t>15.03.202557</t>
+  </si>
+  <si>
+    <t>15.03.202558</t>
+  </si>
+  <si>
+    <t>15.03.202559</t>
+  </si>
+  <si>
+    <t>15.03.202560</t>
+  </si>
+  <si>
+    <t>15.03.202561</t>
+  </si>
+  <si>
+    <t>15.03.202562</t>
+  </si>
+  <si>
+    <t>15.03.202563</t>
+  </si>
+  <si>
+    <t>15.03.202564</t>
+  </si>
+  <si>
+    <t>15.03.202565</t>
+  </si>
+  <si>
+    <t>15.03.202566</t>
+  </si>
+  <si>
+    <t>15.03.202567</t>
+  </si>
+  <si>
+    <t>15.03.202568</t>
+  </si>
+  <si>
+    <t>15.03.202569</t>
+  </si>
+  <si>
+    <t>15.03.202570</t>
+  </si>
+  <si>
+    <t>15.03.202571</t>
+  </si>
+  <si>
+    <t>15.03.202572</t>
+  </si>
+  <si>
+    <t>15.03.202573</t>
+  </si>
+  <si>
+    <t>15.03.202574</t>
+  </si>
+  <si>
+    <t>15.03.202575</t>
+  </si>
+  <si>
+    <t>15.03.202576</t>
+  </si>
+  <si>
+    <t>15.03.202577</t>
+  </si>
+  <si>
+    <t>15.03.202578</t>
+  </si>
+  <si>
+    <t>15.03.202579</t>
+  </si>
+  <si>
+    <t>15.03.202580</t>
+  </si>
+  <si>
+    <t>15.03.202581</t>
+  </si>
+  <si>
+    <t>15.03.202582</t>
+  </si>
+  <si>
+    <t>15.03.202583</t>
+  </si>
+  <si>
+    <t>15.03.202584</t>
+  </si>
+  <si>
+    <t>15.03.202585</t>
+  </si>
+  <si>
+    <t>15.03.202586</t>
+  </si>
+  <si>
+    <t>15.03.202587</t>
+  </si>
+  <si>
+    <t>15.03.202588</t>
+  </si>
+  <si>
+    <t>15.03.202589</t>
+  </si>
+  <si>
+    <t>15.03.202590</t>
+  </si>
+  <si>
+    <t>15.03.202591</t>
+  </si>
+  <si>
+    <t>15.03.202592</t>
+  </si>
+  <si>
+    <t>15.03.202593</t>
+  </si>
+  <si>
+    <t>15.03.202594</t>
+  </si>
+  <si>
+    <t>15.03.202595</t>
+  </si>
+  <si>
+    <t>15.03.202596</t>
+  </si>
+  <si>
+    <t>16.03.20251</t>
+  </si>
+  <si>
+    <t>16.03.20252</t>
+  </si>
+  <si>
+    <t>16.03.20253</t>
+  </si>
+  <si>
+    <t>16.03.20254</t>
+  </si>
+  <si>
+    <t>16.03.20255</t>
+  </si>
+  <si>
+    <t>16.03.20256</t>
+  </si>
+  <si>
+    <t>16.03.20257</t>
+  </si>
+  <si>
+    <t>16.03.20258</t>
+  </si>
+  <si>
+    <t>16.03.20259</t>
+  </si>
+  <si>
+    <t>16.03.202510</t>
+  </si>
+  <si>
+    <t>16.03.202511</t>
+  </si>
+  <si>
+    <t>16.03.202512</t>
+  </si>
+  <si>
+    <t>16.03.202513</t>
+  </si>
+  <si>
+    <t>16.03.202514</t>
+  </si>
+  <si>
+    <t>16.03.202515</t>
+  </si>
+  <si>
+    <t>16.03.202516</t>
+  </si>
+  <si>
+    <t>16.03.202517</t>
+  </si>
+  <si>
+    <t>16.03.202518</t>
+  </si>
+  <si>
+    <t>16.03.202519</t>
+  </si>
+  <si>
+    <t>16.03.202520</t>
+  </si>
+  <si>
+    <t>16.03.202521</t>
+  </si>
+  <si>
+    <t>16.03.202522</t>
+  </si>
+  <si>
+    <t>16.03.202523</t>
+  </si>
+  <si>
+    <t>16.03.202524</t>
+  </si>
+  <si>
+    <t>16.03.202525</t>
+  </si>
+  <si>
+    <t>16.03.202526</t>
+  </si>
+  <si>
+    <t>16.03.202527</t>
+  </si>
+  <si>
+    <t>16.03.202528</t>
+  </si>
+  <si>
+    <t>16.03.202529</t>
+  </si>
+  <si>
+    <t>16.03.202530</t>
+  </si>
+  <si>
+    <t>16.03.202531</t>
+  </si>
+  <si>
+    <t>16.03.202532</t>
+  </si>
+  <si>
+    <t>16.03.202533</t>
+  </si>
+  <si>
+    <t>16.03.202534</t>
+  </si>
+  <si>
+    <t>16.03.202535</t>
+  </si>
+  <si>
+    <t>16.03.202536</t>
+  </si>
+  <si>
+    <t>16.03.202537</t>
+  </si>
+  <si>
+    <t>16.03.202538</t>
+  </si>
+  <si>
+    <t>16.03.202539</t>
+  </si>
+  <si>
+    <t>16.03.202540</t>
+  </si>
+  <si>
+    <t>16.03.202541</t>
+  </si>
+  <si>
+    <t>16.03.202542</t>
+  </si>
+  <si>
+    <t>16.03.202543</t>
+  </si>
+  <si>
+    <t>16.03.202544</t>
+  </si>
+  <si>
+    <t>16.03.202545</t>
+  </si>
+  <si>
+    <t>16.03.202546</t>
+  </si>
+  <si>
+    <t>16.03.202547</t>
+  </si>
+  <si>
+    <t>16.03.202548</t>
+  </si>
+  <si>
+    <t>16.03.202549</t>
+  </si>
+  <si>
+    <t>16.03.202550</t>
+  </si>
+  <si>
+    <t>16.03.202551</t>
+  </si>
+  <si>
+    <t>16.03.202552</t>
+  </si>
+  <si>
+    <t>16.03.202553</t>
+  </si>
+  <si>
+    <t>16.03.202554</t>
+  </si>
+  <si>
+    <t>16.03.202555</t>
+  </si>
+  <si>
+    <t>16.03.202556</t>
+  </si>
+  <si>
+    <t>16.03.202557</t>
+  </si>
+  <si>
+    <t>16.03.202558</t>
+  </si>
+  <si>
+    <t>16.03.202559</t>
+  </si>
+  <si>
+    <t>16.03.202560</t>
+  </si>
+  <si>
+    <t>16.03.202561</t>
+  </si>
+  <si>
+    <t>16.03.202562</t>
+  </si>
+  <si>
+    <t>16.03.202563</t>
+  </si>
+  <si>
+    <t>16.03.202564</t>
+  </si>
+  <si>
+    <t>16.03.202565</t>
+  </si>
+  <si>
+    <t>16.03.202566</t>
+  </si>
+  <si>
+    <t>16.03.202567</t>
+  </si>
+  <si>
+    <t>16.03.202568</t>
+  </si>
+  <si>
+    <t>16.03.202569</t>
+  </si>
+  <si>
+    <t>16.03.202570</t>
+  </si>
+  <si>
+    <t>16.03.202571</t>
+  </si>
+  <si>
+    <t>16.03.202572</t>
+  </si>
+  <si>
+    <t>16.03.202573</t>
+  </si>
+  <si>
+    <t>16.03.202574</t>
+  </si>
+  <si>
+    <t>16.03.202575</t>
+  </si>
+  <si>
+    <t>16.03.202576</t>
+  </si>
+  <si>
+    <t>16.03.202577</t>
+  </si>
+  <si>
+    <t>16.03.202578</t>
+  </si>
+  <si>
+    <t>16.03.202579</t>
+  </si>
+  <si>
+    <t>16.03.202580</t>
+  </si>
+  <si>
+    <t>16.03.202581</t>
+  </si>
+  <si>
+    <t>16.03.202582</t>
+  </si>
+  <si>
+    <t>16.03.202583</t>
+  </si>
+  <si>
+    <t>16.03.202584</t>
+  </si>
+  <si>
+    <t>16.03.202585</t>
+  </si>
+  <si>
+    <t>16.03.202586</t>
+  </si>
+  <si>
+    <t>16.03.202587</t>
+  </si>
+  <si>
+    <t>16.03.202588</t>
+  </si>
+  <si>
+    <t>16.03.202589</t>
+  </si>
+  <si>
+    <t>16.03.202590</t>
+  </si>
+  <si>
+    <t>16.03.202591</t>
+  </si>
+  <si>
+    <t>16.03.202592</t>
+  </si>
+  <si>
+    <t>16.03.202593</t>
+  </si>
+  <si>
+    <t>16.03.202594</t>
+  </si>
+  <si>
+    <t>16.03.202595</t>
+  </si>
+  <si>
+    <t>16.03.202596</t>
+  </si>
+  <si>
+    <t>17.03.20251</t>
+  </si>
+  <si>
+    <t>17.03.20252</t>
+  </si>
+  <si>
+    <t>17.03.20253</t>
+  </si>
+  <si>
+    <t>17.03.20254</t>
+  </si>
+  <si>
+    <t>17.03.20255</t>
+  </si>
+  <si>
+    <t>17.03.20256</t>
+  </si>
+  <si>
+    <t>17.03.20257</t>
+  </si>
+  <si>
+    <t>17.03.20258</t>
+  </si>
+  <si>
+    <t>17.03.20259</t>
+  </si>
+  <si>
+    <t>17.03.202510</t>
+  </si>
+  <si>
+    <t>17.03.202511</t>
+  </si>
+  <si>
+    <t>17.03.202512</t>
+  </si>
+  <si>
+    <t>17.03.202513</t>
+  </si>
+  <si>
+    <t>17.03.202514</t>
+  </si>
+  <si>
+    <t>17.03.202515</t>
+  </si>
+  <si>
+    <t>17.03.202516</t>
+  </si>
+  <si>
+    <t>17.03.202517</t>
+  </si>
+  <si>
+    <t>17.03.202518</t>
+  </si>
+  <si>
+    <t>17.03.202519</t>
+  </si>
+  <si>
+    <t>17.03.202520</t>
+  </si>
+  <si>
+    <t>17.03.202521</t>
+  </si>
+  <si>
+    <t>17.03.202522</t>
+  </si>
+  <si>
+    <t>17.03.202523</t>
+  </si>
+  <si>
+    <t>17.03.202524</t>
+  </si>
+  <si>
+    <t>17.03.202525</t>
+  </si>
+  <si>
+    <t>17.03.202526</t>
+  </si>
+  <si>
+    <t>17.03.202527</t>
+  </si>
+  <si>
+    <t>17.03.202528</t>
+  </si>
+  <si>
+    <t>17.03.202529</t>
+  </si>
+  <si>
+    <t>17.03.202530</t>
+  </si>
+  <si>
+    <t>17.03.202531</t>
+  </si>
+  <si>
+    <t>17.03.202532</t>
+  </si>
+  <si>
+    <t>17.03.202533</t>
+  </si>
+  <si>
+    <t>17.03.202534</t>
+  </si>
+  <si>
+    <t>17.03.202535</t>
+  </si>
+  <si>
+    <t>17.03.202536</t>
+  </si>
+  <si>
+    <t>17.03.202537</t>
+  </si>
+  <si>
+    <t>17.03.202538</t>
+  </si>
+  <si>
+    <t>17.03.202539</t>
+  </si>
+  <si>
+    <t>17.03.202540</t>
+  </si>
+  <si>
+    <t>17.03.202541</t>
+  </si>
+  <si>
+    <t>17.03.202542</t>
+  </si>
+  <si>
+    <t>17.03.202543</t>
+  </si>
+  <si>
+    <t>17.03.202544</t>
+  </si>
+  <si>
+    <t>17.03.202545</t>
+  </si>
+  <si>
+    <t>17.03.202546</t>
+  </si>
+  <si>
+    <t>17.03.202547</t>
+  </si>
+  <si>
+    <t>17.03.202548</t>
+  </si>
+  <si>
+    <t>17.03.202549</t>
+  </si>
+  <si>
+    <t>17.03.202550</t>
+  </si>
+  <si>
+    <t>17.03.202551</t>
+  </si>
+  <si>
+    <t>17.03.202552</t>
+  </si>
+  <si>
+    <t>17.03.202553</t>
+  </si>
+  <si>
+    <t>17.03.202554</t>
+  </si>
+  <si>
+    <t>17.03.202555</t>
+  </si>
+  <si>
+    <t>17.03.202556</t>
+  </si>
+  <si>
+    <t>17.03.202557</t>
+  </si>
+  <si>
+    <t>17.03.202558</t>
+  </si>
+  <si>
+    <t>17.03.202559</t>
+  </si>
+  <si>
+    <t>17.03.202560</t>
+  </si>
+  <si>
+    <t>17.03.202561</t>
+  </si>
+  <si>
+    <t>17.03.202562</t>
+  </si>
+  <si>
+    <t>17.03.202563</t>
+  </si>
+  <si>
+    <t>17.03.202564</t>
+  </si>
+  <si>
+    <t>17.03.202565</t>
+  </si>
+  <si>
+    <t>17.03.202566</t>
+  </si>
+  <si>
+    <t>17.03.202567</t>
+  </si>
+  <si>
+    <t>17.03.202568</t>
+  </si>
+  <si>
+    <t>17.03.202569</t>
+  </si>
+  <si>
+    <t>17.03.202570</t>
+  </si>
+  <si>
+    <t>17.03.202571</t>
+  </si>
+  <si>
+    <t>17.03.202572</t>
+  </si>
+  <si>
+    <t>17.03.202573</t>
+  </si>
+  <si>
+    <t>17.03.202574</t>
+  </si>
+  <si>
+    <t>17.03.202575</t>
+  </si>
+  <si>
+    <t>17.03.202576</t>
+  </si>
+  <si>
+    <t>17.03.202577</t>
+  </si>
+  <si>
+    <t>17.03.202578</t>
+  </si>
+  <si>
+    <t>17.03.202579</t>
+  </si>
+  <si>
+    <t>17.03.202580</t>
+  </si>
+  <si>
+    <t>17.03.202581</t>
+  </si>
+  <si>
+    <t>17.03.202582</t>
+  </si>
+  <si>
+    <t>17.03.202583</t>
+  </si>
+  <si>
+    <t>17.03.202584</t>
+  </si>
+  <si>
+    <t>17.03.202585</t>
+  </si>
+  <si>
+    <t>17.03.202586</t>
+  </si>
+  <si>
+    <t>17.03.202587</t>
+  </si>
+  <si>
+    <t>17.03.202588</t>
+  </si>
+  <si>
+    <t>17.03.202589</t>
+  </si>
+  <si>
+    <t>17.03.202590</t>
+  </si>
+  <si>
+    <t>17.03.202591</t>
+  </si>
+  <si>
+    <t>17.03.202592</t>
+  </si>
+  <si>
+    <t>17.03.202593</t>
+  </si>
+  <si>
+    <t>17.03.202594</t>
+  </si>
+  <si>
+    <t>17.03.202595</t>
+  </si>
+  <si>
+    <t>17.03.202596</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D289"/>
+  <dimension ref="A1:D385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1273,10 +1561,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45685</v>
+        <v>45730</v>
       </c>
       <c r="B2">
-        <v>5894</v>
+        <v>5564</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1287,10 +1575,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45685.01041666666</v>
+        <v>45730.01041666666</v>
       </c>
       <c r="B3">
-        <v>5877</v>
+        <v>5548</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1301,10 +1589,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45685.02083333334</v>
+        <v>45730.02083333334</v>
       </c>
       <c r="B4">
-        <v>5808</v>
+        <v>5543</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1315,10 +1603,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45685.03125</v>
+        <v>45730.03125</v>
       </c>
       <c r="B5">
-        <v>5787</v>
+        <v>5537</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1329,10 +1617,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45685.04166666666</v>
+        <v>45730.04166666666</v>
       </c>
       <c r="B6">
-        <v>5759</v>
+        <v>5465</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1343,10 +1631,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45685.05208333334</v>
+        <v>45730.05208333334</v>
       </c>
       <c r="B7">
-        <v>5747</v>
+        <v>5465</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1357,10 +1645,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45685.0625</v>
+        <v>45730.0625</v>
       </c>
       <c r="B8">
-        <v>5738</v>
+        <v>5371</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1371,10 +1659,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45685.07291666666</v>
+        <v>45730.07291666666</v>
       </c>
       <c r="B9">
-        <v>5732</v>
+        <v>5325</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1385,10 +1673,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45685.08333333334</v>
+        <v>45730.08333333334</v>
       </c>
       <c r="B10">
-        <v>5691</v>
+        <v>5383</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1399,10 +1687,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45685.09375</v>
+        <v>45730.09375</v>
       </c>
       <c r="B11">
-        <v>5709</v>
+        <v>5339</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1413,10 +1701,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45685.10416666666</v>
+        <v>45730.10416666666</v>
       </c>
       <c r="B12">
-        <v>5700</v>
+        <v>5319</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1427,10 +1715,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45685.11458333334</v>
+        <v>45730.11458333334</v>
       </c>
       <c r="B13">
-        <v>5741</v>
+        <v>5270</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1441,10 +1729,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45685.125</v>
+        <v>45730.125</v>
       </c>
       <c r="B14">
-        <v>5732</v>
+        <v>5328</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1455,10 +1743,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45685.13541666666</v>
+        <v>45730.13541666666</v>
       </c>
       <c r="B15">
-        <v>5727</v>
+        <v>5372</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1469,10 +1757,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45685.14583333334</v>
+        <v>45730.14583333334</v>
       </c>
       <c r="B16">
-        <v>5753</v>
+        <v>5358</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1483,10 +1771,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45685.15625</v>
+        <v>45730.15625</v>
       </c>
       <c r="B17">
-        <v>5798</v>
+        <v>5435</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1497,10 +1785,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45685.16666666666</v>
+        <v>45730.16666666666</v>
       </c>
       <c r="B18">
-        <v>5923</v>
+        <v>5557</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1511,10 +1799,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45685.17708333334</v>
+        <v>45730.17708333334</v>
       </c>
       <c r="B19">
-        <v>5953</v>
+        <v>5653</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1525,10 +1813,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45685.1875</v>
+        <v>45730.1875</v>
       </c>
       <c r="B20">
-        <v>6088</v>
+        <v>5735</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1539,10 +1827,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45685.19791666666</v>
+        <v>45730.19791666666</v>
       </c>
       <c r="B21">
-        <v>6156</v>
+        <v>5823</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1553,10 +1841,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45685.20833333334</v>
+        <v>45730.20833333334</v>
       </c>
       <c r="B22">
-        <v>6346</v>
+        <v>6011</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1567,10 +1855,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45685.21875</v>
+        <v>45730.21875</v>
       </c>
       <c r="B23">
-        <v>6547</v>
+        <v>6076</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1581,10 +1869,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45685.22916666666</v>
+        <v>45730.22916666666</v>
       </c>
       <c r="B24">
-        <v>6733</v>
+        <v>6176</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1595,10 +1883,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45685.23958333334</v>
+        <v>45730.23958333334</v>
       </c>
       <c r="B25">
-        <v>6955</v>
+        <v>6266</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1609,10 +1897,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45685.25</v>
+        <v>45730.25</v>
       </c>
       <c r="B26">
-        <v>7307</v>
+        <v>6450</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1623,10 +1911,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45685.26041666666</v>
+        <v>45730.26041666666</v>
       </c>
       <c r="B27">
-        <v>7464</v>
+        <v>6495</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1637,10 +1925,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45685.27083333334</v>
+        <v>45730.27083333334</v>
       </c>
       <c r="B28">
-        <v>7598</v>
+        <v>6561</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1651,10 +1939,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45685.28125</v>
+        <v>45730.28125</v>
       </c>
       <c r="B29">
-        <v>7665</v>
+        <v>6573</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1665,10 +1953,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45685.29166666666</v>
+        <v>45730.29166666666</v>
       </c>
       <c r="B30">
-        <v>7857</v>
+        <v>6545</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1679,10 +1967,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45685.30208333334</v>
+        <v>45730.30208333334</v>
       </c>
       <c r="B31">
-        <v>7967</v>
+        <v>6577</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1693,10 +1981,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45685.3125</v>
+        <v>45730.3125</v>
       </c>
       <c r="B32">
-        <v>7929</v>
+        <v>6580</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1707,10 +1995,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45685.32291666666</v>
+        <v>45730.32291666666</v>
       </c>
       <c r="B33">
-        <v>7935</v>
+        <v>6528</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1721,10 +2009,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45685.33333333334</v>
+        <v>45730.33333333334</v>
       </c>
       <c r="B34">
-        <v>7784</v>
+        <v>6398</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1735,10 +2023,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45685.34375</v>
+        <v>45730.34375</v>
       </c>
       <c r="B35">
-        <v>7730</v>
+        <v>6399</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1749,10 +2037,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45685.35416666666</v>
+        <v>45730.35416666666</v>
       </c>
       <c r="B36">
-        <v>7532</v>
+        <v>6369</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1763,10 +2051,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45685.36458333334</v>
+        <v>45730.36458333334</v>
       </c>
       <c r="B37">
-        <v>7321</v>
+        <v>6284</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1777,10 +2065,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45685.375</v>
+        <v>45730.375</v>
       </c>
       <c r="B38">
-        <v>7160</v>
+        <v>6175</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1791,10 +2079,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45685.38541666666</v>
+        <v>45730.38541666666</v>
       </c>
       <c r="B39">
-        <v>7039</v>
+        <v>6123</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1805,10 +2093,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45685.39583333334</v>
+        <v>45730.39583333334</v>
       </c>
       <c r="B40">
-        <v>6920</v>
+        <v>6095</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1819,10 +2107,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45685.40625</v>
+        <v>45730.40625</v>
       </c>
       <c r="B41">
-        <v>6797</v>
+        <v>6059</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1833,10 +2121,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45685.41666666666</v>
+        <v>45730.41666666666</v>
       </c>
       <c r="B42">
-        <v>6631</v>
+        <v>6000</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1847,10 +2135,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45685.42708333334</v>
+        <v>45730.42708333334</v>
       </c>
       <c r="B43">
-        <v>6588</v>
+        <v>5879</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1861,10 +2149,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45685.4375</v>
+        <v>45730.4375</v>
       </c>
       <c r="B44">
-        <v>6540</v>
+        <v>5805</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1875,10 +2163,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45685.44791666666</v>
+        <v>45730.44791666666</v>
       </c>
       <c r="B45">
-        <v>6459</v>
+        <v>5790</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1889,10 +2177,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45685.45833333334</v>
+        <v>45730.45833333334</v>
       </c>
       <c r="B46">
-        <v>6300</v>
+        <v>5672</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1903,10 +2191,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45685.46875</v>
+        <v>45730.46875</v>
       </c>
       <c r="B47">
-        <v>6330</v>
+        <v>5616</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1917,10 +2205,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45685.47916666666</v>
+        <v>45730.47916666666</v>
       </c>
       <c r="B48">
-        <v>6299</v>
+        <v>5675</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1931,10 +2219,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45685.48958333334</v>
+        <v>45730.48958333334</v>
       </c>
       <c r="B49">
-        <v>6325</v>
+        <v>5690</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1945,10 +2233,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45685.5</v>
+        <v>45730.5</v>
       </c>
       <c r="B50">
-        <v>6288</v>
+        <v>5752</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1959,10 +2247,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45685.51041666666</v>
+        <v>45730.51041666666</v>
       </c>
       <c r="B51">
-        <v>6293</v>
+        <v>5764</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1973,10 +2261,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45685.52083333334</v>
+        <v>45730.52083333334</v>
       </c>
       <c r="B52">
-        <v>6280</v>
+        <v>5863</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1987,10 +2275,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45685.53125</v>
+        <v>45730.53125</v>
       </c>
       <c r="B53">
-        <v>6344</v>
+        <v>5971</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -2001,10 +2289,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45685.54166666666</v>
+        <v>45730.54166666666</v>
       </c>
       <c r="B54">
-        <v>6405</v>
+        <v>5974</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -2015,10 +2303,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45685.55208333334</v>
+        <v>45730.55208333334</v>
       </c>
       <c r="B55">
-        <v>6333</v>
+        <v>6075</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -2029,10 +2317,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45685.5625</v>
+        <v>45730.5625</v>
       </c>
       <c r="B56">
-        <v>6377</v>
+        <v>6092</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -2043,10 +2331,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45685.57291666666</v>
+        <v>45730.57291666666</v>
       </c>
       <c r="B57">
-        <v>6384</v>
+        <v>6119</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -2057,10 +2345,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45685.58333333334</v>
+        <v>45730.58333333334</v>
       </c>
       <c r="B58">
-        <v>6508</v>
+        <v>6185</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -2071,10 +2359,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45685.59375</v>
+        <v>45730.59375</v>
       </c>
       <c r="B59">
-        <v>6585</v>
+        <v>6109</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -2085,10 +2373,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45685.60416666666</v>
+        <v>45730.60416666666</v>
       </c>
       <c r="B60">
-        <v>6667</v>
+        <v>6144</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -2099,10 +2387,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45685.61458333334</v>
+        <v>45730.61458333334</v>
       </c>
       <c r="B61">
-        <v>6819</v>
+        <v>6195</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -2113,10 +2401,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45685.625</v>
+        <v>45730.625</v>
       </c>
       <c r="B62">
-        <v>6884</v>
+        <v>6284</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -2127,10 +2415,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45685.63541666666</v>
+        <v>45730.63541666666</v>
       </c>
       <c r="B63">
-        <v>7053</v>
+        <v>6313</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -2141,10 +2429,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45685.64583333334</v>
+        <v>45730.64583333334</v>
       </c>
       <c r="B64">
-        <v>7171</v>
+        <v>6357</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -2155,10 +2443,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45685.65625</v>
+        <v>45730.65625</v>
       </c>
       <c r="B65">
-        <v>7280</v>
+        <v>6425</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -2169,10 +2457,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45685.66666666666</v>
+        <v>45730.66666666666</v>
       </c>
       <c r="B66">
-        <v>7477</v>
+        <v>6550</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -2183,10 +2471,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45685.67708333334</v>
+        <v>45730.67708333334</v>
       </c>
       <c r="B67">
-        <v>7589</v>
+        <v>6634</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -2197,10 +2485,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45685.6875</v>
+        <v>45730.6875</v>
       </c>
       <c r="B68">
-        <v>7824</v>
+        <v>6640</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -2211,10 +2499,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45685.69791666666</v>
+        <v>45730.69791666666</v>
       </c>
       <c r="B69">
-        <v>7960</v>
+        <v>6800</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -2225,10 +2513,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45685.70833333334</v>
+        <v>45730.70833333334</v>
       </c>
       <c r="B70">
-        <v>7987</v>
+        <v>6872</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -2239,10 +2527,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45685.71875</v>
+        <v>45730.71875</v>
       </c>
       <c r="B71">
-        <v>8019</v>
+        <v>6983</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -2253,10 +2541,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45685.72916666666</v>
+        <v>45730.72916666666</v>
       </c>
       <c r="B72">
-        <v>8020</v>
+        <v>7183</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -2267,10 +2555,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45685.73958333334</v>
+        <v>45730.73958333334</v>
       </c>
       <c r="B73">
-        <v>7998</v>
+        <v>7319</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -2281,10 +2569,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45685.75</v>
+        <v>45730.75</v>
       </c>
       <c r="B74">
-        <v>7977</v>
+        <v>7462</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -2295,10 +2583,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45685.76041666666</v>
+        <v>45730.76041666666</v>
       </c>
       <c r="B75">
-        <v>7975</v>
+        <v>7511</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -2309,10 +2597,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45685.77083333334</v>
+        <v>45730.77083333334</v>
       </c>
       <c r="B76">
-        <v>7951</v>
+        <v>7502</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -2323,10 +2611,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45685.78125</v>
+        <v>45730.78125</v>
       </c>
       <c r="B77">
-        <v>7926</v>
+        <v>7538</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -2337,10 +2625,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45685.79166666666</v>
+        <v>45730.79166666666</v>
       </c>
       <c r="B78">
-        <v>7861</v>
+        <v>7450</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -2351,10 +2639,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45685.80208333334</v>
+        <v>45730.80208333334</v>
       </c>
       <c r="B79">
-        <v>7807</v>
+        <v>7385</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -2365,10 +2653,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45685.8125</v>
+        <v>45730.8125</v>
       </c>
       <c r="B80">
-        <v>7757</v>
+        <v>7330</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -2379,10 +2667,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45685.82291666666</v>
+        <v>45730.82291666666</v>
       </c>
       <c r="B81">
-        <v>7675</v>
+        <v>7267</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -2393,10 +2681,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45685.83333333334</v>
+        <v>45730.83333333334</v>
       </c>
       <c r="B82">
-        <v>7584</v>
+        <v>7111</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -2407,10 +2695,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45685.84375</v>
+        <v>45730.84375</v>
       </c>
       <c r="B83">
-        <v>7454</v>
+        <v>7008</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -2421,10 +2709,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45685.85416666666</v>
+        <v>45730.85416666666</v>
       </c>
       <c r="B84">
-        <v>7342</v>
+        <v>6944</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -2435,10 +2723,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45685.86458333334</v>
+        <v>45730.86458333334</v>
       </c>
       <c r="B85">
-        <v>7184</v>
+        <v>6782</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -2449,10 +2737,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45685.875</v>
+        <v>45730.875</v>
       </c>
       <c r="B86">
-        <v>6965</v>
+        <v>6547</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -2463,10 +2751,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45685.88541666666</v>
+        <v>45730.88541666666</v>
       </c>
       <c r="B87">
-        <v>6880</v>
+        <v>6386</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -2477,10 +2765,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45685.89583333334</v>
+        <v>45730.89583333334</v>
       </c>
       <c r="B88">
-        <v>6690</v>
+        <v>6293</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -2491,10 +2779,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45685.90625</v>
+        <v>45730.90625</v>
       </c>
       <c r="B89">
-        <v>6564</v>
+        <v>6186</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -2505,10 +2793,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45685.91666666666</v>
+        <v>45730.91666666666</v>
       </c>
       <c r="B90">
-        <v>6461</v>
+        <v>6045</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -2519,10 +2807,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45685.92708333334</v>
+        <v>45730.92708333334</v>
       </c>
       <c r="B91">
-        <v>6353</v>
+        <v>5956</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -2533,10 +2821,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45685.9375</v>
+        <v>45730.9375</v>
       </c>
       <c r="B92">
-        <v>6263</v>
+        <v>5801</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -2547,10 +2835,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45685.94791666666</v>
+        <v>45730.94791666666</v>
       </c>
       <c r="B93">
-        <v>6155</v>
+        <v>5747</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -2561,10 +2849,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45685.95833333334</v>
+        <v>45730.95833333334</v>
       </c>
       <c r="B94">
-        <v>6094</v>
+        <v>5692</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -2575,10 +2863,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45685.96875</v>
+        <v>45730.96875</v>
       </c>
       <c r="B95">
-        <v>6022</v>
+        <v>5633</v>
       </c>
       <c r="C95">
         <v>94</v>
@@ -2589,10 +2877,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45685.97916666666</v>
+        <v>45730.97916666666</v>
       </c>
       <c r="B96">
-        <v>5932</v>
+        <v>5587</v>
       </c>
       <c r="C96">
         <v>95</v>
@@ -2603,10 +2891,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>45685.98958333334</v>
+        <v>45730.98958333334</v>
       </c>
       <c r="B97">
-        <v>5951</v>
+        <v>5584</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -2617,10 +2905,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>45686</v>
+        <v>45731</v>
       </c>
       <c r="B98">
-        <v>5890</v>
+        <v>5476</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2631,10 +2919,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>45686.01041666666</v>
+        <v>45731.01041666666</v>
       </c>
       <c r="B99">
-        <v>5815</v>
+        <v>5449</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2645,10 +2933,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>45686.02083333334</v>
+        <v>45731.02083333334</v>
       </c>
       <c r="B100">
-        <v>5740</v>
+        <v>5369</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2659,10 +2947,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>45686.03125</v>
+        <v>45731.03125</v>
       </c>
       <c r="B101">
-        <v>5724</v>
+        <v>5368</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2673,10 +2961,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>45686.04166666666</v>
+        <v>45731.04166666666</v>
       </c>
       <c r="B102">
-        <v>5739</v>
+        <v>5308</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2687,10 +2975,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>45686.05208333334</v>
+        <v>45731.05208333334</v>
       </c>
       <c r="B103">
-        <v>5739</v>
+        <v>5303</v>
       </c>
       <c r="C103">
         <v>6</v>
@@ -2701,10 +2989,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>45686.0625</v>
+        <v>45731.0625</v>
       </c>
       <c r="B104">
-        <v>5712</v>
+        <v>5265</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -2715,10 +3003,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>45686.07291666666</v>
+        <v>45731.07291666666</v>
       </c>
       <c r="B105">
-        <v>5636</v>
+        <v>5255</v>
       </c>
       <c r="C105">
         <v>8</v>
@@ -2729,10 +3017,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>45686.08333333334</v>
+        <v>45731.08333333334</v>
       </c>
       <c r="B106">
-        <v>5678</v>
+        <v>5275</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -2743,10 +3031,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>45686.09375</v>
+        <v>45731.09375</v>
       </c>
       <c r="B107">
-        <v>5700</v>
+        <v>5231</v>
       </c>
       <c r="C107">
         <v>10</v>
@@ -2757,10 +3045,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>45686.10416666666</v>
+        <v>45731.10416666666</v>
       </c>
       <c r="B108">
-        <v>5734</v>
+        <v>5291</v>
       </c>
       <c r="C108">
         <v>11</v>
@@ -2771,10 +3059,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>45686.11458333334</v>
+        <v>45731.11458333334</v>
       </c>
       <c r="B109">
-        <v>5645</v>
+        <v>5212</v>
       </c>
       <c r="C109">
         <v>12</v>
@@ -2785,10 +3073,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>45686.125</v>
+        <v>45731.125</v>
       </c>
       <c r="B110">
-        <v>5722</v>
+        <v>5282</v>
       </c>
       <c r="C110">
         <v>13</v>
@@ -2799,10 +3087,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>45686.13541666666</v>
+        <v>45731.13541666666</v>
       </c>
       <c r="B111">
-        <v>5715</v>
+        <v>5350</v>
       </c>
       <c r="C111">
         <v>14</v>
@@ -2813,10 +3101,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>45686.14583333334</v>
+        <v>45731.14583333334</v>
       </c>
       <c r="B112">
-        <v>5821</v>
+        <v>5280</v>
       </c>
       <c r="C112">
         <v>15</v>
@@ -2827,10 +3115,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>45686.15625</v>
+        <v>45731.15625</v>
       </c>
       <c r="B113">
-        <v>5860</v>
+        <v>5333</v>
       </c>
       <c r="C113">
         <v>16</v>
@@ -2841,10 +3129,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>45686.16666666666</v>
+        <v>45731.16666666666</v>
       </c>
       <c r="B114">
-        <v>5927</v>
+        <v>5321</v>
       </c>
       <c r="C114">
         <v>17</v>
@@ -2855,10 +3143,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>45686.17708333334</v>
+        <v>45731.17708333334</v>
       </c>
       <c r="B115">
-        <v>6021</v>
+        <v>5375</v>
       </c>
       <c r="C115">
         <v>18</v>
@@ -2869,10 +3157,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>45686.1875</v>
+        <v>45731.1875</v>
       </c>
       <c r="B116">
-        <v>6085</v>
+        <v>5375</v>
       </c>
       <c r="C116">
         <v>19</v>
@@ -2883,10 +3171,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>45686.19791666666</v>
+        <v>45731.19791666666</v>
       </c>
       <c r="B117">
-        <v>6245</v>
+        <v>5362</v>
       </c>
       <c r="C117">
         <v>20</v>
@@ -2897,10 +3185,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>45686.20833333334</v>
+        <v>45731.20833333334</v>
       </c>
       <c r="B118">
-        <v>6358</v>
+        <v>5382</v>
       </c>
       <c r="C118">
         <v>21</v>
@@ -2911,10 +3199,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>45686.21875</v>
+        <v>45731.21875</v>
       </c>
       <c r="B119">
-        <v>6546</v>
+        <v>5440</v>
       </c>
       <c r="C119">
         <v>22</v>
@@ -2925,10 +3213,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>45686.22916666666</v>
+        <v>45731.22916666666</v>
       </c>
       <c r="B120">
-        <v>6725</v>
+        <v>5416</v>
       </c>
       <c r="C120">
         <v>23</v>
@@ -2939,10 +3227,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>45686.23958333334</v>
+        <v>45731.23958333334</v>
       </c>
       <c r="B121">
-        <v>6922</v>
+        <v>5388</v>
       </c>
       <c r="C121">
         <v>24</v>
@@ -2953,10 +3241,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>45686.25</v>
+        <v>45731.25</v>
       </c>
       <c r="B122">
-        <v>7220</v>
+        <v>5532</v>
       </c>
       <c r="C122">
         <v>25</v>
@@ -2967,10 +3255,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>45686.26041666666</v>
+        <v>45731.26041666666</v>
       </c>
       <c r="B123">
-        <v>7356</v>
+        <v>5565</v>
       </c>
       <c r="C123">
         <v>26</v>
@@ -2981,10 +3269,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>45686.27083333334</v>
+        <v>45731.27083333334</v>
       </c>
       <c r="B124">
-        <v>7492</v>
+        <v>5652</v>
       </c>
       <c r="C124">
         <v>27</v>
@@ -2995,10 +3283,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>45686.28125</v>
+        <v>45731.28125</v>
       </c>
       <c r="B125">
-        <v>7547</v>
+        <v>5722</v>
       </c>
       <c r="C125">
         <v>28</v>
@@ -3009,10 +3297,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>45686.29166666666</v>
+        <v>45731.29166666666</v>
       </c>
       <c r="B126">
-        <v>7737</v>
+        <v>5667</v>
       </c>
       <c r="C126">
         <v>29</v>
@@ -3023,10 +3311,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>45686.30208333334</v>
+        <v>45731.30208333334</v>
       </c>
       <c r="B127">
-        <v>7780</v>
+        <v>5687</v>
       </c>
       <c r="C127">
         <v>30</v>
@@ -3037,10 +3325,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>45686.3125</v>
+        <v>45731.3125</v>
       </c>
       <c r="B128">
-        <v>7759</v>
+        <v>5684</v>
       </c>
       <c r="C128">
         <v>31</v>
@@ -3051,10 +3339,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>45686.32291666666</v>
+        <v>45731.32291666666</v>
       </c>
       <c r="B129">
-        <v>7619</v>
+        <v>5698</v>
       </c>
       <c r="C129">
         <v>32</v>
@@ -3065,10 +3353,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>45686.33333333334</v>
+        <v>45731.33333333334</v>
       </c>
       <c r="B130">
-        <v>7603</v>
+        <v>5715</v>
       </c>
       <c r="C130">
         <v>33</v>
@@ -3079,10 +3367,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>45686.34375</v>
+        <v>45731.34375</v>
       </c>
       <c r="B131">
-        <v>7569</v>
+        <v>5739</v>
       </c>
       <c r="C131">
         <v>34</v>
@@ -3093,10 +3381,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>45686.35416666666</v>
+        <v>45731.35416666666</v>
       </c>
       <c r="B132">
-        <v>7462</v>
+        <v>5750</v>
       </c>
       <c r="C132">
         <v>35</v>
@@ -3107,10 +3395,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>45686.36458333334</v>
+        <v>45731.36458333334</v>
       </c>
       <c r="B133">
-        <v>7295</v>
+        <v>5730</v>
       </c>
       <c r="C133">
         <v>36</v>
@@ -3121,10 +3409,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>45686.375</v>
+        <v>45731.375</v>
       </c>
       <c r="B134">
-        <v>7206</v>
+        <v>5698</v>
       </c>
       <c r="C134">
         <v>37</v>
@@ -3135,10 +3423,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>45686.38541666666</v>
+        <v>45731.38541666666</v>
       </c>
       <c r="B135">
-        <v>7105</v>
+        <v>5735</v>
       </c>
       <c r="C135">
         <v>38</v>
@@ -3149,10 +3437,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>45686.39583333334</v>
+        <v>45731.39583333334</v>
       </c>
       <c r="B136">
-        <v>6925</v>
+        <v>5711</v>
       </c>
       <c r="C136">
         <v>39</v>
@@ -3163,10 +3451,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>45686.40625</v>
+        <v>45731.40625</v>
       </c>
       <c r="B137">
-        <v>6817</v>
+        <v>5742</v>
       </c>
       <c r="C137">
         <v>40</v>
@@ -3177,10 +3465,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>45686.41666666666</v>
+        <v>45731.41666666666</v>
       </c>
       <c r="B138">
-        <v>6626</v>
+        <v>5697</v>
       </c>
       <c r="C138">
         <v>41</v>
@@ -3191,10 +3479,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>45686.42708333334</v>
+        <v>45731.42708333334</v>
       </c>
       <c r="B139">
-        <v>6483</v>
+        <v>5794</v>
       </c>
       <c r="C139">
         <v>42</v>
@@ -3205,10 +3493,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>45686.4375</v>
+        <v>45731.4375</v>
       </c>
       <c r="B140">
-        <v>6408</v>
+        <v>5763</v>
       </c>
       <c r="C140">
         <v>43</v>
@@ -3219,10 +3507,10 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>45686.44791666666</v>
+        <v>45731.44791666666</v>
       </c>
       <c r="B141">
-        <v>6336</v>
+        <v>5783</v>
       </c>
       <c r="C141">
         <v>44</v>
@@ -3233,10 +3521,10 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>45686.45833333334</v>
+        <v>45731.45833333334</v>
       </c>
       <c r="B142">
-        <v>6273</v>
+        <v>5737</v>
       </c>
       <c r="C142">
         <v>45</v>
@@ -3247,10 +3535,10 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>45686.46875</v>
+        <v>45731.46875</v>
       </c>
       <c r="B143">
-        <v>6243</v>
+        <v>5690</v>
       </c>
       <c r="C143">
         <v>46</v>
@@ -3261,10 +3549,10 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>45686.47916666666</v>
+        <v>45731.47916666666</v>
       </c>
       <c r="B144">
-        <v>6208</v>
+        <v>5624</v>
       </c>
       <c r="C144">
         <v>47</v>
@@ -3275,10 +3563,10 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>45686.48958333334</v>
+        <v>45731.48958333334</v>
       </c>
       <c r="B145">
-        <v>6172</v>
+        <v>5651</v>
       </c>
       <c r="C145">
         <v>48</v>
@@ -3289,10 +3577,10 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>45686.5</v>
+        <v>45731.5</v>
       </c>
       <c r="B146">
-        <v>6220</v>
+        <v>5671</v>
       </c>
       <c r="C146">
         <v>49</v>
@@ -3303,10 +3591,10 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>45686.51041666666</v>
+        <v>45731.51041666666</v>
       </c>
       <c r="B147">
-        <v>6231</v>
+        <v>5687</v>
       </c>
       <c r="C147">
         <v>50</v>
@@ -3317,10 +3605,10 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>45686.52083333334</v>
+        <v>45731.52083333334</v>
       </c>
       <c r="B148">
-        <v>6258</v>
+        <v>5676</v>
       </c>
       <c r="C148">
         <v>51</v>
@@ -3331,10 +3619,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>45686.53125</v>
+        <v>45731.53125</v>
       </c>
       <c r="B149">
-        <v>6210</v>
+        <v>5666</v>
       </c>
       <c r="C149">
         <v>52</v>
@@ -3345,10 +3633,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>45686.54166666666</v>
+        <v>45731.54166666666</v>
       </c>
       <c r="B150">
-        <v>6218</v>
+        <v>5643</v>
       </c>
       <c r="C150">
         <v>53</v>
@@ -3359,10 +3647,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>45686.55208333334</v>
+        <v>45731.55208333334</v>
       </c>
       <c r="B151">
-        <v>6293</v>
+        <v>5644</v>
       </c>
       <c r="C151">
         <v>54</v>
@@ -3373,10 +3661,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>45686.5625</v>
+        <v>45731.5625</v>
       </c>
       <c r="B152">
-        <v>6325</v>
+        <v>5567</v>
       </c>
       <c r="C152">
         <v>55</v>
@@ -3387,10 +3675,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>45686.57291666666</v>
+        <v>45731.57291666666</v>
       </c>
       <c r="B153">
-        <v>6345</v>
+        <v>5556</v>
       </c>
       <c r="C153">
         <v>56</v>
@@ -3401,10 +3689,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>45686.58333333334</v>
+        <v>45731.58333333334</v>
       </c>
       <c r="B154">
-        <v>6504</v>
+        <v>5625</v>
       </c>
       <c r="C154">
         <v>57</v>
@@ -3415,10 +3703,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>45686.59375</v>
+        <v>45731.59375</v>
       </c>
       <c r="B155">
-        <v>6630</v>
+        <v>5615</v>
       </c>
       <c r="C155">
         <v>58</v>
@@ -3429,10 +3717,10 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>45686.60416666666</v>
+        <v>45731.60416666666</v>
       </c>
       <c r="B156">
-        <v>6699</v>
+        <v>5626</v>
       </c>
       <c r="C156">
         <v>59</v>
@@ -3443,10 +3731,10 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>45686.61458333334</v>
+        <v>45731.61458333334</v>
       </c>
       <c r="B157">
-        <v>6830</v>
+        <v>5700</v>
       </c>
       <c r="C157">
         <v>60</v>
@@ -3457,10 +3745,10 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>45686.625</v>
+        <v>45731.625</v>
       </c>
       <c r="B158">
-        <v>6974</v>
+        <v>5814</v>
       </c>
       <c r="C158">
         <v>61</v>
@@ -3471,10 +3759,10 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>45686.63541666666</v>
+        <v>45731.63541666666</v>
       </c>
       <c r="B159">
-        <v>7045</v>
+        <v>5889</v>
       </c>
       <c r="C159">
         <v>62</v>
@@ -3485,10 +3773,10 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>45686.64583333334</v>
+        <v>45731.64583333334</v>
       </c>
       <c r="B160">
-        <v>7151</v>
+        <v>5941</v>
       </c>
       <c r="C160">
         <v>63</v>
@@ -3499,10 +3787,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>45686.65625</v>
+        <v>45731.65625</v>
       </c>
       <c r="B161">
-        <v>7253</v>
+        <v>6021</v>
       </c>
       <c r="C161">
         <v>64</v>
@@ -3513,10 +3801,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>45686.66666666666</v>
+        <v>45731.66666666666</v>
       </c>
       <c r="B162">
-        <v>7414</v>
+        <v>6102</v>
       </c>
       <c r="C162">
         <v>65</v>
@@ -3527,10 +3815,10 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>45686.67708333334</v>
+        <v>45731.67708333334</v>
       </c>
       <c r="B163">
-        <v>7541</v>
+        <v>6172</v>
       </c>
       <c r="C163">
         <v>66</v>
@@ -3541,10 +3829,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>45686.6875</v>
+        <v>45731.6875</v>
       </c>
       <c r="B164">
-        <v>7780</v>
+        <v>6262</v>
       </c>
       <c r="C164">
         <v>67</v>
@@ -3555,10 +3843,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>45686.69791666666</v>
+        <v>45731.69791666666</v>
       </c>
       <c r="B165">
-        <v>7990</v>
+        <v>6353</v>
       </c>
       <c r="C165">
         <v>68</v>
@@ -3569,10 +3857,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>45686.70833333334</v>
+        <v>45731.70833333334</v>
       </c>
       <c r="B166">
-        <v>8047</v>
+        <v>6405</v>
       </c>
       <c r="C166">
         <v>69</v>
@@ -3583,10 +3871,10 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>45686.71875</v>
+        <v>45731.71875</v>
       </c>
       <c r="B167">
-        <v>8097</v>
+        <v>6518</v>
       </c>
       <c r="C167">
         <v>70</v>
@@ -3597,10 +3885,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>45686.72916666666</v>
+        <v>45731.72916666666</v>
       </c>
       <c r="B168">
-        <v>8092</v>
+        <v>6688</v>
       </c>
       <c r="C168">
         <v>71</v>
@@ -3611,10 +3899,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>45686.73958333334</v>
+        <v>45731.73958333334</v>
       </c>
       <c r="B169">
-        <v>8074</v>
+        <v>6859</v>
       </c>
       <c r="C169">
         <v>72</v>
@@ -3625,10 +3913,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>45686.75</v>
+        <v>45731.75</v>
       </c>
       <c r="B170">
-        <v>8085</v>
+        <v>6938</v>
       </c>
       <c r="C170">
         <v>73</v>
@@ -3639,10 +3927,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>45686.76041666666</v>
+        <v>45731.76041666666</v>
       </c>
       <c r="B171">
-        <v>8092</v>
+        <v>6961</v>
       </c>
       <c r="C171">
         <v>74</v>
@@ -3653,10 +3941,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>45686.77083333334</v>
+        <v>45731.77083333334</v>
       </c>
       <c r="B172">
-        <v>8016</v>
+        <v>6976</v>
       </c>
       <c r="C172">
         <v>75</v>
@@ -3667,10 +3955,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>45686.78125</v>
+        <v>45731.78125</v>
       </c>
       <c r="B173">
-        <v>8031</v>
+        <v>7001</v>
       </c>
       <c r="C173">
         <v>76</v>
@@ -3681,10 +3969,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>45686.79166666666</v>
+        <v>45731.79166666666</v>
       </c>
       <c r="B174">
-        <v>7962</v>
+        <v>6990</v>
       </c>
       <c r="C174">
         <v>77</v>
@@ -3695,10 +3983,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>45686.80208333334</v>
+        <v>45731.80208333334</v>
       </c>
       <c r="B175">
-        <v>7901</v>
+        <v>6924</v>
       </c>
       <c r="C175">
         <v>78</v>
@@ -3709,10 +3997,10 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>45686.8125</v>
+        <v>45731.8125</v>
       </c>
       <c r="B176">
-        <v>7862</v>
+        <v>6877</v>
       </c>
       <c r="C176">
         <v>79</v>
@@ -3723,10 +4011,10 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>45686.82291666666</v>
+        <v>45731.82291666666</v>
       </c>
       <c r="B177">
-        <v>7740</v>
+        <v>6777</v>
       </c>
       <c r="C177">
         <v>80</v>
@@ -3737,10 +4025,10 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>45686.83333333334</v>
+        <v>45731.83333333334</v>
       </c>
       <c r="B178">
-        <v>7634</v>
+        <v>6627</v>
       </c>
       <c r="C178">
         <v>81</v>
@@ -3751,10 +4039,10 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>45686.84375</v>
+        <v>45731.84375</v>
       </c>
       <c r="B179">
-        <v>7513</v>
+        <v>6547</v>
       </c>
       <c r="C179">
         <v>82</v>
@@ -3765,10 +4053,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>45686.85416666666</v>
+        <v>45731.85416666666</v>
       </c>
       <c r="B180">
-        <v>7409</v>
+        <v>6426</v>
       </c>
       <c r="C180">
         <v>83</v>
@@ -3779,10 +4067,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>45686.86458333334</v>
+        <v>45731.86458333334</v>
       </c>
       <c r="B181">
-        <v>7263</v>
+        <v>6325</v>
       </c>
       <c r="C181">
         <v>84</v>
@@ -3793,10 +4081,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>45686.875</v>
+        <v>45731.875</v>
       </c>
       <c r="B182">
-        <v>7023</v>
+        <v>6133</v>
       </c>
       <c r="C182">
         <v>85</v>
@@ -3807,10 +4095,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>45686.88541666666</v>
+        <v>45731.88541666666</v>
       </c>
       <c r="B183">
-        <v>6871</v>
+        <v>6038</v>
       </c>
       <c r="C183">
         <v>86</v>
@@ -3821,10 +4109,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>45686.89583333334</v>
+        <v>45731.89583333334</v>
       </c>
       <c r="B184">
-        <v>6763</v>
+        <v>5920</v>
       </c>
       <c r="C184">
         <v>87</v>
@@ -3835,10 +4123,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>45686.90625</v>
+        <v>45731.90625</v>
       </c>
       <c r="B185">
-        <v>6593</v>
+        <v>5745</v>
       </c>
       <c r="C185">
         <v>88</v>
@@ -3849,10 +4137,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>45686.91666666666</v>
+        <v>45731.91666666666</v>
       </c>
       <c r="B186">
-        <v>6490</v>
+        <v>5649</v>
       </c>
       <c r="C186">
         <v>89</v>
@@ -3863,10 +4151,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>45686.92708333334</v>
+        <v>45731.92708333334</v>
       </c>
       <c r="B187">
-        <v>6361</v>
+        <v>5562</v>
       </c>
       <c r="C187">
         <v>90</v>
@@ -3877,10 +4165,10 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>45686.9375</v>
+        <v>45731.9375</v>
       </c>
       <c r="B188">
-        <v>6307</v>
+        <v>5476</v>
       </c>
       <c r="C188">
         <v>91</v>
@@ -3891,10 +4179,10 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>45686.94791666666</v>
+        <v>45731.94791666666</v>
       </c>
       <c r="B189">
-        <v>6221</v>
+        <v>5338</v>
       </c>
       <c r="C189">
         <v>92</v>
@@ -3905,10 +4193,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>45686.95833333334</v>
+        <v>45731.95833333334</v>
       </c>
       <c r="B190">
-        <v>6122</v>
+        <v>5326</v>
       </c>
       <c r="C190">
         <v>93</v>
@@ -3919,10 +4207,10 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>45686.96875</v>
+        <v>45731.96875</v>
       </c>
       <c r="B191">
-        <v>6018</v>
+        <v>5275</v>
       </c>
       <c r="C191">
         <v>94</v>
@@ -3933,10 +4221,10 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>45686.97916666666</v>
+        <v>45731.97916666666</v>
       </c>
       <c r="B192">
-        <v>5987</v>
+        <v>5216</v>
       </c>
       <c r="C192">
         <v>95</v>
@@ -3947,10 +4235,10 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>45686.98958333334</v>
+        <v>45731.98958333334</v>
       </c>
       <c r="B193">
-        <v>5980</v>
+        <v>5118</v>
       </c>
       <c r="C193">
         <v>96</v>
@@ -3961,10 +4249,10 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>45687</v>
+        <v>45732</v>
       </c>
       <c r="B194">
-        <v>5892</v>
+        <v>5118</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -3975,10 +4263,10 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>45687.01041666666</v>
+        <v>45732.01041666666</v>
       </c>
       <c r="B195">
-        <v>5894</v>
+        <v>5077</v>
       </c>
       <c r="C195">
         <v>2</v>
@@ -3989,10 +4277,10 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>45687.02083333334</v>
+        <v>45732.02083333334</v>
       </c>
       <c r="B196">
-        <v>5784</v>
+        <v>5038</v>
       </c>
       <c r="C196">
         <v>3</v>
@@ -4003,10 +4291,10 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>45687.03125</v>
+        <v>45732.03125</v>
       </c>
       <c r="B197">
-        <v>5818</v>
+        <v>4990</v>
       </c>
       <c r="C197">
         <v>4</v>
@@ -4017,10 +4305,10 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>45687.04166666666</v>
+        <v>45732.04166666666</v>
       </c>
       <c r="B198">
-        <v>5706</v>
+        <v>4998</v>
       </c>
       <c r="C198">
         <v>5</v>
@@ -4031,10 +4319,10 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>45687.05208333334</v>
+        <v>45732.05208333334</v>
       </c>
       <c r="B199">
-        <v>5723</v>
+        <v>4932</v>
       </c>
       <c r="C199">
         <v>6</v>
@@ -4045,10 +4333,10 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>45687.0625</v>
+        <v>45732.0625</v>
       </c>
       <c r="B200">
-        <v>5704</v>
+        <v>4947</v>
       </c>
       <c r="C200">
         <v>7</v>
@@ -4059,10 +4347,10 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>45687.07291666666</v>
+        <v>45732.07291666666</v>
       </c>
       <c r="B201">
-        <v>5674</v>
+        <v>4860</v>
       </c>
       <c r="C201">
         <v>8</v>
@@ -4073,10 +4361,10 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>45687.08333333334</v>
+        <v>45732.08333333334</v>
       </c>
       <c r="B202">
-        <v>5633</v>
+        <v>4835</v>
       </c>
       <c r="C202">
         <v>9</v>
@@ -4087,10 +4375,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>45687.09375</v>
+        <v>45732.09375</v>
       </c>
       <c r="B203">
-        <v>5677</v>
+        <v>4860</v>
       </c>
       <c r="C203">
         <v>10</v>
@@ -4101,10 +4389,10 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>45687.10416666666</v>
+        <v>45732.10416666666</v>
       </c>
       <c r="B204">
-        <v>5635</v>
+        <v>4882</v>
       </c>
       <c r="C204">
         <v>11</v>
@@ -4115,10 +4403,10 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>45687.11458333334</v>
+        <v>45732.11458333334</v>
       </c>
       <c r="B205">
-        <v>5713</v>
+        <v>4850</v>
       </c>
       <c r="C205">
         <v>12</v>
@@ -4129,10 +4417,10 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>45687.125</v>
+        <v>45732.125</v>
       </c>
       <c r="B206">
-        <v>5654</v>
+        <v>4932</v>
       </c>
       <c r="C206">
         <v>13</v>
@@ -4143,10 +4431,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>45687.13541666666</v>
+        <v>45732.13541666666</v>
       </c>
       <c r="B207">
-        <v>5689</v>
+        <v>4900</v>
       </c>
       <c r="C207">
         <v>14</v>
@@ -4157,10 +4445,10 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>45687.14583333334</v>
+        <v>45732.14583333334</v>
       </c>
       <c r="B208">
-        <v>5683</v>
+        <v>4854</v>
       </c>
       <c r="C208">
         <v>15</v>
@@ -4171,10 +4459,10 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>45687.15625</v>
+        <v>45732.15625</v>
       </c>
       <c r="B209">
-        <v>5799</v>
+        <v>4863</v>
       </c>
       <c r="C209">
         <v>16</v>
@@ -4185,10 +4473,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>45687.16666666666</v>
+        <v>45732.16666666666</v>
       </c>
       <c r="B210">
-        <v>5884</v>
+        <v>4933</v>
       </c>
       <c r="C210">
         <v>17</v>
@@ -4199,10 +4487,10 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>45687.17708333334</v>
+        <v>45732.17708333334</v>
       </c>
       <c r="B211">
-        <v>5919</v>
+        <v>4909</v>
       </c>
       <c r="C211">
         <v>18</v>
@@ -4213,10 +4501,10 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>45687.1875</v>
+        <v>45732.1875</v>
       </c>
       <c r="B212">
-        <v>5969</v>
+        <v>4943</v>
       </c>
       <c r="C212">
         <v>19</v>
@@ -4227,10 +4515,10 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>45687.19791666666</v>
+        <v>45732.19791666666</v>
       </c>
       <c r="B213">
-        <v>6099</v>
+        <v>4965</v>
       </c>
       <c r="C213">
         <v>20</v>
@@ -4241,10 +4529,10 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>45687.20833333334</v>
+        <v>45732.20833333334</v>
       </c>
       <c r="B214">
-        <v>6314</v>
+        <v>4990</v>
       </c>
       <c r="C214">
         <v>21</v>
@@ -4255,10 +4543,10 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>45687.21875</v>
+        <v>45732.21875</v>
       </c>
       <c r="B215">
-        <v>6428</v>
+        <v>4971</v>
       </c>
       <c r="C215">
         <v>22</v>
@@ -4269,10 +4557,10 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>45687.22916666666</v>
+        <v>45732.22916666666</v>
       </c>
       <c r="B216">
-        <v>6618</v>
+        <v>4989</v>
       </c>
       <c r="C216">
         <v>23</v>
@@ -4283,10 +4571,10 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>45687.23958333334</v>
+        <v>45732.23958333334</v>
       </c>
       <c r="B217">
-        <v>6809</v>
+        <v>5014</v>
       </c>
       <c r="C217">
         <v>24</v>
@@ -4297,10 +4585,10 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>45687.25</v>
+        <v>45732.25</v>
       </c>
       <c r="B218">
-        <v>7074</v>
+        <v>5050</v>
       </c>
       <c r="C218">
         <v>25</v>
@@ -4311,10 +4599,10 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>45687.26041666666</v>
+        <v>45732.26041666666</v>
       </c>
       <c r="B219">
-        <v>7289</v>
+        <v>5081</v>
       </c>
       <c r="C219">
         <v>26</v>
@@ -4325,10 +4613,10 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>45687.27083333334</v>
+        <v>45732.27083333334</v>
       </c>
       <c r="B220">
-        <v>7368</v>
+        <v>5143</v>
       </c>
       <c r="C220">
         <v>27</v>
@@ -4339,10 +4627,10 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>45687.28125</v>
+        <v>45732.28125</v>
       </c>
       <c r="B221">
-        <v>7461</v>
+        <v>5260</v>
       </c>
       <c r="C221">
         <v>28</v>
@@ -4353,10 +4641,10 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>45687.29166666666</v>
+        <v>45732.29166666666</v>
       </c>
       <c r="B222">
-        <v>7613</v>
+        <v>5229</v>
       </c>
       <c r="C222">
         <v>29</v>
@@ -4367,10 +4655,10 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>45687.30208333334</v>
+        <v>45732.30208333334</v>
       </c>
       <c r="B223">
-        <v>7644</v>
+        <v>5279</v>
       </c>
       <c r="C223">
         <v>30</v>
@@ -4381,10 +4669,10 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>45687.3125</v>
+        <v>45732.3125</v>
       </c>
       <c r="B224">
-        <v>7628</v>
+        <v>5306</v>
       </c>
       <c r="C224">
         <v>31</v>
@@ -4395,10 +4683,10 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>45687.32291666666</v>
+        <v>45732.32291666666</v>
       </c>
       <c r="B225">
-        <v>7638</v>
+        <v>5386</v>
       </c>
       <c r="C225">
         <v>32</v>
@@ -4409,10 +4697,10 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>45687.33333333334</v>
+        <v>45732.33333333334</v>
       </c>
       <c r="B226">
-        <v>7621</v>
+        <v>5402</v>
       </c>
       <c r="C226">
         <v>33</v>
@@ -4423,10 +4711,10 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>45687.34375</v>
+        <v>45732.34375</v>
       </c>
       <c r="B227">
-        <v>7579</v>
+        <v>5383</v>
       </c>
       <c r="C227">
         <v>34</v>
@@ -4437,10 +4725,10 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>45687.35416666666</v>
+        <v>45732.35416666666</v>
       </c>
       <c r="B228">
-        <v>7498</v>
+        <v>5385</v>
       </c>
       <c r="C228">
         <v>35</v>
@@ -4451,10 +4739,10 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>45687.36458333334</v>
+        <v>45732.36458333334</v>
       </c>
       <c r="B229">
-        <v>7497</v>
+        <v>5345</v>
       </c>
       <c r="C229">
         <v>36</v>
@@ -4465,10 +4753,10 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>45687.375</v>
+        <v>45732.375</v>
       </c>
       <c r="B230">
-        <v>7493</v>
+        <v>5346</v>
       </c>
       <c r="C230">
         <v>37</v>
@@ -4479,10 +4767,10 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>45687.38541666666</v>
+        <v>45732.38541666666</v>
       </c>
       <c r="B231">
-        <v>7402</v>
+        <v>5250</v>
       </c>
       <c r="C231">
         <v>38</v>
@@ -4493,10 +4781,10 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>45687.39583333334</v>
+        <v>45732.39583333334</v>
       </c>
       <c r="B232">
-        <v>7238</v>
+        <v>5218</v>
       </c>
       <c r="C232">
         <v>39</v>
@@ -4507,10 +4795,10 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>45687.40625</v>
+        <v>45732.40625</v>
       </c>
       <c r="B233">
-        <v>7190</v>
+        <v>5173</v>
       </c>
       <c r="C233">
         <v>40</v>
@@ -4521,10 +4809,10 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>45687.41666666666</v>
+        <v>45732.41666666666</v>
       </c>
       <c r="B234">
-        <v>0</v>
+        <v>5132</v>
       </c>
       <c r="C234">
         <v>41</v>
@@ -4535,10 +4823,10 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>45687.42708333334</v>
+        <v>45732.42708333334</v>
       </c>
       <c r="B235">
-        <v>0</v>
+        <v>5098</v>
       </c>
       <c r="C235">
         <v>42</v>
@@ -4549,10 +4837,10 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>45687.4375</v>
+        <v>45732.4375</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>5020</v>
       </c>
       <c r="C236">
         <v>43</v>
@@ -4563,10 +4851,10 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>45687.44791666666</v>
+        <v>45732.44791666666</v>
       </c>
       <c r="B237">
-        <v>0</v>
+        <v>5016</v>
       </c>
       <c r="C237">
         <v>44</v>
@@ -4577,10 +4865,10 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>45687.45833333334</v>
+        <v>45732.45833333334</v>
       </c>
       <c r="B238">
-        <v>0</v>
+        <v>5124</v>
       </c>
       <c r="C238">
         <v>45</v>
@@ -4591,10 +4879,10 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>45687.46875</v>
+        <v>45732.46875</v>
       </c>
       <c r="B239">
-        <v>0</v>
+        <v>4994</v>
       </c>
       <c r="C239">
         <v>46</v>
@@ -4605,10 +4893,10 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>45687.47916666666</v>
+        <v>45732.47916666666</v>
       </c>
       <c r="B240">
-        <v>0</v>
+        <v>4949</v>
       </c>
       <c r="C240">
         <v>47</v>
@@ -4619,10 +4907,10 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>45687.48958333334</v>
+        <v>45732.48958333334</v>
       </c>
       <c r="B241">
-        <v>0</v>
+        <v>4964</v>
       </c>
       <c r="C241">
         <v>48</v>
@@ -4633,10 +4921,10 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>45687.5</v>
+        <v>45732.5</v>
       </c>
       <c r="B242">
-        <v>0</v>
+        <v>4937</v>
       </c>
       <c r="C242">
         <v>49</v>
@@ -4647,10 +4935,10 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>45687.51041666666</v>
+        <v>45732.51041666666</v>
       </c>
       <c r="B243">
-        <v>0</v>
+        <v>4887</v>
       </c>
       <c r="C243">
         <v>50</v>
@@ -4661,10 +4949,10 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>45687.52083333334</v>
+        <v>45732.52083333334</v>
       </c>
       <c r="B244">
-        <v>0</v>
+        <v>4836</v>
       </c>
       <c r="C244">
         <v>51</v>
@@ -4675,10 +4963,10 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>45687.53125</v>
+        <v>45732.53125</v>
       </c>
       <c r="B245">
-        <v>0</v>
+        <v>4835</v>
       </c>
       <c r="C245">
         <v>52</v>
@@ -4689,10 +4977,10 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>45687.54166666666</v>
+        <v>45732.54166666666</v>
       </c>
       <c r="B246">
-        <v>0</v>
+        <v>4856</v>
       </c>
       <c r="C246">
         <v>53</v>
@@ -4703,10 +4991,10 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>45687.55208333334</v>
+        <v>45732.55208333334</v>
       </c>
       <c r="B247">
-        <v>0</v>
+        <v>4822</v>
       </c>
       <c r="C247">
         <v>54</v>
@@ -4717,10 +5005,10 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>45687.5625</v>
+        <v>45732.5625</v>
       </c>
       <c r="B248">
-        <v>0</v>
+        <v>4847</v>
       </c>
       <c r="C248">
         <v>55</v>
@@ -4731,10 +5019,10 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>45687.57291666666</v>
+        <v>45732.57291666666</v>
       </c>
       <c r="B249">
-        <v>0</v>
+        <v>4919</v>
       </c>
       <c r="C249">
         <v>56</v>
@@ -4745,10 +5033,10 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>45687.58333333334</v>
+        <v>45732.58333333334</v>
       </c>
       <c r="B250">
-        <v>0</v>
+        <v>4888</v>
       </c>
       <c r="C250">
         <v>57</v>
@@ -4759,10 +5047,10 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>45687.59375</v>
+        <v>45732.59375</v>
       </c>
       <c r="B251">
-        <v>0</v>
+        <v>4967</v>
       </c>
       <c r="C251">
         <v>58</v>
@@ -4773,10 +5061,10 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>45687.60416666666</v>
+        <v>45732.60416666666</v>
       </c>
       <c r="B252">
-        <v>0</v>
+        <v>5093</v>
       </c>
       <c r="C252">
         <v>59</v>
@@ -4787,10 +5075,10 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>45687.61458333334</v>
+        <v>45732.61458333334</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>5166</v>
       </c>
       <c r="C253">
         <v>60</v>
@@ -4801,10 +5089,10 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>45687.625</v>
+        <v>45732.625</v>
       </c>
       <c r="B254">
-        <v>0</v>
+        <v>5278</v>
       </c>
       <c r="C254">
         <v>61</v>
@@ -4815,10 +5103,10 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>45687.63541666666</v>
+        <v>45732.63541666666</v>
       </c>
       <c r="B255">
-        <v>0</v>
+        <v>5358</v>
       </c>
       <c r="C255">
         <v>62</v>
@@ -4829,10 +5117,10 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>45687.64583333334</v>
+        <v>45732.64583333334</v>
       </c>
       <c r="B256">
-        <v>0</v>
+        <v>5453</v>
       </c>
       <c r="C256">
         <v>63</v>
@@ -4843,10 +5131,10 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>45687.65625</v>
+        <v>45732.65625</v>
       </c>
       <c r="B257">
-        <v>0</v>
+        <v>5515</v>
       </c>
       <c r="C257">
         <v>64</v>
@@ -4857,10 +5145,10 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>45687.66666666666</v>
+        <v>45732.66666666666</v>
       </c>
       <c r="B258">
-        <v>0</v>
+        <v>5654</v>
       </c>
       <c r="C258">
         <v>65</v>
@@ -4871,10 +5159,10 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>45687.67708333334</v>
+        <v>45732.67708333334</v>
       </c>
       <c r="B259">
-        <v>0</v>
+        <v>5764</v>
       </c>
       <c r="C259">
         <v>66</v>
@@ -4885,10 +5173,10 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>45687.6875</v>
+        <v>45732.6875</v>
       </c>
       <c r="B260">
-        <v>0</v>
+        <v>5878</v>
       </c>
       <c r="C260">
         <v>67</v>
@@ -4899,10 +5187,10 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>45687.69791666666</v>
+        <v>45732.69791666666</v>
       </c>
       <c r="B261">
-        <v>0</v>
+        <v>5936</v>
       </c>
       <c r="C261">
         <v>68</v>
@@ -4913,10 +5201,10 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>45687.70833333334</v>
+        <v>45732.70833333334</v>
       </c>
       <c r="B262">
-        <v>0</v>
+        <v>6078</v>
       </c>
       <c r="C262">
         <v>69</v>
@@ -4927,10 +5215,10 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>45687.71875</v>
+        <v>45732.71875</v>
       </c>
       <c r="B263">
-        <v>0</v>
+        <v>6208</v>
       </c>
       <c r="C263">
         <v>70</v>
@@ -4941,10 +5229,10 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>45687.72916666666</v>
+        <v>45732.72916666666</v>
       </c>
       <c r="B264">
-        <v>0</v>
+        <v>6368</v>
       </c>
       <c r="C264">
         <v>71</v>
@@ -4955,10 +5243,10 @@
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>45687.73958333334</v>
+        <v>45732.73958333334</v>
       </c>
       <c r="B265">
-        <v>0</v>
+        <v>6487</v>
       </c>
       <c r="C265">
         <v>72</v>
@@ -4969,10 +5257,10 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>45687.75</v>
+        <v>45732.75</v>
       </c>
       <c r="B266">
-        <v>0</v>
+        <v>6632</v>
       </c>
       <c r="C266">
         <v>73</v>
@@ -4983,10 +5271,10 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>45687.76041666666</v>
+        <v>45732.76041666666</v>
       </c>
       <c r="B267">
-        <v>0</v>
+        <v>6675</v>
       </c>
       <c r="C267">
         <v>74</v>
@@ -4997,10 +5285,10 @@
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>45687.77083333334</v>
+        <v>45732.77083333334</v>
       </c>
       <c r="B268">
-        <v>0</v>
+        <v>6674</v>
       </c>
       <c r="C268">
         <v>75</v>
@@ -5011,10 +5299,10 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>45687.78125</v>
+        <v>45732.78125</v>
       </c>
       <c r="B269">
-        <v>0</v>
+        <v>6661</v>
       </c>
       <c r="C269">
         <v>76</v>
@@ -5025,10 +5313,10 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>45687.79166666666</v>
+        <v>45732.79166666666</v>
       </c>
       <c r="B270">
-        <v>0</v>
+        <v>6618</v>
       </c>
       <c r="C270">
         <v>77</v>
@@ -5039,10 +5327,10 @@
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>45687.80208333334</v>
+        <v>45732.80208333334</v>
       </c>
       <c r="B271">
-        <v>0</v>
+        <v>6603</v>
       </c>
       <c r="C271">
         <v>78</v>
@@ -5053,10 +5341,10 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>45687.8125</v>
+        <v>45732.8125</v>
       </c>
       <c r="B272">
-        <v>0</v>
+        <v>6522</v>
       </c>
       <c r="C272">
         <v>79</v>
@@ -5067,10 +5355,10 @@
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>45687.82291666666</v>
+        <v>45732.82291666666</v>
       </c>
       <c r="B273">
-        <v>0</v>
+        <v>6482</v>
       </c>
       <c r="C273">
         <v>80</v>
@@ -5081,10 +5369,10 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>45687.83333333334</v>
+        <v>45732.83333333334</v>
       </c>
       <c r="B274">
-        <v>0</v>
+        <v>6380</v>
       </c>
       <c r="C274">
         <v>81</v>
@@ -5095,10 +5383,10 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>45687.84375</v>
+        <v>45732.84375</v>
       </c>
       <c r="B275">
-        <v>0</v>
+        <v>6334</v>
       </c>
       <c r="C275">
         <v>82</v>
@@ -5109,10 +5397,10 @@
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>45687.85416666666</v>
+        <v>45732.85416666666</v>
       </c>
       <c r="B276">
-        <v>0</v>
+        <v>6182</v>
       </c>
       <c r="C276">
         <v>83</v>
@@ -5123,10 +5411,10 @@
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>45687.86458333334</v>
+        <v>45732.86458333334</v>
       </c>
       <c r="B277">
-        <v>0</v>
+        <v>6075</v>
       </c>
       <c r="C277">
         <v>84</v>
@@ -5137,10 +5425,10 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>45687.875</v>
+        <v>45732.875</v>
       </c>
       <c r="B278">
-        <v>0</v>
+        <v>5996</v>
       </c>
       <c r="C278">
         <v>85</v>
@@ -5151,10 +5439,10 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>45687.88541666666</v>
+        <v>45732.88541666666</v>
       </c>
       <c r="B279">
-        <v>0</v>
+        <v>5878</v>
       </c>
       <c r="C279">
         <v>86</v>
@@ -5165,10 +5453,10 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>45687.89583333334</v>
+        <v>45732.89583333334</v>
       </c>
       <c r="B280">
-        <v>0</v>
+        <v>5791</v>
       </c>
       <c r="C280">
         <v>87</v>
@@ -5179,10 +5467,10 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>45687.90625</v>
+        <v>45732.90625</v>
       </c>
       <c r="B281">
-        <v>0</v>
+        <v>5651</v>
       </c>
       <c r="C281">
         <v>88</v>
@@ -5193,10 +5481,10 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>45687.91666666666</v>
+        <v>45732.91666666666</v>
       </c>
       <c r="B282">
-        <v>0</v>
+        <v>5539</v>
       </c>
       <c r="C282">
         <v>89</v>
@@ -5207,10 +5495,10 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>45687.92708333334</v>
+        <v>45732.92708333334</v>
       </c>
       <c r="B283">
-        <v>0</v>
+        <v>5503</v>
       </c>
       <c r="C283">
         <v>90</v>
@@ -5221,10 +5509,10 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>45687.9375</v>
+        <v>45732.9375</v>
       </c>
       <c r="B284">
-        <v>0</v>
+        <v>5417</v>
       </c>
       <c r="C284">
         <v>91</v>
@@ -5235,10 +5523,10 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>45687.94791666666</v>
+        <v>45732.94791666666</v>
       </c>
       <c r="B285">
-        <v>0</v>
+        <v>5363</v>
       </c>
       <c r="C285">
         <v>92</v>
@@ -5249,10 +5537,10 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>45687.95833333334</v>
+        <v>45732.95833333334</v>
       </c>
       <c r="B286">
-        <v>0</v>
+        <v>5235</v>
       </c>
       <c r="C286">
         <v>93</v>
@@ -5263,10 +5551,10 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>45687.96875</v>
+        <v>45732.96875</v>
       </c>
       <c r="B287">
-        <v>0</v>
+        <v>5228</v>
       </c>
       <c r="C287">
         <v>94</v>
@@ -5277,10 +5565,10 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>45687.97916666666</v>
+        <v>45732.97916666666</v>
       </c>
       <c r="B288">
-        <v>0</v>
+        <v>5132</v>
       </c>
       <c r="C288">
         <v>95</v>
@@ -5291,16 +5579,1360 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>45687.98958333334</v>
+        <v>45732.98958333334</v>
       </c>
       <c r="B289">
-        <v>0</v>
+        <v>5075</v>
       </c>
       <c r="C289">
         <v>96</v>
       </c>
       <c r="D289" t="s">
         <v>291</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="2">
+        <v>45733</v>
+      </c>
+      <c r="B290">
+        <v>5047</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="2">
+        <v>45733.01041666666</v>
+      </c>
+      <c r="B291">
+        <v>5011</v>
+      </c>
+      <c r="C291">
+        <v>2</v>
+      </c>
+      <c r="D291" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="2">
+        <v>45733.02083333334</v>
+      </c>
+      <c r="B292">
+        <v>4991</v>
+      </c>
+      <c r="C292">
+        <v>3</v>
+      </c>
+      <c r="D292" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="2">
+        <v>45733.03125</v>
+      </c>
+      <c r="B293">
+        <v>4939</v>
+      </c>
+      <c r="C293">
+        <v>4</v>
+      </c>
+      <c r="D293" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="2">
+        <v>45733.04166666666</v>
+      </c>
+      <c r="B294">
+        <v>4914</v>
+      </c>
+      <c r="C294">
+        <v>5</v>
+      </c>
+      <c r="D294" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="2">
+        <v>45733.05208333334</v>
+      </c>
+      <c r="B295">
+        <v>4892</v>
+      </c>
+      <c r="C295">
+        <v>6</v>
+      </c>
+      <c r="D295" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="2">
+        <v>45733.0625</v>
+      </c>
+      <c r="B296">
+        <v>4892</v>
+      </c>
+      <c r="C296">
+        <v>7</v>
+      </c>
+      <c r="D296" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="2">
+        <v>45733.07291666666</v>
+      </c>
+      <c r="B297">
+        <v>4884</v>
+      </c>
+      <c r="C297">
+        <v>8</v>
+      </c>
+      <c r="D297" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="2">
+        <v>45733.08333333334</v>
+      </c>
+      <c r="B298">
+        <v>4937</v>
+      </c>
+      <c r="C298">
+        <v>9</v>
+      </c>
+      <c r="D298" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="2">
+        <v>45733.09375</v>
+      </c>
+      <c r="B299">
+        <v>4939</v>
+      </c>
+      <c r="C299">
+        <v>10</v>
+      </c>
+      <c r="D299" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="2">
+        <v>45733.10416666666</v>
+      </c>
+      <c r="B300">
+        <v>4922</v>
+      </c>
+      <c r="C300">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="2">
+        <v>45733.11458333334</v>
+      </c>
+      <c r="B301">
+        <v>4975</v>
+      </c>
+      <c r="C301">
+        <v>12</v>
+      </c>
+      <c r="D301" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="2">
+        <v>45733.125</v>
+      </c>
+      <c r="B302">
+        <v>5044</v>
+      </c>
+      <c r="C302">
+        <v>13</v>
+      </c>
+      <c r="D302" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="2">
+        <v>45733.13541666666</v>
+      </c>
+      <c r="B303">
+        <v>5015</v>
+      </c>
+      <c r="C303">
+        <v>14</v>
+      </c>
+      <c r="D303" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="2">
+        <v>45733.14583333334</v>
+      </c>
+      <c r="B304">
+        <v>5038</v>
+      </c>
+      <c r="C304">
+        <v>15</v>
+      </c>
+      <c r="D304" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="2">
+        <v>45733.15625</v>
+      </c>
+      <c r="B305">
+        <v>5139</v>
+      </c>
+      <c r="C305">
+        <v>16</v>
+      </c>
+      <c r="D305" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="2">
+        <v>45733.16666666666</v>
+      </c>
+      <c r="B306">
+        <v>5235</v>
+      </c>
+      <c r="C306">
+        <v>17</v>
+      </c>
+      <c r="D306" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="2">
+        <v>45733.17708333334</v>
+      </c>
+      <c r="B307">
+        <v>5214</v>
+      </c>
+      <c r="C307">
+        <v>18</v>
+      </c>
+      <c r="D307" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="2">
+        <v>45733.1875</v>
+      </c>
+      <c r="B308">
+        <v>5359</v>
+      </c>
+      <c r="C308">
+        <v>19</v>
+      </c>
+      <c r="D308" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="2">
+        <v>45733.19791666666</v>
+      </c>
+      <c r="B309">
+        <v>5519</v>
+      </c>
+      <c r="C309">
+        <v>20</v>
+      </c>
+      <c r="D309" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="2">
+        <v>45733.20833333334</v>
+      </c>
+      <c r="B310">
+        <v>5750</v>
+      </c>
+      <c r="C310">
+        <v>21</v>
+      </c>
+      <c r="D310" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="2">
+        <v>45733.21875</v>
+      </c>
+      <c r="B311">
+        <v>5824</v>
+      </c>
+      <c r="C311">
+        <v>22</v>
+      </c>
+      <c r="D311" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="2">
+        <v>45733.22916666666</v>
+      </c>
+      <c r="B312">
+        <v>6006</v>
+      </c>
+      <c r="C312">
+        <v>23</v>
+      </c>
+      <c r="D312" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="2">
+        <v>45733.23958333334</v>
+      </c>
+      <c r="B313">
+        <v>6215</v>
+      </c>
+      <c r="C313">
+        <v>24</v>
+      </c>
+      <c r="D313" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="2">
+        <v>45733.25</v>
+      </c>
+      <c r="B314">
+        <v>6517</v>
+      </c>
+      <c r="C314">
+        <v>25</v>
+      </c>
+      <c r="D314" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="2">
+        <v>45733.26041666666</v>
+      </c>
+      <c r="B315">
+        <v>6680</v>
+      </c>
+      <c r="C315">
+        <v>26</v>
+      </c>
+      <c r="D315" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="2">
+        <v>45733.27083333334</v>
+      </c>
+      <c r="B316">
+        <v>6867</v>
+      </c>
+      <c r="C316">
+        <v>27</v>
+      </c>
+      <c r="D316" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="2">
+        <v>45733.28125</v>
+      </c>
+      <c r="B317">
+        <v>7012</v>
+      </c>
+      <c r="C317">
+        <v>28</v>
+      </c>
+      <c r="D317" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="2">
+        <v>45733.29166666666</v>
+      </c>
+      <c r="B318">
+        <v>7080</v>
+      </c>
+      <c r="C318">
+        <v>29</v>
+      </c>
+      <c r="D318" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="2">
+        <v>45733.30208333334</v>
+      </c>
+      <c r="B319">
+        <v>7221</v>
+      </c>
+      <c r="C319">
+        <v>30</v>
+      </c>
+      <c r="D319" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="2">
+        <v>45733.3125</v>
+      </c>
+      <c r="B320">
+        <v>7314</v>
+      </c>
+      <c r="C320">
+        <v>31</v>
+      </c>
+      <c r="D320" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="2">
+        <v>45733.32291666666</v>
+      </c>
+      <c r="B321">
+        <v>7346</v>
+      </c>
+      <c r="C321">
+        <v>32</v>
+      </c>
+      <c r="D321" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="2">
+        <v>45733.33333333334</v>
+      </c>
+      <c r="B322">
+        <v>7268</v>
+      </c>
+      <c r="C322">
+        <v>33</v>
+      </c>
+      <c r="D322" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="2">
+        <v>45733.34375</v>
+      </c>
+      <c r="B323">
+        <v>7337</v>
+      </c>
+      <c r="C323">
+        <v>34</v>
+      </c>
+      <c r="D323" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="2">
+        <v>45733.35416666666</v>
+      </c>
+      <c r="B324">
+        <v>7359</v>
+      </c>
+      <c r="C324">
+        <v>35</v>
+      </c>
+      <c r="D324" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="2">
+        <v>45733.36458333334</v>
+      </c>
+      <c r="B325">
+        <v>7222</v>
+      </c>
+      <c r="C325">
+        <v>36</v>
+      </c>
+      <c r="D325" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="2">
+        <v>45733.375</v>
+      </c>
+      <c r="B326">
+        <v>7179</v>
+      </c>
+      <c r="C326">
+        <v>37</v>
+      </c>
+      <c r="D326" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="2">
+        <v>45733.38541666666</v>
+      </c>
+      <c r="B327">
+        <v>7178</v>
+      </c>
+      <c r="C327">
+        <v>38</v>
+      </c>
+      <c r="D327" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="2">
+        <v>45733.39583333334</v>
+      </c>
+      <c r="B328">
+        <v>7154</v>
+      </c>
+      <c r="C328">
+        <v>39</v>
+      </c>
+      <c r="D328" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="2">
+        <v>45733.40625</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+      <c r="C329">
+        <v>40</v>
+      </c>
+      <c r="D329" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="2">
+        <v>45733.41666666666</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+      <c r="C330">
+        <v>41</v>
+      </c>
+      <c r="D330" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="2">
+        <v>45733.42708333334</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+      <c r="C331">
+        <v>42</v>
+      </c>
+      <c r="D331" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="2">
+        <v>45733.4375</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+      <c r="C332">
+        <v>43</v>
+      </c>
+      <c r="D332" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="2">
+        <v>45733.44791666666</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+      <c r="C333">
+        <v>44</v>
+      </c>
+      <c r="D333" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="2">
+        <v>45733.45833333334</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+      <c r="C334">
+        <v>45</v>
+      </c>
+      <c r="D334" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="2">
+        <v>45733.46875</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>46</v>
+      </c>
+      <c r="D335" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="2">
+        <v>45733.47916666666</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+      <c r="C336">
+        <v>47</v>
+      </c>
+      <c r="D336" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="2">
+        <v>45733.48958333334</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337">
+        <v>48</v>
+      </c>
+      <c r="D337" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="2">
+        <v>45733.5</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+      <c r="C338">
+        <v>49</v>
+      </c>
+      <c r="D338" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="2">
+        <v>45733.51041666666</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>50</v>
+      </c>
+      <c r="D339" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="2">
+        <v>45733.52083333334</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340">
+        <v>51</v>
+      </c>
+      <c r="D340" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="2">
+        <v>45733.53125</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+      <c r="C341">
+        <v>52</v>
+      </c>
+      <c r="D341" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="2">
+        <v>45733.54166666666</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+      <c r="C342">
+        <v>53</v>
+      </c>
+      <c r="D342" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="2">
+        <v>45733.55208333334</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+      <c r="C343">
+        <v>54</v>
+      </c>
+      <c r="D343" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="2">
+        <v>45733.5625</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+      <c r="C344">
+        <v>55</v>
+      </c>
+      <c r="D344" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="2">
+        <v>45733.57291666666</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>56</v>
+      </c>
+      <c r="D345" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="2">
+        <v>45733.58333333334</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+      <c r="C346">
+        <v>57</v>
+      </c>
+      <c r="D346" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="2">
+        <v>45733.59375</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+      <c r="C347">
+        <v>58</v>
+      </c>
+      <c r="D347" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="2">
+        <v>45733.60416666666</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>59</v>
+      </c>
+      <c r="D348" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="2">
+        <v>45733.61458333334</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>60</v>
+      </c>
+      <c r="D349" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="2">
+        <v>45733.625</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+      <c r="C350">
+        <v>61</v>
+      </c>
+      <c r="D350" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="2">
+        <v>45733.63541666666</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+      <c r="C351">
+        <v>62</v>
+      </c>
+      <c r="D351" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="2">
+        <v>45733.64583333334</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+      <c r="C352">
+        <v>63</v>
+      </c>
+      <c r="D352" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="2">
+        <v>45733.65625</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+      <c r="C353">
+        <v>64</v>
+      </c>
+      <c r="D353" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="2">
+        <v>45733.66666666666</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+      <c r="C354">
+        <v>65</v>
+      </c>
+      <c r="D354" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="2">
+        <v>45733.67708333334</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <v>66</v>
+      </c>
+      <c r="D355" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="2">
+        <v>45733.6875</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+      <c r="C356">
+        <v>67</v>
+      </c>
+      <c r="D356" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="2">
+        <v>45733.69791666666</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+      <c r="C357">
+        <v>68</v>
+      </c>
+      <c r="D357" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="2">
+        <v>45733.70833333334</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+      <c r="C358">
+        <v>69</v>
+      </c>
+      <c r="D358" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="2">
+        <v>45733.71875</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+      <c r="C359">
+        <v>70</v>
+      </c>
+      <c r="D359" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="2">
+        <v>45733.72916666666</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+      <c r="C360">
+        <v>71</v>
+      </c>
+      <c r="D360" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="2">
+        <v>45733.73958333334</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+      <c r="C361">
+        <v>72</v>
+      </c>
+      <c r="D361" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="2">
+        <v>45733.75</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+      <c r="C362">
+        <v>73</v>
+      </c>
+      <c r="D362" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="2">
+        <v>45733.76041666666</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <v>74</v>
+      </c>
+      <c r="D363" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="2">
+        <v>45733.77083333334</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+      <c r="C364">
+        <v>75</v>
+      </c>
+      <c r="D364" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="2">
+        <v>45733.78125</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+      <c r="C365">
+        <v>76</v>
+      </c>
+      <c r="D365" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="2">
+        <v>45733.79166666666</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+      <c r="C366">
+        <v>77</v>
+      </c>
+      <c r="D366" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="2">
+        <v>45733.80208333334</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <v>78</v>
+      </c>
+      <c r="D367" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
+        <v>45733.8125</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+      <c r="C368">
+        <v>79</v>
+      </c>
+      <c r="D368" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
+        <v>45733.82291666666</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+      <c r="C369">
+        <v>80</v>
+      </c>
+      <c r="D369" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
+        <v>45733.83333333334</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+      <c r="C370">
+        <v>81</v>
+      </c>
+      <c r="D370" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
+        <v>45733.84375</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+      <c r="C371">
+        <v>82</v>
+      </c>
+      <c r="D371" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
+        <v>45733.85416666666</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+      <c r="C372">
+        <v>83</v>
+      </c>
+      <c r="D372" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
+        <v>45733.86458333334</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+      <c r="C373">
+        <v>84</v>
+      </c>
+      <c r="D373" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
+        <v>45733.875</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+      <c r="C374">
+        <v>85</v>
+      </c>
+      <c r="D374" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
+        <v>45733.88541666666</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+      <c r="C375">
+        <v>86</v>
+      </c>
+      <c r="D375" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
+        <v>45733.89583333334</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+      <c r="C376">
+        <v>87</v>
+      </c>
+      <c r="D376" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
+        <v>45733.90625</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <v>88</v>
+      </c>
+      <c r="D377" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
+        <v>45733.91666666666</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+      <c r="C378">
+        <v>89</v>
+      </c>
+      <c r="D378" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
+        <v>45733.92708333334</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+      <c r="C379">
+        <v>90</v>
+      </c>
+      <c r="D379" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
+        <v>45733.9375</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+      <c r="C380">
+        <v>91</v>
+      </c>
+      <c r="D380" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
+        <v>45733.94791666666</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="C381">
+        <v>92</v>
+      </c>
+      <c r="D381" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
+        <v>45733.95833333334</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+      <c r="C382">
+        <v>93</v>
+      </c>
+      <c r="D382" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
+        <v>45733.96875</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+      <c r="C383">
+        <v>94</v>
+      </c>
+      <c r="D383" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
+        <v>45733.97916666666</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+      <c r="C384">
+        <v>95</v>
+      </c>
+      <c r="D384" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
+        <v>45733.98958333334</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385">
+        <v>96</v>
+      </c>
+      <c r="D385" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="484">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1178,6 +1178,294 @@
   </si>
   <si>
     <t>17.03.202596</t>
+  </si>
+  <si>
+    <t>18.03.20251</t>
+  </si>
+  <si>
+    <t>18.03.20252</t>
+  </si>
+  <si>
+    <t>18.03.20253</t>
+  </si>
+  <si>
+    <t>18.03.20254</t>
+  </si>
+  <si>
+    <t>18.03.20255</t>
+  </si>
+  <si>
+    <t>18.03.20256</t>
+  </si>
+  <si>
+    <t>18.03.20257</t>
+  </si>
+  <si>
+    <t>18.03.20258</t>
+  </si>
+  <si>
+    <t>18.03.20259</t>
+  </si>
+  <si>
+    <t>18.03.202510</t>
+  </si>
+  <si>
+    <t>18.03.202511</t>
+  </si>
+  <si>
+    <t>18.03.202512</t>
+  </si>
+  <si>
+    <t>18.03.202513</t>
+  </si>
+  <si>
+    <t>18.03.202514</t>
+  </si>
+  <si>
+    <t>18.03.202515</t>
+  </si>
+  <si>
+    <t>18.03.202516</t>
+  </si>
+  <si>
+    <t>18.03.202517</t>
+  </si>
+  <si>
+    <t>18.03.202518</t>
+  </si>
+  <si>
+    <t>18.03.202519</t>
+  </si>
+  <si>
+    <t>18.03.202520</t>
+  </si>
+  <si>
+    <t>18.03.202521</t>
+  </si>
+  <si>
+    <t>18.03.202522</t>
+  </si>
+  <si>
+    <t>18.03.202523</t>
+  </si>
+  <si>
+    <t>18.03.202524</t>
+  </si>
+  <si>
+    <t>18.03.202525</t>
+  </si>
+  <si>
+    <t>18.03.202526</t>
+  </si>
+  <si>
+    <t>18.03.202527</t>
+  </si>
+  <si>
+    <t>18.03.202528</t>
+  </si>
+  <si>
+    <t>18.03.202529</t>
+  </si>
+  <si>
+    <t>18.03.202530</t>
+  </si>
+  <si>
+    <t>18.03.202531</t>
+  </si>
+  <si>
+    <t>18.03.202532</t>
+  </si>
+  <si>
+    <t>18.03.202533</t>
+  </si>
+  <si>
+    <t>18.03.202534</t>
+  </si>
+  <si>
+    <t>18.03.202535</t>
+  </si>
+  <si>
+    <t>18.03.202536</t>
+  </si>
+  <si>
+    <t>18.03.202537</t>
+  </si>
+  <si>
+    <t>18.03.202538</t>
+  </si>
+  <si>
+    <t>18.03.202539</t>
+  </si>
+  <si>
+    <t>18.03.202540</t>
+  </si>
+  <si>
+    <t>18.03.202541</t>
+  </si>
+  <si>
+    <t>18.03.202542</t>
+  </si>
+  <si>
+    <t>18.03.202543</t>
+  </si>
+  <si>
+    <t>18.03.202544</t>
+  </si>
+  <si>
+    <t>18.03.202545</t>
+  </si>
+  <si>
+    <t>18.03.202546</t>
+  </si>
+  <si>
+    <t>18.03.202547</t>
+  </si>
+  <si>
+    <t>18.03.202548</t>
+  </si>
+  <si>
+    <t>18.03.202549</t>
+  </si>
+  <si>
+    <t>18.03.202550</t>
+  </si>
+  <si>
+    <t>18.03.202551</t>
+  </si>
+  <si>
+    <t>18.03.202552</t>
+  </si>
+  <si>
+    <t>18.03.202553</t>
+  </si>
+  <si>
+    <t>18.03.202554</t>
+  </si>
+  <si>
+    <t>18.03.202555</t>
+  </si>
+  <si>
+    <t>18.03.202556</t>
+  </si>
+  <si>
+    <t>18.03.202557</t>
+  </si>
+  <si>
+    <t>18.03.202558</t>
+  </si>
+  <si>
+    <t>18.03.202559</t>
+  </si>
+  <si>
+    <t>18.03.202560</t>
+  </si>
+  <si>
+    <t>18.03.202561</t>
+  </si>
+  <si>
+    <t>18.03.202562</t>
+  </si>
+  <si>
+    <t>18.03.202563</t>
+  </si>
+  <si>
+    <t>18.03.202564</t>
+  </si>
+  <si>
+    <t>18.03.202565</t>
+  </si>
+  <si>
+    <t>18.03.202566</t>
+  </si>
+  <si>
+    <t>18.03.202567</t>
+  </si>
+  <si>
+    <t>18.03.202568</t>
+  </si>
+  <si>
+    <t>18.03.202569</t>
+  </si>
+  <si>
+    <t>18.03.202570</t>
+  </si>
+  <si>
+    <t>18.03.202571</t>
+  </si>
+  <si>
+    <t>18.03.202572</t>
+  </si>
+  <si>
+    <t>18.03.202573</t>
+  </si>
+  <si>
+    <t>18.03.202574</t>
+  </si>
+  <si>
+    <t>18.03.202575</t>
+  </si>
+  <si>
+    <t>18.03.202576</t>
+  </si>
+  <si>
+    <t>18.03.202577</t>
+  </si>
+  <si>
+    <t>18.03.202578</t>
+  </si>
+  <si>
+    <t>18.03.202579</t>
+  </si>
+  <si>
+    <t>18.03.202580</t>
+  </si>
+  <si>
+    <t>18.03.202581</t>
+  </si>
+  <si>
+    <t>18.03.202582</t>
+  </si>
+  <si>
+    <t>18.03.202583</t>
+  </si>
+  <si>
+    <t>18.03.202584</t>
+  </si>
+  <si>
+    <t>18.03.202585</t>
+  </si>
+  <si>
+    <t>18.03.202586</t>
+  </si>
+  <si>
+    <t>18.03.202587</t>
+  </si>
+  <si>
+    <t>18.03.202588</t>
+  </si>
+  <si>
+    <t>18.03.202589</t>
+  </si>
+  <si>
+    <t>18.03.202590</t>
+  </si>
+  <si>
+    <t>18.03.202591</t>
+  </si>
+  <si>
+    <t>18.03.202592</t>
+  </si>
+  <si>
+    <t>18.03.202593</t>
+  </si>
+  <si>
+    <t>18.03.202594</t>
+  </si>
+  <si>
+    <t>18.03.202595</t>
+  </si>
+  <si>
+    <t>18.03.202596</t>
   </si>
 </sst>
 </file>
@@ -1539,7 +1827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D385"/>
+  <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6142,7 +6430,7 @@
         <v>45733.40625</v>
       </c>
       <c r="B329">
-        <v>0</v>
+        <v>7073</v>
       </c>
       <c r="C329">
         <v>40</v>
@@ -6156,7 +6444,7 @@
         <v>45733.41666666666</v>
       </c>
       <c r="B330">
-        <v>0</v>
+        <v>7055</v>
       </c>
       <c r="C330">
         <v>41</v>
@@ -6170,7 +6458,7 @@
         <v>45733.42708333334</v>
       </c>
       <c r="B331">
-        <v>0</v>
+        <v>7081</v>
       </c>
       <c r="C331">
         <v>42</v>
@@ -6184,7 +6472,7 @@
         <v>45733.4375</v>
       </c>
       <c r="B332">
-        <v>0</v>
+        <v>7080</v>
       </c>
       <c r="C332">
         <v>43</v>
@@ -6198,7 +6486,7 @@
         <v>45733.44791666666</v>
       </c>
       <c r="B333">
-        <v>0</v>
+        <v>7098</v>
       </c>
       <c r="C333">
         <v>44</v>
@@ -6212,7 +6500,7 @@
         <v>45733.45833333334</v>
       </c>
       <c r="B334">
-        <v>0</v>
+        <v>6944</v>
       </c>
       <c r="C334">
         <v>45</v>
@@ -6226,7 +6514,7 @@
         <v>45733.46875</v>
       </c>
       <c r="B335">
-        <v>0</v>
+        <v>7046</v>
       </c>
       <c r="C335">
         <v>46</v>
@@ -6240,7 +6528,7 @@
         <v>45733.47916666666</v>
       </c>
       <c r="B336">
-        <v>0</v>
+        <v>6998</v>
       </c>
       <c r="C336">
         <v>47</v>
@@ -6254,7 +6542,7 @@
         <v>45733.48958333334</v>
       </c>
       <c r="B337">
-        <v>0</v>
+        <v>7076</v>
       </c>
       <c r="C337">
         <v>48</v>
@@ -6268,7 +6556,7 @@
         <v>45733.5</v>
       </c>
       <c r="B338">
-        <v>0</v>
+        <v>7096</v>
       </c>
       <c r="C338">
         <v>49</v>
@@ -6282,7 +6570,7 @@
         <v>45733.51041666666</v>
       </c>
       <c r="B339">
-        <v>0</v>
+        <v>7113</v>
       </c>
       <c r="C339">
         <v>50</v>
@@ -6296,7 +6584,7 @@
         <v>45733.52083333334</v>
       </c>
       <c r="B340">
-        <v>0</v>
+        <v>7075</v>
       </c>
       <c r="C340">
         <v>51</v>
@@ -6310,7 +6598,7 @@
         <v>45733.53125</v>
       </c>
       <c r="B341">
-        <v>0</v>
+        <v>7131</v>
       </c>
       <c r="C341">
         <v>52</v>
@@ -6324,7 +6612,7 @@
         <v>45733.54166666666</v>
       </c>
       <c r="B342">
-        <v>0</v>
+        <v>7082</v>
       </c>
       <c r="C342">
         <v>53</v>
@@ -6338,7 +6626,7 @@
         <v>45733.55208333334</v>
       </c>
       <c r="B343">
-        <v>0</v>
+        <v>7108</v>
       </c>
       <c r="C343">
         <v>54</v>
@@ -6352,7 +6640,7 @@
         <v>45733.5625</v>
       </c>
       <c r="B344">
-        <v>0</v>
+        <v>7068</v>
       </c>
       <c r="C344">
         <v>55</v>
@@ -6366,7 +6654,7 @@
         <v>45733.57291666666</v>
       </c>
       <c r="B345">
-        <v>0</v>
+        <v>7082</v>
       </c>
       <c r="C345">
         <v>56</v>
@@ -6380,7 +6668,7 @@
         <v>45733.58333333334</v>
       </c>
       <c r="B346">
-        <v>0</v>
+        <v>7047</v>
       </c>
       <c r="C346">
         <v>57</v>
@@ -6394,7 +6682,7 @@
         <v>45733.59375</v>
       </c>
       <c r="B347">
-        <v>0</v>
+        <v>7046</v>
       </c>
       <c r="C347">
         <v>58</v>
@@ -6408,7 +6696,7 @@
         <v>45733.60416666666</v>
       </c>
       <c r="B348">
-        <v>0</v>
+        <v>7138</v>
       </c>
       <c r="C348">
         <v>59</v>
@@ -6422,7 +6710,7 @@
         <v>45733.61458333334</v>
       </c>
       <c r="B349">
-        <v>0</v>
+        <v>7174</v>
       </c>
       <c r="C349">
         <v>60</v>
@@ -6436,7 +6724,7 @@
         <v>45733.625</v>
       </c>
       <c r="B350">
-        <v>0</v>
+        <v>7261</v>
       </c>
       <c r="C350">
         <v>61</v>
@@ -6450,7 +6738,7 @@
         <v>45733.63541666666</v>
       </c>
       <c r="B351">
-        <v>0</v>
+        <v>7262</v>
       </c>
       <c r="C351">
         <v>62</v>
@@ -6464,7 +6752,7 @@
         <v>45733.64583333334</v>
       </c>
       <c r="B352">
-        <v>0</v>
+        <v>7413</v>
       </c>
       <c r="C352">
         <v>63</v>
@@ -6478,7 +6766,7 @@
         <v>45733.65625</v>
       </c>
       <c r="B353">
-        <v>0</v>
+        <v>7418</v>
       </c>
       <c r="C353">
         <v>64</v>
@@ -6492,7 +6780,7 @@
         <v>45733.66666666666</v>
       </c>
       <c r="B354">
-        <v>0</v>
+        <v>7423</v>
       </c>
       <c r="C354">
         <v>65</v>
@@ -6506,7 +6794,7 @@
         <v>45733.67708333334</v>
       </c>
       <c r="B355">
-        <v>0</v>
+        <v>7444</v>
       </c>
       <c r="C355">
         <v>66</v>
@@ -6520,7 +6808,7 @@
         <v>45733.6875</v>
       </c>
       <c r="B356">
-        <v>0</v>
+        <v>7595</v>
       </c>
       <c r="C356">
         <v>67</v>
@@ -6534,7 +6822,7 @@
         <v>45733.69791666666</v>
       </c>
       <c r="B357">
-        <v>0</v>
+        <v>7649</v>
       </c>
       <c r="C357">
         <v>68</v>
@@ -6548,7 +6836,7 @@
         <v>45733.70833333334</v>
       </c>
       <c r="B358">
-        <v>0</v>
+        <v>7637</v>
       </c>
       <c r="C358">
         <v>69</v>
@@ -6562,7 +6850,7 @@
         <v>45733.71875</v>
       </c>
       <c r="B359">
-        <v>0</v>
+        <v>7732</v>
       </c>
       <c r="C359">
         <v>70</v>
@@ -6576,7 +6864,7 @@
         <v>45733.72916666666</v>
       </c>
       <c r="B360">
-        <v>0</v>
+        <v>7921</v>
       </c>
       <c r="C360">
         <v>71</v>
@@ -6590,7 +6878,7 @@
         <v>45733.73958333334</v>
       </c>
       <c r="B361">
-        <v>0</v>
+        <v>7991</v>
       </c>
       <c r="C361">
         <v>72</v>
@@ -6604,7 +6892,7 @@
         <v>45733.75</v>
       </c>
       <c r="B362">
-        <v>0</v>
+        <v>7978</v>
       </c>
       <c r="C362">
         <v>73</v>
@@ -6618,7 +6906,7 @@
         <v>45733.76041666666</v>
       </c>
       <c r="B363">
-        <v>0</v>
+        <v>8048</v>
       </c>
       <c r="C363">
         <v>74</v>
@@ -6632,7 +6920,7 @@
         <v>45733.77083333334</v>
       </c>
       <c r="B364">
-        <v>0</v>
+        <v>8067</v>
       </c>
       <c r="C364">
         <v>75</v>
@@ -6646,7 +6934,7 @@
         <v>45733.78125</v>
       </c>
       <c r="B365">
-        <v>0</v>
+        <v>8045</v>
       </c>
       <c r="C365">
         <v>76</v>
@@ -6660,7 +6948,7 @@
         <v>45733.79166666666</v>
       </c>
       <c r="B366">
-        <v>0</v>
+        <v>7982</v>
       </c>
       <c r="C366">
         <v>77</v>
@@ -6674,7 +6962,7 @@
         <v>45733.80208333334</v>
       </c>
       <c r="B367">
-        <v>0</v>
+        <v>7950</v>
       </c>
       <c r="C367">
         <v>78</v>
@@ -6688,7 +6976,7 @@
         <v>45733.8125</v>
       </c>
       <c r="B368">
-        <v>0</v>
+        <v>7878</v>
       </c>
       <c r="C368">
         <v>79</v>
@@ -6702,7 +6990,7 @@
         <v>45733.82291666666</v>
       </c>
       <c r="B369">
-        <v>0</v>
+        <v>7741</v>
       </c>
       <c r="C369">
         <v>80</v>
@@ -6716,7 +7004,7 @@
         <v>45733.83333333334</v>
       </c>
       <c r="B370">
-        <v>0</v>
+        <v>7586</v>
       </c>
       <c r="C370">
         <v>81</v>
@@ -6730,7 +7018,7 @@
         <v>45733.84375</v>
       </c>
       <c r="B371">
-        <v>0</v>
+        <v>7518</v>
       </c>
       <c r="C371">
         <v>82</v>
@@ -6744,7 +7032,7 @@
         <v>45733.85416666666</v>
       </c>
       <c r="B372">
-        <v>0</v>
+        <v>7478</v>
       </c>
       <c r="C372">
         <v>83</v>
@@ -6758,7 +7046,7 @@
         <v>45733.86458333334</v>
       </c>
       <c r="B373">
-        <v>0</v>
+        <v>7286</v>
       </c>
       <c r="C373">
         <v>84</v>
@@ -6772,7 +7060,7 @@
         <v>45733.875</v>
       </c>
       <c r="B374">
-        <v>0</v>
+        <v>7044</v>
       </c>
       <c r="C374">
         <v>85</v>
@@ -6786,7 +7074,7 @@
         <v>45733.88541666666</v>
       </c>
       <c r="B375">
-        <v>0</v>
+        <v>6893</v>
       </c>
       <c r="C375">
         <v>86</v>
@@ -6800,7 +7088,7 @@
         <v>45733.89583333334</v>
       </c>
       <c r="B376">
-        <v>0</v>
+        <v>6734</v>
       </c>
       <c r="C376">
         <v>87</v>
@@ -6814,7 +7102,7 @@
         <v>45733.90625</v>
       </c>
       <c r="B377">
-        <v>0</v>
+        <v>6570</v>
       </c>
       <c r="C377">
         <v>88</v>
@@ -6828,7 +7116,7 @@
         <v>45733.91666666666</v>
       </c>
       <c r="B378">
-        <v>0</v>
+        <v>6437</v>
       </c>
       <c r="C378">
         <v>89</v>
@@ -6842,7 +7130,7 @@
         <v>45733.92708333334</v>
       </c>
       <c r="B379">
-        <v>0</v>
+        <v>6321</v>
       </c>
       <c r="C379">
         <v>90</v>
@@ -6856,7 +7144,7 @@
         <v>45733.9375</v>
       </c>
       <c r="B380">
-        <v>0</v>
+        <v>6374</v>
       </c>
       <c r="C380">
         <v>91</v>
@@ -6870,7 +7158,7 @@
         <v>45733.94791666666</v>
       </c>
       <c r="B381">
-        <v>0</v>
+        <v>6351</v>
       </c>
       <c r="C381">
         <v>92</v>
@@ -6884,7 +7172,7 @@
         <v>45733.95833333334</v>
       </c>
       <c r="B382">
-        <v>0</v>
+        <v>6172</v>
       </c>
       <c r="C382">
         <v>93</v>
@@ -6898,7 +7186,7 @@
         <v>45733.96875</v>
       </c>
       <c r="B383">
-        <v>0</v>
+        <v>6119</v>
       </c>
       <c r="C383">
         <v>94</v>
@@ -6912,7 +7200,7 @@
         <v>45733.97916666666</v>
       </c>
       <c r="B384">
-        <v>0</v>
+        <v>6027</v>
       </c>
       <c r="C384">
         <v>95</v>
@@ -6926,13 +7214,1357 @@
         <v>45733.98958333334</v>
       </c>
       <c r="B385">
-        <v>0</v>
+        <v>6029</v>
       </c>
       <c r="C385">
         <v>96</v>
       </c>
       <c r="D385" t="s">
         <v>387</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
+        <v>45734</v>
+      </c>
+      <c r="B386">
+        <v>5940</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
+        <v>45734.01041666666</v>
+      </c>
+      <c r="B387">
+        <v>5922</v>
+      </c>
+      <c r="C387">
+        <v>2</v>
+      </c>
+      <c r="D387" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
+        <v>45734.02083333334</v>
+      </c>
+      <c r="B388">
+        <v>5868</v>
+      </c>
+      <c r="C388">
+        <v>3</v>
+      </c>
+      <c r="D388" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
+        <v>45734.03125</v>
+      </c>
+      <c r="B389">
+        <v>5845</v>
+      </c>
+      <c r="C389">
+        <v>4</v>
+      </c>
+      <c r="D389" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="2">
+        <v>45734.04166666666</v>
+      </c>
+      <c r="B390">
+        <v>5837</v>
+      </c>
+      <c r="C390">
+        <v>5</v>
+      </c>
+      <c r="D390" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="2">
+        <v>45734.05208333334</v>
+      </c>
+      <c r="B391">
+        <v>5828</v>
+      </c>
+      <c r="C391">
+        <v>6</v>
+      </c>
+      <c r="D391" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="2">
+        <v>45734.0625</v>
+      </c>
+      <c r="B392">
+        <v>5787</v>
+      </c>
+      <c r="C392">
+        <v>7</v>
+      </c>
+      <c r="D392" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="2">
+        <v>45734.07291666666</v>
+      </c>
+      <c r="B393">
+        <v>5752</v>
+      </c>
+      <c r="C393">
+        <v>8</v>
+      </c>
+      <c r="D393" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="2">
+        <v>45734.08333333334</v>
+      </c>
+      <c r="B394">
+        <v>5693</v>
+      </c>
+      <c r="C394">
+        <v>9</v>
+      </c>
+      <c r="D394" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="2">
+        <v>45734.09375</v>
+      </c>
+      <c r="B395">
+        <v>5761</v>
+      </c>
+      <c r="C395">
+        <v>10</v>
+      </c>
+      <c r="D395" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="2">
+        <v>45734.10416666666</v>
+      </c>
+      <c r="B396">
+        <v>5836</v>
+      </c>
+      <c r="C396">
+        <v>11</v>
+      </c>
+      <c r="D396" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" s="2">
+        <v>45734.11458333334</v>
+      </c>
+      <c r="B397">
+        <v>5828</v>
+      </c>
+      <c r="C397">
+        <v>12</v>
+      </c>
+      <c r="D397" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="2">
+        <v>45734.125</v>
+      </c>
+      <c r="B398">
+        <v>5794</v>
+      </c>
+      <c r="C398">
+        <v>13</v>
+      </c>
+      <c r="D398" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" s="2">
+        <v>45734.13541666666</v>
+      </c>
+      <c r="B399">
+        <v>5863</v>
+      </c>
+      <c r="C399">
+        <v>14</v>
+      </c>
+      <c r="D399" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" s="2">
+        <v>45734.14583333334</v>
+      </c>
+      <c r="B400">
+        <v>5922</v>
+      </c>
+      <c r="C400">
+        <v>15</v>
+      </c>
+      <c r="D400" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" s="2">
+        <v>45734.15625</v>
+      </c>
+      <c r="B401">
+        <v>5919</v>
+      </c>
+      <c r="C401">
+        <v>16</v>
+      </c>
+      <c r="D401" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="2">
+        <v>45734.16666666666</v>
+      </c>
+      <c r="B402">
+        <v>5956</v>
+      </c>
+      <c r="C402">
+        <v>17</v>
+      </c>
+      <c r="D402" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="2">
+        <v>45734.17708333334</v>
+      </c>
+      <c r="B403">
+        <v>6042</v>
+      </c>
+      <c r="C403">
+        <v>18</v>
+      </c>
+      <c r="D403" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" s="2">
+        <v>45734.1875</v>
+      </c>
+      <c r="B404">
+        <v>6135</v>
+      </c>
+      <c r="C404">
+        <v>19</v>
+      </c>
+      <c r="D404" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="2">
+        <v>45734.19791666666</v>
+      </c>
+      <c r="B405">
+        <v>6217</v>
+      </c>
+      <c r="C405">
+        <v>20</v>
+      </c>
+      <c r="D405" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="2">
+        <v>45734.20833333334</v>
+      </c>
+      <c r="B406">
+        <v>6350</v>
+      </c>
+      <c r="C406">
+        <v>21</v>
+      </c>
+      <c r="D406" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="2">
+        <v>45734.21875</v>
+      </c>
+      <c r="B407">
+        <v>6496</v>
+      </c>
+      <c r="C407">
+        <v>22</v>
+      </c>
+      <c r="D407" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="2">
+        <v>45734.22916666666</v>
+      </c>
+      <c r="B408">
+        <v>6650</v>
+      </c>
+      <c r="C408">
+        <v>23</v>
+      </c>
+      <c r="D408" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="2">
+        <v>45734.23958333334</v>
+      </c>
+      <c r="B409">
+        <v>6814</v>
+      </c>
+      <c r="C409">
+        <v>24</v>
+      </c>
+      <c r="D409" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="2">
+        <v>45734.25</v>
+      </c>
+      <c r="B410">
+        <v>7022</v>
+      </c>
+      <c r="C410">
+        <v>25</v>
+      </c>
+      <c r="D410" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="2">
+        <v>45734.26041666666</v>
+      </c>
+      <c r="B411">
+        <v>7214</v>
+      </c>
+      <c r="C411">
+        <v>26</v>
+      </c>
+      <c r="D411" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="2">
+        <v>45734.27083333334</v>
+      </c>
+      <c r="B412">
+        <v>7324</v>
+      </c>
+      <c r="C412">
+        <v>27</v>
+      </c>
+      <c r="D412" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="2">
+        <v>45734.28125</v>
+      </c>
+      <c r="B413">
+        <v>7351</v>
+      </c>
+      <c r="C413">
+        <v>28</v>
+      </c>
+      <c r="D413" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="2">
+        <v>45734.29166666666</v>
+      </c>
+      <c r="B414">
+        <v>7480</v>
+      </c>
+      <c r="C414">
+        <v>29</v>
+      </c>
+      <c r="D414" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="2">
+        <v>45734.30208333334</v>
+      </c>
+      <c r="B415">
+        <v>7592</v>
+      </c>
+      <c r="C415">
+        <v>30</v>
+      </c>
+      <c r="D415" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="2">
+        <v>45734.3125</v>
+      </c>
+      <c r="B416">
+        <v>7634</v>
+      </c>
+      <c r="C416">
+        <v>31</v>
+      </c>
+      <c r="D416" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="2">
+        <v>45734.32291666666</v>
+      </c>
+      <c r="B417">
+        <v>7515</v>
+      </c>
+      <c r="C417">
+        <v>32</v>
+      </c>
+      <c r="D417" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="2">
+        <v>45734.33333333334</v>
+      </c>
+      <c r="B418">
+        <v>7528</v>
+      </c>
+      <c r="C418">
+        <v>33</v>
+      </c>
+      <c r="D418" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="2">
+        <v>45734.34375</v>
+      </c>
+      <c r="B419">
+        <v>7466</v>
+      </c>
+      <c r="C419">
+        <v>34</v>
+      </c>
+      <c r="D419" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="2">
+        <v>45734.35416666666</v>
+      </c>
+      <c r="B420">
+        <v>7440</v>
+      </c>
+      <c r="C420">
+        <v>35</v>
+      </c>
+      <c r="D420" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="2">
+        <v>45734.36458333334</v>
+      </c>
+      <c r="B421">
+        <v>7334</v>
+      </c>
+      <c r="C421">
+        <v>36</v>
+      </c>
+      <c r="D421" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="2">
+        <v>45734.375</v>
+      </c>
+      <c r="B422">
+        <v>7129</v>
+      </c>
+      <c r="C422">
+        <v>37</v>
+      </c>
+      <c r="D422" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="2">
+        <v>45734.38541666666</v>
+      </c>
+      <c r="B423">
+        <v>7055</v>
+      </c>
+      <c r="C423">
+        <v>38</v>
+      </c>
+      <c r="D423" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="2">
+        <v>45734.39583333334</v>
+      </c>
+      <c r="B424">
+        <v>6872</v>
+      </c>
+      <c r="C424">
+        <v>39</v>
+      </c>
+      <c r="D424" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="2">
+        <v>45734.40625</v>
+      </c>
+      <c r="B425">
+        <v>6782</v>
+      </c>
+      <c r="C425">
+        <v>40</v>
+      </c>
+      <c r="D425" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="2">
+        <v>45734.41666666666</v>
+      </c>
+      <c r="B426">
+        <v>6630</v>
+      </c>
+      <c r="C426">
+        <v>41</v>
+      </c>
+      <c r="D426" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="2">
+        <v>45734.42708333334</v>
+      </c>
+      <c r="B427">
+        <v>6520</v>
+      </c>
+      <c r="C427">
+        <v>42</v>
+      </c>
+      <c r="D427" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="2">
+        <v>45734.4375</v>
+      </c>
+      <c r="B428">
+        <v>6408</v>
+      </c>
+      <c r="C428">
+        <v>43</v>
+      </c>
+      <c r="D428" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="2">
+        <v>45734.44791666666</v>
+      </c>
+      <c r="B429">
+        <v>6375</v>
+      </c>
+      <c r="C429">
+        <v>44</v>
+      </c>
+      <c r="D429" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="2">
+        <v>45734.45833333334</v>
+      </c>
+      <c r="B430">
+        <v>0</v>
+      </c>
+      <c r="C430">
+        <v>45</v>
+      </c>
+      <c r="D430" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="2">
+        <v>45734.46875</v>
+      </c>
+      <c r="B431">
+        <v>0</v>
+      </c>
+      <c r="C431">
+        <v>46</v>
+      </c>
+      <c r="D431" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="2">
+        <v>45734.47916666666</v>
+      </c>
+      <c r="B432">
+        <v>0</v>
+      </c>
+      <c r="C432">
+        <v>47</v>
+      </c>
+      <c r="D432" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="2">
+        <v>45734.48958333334</v>
+      </c>
+      <c r="B433">
+        <v>0</v>
+      </c>
+      <c r="C433">
+        <v>48</v>
+      </c>
+      <c r="D433" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="2">
+        <v>45734.5</v>
+      </c>
+      <c r="B434">
+        <v>0</v>
+      </c>
+      <c r="C434">
+        <v>49</v>
+      </c>
+      <c r="D434" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="2">
+        <v>45734.51041666666</v>
+      </c>
+      <c r="B435">
+        <v>0</v>
+      </c>
+      <c r="C435">
+        <v>50</v>
+      </c>
+      <c r="D435" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="2">
+        <v>45734.52083333334</v>
+      </c>
+      <c r="B436">
+        <v>0</v>
+      </c>
+      <c r="C436">
+        <v>51</v>
+      </c>
+      <c r="D436" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="2">
+        <v>45734.53125</v>
+      </c>
+      <c r="B437">
+        <v>0</v>
+      </c>
+      <c r="C437">
+        <v>52</v>
+      </c>
+      <c r="D437" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="2">
+        <v>45734.54166666666</v>
+      </c>
+      <c r="B438">
+        <v>0</v>
+      </c>
+      <c r="C438">
+        <v>53</v>
+      </c>
+      <c r="D438" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="2">
+        <v>45734.55208333334</v>
+      </c>
+      <c r="B439">
+        <v>0</v>
+      </c>
+      <c r="C439">
+        <v>54</v>
+      </c>
+      <c r="D439" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="2">
+        <v>45734.5625</v>
+      </c>
+      <c r="B440">
+        <v>0</v>
+      </c>
+      <c r="C440">
+        <v>55</v>
+      </c>
+      <c r="D440" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="2">
+        <v>45734.57291666666</v>
+      </c>
+      <c r="B441">
+        <v>0</v>
+      </c>
+      <c r="C441">
+        <v>56</v>
+      </c>
+      <c r="D441" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="2">
+        <v>45734.58333333334</v>
+      </c>
+      <c r="B442">
+        <v>0</v>
+      </c>
+      <c r="C442">
+        <v>57</v>
+      </c>
+      <c r="D442" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="2">
+        <v>45734.59375</v>
+      </c>
+      <c r="B443">
+        <v>0</v>
+      </c>
+      <c r="C443">
+        <v>58</v>
+      </c>
+      <c r="D443" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="2">
+        <v>45734.60416666666</v>
+      </c>
+      <c r="B444">
+        <v>0</v>
+      </c>
+      <c r="C444">
+        <v>59</v>
+      </c>
+      <c r="D444" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="2">
+        <v>45734.61458333334</v>
+      </c>
+      <c r="B445">
+        <v>0</v>
+      </c>
+      <c r="C445">
+        <v>60</v>
+      </c>
+      <c r="D445" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="2">
+        <v>45734.625</v>
+      </c>
+      <c r="B446">
+        <v>0</v>
+      </c>
+      <c r="C446">
+        <v>61</v>
+      </c>
+      <c r="D446" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="2">
+        <v>45734.63541666666</v>
+      </c>
+      <c r="B447">
+        <v>0</v>
+      </c>
+      <c r="C447">
+        <v>62</v>
+      </c>
+      <c r="D447" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="2">
+        <v>45734.64583333334</v>
+      </c>
+      <c r="B448">
+        <v>0</v>
+      </c>
+      <c r="C448">
+        <v>63</v>
+      </c>
+      <c r="D448" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="2">
+        <v>45734.65625</v>
+      </c>
+      <c r="B449">
+        <v>0</v>
+      </c>
+      <c r="C449">
+        <v>64</v>
+      </c>
+      <c r="D449" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="2">
+        <v>45734.66666666666</v>
+      </c>
+      <c r="B450">
+        <v>0</v>
+      </c>
+      <c r="C450">
+        <v>65</v>
+      </c>
+      <c r="D450" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="2">
+        <v>45734.67708333334</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
+      </c>
+      <c r="C451">
+        <v>66</v>
+      </c>
+      <c r="D451" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="2">
+        <v>45734.6875</v>
+      </c>
+      <c r="B452">
+        <v>0</v>
+      </c>
+      <c r="C452">
+        <v>67</v>
+      </c>
+      <c r="D452" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="2">
+        <v>45734.69791666666</v>
+      </c>
+      <c r="B453">
+        <v>0</v>
+      </c>
+      <c r="C453">
+        <v>68</v>
+      </c>
+      <c r="D453" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="2">
+        <v>45734.70833333334</v>
+      </c>
+      <c r="B454">
+        <v>0</v>
+      </c>
+      <c r="C454">
+        <v>69</v>
+      </c>
+      <c r="D454" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="2">
+        <v>45734.71875</v>
+      </c>
+      <c r="B455">
+        <v>0</v>
+      </c>
+      <c r="C455">
+        <v>70</v>
+      </c>
+      <c r="D455" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="2">
+        <v>45734.72916666666</v>
+      </c>
+      <c r="B456">
+        <v>0</v>
+      </c>
+      <c r="C456">
+        <v>71</v>
+      </c>
+      <c r="D456" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="2">
+        <v>45734.73958333334</v>
+      </c>
+      <c r="B457">
+        <v>0</v>
+      </c>
+      <c r="C457">
+        <v>72</v>
+      </c>
+      <c r="D457" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="2">
+        <v>45734.75</v>
+      </c>
+      <c r="B458">
+        <v>0</v>
+      </c>
+      <c r="C458">
+        <v>73</v>
+      </c>
+      <c r="D458" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="2">
+        <v>45734.76041666666</v>
+      </c>
+      <c r="B459">
+        <v>0</v>
+      </c>
+      <c r="C459">
+        <v>74</v>
+      </c>
+      <c r="D459" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="2">
+        <v>45734.77083333334</v>
+      </c>
+      <c r="B460">
+        <v>0</v>
+      </c>
+      <c r="C460">
+        <v>75</v>
+      </c>
+      <c r="D460" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="2">
+        <v>45734.78125</v>
+      </c>
+      <c r="B461">
+        <v>0</v>
+      </c>
+      <c r="C461">
+        <v>76</v>
+      </c>
+      <c r="D461" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="2">
+        <v>45734.79166666666</v>
+      </c>
+      <c r="B462">
+        <v>0</v>
+      </c>
+      <c r="C462">
+        <v>77</v>
+      </c>
+      <c r="D462" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="2">
+        <v>45734.80208333334</v>
+      </c>
+      <c r="B463">
+        <v>0</v>
+      </c>
+      <c r="C463">
+        <v>78</v>
+      </c>
+      <c r="D463" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="2">
+        <v>45734.8125</v>
+      </c>
+      <c r="B464">
+        <v>0</v>
+      </c>
+      <c r="C464">
+        <v>79</v>
+      </c>
+      <c r="D464" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="2">
+        <v>45734.82291666666</v>
+      </c>
+      <c r="B465">
+        <v>0</v>
+      </c>
+      <c r="C465">
+        <v>80</v>
+      </c>
+      <c r="D465" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="2">
+        <v>45734.83333333334</v>
+      </c>
+      <c r="B466">
+        <v>0</v>
+      </c>
+      <c r="C466">
+        <v>81</v>
+      </c>
+      <c r="D466" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="2">
+        <v>45734.84375</v>
+      </c>
+      <c r="B467">
+        <v>0</v>
+      </c>
+      <c r="C467">
+        <v>82</v>
+      </c>
+      <c r="D467" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="2">
+        <v>45734.85416666666</v>
+      </c>
+      <c r="B468">
+        <v>0</v>
+      </c>
+      <c r="C468">
+        <v>83</v>
+      </c>
+      <c r="D468" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="2">
+        <v>45734.86458333334</v>
+      </c>
+      <c r="B469">
+        <v>0</v>
+      </c>
+      <c r="C469">
+        <v>84</v>
+      </c>
+      <c r="D469" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="2">
+        <v>45734.875</v>
+      </c>
+      <c r="B470">
+        <v>0</v>
+      </c>
+      <c r="C470">
+        <v>85</v>
+      </c>
+      <c r="D470" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="2">
+        <v>45734.88541666666</v>
+      </c>
+      <c r="B471">
+        <v>0</v>
+      </c>
+      <c r="C471">
+        <v>86</v>
+      </c>
+      <c r="D471" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="2">
+        <v>45734.89583333334</v>
+      </c>
+      <c r="B472">
+        <v>0</v>
+      </c>
+      <c r="C472">
+        <v>87</v>
+      </c>
+      <c r="D472" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="2">
+        <v>45734.90625</v>
+      </c>
+      <c r="B473">
+        <v>0</v>
+      </c>
+      <c r="C473">
+        <v>88</v>
+      </c>
+      <c r="D473" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="2">
+        <v>45734.91666666666</v>
+      </c>
+      <c r="B474">
+        <v>0</v>
+      </c>
+      <c r="C474">
+        <v>89</v>
+      </c>
+      <c r="D474" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="2">
+        <v>45734.92708333334</v>
+      </c>
+      <c r="B475">
+        <v>0</v>
+      </c>
+      <c r="C475">
+        <v>90</v>
+      </c>
+      <c r="D475" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="2">
+        <v>45734.9375</v>
+      </c>
+      <c r="B476">
+        <v>0</v>
+      </c>
+      <c r="C476">
+        <v>91</v>
+      </c>
+      <c r="D476" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="2">
+        <v>45734.94791666666</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+      <c r="C477">
+        <v>92</v>
+      </c>
+      <c r="D477" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="2">
+        <v>45734.95833333334</v>
+      </c>
+      <c r="B478">
+        <v>0</v>
+      </c>
+      <c r="C478">
+        <v>93</v>
+      </c>
+      <c r="D478" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="2">
+        <v>45734.96875</v>
+      </c>
+      <c r="B479">
+        <v>0</v>
+      </c>
+      <c r="C479">
+        <v>94</v>
+      </c>
+      <c r="D479" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" s="2">
+        <v>45734.97916666666</v>
+      </c>
+      <c r="B480">
+        <v>0</v>
+      </c>
+      <c r="C480">
+        <v>95</v>
+      </c>
+      <c r="D480" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="2">
+        <v>45734.98958333334</v>
+      </c>
+      <c r="B481">
+        <v>0</v>
+      </c>
+      <c r="C481">
+        <v>96</v>
+      </c>
+      <c r="D481" t="s">
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
@@ -28,294 +28,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>23.03.20251</t>
-  </si>
-  <si>
-    <t>23.03.20252</t>
-  </si>
-  <si>
-    <t>23.03.20253</t>
-  </si>
-  <si>
-    <t>23.03.20254</t>
-  </si>
-  <si>
-    <t>23.03.20255</t>
-  </si>
-  <si>
-    <t>23.03.20256</t>
-  </si>
-  <si>
-    <t>23.03.20257</t>
-  </si>
-  <si>
-    <t>23.03.20258</t>
-  </si>
-  <si>
-    <t>23.03.20259</t>
-  </si>
-  <si>
-    <t>23.03.202510</t>
-  </si>
-  <si>
-    <t>23.03.202511</t>
-  </si>
-  <si>
-    <t>23.03.202512</t>
-  </si>
-  <si>
-    <t>23.03.202513</t>
-  </si>
-  <si>
-    <t>23.03.202514</t>
-  </si>
-  <si>
-    <t>23.03.202515</t>
-  </si>
-  <si>
-    <t>23.03.202516</t>
-  </si>
-  <si>
-    <t>23.03.202517</t>
-  </si>
-  <si>
-    <t>23.03.202518</t>
-  </si>
-  <si>
-    <t>23.03.202519</t>
-  </si>
-  <si>
-    <t>23.03.202520</t>
-  </si>
-  <si>
-    <t>23.03.202521</t>
-  </si>
-  <si>
-    <t>23.03.202522</t>
-  </si>
-  <si>
-    <t>23.03.202523</t>
-  </si>
-  <si>
-    <t>23.03.202524</t>
-  </si>
-  <si>
-    <t>23.03.202525</t>
-  </si>
-  <si>
-    <t>23.03.202526</t>
-  </si>
-  <si>
-    <t>23.03.202527</t>
-  </si>
-  <si>
-    <t>23.03.202528</t>
-  </si>
-  <si>
-    <t>23.03.202529</t>
-  </si>
-  <si>
-    <t>23.03.202530</t>
-  </si>
-  <si>
-    <t>23.03.202531</t>
-  </si>
-  <si>
-    <t>23.03.202532</t>
-  </si>
-  <si>
-    <t>23.03.202533</t>
-  </si>
-  <si>
-    <t>23.03.202534</t>
-  </si>
-  <si>
-    <t>23.03.202535</t>
-  </si>
-  <si>
-    <t>23.03.202536</t>
-  </si>
-  <si>
-    <t>23.03.202537</t>
-  </si>
-  <si>
-    <t>23.03.202538</t>
-  </si>
-  <si>
-    <t>23.03.202539</t>
-  </si>
-  <si>
-    <t>23.03.202540</t>
-  </si>
-  <si>
-    <t>23.03.202541</t>
-  </si>
-  <si>
-    <t>23.03.202542</t>
-  </si>
-  <si>
-    <t>23.03.202543</t>
-  </si>
-  <si>
-    <t>23.03.202544</t>
-  </si>
-  <si>
-    <t>23.03.202545</t>
-  </si>
-  <si>
-    <t>23.03.202546</t>
-  </si>
-  <si>
-    <t>23.03.202547</t>
-  </si>
-  <si>
-    <t>23.03.202548</t>
-  </si>
-  <si>
-    <t>23.03.202549</t>
-  </si>
-  <si>
-    <t>23.03.202550</t>
-  </si>
-  <si>
-    <t>23.03.202551</t>
-  </si>
-  <si>
-    <t>23.03.202552</t>
-  </si>
-  <si>
-    <t>23.03.202553</t>
-  </si>
-  <si>
-    <t>23.03.202554</t>
-  </si>
-  <si>
-    <t>23.03.202555</t>
-  </si>
-  <si>
-    <t>23.03.202556</t>
-  </si>
-  <si>
-    <t>23.03.202557</t>
-  </si>
-  <si>
-    <t>23.03.202558</t>
-  </si>
-  <si>
-    <t>23.03.202559</t>
-  </si>
-  <si>
-    <t>23.03.202560</t>
-  </si>
-  <si>
-    <t>23.03.202561</t>
-  </si>
-  <si>
-    <t>23.03.202562</t>
-  </si>
-  <si>
-    <t>23.03.202563</t>
-  </si>
-  <si>
-    <t>23.03.202564</t>
-  </si>
-  <si>
-    <t>23.03.202565</t>
-  </si>
-  <si>
-    <t>23.03.202566</t>
-  </si>
-  <si>
-    <t>23.03.202567</t>
-  </si>
-  <si>
-    <t>23.03.202568</t>
-  </si>
-  <si>
-    <t>23.03.202569</t>
-  </si>
-  <si>
-    <t>23.03.202570</t>
-  </si>
-  <si>
-    <t>23.03.202571</t>
-  </si>
-  <si>
-    <t>23.03.202572</t>
-  </si>
-  <si>
-    <t>23.03.202573</t>
-  </si>
-  <si>
-    <t>23.03.202574</t>
-  </si>
-  <si>
-    <t>23.03.202575</t>
-  </si>
-  <si>
-    <t>23.03.202576</t>
-  </si>
-  <si>
-    <t>23.03.202577</t>
-  </si>
-  <si>
-    <t>23.03.202578</t>
-  </si>
-  <si>
-    <t>23.03.202579</t>
-  </si>
-  <si>
-    <t>23.03.202580</t>
-  </si>
-  <si>
-    <t>23.03.202581</t>
-  </si>
-  <si>
-    <t>23.03.202582</t>
-  </si>
-  <si>
-    <t>23.03.202583</t>
-  </si>
-  <si>
-    <t>23.03.202584</t>
-  </si>
-  <si>
-    <t>23.03.202585</t>
-  </si>
-  <si>
-    <t>23.03.202586</t>
-  </si>
-  <si>
-    <t>23.03.202587</t>
-  </si>
-  <si>
-    <t>23.03.202588</t>
-  </si>
-  <si>
-    <t>23.03.202589</t>
-  </si>
-  <si>
-    <t>23.03.202590</t>
-  </si>
-  <si>
-    <t>23.03.202591</t>
-  </si>
-  <si>
-    <t>23.03.202592</t>
-  </si>
-  <si>
-    <t>23.03.202593</t>
-  </si>
-  <si>
-    <t>23.03.202594</t>
-  </si>
-  <si>
-    <t>23.03.202595</t>
-  </si>
-  <si>
-    <t>23.03.202596</t>
-  </si>
-  <si>
     <t>24.03.20251</t>
   </si>
   <si>
@@ -602,6 +314,294 @@
   </si>
   <si>
     <t>24.03.202596</t>
+  </si>
+  <si>
+    <t>25.03.20251</t>
+  </si>
+  <si>
+    <t>25.03.20252</t>
+  </si>
+  <si>
+    <t>25.03.20253</t>
+  </si>
+  <si>
+    <t>25.03.20254</t>
+  </si>
+  <si>
+    <t>25.03.20255</t>
+  </si>
+  <si>
+    <t>25.03.20256</t>
+  </si>
+  <si>
+    <t>25.03.20257</t>
+  </si>
+  <si>
+    <t>25.03.20258</t>
+  </si>
+  <si>
+    <t>25.03.20259</t>
+  </si>
+  <si>
+    <t>25.03.202510</t>
+  </si>
+  <si>
+    <t>25.03.202511</t>
+  </si>
+  <si>
+    <t>25.03.202512</t>
+  </si>
+  <si>
+    <t>25.03.202513</t>
+  </si>
+  <si>
+    <t>25.03.202514</t>
+  </si>
+  <si>
+    <t>25.03.202515</t>
+  </si>
+  <si>
+    <t>25.03.202516</t>
+  </si>
+  <si>
+    <t>25.03.202517</t>
+  </si>
+  <si>
+    <t>25.03.202518</t>
+  </si>
+  <si>
+    <t>25.03.202519</t>
+  </si>
+  <si>
+    <t>25.03.202520</t>
+  </si>
+  <si>
+    <t>25.03.202521</t>
+  </si>
+  <si>
+    <t>25.03.202522</t>
+  </si>
+  <si>
+    <t>25.03.202523</t>
+  </si>
+  <si>
+    <t>25.03.202524</t>
+  </si>
+  <si>
+    <t>25.03.202525</t>
+  </si>
+  <si>
+    <t>25.03.202526</t>
+  </si>
+  <si>
+    <t>25.03.202527</t>
+  </si>
+  <si>
+    <t>25.03.202528</t>
+  </si>
+  <si>
+    <t>25.03.202529</t>
+  </si>
+  <si>
+    <t>25.03.202530</t>
+  </si>
+  <si>
+    <t>25.03.202531</t>
+  </si>
+  <si>
+    <t>25.03.202532</t>
+  </si>
+  <si>
+    <t>25.03.202533</t>
+  </si>
+  <si>
+    <t>25.03.202534</t>
+  </si>
+  <si>
+    <t>25.03.202535</t>
+  </si>
+  <si>
+    <t>25.03.202536</t>
+  </si>
+  <si>
+    <t>25.03.202537</t>
+  </si>
+  <si>
+    <t>25.03.202538</t>
+  </si>
+  <si>
+    <t>25.03.202539</t>
+  </si>
+  <si>
+    <t>25.03.202540</t>
+  </si>
+  <si>
+    <t>25.03.202541</t>
+  </si>
+  <si>
+    <t>25.03.202542</t>
+  </si>
+  <si>
+    <t>25.03.202543</t>
+  </si>
+  <si>
+    <t>25.03.202544</t>
+  </si>
+  <si>
+    <t>25.03.202545</t>
+  </si>
+  <si>
+    <t>25.03.202546</t>
+  </si>
+  <si>
+    <t>25.03.202547</t>
+  </si>
+  <si>
+    <t>25.03.202548</t>
+  </si>
+  <si>
+    <t>25.03.202549</t>
+  </si>
+  <si>
+    <t>25.03.202550</t>
+  </si>
+  <si>
+    <t>25.03.202551</t>
+  </si>
+  <si>
+    <t>25.03.202552</t>
+  </si>
+  <si>
+    <t>25.03.202553</t>
+  </si>
+  <si>
+    <t>25.03.202554</t>
+  </si>
+  <si>
+    <t>25.03.202555</t>
+  </si>
+  <si>
+    <t>25.03.202556</t>
+  </si>
+  <si>
+    <t>25.03.202557</t>
+  </si>
+  <si>
+    <t>25.03.202558</t>
+  </si>
+  <si>
+    <t>25.03.202559</t>
+  </si>
+  <si>
+    <t>25.03.202560</t>
+  </si>
+  <si>
+    <t>25.03.202561</t>
+  </si>
+  <si>
+    <t>25.03.202562</t>
+  </si>
+  <si>
+    <t>25.03.202563</t>
+  </si>
+  <si>
+    <t>25.03.202564</t>
+  </si>
+  <si>
+    <t>25.03.202565</t>
+  </si>
+  <si>
+    <t>25.03.202566</t>
+  </si>
+  <si>
+    <t>25.03.202567</t>
+  </si>
+  <si>
+    <t>25.03.202568</t>
+  </si>
+  <si>
+    <t>25.03.202569</t>
+  </si>
+  <si>
+    <t>25.03.202570</t>
+  </si>
+  <si>
+    <t>25.03.202571</t>
+  </si>
+  <si>
+    <t>25.03.202572</t>
+  </si>
+  <si>
+    <t>25.03.202573</t>
+  </si>
+  <si>
+    <t>25.03.202574</t>
+  </si>
+  <si>
+    <t>25.03.202575</t>
+  </si>
+  <si>
+    <t>25.03.202576</t>
+  </si>
+  <si>
+    <t>25.03.202577</t>
+  </si>
+  <si>
+    <t>25.03.202578</t>
+  </si>
+  <si>
+    <t>25.03.202579</t>
+  </si>
+  <si>
+    <t>25.03.202580</t>
+  </si>
+  <si>
+    <t>25.03.202581</t>
+  </si>
+  <si>
+    <t>25.03.202582</t>
+  </si>
+  <si>
+    <t>25.03.202583</t>
+  </si>
+  <si>
+    <t>25.03.202584</t>
+  </si>
+  <si>
+    <t>25.03.202585</t>
+  </si>
+  <si>
+    <t>25.03.202586</t>
+  </si>
+  <si>
+    <t>25.03.202587</t>
+  </si>
+  <si>
+    <t>25.03.202588</t>
+  </si>
+  <si>
+    <t>25.03.202589</t>
+  </si>
+  <si>
+    <t>25.03.202590</t>
+  </si>
+  <si>
+    <t>25.03.202591</t>
+  </si>
+  <si>
+    <t>25.03.202592</t>
+  </si>
+  <si>
+    <t>25.03.202593</t>
+  </si>
+  <si>
+    <t>25.03.202594</t>
+  </si>
+  <si>
+    <t>25.03.202595</t>
+  </si>
+  <si>
+    <t>25.03.202596</t>
   </si>
 </sst>
 </file>
@@ -985,10 +985,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45739</v>
+        <v>45740</v>
       </c>
       <c r="B2">
-        <v>5327</v>
+        <v>5152</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -999,10 +999,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45739.01041666666</v>
+        <v>45740.01041666666</v>
       </c>
       <c r="B3">
-        <v>5252</v>
+        <v>5127</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45739.02083333334</v>
+        <v>45740.02083333334</v>
       </c>
       <c r="B4">
-        <v>5195</v>
+        <v>5090</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45739.03125</v>
+        <v>45740.03125</v>
       </c>
       <c r="B5">
-        <v>5204</v>
+        <v>5049</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45739.04166666666</v>
+        <v>45740.04166666666</v>
       </c>
       <c r="B6">
-        <v>5133</v>
+        <v>5035</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45739.05208333334</v>
+        <v>45740.05208333334</v>
       </c>
       <c r="B7">
-        <v>5158</v>
+        <v>5015</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45739.0625</v>
+        <v>45740.0625</v>
       </c>
       <c r="B8">
-        <v>5108</v>
+        <v>4989</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45739.07291666666</v>
+        <v>45740.07291666666</v>
       </c>
       <c r="B9">
-        <v>5068</v>
+        <v>4956</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45739.08333333334</v>
+        <v>45740.08333333334</v>
       </c>
       <c r="B10">
-        <v>5066</v>
+        <v>4965</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1111,10 +1111,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45739.09375</v>
+        <v>45740.09375</v>
       </c>
       <c r="B11">
-        <v>5054</v>
+        <v>4972</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45739.10416666666</v>
+        <v>45740.10416666666</v>
       </c>
       <c r="B12">
-        <v>5021</v>
+        <v>4968</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1139,10 +1139,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45739.11458333334</v>
+        <v>45740.11458333334</v>
       </c>
       <c r="B13">
-        <v>5014</v>
+        <v>4985</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45739.125</v>
+        <v>45740.125</v>
       </c>
       <c r="B14">
-        <v>5017</v>
+        <v>5001</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45739.13541666666</v>
+        <v>45740.13541666666</v>
       </c>
       <c r="B15">
-        <v>5026</v>
+        <v>5022</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1181,10 +1181,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45739.14583333334</v>
+        <v>45740.14583333334</v>
       </c>
       <c r="B16">
-        <v>5033</v>
+        <v>5059</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45739.15625</v>
+        <v>45740.15625</v>
       </c>
       <c r="B17">
-        <v>5037</v>
+        <v>5103</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1209,10 +1209,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45739.16666666666</v>
+        <v>45740.16666666666</v>
       </c>
       <c r="B18">
-        <v>5058</v>
+        <v>5246</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1223,10 +1223,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45739.17708333334</v>
+        <v>45740.17708333334</v>
       </c>
       <c r="B19">
-        <v>5070</v>
+        <v>5333</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1237,10 +1237,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45739.1875</v>
+        <v>45740.1875</v>
       </c>
       <c r="B20">
-        <v>5083</v>
+        <v>5420</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45739.19791666666</v>
+        <v>45740.19791666666</v>
       </c>
       <c r="B21">
-        <v>5068</v>
+        <v>5528</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45739.20833333334</v>
+        <v>45740.20833333334</v>
       </c>
       <c r="B22">
-        <v>5051</v>
+        <v>5758</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45739.21875</v>
+        <v>45740.21875</v>
       </c>
       <c r="B23">
-        <v>5037</v>
+        <v>5863</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1293,10 +1293,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45739.22916666666</v>
+        <v>45740.22916666666</v>
       </c>
       <c r="B24">
-        <v>5028</v>
+        <v>6016</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45739.23958333334</v>
+        <v>45740.23958333334</v>
       </c>
       <c r="B25">
-        <v>5042</v>
+        <v>6211</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45739.25</v>
+        <v>45740.25</v>
       </c>
       <c r="B26">
-        <v>5097</v>
+        <v>6501</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45739.26041666666</v>
+        <v>45740.26041666666</v>
       </c>
       <c r="B27">
-        <v>5125</v>
+        <v>6683</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45739.27083333334</v>
+        <v>45740.27083333334</v>
       </c>
       <c r="B28">
-        <v>5141</v>
+        <v>6812</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45739.28125</v>
+        <v>45740.28125</v>
       </c>
       <c r="B29">
-        <v>5156</v>
+        <v>6886</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45739.29166666666</v>
+        <v>45740.29166666666</v>
       </c>
       <c r="B30">
-        <v>5185</v>
+        <v>7031</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1391,10 +1391,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45739.30208333334</v>
+        <v>45740.30208333334</v>
       </c>
       <c r="B31">
-        <v>5164</v>
+        <v>7044</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45739.3125</v>
+        <v>45740.3125</v>
       </c>
       <c r="B32">
-        <v>5123</v>
+        <v>7069</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1419,10 +1419,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45739.32291666666</v>
+        <v>45740.32291666666</v>
       </c>
       <c r="B33">
-        <v>5092</v>
+        <v>6997</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1433,10 +1433,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45739.33333333334</v>
+        <v>45740.33333333334</v>
       </c>
       <c r="B34">
-        <v>5092</v>
+        <v>6885</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1447,10 +1447,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45739.34375</v>
+        <v>45740.34375</v>
       </c>
       <c r="B35">
-        <v>5136</v>
+        <v>6864</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45739.35416666666</v>
+        <v>45740.35416666666</v>
       </c>
       <c r="B36">
-        <v>5009</v>
+        <v>6755</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45739.36458333334</v>
+        <v>45740.36458333334</v>
       </c>
       <c r="B37">
-        <v>4952</v>
+        <v>6647</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1489,10 +1489,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45739.375</v>
+        <v>45740.375</v>
       </c>
       <c r="B38">
-        <v>4943</v>
+        <v>6460</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45739.38541666666</v>
+        <v>45740.38541666666</v>
       </c>
       <c r="B39">
-        <v>4863</v>
+        <v>6411</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45739.39583333334</v>
+        <v>45740.39583333334</v>
       </c>
       <c r="B40">
-        <v>4848</v>
+        <v>6290</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45739.40625</v>
+        <v>45740.40625</v>
       </c>
       <c r="B41">
-        <v>4862</v>
+        <v>6219</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45739.41666666666</v>
+        <v>45740.41666666666</v>
       </c>
       <c r="B42">
-        <v>4820</v>
+        <v>6151</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45739.42708333334</v>
+        <v>45740.42708333334</v>
       </c>
       <c r="B43">
-        <v>4793</v>
+        <v>6149</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45739.4375</v>
+        <v>45740.4375</v>
       </c>
       <c r="B44">
-        <v>4773</v>
+        <v>6123</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45739.44791666666</v>
+        <v>45740.44791666666</v>
       </c>
       <c r="B45">
-        <v>4750</v>
+        <v>6106</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45739.45833333334</v>
+        <v>45740.45833333334</v>
       </c>
       <c r="B46">
-        <v>4744</v>
+        <v>5883</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45739.46875</v>
+        <v>45740.46875</v>
       </c>
       <c r="B47">
-        <v>4774</v>
+        <v>5864</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45739.47916666666</v>
+        <v>45740.47916666666</v>
       </c>
       <c r="B48">
-        <v>4772</v>
+        <v>5883</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1643,10 +1643,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45739.48958333334</v>
+        <v>45740.48958333334</v>
       </c>
       <c r="B49">
-        <v>4763</v>
+        <v>5950</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45739.5</v>
+        <v>45740.5</v>
       </c>
       <c r="B50">
-        <v>4804</v>
+        <v>5856</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1671,10 +1671,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45739.51041666666</v>
+        <v>45740.51041666666</v>
       </c>
       <c r="B51">
-        <v>4827</v>
+        <v>5889</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45739.52083333334</v>
+        <v>45740.52083333334</v>
       </c>
       <c r="B52">
-        <v>4840</v>
+        <v>5858</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1699,10 +1699,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45739.53125</v>
+        <v>45740.53125</v>
       </c>
       <c r="B53">
-        <v>4870</v>
+        <v>5946</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45739.54166666666</v>
+        <v>45740.54166666666</v>
       </c>
       <c r="B54">
-        <v>4855</v>
+        <v>5937</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45739.55208333334</v>
+        <v>45740.55208333334</v>
       </c>
       <c r="B55">
-        <v>4889</v>
+        <v>5996</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45739.5625</v>
+        <v>45740.5625</v>
       </c>
       <c r="B56">
-        <v>4906</v>
+        <v>5978</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -1755,10 +1755,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45739.57291666666</v>
+        <v>45740.57291666666</v>
       </c>
       <c r="B57">
-        <v>4935</v>
+        <v>6025</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45739.58333333334</v>
+        <v>45740.58333333334</v>
       </c>
       <c r="B58">
-        <v>5015</v>
+        <v>6038</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45739.59375</v>
+        <v>45740.59375</v>
       </c>
       <c r="B59">
-        <v>5063</v>
+        <v>6173</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45739.60416666666</v>
+        <v>45740.60416666666</v>
       </c>
       <c r="B60">
-        <v>5144</v>
+        <v>6247</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -1811,10 +1811,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45739.61458333334</v>
+        <v>45740.61458333334</v>
       </c>
       <c r="B61">
-        <v>5210</v>
+        <v>6368</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45739.625</v>
+        <v>45740.625</v>
       </c>
       <c r="B62">
-        <v>5286</v>
+        <v>6433</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45739.63541666666</v>
+        <v>45740.63541666666</v>
       </c>
       <c r="B63">
-        <v>5358</v>
+        <v>6598</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -1853,10 +1853,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45739.64583333334</v>
+        <v>45740.64583333334</v>
       </c>
       <c r="B64">
-        <v>5431</v>
+        <v>6716</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45739.65625</v>
+        <v>45740.65625</v>
       </c>
       <c r="B65">
-        <v>5512</v>
+        <v>6805</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45739.66666666666</v>
+        <v>45740.66666666666</v>
       </c>
       <c r="B66">
-        <v>5612</v>
+        <v>6820</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45739.67708333334</v>
+        <v>45740.67708333334</v>
       </c>
       <c r="B67">
-        <v>5727</v>
+        <v>6948</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45739.6875</v>
+        <v>45740.6875</v>
       </c>
       <c r="B68">
-        <v>5825</v>
+        <v>6984</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45739.69791666666</v>
+        <v>45740.69791666666</v>
       </c>
       <c r="B69">
-        <v>5915</v>
+        <v>7102</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45739.70833333334</v>
+        <v>45740.70833333334</v>
       </c>
       <c r="B70">
-        <v>6050</v>
+        <v>7164</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45739.71875</v>
+        <v>45740.71875</v>
       </c>
       <c r="B71">
-        <v>6164</v>
+        <v>7279</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45739.72916666666</v>
+        <v>45740.72916666666</v>
       </c>
       <c r="B72">
-        <v>6318</v>
+        <v>7423</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45739.73958333334</v>
+        <v>45740.73958333334</v>
       </c>
       <c r="B73">
-        <v>6469</v>
+        <v>7576</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45739.75</v>
+        <v>45740.75</v>
       </c>
       <c r="B74">
-        <v>6635</v>
+        <v>7645</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -2007,10 +2007,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45739.76041666666</v>
+        <v>45740.76041666666</v>
       </c>
       <c r="B75">
-        <v>6699</v>
+        <v>7730</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45739.77083333334</v>
+        <v>45740.77083333334</v>
       </c>
       <c r="B76">
-        <v>6743</v>
+        <v>7795</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45739.78125</v>
+        <v>45740.78125</v>
       </c>
       <c r="B77">
-        <v>6768</v>
+        <v>7786</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -2049,10 +2049,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45739.79166666666</v>
+        <v>45740.79166666666</v>
       </c>
       <c r="B78">
-        <v>6750</v>
+        <v>7729</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45739.80208333334</v>
+        <v>45740.80208333334</v>
       </c>
       <c r="B79">
-        <v>6716</v>
+        <v>7655</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45739.8125</v>
+        <v>45740.8125</v>
       </c>
       <c r="B80">
-        <v>6711</v>
+        <v>7608</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45739.82291666666</v>
+        <v>45740.82291666666</v>
       </c>
       <c r="B81">
-        <v>6700</v>
+        <v>7537</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -2105,10 +2105,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45739.83333333334</v>
+        <v>45740.83333333334</v>
       </c>
       <c r="B82">
-        <v>6626</v>
+        <v>7389</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45739.84375</v>
+        <v>45740.84375</v>
       </c>
       <c r="B83">
-        <v>6519</v>
+        <v>7259</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -2133,10 +2133,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45739.85416666666</v>
+        <v>45740.85416666666</v>
       </c>
       <c r="B84">
-        <v>6398</v>
+        <v>7156</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45739.86458333334</v>
+        <v>45740.86458333334</v>
       </c>
       <c r="B85">
-        <v>6282</v>
+        <v>7008</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -2161,10 +2161,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45739.875</v>
+        <v>45740.875</v>
       </c>
       <c r="B86">
-        <v>6104</v>
+        <v>6800</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45739.88541666666</v>
+        <v>45740.88541666666</v>
       </c>
       <c r="B87">
-        <v>5986</v>
+        <v>6630</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -2189,10 +2189,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45739.89583333334</v>
+        <v>45740.89583333334</v>
       </c>
       <c r="B88">
-        <v>5851</v>
+        <v>6496</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45739.90625</v>
+        <v>45740.90625</v>
       </c>
       <c r="B89">
-        <v>5752</v>
+        <v>6405</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45739.91666666666</v>
+        <v>45740.91666666666</v>
       </c>
       <c r="B90">
-        <v>5632</v>
+        <v>6173</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45739.92708333334</v>
+        <v>45740.92708333334</v>
       </c>
       <c r="B91">
-        <v>5538</v>
+        <v>6048</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45739.9375</v>
+        <v>45740.9375</v>
       </c>
       <c r="B92">
-        <v>5450</v>
+        <v>5954</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45739.94791666666</v>
+        <v>45740.94791666666</v>
       </c>
       <c r="B93">
-        <v>5370</v>
+        <v>5877</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -2273,10 +2273,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45739.95833333334</v>
+        <v>45740.95833333334</v>
       </c>
       <c r="B94">
-        <v>5322</v>
+        <v>5831</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45739.96875</v>
+        <v>45740.96875</v>
       </c>
       <c r="B95">
-        <v>5299</v>
+        <v>5734</v>
       </c>
       <c r="C95">
         <v>94</v>
@@ -2301,10 +2301,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45739.97916666666</v>
+        <v>45740.97916666666</v>
       </c>
       <c r="B96">
-        <v>5246</v>
+        <v>5728</v>
       </c>
       <c r="C96">
         <v>95</v>
@@ -2315,10 +2315,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>45739.98958333334</v>
+        <v>45740.98958333334</v>
       </c>
       <c r="B97">
-        <v>5193</v>
+        <v>5644</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>45740</v>
+        <v>45741</v>
       </c>
       <c r="B98">
-        <v>5152</v>
+        <v>5618</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>45740.01041666666</v>
+        <v>45741.01041666666</v>
       </c>
       <c r="B99">
-        <v>5127</v>
+        <v>5550</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>45740.02083333334</v>
+        <v>45741.02083333334</v>
       </c>
       <c r="B100">
-        <v>5090</v>
+        <v>5514</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2371,10 +2371,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>45740.03125</v>
+        <v>45741.03125</v>
       </c>
       <c r="B101">
-        <v>5049</v>
+        <v>5488</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>45740.04166666666</v>
+        <v>45741.04166666666</v>
       </c>
       <c r="B102">
-        <v>5035</v>
+        <v>5447</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>45740.05208333334</v>
+        <v>45741.05208333334</v>
       </c>
       <c r="B103">
-        <v>5015</v>
+        <v>5414</v>
       </c>
       <c r="C103">
         <v>6</v>
@@ -2413,10 +2413,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>45740.0625</v>
+        <v>45741.0625</v>
       </c>
       <c r="B104">
-        <v>4989</v>
+        <v>5411</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -2427,10 +2427,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>45740.07291666666</v>
+        <v>45741.07291666666</v>
       </c>
       <c r="B105">
-        <v>4956</v>
+        <v>5415</v>
       </c>
       <c r="C105">
         <v>8</v>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>45740.08333333334</v>
+        <v>45741.08333333334</v>
       </c>
       <c r="B106">
-        <v>4965</v>
+        <v>5330</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -2455,10 +2455,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>45740.09375</v>
+        <v>45741.09375</v>
       </c>
       <c r="B107">
-        <v>4972</v>
+        <v>5310</v>
       </c>
       <c r="C107">
         <v>10</v>
@@ -2469,10 +2469,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>45740.10416666666</v>
+        <v>45741.10416666666</v>
       </c>
       <c r="B108">
-        <v>4968</v>
+        <v>5307</v>
       </c>
       <c r="C108">
         <v>11</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>45740.11458333334</v>
+        <v>45741.11458333334</v>
       </c>
       <c r="B109">
-        <v>4985</v>
+        <v>5318</v>
       </c>
       <c r="C109">
         <v>12</v>
@@ -2497,10 +2497,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>45740.125</v>
+        <v>45741.125</v>
       </c>
       <c r="B110">
-        <v>5001</v>
+        <v>5339</v>
       </c>
       <c r="C110">
         <v>13</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>45740.13541666666</v>
+        <v>45741.13541666666</v>
       </c>
       <c r="B111">
-        <v>5022</v>
+        <v>5370</v>
       </c>
       <c r="C111">
         <v>14</v>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>45740.14583333334</v>
+        <v>45741.14583333334</v>
       </c>
       <c r="B112">
-        <v>5059</v>
+        <v>5422</v>
       </c>
       <c r="C112">
         <v>15</v>
@@ -2539,10 +2539,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>45740.15625</v>
+        <v>45741.15625</v>
       </c>
       <c r="B113">
-        <v>5103</v>
+        <v>5464</v>
       </c>
       <c r="C113">
         <v>16</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>45740.16666666666</v>
+        <v>45741.16666666666</v>
       </c>
       <c r="B114">
-        <v>5246</v>
+        <v>5528</v>
       </c>
       <c r="C114">
         <v>17</v>
@@ -2567,10 +2567,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>45740.17708333334</v>
+        <v>45741.17708333334</v>
       </c>
       <c r="B115">
-        <v>5333</v>
+        <v>5592</v>
       </c>
       <c r="C115">
         <v>18</v>
@@ -2581,10 +2581,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>45740.1875</v>
+        <v>45741.1875</v>
       </c>
       <c r="B116">
-        <v>5420</v>
+        <v>5669</v>
       </c>
       <c r="C116">
         <v>19</v>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>45740.19791666666</v>
+        <v>45741.19791666666</v>
       </c>
       <c r="B117">
-        <v>5528</v>
+        <v>5744</v>
       </c>
       <c r="C117">
         <v>20</v>
@@ -2609,10 +2609,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>45740.20833333334</v>
+        <v>45741.20833333334</v>
       </c>
       <c r="B118">
-        <v>5758</v>
+        <v>5856</v>
       </c>
       <c r="C118">
         <v>21</v>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>45740.21875</v>
+        <v>45741.21875</v>
       </c>
       <c r="B119">
-        <v>5863</v>
+        <v>5917</v>
       </c>
       <c r="C119">
         <v>22</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>45740.22916666666</v>
+        <v>45741.22916666666</v>
       </c>
       <c r="B120">
-        <v>6016</v>
+        <v>6039</v>
       </c>
       <c r="C120">
         <v>23</v>
@@ -2651,10 +2651,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>45740.23958333334</v>
+        <v>45741.23958333334</v>
       </c>
       <c r="B121">
-        <v>6211</v>
+        <v>6176</v>
       </c>
       <c r="C121">
         <v>24</v>
@@ -2665,10 +2665,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>45740.25</v>
+        <v>45741.25</v>
       </c>
       <c r="B122">
-        <v>6501</v>
+        <v>6367</v>
       </c>
       <c r="C122">
         <v>25</v>
@@ -2679,10 +2679,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>45740.26041666666</v>
+        <v>45741.26041666666</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>6444</v>
       </c>
       <c r="C123">
         <v>26</v>
@@ -2693,10 +2693,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>45740.27083333334</v>
+        <v>45741.27083333334</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>6526</v>
       </c>
       <c r="C124">
         <v>27</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>45740.28125</v>
+        <v>45741.28125</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>6537</v>
       </c>
       <c r="C125">
         <v>28</v>
@@ -2721,10 +2721,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>45740.29166666666</v>
+        <v>45741.29166666666</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>6608</v>
       </c>
       <c r="C126">
         <v>29</v>
@@ -2735,10 +2735,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>45740.30208333334</v>
+        <v>45741.30208333334</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>6527</v>
       </c>
       <c r="C127">
         <v>30</v>
@@ -2749,10 +2749,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>45740.3125</v>
+        <v>45741.3125</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>6528</v>
       </c>
       <c r="C128">
         <v>31</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>45740.32291666666</v>
+        <v>45741.32291666666</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>6475</v>
       </c>
       <c r="C129">
         <v>32</v>
@@ -2777,10 +2777,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>45740.33333333334</v>
+        <v>45741.33333333334</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>6330</v>
       </c>
       <c r="C130">
         <v>33</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>45740.34375</v>
+        <v>45741.34375</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>6286</v>
       </c>
       <c r="C131">
         <v>34</v>
@@ -2805,10 +2805,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>45740.35416666666</v>
+        <v>45741.35416666666</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>6184</v>
       </c>
       <c r="C132">
         <v>35</v>
@@ -2819,10 +2819,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>45740.36458333334</v>
+        <v>45741.36458333334</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>6101</v>
       </c>
       <c r="C133">
         <v>36</v>
@@ -2833,10 +2833,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>45740.375</v>
+        <v>45741.375</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>5946</v>
       </c>
       <c r="C134">
         <v>37</v>
@@ -2847,10 +2847,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>45740.38541666666</v>
+        <v>45741.38541666666</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>5894</v>
       </c>
       <c r="C135">
         <v>38</v>
@@ -2861,10 +2861,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>45740.39583333334</v>
+        <v>45741.39583333334</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>5772</v>
       </c>
       <c r="C136">
         <v>39</v>
@@ -2875,10 +2875,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>45740.40625</v>
+        <v>45741.40625</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>5729</v>
       </c>
       <c r="C137">
         <v>40</v>
@@ -2889,10 +2889,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>45740.41666666666</v>
+        <v>45741.41666666666</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>5592</v>
       </c>
       <c r="C138">
         <v>41</v>
@@ -2903,10 +2903,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>45740.42708333334</v>
+        <v>45741.42708333334</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>5555</v>
       </c>
       <c r="C139">
         <v>42</v>
@@ -2917,10 +2917,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>45740.4375</v>
+        <v>45741.4375</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>5515</v>
       </c>
       <c r="C140">
         <v>43</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>45740.44791666666</v>
+        <v>45741.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>45740.45833333334</v>
+        <v>45741.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>45740.46875</v>
+        <v>45741.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>45740.47916666666</v>
+        <v>45741.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>45740.48958333334</v>
+        <v>45741.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>45740.5</v>
+        <v>45741.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>45740.51041666666</v>
+        <v>45741.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>45740.52083333334</v>
+        <v>45741.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>45740.53125</v>
+        <v>45741.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>45740.54166666666</v>
+        <v>45741.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>45740.55208333334</v>
+        <v>45741.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>45740.5625</v>
+        <v>45741.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>45740.57291666666</v>
+        <v>45741.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>45740.58333333334</v>
+        <v>45741.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>45740.59375</v>
+        <v>45741.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>45740.60416666666</v>
+        <v>45741.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>45740.61458333334</v>
+        <v>45741.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>45740.625</v>
+        <v>45741.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>45740.63541666666</v>
+        <v>45741.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>45740.64583333334</v>
+        <v>45741.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>45740.65625</v>
+        <v>45741.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>45740.66666666666</v>
+        <v>45741.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>45740.67708333334</v>
+        <v>45741.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>45740.6875</v>
+        <v>45741.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>45740.69791666666</v>
+        <v>45741.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>45740.70833333334</v>
+        <v>45741.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>45740.71875</v>
+        <v>45741.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>45740.72916666666</v>
+        <v>45741.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>45740.73958333334</v>
+        <v>45741.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>45740.75</v>
+        <v>45741.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>45740.76041666666</v>
+        <v>45741.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>45740.77083333334</v>
+        <v>45741.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>45740.78125</v>
+        <v>45741.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>45740.79166666666</v>
+        <v>45741.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>45740.80208333334</v>
+        <v>45741.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>45740.8125</v>
+        <v>45741.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>45740.82291666666</v>
+        <v>45741.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>45740.83333333334</v>
+        <v>45741.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>45740.84375</v>
+        <v>45741.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>45740.85416666666</v>
+        <v>45741.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>45740.86458333334</v>
+        <v>45741.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>45740.875</v>
+        <v>45741.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>45740.88541666666</v>
+        <v>45741.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>45740.89583333334</v>
+        <v>45741.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>45740.90625</v>
+        <v>45741.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>45740.91666666666</v>
+        <v>45741.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>45740.92708333334</v>
+        <v>45741.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>45740.9375</v>
+        <v>45741.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>45740.94791666666</v>
+        <v>45741.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>45740.95833333334</v>
+        <v>45741.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>45740.96875</v>
+        <v>45741.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>45740.97916666666</v>
+        <v>45741.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>45740.98958333334</v>
+        <v>45741.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
@@ -28,580 +28,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>24.03.20251</t>
-  </si>
-  <si>
-    <t>24.03.20252</t>
-  </si>
-  <si>
-    <t>24.03.20253</t>
-  </si>
-  <si>
-    <t>24.03.20254</t>
-  </si>
-  <si>
-    <t>24.03.20255</t>
-  </si>
-  <si>
-    <t>24.03.20256</t>
-  </si>
-  <si>
-    <t>24.03.20257</t>
-  </si>
-  <si>
-    <t>24.03.20258</t>
-  </si>
-  <si>
-    <t>24.03.20259</t>
-  </si>
-  <si>
-    <t>24.03.202510</t>
-  </si>
-  <si>
-    <t>24.03.202511</t>
-  </si>
-  <si>
-    <t>24.03.202512</t>
-  </si>
-  <si>
-    <t>24.03.202513</t>
-  </si>
-  <si>
-    <t>24.03.202514</t>
-  </si>
-  <si>
-    <t>24.03.202515</t>
-  </si>
-  <si>
-    <t>24.03.202516</t>
-  </si>
-  <si>
-    <t>24.03.202517</t>
-  </si>
-  <si>
-    <t>24.03.202518</t>
-  </si>
-  <si>
-    <t>24.03.202519</t>
-  </si>
-  <si>
-    <t>24.03.202520</t>
-  </si>
-  <si>
-    <t>24.03.202521</t>
-  </si>
-  <si>
-    <t>24.03.202522</t>
-  </si>
-  <si>
-    <t>24.03.202523</t>
-  </si>
-  <si>
-    <t>24.03.202524</t>
-  </si>
-  <si>
-    <t>24.03.202525</t>
-  </si>
-  <si>
-    <t>24.03.202526</t>
-  </si>
-  <si>
-    <t>24.03.202527</t>
-  </si>
-  <si>
-    <t>24.03.202528</t>
-  </si>
-  <si>
-    <t>24.03.202529</t>
-  </si>
-  <si>
-    <t>24.03.202530</t>
-  </si>
-  <si>
-    <t>24.03.202531</t>
-  </si>
-  <si>
-    <t>24.03.202532</t>
-  </si>
-  <si>
-    <t>24.03.202533</t>
-  </si>
-  <si>
-    <t>24.03.202534</t>
-  </si>
-  <si>
-    <t>24.03.202535</t>
-  </si>
-  <si>
-    <t>24.03.202536</t>
-  </si>
-  <si>
-    <t>24.03.202537</t>
-  </si>
-  <si>
-    <t>24.03.202538</t>
-  </si>
-  <si>
-    <t>24.03.202539</t>
-  </si>
-  <si>
-    <t>24.03.202540</t>
-  </si>
-  <si>
-    <t>24.03.202541</t>
-  </si>
-  <si>
-    <t>24.03.202542</t>
-  </si>
-  <si>
-    <t>24.03.202543</t>
-  </si>
-  <si>
-    <t>24.03.202544</t>
-  </si>
-  <si>
-    <t>24.03.202545</t>
-  </si>
-  <si>
-    <t>24.03.202546</t>
-  </si>
-  <si>
-    <t>24.03.202547</t>
-  </si>
-  <si>
-    <t>24.03.202548</t>
-  </si>
-  <si>
-    <t>24.03.202549</t>
-  </si>
-  <si>
-    <t>24.03.202550</t>
-  </si>
-  <si>
-    <t>24.03.202551</t>
-  </si>
-  <si>
-    <t>24.03.202552</t>
-  </si>
-  <si>
-    <t>24.03.202553</t>
-  </si>
-  <si>
-    <t>24.03.202554</t>
-  </si>
-  <si>
-    <t>24.03.202555</t>
-  </si>
-  <si>
-    <t>24.03.202556</t>
-  </si>
-  <si>
-    <t>24.03.202557</t>
-  </si>
-  <si>
-    <t>24.03.202558</t>
-  </si>
-  <si>
-    <t>24.03.202559</t>
-  </si>
-  <si>
-    <t>24.03.202560</t>
-  </si>
-  <si>
-    <t>24.03.202561</t>
-  </si>
-  <si>
-    <t>24.03.202562</t>
-  </si>
-  <si>
-    <t>24.03.202563</t>
-  </si>
-  <si>
-    <t>24.03.202564</t>
-  </si>
-  <si>
-    <t>24.03.202565</t>
-  </si>
-  <si>
-    <t>24.03.202566</t>
-  </si>
-  <si>
-    <t>24.03.202567</t>
-  </si>
-  <si>
-    <t>24.03.202568</t>
-  </si>
-  <si>
-    <t>24.03.202569</t>
-  </si>
-  <si>
-    <t>24.03.202570</t>
-  </si>
-  <si>
-    <t>24.03.202571</t>
-  </si>
-  <si>
-    <t>24.03.202572</t>
-  </si>
-  <si>
-    <t>24.03.202573</t>
-  </si>
-  <si>
-    <t>24.03.202574</t>
-  </si>
-  <si>
-    <t>24.03.202575</t>
-  </si>
-  <si>
-    <t>24.03.202576</t>
-  </si>
-  <si>
-    <t>24.03.202577</t>
-  </si>
-  <si>
-    <t>24.03.202578</t>
-  </si>
-  <si>
-    <t>24.03.202579</t>
-  </si>
-  <si>
-    <t>24.03.202580</t>
-  </si>
-  <si>
-    <t>24.03.202581</t>
-  </si>
-  <si>
-    <t>24.03.202582</t>
-  </si>
-  <si>
-    <t>24.03.202583</t>
-  </si>
-  <si>
-    <t>24.03.202584</t>
-  </si>
-  <si>
-    <t>24.03.202585</t>
-  </si>
-  <si>
-    <t>24.03.202586</t>
-  </si>
-  <si>
-    <t>24.03.202587</t>
-  </si>
-  <si>
-    <t>24.03.202588</t>
-  </si>
-  <si>
-    <t>24.03.202589</t>
-  </si>
-  <si>
-    <t>24.03.202590</t>
-  </si>
-  <si>
-    <t>24.03.202591</t>
-  </si>
-  <si>
-    <t>24.03.202592</t>
-  </si>
-  <si>
-    <t>24.03.202593</t>
-  </si>
-  <si>
-    <t>24.03.202594</t>
-  </si>
-  <si>
-    <t>24.03.202595</t>
-  </si>
-  <si>
-    <t>24.03.202596</t>
-  </si>
-  <si>
-    <t>25.03.20251</t>
-  </si>
-  <si>
-    <t>25.03.20252</t>
-  </si>
-  <si>
-    <t>25.03.20253</t>
-  </si>
-  <si>
-    <t>25.03.20254</t>
-  </si>
-  <si>
-    <t>25.03.20255</t>
-  </si>
-  <si>
-    <t>25.03.20256</t>
-  </si>
-  <si>
-    <t>25.03.20257</t>
-  </si>
-  <si>
-    <t>25.03.20258</t>
-  </si>
-  <si>
-    <t>25.03.20259</t>
-  </si>
-  <si>
-    <t>25.03.202510</t>
-  </si>
-  <si>
-    <t>25.03.202511</t>
-  </si>
-  <si>
-    <t>25.03.202512</t>
-  </si>
-  <si>
-    <t>25.03.202513</t>
-  </si>
-  <si>
-    <t>25.03.202514</t>
-  </si>
-  <si>
-    <t>25.03.202515</t>
-  </si>
-  <si>
-    <t>25.03.202516</t>
-  </si>
-  <si>
-    <t>25.03.202517</t>
-  </si>
-  <si>
-    <t>25.03.202518</t>
-  </si>
-  <si>
-    <t>25.03.202519</t>
-  </si>
-  <si>
-    <t>25.03.202520</t>
-  </si>
-  <si>
-    <t>25.03.202521</t>
-  </si>
-  <si>
-    <t>25.03.202522</t>
-  </si>
-  <si>
-    <t>25.03.202523</t>
-  </si>
-  <si>
-    <t>25.03.202524</t>
-  </si>
-  <si>
-    <t>25.03.202525</t>
-  </si>
-  <si>
-    <t>25.03.202526</t>
-  </si>
-  <si>
-    <t>25.03.202527</t>
-  </si>
-  <si>
-    <t>25.03.202528</t>
-  </si>
-  <si>
-    <t>25.03.202529</t>
-  </si>
-  <si>
-    <t>25.03.202530</t>
-  </si>
-  <si>
-    <t>25.03.202531</t>
-  </si>
-  <si>
-    <t>25.03.202532</t>
-  </si>
-  <si>
-    <t>25.03.202533</t>
-  </si>
-  <si>
-    <t>25.03.202534</t>
-  </si>
-  <si>
-    <t>25.03.202535</t>
-  </si>
-  <si>
-    <t>25.03.202536</t>
-  </si>
-  <si>
-    <t>25.03.202537</t>
-  </si>
-  <si>
-    <t>25.03.202538</t>
-  </si>
-  <si>
-    <t>25.03.202539</t>
-  </si>
-  <si>
-    <t>25.03.202540</t>
-  </si>
-  <si>
-    <t>25.03.202541</t>
-  </si>
-  <si>
-    <t>25.03.202542</t>
-  </si>
-  <si>
-    <t>25.03.202543</t>
-  </si>
-  <si>
-    <t>25.03.202544</t>
-  </si>
-  <si>
-    <t>25.03.202545</t>
-  </si>
-  <si>
-    <t>25.03.202546</t>
-  </si>
-  <si>
-    <t>25.03.202547</t>
-  </si>
-  <si>
-    <t>25.03.202548</t>
-  </si>
-  <si>
-    <t>25.03.202549</t>
-  </si>
-  <si>
-    <t>25.03.202550</t>
-  </si>
-  <si>
-    <t>25.03.202551</t>
-  </si>
-  <si>
-    <t>25.03.202552</t>
-  </si>
-  <si>
-    <t>25.03.202553</t>
-  </si>
-  <si>
-    <t>25.03.202554</t>
-  </si>
-  <si>
-    <t>25.03.202555</t>
-  </si>
-  <si>
-    <t>25.03.202556</t>
-  </si>
-  <si>
-    <t>25.03.202557</t>
-  </si>
-  <si>
-    <t>25.03.202558</t>
-  </si>
-  <si>
-    <t>25.03.202559</t>
-  </si>
-  <si>
-    <t>25.03.202560</t>
-  </si>
-  <si>
-    <t>25.03.202561</t>
-  </si>
-  <si>
-    <t>25.03.202562</t>
-  </si>
-  <si>
-    <t>25.03.202563</t>
-  </si>
-  <si>
-    <t>25.03.202564</t>
-  </si>
-  <si>
-    <t>25.03.202565</t>
-  </si>
-  <si>
-    <t>25.03.202566</t>
-  </si>
-  <si>
-    <t>25.03.202567</t>
-  </si>
-  <si>
-    <t>25.03.202568</t>
-  </si>
-  <si>
-    <t>25.03.202569</t>
-  </si>
-  <si>
-    <t>25.03.202570</t>
-  </si>
-  <si>
-    <t>25.03.202571</t>
-  </si>
-  <si>
-    <t>25.03.202572</t>
-  </si>
-  <si>
-    <t>25.03.202573</t>
-  </si>
-  <si>
-    <t>25.03.202574</t>
-  </si>
-  <si>
-    <t>25.03.202575</t>
-  </si>
-  <si>
-    <t>25.03.202576</t>
-  </si>
-  <si>
-    <t>25.03.202577</t>
-  </si>
-  <si>
-    <t>25.03.202578</t>
-  </si>
-  <si>
-    <t>25.03.202579</t>
-  </si>
-  <si>
-    <t>25.03.202580</t>
-  </si>
-  <si>
-    <t>25.03.202581</t>
-  </si>
-  <si>
-    <t>25.03.202582</t>
-  </si>
-  <si>
-    <t>25.03.202583</t>
-  </si>
-  <si>
-    <t>25.03.202584</t>
-  </si>
-  <si>
-    <t>25.03.202585</t>
-  </si>
-  <si>
-    <t>25.03.202586</t>
-  </si>
-  <si>
-    <t>25.03.202587</t>
-  </si>
-  <si>
-    <t>25.03.202588</t>
-  </si>
-  <si>
-    <t>25.03.202589</t>
-  </si>
-  <si>
-    <t>25.03.202590</t>
-  </si>
-  <si>
-    <t>25.03.202591</t>
-  </si>
-  <si>
-    <t>25.03.202592</t>
-  </si>
-  <si>
-    <t>25.03.202593</t>
-  </si>
-  <si>
-    <t>25.03.202594</t>
-  </si>
-  <si>
-    <t>25.03.202595</t>
-  </si>
-  <si>
-    <t>25.03.202596</t>
+    <t>27.03.20251</t>
+  </si>
+  <si>
+    <t>27.03.20252</t>
+  </si>
+  <si>
+    <t>27.03.20253</t>
+  </si>
+  <si>
+    <t>27.03.20254</t>
+  </si>
+  <si>
+    <t>27.03.20255</t>
+  </si>
+  <si>
+    <t>27.03.20256</t>
+  </si>
+  <si>
+    <t>27.03.20257</t>
+  </si>
+  <si>
+    <t>27.03.20258</t>
+  </si>
+  <si>
+    <t>27.03.20259</t>
+  </si>
+  <si>
+    <t>27.03.202510</t>
+  </si>
+  <si>
+    <t>27.03.202511</t>
+  </si>
+  <si>
+    <t>27.03.202512</t>
+  </si>
+  <si>
+    <t>27.03.202513</t>
+  </si>
+  <si>
+    <t>27.03.202514</t>
+  </si>
+  <si>
+    <t>27.03.202515</t>
+  </si>
+  <si>
+    <t>27.03.202516</t>
+  </si>
+  <si>
+    <t>27.03.202517</t>
+  </si>
+  <si>
+    <t>27.03.202518</t>
+  </si>
+  <si>
+    <t>27.03.202519</t>
+  </si>
+  <si>
+    <t>27.03.202520</t>
+  </si>
+  <si>
+    <t>27.03.202521</t>
+  </si>
+  <si>
+    <t>27.03.202522</t>
+  </si>
+  <si>
+    <t>27.03.202523</t>
+  </si>
+  <si>
+    <t>27.03.202524</t>
+  </si>
+  <si>
+    <t>27.03.202525</t>
+  </si>
+  <si>
+    <t>27.03.202526</t>
+  </si>
+  <si>
+    <t>27.03.202527</t>
+  </si>
+  <si>
+    <t>27.03.202528</t>
+  </si>
+  <si>
+    <t>27.03.202529</t>
+  </si>
+  <si>
+    <t>27.03.202530</t>
+  </si>
+  <si>
+    <t>27.03.202531</t>
+  </si>
+  <si>
+    <t>27.03.202532</t>
+  </si>
+  <si>
+    <t>27.03.202533</t>
+  </si>
+  <si>
+    <t>27.03.202534</t>
+  </si>
+  <si>
+    <t>27.03.202535</t>
+  </si>
+  <si>
+    <t>27.03.202536</t>
+  </si>
+  <si>
+    <t>27.03.202537</t>
+  </si>
+  <si>
+    <t>27.03.202538</t>
+  </si>
+  <si>
+    <t>27.03.202539</t>
+  </si>
+  <si>
+    <t>27.03.202540</t>
+  </si>
+  <si>
+    <t>27.03.202541</t>
+  </si>
+  <si>
+    <t>27.03.202542</t>
+  </si>
+  <si>
+    <t>27.03.202543</t>
+  </si>
+  <si>
+    <t>27.03.202544</t>
+  </si>
+  <si>
+    <t>27.03.202545</t>
+  </si>
+  <si>
+    <t>27.03.202546</t>
+  </si>
+  <si>
+    <t>27.03.202547</t>
+  </si>
+  <si>
+    <t>27.03.202548</t>
+  </si>
+  <si>
+    <t>27.03.202549</t>
+  </si>
+  <si>
+    <t>27.03.202550</t>
+  </si>
+  <si>
+    <t>27.03.202551</t>
+  </si>
+  <si>
+    <t>27.03.202552</t>
+  </si>
+  <si>
+    <t>27.03.202553</t>
+  </si>
+  <si>
+    <t>27.03.202554</t>
+  </si>
+  <si>
+    <t>27.03.202555</t>
+  </si>
+  <si>
+    <t>27.03.202556</t>
+  </si>
+  <si>
+    <t>27.03.202557</t>
+  </si>
+  <si>
+    <t>27.03.202558</t>
+  </si>
+  <si>
+    <t>27.03.202559</t>
+  </si>
+  <si>
+    <t>27.03.202560</t>
+  </si>
+  <si>
+    <t>27.03.202561</t>
+  </si>
+  <si>
+    <t>27.03.202562</t>
+  </si>
+  <si>
+    <t>27.03.202563</t>
+  </si>
+  <si>
+    <t>27.03.202564</t>
+  </si>
+  <si>
+    <t>27.03.202565</t>
+  </si>
+  <si>
+    <t>27.03.202566</t>
+  </si>
+  <si>
+    <t>27.03.202567</t>
+  </si>
+  <si>
+    <t>27.03.202568</t>
+  </si>
+  <si>
+    <t>27.03.202569</t>
+  </si>
+  <si>
+    <t>27.03.202570</t>
+  </si>
+  <si>
+    <t>27.03.202571</t>
+  </si>
+  <si>
+    <t>27.03.202572</t>
+  </si>
+  <si>
+    <t>27.03.202573</t>
+  </si>
+  <si>
+    <t>27.03.202574</t>
+  </si>
+  <si>
+    <t>27.03.202575</t>
+  </si>
+  <si>
+    <t>27.03.202576</t>
+  </si>
+  <si>
+    <t>27.03.202577</t>
+  </si>
+  <si>
+    <t>27.03.202578</t>
+  </si>
+  <si>
+    <t>27.03.202579</t>
+  </si>
+  <si>
+    <t>27.03.202580</t>
+  </si>
+  <si>
+    <t>27.03.202581</t>
+  </si>
+  <si>
+    <t>27.03.202582</t>
+  </si>
+  <si>
+    <t>27.03.202583</t>
+  </si>
+  <si>
+    <t>27.03.202584</t>
+  </si>
+  <si>
+    <t>27.03.202585</t>
+  </si>
+  <si>
+    <t>27.03.202586</t>
+  </si>
+  <si>
+    <t>27.03.202587</t>
+  </si>
+  <si>
+    <t>27.03.202588</t>
+  </si>
+  <si>
+    <t>27.03.202589</t>
+  </si>
+  <si>
+    <t>27.03.202590</t>
+  </si>
+  <si>
+    <t>27.03.202591</t>
+  </si>
+  <si>
+    <t>27.03.202592</t>
+  </si>
+  <si>
+    <t>27.03.202593</t>
+  </si>
+  <si>
+    <t>27.03.202594</t>
+  </si>
+  <si>
+    <t>27.03.202595</t>
+  </si>
+  <si>
+    <t>27.03.202596</t>
+  </si>
+  <si>
+    <t>28.03.20251</t>
+  </si>
+  <si>
+    <t>28.03.20252</t>
+  </si>
+  <si>
+    <t>28.03.20253</t>
+  </si>
+  <si>
+    <t>28.03.20254</t>
+  </si>
+  <si>
+    <t>28.03.20255</t>
+  </si>
+  <si>
+    <t>28.03.20256</t>
+  </si>
+  <si>
+    <t>28.03.20257</t>
+  </si>
+  <si>
+    <t>28.03.20258</t>
+  </si>
+  <si>
+    <t>28.03.20259</t>
+  </si>
+  <si>
+    <t>28.03.202510</t>
+  </si>
+  <si>
+    <t>28.03.202511</t>
+  </si>
+  <si>
+    <t>28.03.202512</t>
+  </si>
+  <si>
+    <t>28.03.202513</t>
+  </si>
+  <si>
+    <t>28.03.202514</t>
+  </si>
+  <si>
+    <t>28.03.202515</t>
+  </si>
+  <si>
+    <t>28.03.202516</t>
+  </si>
+  <si>
+    <t>28.03.202517</t>
+  </si>
+  <si>
+    <t>28.03.202518</t>
+  </si>
+  <si>
+    <t>28.03.202519</t>
+  </si>
+  <si>
+    <t>28.03.202520</t>
+  </si>
+  <si>
+    <t>28.03.202521</t>
+  </si>
+  <si>
+    <t>28.03.202522</t>
+  </si>
+  <si>
+    <t>28.03.202523</t>
+  </si>
+  <si>
+    <t>28.03.202524</t>
+  </si>
+  <si>
+    <t>28.03.202525</t>
+  </si>
+  <si>
+    <t>28.03.202526</t>
+  </si>
+  <si>
+    <t>28.03.202527</t>
+  </si>
+  <si>
+    <t>28.03.202528</t>
+  </si>
+  <si>
+    <t>28.03.202529</t>
+  </si>
+  <si>
+    <t>28.03.202530</t>
+  </si>
+  <si>
+    <t>28.03.202531</t>
+  </si>
+  <si>
+    <t>28.03.202532</t>
+  </si>
+  <si>
+    <t>28.03.202533</t>
+  </si>
+  <si>
+    <t>28.03.202534</t>
+  </si>
+  <si>
+    <t>28.03.202535</t>
+  </si>
+  <si>
+    <t>28.03.202536</t>
+  </si>
+  <si>
+    <t>28.03.202537</t>
+  </si>
+  <si>
+    <t>28.03.202538</t>
+  </si>
+  <si>
+    <t>28.03.202539</t>
+  </si>
+  <si>
+    <t>28.03.202540</t>
+  </si>
+  <si>
+    <t>28.03.202541</t>
+  </si>
+  <si>
+    <t>28.03.202542</t>
+  </si>
+  <si>
+    <t>28.03.202543</t>
+  </si>
+  <si>
+    <t>28.03.202544</t>
+  </si>
+  <si>
+    <t>28.03.202545</t>
+  </si>
+  <si>
+    <t>28.03.202546</t>
+  </si>
+  <si>
+    <t>28.03.202547</t>
+  </si>
+  <si>
+    <t>28.03.202548</t>
+  </si>
+  <si>
+    <t>28.03.202549</t>
+  </si>
+  <si>
+    <t>28.03.202550</t>
+  </si>
+  <si>
+    <t>28.03.202551</t>
+  </si>
+  <si>
+    <t>28.03.202552</t>
+  </si>
+  <si>
+    <t>28.03.202553</t>
+  </si>
+  <si>
+    <t>28.03.202554</t>
+  </si>
+  <si>
+    <t>28.03.202555</t>
+  </si>
+  <si>
+    <t>28.03.202556</t>
+  </si>
+  <si>
+    <t>28.03.202557</t>
+  </si>
+  <si>
+    <t>28.03.202558</t>
+  </si>
+  <si>
+    <t>28.03.202559</t>
+  </si>
+  <si>
+    <t>28.03.202560</t>
+  </si>
+  <si>
+    <t>28.03.202561</t>
+  </si>
+  <si>
+    <t>28.03.202562</t>
+  </si>
+  <si>
+    <t>28.03.202563</t>
+  </si>
+  <si>
+    <t>28.03.202564</t>
+  </si>
+  <si>
+    <t>28.03.202565</t>
+  </si>
+  <si>
+    <t>28.03.202566</t>
+  </si>
+  <si>
+    <t>28.03.202567</t>
+  </si>
+  <si>
+    <t>28.03.202568</t>
+  </si>
+  <si>
+    <t>28.03.202569</t>
+  </si>
+  <si>
+    <t>28.03.202570</t>
+  </si>
+  <si>
+    <t>28.03.202571</t>
+  </si>
+  <si>
+    <t>28.03.202572</t>
+  </si>
+  <si>
+    <t>28.03.202573</t>
+  </si>
+  <si>
+    <t>28.03.202574</t>
+  </si>
+  <si>
+    <t>28.03.202575</t>
+  </si>
+  <si>
+    <t>28.03.202576</t>
+  </si>
+  <si>
+    <t>28.03.202577</t>
+  </si>
+  <si>
+    <t>28.03.202578</t>
+  </si>
+  <si>
+    <t>28.03.202579</t>
+  </si>
+  <si>
+    <t>28.03.202580</t>
+  </si>
+  <si>
+    <t>28.03.202581</t>
+  </si>
+  <si>
+    <t>28.03.202582</t>
+  </si>
+  <si>
+    <t>28.03.202583</t>
+  </si>
+  <si>
+    <t>28.03.202584</t>
+  </si>
+  <si>
+    <t>28.03.202585</t>
+  </si>
+  <si>
+    <t>28.03.202586</t>
+  </si>
+  <si>
+    <t>28.03.202587</t>
+  </si>
+  <si>
+    <t>28.03.202588</t>
+  </si>
+  <si>
+    <t>28.03.202589</t>
+  </si>
+  <si>
+    <t>28.03.202590</t>
+  </si>
+  <si>
+    <t>28.03.202591</t>
+  </si>
+  <si>
+    <t>28.03.202592</t>
+  </si>
+  <si>
+    <t>28.03.202593</t>
+  </si>
+  <si>
+    <t>28.03.202594</t>
+  </si>
+  <si>
+    <t>28.03.202595</t>
+  </si>
+  <si>
+    <t>28.03.202596</t>
   </si>
 </sst>
 </file>
@@ -985,10 +985,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45740</v>
+        <v>45743</v>
       </c>
       <c r="B2">
-        <v>5152</v>
+        <v>5579</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -999,10 +999,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45740.01041666666</v>
+        <v>45743.01041666666</v>
       </c>
       <c r="B3">
-        <v>5127</v>
+        <v>5506</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45740.02083333334</v>
+        <v>45743.02083333334</v>
       </c>
       <c r="B4">
-        <v>5090</v>
+        <v>5512</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45740.03125</v>
+        <v>45743.03125</v>
       </c>
       <c r="B5">
-        <v>5049</v>
+        <v>5451</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45740.04166666666</v>
+        <v>45743.04166666666</v>
       </c>
       <c r="B6">
-        <v>5035</v>
+        <v>5433</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45740.05208333334</v>
+        <v>45743.05208333334</v>
       </c>
       <c r="B7">
-        <v>5015</v>
+        <v>5435</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45740.0625</v>
+        <v>45743.0625</v>
       </c>
       <c r="B8">
-        <v>4989</v>
+        <v>5374</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45740.07291666666</v>
+        <v>45743.07291666666</v>
       </c>
       <c r="B9">
-        <v>4956</v>
+        <v>5400</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45740.08333333334</v>
+        <v>45743.08333333334</v>
       </c>
       <c r="B10">
-        <v>4965</v>
+        <v>5338</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1111,10 +1111,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45740.09375</v>
+        <v>45743.09375</v>
       </c>
       <c r="B11">
-        <v>4972</v>
+        <v>5377</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45740.10416666666</v>
+        <v>45743.10416666666</v>
       </c>
       <c r="B12">
-        <v>4968</v>
+        <v>5403</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1139,10 +1139,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45740.11458333334</v>
+        <v>45743.11458333334</v>
       </c>
       <c r="B13">
-        <v>4985</v>
+        <v>5370</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45740.125</v>
+        <v>45743.125</v>
       </c>
       <c r="B14">
-        <v>5001</v>
+        <v>5422</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45740.13541666666</v>
+        <v>45743.13541666666</v>
       </c>
       <c r="B15">
-        <v>5022</v>
+        <v>5386</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1181,10 +1181,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45740.14583333334</v>
+        <v>45743.14583333334</v>
       </c>
       <c r="B16">
-        <v>5059</v>
+        <v>5468</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45740.15625</v>
+        <v>45743.15625</v>
       </c>
       <c r="B17">
-        <v>5103</v>
+        <v>5465</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1209,10 +1209,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45740.16666666666</v>
+        <v>45743.16666666666</v>
       </c>
       <c r="B18">
-        <v>5246</v>
+        <v>5510</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1223,10 +1223,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45740.17708333334</v>
+        <v>45743.17708333334</v>
       </c>
       <c r="B19">
-        <v>5333</v>
+        <v>5521</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1237,10 +1237,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45740.1875</v>
+        <v>45743.1875</v>
       </c>
       <c r="B20">
-        <v>5420</v>
+        <v>5632</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45740.19791666666</v>
+        <v>45743.19791666666</v>
       </c>
       <c r="B21">
-        <v>5528</v>
+        <v>5764</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45740.20833333334</v>
+        <v>45743.20833333334</v>
       </c>
       <c r="B22">
-        <v>5758</v>
+        <v>5876</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45740.21875</v>
+        <v>45743.21875</v>
       </c>
       <c r="B23">
-        <v>5863</v>
+        <v>6014</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1293,10 +1293,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45740.22916666666</v>
+        <v>45743.22916666666</v>
       </c>
       <c r="B24">
-        <v>6016</v>
+        <v>6107</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45740.23958333334</v>
+        <v>45743.23958333334</v>
       </c>
       <c r="B25">
-        <v>6211</v>
+        <v>6262</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45740.25</v>
+        <v>45743.25</v>
       </c>
       <c r="B26">
-        <v>6501</v>
+        <v>6556</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45740.26041666666</v>
+        <v>45743.26041666666</v>
       </c>
       <c r="B27">
-        <v>6683</v>
+        <v>6720</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45740.27083333334</v>
+        <v>45743.27083333334</v>
       </c>
       <c r="B28">
-        <v>6812</v>
+        <v>6849</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45740.28125</v>
+        <v>45743.28125</v>
       </c>
       <c r="B29">
-        <v>6886</v>
+        <v>6955</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45740.29166666666</v>
+        <v>45743.29166666666</v>
       </c>
       <c r="B30">
-        <v>7031</v>
+        <v>7103</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1391,10 +1391,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45740.30208333334</v>
+        <v>45743.30208333334</v>
       </c>
       <c r="B31">
-        <v>7044</v>
+        <v>7141</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45740.3125</v>
+        <v>45743.3125</v>
       </c>
       <c r="B32">
-        <v>7069</v>
+        <v>7225</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1419,10 +1419,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45740.32291666666</v>
+        <v>45743.32291666666</v>
       </c>
       <c r="B33">
-        <v>6997</v>
+        <v>7192</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1433,10 +1433,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45740.33333333334</v>
+        <v>45743.33333333334</v>
       </c>
       <c r="B34">
-        <v>6885</v>
+        <v>7229</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1447,10 +1447,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45740.34375</v>
+        <v>45743.34375</v>
       </c>
       <c r="B35">
-        <v>6864</v>
+        <v>7216</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45740.35416666666</v>
+        <v>45743.35416666666</v>
       </c>
       <c r="B36">
-        <v>6755</v>
+        <v>7173</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45740.36458333334</v>
+        <v>45743.36458333334</v>
       </c>
       <c r="B37">
-        <v>6647</v>
+        <v>7139</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1489,10 +1489,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45740.375</v>
+        <v>45743.375</v>
       </c>
       <c r="B38">
-        <v>6460</v>
+        <v>7058</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45740.38541666666</v>
+        <v>45743.38541666666</v>
       </c>
       <c r="B39">
-        <v>6411</v>
+        <v>7015</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45740.39583333334</v>
+        <v>45743.39583333334</v>
       </c>
       <c r="B40">
-        <v>6290</v>
+        <v>6881</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45740.40625</v>
+        <v>45743.40625</v>
       </c>
       <c r="B41">
-        <v>6219</v>
+        <v>6898</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45740.41666666666</v>
+        <v>45743.41666666666</v>
       </c>
       <c r="B42">
-        <v>6151</v>
+        <v>6819</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45740.42708333334</v>
+        <v>45743.42708333334</v>
       </c>
       <c r="B43">
-        <v>6149</v>
+        <v>6806</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45740.4375</v>
+        <v>45743.4375</v>
       </c>
       <c r="B44">
-        <v>6123</v>
+        <v>6810</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45740.44791666666</v>
+        <v>45743.44791666666</v>
       </c>
       <c r="B45">
-        <v>6106</v>
+        <v>6735</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45740.45833333334</v>
+        <v>45743.45833333334</v>
       </c>
       <c r="B46">
-        <v>5883</v>
+        <v>6681</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45740.46875</v>
+        <v>45743.46875</v>
       </c>
       <c r="B47">
-        <v>5864</v>
+        <v>6674</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45740.47916666666</v>
+        <v>45743.47916666666</v>
       </c>
       <c r="B48">
-        <v>5883</v>
+        <v>6714</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1643,10 +1643,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45740.48958333334</v>
+        <v>45743.48958333334</v>
       </c>
       <c r="B49">
-        <v>5950</v>
+        <v>6653</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45740.5</v>
+        <v>45743.5</v>
       </c>
       <c r="B50">
-        <v>5856</v>
+        <v>6676</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1671,10 +1671,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45740.51041666666</v>
+        <v>45743.51041666666</v>
       </c>
       <c r="B51">
-        <v>5889</v>
+        <v>6685</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45740.52083333334</v>
+        <v>45743.52083333334</v>
       </c>
       <c r="B52">
-        <v>5858</v>
+        <v>6756</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1699,10 +1699,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45740.53125</v>
+        <v>45743.53125</v>
       </c>
       <c r="B53">
-        <v>5946</v>
+        <v>6771</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45740.54166666666</v>
+        <v>45743.54166666666</v>
       </c>
       <c r="B54">
-        <v>5937</v>
+        <v>6708</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45740.55208333334</v>
+        <v>45743.55208333334</v>
       </c>
       <c r="B55">
-        <v>5996</v>
+        <v>6710</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45740.5625</v>
+        <v>45743.5625</v>
       </c>
       <c r="B56">
-        <v>5978</v>
+        <v>6742</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -1755,10 +1755,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45740.57291666666</v>
+        <v>45743.57291666666</v>
       </c>
       <c r="B57">
-        <v>6025</v>
+        <v>6749</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45740.58333333334</v>
+        <v>45743.58333333334</v>
       </c>
       <c r="B58">
-        <v>6038</v>
+        <v>6749</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45740.59375</v>
+        <v>45743.59375</v>
       </c>
       <c r="B59">
-        <v>6173</v>
+        <v>6718</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45740.60416666666</v>
+        <v>45743.60416666666</v>
       </c>
       <c r="B60">
-        <v>6247</v>
+        <v>6738</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -1811,10 +1811,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45740.61458333334</v>
+        <v>45743.61458333334</v>
       </c>
       <c r="B61">
-        <v>6368</v>
+        <v>6735</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45740.625</v>
+        <v>45743.625</v>
       </c>
       <c r="B62">
-        <v>6433</v>
+        <v>6748</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45740.63541666666</v>
+        <v>45743.63541666666</v>
       </c>
       <c r="B63">
-        <v>6598</v>
+        <v>6818</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -1853,10 +1853,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45740.64583333334</v>
+        <v>45743.64583333334</v>
       </c>
       <c r="B64">
-        <v>6716</v>
+        <v>6804</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45740.65625</v>
+        <v>45743.65625</v>
       </c>
       <c r="B65">
-        <v>6805</v>
+        <v>6815</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45740.66666666666</v>
+        <v>45743.66666666666</v>
       </c>
       <c r="B66">
-        <v>6820</v>
+        <v>6885</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45740.67708333334</v>
+        <v>45743.67708333334</v>
       </c>
       <c r="B67">
-        <v>6948</v>
+        <v>6978</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45740.6875</v>
+        <v>45743.6875</v>
       </c>
       <c r="B68">
-        <v>6984</v>
+        <v>6989</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45740.69791666666</v>
+        <v>45743.69791666666</v>
       </c>
       <c r="B69">
-        <v>7102</v>
+        <v>7098</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45740.70833333334</v>
+        <v>45743.70833333334</v>
       </c>
       <c r="B70">
-        <v>7164</v>
+        <v>7176</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45740.71875</v>
+        <v>45743.71875</v>
       </c>
       <c r="B71">
-        <v>7279</v>
+        <v>7233</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45740.72916666666</v>
+        <v>45743.72916666666</v>
       </c>
       <c r="B72">
-        <v>7423</v>
+        <v>7344</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45740.73958333334</v>
+        <v>45743.73958333334</v>
       </c>
       <c r="B73">
-        <v>7576</v>
+        <v>7462</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45740.75</v>
+        <v>45743.75</v>
       </c>
       <c r="B74">
-        <v>7645</v>
+        <v>7601</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -2007,10 +2007,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45740.76041666666</v>
+        <v>45743.76041666666</v>
       </c>
       <c r="B75">
-        <v>7730</v>
+        <v>7685</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45740.77083333334</v>
+        <v>45743.77083333334</v>
       </c>
       <c r="B76">
-        <v>7795</v>
+        <v>7719</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45740.78125</v>
+        <v>45743.78125</v>
       </c>
       <c r="B77">
-        <v>7786</v>
+        <v>7722</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -2049,10 +2049,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45740.79166666666</v>
+        <v>45743.79166666666</v>
       </c>
       <c r="B78">
-        <v>7729</v>
+        <v>7665</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45740.80208333334</v>
+        <v>45743.80208333334</v>
       </c>
       <c r="B79">
-        <v>7655</v>
+        <v>7654</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45740.8125</v>
+        <v>45743.8125</v>
       </c>
       <c r="B80">
-        <v>7608</v>
+        <v>7563</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45740.82291666666</v>
+        <v>45743.82291666666</v>
       </c>
       <c r="B81">
-        <v>7537</v>
+        <v>7503</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -2105,10 +2105,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45740.83333333334</v>
+        <v>45743.83333333334</v>
       </c>
       <c r="B82">
-        <v>7389</v>
+        <v>7334</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45740.84375</v>
+        <v>45743.84375</v>
       </c>
       <c r="B83">
-        <v>7259</v>
+        <v>7221</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -2133,10 +2133,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45740.85416666666</v>
+        <v>45743.85416666666</v>
       </c>
       <c r="B84">
-        <v>7156</v>
+        <v>7140</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45740.86458333334</v>
+        <v>45743.86458333334</v>
       </c>
       <c r="B85">
-        <v>7008</v>
+        <v>6962</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -2161,10 +2161,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45740.875</v>
+        <v>45743.875</v>
       </c>
       <c r="B86">
-        <v>6800</v>
+        <v>6785</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45740.88541666666</v>
+        <v>45743.88541666666</v>
       </c>
       <c r="B87">
-        <v>6630</v>
+        <v>6676</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -2189,10 +2189,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45740.89583333334</v>
+        <v>45743.89583333334</v>
       </c>
       <c r="B88">
-        <v>6496</v>
+        <v>6491</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45740.90625</v>
+        <v>45743.90625</v>
       </c>
       <c r="B89">
-        <v>6405</v>
+        <v>6380</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45740.91666666666</v>
+        <v>45743.91666666666</v>
       </c>
       <c r="B90">
-        <v>6173</v>
+        <v>6187</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45740.92708333334</v>
+        <v>45743.92708333334</v>
       </c>
       <c r="B91">
-        <v>6048</v>
+        <v>6076</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45740.9375</v>
+        <v>45743.9375</v>
       </c>
       <c r="B92">
-        <v>5954</v>
+        <v>6000</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45740.94791666666</v>
+        <v>45743.94791666666</v>
       </c>
       <c r="B93">
-        <v>5877</v>
+        <v>5854</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -2273,10 +2273,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45740.95833333334</v>
+        <v>45743.95833333334</v>
       </c>
       <c r="B94">
-        <v>5831</v>
+        <v>5806</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45740.96875</v>
+        <v>45743.96875</v>
       </c>
       <c r="B95">
-        <v>5734</v>
+        <v>5735</v>
       </c>
       <c r="C95">
         <v>94</v>
@@ -2301,10 +2301,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45740.97916666666</v>
+        <v>45743.97916666666</v>
       </c>
       <c r="B96">
-        <v>5728</v>
+        <v>5699</v>
       </c>
       <c r="C96">
         <v>95</v>
@@ -2315,10 +2315,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>45740.98958333334</v>
+        <v>45743.98958333334</v>
       </c>
       <c r="B97">
-        <v>5644</v>
+        <v>5610</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>45741</v>
+        <v>45744</v>
       </c>
       <c r="B98">
-        <v>5618</v>
+        <v>5576</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>45741.01041666666</v>
+        <v>45744.01041666666</v>
       </c>
       <c r="B99">
-        <v>5550</v>
+        <v>5531</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>45741.02083333334</v>
+        <v>45744.02083333334</v>
       </c>
       <c r="B100">
-        <v>5514</v>
+        <v>5542</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2371,10 +2371,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>45741.03125</v>
+        <v>45744.03125</v>
       </c>
       <c r="B101">
-        <v>5488</v>
+        <v>5506</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>45741.04166666666</v>
+        <v>45744.04166666666</v>
       </c>
       <c r="B102">
-        <v>5447</v>
+        <v>5466</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>45741.05208333334</v>
+        <v>45744.05208333334</v>
       </c>
       <c r="B103">
-        <v>5414</v>
+        <v>5464</v>
       </c>
       <c r="C103">
         <v>6</v>
@@ -2413,10 +2413,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>45741.0625</v>
+        <v>45744.0625</v>
       </c>
       <c r="B104">
-        <v>5411</v>
+        <v>5451</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -2427,10 +2427,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>45741.07291666666</v>
+        <v>45744.07291666666</v>
       </c>
       <c r="B105">
-        <v>5415</v>
+        <v>5420</v>
       </c>
       <c r="C105">
         <v>8</v>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>45741.08333333334</v>
+        <v>45744.08333333334</v>
       </c>
       <c r="B106">
-        <v>5330</v>
+        <v>5384</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -2455,10 +2455,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>45741.09375</v>
+        <v>45744.09375</v>
       </c>
       <c r="B107">
-        <v>5310</v>
+        <v>5412</v>
       </c>
       <c r="C107">
         <v>10</v>
@@ -2469,10 +2469,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>45741.10416666666</v>
+        <v>45744.10416666666</v>
       </c>
       <c r="B108">
-        <v>5307</v>
+        <v>5410</v>
       </c>
       <c r="C108">
         <v>11</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>45741.11458333334</v>
+        <v>45744.11458333334</v>
       </c>
       <c r="B109">
-        <v>5318</v>
+        <v>5432</v>
       </c>
       <c r="C109">
         <v>12</v>
@@ -2497,10 +2497,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>45741.125</v>
+        <v>45744.125</v>
       </c>
       <c r="B110">
-        <v>5339</v>
+        <v>5413</v>
       </c>
       <c r="C110">
         <v>13</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>45741.13541666666</v>
+        <v>45744.13541666666</v>
       </c>
       <c r="B111">
-        <v>5370</v>
+        <v>5461</v>
       </c>
       <c r="C111">
         <v>14</v>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>45741.14583333334</v>
+        <v>45744.14583333334</v>
       </c>
       <c r="B112">
-        <v>5422</v>
+        <v>5453</v>
       </c>
       <c r="C112">
         <v>15</v>
@@ -2539,10 +2539,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>45741.15625</v>
+        <v>45744.15625</v>
       </c>
       <c r="B113">
-        <v>5464</v>
+        <v>5471</v>
       </c>
       <c r="C113">
         <v>16</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>45741.16666666666</v>
+        <v>45744.16666666666</v>
       </c>
       <c r="B114">
-        <v>5528</v>
+        <v>5561</v>
       </c>
       <c r="C114">
         <v>17</v>
@@ -2567,10 +2567,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>45741.17708333334</v>
+        <v>45744.17708333334</v>
       </c>
       <c r="B115">
-        <v>5592</v>
+        <v>5642</v>
       </c>
       <c r="C115">
         <v>18</v>
@@ -2581,10 +2581,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>45741.1875</v>
+        <v>45744.1875</v>
       </c>
       <c r="B116">
-        <v>5669</v>
+        <v>5652</v>
       </c>
       <c r="C116">
         <v>19</v>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>45741.19791666666</v>
+        <v>45744.19791666666</v>
       </c>
       <c r="B117">
-        <v>5744</v>
+        <v>5739</v>
       </c>
       <c r="C117">
         <v>20</v>
@@ -2609,10 +2609,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>45741.20833333334</v>
+        <v>45744.20833333334</v>
       </c>
       <c r="B118">
-        <v>5856</v>
+        <v>5877</v>
       </c>
       <c r="C118">
         <v>21</v>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>45741.21875</v>
+        <v>45744.21875</v>
       </c>
       <c r="B119">
-        <v>5917</v>
+        <v>5979</v>
       </c>
       <c r="C119">
         <v>22</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>45741.22916666666</v>
+        <v>45744.22916666666</v>
       </c>
       <c r="B120">
-        <v>6039</v>
+        <v>6169</v>
       </c>
       <c r="C120">
         <v>23</v>
@@ -2651,10 +2651,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>45741.23958333334</v>
+        <v>45744.23958333334</v>
       </c>
       <c r="B121">
-        <v>6176</v>
+        <v>6283</v>
       </c>
       <c r="C121">
         <v>24</v>
@@ -2665,10 +2665,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>45741.25</v>
+        <v>45744.25</v>
       </c>
       <c r="B122">
-        <v>6367</v>
+        <v>6549</v>
       </c>
       <c r="C122">
         <v>25</v>
@@ -2679,10 +2679,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>45741.26041666666</v>
+        <v>45744.26041666666</v>
       </c>
       <c r="B123">
-        <v>6444</v>
+        <v>0</v>
       </c>
       <c r="C123">
         <v>26</v>
@@ -2693,10 +2693,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>45741.27083333334</v>
+        <v>45744.27083333334</v>
       </c>
       <c r="B124">
-        <v>6526</v>
+        <v>0</v>
       </c>
       <c r="C124">
         <v>27</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>45741.28125</v>
+        <v>45744.28125</v>
       </c>
       <c r="B125">
-        <v>6537</v>
+        <v>0</v>
       </c>
       <c r="C125">
         <v>28</v>
@@ -2721,10 +2721,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>45741.29166666666</v>
+        <v>45744.29166666666</v>
       </c>
       <c r="B126">
-        <v>6608</v>
+        <v>0</v>
       </c>
       <c r="C126">
         <v>29</v>
@@ -2735,10 +2735,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>45741.30208333334</v>
+        <v>45744.30208333334</v>
       </c>
       <c r="B127">
-        <v>6527</v>
+        <v>0</v>
       </c>
       <c r="C127">
         <v>30</v>
@@ -2749,10 +2749,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>45741.3125</v>
+        <v>45744.3125</v>
       </c>
       <c r="B128">
-        <v>6528</v>
+        <v>0</v>
       </c>
       <c r="C128">
         <v>31</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>45741.32291666666</v>
+        <v>45744.32291666666</v>
       </c>
       <c r="B129">
-        <v>6475</v>
+        <v>0</v>
       </c>
       <c r="C129">
         <v>32</v>
@@ -2777,10 +2777,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>45741.33333333334</v>
+        <v>45744.33333333334</v>
       </c>
       <c r="B130">
-        <v>6330</v>
+        <v>0</v>
       </c>
       <c r="C130">
         <v>33</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>45741.34375</v>
+        <v>45744.34375</v>
       </c>
       <c r="B131">
-        <v>6286</v>
+        <v>0</v>
       </c>
       <c r="C131">
         <v>34</v>
@@ -2805,10 +2805,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>45741.35416666666</v>
+        <v>45744.35416666666</v>
       </c>
       <c r="B132">
-        <v>6184</v>
+        <v>0</v>
       </c>
       <c r="C132">
         <v>35</v>
@@ -2819,10 +2819,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>45741.36458333334</v>
+        <v>45744.36458333334</v>
       </c>
       <c r="B133">
-        <v>6101</v>
+        <v>0</v>
       </c>
       <c r="C133">
         <v>36</v>
@@ -2833,10 +2833,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>45741.375</v>
+        <v>45744.375</v>
       </c>
       <c r="B134">
-        <v>5946</v>
+        <v>0</v>
       </c>
       <c r="C134">
         <v>37</v>
@@ -2847,10 +2847,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>45741.38541666666</v>
+        <v>45744.38541666666</v>
       </c>
       <c r="B135">
-        <v>5894</v>
+        <v>0</v>
       </c>
       <c r="C135">
         <v>38</v>
@@ -2861,10 +2861,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>45741.39583333334</v>
+        <v>45744.39583333334</v>
       </c>
       <c r="B136">
-        <v>5772</v>
+        <v>0</v>
       </c>
       <c r="C136">
         <v>39</v>
@@ -2875,10 +2875,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>45741.40625</v>
+        <v>45744.40625</v>
       </c>
       <c r="B137">
-        <v>5729</v>
+        <v>0</v>
       </c>
       <c r="C137">
         <v>40</v>
@@ -2889,10 +2889,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>45741.41666666666</v>
+        <v>45744.41666666666</v>
       </c>
       <c r="B138">
-        <v>5592</v>
+        <v>0</v>
       </c>
       <c r="C138">
         <v>41</v>
@@ -2903,10 +2903,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>45741.42708333334</v>
+        <v>45744.42708333334</v>
       </c>
       <c r="B139">
-        <v>5555</v>
+        <v>0</v>
       </c>
       <c r="C139">
         <v>42</v>
@@ -2917,10 +2917,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>45741.4375</v>
+        <v>45744.4375</v>
       </c>
       <c r="B140">
-        <v>5515</v>
+        <v>0</v>
       </c>
       <c r="C140">
         <v>43</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>45741.44791666666</v>
+        <v>45744.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>45741.45833333334</v>
+        <v>45744.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>45741.46875</v>
+        <v>45744.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>45741.47916666666</v>
+        <v>45744.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>45741.48958333334</v>
+        <v>45744.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>45741.5</v>
+        <v>45744.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>45741.51041666666</v>
+        <v>45744.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>45741.52083333334</v>
+        <v>45744.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>45741.53125</v>
+        <v>45744.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>45741.54166666666</v>
+        <v>45744.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>45741.55208333334</v>
+        <v>45744.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>45741.5625</v>
+        <v>45744.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>45741.57291666666</v>
+        <v>45744.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>45741.58333333334</v>
+        <v>45744.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>45741.59375</v>
+        <v>45744.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>45741.60416666666</v>
+        <v>45744.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>45741.61458333334</v>
+        <v>45744.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>45741.625</v>
+        <v>45744.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>45741.63541666666</v>
+        <v>45744.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>45741.64583333334</v>
+        <v>45744.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>45741.65625</v>
+        <v>45744.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>45741.66666666666</v>
+        <v>45744.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>45741.67708333334</v>
+        <v>45744.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>45741.6875</v>
+        <v>45744.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>45741.69791666666</v>
+        <v>45744.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>45741.70833333334</v>
+        <v>45744.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>45741.71875</v>
+        <v>45744.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>45741.72916666666</v>
+        <v>45744.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>45741.73958333334</v>
+        <v>45744.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>45741.75</v>
+        <v>45744.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>45741.76041666666</v>
+        <v>45744.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>45741.77083333334</v>
+        <v>45744.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>45741.78125</v>
+        <v>45744.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>45741.79166666666</v>
+        <v>45744.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>45741.80208333334</v>
+        <v>45744.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>45741.8125</v>
+        <v>45744.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>45741.82291666666</v>
+        <v>45744.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>45741.83333333334</v>
+        <v>45744.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>45741.84375</v>
+        <v>45744.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>45741.85416666666</v>
+        <v>45744.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>45741.86458333334</v>
+        <v>45744.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>45741.875</v>
+        <v>45744.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>45741.88541666666</v>
+        <v>45744.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>45741.89583333334</v>
+        <v>45744.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>45741.90625</v>
+        <v>45744.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>45741.91666666666</v>
+        <v>45744.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>45741.92708333334</v>
+        <v>45744.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>45741.9375</v>
+        <v>45744.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>45741.94791666666</v>
+        <v>45744.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>45741.95833333334</v>
+        <v>45744.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>45741.96875</v>
+        <v>45744.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>45741.97916666666</v>
+        <v>45744.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>45741.98958333334</v>
+        <v>45744.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="384">
   <si>
     <t>Timestamp</t>
   </si>
@@ -28,294 +28,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>27.03.20251</t>
-  </si>
-  <si>
-    <t>27.03.20252</t>
-  </si>
-  <si>
-    <t>27.03.20253</t>
-  </si>
-  <si>
-    <t>27.03.20254</t>
-  </si>
-  <si>
-    <t>27.03.20255</t>
-  </si>
-  <si>
-    <t>27.03.20256</t>
-  </si>
-  <si>
-    <t>27.03.20257</t>
-  </si>
-  <si>
-    <t>27.03.20258</t>
-  </si>
-  <si>
-    <t>27.03.20259</t>
-  </si>
-  <si>
-    <t>27.03.202510</t>
-  </si>
-  <si>
-    <t>27.03.202511</t>
-  </si>
-  <si>
-    <t>27.03.202512</t>
-  </si>
-  <si>
-    <t>27.03.202513</t>
-  </si>
-  <si>
-    <t>27.03.202514</t>
-  </si>
-  <si>
-    <t>27.03.202515</t>
-  </si>
-  <si>
-    <t>27.03.202516</t>
-  </si>
-  <si>
-    <t>27.03.202517</t>
-  </si>
-  <si>
-    <t>27.03.202518</t>
-  </si>
-  <si>
-    <t>27.03.202519</t>
-  </si>
-  <si>
-    <t>27.03.202520</t>
-  </si>
-  <si>
-    <t>27.03.202521</t>
-  </si>
-  <si>
-    <t>27.03.202522</t>
-  </si>
-  <si>
-    <t>27.03.202523</t>
-  </si>
-  <si>
-    <t>27.03.202524</t>
-  </si>
-  <si>
-    <t>27.03.202525</t>
-  </si>
-  <si>
-    <t>27.03.202526</t>
-  </si>
-  <si>
-    <t>27.03.202527</t>
-  </si>
-  <si>
-    <t>27.03.202528</t>
-  </si>
-  <si>
-    <t>27.03.202529</t>
-  </si>
-  <si>
-    <t>27.03.202530</t>
-  </si>
-  <si>
-    <t>27.03.202531</t>
-  </si>
-  <si>
-    <t>27.03.202532</t>
-  </si>
-  <si>
-    <t>27.03.202533</t>
-  </si>
-  <si>
-    <t>27.03.202534</t>
-  </si>
-  <si>
-    <t>27.03.202535</t>
-  </si>
-  <si>
-    <t>27.03.202536</t>
-  </si>
-  <si>
-    <t>27.03.202537</t>
-  </si>
-  <si>
-    <t>27.03.202538</t>
-  </si>
-  <si>
-    <t>27.03.202539</t>
-  </si>
-  <si>
-    <t>27.03.202540</t>
-  </si>
-  <si>
-    <t>27.03.202541</t>
-  </si>
-  <si>
-    <t>27.03.202542</t>
-  </si>
-  <si>
-    <t>27.03.202543</t>
-  </si>
-  <si>
-    <t>27.03.202544</t>
-  </si>
-  <si>
-    <t>27.03.202545</t>
-  </si>
-  <si>
-    <t>27.03.202546</t>
-  </si>
-  <si>
-    <t>27.03.202547</t>
-  </si>
-  <si>
-    <t>27.03.202548</t>
-  </si>
-  <si>
-    <t>27.03.202549</t>
-  </si>
-  <si>
-    <t>27.03.202550</t>
-  </si>
-  <si>
-    <t>27.03.202551</t>
-  </si>
-  <si>
-    <t>27.03.202552</t>
-  </si>
-  <si>
-    <t>27.03.202553</t>
-  </si>
-  <si>
-    <t>27.03.202554</t>
-  </si>
-  <si>
-    <t>27.03.202555</t>
-  </si>
-  <si>
-    <t>27.03.202556</t>
-  </si>
-  <si>
-    <t>27.03.202557</t>
-  </si>
-  <si>
-    <t>27.03.202558</t>
-  </si>
-  <si>
-    <t>27.03.202559</t>
-  </si>
-  <si>
-    <t>27.03.202560</t>
-  </si>
-  <si>
-    <t>27.03.202561</t>
-  </si>
-  <si>
-    <t>27.03.202562</t>
-  </si>
-  <si>
-    <t>27.03.202563</t>
-  </si>
-  <si>
-    <t>27.03.202564</t>
-  </si>
-  <si>
-    <t>27.03.202565</t>
-  </si>
-  <si>
-    <t>27.03.202566</t>
-  </si>
-  <si>
-    <t>27.03.202567</t>
-  </si>
-  <si>
-    <t>27.03.202568</t>
-  </si>
-  <si>
-    <t>27.03.202569</t>
-  </si>
-  <si>
-    <t>27.03.202570</t>
-  </si>
-  <si>
-    <t>27.03.202571</t>
-  </si>
-  <si>
-    <t>27.03.202572</t>
-  </si>
-  <si>
-    <t>27.03.202573</t>
-  </si>
-  <si>
-    <t>27.03.202574</t>
-  </si>
-  <si>
-    <t>27.03.202575</t>
-  </si>
-  <si>
-    <t>27.03.202576</t>
-  </si>
-  <si>
-    <t>27.03.202577</t>
-  </si>
-  <si>
-    <t>27.03.202578</t>
-  </si>
-  <si>
-    <t>27.03.202579</t>
-  </si>
-  <si>
-    <t>27.03.202580</t>
-  </si>
-  <si>
-    <t>27.03.202581</t>
-  </si>
-  <si>
-    <t>27.03.202582</t>
-  </si>
-  <si>
-    <t>27.03.202583</t>
-  </si>
-  <si>
-    <t>27.03.202584</t>
-  </si>
-  <si>
-    <t>27.03.202585</t>
-  </si>
-  <si>
-    <t>27.03.202586</t>
-  </si>
-  <si>
-    <t>27.03.202587</t>
-  </si>
-  <si>
-    <t>27.03.202588</t>
-  </si>
-  <si>
-    <t>27.03.202589</t>
-  </si>
-  <si>
-    <t>27.03.202590</t>
-  </si>
-  <si>
-    <t>27.03.202591</t>
-  </si>
-  <si>
-    <t>27.03.202592</t>
-  </si>
-  <si>
-    <t>27.03.202593</t>
-  </si>
-  <si>
-    <t>27.03.202594</t>
-  </si>
-  <si>
-    <t>27.03.202595</t>
-  </si>
-  <si>
-    <t>27.03.202596</t>
-  </si>
-  <si>
     <t>28.03.20251</t>
   </si>
   <si>
@@ -602,6 +314,858 @@
   </si>
   <si>
     <t>28.03.202596</t>
+  </si>
+  <si>
+    <t>29.03.20251</t>
+  </si>
+  <si>
+    <t>29.03.20252</t>
+  </si>
+  <si>
+    <t>29.03.20253</t>
+  </si>
+  <si>
+    <t>29.03.20254</t>
+  </si>
+  <si>
+    <t>29.03.20255</t>
+  </si>
+  <si>
+    <t>29.03.20256</t>
+  </si>
+  <si>
+    <t>29.03.20257</t>
+  </si>
+  <si>
+    <t>29.03.20258</t>
+  </si>
+  <si>
+    <t>29.03.20259</t>
+  </si>
+  <si>
+    <t>29.03.202510</t>
+  </si>
+  <si>
+    <t>29.03.202511</t>
+  </si>
+  <si>
+    <t>29.03.202512</t>
+  </si>
+  <si>
+    <t>29.03.202513</t>
+  </si>
+  <si>
+    <t>29.03.202514</t>
+  </si>
+  <si>
+    <t>29.03.202515</t>
+  </si>
+  <si>
+    <t>29.03.202516</t>
+  </si>
+  <si>
+    <t>29.03.202517</t>
+  </si>
+  <si>
+    <t>29.03.202518</t>
+  </si>
+  <si>
+    <t>29.03.202519</t>
+  </si>
+  <si>
+    <t>29.03.202520</t>
+  </si>
+  <si>
+    <t>29.03.202521</t>
+  </si>
+  <si>
+    <t>29.03.202522</t>
+  </si>
+  <si>
+    <t>29.03.202523</t>
+  </si>
+  <si>
+    <t>29.03.202524</t>
+  </si>
+  <si>
+    <t>29.03.202525</t>
+  </si>
+  <si>
+    <t>29.03.202526</t>
+  </si>
+  <si>
+    <t>29.03.202527</t>
+  </si>
+  <si>
+    <t>29.03.202528</t>
+  </si>
+  <si>
+    <t>29.03.202529</t>
+  </si>
+  <si>
+    <t>29.03.202530</t>
+  </si>
+  <si>
+    <t>29.03.202531</t>
+  </si>
+  <si>
+    <t>29.03.202532</t>
+  </si>
+  <si>
+    <t>29.03.202533</t>
+  </si>
+  <si>
+    <t>29.03.202534</t>
+  </si>
+  <si>
+    <t>29.03.202535</t>
+  </si>
+  <si>
+    <t>29.03.202536</t>
+  </si>
+  <si>
+    <t>29.03.202537</t>
+  </si>
+  <si>
+    <t>29.03.202538</t>
+  </si>
+  <si>
+    <t>29.03.202539</t>
+  </si>
+  <si>
+    <t>29.03.202540</t>
+  </si>
+  <si>
+    <t>29.03.202541</t>
+  </si>
+  <si>
+    <t>29.03.202542</t>
+  </si>
+  <si>
+    <t>29.03.202543</t>
+  </si>
+  <si>
+    <t>29.03.202544</t>
+  </si>
+  <si>
+    <t>29.03.202545</t>
+  </si>
+  <si>
+    <t>29.03.202546</t>
+  </si>
+  <si>
+    <t>29.03.202547</t>
+  </si>
+  <si>
+    <t>29.03.202548</t>
+  </si>
+  <si>
+    <t>29.03.202549</t>
+  </si>
+  <si>
+    <t>29.03.202550</t>
+  </si>
+  <si>
+    <t>29.03.202551</t>
+  </si>
+  <si>
+    <t>29.03.202552</t>
+  </si>
+  <si>
+    <t>29.03.202553</t>
+  </si>
+  <si>
+    <t>29.03.202554</t>
+  </si>
+  <si>
+    <t>29.03.202555</t>
+  </si>
+  <si>
+    <t>29.03.202556</t>
+  </si>
+  <si>
+    <t>29.03.202557</t>
+  </si>
+  <si>
+    <t>29.03.202558</t>
+  </si>
+  <si>
+    <t>29.03.202559</t>
+  </si>
+  <si>
+    <t>29.03.202560</t>
+  </si>
+  <si>
+    <t>29.03.202561</t>
+  </si>
+  <si>
+    <t>29.03.202562</t>
+  </si>
+  <si>
+    <t>29.03.202563</t>
+  </si>
+  <si>
+    <t>29.03.202564</t>
+  </si>
+  <si>
+    <t>29.03.202565</t>
+  </si>
+  <si>
+    <t>29.03.202566</t>
+  </si>
+  <si>
+    <t>29.03.202567</t>
+  </si>
+  <si>
+    <t>29.03.202568</t>
+  </si>
+  <si>
+    <t>29.03.202569</t>
+  </si>
+  <si>
+    <t>29.03.202570</t>
+  </si>
+  <si>
+    <t>29.03.202571</t>
+  </si>
+  <si>
+    <t>29.03.202572</t>
+  </si>
+  <si>
+    <t>29.03.202573</t>
+  </si>
+  <si>
+    <t>29.03.202574</t>
+  </si>
+  <si>
+    <t>29.03.202575</t>
+  </si>
+  <si>
+    <t>29.03.202576</t>
+  </si>
+  <si>
+    <t>29.03.202577</t>
+  </si>
+  <si>
+    <t>29.03.202578</t>
+  </si>
+  <si>
+    <t>29.03.202579</t>
+  </si>
+  <si>
+    <t>29.03.202580</t>
+  </si>
+  <si>
+    <t>29.03.202581</t>
+  </si>
+  <si>
+    <t>29.03.202582</t>
+  </si>
+  <si>
+    <t>29.03.202583</t>
+  </si>
+  <si>
+    <t>29.03.202584</t>
+  </si>
+  <si>
+    <t>29.03.202585</t>
+  </si>
+  <si>
+    <t>29.03.202586</t>
+  </si>
+  <si>
+    <t>29.03.202587</t>
+  </si>
+  <si>
+    <t>29.03.202588</t>
+  </si>
+  <si>
+    <t>29.03.202589</t>
+  </si>
+  <si>
+    <t>29.03.202590</t>
+  </si>
+  <si>
+    <t>29.03.202591</t>
+  </si>
+  <si>
+    <t>29.03.202592</t>
+  </si>
+  <si>
+    <t>29.03.202593</t>
+  </si>
+  <si>
+    <t>29.03.202594</t>
+  </si>
+  <si>
+    <t>29.03.202595</t>
+  </si>
+  <si>
+    <t>29.03.202596</t>
+  </si>
+  <si>
+    <t>30.03.20251</t>
+  </si>
+  <si>
+    <t>30.03.20252</t>
+  </si>
+  <si>
+    <t>30.03.20253</t>
+  </si>
+  <si>
+    <t>30.03.20254</t>
+  </si>
+  <si>
+    <t>30.03.20255</t>
+  </si>
+  <si>
+    <t>30.03.20256</t>
+  </si>
+  <si>
+    <t>30.03.20257</t>
+  </si>
+  <si>
+    <t>30.03.20258</t>
+  </si>
+  <si>
+    <t>30.03.20259</t>
+  </si>
+  <si>
+    <t>30.03.202510</t>
+  </si>
+  <si>
+    <t>30.03.202511</t>
+  </si>
+  <si>
+    <t>30.03.202512</t>
+  </si>
+  <si>
+    <t>30.03.202513</t>
+  </si>
+  <si>
+    <t>30.03.202514</t>
+  </si>
+  <si>
+    <t>30.03.202515</t>
+  </si>
+  <si>
+    <t>30.03.202516</t>
+  </si>
+  <si>
+    <t>30.03.202517</t>
+  </si>
+  <si>
+    <t>30.03.202518</t>
+  </si>
+  <si>
+    <t>30.03.202519</t>
+  </si>
+  <si>
+    <t>30.03.202520</t>
+  </si>
+  <si>
+    <t>30.03.202521</t>
+  </si>
+  <si>
+    <t>30.03.202522</t>
+  </si>
+  <si>
+    <t>30.03.202523</t>
+  </si>
+  <si>
+    <t>30.03.202524</t>
+  </si>
+  <si>
+    <t>30.03.202525</t>
+  </si>
+  <si>
+    <t>30.03.202526</t>
+  </si>
+  <si>
+    <t>30.03.202527</t>
+  </si>
+  <si>
+    <t>30.03.202528</t>
+  </si>
+  <si>
+    <t>30.03.202529</t>
+  </si>
+  <si>
+    <t>30.03.202530</t>
+  </si>
+  <si>
+    <t>30.03.202531</t>
+  </si>
+  <si>
+    <t>30.03.202532</t>
+  </si>
+  <si>
+    <t>30.03.202533</t>
+  </si>
+  <si>
+    <t>30.03.202534</t>
+  </si>
+  <si>
+    <t>30.03.202535</t>
+  </si>
+  <si>
+    <t>30.03.202536</t>
+  </si>
+  <si>
+    <t>30.03.202537</t>
+  </si>
+  <si>
+    <t>30.03.202538</t>
+  </si>
+  <si>
+    <t>30.03.202539</t>
+  </si>
+  <si>
+    <t>30.03.202540</t>
+  </si>
+  <si>
+    <t>30.03.202541</t>
+  </si>
+  <si>
+    <t>30.03.202542</t>
+  </si>
+  <si>
+    <t>30.03.202543</t>
+  </si>
+  <si>
+    <t>30.03.202544</t>
+  </si>
+  <si>
+    <t>30.03.202545</t>
+  </si>
+  <si>
+    <t>30.03.202546</t>
+  </si>
+  <si>
+    <t>30.03.202547</t>
+  </si>
+  <si>
+    <t>30.03.202548</t>
+  </si>
+  <si>
+    <t>30.03.202549</t>
+  </si>
+  <si>
+    <t>30.03.202550</t>
+  </si>
+  <si>
+    <t>30.03.202551</t>
+  </si>
+  <si>
+    <t>30.03.202552</t>
+  </si>
+  <si>
+    <t>30.03.202553</t>
+  </si>
+  <si>
+    <t>30.03.202554</t>
+  </si>
+  <si>
+    <t>30.03.202555</t>
+  </si>
+  <si>
+    <t>30.03.202556</t>
+  </si>
+  <si>
+    <t>30.03.202557</t>
+  </si>
+  <si>
+    <t>30.03.202558</t>
+  </si>
+  <si>
+    <t>30.03.202559</t>
+  </si>
+  <si>
+    <t>30.03.202560</t>
+  </si>
+  <si>
+    <t>30.03.202561</t>
+  </si>
+  <si>
+    <t>30.03.202562</t>
+  </si>
+  <si>
+    <t>30.03.202563</t>
+  </si>
+  <si>
+    <t>30.03.202564</t>
+  </si>
+  <si>
+    <t>30.03.202565</t>
+  </si>
+  <si>
+    <t>30.03.202566</t>
+  </si>
+  <si>
+    <t>30.03.202567</t>
+  </si>
+  <si>
+    <t>30.03.202568</t>
+  </si>
+  <si>
+    <t>30.03.202569</t>
+  </si>
+  <si>
+    <t>30.03.202570</t>
+  </si>
+  <si>
+    <t>30.03.202571</t>
+  </si>
+  <si>
+    <t>30.03.202572</t>
+  </si>
+  <si>
+    <t>30.03.202573</t>
+  </si>
+  <si>
+    <t>30.03.202574</t>
+  </si>
+  <si>
+    <t>30.03.202575</t>
+  </si>
+  <si>
+    <t>30.03.202576</t>
+  </si>
+  <si>
+    <t>30.03.202577</t>
+  </si>
+  <si>
+    <t>30.03.202578</t>
+  </si>
+  <si>
+    <t>30.03.202579</t>
+  </si>
+  <si>
+    <t>30.03.202580</t>
+  </si>
+  <si>
+    <t>30.03.202581</t>
+  </si>
+  <si>
+    <t>30.03.202582</t>
+  </si>
+  <si>
+    <t>30.03.202583</t>
+  </si>
+  <si>
+    <t>30.03.202584</t>
+  </si>
+  <si>
+    <t>30.03.202585</t>
+  </si>
+  <si>
+    <t>30.03.202586</t>
+  </si>
+  <si>
+    <t>30.03.202587</t>
+  </si>
+  <si>
+    <t>30.03.202588</t>
+  </si>
+  <si>
+    <t>30.03.202589</t>
+  </si>
+  <si>
+    <t>30.03.202590</t>
+  </si>
+  <si>
+    <t>30.03.202591</t>
+  </si>
+  <si>
+    <t>30.03.202592</t>
+  </si>
+  <si>
+    <t>31.03.202593</t>
+  </si>
+  <si>
+    <t>31.03.202594</t>
+  </si>
+  <si>
+    <t>31.03.202595</t>
+  </si>
+  <si>
+    <t>31.03.202596</t>
+  </si>
+  <si>
+    <t>31.03.20251</t>
+  </si>
+  <si>
+    <t>31.03.20252</t>
+  </si>
+  <si>
+    <t>31.03.20253</t>
+  </si>
+  <si>
+    <t>31.03.20254</t>
+  </si>
+  <si>
+    <t>31.03.20255</t>
+  </si>
+  <si>
+    <t>31.03.20256</t>
+  </si>
+  <si>
+    <t>31.03.20257</t>
+  </si>
+  <si>
+    <t>31.03.20258</t>
+  </si>
+  <si>
+    <t>31.03.20259</t>
+  </si>
+  <si>
+    <t>31.03.202510</t>
+  </si>
+  <si>
+    <t>31.03.202511</t>
+  </si>
+  <si>
+    <t>31.03.202512</t>
+  </si>
+  <si>
+    <t>31.03.202513</t>
+  </si>
+  <si>
+    <t>31.03.202514</t>
+  </si>
+  <si>
+    <t>31.03.202515</t>
+  </si>
+  <si>
+    <t>31.03.202516</t>
+  </si>
+  <si>
+    <t>31.03.202517</t>
+  </si>
+  <si>
+    <t>31.03.202518</t>
+  </si>
+  <si>
+    <t>31.03.202519</t>
+  </si>
+  <si>
+    <t>31.03.202520</t>
+  </si>
+  <si>
+    <t>31.03.202521</t>
+  </si>
+  <si>
+    <t>31.03.202522</t>
+  </si>
+  <si>
+    <t>31.03.202523</t>
+  </si>
+  <si>
+    <t>31.03.202524</t>
+  </si>
+  <si>
+    <t>31.03.202525</t>
+  </si>
+  <si>
+    <t>31.03.202526</t>
+  </si>
+  <si>
+    <t>31.03.202527</t>
+  </si>
+  <si>
+    <t>31.03.202528</t>
+  </si>
+  <si>
+    <t>31.03.202529</t>
+  </si>
+  <si>
+    <t>31.03.202530</t>
+  </si>
+  <si>
+    <t>31.03.202531</t>
+  </si>
+  <si>
+    <t>31.03.202532</t>
+  </si>
+  <si>
+    <t>31.03.202533</t>
+  </si>
+  <si>
+    <t>31.03.202534</t>
+  </si>
+  <si>
+    <t>31.03.202535</t>
+  </si>
+  <si>
+    <t>31.03.202536</t>
+  </si>
+  <si>
+    <t>31.03.202537</t>
+  </si>
+  <si>
+    <t>31.03.202538</t>
+  </si>
+  <si>
+    <t>31.03.202539</t>
+  </si>
+  <si>
+    <t>31.03.202540</t>
+  </si>
+  <si>
+    <t>31.03.202541</t>
+  </si>
+  <si>
+    <t>31.03.202542</t>
+  </si>
+  <si>
+    <t>31.03.202543</t>
+  </si>
+  <si>
+    <t>31.03.202544</t>
+  </si>
+  <si>
+    <t>31.03.202545</t>
+  </si>
+  <si>
+    <t>31.03.202546</t>
+  </si>
+  <si>
+    <t>31.03.202547</t>
+  </si>
+  <si>
+    <t>31.03.202548</t>
+  </si>
+  <si>
+    <t>31.03.202549</t>
+  </si>
+  <si>
+    <t>31.03.202550</t>
+  </si>
+  <si>
+    <t>31.03.202551</t>
+  </si>
+  <si>
+    <t>31.03.202552</t>
+  </si>
+  <si>
+    <t>31.03.202553</t>
+  </si>
+  <si>
+    <t>31.03.202554</t>
+  </si>
+  <si>
+    <t>31.03.202555</t>
+  </si>
+  <si>
+    <t>31.03.202556</t>
+  </si>
+  <si>
+    <t>31.03.202557</t>
+  </si>
+  <si>
+    <t>31.03.202558</t>
+  </si>
+  <si>
+    <t>31.03.202559</t>
+  </si>
+  <si>
+    <t>31.03.202560</t>
+  </si>
+  <si>
+    <t>31.03.202561</t>
+  </si>
+  <si>
+    <t>31.03.202562</t>
+  </si>
+  <si>
+    <t>31.03.202563</t>
+  </si>
+  <si>
+    <t>31.03.202564</t>
+  </si>
+  <si>
+    <t>31.03.202565</t>
+  </si>
+  <si>
+    <t>31.03.202566</t>
+  </si>
+  <si>
+    <t>31.03.202567</t>
+  </si>
+  <si>
+    <t>31.03.202568</t>
+  </si>
+  <si>
+    <t>31.03.202569</t>
+  </si>
+  <si>
+    <t>31.03.202570</t>
+  </si>
+  <si>
+    <t>31.03.202571</t>
+  </si>
+  <si>
+    <t>31.03.202572</t>
+  </si>
+  <si>
+    <t>31.03.202573</t>
+  </si>
+  <si>
+    <t>31.03.202574</t>
+  </si>
+  <si>
+    <t>31.03.202575</t>
+  </si>
+  <si>
+    <t>31.03.202576</t>
+  </si>
+  <si>
+    <t>31.03.202577</t>
+  </si>
+  <si>
+    <t>31.03.202578</t>
+  </si>
+  <si>
+    <t>31.03.202579</t>
+  </si>
+  <si>
+    <t>31.03.202580</t>
+  </si>
+  <si>
+    <t>31.03.202581</t>
+  </si>
+  <si>
+    <t>31.03.202582</t>
+  </si>
+  <si>
+    <t>31.03.202583</t>
+  </si>
+  <si>
+    <t>31.03.202584</t>
+  </si>
+  <si>
+    <t>31.03.202585</t>
+  </si>
+  <si>
+    <t>31.03.202586</t>
+  </si>
+  <si>
+    <t>31.03.202587</t>
+  </si>
+  <si>
+    <t>31.03.202588</t>
+  </si>
+  <si>
+    <t>31.03.202589</t>
+  </si>
+  <si>
+    <t>31.03.202590</t>
+  </si>
+  <si>
+    <t>31.03.202591</t>
+  </si>
+  <si>
+    <t>31.03.202592</t>
   </si>
 </sst>
 </file>
@@ -963,7 +1527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:D381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -985,10 +1549,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45743</v>
+        <v>45744</v>
       </c>
       <c r="B2">
-        <v>5579</v>
+        <v>5576</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -999,10 +1563,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45743.01041666666</v>
+        <v>45744.01041666666</v>
       </c>
       <c r="B3">
-        <v>5506</v>
+        <v>5531</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1013,10 +1577,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45743.02083333334</v>
+        <v>45744.02083333334</v>
       </c>
       <c r="B4">
-        <v>5512</v>
+        <v>5542</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1027,10 +1591,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45743.03125</v>
+        <v>45744.03125</v>
       </c>
       <c r="B5">
-        <v>5451</v>
+        <v>5506</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1041,10 +1605,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45743.04166666666</v>
+        <v>45744.04166666666</v>
       </c>
       <c r="B6">
-        <v>5433</v>
+        <v>5466</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1055,10 +1619,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45743.05208333334</v>
+        <v>45744.05208333334</v>
       </c>
       <c r="B7">
-        <v>5435</v>
+        <v>5464</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1069,10 +1633,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45743.0625</v>
+        <v>45744.0625</v>
       </c>
       <c r="B8">
-        <v>5374</v>
+        <v>5451</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1083,10 +1647,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45743.07291666666</v>
+        <v>45744.07291666666</v>
       </c>
       <c r="B9">
-        <v>5400</v>
+        <v>5420</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1097,10 +1661,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45743.08333333334</v>
+        <v>45744.08333333334</v>
       </c>
       <c r="B10">
-        <v>5338</v>
+        <v>5384</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1111,10 +1675,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45743.09375</v>
+        <v>45744.09375</v>
       </c>
       <c r="B11">
-        <v>5377</v>
+        <v>5412</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1125,10 +1689,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45743.10416666666</v>
+        <v>45744.10416666666</v>
       </c>
       <c r="B12">
-        <v>5403</v>
+        <v>5410</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1139,10 +1703,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45743.11458333334</v>
+        <v>45744.11458333334</v>
       </c>
       <c r="B13">
-        <v>5370</v>
+        <v>5432</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1153,10 +1717,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45743.125</v>
+        <v>45744.125</v>
       </c>
       <c r="B14">
-        <v>5422</v>
+        <v>5413</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1167,10 +1731,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45743.13541666666</v>
+        <v>45744.13541666666</v>
       </c>
       <c r="B15">
-        <v>5386</v>
+        <v>5461</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1181,10 +1745,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45743.14583333334</v>
+        <v>45744.14583333334</v>
       </c>
       <c r="B16">
-        <v>5468</v>
+        <v>5453</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1195,10 +1759,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45743.15625</v>
+        <v>45744.15625</v>
       </c>
       <c r="B17">
-        <v>5465</v>
+        <v>5471</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1209,10 +1773,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45743.16666666666</v>
+        <v>45744.16666666666</v>
       </c>
       <c r="B18">
-        <v>5510</v>
+        <v>5561</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1223,10 +1787,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45743.17708333334</v>
+        <v>45744.17708333334</v>
       </c>
       <c r="B19">
-        <v>5521</v>
+        <v>5642</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1237,10 +1801,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45743.1875</v>
+        <v>45744.1875</v>
       </c>
       <c r="B20">
-        <v>5632</v>
+        <v>5652</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1251,10 +1815,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45743.19791666666</v>
+        <v>45744.19791666666</v>
       </c>
       <c r="B21">
-        <v>5764</v>
+        <v>5739</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1265,10 +1829,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45743.20833333334</v>
+        <v>45744.20833333334</v>
       </c>
       <c r="B22">
-        <v>5876</v>
+        <v>5877</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1279,10 +1843,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45743.21875</v>
+        <v>45744.21875</v>
       </c>
       <c r="B23">
-        <v>6014</v>
+        <v>5979</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1293,10 +1857,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45743.22916666666</v>
+        <v>45744.22916666666</v>
       </c>
       <c r="B24">
-        <v>6107</v>
+        <v>6169</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1307,10 +1871,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45743.23958333334</v>
+        <v>45744.23958333334</v>
       </c>
       <c r="B25">
-        <v>6262</v>
+        <v>6283</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1321,10 +1885,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45743.25</v>
+        <v>45744.25</v>
       </c>
       <c r="B26">
-        <v>6556</v>
+        <v>6549</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1335,10 +1899,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45743.26041666666</v>
+        <v>45744.26041666666</v>
       </c>
       <c r="B27">
-        <v>6720</v>
+        <v>6780</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1349,10 +1913,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45743.27083333334</v>
+        <v>45744.27083333334</v>
       </c>
       <c r="B28">
-        <v>6849</v>
+        <v>6879</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1363,10 +1927,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45743.28125</v>
+        <v>45744.28125</v>
       </c>
       <c r="B29">
-        <v>6955</v>
+        <v>6954</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1377,10 +1941,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45743.29166666666</v>
+        <v>45744.29166666666</v>
       </c>
       <c r="B30">
-        <v>7103</v>
+        <v>7072</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1391,10 +1955,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45743.30208333334</v>
+        <v>45744.30208333334</v>
       </c>
       <c r="B31">
-        <v>7141</v>
+        <v>7216</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1405,10 +1969,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45743.3125</v>
+        <v>45744.3125</v>
       </c>
       <c r="B32">
-        <v>7225</v>
+        <v>7277</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1419,10 +1983,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45743.32291666666</v>
+        <v>45744.32291666666</v>
       </c>
       <c r="B33">
-        <v>7192</v>
+        <v>7349</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1433,10 +1997,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45743.33333333334</v>
+        <v>45744.33333333334</v>
       </c>
       <c r="B34">
-        <v>7229</v>
+        <v>7358</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1447,10 +2011,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45743.34375</v>
+        <v>45744.34375</v>
       </c>
       <c r="B35">
-        <v>7216</v>
+        <v>7419</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1461,10 +2025,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45743.35416666666</v>
+        <v>45744.35416666666</v>
       </c>
       <c r="B36">
-        <v>7173</v>
+        <v>7371</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1475,10 +2039,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45743.36458333334</v>
+        <v>45744.36458333334</v>
       </c>
       <c r="B37">
-        <v>7139</v>
+        <v>7393</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1489,10 +2053,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45743.375</v>
+        <v>45744.375</v>
       </c>
       <c r="B38">
-        <v>7058</v>
+        <v>7340</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1503,10 +2067,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45743.38541666666</v>
+        <v>45744.38541666666</v>
       </c>
       <c r="B39">
-        <v>7015</v>
+        <v>7287</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1517,10 +2081,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45743.39583333334</v>
+        <v>45744.39583333334</v>
       </c>
       <c r="B40">
-        <v>6881</v>
+        <v>7305</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1531,10 +2095,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45743.40625</v>
+        <v>45744.40625</v>
       </c>
       <c r="B41">
-        <v>6898</v>
+        <v>7226</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1545,10 +2109,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45743.41666666666</v>
+        <v>45744.41666666666</v>
       </c>
       <c r="B42">
-        <v>6819</v>
+        <v>7139</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1559,10 +2123,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45743.42708333334</v>
+        <v>45744.42708333334</v>
       </c>
       <c r="B43">
-        <v>6806</v>
+        <v>7096</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1573,10 +2137,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45743.4375</v>
+        <v>45744.4375</v>
       </c>
       <c r="B44">
-        <v>6810</v>
+        <v>7103</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1587,10 +2151,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45743.44791666666</v>
+        <v>45744.44791666666</v>
       </c>
       <c r="B45">
-        <v>6735</v>
+        <v>7043</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1601,10 +2165,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45743.45833333334</v>
+        <v>45744.45833333334</v>
       </c>
       <c r="B46">
-        <v>6681</v>
+        <v>6970</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1615,10 +2179,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45743.46875</v>
+        <v>45744.46875</v>
       </c>
       <c r="B47">
-        <v>6674</v>
+        <v>6905</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1629,10 +2193,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45743.47916666666</v>
+        <v>45744.47916666666</v>
       </c>
       <c r="B48">
-        <v>6714</v>
+        <v>6863</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1643,10 +2207,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45743.48958333334</v>
+        <v>45744.48958333334</v>
       </c>
       <c r="B49">
-        <v>6653</v>
+        <v>6786</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1657,10 +2221,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45743.5</v>
+        <v>45744.5</v>
       </c>
       <c r="B50">
-        <v>6676</v>
+        <v>6654</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1671,10 +2235,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45743.51041666666</v>
+        <v>45744.51041666666</v>
       </c>
       <c r="B51">
-        <v>6685</v>
+        <v>6641</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1685,10 +2249,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45743.52083333334</v>
+        <v>45744.52083333334</v>
       </c>
       <c r="B52">
-        <v>6756</v>
+        <v>6623</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1699,10 +2263,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45743.53125</v>
+        <v>45744.53125</v>
       </c>
       <c r="B53">
-        <v>6771</v>
+        <v>6613</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -1713,10 +2277,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45743.54166666666</v>
+        <v>45744.54166666666</v>
       </c>
       <c r="B54">
-        <v>6708</v>
+        <v>6585</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -1727,10 +2291,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45743.55208333334</v>
+        <v>45744.55208333334</v>
       </c>
       <c r="B55">
-        <v>6710</v>
+        <v>6581</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -1741,10 +2305,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45743.5625</v>
+        <v>45744.5625</v>
       </c>
       <c r="B56">
-        <v>6742</v>
+        <v>6510</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -1755,10 +2319,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45743.57291666666</v>
+        <v>45744.57291666666</v>
       </c>
       <c r="B57">
-        <v>6749</v>
+        <v>6515</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -1769,10 +2333,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45743.58333333334</v>
+        <v>45744.58333333334</v>
       </c>
       <c r="B58">
-        <v>6749</v>
+        <v>6517</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -1783,10 +2347,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45743.59375</v>
+        <v>45744.59375</v>
       </c>
       <c r="B59">
-        <v>6718</v>
+        <v>6579</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -1797,10 +2361,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45743.60416666666</v>
+        <v>45744.60416666666</v>
       </c>
       <c r="B60">
-        <v>6738</v>
+        <v>6647</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -1811,10 +2375,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45743.61458333334</v>
+        <v>45744.61458333334</v>
       </c>
       <c r="B61">
-        <v>6735</v>
+        <v>6685</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -1825,10 +2389,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45743.625</v>
+        <v>45744.625</v>
       </c>
       <c r="B62">
-        <v>6748</v>
+        <v>6758</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -1839,10 +2403,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45743.63541666666</v>
+        <v>45744.63541666666</v>
       </c>
       <c r="B63">
-        <v>6818</v>
+        <v>6824</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -1853,10 +2417,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45743.64583333334</v>
+        <v>45744.64583333334</v>
       </c>
       <c r="B64">
-        <v>6804</v>
+        <v>6925</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -1867,10 +2431,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45743.65625</v>
+        <v>45744.65625</v>
       </c>
       <c r="B65">
-        <v>6815</v>
+        <v>6984</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -1881,10 +2445,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45743.66666666666</v>
+        <v>45744.66666666666</v>
       </c>
       <c r="B66">
-        <v>6885</v>
+        <v>7050</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -1895,10 +2459,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45743.67708333334</v>
+        <v>45744.67708333334</v>
       </c>
       <c r="B67">
-        <v>6978</v>
+        <v>7055</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -1909,10 +2473,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45743.6875</v>
+        <v>45744.6875</v>
       </c>
       <c r="B68">
-        <v>6989</v>
+        <v>7106</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -1923,10 +2487,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45743.69791666666</v>
+        <v>45744.69791666666</v>
       </c>
       <c r="B69">
-        <v>7098</v>
+        <v>7195</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -1937,10 +2501,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45743.70833333334</v>
+        <v>45744.70833333334</v>
       </c>
       <c r="B70">
-        <v>7176</v>
+        <v>7232</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -1951,10 +2515,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45743.71875</v>
+        <v>45744.71875</v>
       </c>
       <c r="B71">
-        <v>7233</v>
+        <v>7284</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -1965,10 +2529,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45743.72916666666</v>
+        <v>45744.72916666666</v>
       </c>
       <c r="B72">
-        <v>7344</v>
+        <v>7445</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -1979,10 +2543,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45743.73958333334</v>
+        <v>45744.73958333334</v>
       </c>
       <c r="B73">
-        <v>7462</v>
+        <v>7517</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -1993,10 +2557,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45743.75</v>
+        <v>45744.75</v>
       </c>
       <c r="B74">
-        <v>7601</v>
+        <v>7622</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -2007,10 +2571,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45743.76041666666</v>
+        <v>45744.76041666666</v>
       </c>
       <c r="B75">
-        <v>7685</v>
+        <v>7672</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -2021,10 +2585,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45743.77083333334</v>
+        <v>45744.77083333334</v>
       </c>
       <c r="B76">
-        <v>7719</v>
+        <v>7666</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -2035,10 +2599,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45743.78125</v>
+        <v>45744.78125</v>
       </c>
       <c r="B77">
-        <v>7722</v>
+        <v>7635</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -2049,10 +2613,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45743.79166666666</v>
+        <v>45744.79166666666</v>
       </c>
       <c r="B78">
-        <v>7665</v>
+        <v>7606</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -2063,10 +2627,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45743.80208333334</v>
+        <v>45744.80208333334</v>
       </c>
       <c r="B79">
-        <v>7654</v>
+        <v>7542</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -2077,10 +2641,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45743.8125</v>
+        <v>45744.8125</v>
       </c>
       <c r="B80">
-        <v>7563</v>
+        <v>7496</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -2091,10 +2655,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45743.82291666666</v>
+        <v>45744.82291666666</v>
       </c>
       <c r="B81">
-        <v>7503</v>
+        <v>7398</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -2105,10 +2669,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45743.83333333334</v>
+        <v>45744.83333333334</v>
       </c>
       <c r="B82">
-        <v>7334</v>
+        <v>7288</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -2119,10 +2683,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45743.84375</v>
+        <v>45744.84375</v>
       </c>
       <c r="B83">
-        <v>7221</v>
+        <v>7157</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -2133,10 +2697,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45743.85416666666</v>
+        <v>45744.85416666666</v>
       </c>
       <c r="B84">
-        <v>7140</v>
+        <v>7035</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -2147,10 +2711,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45743.86458333334</v>
+        <v>45744.86458333334</v>
       </c>
       <c r="B85">
-        <v>6962</v>
+        <v>6935</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -2161,10 +2725,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45743.875</v>
+        <v>45744.875</v>
       </c>
       <c r="B86">
-        <v>6785</v>
+        <v>6721</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -2175,10 +2739,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45743.88541666666</v>
+        <v>45744.88541666666</v>
       </c>
       <c r="B87">
-        <v>6676</v>
+        <v>6631</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -2189,10 +2753,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45743.89583333334</v>
+        <v>45744.89583333334</v>
       </c>
       <c r="B88">
-        <v>6491</v>
+        <v>6465</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -2203,10 +2767,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45743.90625</v>
+        <v>45744.90625</v>
       </c>
       <c r="B89">
-        <v>6380</v>
+        <v>6351</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -2217,10 +2781,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45743.91666666666</v>
+        <v>45744.91666666666</v>
       </c>
       <c r="B90">
-        <v>6187</v>
+        <v>6165</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -2231,10 +2795,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45743.92708333334</v>
+        <v>45744.92708333334</v>
       </c>
       <c r="B91">
-        <v>6076</v>
+        <v>6066</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -2245,10 +2809,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45743.9375</v>
+        <v>45744.9375</v>
       </c>
       <c r="B92">
-        <v>6000</v>
+        <v>6007</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -2259,10 +2823,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45743.94791666666</v>
+        <v>45744.94791666666</v>
       </c>
       <c r="B93">
-        <v>5854</v>
+        <v>5855</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -2273,10 +2837,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45743.95833333334</v>
+        <v>45744.95833333334</v>
       </c>
       <c r="B94">
-        <v>5806</v>
+        <v>5842</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -2287,10 +2851,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45743.96875</v>
+        <v>45744.96875</v>
       </c>
       <c r="B95">
-        <v>5735</v>
+        <v>5746</v>
       </c>
       <c r="C95">
         <v>94</v>
@@ -2301,10 +2865,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45743.97916666666</v>
+        <v>45744.97916666666</v>
       </c>
       <c r="B96">
-        <v>5699</v>
+        <v>5719</v>
       </c>
       <c r="C96">
         <v>95</v>
@@ -2315,10 +2879,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>45743.98958333334</v>
+        <v>45744.98958333334</v>
       </c>
       <c r="B97">
-        <v>5610</v>
+        <v>5683</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -2329,10 +2893,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>45744</v>
+        <v>45745</v>
       </c>
       <c r="B98">
-        <v>5576</v>
+        <v>5595</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2343,10 +2907,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>45744.01041666666</v>
+        <v>45745.01041666666</v>
       </c>
       <c r="B99">
-        <v>5531</v>
+        <v>5563</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2357,10 +2921,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>45744.02083333334</v>
+        <v>45745.02083333334</v>
       </c>
       <c r="B100">
-        <v>5542</v>
+        <v>5519</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2371,10 +2935,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>45744.03125</v>
+        <v>45745.03125</v>
       </c>
       <c r="B101">
-        <v>5506</v>
+        <v>5532</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2385,10 +2949,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>45744.04166666666</v>
+        <v>45745.04166666666</v>
       </c>
       <c r="B102">
-        <v>5466</v>
+        <v>5468</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2399,10 +2963,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>45744.05208333334</v>
+        <v>45745.05208333334</v>
       </c>
       <c r="B103">
-        <v>5464</v>
+        <v>5472</v>
       </c>
       <c r="C103">
         <v>6</v>
@@ -2413,10 +2977,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>45744.0625</v>
+        <v>45745.0625</v>
       </c>
       <c r="B104">
-        <v>5451</v>
+        <v>5424</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -2427,10 +2991,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>45744.07291666666</v>
+        <v>45745.07291666666</v>
       </c>
       <c r="B105">
-        <v>5420</v>
+        <v>5446</v>
       </c>
       <c r="C105">
         <v>8</v>
@@ -2441,10 +3005,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>45744.08333333334</v>
+        <v>45745.08333333334</v>
       </c>
       <c r="B106">
-        <v>5384</v>
+        <v>5387</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -2455,10 +3019,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>45744.09375</v>
+        <v>45745.09375</v>
       </c>
       <c r="B107">
-        <v>5412</v>
+        <v>5385</v>
       </c>
       <c r="C107">
         <v>10</v>
@@ -2469,10 +3033,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>45744.10416666666</v>
+        <v>45745.10416666666</v>
       </c>
       <c r="B108">
-        <v>5410</v>
+        <v>5393</v>
       </c>
       <c r="C108">
         <v>11</v>
@@ -2483,10 +3047,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>45744.11458333334</v>
+        <v>45745.11458333334</v>
       </c>
       <c r="B109">
-        <v>5432</v>
+        <v>5401</v>
       </c>
       <c r="C109">
         <v>12</v>
@@ -2497,10 +3061,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>45744.125</v>
+        <v>45745.125</v>
       </c>
       <c r="B110">
-        <v>5413</v>
+        <v>5411</v>
       </c>
       <c r="C110">
         <v>13</v>
@@ -2511,10 +3075,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>45744.13541666666</v>
+        <v>45745.13541666666</v>
       </c>
       <c r="B111">
-        <v>5461</v>
+        <v>5349</v>
       </c>
       <c r="C111">
         <v>14</v>
@@ -2525,10 +3089,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>45744.14583333334</v>
+        <v>45745.14583333334</v>
       </c>
       <c r="B112">
-        <v>5453</v>
+        <v>5392</v>
       </c>
       <c r="C112">
         <v>15</v>
@@ -2539,10 +3103,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>45744.15625</v>
+        <v>45745.15625</v>
       </c>
       <c r="B113">
-        <v>5471</v>
+        <v>5375</v>
       </c>
       <c r="C113">
         <v>16</v>
@@ -2553,10 +3117,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>45744.16666666666</v>
+        <v>45745.16666666666</v>
       </c>
       <c r="B114">
-        <v>5561</v>
+        <v>5388</v>
       </c>
       <c r="C114">
         <v>17</v>
@@ -2567,10 +3131,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>45744.17708333334</v>
+        <v>45745.17708333334</v>
       </c>
       <c r="B115">
-        <v>5642</v>
+        <v>5388</v>
       </c>
       <c r="C115">
         <v>18</v>
@@ -2581,10 +3145,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>45744.1875</v>
+        <v>45745.1875</v>
       </c>
       <c r="B116">
-        <v>5652</v>
+        <v>5389</v>
       </c>
       <c r="C116">
         <v>19</v>
@@ -2595,10 +3159,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>45744.19791666666</v>
+        <v>45745.19791666666</v>
       </c>
       <c r="B117">
-        <v>5739</v>
+        <v>5439</v>
       </c>
       <c r="C117">
         <v>20</v>
@@ -2609,10 +3173,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>45744.20833333334</v>
+        <v>45745.20833333334</v>
       </c>
       <c r="B118">
-        <v>5877</v>
+        <v>5441</v>
       </c>
       <c r="C118">
         <v>21</v>
@@ -2623,10 +3187,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>45744.21875</v>
+        <v>45745.21875</v>
       </c>
       <c r="B119">
-        <v>5979</v>
+        <v>5418</v>
       </c>
       <c r="C119">
         <v>22</v>
@@ -2637,10 +3201,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>45744.22916666666</v>
+        <v>45745.22916666666</v>
       </c>
       <c r="B120">
-        <v>6169</v>
+        <v>5454</v>
       </c>
       <c r="C120">
         <v>23</v>
@@ -2651,10 +3215,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>45744.23958333334</v>
+        <v>45745.23958333334</v>
       </c>
       <c r="B121">
-        <v>6283</v>
+        <v>5516</v>
       </c>
       <c r="C121">
         <v>24</v>
@@ -2665,10 +3229,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>45744.25</v>
+        <v>45745.25</v>
       </c>
       <c r="B122">
-        <v>6549</v>
+        <v>5620</v>
       </c>
       <c r="C122">
         <v>25</v>
@@ -2679,10 +3243,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>45744.26041666666</v>
+        <v>45745.26041666666</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>5732</v>
       </c>
       <c r="C123">
         <v>26</v>
@@ -2693,10 +3257,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>45744.27083333334</v>
+        <v>45745.27083333334</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>5834</v>
       </c>
       <c r="C124">
         <v>27</v>
@@ -2707,10 +3271,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>45744.28125</v>
+        <v>45745.28125</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>5934</v>
       </c>
       <c r="C125">
         <v>28</v>
@@ -2721,10 +3285,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>45744.29166666666</v>
+        <v>45745.29166666666</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>6079</v>
       </c>
       <c r="C126">
         <v>29</v>
@@ -2735,10 +3299,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>45744.30208333334</v>
+        <v>45745.30208333334</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>6146</v>
       </c>
       <c r="C127">
         <v>30</v>
@@ -2749,10 +3313,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>45744.3125</v>
+        <v>45745.3125</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>6285</v>
       </c>
       <c r="C128">
         <v>31</v>
@@ -2763,10 +3327,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>45744.32291666666</v>
+        <v>45745.32291666666</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>6366</v>
       </c>
       <c r="C129">
         <v>32</v>
@@ -2777,10 +3341,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>45744.33333333334</v>
+        <v>45745.33333333334</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>6379</v>
       </c>
       <c r="C130">
         <v>33</v>
@@ -2791,10 +3355,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>45744.34375</v>
+        <v>45745.34375</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>6410</v>
       </c>
       <c r="C131">
         <v>34</v>
@@ -2805,10 +3369,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>45744.35416666666</v>
+        <v>45745.35416666666</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>6443</v>
       </c>
       <c r="C132">
         <v>35</v>
@@ -2819,10 +3383,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>45744.36458333334</v>
+        <v>45745.36458333334</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>6356</v>
       </c>
       <c r="C133">
         <v>36</v>
@@ -2833,10 +3397,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>45744.375</v>
+        <v>45745.375</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>6436</v>
       </c>
       <c r="C134">
         <v>37</v>
@@ -2847,10 +3411,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>45744.38541666666</v>
+        <v>45745.38541666666</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>6479</v>
       </c>
       <c r="C135">
         <v>38</v>
@@ -2861,10 +3425,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>45744.39583333334</v>
+        <v>45745.39583333334</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>6425</v>
       </c>
       <c r="C136">
         <v>39</v>
@@ -2875,10 +3439,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>45744.40625</v>
+        <v>45745.40625</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>6501</v>
       </c>
       <c r="C137">
         <v>40</v>
@@ -2889,10 +3453,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>45744.41666666666</v>
+        <v>45745.41666666666</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>6473</v>
       </c>
       <c r="C138">
         <v>41</v>
@@ -2903,10 +3467,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>45744.42708333334</v>
+        <v>45745.42708333334</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>6503</v>
       </c>
       <c r="C139">
         <v>42</v>
@@ -2917,10 +3481,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>45744.4375</v>
+        <v>45745.4375</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>6491</v>
       </c>
       <c r="C140">
         <v>43</v>
@@ -2931,10 +3495,10 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>45744.44791666666</v>
+        <v>45745.44791666666</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>6455</v>
       </c>
       <c r="C141">
         <v>44</v>
@@ -2945,10 +3509,10 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>45744.45833333334</v>
+        <v>45745.45833333334</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>6463</v>
       </c>
       <c r="C142">
         <v>45</v>
@@ -2959,10 +3523,10 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>45744.46875</v>
+        <v>45745.46875</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>6451</v>
       </c>
       <c r="C143">
         <v>46</v>
@@ -2973,10 +3537,10 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>45744.47916666666</v>
+        <v>45745.47916666666</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>6443</v>
       </c>
       <c r="C144">
         <v>47</v>
@@ -2987,10 +3551,10 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>45744.48958333334</v>
+        <v>45745.48958333334</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>6381</v>
       </c>
       <c r="C145">
         <v>48</v>
@@ -3001,10 +3565,10 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>45744.5</v>
+        <v>45745.5</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>6392</v>
       </c>
       <c r="C146">
         <v>49</v>
@@ -3015,10 +3579,10 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>45744.51041666666</v>
+        <v>45745.51041666666</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>6393</v>
       </c>
       <c r="C147">
         <v>50</v>
@@ -3029,10 +3593,10 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>45744.52083333334</v>
+        <v>45745.52083333334</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>6380</v>
       </c>
       <c r="C148">
         <v>51</v>
@@ -3043,10 +3607,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>45744.53125</v>
+        <v>45745.53125</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>6342</v>
       </c>
       <c r="C149">
         <v>52</v>
@@ -3057,10 +3621,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>45744.54166666666</v>
+        <v>45745.54166666666</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>6275</v>
       </c>
       <c r="C150">
         <v>53</v>
@@ -3071,10 +3635,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>45744.55208333334</v>
+        <v>45745.55208333334</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>6287</v>
       </c>
       <c r="C151">
         <v>54</v>
@@ -3085,10 +3649,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>45744.5625</v>
+        <v>45745.5625</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>6291</v>
       </c>
       <c r="C152">
         <v>55</v>
@@ -3099,10 +3663,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>45744.57291666666</v>
+        <v>45745.57291666666</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>6283</v>
       </c>
       <c r="C153">
         <v>56</v>
@@ -3113,10 +3677,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>45744.58333333334</v>
+        <v>45745.58333333334</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>6325</v>
       </c>
       <c r="C154">
         <v>57</v>
@@ -3127,10 +3691,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>45744.59375</v>
+        <v>45745.59375</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>6318</v>
       </c>
       <c r="C155">
         <v>58</v>
@@ -3141,10 +3705,10 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>45744.60416666666</v>
+        <v>45745.60416666666</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>6350</v>
       </c>
       <c r="C156">
         <v>59</v>
@@ -3155,10 +3719,10 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>45744.61458333334</v>
+        <v>45745.61458333334</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>6388</v>
       </c>
       <c r="C157">
         <v>60</v>
@@ -3169,10 +3733,10 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>45744.625</v>
+        <v>45745.625</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>6438</v>
       </c>
       <c r="C158">
         <v>61</v>
@@ -3183,10 +3747,10 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>45744.63541666666</v>
+        <v>45745.63541666666</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>6478</v>
       </c>
       <c r="C159">
         <v>62</v>
@@ -3197,10 +3761,10 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>45744.64583333334</v>
+        <v>45745.64583333334</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>6534</v>
       </c>
       <c r="C160">
         <v>63</v>
@@ -3211,10 +3775,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>45744.65625</v>
+        <v>45745.65625</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>6567</v>
       </c>
       <c r="C161">
         <v>64</v>
@@ -3225,10 +3789,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>45744.66666666666</v>
+        <v>45745.66666666666</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>6605</v>
       </c>
       <c r="C162">
         <v>65</v>
@@ -3239,10 +3803,10 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>45744.67708333334</v>
+        <v>45745.67708333334</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>6653</v>
       </c>
       <c r="C163">
         <v>66</v>
@@ -3253,10 +3817,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>45744.6875</v>
+        <v>45745.6875</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>6692</v>
       </c>
       <c r="C164">
         <v>67</v>
@@ -3267,10 +3831,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>45744.69791666666</v>
+        <v>45745.69791666666</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>6740</v>
       </c>
       <c r="C165">
         <v>68</v>
@@ -3281,10 +3845,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>45744.70833333334</v>
+        <v>45745.70833333334</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>6807</v>
       </c>
       <c r="C166">
         <v>69</v>
@@ -3295,10 +3859,10 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>45744.71875</v>
+        <v>45745.71875</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>6847</v>
       </c>
       <c r="C167">
         <v>70</v>
@@ -3309,10 +3873,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>45744.72916666666</v>
+        <v>45745.72916666666</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>6929</v>
       </c>
       <c r="C168">
         <v>71</v>
@@ -3323,10 +3887,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>45744.73958333334</v>
+        <v>45745.73958333334</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>7042</v>
       </c>
       <c r="C169">
         <v>72</v>
@@ -3337,10 +3901,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>45744.75</v>
+        <v>45745.75</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>7163</v>
       </c>
       <c r="C170">
         <v>73</v>
@@ -3351,10 +3915,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>45744.76041666666</v>
+        <v>45745.76041666666</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>7227</v>
       </c>
       <c r="C171">
         <v>74</v>
@@ -3365,10 +3929,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>45744.77083333334</v>
+        <v>45745.77083333334</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>7272</v>
       </c>
       <c r="C172">
         <v>75</v>
@@ -3379,10 +3943,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>45744.78125</v>
+        <v>45745.78125</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>7278</v>
       </c>
       <c r="C173">
         <v>76</v>
@@ -3393,10 +3957,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>45744.79166666666</v>
+        <v>45745.79166666666</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>7208</v>
       </c>
       <c r="C174">
         <v>77</v>
@@ -3407,10 +3971,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>45744.80208333334</v>
+        <v>45745.80208333334</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>7155</v>
       </c>
       <c r="C175">
         <v>78</v>
@@ -3421,10 +3985,10 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>45744.8125</v>
+        <v>45745.8125</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>7087</v>
       </c>
       <c r="C176">
         <v>79</v>
@@ -3435,10 +3999,10 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>45744.82291666666</v>
+        <v>45745.82291666666</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>6987</v>
       </c>
       <c r="C177">
         <v>80</v>
@@ -3449,10 +4013,10 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>45744.83333333334</v>
+        <v>45745.83333333334</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>6917</v>
       </c>
       <c r="C178">
         <v>81</v>
@@ -3463,10 +4027,10 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>45744.84375</v>
+        <v>45745.84375</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>6802</v>
       </c>
       <c r="C179">
         <v>82</v>
@@ -3477,10 +4041,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>45744.85416666666</v>
+        <v>45745.85416666666</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>6758</v>
       </c>
       <c r="C180">
         <v>83</v>
@@ -3491,10 +4055,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>45744.86458333334</v>
+        <v>45745.86458333334</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>6594</v>
       </c>
       <c r="C181">
         <v>84</v>
@@ -3505,10 +4069,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>45744.875</v>
+        <v>45745.875</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>6397</v>
       </c>
       <c r="C182">
         <v>85</v>
@@ -3519,10 +4083,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>45744.88541666666</v>
+        <v>45745.88541666666</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>6287</v>
       </c>
       <c r="C183">
         <v>86</v>
@@ -3533,10 +4097,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>45744.89583333334</v>
+        <v>45745.89583333334</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>6176</v>
       </c>
       <c r="C184">
         <v>87</v>
@@ -3547,10 +4111,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>45744.90625</v>
+        <v>45745.90625</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>6040</v>
       </c>
       <c r="C185">
         <v>88</v>
@@ -3561,10 +4125,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>45744.91666666666</v>
+        <v>45745.91666666666</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>5897</v>
       </c>
       <c r="C186">
         <v>89</v>
@@ -3575,10 +4139,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>45744.92708333334</v>
+        <v>45745.92708333334</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>5824</v>
       </c>
       <c r="C187">
         <v>90</v>
@@ -3589,10 +4153,10 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>45744.9375</v>
+        <v>45745.9375</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>5736</v>
       </c>
       <c r="C188">
         <v>91</v>
@@ -3603,10 +4167,10 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>45744.94791666666</v>
+        <v>45745.94791666666</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>5657</v>
       </c>
       <c r="C189">
         <v>92</v>
@@ -3617,10 +4181,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>45744.95833333334</v>
+        <v>45745.95833333334</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>5511</v>
       </c>
       <c r="C190">
         <v>93</v>
@@ -3631,10 +4195,10 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>45744.96875</v>
+        <v>45745.96875</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>5502</v>
       </c>
       <c r="C191">
         <v>94</v>
@@ -3645,10 +4209,10 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>45744.97916666666</v>
+        <v>45745.97916666666</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>5440</v>
       </c>
       <c r="C192">
         <v>95</v>
@@ -3659,16 +4223,2648 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>45744.98958333334</v>
+        <v>45745.98958333334</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>5449</v>
       </c>
       <c r="C193">
         <v>96</v>
       </c>
       <c r="D193" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
+        <v>45746</v>
+      </c>
+      <c r="B194">
+        <v>5306</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
+        <v>45746.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>5305</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+      <c r="D195" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
+        <v>45746.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>5265</v>
+      </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
+      <c r="D196" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
+        <v>45746.03125</v>
+      </c>
+      <c r="B197">
+        <v>5238</v>
+      </c>
+      <c r="C197">
+        <v>4</v>
+      </c>
+      <c r="D197" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
+        <v>45746.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>5150</v>
+      </c>
+      <c r="C198">
+        <v>5</v>
+      </c>
+      <c r="D198" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
+        <v>45746.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>5170</v>
+      </c>
+      <c r="C199">
+        <v>6</v>
+      </c>
+      <c r="D199" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
+        <v>45746.0625</v>
+      </c>
+      <c r="B200">
+        <v>5165</v>
+      </c>
+      <c r="C200">
+        <v>7</v>
+      </c>
+      <c r="D200" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
+        <v>45746.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>8</v>
+      </c>
+      <c r="D201" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
+        <v>45746.125</v>
+      </c>
+      <c r="B202">
+        <v>5043</v>
+      </c>
+      <c r="C202">
+        <v>9</v>
+      </c>
+      <c r="D202" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
+        <v>45746.13541666666</v>
+      </c>
+      <c r="B203">
+        <v>5109</v>
+      </c>
+      <c r="C203">
+        <v>10</v>
+      </c>
+      <c r="D203" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
+        <v>45746.14583333334</v>
+      </c>
+      <c r="B204">
+        <v>5116</v>
+      </c>
+      <c r="C204">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
+        <v>45746.15625</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>12</v>
+      </c>
+      <c r="D205" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
+        <v>45746.16666666666</v>
+      </c>
+      <c r="B206">
+        <v>5141</v>
+      </c>
+      <c r="C206">
+        <v>13</v>
+      </c>
+      <c r="D206" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
+        <v>45746.17708333334</v>
+      </c>
+      <c r="B207">
+        <v>5177</v>
+      </c>
+      <c r="C207">
+        <v>14</v>
+      </c>
+      <c r="D207" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
+        <v>45746.1875</v>
+      </c>
+      <c r="B208">
+        <v>5176</v>
+      </c>
+      <c r="C208">
+        <v>15</v>
+      </c>
+      <c r="D208" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
+        <v>45746.19791666666</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>16</v>
+      </c>
+      <c r="D209" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
+        <v>45746.20833333334</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>17</v>
+      </c>
+      <c r="D210" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
+        <v>45746.21875</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>18</v>
+      </c>
+      <c r="D211" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
+        <v>45746.22916666666</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>19</v>
+      </c>
+      <c r="D212" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
+        <v>45746.23958333334</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>20</v>
+      </c>
+      <c r="D213" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
+        <v>45746.25</v>
+      </c>
+      <c r="B214">
+        <v>5144</v>
+      </c>
+      <c r="C214">
+        <v>21</v>
+      </c>
+      <c r="D214" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
+        <v>45746.26041666666</v>
+      </c>
+      <c r="B215">
+        <v>5200</v>
+      </c>
+      <c r="C215">
+        <v>22</v>
+      </c>
+      <c r="D215" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
+        <v>45746.27083333334</v>
+      </c>
+      <c r="B216">
+        <v>5241</v>
+      </c>
+      <c r="C216">
+        <v>23</v>
+      </c>
+      <c r="D216" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
+        <v>45746.28125</v>
+      </c>
+      <c r="B217">
+        <v>5259</v>
+      </c>
+      <c r="C217">
+        <v>24</v>
+      </c>
+      <c r="D217" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
+        <v>45746.29166666666</v>
+      </c>
+      <c r="B218">
+        <v>5282</v>
+      </c>
+      <c r="C218">
+        <v>25</v>
+      </c>
+      <c r="D218" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
+        <v>45746.30208333334</v>
+      </c>
+      <c r="B219">
+        <v>5353</v>
+      </c>
+      <c r="C219">
+        <v>26</v>
+      </c>
+      <c r="D219" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
+        <v>45746.3125</v>
+      </c>
+      <c r="B220">
+        <v>5381</v>
+      </c>
+      <c r="C220">
+        <v>27</v>
+      </c>
+      <c r="D220" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
+        <v>45746.32291666666</v>
+      </c>
+      <c r="B221">
+        <v>5410</v>
+      </c>
+      <c r="C221">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
+        <v>45746.33333333334</v>
+      </c>
+      <c r="B222">
+        <v>5402</v>
+      </c>
+      <c r="C222">
+        <v>29</v>
+      </c>
+      <c r="D222" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
+        <v>45746.34375</v>
+      </c>
+      <c r="B223">
+        <v>5462</v>
+      </c>
+      <c r="C223">
+        <v>30</v>
+      </c>
+      <c r="D223" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
+        <v>45746.35416666666</v>
+      </c>
+      <c r="B224">
+        <v>5443</v>
+      </c>
+      <c r="C224">
+        <v>31</v>
+      </c>
+      <c r="D224" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
+        <v>45746.36458333334</v>
+      </c>
+      <c r="B225">
+        <v>5448</v>
+      </c>
+      <c r="C225">
+        <v>32</v>
+      </c>
+      <c r="D225" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
+        <v>45746.375</v>
+      </c>
+      <c r="B226">
+        <v>5414</v>
+      </c>
+      <c r="C226">
+        <v>33</v>
+      </c>
+      <c r="D226" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
+        <v>45746.38541666666</v>
+      </c>
+      <c r="B227">
+        <v>5406</v>
+      </c>
+      <c r="C227">
+        <v>34</v>
+      </c>
+      <c r="D227" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
+        <v>45746.39583333334</v>
+      </c>
+      <c r="B228">
+        <v>5368</v>
+      </c>
+      <c r="C228">
+        <v>35</v>
+      </c>
+      <c r="D228" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
+        <v>45746.40625</v>
+      </c>
+      <c r="B229">
+        <v>5320</v>
+      </c>
+      <c r="C229">
+        <v>36</v>
+      </c>
+      <c r="D229" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
+        <v>45746.41666666666</v>
+      </c>
+      <c r="B230">
+        <v>5258</v>
+      </c>
+      <c r="C230">
+        <v>37</v>
+      </c>
+      <c r="D230" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="2">
+        <v>45746.42708333334</v>
+      </c>
+      <c r="B231">
+        <v>5272</v>
+      </c>
+      <c r="C231">
+        <v>38</v>
+      </c>
+      <c r="D231" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="2">
+        <v>45746.4375</v>
+      </c>
+      <c r="B232">
+        <v>5248</v>
+      </c>
+      <c r="C232">
+        <v>39</v>
+      </c>
+      <c r="D232" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="2">
+        <v>45746.44791666666</v>
+      </c>
+      <c r="B233">
+        <v>5152</v>
+      </c>
+      <c r="C233">
+        <v>40</v>
+      </c>
+      <c r="D233" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="2">
+        <v>45746.45833333334</v>
+      </c>
+      <c r="B234">
+        <v>5085</v>
+      </c>
+      <c r="C234">
+        <v>41</v>
+      </c>
+      <c r="D234" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="2">
+        <v>45746.46875</v>
+      </c>
+      <c r="B235">
+        <v>5105</v>
+      </c>
+      <c r="C235">
+        <v>42</v>
+      </c>
+      <c r="D235" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="2">
+        <v>45746.47916666666</v>
+      </c>
+      <c r="B236">
+        <v>5051</v>
+      </c>
+      <c r="C236">
+        <v>43</v>
+      </c>
+      <c r="D236" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="2">
+        <v>45746.48958333334</v>
+      </c>
+      <c r="B237">
+        <v>4976</v>
+      </c>
+      <c r="C237">
+        <v>44</v>
+      </c>
+      <c r="D237" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="2">
+        <v>45746.5</v>
+      </c>
+      <c r="B238">
+        <v>4945</v>
+      </c>
+      <c r="C238">
+        <v>45</v>
+      </c>
+      <c r="D238" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="2">
+        <v>45746.51041666666</v>
+      </c>
+      <c r="B239">
+        <v>4967</v>
+      </c>
+      <c r="C239">
+        <v>46</v>
+      </c>
+      <c r="D239" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="2">
+        <v>45746.52083333334</v>
+      </c>
+      <c r="B240">
+        <v>4931</v>
+      </c>
+      <c r="C240">
+        <v>47</v>
+      </c>
+      <c r="D240" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="2">
+        <v>45746.53125</v>
+      </c>
+      <c r="B241">
+        <v>4928</v>
+      </c>
+      <c r="C241">
+        <v>48</v>
+      </c>
+      <c r="D241" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
+        <v>45746.54166666666</v>
+      </c>
+      <c r="B242">
+        <v>4842</v>
+      </c>
+      <c r="C242">
+        <v>49</v>
+      </c>
+      <c r="D242" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
+        <v>45746.55208333334</v>
+      </c>
+      <c r="B243">
+        <v>4875</v>
+      </c>
+      <c r="C243">
+        <v>50</v>
+      </c>
+      <c r="D243" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
+        <v>45746.5625</v>
+      </c>
+      <c r="B244">
+        <v>4842</v>
+      </c>
+      <c r="C244">
+        <v>51</v>
+      </c>
+      <c r="D244" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
+        <v>45746.57291666666</v>
+      </c>
+      <c r="B245">
+        <v>4845</v>
+      </c>
+      <c r="C245">
+        <v>52</v>
+      </c>
+      <c r="D245" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
+        <v>45746.58333333334</v>
+      </c>
+      <c r="B246">
+        <v>4834</v>
+      </c>
+      <c r="C246">
+        <v>53</v>
+      </c>
+      <c r="D246" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
+        <v>45746.59375</v>
+      </c>
+      <c r="B247">
+        <v>4900</v>
+      </c>
+      <c r="C247">
+        <v>54</v>
+      </c>
+      <c r="D247" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
+        <v>45746.60416666666</v>
+      </c>
+      <c r="B248">
+        <v>4908</v>
+      </c>
+      <c r="C248">
+        <v>55</v>
+      </c>
+      <c r="D248" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="2">
+        <v>45746.61458333334</v>
+      </c>
+      <c r="B249">
+        <v>4928</v>
+      </c>
+      <c r="C249">
+        <v>56</v>
+      </c>
+      <c r="D249" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="2">
+        <v>45746.625</v>
+      </c>
+      <c r="B250">
+        <v>4933</v>
+      </c>
+      <c r="C250">
+        <v>57</v>
+      </c>
+      <c r="D250" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="2">
+        <v>45746.63541666666</v>
+      </c>
+      <c r="B251">
+        <v>5020</v>
+      </c>
+      <c r="C251">
+        <v>58</v>
+      </c>
+      <c r="D251" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="2">
+        <v>45746.64583333334</v>
+      </c>
+      <c r="B252">
+        <v>5097</v>
+      </c>
+      <c r="C252">
+        <v>59</v>
+      </c>
+      <c r="D252" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="2">
+        <v>45746.65625</v>
+      </c>
+      <c r="B253">
+        <v>5158</v>
+      </c>
+      <c r="C253">
+        <v>60</v>
+      </c>
+      <c r="D253" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="2">
+        <v>45746.66666666666</v>
+      </c>
+      <c r="B254">
+        <v>5223</v>
+      </c>
+      <c r="C254">
+        <v>61</v>
+      </c>
+      <c r="D254" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="2">
+        <v>45746.67708333334</v>
+      </c>
+      <c r="B255">
+        <v>5299</v>
+      </c>
+      <c r="C255">
+        <v>62</v>
+      </c>
+      <c r="D255" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="2">
+        <v>45746.6875</v>
+      </c>
+      <c r="B256">
+        <v>5414</v>
+      </c>
+      <c r="C256">
+        <v>63</v>
+      </c>
+      <c r="D256" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="2">
+        <v>45746.69791666666</v>
+      </c>
+      <c r="B257">
+        <v>5465</v>
+      </c>
+      <c r="C257">
+        <v>64</v>
+      </c>
+      <c r="D257" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="2">
+        <v>45746.70833333334</v>
+      </c>
+      <c r="B258">
+        <v>5642</v>
+      </c>
+      <c r="C258">
+        <v>65</v>
+      </c>
+      <c r="D258" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="2">
+        <v>45746.71875</v>
+      </c>
+      <c r="B259">
+        <v>5715</v>
+      </c>
+      <c r="C259">
+        <v>66</v>
+      </c>
+      <c r="D259" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="2">
+        <v>45746.72916666666</v>
+      </c>
+      <c r="B260">
+        <v>5801</v>
+      </c>
+      <c r="C260">
+        <v>67</v>
+      </c>
+      <c r="D260" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="2">
+        <v>45746.73958333334</v>
+      </c>
+      <c r="B261">
+        <v>5847</v>
+      </c>
+      <c r="C261">
+        <v>68</v>
+      </c>
+      <c r="D261" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="2">
+        <v>45746.75</v>
+      </c>
+      <c r="B262">
+        <v>6029</v>
+      </c>
+      <c r="C262">
+        <v>69</v>
+      </c>
+      <c r="D262" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="2">
+        <v>45746.76041666666</v>
+      </c>
+      <c r="B263">
+        <v>6088</v>
+      </c>
+      <c r="C263">
+        <v>70</v>
+      </c>
+      <c r="D263" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="2">
+        <v>45746.77083333334</v>
+      </c>
+      <c r="B264">
+        <v>6248</v>
+      </c>
+      <c r="C264">
+        <v>71</v>
+      </c>
+      <c r="D264" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="2">
+        <v>45746.78125</v>
+      </c>
+      <c r="B265">
+        <v>6375</v>
+      </c>
+      <c r="C265">
+        <v>72</v>
+      </c>
+      <c r="D265" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="2">
+        <v>45746.79166666666</v>
+      </c>
+      <c r="B266">
+        <v>6570</v>
+      </c>
+      <c r="C266">
+        <v>73</v>
+      </c>
+      <c r="D266" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="2">
+        <v>45746.80208333334</v>
+      </c>
+      <c r="B267">
+        <v>6661</v>
+      </c>
+      <c r="C267">
+        <v>74</v>
+      </c>
+      <c r="D267" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="2">
+        <v>45746.8125</v>
+      </c>
+      <c r="B268">
+        <v>6709</v>
+      </c>
+      <c r="C268">
+        <v>75</v>
+      </c>
+      <c r="D268" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="2">
+        <v>45746.82291666666</v>
+      </c>
+      <c r="B269">
+        <v>6670</v>
+      </c>
+      <c r="C269">
+        <v>76</v>
+      </c>
+      <c r="D269" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="2">
+        <v>45746.83333333334</v>
+      </c>
+      <c r="B270">
+        <v>6628</v>
+      </c>
+      <c r="C270">
+        <v>77</v>
+      </c>
+      <c r="D270" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="2">
+        <v>45746.84375</v>
+      </c>
+      <c r="B271">
+        <v>6594</v>
+      </c>
+      <c r="C271">
+        <v>78</v>
+      </c>
+      <c r="D271" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="2">
+        <v>45746.85416666666</v>
+      </c>
+      <c r="B272">
+        <v>6530</v>
+      </c>
+      <c r="C272">
+        <v>79</v>
+      </c>
+      <c r="D272" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="2">
+        <v>45746.86458333334</v>
+      </c>
+      <c r="B273">
+        <v>6464</v>
+      </c>
+      <c r="C273">
+        <v>80</v>
+      </c>
+      <c r="D273" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="2">
+        <v>45746.875</v>
+      </c>
+      <c r="B274">
+        <v>6253</v>
+      </c>
+      <c r="C274">
+        <v>81</v>
+      </c>
+      <c r="D274" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="2">
+        <v>45746.88541666666</v>
+      </c>
+      <c r="B275">
+        <v>6195</v>
+      </c>
+      <c r="C275">
+        <v>82</v>
+      </c>
+      <c r="D275" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="2">
+        <v>45746.89583333334</v>
+      </c>
+      <c r="B276">
+        <v>6067</v>
+      </c>
+      <c r="C276">
+        <v>83</v>
+      </c>
+      <c r="D276" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="2">
+        <v>45746.90625</v>
+      </c>
+      <c r="B277">
+        <v>5947</v>
+      </c>
+      <c r="C277">
+        <v>84</v>
+      </c>
+      <c r="D277" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="2">
+        <v>45746.91666666666</v>
+      </c>
+      <c r="B278">
+        <v>5804</v>
+      </c>
+      <c r="C278">
+        <v>85</v>
+      </c>
+      <c r="D278" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="2">
+        <v>45746.92708333334</v>
+      </c>
+      <c r="B279">
+        <v>5753</v>
+      </c>
+      <c r="C279">
+        <v>86</v>
+      </c>
+      <c r="D279" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="2">
+        <v>45746.9375</v>
+      </c>
+      <c r="B280">
+        <v>5656</v>
+      </c>
+      <c r="C280">
+        <v>87</v>
+      </c>
+      <c r="D280" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="2">
+        <v>45746.94791666666</v>
+      </c>
+      <c r="B281">
+        <v>5562</v>
+      </c>
+      <c r="C281">
+        <v>88</v>
+      </c>
+      <c r="D281" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="2">
+        <v>45746.95833333334</v>
+      </c>
+      <c r="B282">
+        <v>5416</v>
+      </c>
+      <c r="C282">
+        <v>89</v>
+      </c>
+      <c r="D282" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="2">
+        <v>45746.96875</v>
+      </c>
+      <c r="B283">
+        <v>5382</v>
+      </c>
+      <c r="C283">
+        <v>90</v>
+      </c>
+      <c r="D283" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="2">
+        <v>45746.97916666666</v>
+      </c>
+      <c r="B284">
+        <v>5332</v>
+      </c>
+      <c r="C284">
+        <v>91</v>
+      </c>
+      <c r="D284" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="2">
+        <v>45746.98958333334</v>
+      </c>
+      <c r="B285">
+        <v>5288</v>
+      </c>
+      <c r="C285">
+        <v>92</v>
+      </c>
+      <c r="D285" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B286">
+        <v>5179</v>
+      </c>
+      <c r="C286">
+        <v>93</v>
+      </c>
+      <c r="D286" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="2">
+        <v>45747.01041666666</v>
+      </c>
+      <c r="B287">
+        <v>5146</v>
+      </c>
+      <c r="C287">
+        <v>94</v>
+      </c>
+      <c r="D287" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="2">
+        <v>45747.02083333334</v>
+      </c>
+      <c r="B288">
+        <v>5138</v>
+      </c>
+      <c r="C288">
+        <v>95</v>
+      </c>
+      <c r="D288" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="2">
+        <v>45747.03125</v>
+      </c>
+      <c r="B289">
+        <v>5076</v>
+      </c>
+      <c r="C289">
+        <v>96</v>
+      </c>
+      <c r="D289" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="2">
+        <v>45747.04166666666</v>
+      </c>
+      <c r="B290">
+        <v>5052</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="2">
+        <v>45747.05208333334</v>
+      </c>
+      <c r="B291">
+        <v>5040</v>
+      </c>
+      <c r="C291">
+        <v>2</v>
+      </c>
+      <c r="D291" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="2">
+        <v>45747.0625</v>
+      </c>
+      <c r="B292">
+        <v>5057</v>
+      </c>
+      <c r="C292">
+        <v>3</v>
+      </c>
+      <c r="D292" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="2">
+        <v>45747.07291666666</v>
+      </c>
+      <c r="B293">
+        <v>5000</v>
+      </c>
+      <c r="C293">
+        <v>4</v>
+      </c>
+      <c r="D293" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="2">
+        <v>45747.08333333334</v>
+      </c>
+      <c r="B294">
+        <v>5025</v>
+      </c>
+      <c r="C294">
+        <v>5</v>
+      </c>
+      <c r="D294" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="2">
+        <v>45747.09375</v>
+      </c>
+      <c r="B295">
+        <v>5005</v>
+      </c>
+      <c r="C295">
+        <v>6</v>
+      </c>
+      <c r="D295" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="2">
+        <v>45747.10416666666</v>
+      </c>
+      <c r="B296">
+        <v>5005</v>
+      </c>
+      <c r="C296">
+        <v>7</v>
+      </c>
+      <c r="D296" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="2">
+        <v>45747.11458333334</v>
+      </c>
+      <c r="B297">
+        <v>4977</v>
+      </c>
+      <c r="C297">
+        <v>8</v>
+      </c>
+      <c r="D297" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="2">
+        <v>45747.125</v>
+      </c>
+      <c r="B298">
+        <v>5034</v>
+      </c>
+      <c r="C298">
+        <v>9</v>
+      </c>
+      <c r="D298" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="2">
+        <v>45747.13541666666</v>
+      </c>
+      <c r="B299">
+        <v>5088</v>
+      </c>
+      <c r="C299">
+        <v>10</v>
+      </c>
+      <c r="D299" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="2">
+        <v>45747.14583333334</v>
+      </c>
+      <c r="B300">
+        <v>5087</v>
+      </c>
+      <c r="C300">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="2">
+        <v>45747.15625</v>
+      </c>
+      <c r="B301">
+        <v>5131</v>
+      </c>
+      <c r="C301">
+        <v>12</v>
+      </c>
+      <c r="D301" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="2">
+        <v>45747.16666666666</v>
+      </c>
+      <c r="B302">
+        <v>5219</v>
+      </c>
+      <c r="C302">
+        <v>13</v>
+      </c>
+      <c r="D302" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="2">
+        <v>45747.17708333334</v>
+      </c>
+      <c r="B303">
+        <v>5301</v>
+      </c>
+      <c r="C303">
+        <v>14</v>
+      </c>
+      <c r="D303" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="2">
+        <v>45747.1875</v>
+      </c>
+      <c r="B304">
+        <v>5345</v>
+      </c>
+      <c r="C304">
+        <v>15</v>
+      </c>
+      <c r="D304" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="2">
+        <v>45747.19791666666</v>
+      </c>
+      <c r="B305">
+        <v>5476</v>
+      </c>
+      <c r="C305">
+        <v>16</v>
+      </c>
+      <c r="D305" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="2">
+        <v>45747.20833333334</v>
+      </c>
+      <c r="B306">
+        <v>5751</v>
+      </c>
+      <c r="C306">
+        <v>17</v>
+      </c>
+      <c r="D306" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="2">
+        <v>45747.21875</v>
+      </c>
+      <c r="B307">
+        <v>5900</v>
+      </c>
+      <c r="C307">
+        <v>18</v>
+      </c>
+      <c r="D307" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="2">
+        <v>45747.22916666666</v>
+      </c>
+      <c r="B308">
+        <v>6012</v>
+      </c>
+      <c r="C308">
+        <v>19</v>
+      </c>
+      <c r="D308" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="2">
+        <v>45747.23958333334</v>
+      </c>
+      <c r="B309">
+        <v>6232</v>
+      </c>
+      <c r="C309">
+        <v>20</v>
+      </c>
+      <c r="D309" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="2">
+        <v>45747.25</v>
+      </c>
+      <c r="B310">
+        <v>6635</v>
+      </c>
+      <c r="C310">
+        <v>21</v>
+      </c>
+      <c r="D310" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="2">
+        <v>45747.26041666666</v>
+      </c>
+      <c r="B311">
+        <v>6777</v>
+      </c>
+      <c r="C311">
+        <v>22</v>
+      </c>
+      <c r="D311" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="2">
+        <v>45747.27083333334</v>
+      </c>
+      <c r="B312">
+        <v>6824</v>
+      </c>
+      <c r="C312">
+        <v>23</v>
+      </c>
+      <c r="D312" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="2">
+        <v>45747.28125</v>
+      </c>
+      <c r="B313">
+        <v>6958</v>
+      </c>
+      <c r="C313">
+        <v>24</v>
+      </c>
+      <c r="D313" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="2">
+        <v>45747.29166666666</v>
+      </c>
+      <c r="B314">
+        <v>7146</v>
+      </c>
+      <c r="C314">
+        <v>25</v>
+      </c>
+      <c r="D314" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="2">
+        <v>45747.30208333334</v>
+      </c>
+      <c r="B315">
+        <v>7282</v>
+      </c>
+      <c r="C315">
+        <v>26</v>
+      </c>
+      <c r="D315" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="2">
+        <v>45747.3125</v>
+      </c>
+      <c r="B316">
+        <v>7262</v>
+      </c>
+      <c r="C316">
+        <v>27</v>
+      </c>
+      <c r="D316" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="2">
+        <v>45747.32291666666</v>
+      </c>
+      <c r="B317">
+        <v>7321</v>
+      </c>
+      <c r="C317">
+        <v>28</v>
+      </c>
+      <c r="D317" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="2">
+        <v>45747.33333333334</v>
+      </c>
+      <c r="B318">
+        <v>7280</v>
+      </c>
+      <c r="C318">
+        <v>29</v>
+      </c>
+      <c r="D318" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="2">
+        <v>45747.34375</v>
+      </c>
+      <c r="B319">
+        <v>7247</v>
+      </c>
+      <c r="C319">
+        <v>30</v>
+      </c>
+      <c r="D319" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="2">
+        <v>45747.35416666666</v>
+      </c>
+      <c r="B320">
+        <v>7132</v>
+      </c>
+      <c r="C320">
+        <v>31</v>
+      </c>
+      <c r="D320" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="2">
+        <v>45747.36458333334</v>
+      </c>
+      <c r="B321">
+        <v>7114</v>
+      </c>
+      <c r="C321">
+        <v>32</v>
+      </c>
+      <c r="D321" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="2">
+        <v>45747.375</v>
+      </c>
+      <c r="B322">
+        <v>7014</v>
+      </c>
+      <c r="C322">
+        <v>33</v>
+      </c>
+      <c r="D322" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="2">
+        <v>45747.38541666666</v>
+      </c>
+      <c r="B323">
+        <v>6966</v>
+      </c>
+      <c r="C323">
+        <v>34</v>
+      </c>
+      <c r="D323" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="2">
+        <v>45747.39583333334</v>
+      </c>
+      <c r="B324">
+        <v>6814</v>
+      </c>
+      <c r="C324">
+        <v>35</v>
+      </c>
+      <c r="D324" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="2">
+        <v>45747.40625</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+      <c r="C325">
+        <v>36</v>
+      </c>
+      <c r="D325" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="2">
+        <v>45747.41666666666</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+      <c r="C326">
+        <v>37</v>
+      </c>
+      <c r="D326" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="2">
+        <v>45747.42708333334</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+      <c r="C327">
+        <v>38</v>
+      </c>
+      <c r="D327" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="2">
+        <v>45747.4375</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
+      </c>
+      <c r="C328">
+        <v>39</v>
+      </c>
+      <c r="D328" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="2">
+        <v>45747.44791666666</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+      <c r="C329">
+        <v>40</v>
+      </c>
+      <c r="D329" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="2">
+        <v>45747.45833333334</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+      <c r="C330">
+        <v>41</v>
+      </c>
+      <c r="D330" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="2">
+        <v>45747.46875</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+      <c r="C331">
+        <v>42</v>
+      </c>
+      <c r="D331" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="2">
+        <v>45747.47916666666</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+      <c r="C332">
+        <v>43</v>
+      </c>
+      <c r="D332" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="2">
+        <v>45747.48958333334</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+      <c r="C333">
+        <v>44</v>
+      </c>
+      <c r="D333" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="2">
+        <v>45747.5</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+      <c r="C334">
+        <v>45</v>
+      </c>
+      <c r="D334" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="2">
+        <v>45747.51041666666</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>46</v>
+      </c>
+      <c r="D335" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="2">
+        <v>45747.52083333334</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+      <c r="C336">
+        <v>47</v>
+      </c>
+      <c r="D336" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="2">
+        <v>45747.53125</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337">
+        <v>48</v>
+      </c>
+      <c r="D337" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="2">
+        <v>45747.54166666666</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+      <c r="C338">
+        <v>49</v>
+      </c>
+      <c r="D338" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="2">
+        <v>45747.55208333334</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>50</v>
+      </c>
+      <c r="D339" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="2">
+        <v>45747.5625</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340">
+        <v>51</v>
+      </c>
+      <c r="D340" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="2">
+        <v>45747.57291666666</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+      <c r="C341">
+        <v>52</v>
+      </c>
+      <c r="D341" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="2">
+        <v>45747.58333333334</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+      <c r="C342">
+        <v>53</v>
+      </c>
+      <c r="D342" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="2">
+        <v>45747.59375</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+      <c r="C343">
+        <v>54</v>
+      </c>
+      <c r="D343" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="2">
+        <v>45747.60416666666</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+      <c r="C344">
+        <v>55</v>
+      </c>
+      <c r="D344" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="2">
+        <v>45747.61458333334</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>56</v>
+      </c>
+      <c r="D345" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="2">
+        <v>45747.625</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+      <c r="C346">
+        <v>57</v>
+      </c>
+      <c r="D346" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="2">
+        <v>45747.63541666666</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+      <c r="C347">
+        <v>58</v>
+      </c>
+      <c r="D347" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="2">
+        <v>45747.64583333334</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>59</v>
+      </c>
+      <c r="D348" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="2">
+        <v>45747.65625</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>60</v>
+      </c>
+      <c r="D349" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="2">
+        <v>45747.66666666666</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+      <c r="C350">
+        <v>61</v>
+      </c>
+      <c r="D350" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="2">
+        <v>45747.67708333334</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+      <c r="C351">
+        <v>62</v>
+      </c>
+      <c r="D351" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="2">
+        <v>45747.6875</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+      <c r="C352">
+        <v>63</v>
+      </c>
+      <c r="D352" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="2">
+        <v>45747.69791666666</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+      <c r="C353">
+        <v>64</v>
+      </c>
+      <c r="D353" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="2">
+        <v>45747.70833333334</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+      <c r="C354">
+        <v>65</v>
+      </c>
+      <c r="D354" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="2">
+        <v>45747.71875</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <v>66</v>
+      </c>
+      <c r="D355" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="2">
+        <v>45747.72916666666</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+      <c r="C356">
+        <v>67</v>
+      </c>
+      <c r="D356" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="2">
+        <v>45747.73958333334</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+      <c r="C357">
+        <v>68</v>
+      </c>
+      <c r="D357" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="2">
+        <v>45747.75</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+      <c r="C358">
+        <v>69</v>
+      </c>
+      <c r="D358" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="2">
+        <v>45747.76041666666</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+      <c r="C359">
+        <v>70</v>
+      </c>
+      <c r="D359" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="2">
+        <v>45747.77083333334</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+      <c r="C360">
+        <v>71</v>
+      </c>
+      <c r="D360" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="2">
+        <v>45747.78125</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+      <c r="C361">
+        <v>72</v>
+      </c>
+      <c r="D361" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="2">
+        <v>45747.79166666666</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+      <c r="C362">
+        <v>73</v>
+      </c>
+      <c r="D362" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="2">
+        <v>45747.80208333334</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <v>74</v>
+      </c>
+      <c r="D363" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="2">
+        <v>45747.8125</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+      <c r="C364">
+        <v>75</v>
+      </c>
+      <c r="D364" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="2">
+        <v>45747.82291666666</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+      <c r="C365">
+        <v>76</v>
+      </c>
+      <c r="D365" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="2">
+        <v>45747.83333333334</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+      <c r="C366">
+        <v>77</v>
+      </c>
+      <c r="D366" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="2">
+        <v>45747.84375</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <v>78</v>
+      </c>
+      <c r="D367" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
+        <v>45747.85416666666</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+      <c r="C368">
+        <v>79</v>
+      </c>
+      <c r="D368" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
+        <v>45747.86458333334</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+      <c r="C369">
+        <v>80</v>
+      </c>
+      <c r="D369" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
+        <v>45747.875</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+      <c r="C370">
+        <v>81</v>
+      </c>
+      <c r="D370" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
+        <v>45747.88541666666</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+      <c r="C371">
+        <v>82</v>
+      </c>
+      <c r="D371" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
+        <v>45747.89583333334</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+      <c r="C372">
+        <v>83</v>
+      </c>
+      <c r="D372" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
+        <v>45747.90625</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+      <c r="C373">
+        <v>84</v>
+      </c>
+      <c r="D373" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
+        <v>45747.91666666666</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+      <c r="C374">
+        <v>85</v>
+      </c>
+      <c r="D374" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
+        <v>45747.92708333334</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+      <c r="C375">
+        <v>86</v>
+      </c>
+      <c r="D375" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
+        <v>45747.9375</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+      <c r="C376">
+        <v>87</v>
+      </c>
+      <c r="D376" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
+        <v>45747.94791666666</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <v>88</v>
+      </c>
+      <c r="D377" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
+        <v>45747.95833333334</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+      <c r="C378">
+        <v>89</v>
+      </c>
+      <c r="D378" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
+        <v>45747.96875</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+      <c r="C379">
+        <v>90</v>
+      </c>
+      <c r="D379" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
+        <v>45747.97916666666</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+      <c r="C380">
+        <v>91</v>
+      </c>
+      <c r="D380" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
+        <v>45747.98958333334</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="C381">
+        <v>92</v>
+      </c>
+      <c r="D381" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
@@ -28,580 +28,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>03.04.20251</t>
-  </si>
-  <si>
-    <t>03.04.20252</t>
-  </si>
-  <si>
-    <t>03.04.20253</t>
-  </si>
-  <si>
-    <t>03.04.20254</t>
-  </si>
-  <si>
-    <t>03.04.20255</t>
-  </si>
-  <si>
-    <t>03.04.20256</t>
-  </si>
-  <si>
-    <t>03.04.20257</t>
-  </si>
-  <si>
-    <t>03.04.20258</t>
-  </si>
-  <si>
-    <t>03.04.20259</t>
-  </si>
-  <si>
-    <t>03.04.202510</t>
-  </si>
-  <si>
-    <t>03.04.202511</t>
-  </si>
-  <si>
-    <t>03.04.202512</t>
-  </si>
-  <si>
-    <t>03.04.202513</t>
-  </si>
-  <si>
-    <t>03.04.202514</t>
-  </si>
-  <si>
-    <t>03.04.202515</t>
-  </si>
-  <si>
-    <t>03.04.202516</t>
-  </si>
-  <si>
-    <t>03.04.202517</t>
-  </si>
-  <si>
-    <t>03.04.202518</t>
-  </si>
-  <si>
-    <t>03.04.202519</t>
-  </si>
-  <si>
-    <t>03.04.202520</t>
-  </si>
-  <si>
-    <t>03.04.202521</t>
-  </si>
-  <si>
-    <t>03.04.202522</t>
-  </si>
-  <si>
-    <t>03.04.202523</t>
-  </si>
-  <si>
-    <t>03.04.202524</t>
-  </si>
-  <si>
-    <t>03.04.202525</t>
-  </si>
-  <si>
-    <t>03.04.202526</t>
-  </si>
-  <si>
-    <t>03.04.202527</t>
-  </si>
-  <si>
-    <t>03.04.202528</t>
-  </si>
-  <si>
-    <t>03.04.202529</t>
-  </si>
-  <si>
-    <t>03.04.202530</t>
-  </si>
-  <si>
-    <t>03.04.202531</t>
-  </si>
-  <si>
-    <t>03.04.202532</t>
-  </si>
-  <si>
-    <t>03.04.202533</t>
-  </si>
-  <si>
-    <t>03.04.202534</t>
-  </si>
-  <si>
-    <t>03.04.202535</t>
-  </si>
-  <si>
-    <t>03.04.202536</t>
-  </si>
-  <si>
-    <t>03.04.202537</t>
-  </si>
-  <si>
-    <t>03.04.202538</t>
-  </si>
-  <si>
-    <t>03.04.202539</t>
-  </si>
-  <si>
-    <t>03.04.202540</t>
-  </si>
-  <si>
-    <t>03.04.202541</t>
-  </si>
-  <si>
-    <t>03.04.202542</t>
-  </si>
-  <si>
-    <t>03.04.202543</t>
-  </si>
-  <si>
-    <t>03.04.202544</t>
-  </si>
-  <si>
-    <t>03.04.202545</t>
-  </si>
-  <si>
-    <t>03.04.202546</t>
-  </si>
-  <si>
-    <t>03.04.202547</t>
-  </si>
-  <si>
-    <t>03.04.202548</t>
-  </si>
-  <si>
-    <t>03.04.202549</t>
-  </si>
-  <si>
-    <t>03.04.202550</t>
-  </si>
-  <si>
-    <t>03.04.202551</t>
-  </si>
-  <si>
-    <t>03.04.202552</t>
-  </si>
-  <si>
-    <t>03.04.202553</t>
-  </si>
-  <si>
-    <t>03.04.202554</t>
-  </si>
-  <si>
-    <t>03.04.202555</t>
-  </si>
-  <si>
-    <t>03.04.202556</t>
-  </si>
-  <si>
-    <t>03.04.202557</t>
-  </si>
-  <si>
-    <t>03.04.202558</t>
-  </si>
-  <si>
-    <t>03.04.202559</t>
-  </si>
-  <si>
-    <t>03.04.202560</t>
-  </si>
-  <si>
-    <t>03.04.202561</t>
-  </si>
-  <si>
-    <t>03.04.202562</t>
-  </si>
-  <si>
-    <t>03.04.202563</t>
-  </si>
-  <si>
-    <t>03.04.202564</t>
-  </si>
-  <si>
-    <t>03.04.202565</t>
-  </si>
-  <si>
-    <t>03.04.202566</t>
-  </si>
-  <si>
-    <t>03.04.202567</t>
-  </si>
-  <si>
-    <t>03.04.202568</t>
-  </si>
-  <si>
-    <t>03.04.202569</t>
-  </si>
-  <si>
-    <t>03.04.202570</t>
-  </si>
-  <si>
-    <t>03.04.202571</t>
-  </si>
-  <si>
-    <t>03.04.202572</t>
-  </si>
-  <si>
-    <t>03.04.202573</t>
-  </si>
-  <si>
-    <t>03.04.202574</t>
-  </si>
-  <si>
-    <t>03.04.202575</t>
-  </si>
-  <si>
-    <t>03.04.202576</t>
-  </si>
-  <si>
-    <t>03.04.202577</t>
-  </si>
-  <si>
-    <t>03.04.202578</t>
-  </si>
-  <si>
-    <t>03.04.202579</t>
-  </si>
-  <si>
-    <t>03.04.202580</t>
-  </si>
-  <si>
-    <t>03.04.202581</t>
-  </si>
-  <si>
-    <t>03.04.202582</t>
-  </si>
-  <si>
-    <t>03.04.202583</t>
-  </si>
-  <si>
-    <t>03.04.202584</t>
-  </si>
-  <si>
-    <t>03.04.202585</t>
-  </si>
-  <si>
-    <t>03.04.202586</t>
-  </si>
-  <si>
-    <t>03.04.202587</t>
-  </si>
-  <si>
-    <t>03.04.202588</t>
-  </si>
-  <si>
-    <t>03.04.202589</t>
-  </si>
-  <si>
-    <t>03.04.202590</t>
-  </si>
-  <si>
-    <t>03.04.202591</t>
-  </si>
-  <si>
-    <t>03.04.202592</t>
-  </si>
-  <si>
-    <t>03.04.202593</t>
-  </si>
-  <si>
-    <t>03.04.202594</t>
-  </si>
-  <si>
-    <t>03.04.202595</t>
-  </si>
-  <si>
-    <t>03.04.202596</t>
-  </si>
-  <si>
-    <t>04.04.20251</t>
-  </si>
-  <si>
-    <t>04.04.20252</t>
-  </si>
-  <si>
-    <t>04.04.20253</t>
-  </si>
-  <si>
-    <t>04.04.20254</t>
-  </si>
-  <si>
-    <t>04.04.20255</t>
-  </si>
-  <si>
-    <t>04.04.20256</t>
-  </si>
-  <si>
-    <t>04.04.20257</t>
-  </si>
-  <si>
-    <t>04.04.20258</t>
-  </si>
-  <si>
-    <t>04.04.20259</t>
-  </si>
-  <si>
-    <t>04.04.202510</t>
-  </si>
-  <si>
-    <t>04.04.202511</t>
-  </si>
-  <si>
-    <t>04.04.202512</t>
-  </si>
-  <si>
-    <t>04.04.202513</t>
-  </si>
-  <si>
-    <t>04.04.202514</t>
-  </si>
-  <si>
-    <t>04.04.202515</t>
-  </si>
-  <si>
-    <t>04.04.202516</t>
-  </si>
-  <si>
-    <t>04.04.202517</t>
-  </si>
-  <si>
-    <t>04.04.202518</t>
-  </si>
-  <si>
-    <t>04.04.202519</t>
-  </si>
-  <si>
-    <t>04.04.202520</t>
-  </si>
-  <si>
-    <t>04.04.202521</t>
-  </si>
-  <si>
-    <t>04.04.202522</t>
-  </si>
-  <si>
-    <t>04.04.202523</t>
-  </si>
-  <si>
-    <t>04.04.202524</t>
-  </si>
-  <si>
-    <t>04.04.202525</t>
-  </si>
-  <si>
-    <t>04.04.202526</t>
-  </si>
-  <si>
-    <t>04.04.202527</t>
-  </si>
-  <si>
-    <t>04.04.202528</t>
-  </si>
-  <si>
-    <t>04.04.202529</t>
-  </si>
-  <si>
-    <t>04.04.202530</t>
-  </si>
-  <si>
-    <t>04.04.202531</t>
-  </si>
-  <si>
-    <t>04.04.202532</t>
-  </si>
-  <si>
-    <t>04.04.202533</t>
-  </si>
-  <si>
-    <t>04.04.202534</t>
-  </si>
-  <si>
-    <t>04.04.202535</t>
-  </si>
-  <si>
-    <t>04.04.202536</t>
-  </si>
-  <si>
-    <t>04.04.202537</t>
-  </si>
-  <si>
-    <t>04.04.202538</t>
-  </si>
-  <si>
-    <t>04.04.202539</t>
-  </si>
-  <si>
-    <t>04.04.202540</t>
-  </si>
-  <si>
-    <t>04.04.202541</t>
-  </si>
-  <si>
-    <t>04.04.202542</t>
-  </si>
-  <si>
-    <t>04.04.202543</t>
-  </si>
-  <si>
-    <t>04.04.202544</t>
-  </si>
-  <si>
-    <t>04.04.202545</t>
-  </si>
-  <si>
-    <t>04.04.202546</t>
-  </si>
-  <si>
-    <t>04.04.202547</t>
-  </si>
-  <si>
-    <t>04.04.202548</t>
-  </si>
-  <si>
-    <t>04.04.202549</t>
-  </si>
-  <si>
-    <t>04.04.202550</t>
-  </si>
-  <si>
-    <t>04.04.202551</t>
-  </si>
-  <si>
-    <t>04.04.202552</t>
-  </si>
-  <si>
-    <t>04.04.202553</t>
-  </si>
-  <si>
-    <t>04.04.202554</t>
-  </si>
-  <si>
-    <t>04.04.202555</t>
-  </si>
-  <si>
-    <t>04.04.202556</t>
-  </si>
-  <si>
-    <t>04.04.202557</t>
-  </si>
-  <si>
-    <t>04.04.202558</t>
-  </si>
-  <si>
-    <t>04.04.202559</t>
-  </si>
-  <si>
-    <t>04.04.202560</t>
-  </si>
-  <si>
-    <t>04.04.202561</t>
-  </si>
-  <si>
-    <t>04.04.202562</t>
-  </si>
-  <si>
-    <t>04.04.202563</t>
-  </si>
-  <si>
-    <t>04.04.202564</t>
-  </si>
-  <si>
-    <t>04.04.202565</t>
-  </si>
-  <si>
-    <t>04.04.202566</t>
-  </si>
-  <si>
-    <t>04.04.202567</t>
-  </si>
-  <si>
-    <t>04.04.202568</t>
-  </si>
-  <si>
-    <t>04.04.202569</t>
-  </si>
-  <si>
-    <t>04.04.202570</t>
-  </si>
-  <si>
-    <t>04.04.202571</t>
-  </si>
-  <si>
-    <t>04.04.202572</t>
-  </si>
-  <si>
-    <t>04.04.202573</t>
-  </si>
-  <si>
-    <t>04.04.202574</t>
-  </si>
-  <si>
-    <t>04.04.202575</t>
-  </si>
-  <si>
-    <t>04.04.202576</t>
-  </si>
-  <si>
-    <t>04.04.202577</t>
-  </si>
-  <si>
-    <t>04.04.202578</t>
-  </si>
-  <si>
-    <t>04.04.202579</t>
-  </si>
-  <si>
-    <t>04.04.202580</t>
-  </si>
-  <si>
-    <t>04.04.202581</t>
-  </si>
-  <si>
-    <t>04.04.202582</t>
-  </si>
-  <si>
-    <t>04.04.202583</t>
-  </si>
-  <si>
-    <t>04.04.202584</t>
-  </si>
-  <si>
-    <t>04.04.202585</t>
-  </si>
-  <si>
-    <t>04.04.202586</t>
-  </si>
-  <si>
-    <t>04.04.202587</t>
-  </si>
-  <si>
-    <t>04.04.202588</t>
-  </si>
-  <si>
-    <t>04.04.202589</t>
-  </si>
-  <si>
-    <t>04.04.202590</t>
-  </si>
-  <si>
-    <t>04.04.202591</t>
-  </si>
-  <si>
-    <t>04.04.202592</t>
-  </si>
-  <si>
-    <t>04.04.202593</t>
-  </si>
-  <si>
-    <t>04.04.202594</t>
-  </si>
-  <si>
-    <t>04.04.202595</t>
-  </si>
-  <si>
-    <t>04.04.202596</t>
+    <t>10.04.20251</t>
+  </si>
+  <si>
+    <t>10.04.20252</t>
+  </si>
+  <si>
+    <t>10.04.20253</t>
+  </si>
+  <si>
+    <t>10.04.20254</t>
+  </si>
+  <si>
+    <t>10.04.20255</t>
+  </si>
+  <si>
+    <t>10.04.20256</t>
+  </si>
+  <si>
+    <t>10.04.20257</t>
+  </si>
+  <si>
+    <t>10.04.20258</t>
+  </si>
+  <si>
+    <t>10.04.20259</t>
+  </si>
+  <si>
+    <t>10.04.202510</t>
+  </si>
+  <si>
+    <t>10.04.202511</t>
+  </si>
+  <si>
+    <t>10.04.202512</t>
+  </si>
+  <si>
+    <t>10.04.202513</t>
+  </si>
+  <si>
+    <t>10.04.202514</t>
+  </si>
+  <si>
+    <t>10.04.202515</t>
+  </si>
+  <si>
+    <t>10.04.202516</t>
+  </si>
+  <si>
+    <t>10.04.202517</t>
+  </si>
+  <si>
+    <t>10.04.202518</t>
+  </si>
+  <si>
+    <t>10.04.202519</t>
+  </si>
+  <si>
+    <t>10.04.202520</t>
+  </si>
+  <si>
+    <t>10.04.202521</t>
+  </si>
+  <si>
+    <t>10.04.202522</t>
+  </si>
+  <si>
+    <t>10.04.202523</t>
+  </si>
+  <si>
+    <t>10.04.202524</t>
+  </si>
+  <si>
+    <t>10.04.202525</t>
+  </si>
+  <si>
+    <t>10.04.202526</t>
+  </si>
+  <si>
+    <t>10.04.202527</t>
+  </si>
+  <si>
+    <t>10.04.202528</t>
+  </si>
+  <si>
+    <t>10.04.202529</t>
+  </si>
+  <si>
+    <t>10.04.202530</t>
+  </si>
+  <si>
+    <t>10.04.202531</t>
+  </si>
+  <si>
+    <t>10.04.202532</t>
+  </si>
+  <si>
+    <t>10.04.202533</t>
+  </si>
+  <si>
+    <t>10.04.202534</t>
+  </si>
+  <si>
+    <t>10.04.202535</t>
+  </si>
+  <si>
+    <t>10.04.202536</t>
+  </si>
+  <si>
+    <t>10.04.202537</t>
+  </si>
+  <si>
+    <t>10.04.202538</t>
+  </si>
+  <si>
+    <t>10.04.202539</t>
+  </si>
+  <si>
+    <t>10.04.202540</t>
+  </si>
+  <si>
+    <t>10.04.202541</t>
+  </si>
+  <si>
+    <t>10.04.202542</t>
+  </si>
+  <si>
+    <t>10.04.202543</t>
+  </si>
+  <si>
+    <t>10.04.202544</t>
+  </si>
+  <si>
+    <t>10.04.202545</t>
+  </si>
+  <si>
+    <t>10.04.202546</t>
+  </si>
+  <si>
+    <t>10.04.202547</t>
+  </si>
+  <si>
+    <t>10.04.202548</t>
+  </si>
+  <si>
+    <t>10.04.202549</t>
+  </si>
+  <si>
+    <t>10.04.202550</t>
+  </si>
+  <si>
+    <t>10.04.202551</t>
+  </si>
+  <si>
+    <t>10.04.202552</t>
+  </si>
+  <si>
+    <t>10.04.202553</t>
+  </si>
+  <si>
+    <t>10.04.202554</t>
+  </si>
+  <si>
+    <t>10.04.202555</t>
+  </si>
+  <si>
+    <t>10.04.202556</t>
+  </si>
+  <si>
+    <t>10.04.202557</t>
+  </si>
+  <si>
+    <t>10.04.202558</t>
+  </si>
+  <si>
+    <t>10.04.202559</t>
+  </si>
+  <si>
+    <t>10.04.202560</t>
+  </si>
+  <si>
+    <t>10.04.202561</t>
+  </si>
+  <si>
+    <t>10.04.202562</t>
+  </si>
+  <si>
+    <t>10.04.202563</t>
+  </si>
+  <si>
+    <t>10.04.202564</t>
+  </si>
+  <si>
+    <t>10.04.202565</t>
+  </si>
+  <si>
+    <t>10.04.202566</t>
+  </si>
+  <si>
+    <t>10.04.202567</t>
+  </si>
+  <si>
+    <t>10.04.202568</t>
+  </si>
+  <si>
+    <t>10.04.202569</t>
+  </si>
+  <si>
+    <t>10.04.202570</t>
+  </si>
+  <si>
+    <t>10.04.202571</t>
+  </si>
+  <si>
+    <t>10.04.202572</t>
+  </si>
+  <si>
+    <t>10.04.202573</t>
+  </si>
+  <si>
+    <t>10.04.202574</t>
+  </si>
+  <si>
+    <t>10.04.202575</t>
+  </si>
+  <si>
+    <t>10.04.202576</t>
+  </si>
+  <si>
+    <t>10.04.202577</t>
+  </si>
+  <si>
+    <t>10.04.202578</t>
+  </si>
+  <si>
+    <t>10.04.202579</t>
+  </si>
+  <si>
+    <t>10.04.202580</t>
+  </si>
+  <si>
+    <t>10.04.202581</t>
+  </si>
+  <si>
+    <t>10.04.202582</t>
+  </si>
+  <si>
+    <t>10.04.202583</t>
+  </si>
+  <si>
+    <t>10.04.202584</t>
+  </si>
+  <si>
+    <t>10.04.202585</t>
+  </si>
+  <si>
+    <t>10.04.202586</t>
+  </si>
+  <si>
+    <t>10.04.202587</t>
+  </si>
+  <si>
+    <t>10.04.202588</t>
+  </si>
+  <si>
+    <t>10.04.202589</t>
+  </si>
+  <si>
+    <t>10.04.202590</t>
+  </si>
+  <si>
+    <t>10.04.202591</t>
+  </si>
+  <si>
+    <t>10.04.202592</t>
+  </si>
+  <si>
+    <t>10.04.202593</t>
+  </si>
+  <si>
+    <t>10.04.202594</t>
+  </si>
+  <si>
+    <t>10.04.202595</t>
+  </si>
+  <si>
+    <t>10.04.202596</t>
+  </si>
+  <si>
+    <t>11.04.20251</t>
+  </si>
+  <si>
+    <t>11.04.20252</t>
+  </si>
+  <si>
+    <t>11.04.20253</t>
+  </si>
+  <si>
+    <t>11.04.20254</t>
+  </si>
+  <si>
+    <t>11.04.20255</t>
+  </si>
+  <si>
+    <t>11.04.20256</t>
+  </si>
+  <si>
+    <t>11.04.20257</t>
+  </si>
+  <si>
+    <t>11.04.20258</t>
+  </si>
+  <si>
+    <t>11.04.20259</t>
+  </si>
+  <si>
+    <t>11.04.202510</t>
+  </si>
+  <si>
+    <t>11.04.202511</t>
+  </si>
+  <si>
+    <t>11.04.202512</t>
+  </si>
+  <si>
+    <t>11.04.202513</t>
+  </si>
+  <si>
+    <t>11.04.202514</t>
+  </si>
+  <si>
+    <t>11.04.202515</t>
+  </si>
+  <si>
+    <t>11.04.202516</t>
+  </si>
+  <si>
+    <t>11.04.202517</t>
+  </si>
+  <si>
+    <t>11.04.202518</t>
+  </si>
+  <si>
+    <t>11.04.202519</t>
+  </si>
+  <si>
+    <t>11.04.202520</t>
+  </si>
+  <si>
+    <t>11.04.202521</t>
+  </si>
+  <si>
+    <t>11.04.202522</t>
+  </si>
+  <si>
+    <t>11.04.202523</t>
+  </si>
+  <si>
+    <t>11.04.202524</t>
+  </si>
+  <si>
+    <t>11.04.202525</t>
+  </si>
+  <si>
+    <t>11.04.202526</t>
+  </si>
+  <si>
+    <t>11.04.202527</t>
+  </si>
+  <si>
+    <t>11.04.202528</t>
+  </si>
+  <si>
+    <t>11.04.202529</t>
+  </si>
+  <si>
+    <t>11.04.202530</t>
+  </si>
+  <si>
+    <t>11.04.202531</t>
+  </si>
+  <si>
+    <t>11.04.202532</t>
+  </si>
+  <si>
+    <t>11.04.202533</t>
+  </si>
+  <si>
+    <t>11.04.202534</t>
+  </si>
+  <si>
+    <t>11.04.202535</t>
+  </si>
+  <si>
+    <t>11.04.202536</t>
+  </si>
+  <si>
+    <t>11.04.202537</t>
+  </si>
+  <si>
+    <t>11.04.202538</t>
+  </si>
+  <si>
+    <t>11.04.202539</t>
+  </si>
+  <si>
+    <t>11.04.202540</t>
+  </si>
+  <si>
+    <t>11.04.202541</t>
+  </si>
+  <si>
+    <t>11.04.202542</t>
+  </si>
+  <si>
+    <t>11.04.202543</t>
+  </si>
+  <si>
+    <t>11.04.202544</t>
+  </si>
+  <si>
+    <t>11.04.202545</t>
+  </si>
+  <si>
+    <t>11.04.202546</t>
+  </si>
+  <si>
+    <t>11.04.202547</t>
+  </si>
+  <si>
+    <t>11.04.202548</t>
+  </si>
+  <si>
+    <t>11.04.202549</t>
+  </si>
+  <si>
+    <t>11.04.202550</t>
+  </si>
+  <si>
+    <t>11.04.202551</t>
+  </si>
+  <si>
+    <t>11.04.202552</t>
+  </si>
+  <si>
+    <t>11.04.202553</t>
+  </si>
+  <si>
+    <t>11.04.202554</t>
+  </si>
+  <si>
+    <t>11.04.202555</t>
+  </si>
+  <si>
+    <t>11.04.202556</t>
+  </si>
+  <si>
+    <t>11.04.202557</t>
+  </si>
+  <si>
+    <t>11.04.202558</t>
+  </si>
+  <si>
+    <t>11.04.202559</t>
+  </si>
+  <si>
+    <t>11.04.202560</t>
+  </si>
+  <si>
+    <t>11.04.202561</t>
+  </si>
+  <si>
+    <t>11.04.202562</t>
+  </si>
+  <si>
+    <t>11.04.202563</t>
+  </si>
+  <si>
+    <t>11.04.202564</t>
+  </si>
+  <si>
+    <t>11.04.202565</t>
+  </si>
+  <si>
+    <t>11.04.202566</t>
+  </si>
+  <si>
+    <t>11.04.202567</t>
+  </si>
+  <si>
+    <t>11.04.202568</t>
+  </si>
+  <si>
+    <t>11.04.202569</t>
+  </si>
+  <si>
+    <t>11.04.202570</t>
+  </si>
+  <si>
+    <t>11.04.202571</t>
+  </si>
+  <si>
+    <t>11.04.202572</t>
+  </si>
+  <si>
+    <t>11.04.202573</t>
+  </si>
+  <si>
+    <t>11.04.202574</t>
+  </si>
+  <si>
+    <t>11.04.202575</t>
+  </si>
+  <si>
+    <t>11.04.202576</t>
+  </si>
+  <si>
+    <t>11.04.202577</t>
+  </si>
+  <si>
+    <t>11.04.202578</t>
+  </si>
+  <si>
+    <t>11.04.202579</t>
+  </si>
+  <si>
+    <t>11.04.202580</t>
+  </si>
+  <si>
+    <t>11.04.202581</t>
+  </si>
+  <si>
+    <t>11.04.202582</t>
+  </si>
+  <si>
+    <t>11.04.202583</t>
+  </si>
+  <si>
+    <t>11.04.202584</t>
+  </si>
+  <si>
+    <t>11.04.202585</t>
+  </si>
+  <si>
+    <t>11.04.202586</t>
+  </si>
+  <si>
+    <t>11.04.202587</t>
+  </si>
+  <si>
+    <t>11.04.202588</t>
+  </si>
+  <si>
+    <t>11.04.202589</t>
+  </si>
+  <si>
+    <t>11.04.202590</t>
+  </si>
+  <si>
+    <t>11.04.202591</t>
+  </si>
+  <si>
+    <t>11.04.202592</t>
+  </si>
+  <si>
+    <t>11.04.202593</t>
+  </si>
+  <si>
+    <t>11.04.202594</t>
+  </si>
+  <si>
+    <t>11.04.202595</t>
+  </si>
+  <si>
+    <t>11.04.202596</t>
   </si>
 </sst>
 </file>
@@ -985,10 +985,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45750</v>
+        <v>45757</v>
       </c>
       <c r="B2">
-        <v>5704</v>
+        <v>5961</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -999,10 +999,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45750.01041666666</v>
+        <v>45757.01041666666</v>
       </c>
       <c r="B3">
-        <v>5685</v>
+        <v>6001</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45750.02083333334</v>
+        <v>45757.02083333334</v>
       </c>
       <c r="B4">
-        <v>5619</v>
+        <v>5942</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45750.03125</v>
+        <v>45757.03125</v>
       </c>
       <c r="B5">
-        <v>5549</v>
+        <v>5915</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45750.04166666666</v>
+        <v>45757.04166666666</v>
       </c>
       <c r="B6">
-        <v>5560</v>
+        <v>5803</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45750.05208333334</v>
+        <v>45757.05208333334</v>
       </c>
       <c r="B7">
-        <v>5572</v>
+        <v>5861</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45750.0625</v>
+        <v>45757.0625</v>
       </c>
       <c r="B8">
-        <v>5556</v>
+        <v>5818</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45750.07291666666</v>
+        <v>45757.07291666666</v>
       </c>
       <c r="B9">
-        <v>5527</v>
+        <v>5756</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45750.08333333334</v>
+        <v>45757.08333333334</v>
       </c>
       <c r="B10">
-        <v>5476</v>
+        <v>5762</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1111,10 +1111,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45750.09375</v>
+        <v>45757.09375</v>
       </c>
       <c r="B11">
-        <v>5497</v>
+        <v>5848</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45750.10416666666</v>
+        <v>45757.10416666666</v>
       </c>
       <c r="B12">
-        <v>5491</v>
+        <v>5779</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1139,10 +1139,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45750.11458333334</v>
+        <v>45757.11458333334</v>
       </c>
       <c r="B13">
-        <v>5483</v>
+        <v>5829</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45750.125</v>
+        <v>45757.125</v>
       </c>
       <c r="B14">
-        <v>5490</v>
+        <v>5844</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45750.13541666666</v>
+        <v>45757.13541666666</v>
       </c>
       <c r="B15">
-        <v>5524</v>
+        <v>5856</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1181,10 +1181,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45750.14583333334</v>
+        <v>45757.14583333334</v>
       </c>
       <c r="B16">
-        <v>5507</v>
+        <v>5804</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45750.15625</v>
+        <v>45757.15625</v>
       </c>
       <c r="B17">
-        <v>5559</v>
+        <v>5883</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1209,10 +1209,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45750.16666666666</v>
+        <v>45757.16666666666</v>
       </c>
       <c r="B18">
-        <v>5607</v>
+        <v>5971</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1223,10 +1223,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45750.17708333334</v>
+        <v>45757.17708333334</v>
       </c>
       <c r="B19">
-        <v>5679</v>
+        <v>6022</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1237,10 +1237,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45750.1875</v>
+        <v>45757.1875</v>
       </c>
       <c r="B20">
-        <v>5729</v>
+        <v>6111</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45750.19791666666</v>
+        <v>45757.19791666666</v>
       </c>
       <c r="B21">
-        <v>5850</v>
+        <v>6199</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45750.20833333334</v>
+        <v>45757.20833333334</v>
       </c>
       <c r="B22">
-        <v>5994</v>
+        <v>6369</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45750.21875</v>
+        <v>45757.21875</v>
       </c>
       <c r="B23">
-        <v>6087</v>
+        <v>6473</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1293,10 +1293,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45750.22916666666</v>
+        <v>45757.22916666666</v>
       </c>
       <c r="B24">
-        <v>6211</v>
+        <v>6614</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45750.23958333334</v>
+        <v>45757.23958333334</v>
       </c>
       <c r="B25">
-        <v>6353</v>
+        <v>6731</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45750.25</v>
+        <v>45757.25</v>
       </c>
       <c r="B26">
-        <v>6681</v>
+        <v>7016</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45750.26041666666</v>
+        <v>45757.26041666666</v>
       </c>
       <c r="B27">
-        <v>6814</v>
+        <v>7118</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45750.27083333334</v>
+        <v>45757.27083333334</v>
       </c>
       <c r="B28">
-        <v>6952</v>
+        <v>7284</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45750.28125</v>
+        <v>45757.28125</v>
       </c>
       <c r="B29">
-        <v>7032</v>
+        <v>7386</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45750.29166666666</v>
+        <v>45757.29166666666</v>
       </c>
       <c r="B30">
-        <v>7172</v>
+        <v>7483</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1391,10 +1391,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45750.30208333334</v>
+        <v>45757.30208333334</v>
       </c>
       <c r="B31">
-        <v>7221</v>
+        <v>7491</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45750.3125</v>
+        <v>45757.3125</v>
       </c>
       <c r="B32">
-        <v>7247</v>
+        <v>7553</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1419,10 +1419,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45750.32291666666</v>
+        <v>45757.32291666666</v>
       </c>
       <c r="B33">
-        <v>7332</v>
+        <v>7598</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1433,10 +1433,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45750.33333333334</v>
+        <v>45757.33333333334</v>
       </c>
       <c r="B34">
-        <v>7341</v>
+        <v>7537</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1447,10 +1447,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45750.34375</v>
+        <v>45757.34375</v>
       </c>
       <c r="B35">
-        <v>7286</v>
+        <v>7510</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45750.35416666666</v>
+        <v>45757.35416666666</v>
       </c>
       <c r="B36">
-        <v>7218</v>
+        <v>7451</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45750.36458333334</v>
+        <v>45757.36458333334</v>
       </c>
       <c r="B37">
-        <v>7162</v>
+        <v>7390</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1489,10 +1489,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45750.375</v>
+        <v>45757.375</v>
       </c>
       <c r="B38">
-        <v>7082</v>
+        <v>7311</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45750.38541666666</v>
+        <v>45757.38541666666</v>
       </c>
       <c r="B39">
-        <v>7003</v>
+        <v>7261</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45750.39583333334</v>
+        <v>45757.39583333334</v>
       </c>
       <c r="B40">
-        <v>6955</v>
+        <v>7255</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45750.40625</v>
+        <v>45757.40625</v>
       </c>
       <c r="B41">
-        <v>6942</v>
+        <v>7248</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45750.41666666666</v>
+        <v>45757.41666666666</v>
       </c>
       <c r="B42">
-        <v>6705</v>
+        <v>7092</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45750.42708333334</v>
+        <v>45757.42708333334</v>
       </c>
       <c r="B43">
-        <v>6610</v>
+        <v>7092</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45750.4375</v>
+        <v>45757.4375</v>
       </c>
       <c r="B44">
-        <v>6542</v>
+        <v>7054</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45750.44791666666</v>
+        <v>45757.44791666666</v>
       </c>
       <c r="B45">
-        <v>6466</v>
+        <v>7008</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45750.45833333334</v>
+        <v>45757.45833333334</v>
       </c>
       <c r="B46">
-        <v>6401</v>
+        <v>6794</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45750.46875</v>
+        <v>45757.46875</v>
       </c>
       <c r="B47">
-        <v>6386</v>
+        <v>6741</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45750.47916666666</v>
+        <v>45757.47916666666</v>
       </c>
       <c r="B48">
-        <v>6375</v>
+        <v>6713</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1643,10 +1643,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45750.48958333334</v>
+        <v>45757.48958333334</v>
       </c>
       <c r="B49">
-        <v>6403</v>
+        <v>6715</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45750.5</v>
+        <v>45757.5</v>
       </c>
       <c r="B50">
-        <v>6468</v>
+        <v>6666</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1671,10 +1671,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45750.51041666666</v>
+        <v>45757.51041666666</v>
       </c>
       <c r="B51">
-        <v>6415</v>
+        <v>6719</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45750.52083333334</v>
+        <v>45757.52083333334</v>
       </c>
       <c r="B52">
-        <v>6408</v>
+        <v>6761</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1699,10 +1699,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45750.53125</v>
+        <v>45757.53125</v>
       </c>
       <c r="B53">
-        <v>6412</v>
+        <v>6707</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45750.54166666666</v>
+        <v>45757.54166666666</v>
       </c>
       <c r="B54">
-        <v>6355</v>
+        <v>6727</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45750.55208333334</v>
+        <v>45757.55208333334</v>
       </c>
       <c r="B55">
-        <v>6360</v>
+        <v>6707</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45750.5625</v>
+        <v>45757.5625</v>
       </c>
       <c r="B56">
-        <v>6369</v>
+        <v>6625</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -1755,10 +1755,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45750.57291666666</v>
+        <v>45757.57291666666</v>
       </c>
       <c r="B57">
-        <v>6310</v>
+        <v>6570</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45750.58333333334</v>
+        <v>45757.58333333334</v>
       </c>
       <c r="B58">
-        <v>6327</v>
+        <v>6688</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45750.59375</v>
+        <v>45757.59375</v>
       </c>
       <c r="B59">
-        <v>6413</v>
+        <v>6670</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45750.60416666666</v>
+        <v>45757.60416666666</v>
       </c>
       <c r="B60">
-        <v>6401</v>
+        <v>6742</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -1811,10 +1811,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45750.61458333334</v>
+        <v>45757.61458333334</v>
       </c>
       <c r="B61">
-        <v>6488</v>
+        <v>6664</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45750.625</v>
+        <v>45757.625</v>
       </c>
       <c r="B62">
-        <v>6512</v>
+        <v>6676</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45750.63541666666</v>
+        <v>45757.63541666666</v>
       </c>
       <c r="B63">
-        <v>6502</v>
+        <v>6716</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -1853,10 +1853,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45750.64583333334</v>
+        <v>45757.64583333334</v>
       </c>
       <c r="B64">
-        <v>6521</v>
+        <v>6755</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45750.65625</v>
+        <v>45757.65625</v>
       </c>
       <c r="B65">
-        <v>6567</v>
+        <v>6843</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45750.66666666666</v>
+        <v>45757.66666666666</v>
       </c>
       <c r="B66">
-        <v>6583</v>
+        <v>6831</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45750.67708333334</v>
+        <v>45757.67708333334</v>
       </c>
       <c r="B67">
-        <v>6636</v>
+        <v>6888</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45750.6875</v>
+        <v>45757.6875</v>
       </c>
       <c r="B68">
-        <v>6752</v>
+        <v>6891</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45750.69791666666</v>
+        <v>45757.69791666666</v>
       </c>
       <c r="B69">
-        <v>6804</v>
+        <v>6960</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45750.70833333334</v>
+        <v>45757.70833333334</v>
       </c>
       <c r="B70">
-        <v>6850</v>
+        <v>7034</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45750.71875</v>
+        <v>45757.71875</v>
       </c>
       <c r="B71">
-        <v>6948</v>
+        <v>7142</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45750.72916666666</v>
+        <v>45757.72916666666</v>
       </c>
       <c r="B72">
-        <v>7030</v>
+        <v>7223</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45750.73958333334</v>
+        <v>45757.73958333334</v>
       </c>
       <c r="B73">
-        <v>7032</v>
+        <v>7372</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45750.75</v>
+        <v>45757.75</v>
       </c>
       <c r="B74">
-        <v>7150</v>
+        <v>7519</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -2007,10 +2007,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45750.76041666666</v>
+        <v>45757.76041666666</v>
       </c>
       <c r="B75">
-        <v>7279</v>
+        <v>7602</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45750.77083333334</v>
+        <v>45757.77083333334</v>
       </c>
       <c r="B76">
-        <v>7414</v>
+        <v>7733</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45750.78125</v>
+        <v>45757.78125</v>
       </c>
       <c r="B77">
-        <v>7477</v>
+        <v>7840</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -2049,10 +2049,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45750.79166666666</v>
+        <v>45757.79166666666</v>
       </c>
       <c r="B78">
-        <v>7631</v>
+        <v>8020</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45750.80208333334</v>
+        <v>45757.80208333334</v>
       </c>
       <c r="B79">
-        <v>7762</v>
+        <v>8123</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45750.8125</v>
+        <v>45757.8125</v>
       </c>
       <c r="B80">
-        <v>7757</v>
+        <v>8213</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45750.82291666666</v>
+        <v>45757.82291666666</v>
       </c>
       <c r="B81">
-        <v>7636</v>
+        <v>8141</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -2105,10 +2105,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45750.83333333334</v>
+        <v>45757.83333333334</v>
       </c>
       <c r="B82">
-        <v>7564</v>
+        <v>8129</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45750.84375</v>
+        <v>45757.84375</v>
       </c>
       <c r="B83">
-        <v>7502</v>
+        <v>7980</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -2133,10 +2133,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45750.85416666666</v>
+        <v>45757.85416666666</v>
       </c>
       <c r="B84">
-        <v>7455</v>
+        <v>7899</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45750.86458333334</v>
+        <v>45757.86458333334</v>
       </c>
       <c r="B85">
-        <v>7250</v>
+        <v>7780</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -2161,10 +2161,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45750.875</v>
+        <v>45757.875</v>
       </c>
       <c r="B86">
-        <v>7028</v>
+        <v>7561</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45750.88541666666</v>
+        <v>45757.88541666666</v>
       </c>
       <c r="B87">
-        <v>6952</v>
+        <v>7412</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -2189,10 +2189,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45750.89583333334</v>
+        <v>45757.89583333334</v>
       </c>
       <c r="B88">
-        <v>6804</v>
+        <v>7256</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45750.90625</v>
+        <v>45757.90625</v>
       </c>
       <c r="B89">
-        <v>6658</v>
+        <v>7136</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45750.91666666666</v>
+        <v>45757.91666666666</v>
       </c>
       <c r="B90">
-        <v>6405</v>
+        <v>6919</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45750.92708333334</v>
+        <v>45757.92708333334</v>
       </c>
       <c r="B91">
-        <v>6364</v>
+        <v>6731</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45750.9375</v>
+        <v>45757.9375</v>
       </c>
       <c r="B92">
-        <v>6197</v>
+        <v>6673</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45750.94791666666</v>
+        <v>45757.94791666666</v>
       </c>
       <c r="B93">
-        <v>6186</v>
+        <v>6558</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -2273,10 +2273,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45750.95833333334</v>
+        <v>45757.95833333334</v>
       </c>
       <c r="B94">
-        <v>6022</v>
+        <v>6460</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45750.96875</v>
+        <v>45757.96875</v>
       </c>
       <c r="B95">
-        <v>5923</v>
+        <v>6371</v>
       </c>
       <c r="C95">
         <v>94</v>
@@ -2301,10 +2301,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45750.97916666666</v>
+        <v>45757.97916666666</v>
       </c>
       <c r="B96">
-        <v>5859</v>
+        <v>6329</v>
       </c>
       <c r="C96">
         <v>95</v>
@@ -2315,10 +2315,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>45750.98958333334</v>
+        <v>45757.98958333334</v>
       </c>
       <c r="B97">
-        <v>5801</v>
+        <v>6241</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>45751</v>
+        <v>45758</v>
       </c>
       <c r="B98">
-        <v>5730</v>
+        <v>6240</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>45751.01041666666</v>
+        <v>45758.01041666666</v>
       </c>
       <c r="B99">
-        <v>5733</v>
+        <v>6138</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>45751.02083333334</v>
+        <v>45758.02083333334</v>
       </c>
       <c r="B100">
-        <v>5665</v>
+        <v>6107</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2371,10 +2371,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>45751.03125</v>
+        <v>45758.03125</v>
       </c>
       <c r="B101">
-        <v>5673</v>
+        <v>6062</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>45751.04166666666</v>
+        <v>45758.04166666666</v>
       </c>
       <c r="B102">
-        <v>5580</v>
+        <v>6033</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>45751.05208333334</v>
+        <v>45758.05208333334</v>
       </c>
       <c r="B103">
-        <v>5589</v>
+        <v>5991</v>
       </c>
       <c r="C103">
         <v>6</v>
@@ -2413,10 +2413,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>45751.0625</v>
+        <v>45758.0625</v>
       </c>
       <c r="B104">
-        <v>5556</v>
+        <v>6040</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -2427,10 +2427,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>45751.07291666666</v>
+        <v>45758.07291666666</v>
       </c>
       <c r="B105">
-        <v>5612</v>
+        <v>6024</v>
       </c>
       <c r="C105">
         <v>8</v>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>45751.08333333334</v>
+        <v>45758.08333333334</v>
       </c>
       <c r="B106">
-        <v>5527</v>
+        <v>5987</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -2455,10 +2455,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>45751.09375</v>
+        <v>45758.09375</v>
       </c>
       <c r="B107">
-        <v>5512</v>
+        <v>6006</v>
       </c>
       <c r="C107">
         <v>10</v>
@@ -2469,10 +2469,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>45751.10416666666</v>
+        <v>45758.10416666666</v>
       </c>
       <c r="B108">
-        <v>5488</v>
+        <v>5961</v>
       </c>
       <c r="C108">
         <v>11</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>45751.11458333334</v>
+        <v>45758.11458333334</v>
       </c>
       <c r="B109">
-        <v>5506</v>
+        <v>5981</v>
       </c>
       <c r="C109">
         <v>12</v>
@@ -2497,10 +2497,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>45751.125</v>
+        <v>45758.125</v>
       </c>
       <c r="B110">
-        <v>5579</v>
+        <v>5995</v>
       </c>
       <c r="C110">
         <v>13</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>45751.13541666666</v>
+        <v>45758.13541666666</v>
       </c>
       <c r="B111">
-        <v>5536</v>
+        <v>6026</v>
       </c>
       <c r="C111">
         <v>14</v>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>45751.14583333334</v>
+        <v>45758.14583333334</v>
       </c>
       <c r="B112">
-        <v>5566</v>
+        <v>6051</v>
       </c>
       <c r="C112">
         <v>15</v>
@@ -2539,10 +2539,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>45751.15625</v>
+        <v>45758.15625</v>
       </c>
       <c r="B113">
-        <v>5590</v>
+        <v>6101</v>
       </c>
       <c r="C113">
         <v>16</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>45751.16666666666</v>
+        <v>45758.16666666666</v>
       </c>
       <c r="B114">
-        <v>5692</v>
+        <v>6113</v>
       </c>
       <c r="C114">
         <v>17</v>
@@ -2567,10 +2567,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>45751.17708333334</v>
+        <v>45758.17708333334</v>
       </c>
       <c r="B115">
-        <v>5698</v>
+        <v>6204</v>
       </c>
       <c r="C115">
         <v>18</v>
@@ -2581,10 +2581,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>45751.1875</v>
+        <v>45758.1875</v>
       </c>
       <c r="B116">
-        <v>5790</v>
+        <v>6245</v>
       </c>
       <c r="C116">
         <v>19</v>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>45751.19791666666</v>
+        <v>45758.19791666666</v>
       </c>
       <c r="B117">
-        <v>5879</v>
+        <v>6361</v>
       </c>
       <c r="C117">
         <v>20</v>
@@ -2609,10 +2609,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>45751.20833333334</v>
+        <v>45758.20833333334</v>
       </c>
       <c r="B118">
-        <v>6008</v>
+        <v>6525</v>
       </c>
       <c r="C118">
         <v>21</v>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>45751.21875</v>
+        <v>45758.21875</v>
       </c>
       <c r="B119">
-        <v>6131</v>
+        <v>6628</v>
       </c>
       <c r="C119">
         <v>22</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>45751.22916666666</v>
+        <v>45758.22916666666</v>
       </c>
       <c r="B120">
-        <v>6228</v>
+        <v>6773</v>
       </c>
       <c r="C120">
         <v>23</v>
@@ -2651,10 +2651,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>45751.23958333334</v>
+        <v>45758.23958333334</v>
       </c>
       <c r="B121">
-        <v>6403</v>
+        <v>6911</v>
       </c>
       <c r="C121">
         <v>24</v>
@@ -2665,10 +2665,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>45751.25</v>
+        <v>45758.25</v>
       </c>
       <c r="B122">
-        <v>6685</v>
+        <v>7122</v>
       </c>
       <c r="C122">
         <v>25</v>
@@ -2679,10 +2679,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>45751.26041666666</v>
+        <v>45758.26041666666</v>
       </c>
       <c r="B123">
-        <v>6825</v>
+        <v>7330</v>
       </c>
       <c r="C123">
         <v>26</v>
@@ -2693,10 +2693,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>45751.27083333334</v>
+        <v>45758.27083333334</v>
       </c>
       <c r="B124">
-        <v>6924</v>
+        <v>7470</v>
       </c>
       <c r="C124">
         <v>27</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>45751.28125</v>
+        <v>45758.28125</v>
       </c>
       <c r="B125">
-        <v>6980</v>
+        <v>7562</v>
       </c>
       <c r="C125">
         <v>28</v>
@@ -2721,10 +2721,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>45751.29166666666</v>
+        <v>45758.29166666666</v>
       </c>
       <c r="B126">
-        <v>7055</v>
+        <v>7616</v>
       </c>
       <c r="C126">
         <v>29</v>
@@ -2735,10 +2735,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>45751.30208333334</v>
+        <v>45758.30208333334</v>
       </c>
       <c r="B127">
-        <v>7078</v>
+        <v>7690</v>
       </c>
       <c r="C127">
         <v>30</v>
@@ -2749,10 +2749,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>45751.3125</v>
+        <v>45758.3125</v>
       </c>
       <c r="B128">
-        <v>7098</v>
+        <v>7721</v>
       </c>
       <c r="C128">
         <v>31</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>45751.32291666666</v>
+        <v>45758.32291666666</v>
       </c>
       <c r="B129">
-        <v>7009</v>
+        <v>7617</v>
       </c>
       <c r="C129">
         <v>32</v>
@@ -2777,10 +2777,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>45751.33333333334</v>
+        <v>45758.33333333334</v>
       </c>
       <c r="B130">
-        <v>6976</v>
+        <v>7533</v>
       </c>
       <c r="C130">
         <v>33</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>45751.34375</v>
+        <v>45758.34375</v>
       </c>
       <c r="B131">
-        <v>6911</v>
+        <v>7608</v>
       </c>
       <c r="C131">
         <v>34</v>
@@ -2805,10 +2805,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>45751.35416666666</v>
+        <v>45758.35416666666</v>
       </c>
       <c r="B132">
-        <v>6816</v>
+        <v>7578</v>
       </c>
       <c r="C132">
         <v>35</v>
@@ -2819,10 +2819,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>45751.36458333334</v>
+        <v>45758.36458333334</v>
       </c>
       <c r="B133">
-        <v>6639</v>
+        <v>7476</v>
       </c>
       <c r="C133">
         <v>36</v>
@@ -2833,10 +2833,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>45751.375</v>
+        <v>45758.375</v>
       </c>
       <c r="B134">
-        <v>6585</v>
+        <v>7382</v>
       </c>
       <c r="C134">
         <v>37</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>45751.38541666666</v>
+        <v>45758.38541666666</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>45751.39583333334</v>
+        <v>45758.39583333334</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>45751.40625</v>
+        <v>45758.40625</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>45751.41666666666</v>
+        <v>45758.41666666666</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>45751.42708333334</v>
+        <v>45758.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>45751.4375</v>
+        <v>45758.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>45751.44791666666</v>
+        <v>45758.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>45751.45833333334</v>
+        <v>45758.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>45751.46875</v>
+        <v>45758.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>45751.47916666666</v>
+        <v>45758.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>45751.48958333334</v>
+        <v>45758.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>45751.5</v>
+        <v>45758.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>45751.51041666666</v>
+        <v>45758.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>45751.52083333334</v>
+        <v>45758.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>45751.53125</v>
+        <v>45758.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>45751.54166666666</v>
+        <v>45758.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>45751.55208333334</v>
+        <v>45758.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>45751.5625</v>
+        <v>45758.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>45751.57291666666</v>
+        <v>45758.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>45751.58333333334</v>
+        <v>45758.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>45751.59375</v>
+        <v>45758.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>45751.60416666666</v>
+        <v>45758.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>45751.61458333334</v>
+        <v>45758.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>45751.625</v>
+        <v>45758.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>45751.63541666666</v>
+        <v>45758.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>45751.64583333334</v>
+        <v>45758.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>45751.65625</v>
+        <v>45758.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>45751.66666666666</v>
+        <v>45758.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>45751.67708333334</v>
+        <v>45758.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>45751.6875</v>
+        <v>45758.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>45751.69791666666</v>
+        <v>45758.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>45751.70833333334</v>
+        <v>45758.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>45751.71875</v>
+        <v>45758.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>45751.72916666666</v>
+        <v>45758.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>45751.73958333334</v>
+        <v>45758.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>45751.75</v>
+        <v>45758.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>45751.76041666666</v>
+        <v>45758.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>45751.77083333334</v>
+        <v>45758.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>45751.78125</v>
+        <v>45758.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>45751.79166666666</v>
+        <v>45758.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>45751.80208333334</v>
+        <v>45758.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>45751.8125</v>
+        <v>45758.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>45751.82291666666</v>
+        <v>45758.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>45751.83333333334</v>
+        <v>45758.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>45751.84375</v>
+        <v>45758.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>45751.85416666666</v>
+        <v>45758.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>45751.86458333334</v>
+        <v>45758.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>45751.875</v>
+        <v>45758.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>45751.88541666666</v>
+        <v>45758.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>45751.89583333334</v>
+        <v>45758.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>45751.90625</v>
+        <v>45758.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>45751.91666666666</v>
+        <v>45758.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>45751.92708333334</v>
+        <v>45758.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>45751.9375</v>
+        <v>45758.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>45751.94791666666</v>
+        <v>45758.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>45751.95833333334</v>
+        <v>45758.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>45751.96875</v>
+        <v>45758.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>45751.97916666666</v>
+        <v>45758.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>45751.98958333334</v>
+        <v>45758.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
@@ -28,580 +28,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>10.04.20251</t>
-  </si>
-  <si>
-    <t>10.04.20252</t>
-  </si>
-  <si>
-    <t>10.04.20253</t>
-  </si>
-  <si>
-    <t>10.04.20254</t>
-  </si>
-  <si>
-    <t>10.04.20255</t>
-  </si>
-  <si>
-    <t>10.04.20256</t>
-  </si>
-  <si>
-    <t>10.04.20257</t>
-  </si>
-  <si>
-    <t>10.04.20258</t>
-  </si>
-  <si>
-    <t>10.04.20259</t>
-  </si>
-  <si>
-    <t>10.04.202510</t>
-  </si>
-  <si>
-    <t>10.04.202511</t>
-  </si>
-  <si>
-    <t>10.04.202512</t>
-  </si>
-  <si>
-    <t>10.04.202513</t>
-  </si>
-  <si>
-    <t>10.04.202514</t>
-  </si>
-  <si>
-    <t>10.04.202515</t>
-  </si>
-  <si>
-    <t>10.04.202516</t>
-  </si>
-  <si>
-    <t>10.04.202517</t>
-  </si>
-  <si>
-    <t>10.04.202518</t>
-  </si>
-  <si>
-    <t>10.04.202519</t>
-  </si>
-  <si>
-    <t>10.04.202520</t>
-  </si>
-  <si>
-    <t>10.04.202521</t>
-  </si>
-  <si>
-    <t>10.04.202522</t>
-  </si>
-  <si>
-    <t>10.04.202523</t>
-  </si>
-  <si>
-    <t>10.04.202524</t>
-  </si>
-  <si>
-    <t>10.04.202525</t>
-  </si>
-  <si>
-    <t>10.04.202526</t>
-  </si>
-  <si>
-    <t>10.04.202527</t>
-  </si>
-  <si>
-    <t>10.04.202528</t>
-  </si>
-  <si>
-    <t>10.04.202529</t>
-  </si>
-  <si>
-    <t>10.04.202530</t>
-  </si>
-  <si>
-    <t>10.04.202531</t>
-  </si>
-  <si>
-    <t>10.04.202532</t>
-  </si>
-  <si>
-    <t>10.04.202533</t>
-  </si>
-  <si>
-    <t>10.04.202534</t>
-  </si>
-  <si>
-    <t>10.04.202535</t>
-  </si>
-  <si>
-    <t>10.04.202536</t>
-  </si>
-  <si>
-    <t>10.04.202537</t>
-  </si>
-  <si>
-    <t>10.04.202538</t>
-  </si>
-  <si>
-    <t>10.04.202539</t>
-  </si>
-  <si>
-    <t>10.04.202540</t>
-  </si>
-  <si>
-    <t>10.04.202541</t>
-  </si>
-  <si>
-    <t>10.04.202542</t>
-  </si>
-  <si>
-    <t>10.04.202543</t>
-  </si>
-  <si>
-    <t>10.04.202544</t>
-  </si>
-  <si>
-    <t>10.04.202545</t>
-  </si>
-  <si>
-    <t>10.04.202546</t>
-  </si>
-  <si>
-    <t>10.04.202547</t>
-  </si>
-  <si>
-    <t>10.04.202548</t>
-  </si>
-  <si>
-    <t>10.04.202549</t>
-  </si>
-  <si>
-    <t>10.04.202550</t>
-  </si>
-  <si>
-    <t>10.04.202551</t>
-  </si>
-  <si>
-    <t>10.04.202552</t>
-  </si>
-  <si>
-    <t>10.04.202553</t>
-  </si>
-  <si>
-    <t>10.04.202554</t>
-  </si>
-  <si>
-    <t>10.04.202555</t>
-  </si>
-  <si>
-    <t>10.04.202556</t>
-  </si>
-  <si>
-    <t>10.04.202557</t>
-  </si>
-  <si>
-    <t>10.04.202558</t>
-  </si>
-  <si>
-    <t>10.04.202559</t>
-  </si>
-  <si>
-    <t>10.04.202560</t>
-  </si>
-  <si>
-    <t>10.04.202561</t>
-  </si>
-  <si>
-    <t>10.04.202562</t>
-  </si>
-  <si>
-    <t>10.04.202563</t>
-  </si>
-  <si>
-    <t>10.04.202564</t>
-  </si>
-  <si>
-    <t>10.04.202565</t>
-  </si>
-  <si>
-    <t>10.04.202566</t>
-  </si>
-  <si>
-    <t>10.04.202567</t>
-  </si>
-  <si>
-    <t>10.04.202568</t>
-  </si>
-  <si>
-    <t>10.04.202569</t>
-  </si>
-  <si>
-    <t>10.04.202570</t>
-  </si>
-  <si>
-    <t>10.04.202571</t>
-  </si>
-  <si>
-    <t>10.04.202572</t>
-  </si>
-  <si>
-    <t>10.04.202573</t>
-  </si>
-  <si>
-    <t>10.04.202574</t>
-  </si>
-  <si>
-    <t>10.04.202575</t>
-  </si>
-  <si>
-    <t>10.04.202576</t>
-  </si>
-  <si>
-    <t>10.04.202577</t>
-  </si>
-  <si>
-    <t>10.04.202578</t>
-  </si>
-  <si>
-    <t>10.04.202579</t>
-  </si>
-  <si>
-    <t>10.04.202580</t>
-  </si>
-  <si>
-    <t>10.04.202581</t>
-  </si>
-  <si>
-    <t>10.04.202582</t>
-  </si>
-  <si>
-    <t>10.04.202583</t>
-  </si>
-  <si>
-    <t>10.04.202584</t>
-  </si>
-  <si>
-    <t>10.04.202585</t>
-  </si>
-  <si>
-    <t>10.04.202586</t>
-  </si>
-  <si>
-    <t>10.04.202587</t>
-  </si>
-  <si>
-    <t>10.04.202588</t>
-  </si>
-  <si>
-    <t>10.04.202589</t>
-  </si>
-  <si>
-    <t>10.04.202590</t>
-  </si>
-  <si>
-    <t>10.04.202591</t>
-  </si>
-  <si>
-    <t>10.04.202592</t>
-  </si>
-  <si>
-    <t>10.04.202593</t>
-  </si>
-  <si>
-    <t>10.04.202594</t>
-  </si>
-  <si>
-    <t>10.04.202595</t>
-  </si>
-  <si>
-    <t>10.04.202596</t>
-  </si>
-  <si>
-    <t>11.04.20251</t>
-  </si>
-  <si>
-    <t>11.04.20252</t>
-  </si>
-  <si>
-    <t>11.04.20253</t>
-  </si>
-  <si>
-    <t>11.04.20254</t>
-  </si>
-  <si>
-    <t>11.04.20255</t>
-  </si>
-  <si>
-    <t>11.04.20256</t>
-  </si>
-  <si>
-    <t>11.04.20257</t>
-  </si>
-  <si>
-    <t>11.04.20258</t>
-  </si>
-  <si>
-    <t>11.04.20259</t>
-  </si>
-  <si>
-    <t>11.04.202510</t>
-  </si>
-  <si>
-    <t>11.04.202511</t>
-  </si>
-  <si>
-    <t>11.04.202512</t>
-  </si>
-  <si>
-    <t>11.04.202513</t>
-  </si>
-  <si>
-    <t>11.04.202514</t>
-  </si>
-  <si>
-    <t>11.04.202515</t>
-  </si>
-  <si>
-    <t>11.04.202516</t>
-  </si>
-  <si>
-    <t>11.04.202517</t>
-  </si>
-  <si>
-    <t>11.04.202518</t>
-  </si>
-  <si>
-    <t>11.04.202519</t>
-  </si>
-  <si>
-    <t>11.04.202520</t>
-  </si>
-  <si>
-    <t>11.04.202521</t>
-  </si>
-  <si>
-    <t>11.04.202522</t>
-  </si>
-  <si>
-    <t>11.04.202523</t>
-  </si>
-  <si>
-    <t>11.04.202524</t>
-  </si>
-  <si>
-    <t>11.04.202525</t>
-  </si>
-  <si>
-    <t>11.04.202526</t>
-  </si>
-  <si>
-    <t>11.04.202527</t>
-  </si>
-  <si>
-    <t>11.04.202528</t>
-  </si>
-  <si>
-    <t>11.04.202529</t>
-  </si>
-  <si>
-    <t>11.04.202530</t>
-  </si>
-  <si>
-    <t>11.04.202531</t>
-  </si>
-  <si>
-    <t>11.04.202532</t>
-  </si>
-  <si>
-    <t>11.04.202533</t>
-  </si>
-  <si>
-    <t>11.04.202534</t>
-  </si>
-  <si>
-    <t>11.04.202535</t>
-  </si>
-  <si>
-    <t>11.04.202536</t>
-  </si>
-  <si>
-    <t>11.04.202537</t>
-  </si>
-  <si>
-    <t>11.04.202538</t>
-  </si>
-  <si>
-    <t>11.04.202539</t>
-  </si>
-  <si>
-    <t>11.04.202540</t>
-  </si>
-  <si>
-    <t>11.04.202541</t>
-  </si>
-  <si>
-    <t>11.04.202542</t>
-  </si>
-  <si>
-    <t>11.04.202543</t>
-  </si>
-  <si>
-    <t>11.04.202544</t>
-  </si>
-  <si>
-    <t>11.04.202545</t>
-  </si>
-  <si>
-    <t>11.04.202546</t>
-  </si>
-  <si>
-    <t>11.04.202547</t>
-  </si>
-  <si>
-    <t>11.04.202548</t>
-  </si>
-  <si>
-    <t>11.04.202549</t>
-  </si>
-  <si>
-    <t>11.04.202550</t>
-  </si>
-  <si>
-    <t>11.04.202551</t>
-  </si>
-  <si>
-    <t>11.04.202552</t>
-  </si>
-  <si>
-    <t>11.04.202553</t>
-  </si>
-  <si>
-    <t>11.04.202554</t>
-  </si>
-  <si>
-    <t>11.04.202555</t>
-  </si>
-  <si>
-    <t>11.04.202556</t>
-  </si>
-  <si>
-    <t>11.04.202557</t>
-  </si>
-  <si>
-    <t>11.04.202558</t>
-  </si>
-  <si>
-    <t>11.04.202559</t>
-  </si>
-  <si>
-    <t>11.04.202560</t>
-  </si>
-  <si>
-    <t>11.04.202561</t>
-  </si>
-  <si>
-    <t>11.04.202562</t>
-  </si>
-  <si>
-    <t>11.04.202563</t>
-  </si>
-  <si>
-    <t>11.04.202564</t>
-  </si>
-  <si>
-    <t>11.04.202565</t>
-  </si>
-  <si>
-    <t>11.04.202566</t>
-  </si>
-  <si>
-    <t>11.04.202567</t>
-  </si>
-  <si>
-    <t>11.04.202568</t>
-  </si>
-  <si>
-    <t>11.04.202569</t>
-  </si>
-  <si>
-    <t>11.04.202570</t>
-  </si>
-  <si>
-    <t>11.04.202571</t>
-  </si>
-  <si>
-    <t>11.04.202572</t>
-  </si>
-  <si>
-    <t>11.04.202573</t>
-  </si>
-  <si>
-    <t>11.04.202574</t>
-  </si>
-  <si>
-    <t>11.04.202575</t>
-  </si>
-  <si>
-    <t>11.04.202576</t>
-  </si>
-  <si>
-    <t>11.04.202577</t>
-  </si>
-  <si>
-    <t>11.04.202578</t>
-  </si>
-  <si>
-    <t>11.04.202579</t>
-  </si>
-  <si>
-    <t>11.04.202580</t>
-  </si>
-  <si>
-    <t>11.04.202581</t>
-  </si>
-  <si>
-    <t>11.04.202582</t>
-  </si>
-  <si>
-    <t>11.04.202583</t>
-  </si>
-  <si>
-    <t>11.04.202584</t>
-  </si>
-  <si>
-    <t>11.04.202585</t>
-  </si>
-  <si>
-    <t>11.04.202586</t>
-  </si>
-  <si>
-    <t>11.04.202587</t>
-  </si>
-  <si>
-    <t>11.04.202588</t>
-  </si>
-  <si>
-    <t>11.04.202589</t>
-  </si>
-  <si>
-    <t>11.04.202590</t>
-  </si>
-  <si>
-    <t>11.04.202591</t>
-  </si>
-  <si>
-    <t>11.04.202592</t>
-  </si>
-  <si>
-    <t>11.04.202593</t>
-  </si>
-  <si>
-    <t>11.04.202594</t>
-  </si>
-  <si>
-    <t>11.04.202595</t>
-  </si>
-  <si>
-    <t>11.04.202596</t>
+    <t>28.04.20251</t>
+  </si>
+  <si>
+    <t>28.04.20252</t>
+  </si>
+  <si>
+    <t>28.04.20253</t>
+  </si>
+  <si>
+    <t>28.04.20254</t>
+  </si>
+  <si>
+    <t>28.04.20255</t>
+  </si>
+  <si>
+    <t>28.04.20256</t>
+  </si>
+  <si>
+    <t>28.04.20257</t>
+  </si>
+  <si>
+    <t>28.04.20258</t>
+  </si>
+  <si>
+    <t>28.04.20259</t>
+  </si>
+  <si>
+    <t>28.04.202510</t>
+  </si>
+  <si>
+    <t>28.04.202511</t>
+  </si>
+  <si>
+    <t>28.04.202512</t>
+  </si>
+  <si>
+    <t>28.04.202513</t>
+  </si>
+  <si>
+    <t>28.04.202514</t>
+  </si>
+  <si>
+    <t>28.04.202515</t>
+  </si>
+  <si>
+    <t>28.04.202516</t>
+  </si>
+  <si>
+    <t>28.04.202517</t>
+  </si>
+  <si>
+    <t>28.04.202518</t>
+  </si>
+  <si>
+    <t>28.04.202519</t>
+  </si>
+  <si>
+    <t>28.04.202520</t>
+  </si>
+  <si>
+    <t>28.04.202521</t>
+  </si>
+  <si>
+    <t>28.04.202522</t>
+  </si>
+  <si>
+    <t>28.04.202523</t>
+  </si>
+  <si>
+    <t>28.04.202524</t>
+  </si>
+  <si>
+    <t>28.04.202525</t>
+  </si>
+  <si>
+    <t>28.04.202526</t>
+  </si>
+  <si>
+    <t>28.04.202527</t>
+  </si>
+  <si>
+    <t>28.04.202528</t>
+  </si>
+  <si>
+    <t>28.04.202529</t>
+  </si>
+  <si>
+    <t>28.04.202530</t>
+  </si>
+  <si>
+    <t>28.04.202531</t>
+  </si>
+  <si>
+    <t>28.04.202532</t>
+  </si>
+  <si>
+    <t>28.04.202533</t>
+  </si>
+  <si>
+    <t>28.04.202534</t>
+  </si>
+  <si>
+    <t>28.04.202535</t>
+  </si>
+  <si>
+    <t>28.04.202536</t>
+  </si>
+  <si>
+    <t>28.04.202537</t>
+  </si>
+  <si>
+    <t>28.04.202538</t>
+  </si>
+  <si>
+    <t>28.04.202539</t>
+  </si>
+  <si>
+    <t>28.04.202540</t>
+  </si>
+  <si>
+    <t>28.04.202541</t>
+  </si>
+  <si>
+    <t>28.04.202542</t>
+  </si>
+  <si>
+    <t>28.04.202543</t>
+  </si>
+  <si>
+    <t>28.04.202544</t>
+  </si>
+  <si>
+    <t>28.04.202545</t>
+  </si>
+  <si>
+    <t>28.04.202546</t>
+  </si>
+  <si>
+    <t>28.04.202547</t>
+  </si>
+  <si>
+    <t>28.04.202548</t>
+  </si>
+  <si>
+    <t>28.04.202549</t>
+  </si>
+  <si>
+    <t>28.04.202550</t>
+  </si>
+  <si>
+    <t>28.04.202551</t>
+  </si>
+  <si>
+    <t>28.04.202552</t>
+  </si>
+  <si>
+    <t>28.04.202553</t>
+  </si>
+  <si>
+    <t>28.04.202554</t>
+  </si>
+  <si>
+    <t>28.04.202555</t>
+  </si>
+  <si>
+    <t>28.04.202556</t>
+  </si>
+  <si>
+    <t>28.04.202557</t>
+  </si>
+  <si>
+    <t>28.04.202558</t>
+  </si>
+  <si>
+    <t>28.04.202559</t>
+  </si>
+  <si>
+    <t>28.04.202560</t>
+  </si>
+  <si>
+    <t>28.04.202561</t>
+  </si>
+  <si>
+    <t>28.04.202562</t>
+  </si>
+  <si>
+    <t>28.04.202563</t>
+  </si>
+  <si>
+    <t>28.04.202564</t>
+  </si>
+  <si>
+    <t>28.04.202565</t>
+  </si>
+  <si>
+    <t>28.04.202566</t>
+  </si>
+  <si>
+    <t>28.04.202567</t>
+  </si>
+  <si>
+    <t>28.04.202568</t>
+  </si>
+  <si>
+    <t>28.04.202569</t>
+  </si>
+  <si>
+    <t>28.04.202570</t>
+  </si>
+  <si>
+    <t>28.04.202571</t>
+  </si>
+  <si>
+    <t>28.04.202572</t>
+  </si>
+  <si>
+    <t>28.04.202573</t>
+  </si>
+  <si>
+    <t>28.04.202574</t>
+  </si>
+  <si>
+    <t>28.04.202575</t>
+  </si>
+  <si>
+    <t>28.04.202576</t>
+  </si>
+  <si>
+    <t>28.04.202577</t>
+  </si>
+  <si>
+    <t>28.04.202578</t>
+  </si>
+  <si>
+    <t>28.04.202579</t>
+  </si>
+  <si>
+    <t>28.04.202580</t>
+  </si>
+  <si>
+    <t>28.04.202581</t>
+  </si>
+  <si>
+    <t>28.04.202582</t>
+  </si>
+  <si>
+    <t>28.04.202583</t>
+  </si>
+  <si>
+    <t>28.04.202584</t>
+  </si>
+  <si>
+    <t>28.04.202585</t>
+  </si>
+  <si>
+    <t>28.04.202586</t>
+  </si>
+  <si>
+    <t>28.04.202587</t>
+  </si>
+  <si>
+    <t>28.04.202588</t>
+  </si>
+  <si>
+    <t>28.04.202589</t>
+  </si>
+  <si>
+    <t>28.04.202590</t>
+  </si>
+  <si>
+    <t>28.04.202591</t>
+  </si>
+  <si>
+    <t>28.04.202592</t>
+  </si>
+  <si>
+    <t>28.04.202593</t>
+  </si>
+  <si>
+    <t>28.04.202594</t>
+  </si>
+  <si>
+    <t>28.04.202595</t>
+  </si>
+  <si>
+    <t>28.04.202596</t>
+  </si>
+  <si>
+    <t>29.04.20251</t>
+  </si>
+  <si>
+    <t>29.04.20252</t>
+  </si>
+  <si>
+    <t>29.04.20253</t>
+  </si>
+  <si>
+    <t>29.04.20254</t>
+  </si>
+  <si>
+    <t>29.04.20255</t>
+  </si>
+  <si>
+    <t>29.04.20256</t>
+  </si>
+  <si>
+    <t>29.04.20257</t>
+  </si>
+  <si>
+    <t>29.04.20258</t>
+  </si>
+  <si>
+    <t>29.04.20259</t>
+  </si>
+  <si>
+    <t>29.04.202510</t>
+  </si>
+  <si>
+    <t>29.04.202511</t>
+  </si>
+  <si>
+    <t>29.04.202512</t>
+  </si>
+  <si>
+    <t>29.04.202513</t>
+  </si>
+  <si>
+    <t>29.04.202514</t>
+  </si>
+  <si>
+    <t>29.04.202515</t>
+  </si>
+  <si>
+    <t>29.04.202516</t>
+  </si>
+  <si>
+    <t>29.04.202517</t>
+  </si>
+  <si>
+    <t>29.04.202518</t>
+  </si>
+  <si>
+    <t>29.04.202519</t>
+  </si>
+  <si>
+    <t>29.04.202520</t>
+  </si>
+  <si>
+    <t>29.04.202521</t>
+  </si>
+  <si>
+    <t>29.04.202522</t>
+  </si>
+  <si>
+    <t>29.04.202523</t>
+  </si>
+  <si>
+    <t>29.04.202524</t>
+  </si>
+  <si>
+    <t>29.04.202525</t>
+  </si>
+  <si>
+    <t>29.04.202526</t>
+  </si>
+  <si>
+    <t>29.04.202527</t>
+  </si>
+  <si>
+    <t>29.04.202528</t>
+  </si>
+  <si>
+    <t>29.04.202529</t>
+  </si>
+  <si>
+    <t>29.04.202530</t>
+  </si>
+  <si>
+    <t>29.04.202531</t>
+  </si>
+  <si>
+    <t>29.04.202532</t>
+  </si>
+  <si>
+    <t>29.04.202533</t>
+  </si>
+  <si>
+    <t>29.04.202534</t>
+  </si>
+  <si>
+    <t>29.04.202535</t>
+  </si>
+  <si>
+    <t>29.04.202536</t>
+  </si>
+  <si>
+    <t>29.04.202537</t>
+  </si>
+  <si>
+    <t>29.04.202538</t>
+  </si>
+  <si>
+    <t>29.04.202539</t>
+  </si>
+  <si>
+    <t>29.04.202540</t>
+  </si>
+  <si>
+    <t>29.04.202541</t>
+  </si>
+  <si>
+    <t>29.04.202542</t>
+  </si>
+  <si>
+    <t>29.04.202543</t>
+  </si>
+  <si>
+    <t>29.04.202544</t>
+  </si>
+  <si>
+    <t>29.04.202545</t>
+  </si>
+  <si>
+    <t>29.04.202546</t>
+  </si>
+  <si>
+    <t>29.04.202547</t>
+  </si>
+  <si>
+    <t>29.04.202548</t>
+  </si>
+  <si>
+    <t>29.04.202549</t>
+  </si>
+  <si>
+    <t>29.04.202550</t>
+  </si>
+  <si>
+    <t>29.04.202551</t>
+  </si>
+  <si>
+    <t>29.04.202552</t>
+  </si>
+  <si>
+    <t>29.04.202553</t>
+  </si>
+  <si>
+    <t>29.04.202554</t>
+  </si>
+  <si>
+    <t>29.04.202555</t>
+  </si>
+  <si>
+    <t>29.04.202556</t>
+  </si>
+  <si>
+    <t>29.04.202557</t>
+  </si>
+  <si>
+    <t>29.04.202558</t>
+  </si>
+  <si>
+    <t>29.04.202559</t>
+  </si>
+  <si>
+    <t>29.04.202560</t>
+  </si>
+  <si>
+    <t>29.04.202561</t>
+  </si>
+  <si>
+    <t>29.04.202562</t>
+  </si>
+  <si>
+    <t>29.04.202563</t>
+  </si>
+  <si>
+    <t>29.04.202564</t>
+  </si>
+  <si>
+    <t>29.04.202565</t>
+  </si>
+  <si>
+    <t>29.04.202566</t>
+  </si>
+  <si>
+    <t>29.04.202567</t>
+  </si>
+  <si>
+    <t>29.04.202568</t>
+  </si>
+  <si>
+    <t>29.04.202569</t>
+  </si>
+  <si>
+    <t>29.04.202570</t>
+  </si>
+  <si>
+    <t>29.04.202571</t>
+  </si>
+  <si>
+    <t>29.04.202572</t>
+  </si>
+  <si>
+    <t>29.04.202573</t>
+  </si>
+  <si>
+    <t>29.04.202574</t>
+  </si>
+  <si>
+    <t>29.04.202575</t>
+  </si>
+  <si>
+    <t>29.04.202576</t>
+  </si>
+  <si>
+    <t>29.04.202577</t>
+  </si>
+  <si>
+    <t>29.04.202578</t>
+  </si>
+  <si>
+    <t>29.04.202579</t>
+  </si>
+  <si>
+    <t>29.04.202580</t>
+  </si>
+  <si>
+    <t>29.04.202581</t>
+  </si>
+  <si>
+    <t>29.04.202582</t>
+  </si>
+  <si>
+    <t>29.04.202583</t>
+  </si>
+  <si>
+    <t>29.04.202584</t>
+  </si>
+  <si>
+    <t>29.04.202585</t>
+  </si>
+  <si>
+    <t>29.04.202586</t>
+  </si>
+  <si>
+    <t>29.04.202587</t>
+  </si>
+  <si>
+    <t>29.04.202588</t>
+  </si>
+  <si>
+    <t>29.04.202589</t>
+  </si>
+  <si>
+    <t>29.04.202590</t>
+  </si>
+  <si>
+    <t>29.04.202591</t>
+  </si>
+  <si>
+    <t>29.04.202592</t>
+  </si>
+  <si>
+    <t>29.04.202593</t>
+  </si>
+  <si>
+    <t>29.04.202594</t>
+  </si>
+  <si>
+    <t>29.04.202595</t>
+  </si>
+  <si>
+    <t>29.04.202596</t>
   </si>
 </sst>
 </file>
@@ -985,10 +985,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45757</v>
+        <v>45775</v>
       </c>
       <c r="B2">
-        <v>5961</v>
+        <v>4877</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -999,10 +999,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45757.01041666666</v>
+        <v>45775.01041666666</v>
       </c>
       <c r="B3">
-        <v>6001</v>
+        <v>4885</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45757.02083333334</v>
+        <v>45775.02083333334</v>
       </c>
       <c r="B4">
-        <v>5942</v>
+        <v>4846</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45757.03125</v>
+        <v>45775.03125</v>
       </c>
       <c r="B5">
-        <v>5915</v>
+        <v>4847</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45757.04166666666</v>
+        <v>45775.04166666666</v>
       </c>
       <c r="B6">
-        <v>5803</v>
+        <v>4753</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45757.05208333334</v>
+        <v>45775.05208333334</v>
       </c>
       <c r="B7">
-        <v>5861</v>
+        <v>4784</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45757.0625</v>
+        <v>45775.0625</v>
       </c>
       <c r="B8">
-        <v>5818</v>
+        <v>4738</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45757.07291666666</v>
+        <v>45775.07291666666</v>
       </c>
       <c r="B9">
-        <v>5756</v>
+        <v>4745</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45757.08333333334</v>
+        <v>45775.08333333334</v>
       </c>
       <c r="B10">
-        <v>5762</v>
+        <v>4732</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1111,10 +1111,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45757.09375</v>
+        <v>45775.09375</v>
       </c>
       <c r="B11">
-        <v>5848</v>
+        <v>4731</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45757.10416666666</v>
+        <v>45775.10416666666</v>
       </c>
       <c r="B12">
-        <v>5779</v>
+        <v>4739</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1139,10 +1139,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45757.11458333334</v>
+        <v>45775.11458333334</v>
       </c>
       <c r="B13">
-        <v>5829</v>
+        <v>4758</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45757.125</v>
+        <v>45775.125</v>
       </c>
       <c r="B14">
-        <v>5844</v>
+        <v>4738</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45757.13541666666</v>
+        <v>45775.13541666666</v>
       </c>
       <c r="B15">
-        <v>5856</v>
+        <v>4820</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1181,10 +1181,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45757.14583333334</v>
+        <v>45775.14583333334</v>
       </c>
       <c r="B16">
-        <v>5804</v>
+        <v>4847</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45757.15625</v>
+        <v>45775.15625</v>
       </c>
       <c r="B17">
-        <v>5883</v>
+        <v>4889</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1209,10 +1209,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45757.16666666666</v>
+        <v>45775.16666666666</v>
       </c>
       <c r="B18">
-        <v>5971</v>
+        <v>4906</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1223,10 +1223,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45757.17708333334</v>
+        <v>45775.17708333334</v>
       </c>
       <c r="B19">
-        <v>6022</v>
+        <v>5044</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1237,10 +1237,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45757.1875</v>
+        <v>45775.1875</v>
       </c>
       <c r="B20">
-        <v>6111</v>
+        <v>5047</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45757.19791666666</v>
+        <v>45775.19791666666</v>
       </c>
       <c r="B21">
-        <v>6199</v>
+        <v>5118</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45757.20833333334</v>
+        <v>45775.20833333334</v>
       </c>
       <c r="B22">
-        <v>6369</v>
+        <v>5281</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45757.21875</v>
+        <v>45775.21875</v>
       </c>
       <c r="B23">
-        <v>6473</v>
+        <v>5405</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1293,10 +1293,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45757.22916666666</v>
+        <v>45775.22916666666</v>
       </c>
       <c r="B24">
-        <v>6614</v>
+        <v>5537</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45757.23958333334</v>
+        <v>45775.23958333334</v>
       </c>
       <c r="B25">
-        <v>6731</v>
+        <v>5653</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45757.25</v>
+        <v>45775.25</v>
       </c>
       <c r="B26">
-        <v>7016</v>
+        <v>5986</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45757.26041666666</v>
+        <v>45775.26041666666</v>
       </c>
       <c r="B27">
-        <v>7118</v>
+        <v>6089</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45757.27083333334</v>
+        <v>45775.27083333334</v>
       </c>
       <c r="B28">
-        <v>7284</v>
+        <v>6085</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45757.28125</v>
+        <v>45775.28125</v>
       </c>
       <c r="B29">
-        <v>7386</v>
+        <v>6150</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45757.29166666666</v>
+        <v>45775.29166666666</v>
       </c>
       <c r="B30">
-        <v>7483</v>
+        <v>6155</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1391,10 +1391,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45757.30208333334</v>
+        <v>45775.30208333334</v>
       </c>
       <c r="B31">
-        <v>7491</v>
+        <v>6211</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45757.3125</v>
+        <v>45775.3125</v>
       </c>
       <c r="B32">
-        <v>7553</v>
+        <v>6101</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1419,10 +1419,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45757.32291666666</v>
+        <v>45775.32291666666</v>
       </c>
       <c r="B33">
-        <v>7598</v>
+        <v>6077</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1433,10 +1433,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45757.33333333334</v>
+        <v>45775.33333333334</v>
       </c>
       <c r="B34">
-        <v>7537</v>
+        <v>5895</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1447,10 +1447,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45757.34375</v>
+        <v>45775.34375</v>
       </c>
       <c r="B35">
-        <v>7510</v>
+        <v>5808</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45757.35416666666</v>
+        <v>45775.35416666666</v>
       </c>
       <c r="B36">
-        <v>7451</v>
+        <v>5734</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45757.36458333334</v>
+        <v>45775.36458333334</v>
       </c>
       <c r="B37">
-        <v>7390</v>
+        <v>5654</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1489,10 +1489,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45757.375</v>
+        <v>45775.375</v>
       </c>
       <c r="B38">
-        <v>7311</v>
+        <v>5400</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45757.38541666666</v>
+        <v>45775.38541666666</v>
       </c>
       <c r="B39">
-        <v>7261</v>
+        <v>5282</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45757.39583333334</v>
+        <v>45775.39583333334</v>
       </c>
       <c r="B40">
-        <v>7255</v>
+        <v>5236</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45757.40625</v>
+        <v>45775.40625</v>
       </c>
       <c r="B41">
-        <v>7248</v>
+        <v>5221</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45757.41666666666</v>
+        <v>45775.41666666666</v>
       </c>
       <c r="B42">
-        <v>7092</v>
+        <v>4960</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45757.42708333334</v>
+        <v>45775.42708333334</v>
       </c>
       <c r="B43">
-        <v>7092</v>
+        <v>4864</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45757.4375</v>
+        <v>45775.4375</v>
       </c>
       <c r="B44">
-        <v>7054</v>
+        <v>4778</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45757.44791666666</v>
+        <v>45775.44791666666</v>
       </c>
       <c r="B45">
-        <v>7008</v>
+        <v>4797</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45757.45833333334</v>
+        <v>45775.45833333334</v>
       </c>
       <c r="B46">
-        <v>6794</v>
+        <v>4711</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45757.46875</v>
+        <v>45775.46875</v>
       </c>
       <c r="B47">
-        <v>6741</v>
+        <v>4733</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45757.47916666666</v>
+        <v>45775.47916666666</v>
       </c>
       <c r="B48">
-        <v>6713</v>
+        <v>4673</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1643,10 +1643,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45757.48958333334</v>
+        <v>45775.48958333334</v>
       </c>
       <c r="B49">
-        <v>6715</v>
+        <v>4640</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45757.5</v>
+        <v>45775.5</v>
       </c>
       <c r="B50">
-        <v>6666</v>
+        <v>4589</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1671,10 +1671,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45757.51041666666</v>
+        <v>45775.51041666666</v>
       </c>
       <c r="B51">
-        <v>6719</v>
+        <v>4622</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45757.52083333334</v>
+        <v>45775.52083333334</v>
       </c>
       <c r="B52">
-        <v>6761</v>
+        <v>4665</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1699,10 +1699,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45757.53125</v>
+        <v>45775.53125</v>
       </c>
       <c r="B53">
-        <v>6707</v>
+        <v>4594</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45757.54166666666</v>
+        <v>45775.54166666666</v>
       </c>
       <c r="B54">
-        <v>6727</v>
+        <v>4662</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45757.55208333334</v>
+        <v>45775.55208333334</v>
       </c>
       <c r="B55">
-        <v>6707</v>
+        <v>4712</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45757.5625</v>
+        <v>45775.5625</v>
       </c>
       <c r="B56">
-        <v>6625</v>
+        <v>4633</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -1755,10 +1755,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45757.57291666666</v>
+        <v>45775.57291666666</v>
       </c>
       <c r="B57">
-        <v>6570</v>
+        <v>4631</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45757.58333333334</v>
+        <v>45775.58333333334</v>
       </c>
       <c r="B58">
-        <v>6688</v>
+        <v>4656</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45757.59375</v>
+        <v>45775.59375</v>
       </c>
       <c r="B59">
-        <v>6670</v>
+        <v>4664</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45757.60416666666</v>
+        <v>45775.60416666666</v>
       </c>
       <c r="B60">
-        <v>6742</v>
+        <v>4637</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -1811,10 +1811,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45757.61458333334</v>
+        <v>45775.61458333334</v>
       </c>
       <c r="B61">
-        <v>6664</v>
+        <v>4761</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45757.625</v>
+        <v>45775.625</v>
       </c>
       <c r="B62">
-        <v>6676</v>
+        <v>4873</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45757.63541666666</v>
+        <v>45775.63541666666</v>
       </c>
       <c r="B63">
-        <v>6716</v>
+        <v>4942</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -1853,10 +1853,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45757.64583333334</v>
+        <v>45775.64583333334</v>
       </c>
       <c r="B64">
-        <v>6755</v>
+        <v>4928</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45757.65625</v>
+        <v>45775.65625</v>
       </c>
       <c r="B65">
-        <v>6843</v>
+        <v>4996</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45757.66666666666</v>
+        <v>45775.66666666666</v>
       </c>
       <c r="B66">
-        <v>6831</v>
+        <v>5239</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45757.67708333334</v>
+        <v>45775.67708333334</v>
       </c>
       <c r="B67">
-        <v>6888</v>
+        <v>5272</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45757.6875</v>
+        <v>45775.6875</v>
       </c>
       <c r="B68">
-        <v>6891</v>
+        <v>5404</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45757.69791666666</v>
+        <v>45775.69791666666</v>
       </c>
       <c r="B69">
-        <v>6960</v>
+        <v>5557</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45757.70833333334</v>
+        <v>45775.70833333334</v>
       </c>
       <c r="B70">
-        <v>7034</v>
+        <v>5725</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45757.71875</v>
+        <v>45775.71875</v>
       </c>
       <c r="B71">
-        <v>7142</v>
+        <v>5808</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45757.72916666666</v>
+        <v>45775.72916666666</v>
       </c>
       <c r="B72">
-        <v>7223</v>
+        <v>6002</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45757.73958333334</v>
+        <v>45775.73958333334</v>
       </c>
       <c r="B73">
-        <v>7372</v>
+        <v>6153</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45757.75</v>
+        <v>45775.75</v>
       </c>
       <c r="B74">
-        <v>7519</v>
+        <v>6342</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -2007,10 +2007,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45757.76041666666</v>
+        <v>45775.76041666666</v>
       </c>
       <c r="B75">
-        <v>7602</v>
+        <v>6409</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45757.77083333334</v>
+        <v>45775.77083333334</v>
       </c>
       <c r="B76">
-        <v>7733</v>
+        <v>6604</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45757.78125</v>
+        <v>45775.78125</v>
       </c>
       <c r="B77">
-        <v>7840</v>
+        <v>6682</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -2049,10 +2049,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45757.79166666666</v>
+        <v>45775.79166666666</v>
       </c>
       <c r="B78">
-        <v>8020</v>
+        <v>6838</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45757.80208333334</v>
+        <v>45775.80208333334</v>
       </c>
       <c r="B79">
-        <v>8123</v>
+        <v>6932</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45757.8125</v>
+        <v>45775.8125</v>
       </c>
       <c r="B80">
-        <v>8213</v>
+        <v>7164</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45757.82291666666</v>
+        <v>45775.82291666666</v>
       </c>
       <c r="B81">
-        <v>8141</v>
+        <v>7297</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -2105,10 +2105,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45757.83333333334</v>
+        <v>45775.83333333334</v>
       </c>
       <c r="B82">
-        <v>8129</v>
+        <v>7333</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45757.84375</v>
+        <v>45775.84375</v>
       </c>
       <c r="B83">
-        <v>7980</v>
+        <v>7250</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -2133,10 +2133,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45757.85416666666</v>
+        <v>45775.85416666666</v>
       </c>
       <c r="B84">
-        <v>7899</v>
+        <v>7204</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45757.86458333334</v>
+        <v>45775.86458333334</v>
       </c>
       <c r="B85">
-        <v>7780</v>
+        <v>7034</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -2161,10 +2161,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45757.875</v>
+        <v>45775.875</v>
       </c>
       <c r="B86">
-        <v>7561</v>
+        <v>6924</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45757.88541666666</v>
+        <v>45775.88541666666</v>
       </c>
       <c r="B87">
-        <v>7412</v>
+        <v>6706</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -2189,10 +2189,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45757.89583333334</v>
+        <v>45775.89583333334</v>
       </c>
       <c r="B88">
-        <v>7256</v>
+        <v>6465</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45757.90625</v>
+        <v>45775.90625</v>
       </c>
       <c r="B89">
-        <v>7136</v>
+        <v>6359</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45757.91666666666</v>
+        <v>45775.91666666666</v>
       </c>
       <c r="B90">
-        <v>6919</v>
+        <v>6136</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45757.92708333334</v>
+        <v>45775.92708333334</v>
       </c>
       <c r="B91">
-        <v>6731</v>
+        <v>6013</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45757.9375</v>
+        <v>45775.9375</v>
       </c>
       <c r="B92">
-        <v>6673</v>
+        <v>5866</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45757.94791666666</v>
+        <v>45775.94791666666</v>
       </c>
       <c r="B93">
-        <v>6558</v>
+        <v>5780</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -2273,10 +2273,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45757.95833333334</v>
+        <v>45775.95833333334</v>
       </c>
       <c r="B94">
-        <v>6460</v>
+        <v>5691</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45757.96875</v>
+        <v>45775.96875</v>
       </c>
       <c r="B95">
-        <v>6371</v>
+        <v>5608</v>
       </c>
       <c r="C95">
         <v>94</v>
@@ -2301,10 +2301,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45757.97916666666</v>
+        <v>45775.97916666666</v>
       </c>
       <c r="B96">
-        <v>6329</v>
+        <v>5521</v>
       </c>
       <c r="C96">
         <v>95</v>
@@ -2315,10 +2315,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>45757.98958333334</v>
+        <v>45775.98958333334</v>
       </c>
       <c r="B97">
-        <v>6241</v>
+        <v>5483</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>45758</v>
+        <v>45776</v>
       </c>
       <c r="B98">
-        <v>6240</v>
+        <v>5361</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>45758.01041666666</v>
+        <v>45776.01041666666</v>
       </c>
       <c r="B99">
-        <v>6138</v>
+        <v>5319</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>45758.02083333334</v>
+        <v>45776.02083333334</v>
       </c>
       <c r="B100">
-        <v>6107</v>
+        <v>5244</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2371,10 +2371,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>45758.03125</v>
+        <v>45776.03125</v>
       </c>
       <c r="B101">
-        <v>6062</v>
+        <v>5291</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>45758.04166666666</v>
+        <v>45776.04166666666</v>
       </c>
       <c r="B102">
-        <v>6033</v>
+        <v>5231</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>45758.05208333334</v>
+        <v>45776.05208333334</v>
       </c>
       <c r="B103">
-        <v>5991</v>
+        <v>5220</v>
       </c>
       <c r="C103">
         <v>6</v>
@@ -2413,10 +2413,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>45758.0625</v>
+        <v>45776.0625</v>
       </c>
       <c r="B104">
-        <v>6040</v>
+        <v>5166</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -2427,10 +2427,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>45758.07291666666</v>
+        <v>45776.07291666666</v>
       </c>
       <c r="B105">
-        <v>6024</v>
+        <v>5164</v>
       </c>
       <c r="C105">
         <v>8</v>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>45758.08333333334</v>
+        <v>45776.08333333334</v>
       </c>
       <c r="B106">
-        <v>5987</v>
+        <v>5135</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -2455,10 +2455,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>45758.09375</v>
+        <v>45776.09375</v>
       </c>
       <c r="B107">
-        <v>6006</v>
+        <v>5122</v>
       </c>
       <c r="C107">
         <v>10</v>
@@ -2469,10 +2469,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>45758.10416666666</v>
+        <v>45776.10416666666</v>
       </c>
       <c r="B108">
-        <v>5961</v>
+        <v>5098</v>
       </c>
       <c r="C108">
         <v>11</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>45758.11458333334</v>
+        <v>45776.11458333334</v>
       </c>
       <c r="B109">
-        <v>5981</v>
+        <v>5145</v>
       </c>
       <c r="C109">
         <v>12</v>
@@ -2497,10 +2497,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>45758.125</v>
+        <v>45776.125</v>
       </c>
       <c r="B110">
-        <v>5995</v>
+        <v>5179</v>
       </c>
       <c r="C110">
         <v>13</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>45758.13541666666</v>
+        <v>45776.13541666666</v>
       </c>
       <c r="B111">
-        <v>6026</v>
+        <v>5172</v>
       </c>
       <c r="C111">
         <v>14</v>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>45758.14583333334</v>
+        <v>45776.14583333334</v>
       </c>
       <c r="B112">
-        <v>6051</v>
+        <v>5196</v>
       </c>
       <c r="C112">
         <v>15</v>
@@ -2539,10 +2539,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>45758.15625</v>
+        <v>45776.15625</v>
       </c>
       <c r="B113">
-        <v>6101</v>
+        <v>5258</v>
       </c>
       <c r="C113">
         <v>16</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>45758.16666666666</v>
+        <v>45776.16666666666</v>
       </c>
       <c r="B114">
-        <v>6113</v>
+        <v>5319</v>
       </c>
       <c r="C114">
         <v>17</v>
@@ -2567,10 +2567,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>45758.17708333334</v>
+        <v>45776.17708333334</v>
       </c>
       <c r="B115">
-        <v>6204</v>
+        <v>5315</v>
       </c>
       <c r="C115">
         <v>18</v>
@@ -2581,10 +2581,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>45758.1875</v>
+        <v>45776.1875</v>
       </c>
       <c r="B116">
-        <v>6245</v>
+        <v>5409</v>
       </c>
       <c r="C116">
         <v>19</v>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>45758.19791666666</v>
+        <v>45776.19791666666</v>
       </c>
       <c r="B117">
-        <v>6361</v>
+        <v>5469</v>
       </c>
       <c r="C117">
         <v>20</v>
@@ -2609,10 +2609,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>45758.20833333334</v>
+        <v>45776.20833333334</v>
       </c>
       <c r="B118">
-        <v>6525</v>
+        <v>5624</v>
       </c>
       <c r="C118">
         <v>21</v>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>45758.21875</v>
+        <v>45776.21875</v>
       </c>
       <c r="B119">
-        <v>6628</v>
+        <v>5659</v>
       </c>
       <c r="C119">
         <v>22</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>45758.22916666666</v>
+        <v>45776.22916666666</v>
       </c>
       <c r="B120">
-        <v>6773</v>
+        <v>5770</v>
       </c>
       <c r="C120">
         <v>23</v>
@@ -2651,10 +2651,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>45758.23958333334</v>
+        <v>45776.23958333334</v>
       </c>
       <c r="B121">
-        <v>6911</v>
+        <v>5864</v>
       </c>
       <c r="C121">
         <v>24</v>
@@ -2665,10 +2665,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>45758.25</v>
+        <v>45776.25</v>
       </c>
       <c r="B122">
-        <v>7122</v>
+        <v>6049</v>
       </c>
       <c r="C122">
         <v>25</v>
@@ -2679,10 +2679,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>45758.26041666666</v>
+        <v>45776.26041666666</v>
       </c>
       <c r="B123">
-        <v>7330</v>
+        <v>6144</v>
       </c>
       <c r="C123">
         <v>26</v>
@@ -2693,10 +2693,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>45758.27083333334</v>
+        <v>45776.27083333334</v>
       </c>
       <c r="B124">
-        <v>7470</v>
+        <v>6175</v>
       </c>
       <c r="C124">
         <v>27</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>45758.28125</v>
+        <v>45776.28125</v>
       </c>
       <c r="B125">
-        <v>7562</v>
+        <v>6170</v>
       </c>
       <c r="C125">
         <v>28</v>
@@ -2721,10 +2721,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>45758.29166666666</v>
+        <v>45776.29166666666</v>
       </c>
       <c r="B126">
-        <v>7616</v>
+        <v>6108</v>
       </c>
       <c r="C126">
         <v>29</v>
@@ -2735,10 +2735,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>45758.30208333334</v>
+        <v>45776.30208333334</v>
       </c>
       <c r="B127">
-        <v>7690</v>
+        <v>6080</v>
       </c>
       <c r="C127">
         <v>30</v>
@@ -2749,10 +2749,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>45758.3125</v>
+        <v>45776.3125</v>
       </c>
       <c r="B128">
-        <v>7721</v>
+        <v>6022</v>
       </c>
       <c r="C128">
         <v>31</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>45758.32291666666</v>
+        <v>45776.32291666666</v>
       </c>
       <c r="B129">
-        <v>7617</v>
+        <v>5981</v>
       </c>
       <c r="C129">
         <v>32</v>
@@ -2777,10 +2777,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>45758.33333333334</v>
+        <v>45776.33333333334</v>
       </c>
       <c r="B130">
-        <v>7533</v>
+        <v>5736</v>
       </c>
       <c r="C130">
         <v>33</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>45758.34375</v>
+        <v>45776.34375</v>
       </c>
       <c r="B131">
-        <v>7608</v>
+        <v>5682</v>
       </c>
       <c r="C131">
         <v>34</v>
@@ -2805,10 +2805,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>45758.35416666666</v>
+        <v>45776.35416666666</v>
       </c>
       <c r="B132">
-        <v>7578</v>
+        <v>5572</v>
       </c>
       <c r="C132">
         <v>35</v>
@@ -2819,10 +2819,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>45758.36458333334</v>
+        <v>45776.36458333334</v>
       </c>
       <c r="B133">
-        <v>7476</v>
+        <v>5440</v>
       </c>
       <c r="C133">
         <v>36</v>
@@ -2833,10 +2833,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>45758.375</v>
+        <v>45776.375</v>
       </c>
       <c r="B134">
-        <v>7382</v>
+        <v>5198</v>
       </c>
       <c r="C134">
         <v>37</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>45758.38541666666</v>
+        <v>45776.38541666666</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>45758.39583333334</v>
+        <v>45776.39583333334</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>45758.40625</v>
+        <v>45776.40625</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>45758.41666666666</v>
+        <v>45776.41666666666</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>45758.42708333334</v>
+        <v>45776.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>45758.4375</v>
+        <v>45776.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>45758.44791666666</v>
+        <v>45776.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>45758.45833333334</v>
+        <v>45776.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>45758.46875</v>
+        <v>45776.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>45758.47916666666</v>
+        <v>45776.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>45758.48958333334</v>
+        <v>45776.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>45758.5</v>
+        <v>45776.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>45758.51041666666</v>
+        <v>45776.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>45758.52083333334</v>
+        <v>45776.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>45758.53125</v>
+        <v>45776.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>45758.54166666666</v>
+        <v>45776.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>45758.55208333334</v>
+        <v>45776.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>45758.5625</v>
+        <v>45776.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>45758.57291666666</v>
+        <v>45776.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>45758.58333333334</v>
+        <v>45776.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>45758.59375</v>
+        <v>45776.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>45758.60416666666</v>
+        <v>45776.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>45758.61458333334</v>
+        <v>45776.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>45758.625</v>
+        <v>45776.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>45758.63541666666</v>
+        <v>45776.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>45758.64583333334</v>
+        <v>45776.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>45758.65625</v>
+        <v>45776.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>45758.66666666666</v>
+        <v>45776.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>45758.67708333334</v>
+        <v>45776.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>45758.6875</v>
+        <v>45776.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>45758.69791666666</v>
+        <v>45776.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>45758.70833333334</v>
+        <v>45776.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>45758.71875</v>
+        <v>45776.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>45758.72916666666</v>
+        <v>45776.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>45758.73958333334</v>
+        <v>45776.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>45758.75</v>
+        <v>45776.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>45758.76041666666</v>
+        <v>45776.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>45758.77083333334</v>
+        <v>45776.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>45758.78125</v>
+        <v>45776.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>45758.79166666666</v>
+        <v>45776.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>45758.80208333334</v>
+        <v>45776.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>45758.8125</v>
+        <v>45776.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>45758.82291666666</v>
+        <v>45776.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>45758.83333333334</v>
+        <v>45776.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>45758.84375</v>
+        <v>45776.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>45758.85416666666</v>
+        <v>45776.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>45758.86458333334</v>
+        <v>45776.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>45758.875</v>
+        <v>45776.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>45758.88541666666</v>
+        <v>45776.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>45758.89583333334</v>
+        <v>45776.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>45758.90625</v>
+        <v>45776.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>45758.91666666666</v>
+        <v>45776.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>45758.92708333334</v>
+        <v>45776.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>45758.9375</v>
+        <v>45776.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>45758.94791666666</v>
+        <v>45776.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>45758.95833333334</v>
+        <v>45776.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>45758.96875</v>
+        <v>45776.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>45758.97916666666</v>
+        <v>45776.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>45758.98958333334</v>
+        <v>45776.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
@@ -28,580 +28,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>28.04.20251</t>
-  </si>
-  <si>
-    <t>28.04.20252</t>
-  </si>
-  <si>
-    <t>28.04.20253</t>
-  </si>
-  <si>
-    <t>28.04.20254</t>
-  </si>
-  <si>
-    <t>28.04.20255</t>
-  </si>
-  <si>
-    <t>28.04.20256</t>
-  </si>
-  <si>
-    <t>28.04.20257</t>
-  </si>
-  <si>
-    <t>28.04.20258</t>
-  </si>
-  <si>
-    <t>28.04.20259</t>
-  </si>
-  <si>
-    <t>28.04.202510</t>
-  </si>
-  <si>
-    <t>28.04.202511</t>
-  </si>
-  <si>
-    <t>28.04.202512</t>
-  </si>
-  <si>
-    <t>28.04.202513</t>
-  </si>
-  <si>
-    <t>28.04.202514</t>
-  </si>
-  <si>
-    <t>28.04.202515</t>
-  </si>
-  <si>
-    <t>28.04.202516</t>
-  </si>
-  <si>
-    <t>28.04.202517</t>
-  </si>
-  <si>
-    <t>28.04.202518</t>
-  </si>
-  <si>
-    <t>28.04.202519</t>
-  </si>
-  <si>
-    <t>28.04.202520</t>
-  </si>
-  <si>
-    <t>28.04.202521</t>
-  </si>
-  <si>
-    <t>28.04.202522</t>
-  </si>
-  <si>
-    <t>28.04.202523</t>
-  </si>
-  <si>
-    <t>28.04.202524</t>
-  </si>
-  <si>
-    <t>28.04.202525</t>
-  </si>
-  <si>
-    <t>28.04.202526</t>
-  </si>
-  <si>
-    <t>28.04.202527</t>
-  </si>
-  <si>
-    <t>28.04.202528</t>
-  </si>
-  <si>
-    <t>28.04.202529</t>
-  </si>
-  <si>
-    <t>28.04.202530</t>
-  </si>
-  <si>
-    <t>28.04.202531</t>
-  </si>
-  <si>
-    <t>28.04.202532</t>
-  </si>
-  <si>
-    <t>28.04.202533</t>
-  </si>
-  <si>
-    <t>28.04.202534</t>
-  </si>
-  <si>
-    <t>28.04.202535</t>
-  </si>
-  <si>
-    <t>28.04.202536</t>
-  </si>
-  <si>
-    <t>28.04.202537</t>
-  </si>
-  <si>
-    <t>28.04.202538</t>
-  </si>
-  <si>
-    <t>28.04.202539</t>
-  </si>
-  <si>
-    <t>28.04.202540</t>
-  </si>
-  <si>
-    <t>28.04.202541</t>
-  </si>
-  <si>
-    <t>28.04.202542</t>
-  </si>
-  <si>
-    <t>28.04.202543</t>
-  </si>
-  <si>
-    <t>28.04.202544</t>
-  </si>
-  <si>
-    <t>28.04.202545</t>
-  </si>
-  <si>
-    <t>28.04.202546</t>
-  </si>
-  <si>
-    <t>28.04.202547</t>
-  </si>
-  <si>
-    <t>28.04.202548</t>
-  </si>
-  <si>
-    <t>28.04.202549</t>
-  </si>
-  <si>
-    <t>28.04.202550</t>
-  </si>
-  <si>
-    <t>28.04.202551</t>
-  </si>
-  <si>
-    <t>28.04.202552</t>
-  </si>
-  <si>
-    <t>28.04.202553</t>
-  </si>
-  <si>
-    <t>28.04.202554</t>
-  </si>
-  <si>
-    <t>28.04.202555</t>
-  </si>
-  <si>
-    <t>28.04.202556</t>
-  </si>
-  <si>
-    <t>28.04.202557</t>
-  </si>
-  <si>
-    <t>28.04.202558</t>
-  </si>
-  <si>
-    <t>28.04.202559</t>
-  </si>
-  <si>
-    <t>28.04.202560</t>
-  </si>
-  <si>
-    <t>28.04.202561</t>
-  </si>
-  <si>
-    <t>28.04.202562</t>
-  </si>
-  <si>
-    <t>28.04.202563</t>
-  </si>
-  <si>
-    <t>28.04.202564</t>
-  </si>
-  <si>
-    <t>28.04.202565</t>
-  </si>
-  <si>
-    <t>28.04.202566</t>
-  </si>
-  <si>
-    <t>28.04.202567</t>
-  </si>
-  <si>
-    <t>28.04.202568</t>
-  </si>
-  <si>
-    <t>28.04.202569</t>
-  </si>
-  <si>
-    <t>28.04.202570</t>
-  </si>
-  <si>
-    <t>28.04.202571</t>
-  </si>
-  <si>
-    <t>28.04.202572</t>
-  </si>
-  <si>
-    <t>28.04.202573</t>
-  </si>
-  <si>
-    <t>28.04.202574</t>
-  </si>
-  <si>
-    <t>28.04.202575</t>
-  </si>
-  <si>
-    <t>28.04.202576</t>
-  </si>
-  <si>
-    <t>28.04.202577</t>
-  </si>
-  <si>
-    <t>28.04.202578</t>
-  </si>
-  <si>
-    <t>28.04.202579</t>
-  </si>
-  <si>
-    <t>28.04.202580</t>
-  </si>
-  <si>
-    <t>28.04.202581</t>
-  </si>
-  <si>
-    <t>28.04.202582</t>
-  </si>
-  <si>
-    <t>28.04.202583</t>
-  </si>
-  <si>
-    <t>28.04.202584</t>
-  </si>
-  <si>
-    <t>28.04.202585</t>
-  </si>
-  <si>
-    <t>28.04.202586</t>
-  </si>
-  <si>
-    <t>28.04.202587</t>
-  </si>
-  <si>
-    <t>28.04.202588</t>
-  </si>
-  <si>
-    <t>28.04.202589</t>
-  </si>
-  <si>
-    <t>28.04.202590</t>
-  </si>
-  <si>
-    <t>28.04.202591</t>
-  </si>
-  <si>
-    <t>28.04.202592</t>
-  </si>
-  <si>
-    <t>28.04.202593</t>
-  </si>
-  <si>
-    <t>28.04.202594</t>
-  </si>
-  <si>
-    <t>28.04.202595</t>
-  </si>
-  <si>
-    <t>28.04.202596</t>
-  </si>
-  <si>
-    <t>29.04.20251</t>
-  </si>
-  <si>
-    <t>29.04.20252</t>
-  </si>
-  <si>
-    <t>29.04.20253</t>
-  </si>
-  <si>
-    <t>29.04.20254</t>
-  </si>
-  <si>
-    <t>29.04.20255</t>
-  </si>
-  <si>
-    <t>29.04.20256</t>
-  </si>
-  <si>
-    <t>29.04.20257</t>
-  </si>
-  <si>
-    <t>29.04.20258</t>
-  </si>
-  <si>
-    <t>29.04.20259</t>
-  </si>
-  <si>
-    <t>29.04.202510</t>
-  </si>
-  <si>
-    <t>29.04.202511</t>
-  </si>
-  <si>
-    <t>29.04.202512</t>
-  </si>
-  <si>
-    <t>29.04.202513</t>
-  </si>
-  <si>
-    <t>29.04.202514</t>
-  </si>
-  <si>
-    <t>29.04.202515</t>
-  </si>
-  <si>
-    <t>29.04.202516</t>
-  </si>
-  <si>
-    <t>29.04.202517</t>
-  </si>
-  <si>
-    <t>29.04.202518</t>
-  </si>
-  <si>
-    <t>29.04.202519</t>
-  </si>
-  <si>
-    <t>29.04.202520</t>
-  </si>
-  <si>
-    <t>29.04.202521</t>
-  </si>
-  <si>
-    <t>29.04.202522</t>
-  </si>
-  <si>
-    <t>29.04.202523</t>
-  </si>
-  <si>
-    <t>29.04.202524</t>
-  </si>
-  <si>
-    <t>29.04.202525</t>
-  </si>
-  <si>
-    <t>29.04.202526</t>
-  </si>
-  <si>
-    <t>29.04.202527</t>
-  </si>
-  <si>
-    <t>29.04.202528</t>
-  </si>
-  <si>
-    <t>29.04.202529</t>
-  </si>
-  <si>
-    <t>29.04.202530</t>
-  </si>
-  <si>
-    <t>29.04.202531</t>
-  </si>
-  <si>
-    <t>29.04.202532</t>
-  </si>
-  <si>
-    <t>29.04.202533</t>
-  </si>
-  <si>
-    <t>29.04.202534</t>
-  </si>
-  <si>
-    <t>29.04.202535</t>
-  </si>
-  <si>
-    <t>29.04.202536</t>
-  </si>
-  <si>
-    <t>29.04.202537</t>
-  </si>
-  <si>
-    <t>29.04.202538</t>
-  </si>
-  <si>
-    <t>29.04.202539</t>
-  </si>
-  <si>
-    <t>29.04.202540</t>
-  </si>
-  <si>
-    <t>29.04.202541</t>
-  </si>
-  <si>
-    <t>29.04.202542</t>
-  </si>
-  <si>
-    <t>29.04.202543</t>
-  </si>
-  <si>
-    <t>29.04.202544</t>
-  </si>
-  <si>
-    <t>29.04.202545</t>
-  </si>
-  <si>
-    <t>29.04.202546</t>
-  </si>
-  <si>
-    <t>29.04.202547</t>
-  </si>
-  <si>
-    <t>29.04.202548</t>
-  </si>
-  <si>
-    <t>29.04.202549</t>
-  </si>
-  <si>
-    <t>29.04.202550</t>
-  </si>
-  <si>
-    <t>29.04.202551</t>
-  </si>
-  <si>
-    <t>29.04.202552</t>
-  </si>
-  <si>
-    <t>29.04.202553</t>
-  </si>
-  <si>
-    <t>29.04.202554</t>
-  </si>
-  <si>
-    <t>29.04.202555</t>
-  </si>
-  <si>
-    <t>29.04.202556</t>
-  </si>
-  <si>
-    <t>29.04.202557</t>
-  </si>
-  <si>
-    <t>29.04.202558</t>
-  </si>
-  <si>
-    <t>29.04.202559</t>
-  </si>
-  <si>
-    <t>29.04.202560</t>
-  </si>
-  <si>
-    <t>29.04.202561</t>
-  </si>
-  <si>
-    <t>29.04.202562</t>
-  </si>
-  <si>
-    <t>29.04.202563</t>
-  </si>
-  <si>
-    <t>29.04.202564</t>
-  </si>
-  <si>
-    <t>29.04.202565</t>
-  </si>
-  <si>
-    <t>29.04.202566</t>
-  </si>
-  <si>
-    <t>29.04.202567</t>
-  </si>
-  <si>
-    <t>29.04.202568</t>
-  </si>
-  <si>
-    <t>29.04.202569</t>
-  </si>
-  <si>
-    <t>29.04.202570</t>
-  </si>
-  <si>
-    <t>29.04.202571</t>
-  </si>
-  <si>
-    <t>29.04.202572</t>
-  </si>
-  <si>
-    <t>29.04.202573</t>
-  </si>
-  <si>
-    <t>29.04.202574</t>
-  </si>
-  <si>
-    <t>29.04.202575</t>
-  </si>
-  <si>
-    <t>29.04.202576</t>
-  </si>
-  <si>
-    <t>29.04.202577</t>
-  </si>
-  <si>
-    <t>29.04.202578</t>
-  </si>
-  <si>
-    <t>29.04.202579</t>
-  </si>
-  <si>
-    <t>29.04.202580</t>
-  </si>
-  <si>
-    <t>29.04.202581</t>
-  </si>
-  <si>
-    <t>29.04.202582</t>
-  </si>
-  <si>
-    <t>29.04.202583</t>
-  </si>
-  <si>
-    <t>29.04.202584</t>
-  </si>
-  <si>
-    <t>29.04.202585</t>
-  </si>
-  <si>
-    <t>29.04.202586</t>
-  </si>
-  <si>
-    <t>29.04.202587</t>
-  </si>
-  <si>
-    <t>29.04.202588</t>
-  </si>
-  <si>
-    <t>29.04.202589</t>
-  </si>
-  <si>
-    <t>29.04.202590</t>
-  </si>
-  <si>
-    <t>29.04.202591</t>
-  </si>
-  <si>
-    <t>29.04.202592</t>
-  </si>
-  <si>
-    <t>29.04.202593</t>
-  </si>
-  <si>
-    <t>29.04.202594</t>
-  </si>
-  <si>
-    <t>29.04.202595</t>
-  </si>
-  <si>
-    <t>29.04.202596</t>
+    <t>08.05.20251</t>
+  </si>
+  <si>
+    <t>08.05.20252</t>
+  </si>
+  <si>
+    <t>08.05.20253</t>
+  </si>
+  <si>
+    <t>08.05.20254</t>
+  </si>
+  <si>
+    <t>08.05.20255</t>
+  </si>
+  <si>
+    <t>08.05.20256</t>
+  </si>
+  <si>
+    <t>08.05.20257</t>
+  </si>
+  <si>
+    <t>08.05.20258</t>
+  </si>
+  <si>
+    <t>08.05.20259</t>
+  </si>
+  <si>
+    <t>08.05.202510</t>
+  </si>
+  <si>
+    <t>08.05.202511</t>
+  </si>
+  <si>
+    <t>08.05.202512</t>
+  </si>
+  <si>
+    <t>08.05.202513</t>
+  </si>
+  <si>
+    <t>08.05.202514</t>
+  </si>
+  <si>
+    <t>08.05.202515</t>
+  </si>
+  <si>
+    <t>08.05.202516</t>
+  </si>
+  <si>
+    <t>08.05.202517</t>
+  </si>
+  <si>
+    <t>08.05.202518</t>
+  </si>
+  <si>
+    <t>08.05.202519</t>
+  </si>
+  <si>
+    <t>08.05.202520</t>
+  </si>
+  <si>
+    <t>08.05.202521</t>
+  </si>
+  <si>
+    <t>08.05.202522</t>
+  </si>
+  <si>
+    <t>08.05.202523</t>
+  </si>
+  <si>
+    <t>08.05.202524</t>
+  </si>
+  <si>
+    <t>08.05.202525</t>
+  </si>
+  <si>
+    <t>08.05.202526</t>
+  </si>
+  <si>
+    <t>08.05.202527</t>
+  </si>
+  <si>
+    <t>08.05.202528</t>
+  </si>
+  <si>
+    <t>08.05.202529</t>
+  </si>
+  <si>
+    <t>08.05.202530</t>
+  </si>
+  <si>
+    <t>08.05.202531</t>
+  </si>
+  <si>
+    <t>08.05.202532</t>
+  </si>
+  <si>
+    <t>08.05.202533</t>
+  </si>
+  <si>
+    <t>08.05.202534</t>
+  </si>
+  <si>
+    <t>08.05.202535</t>
+  </si>
+  <si>
+    <t>08.05.202536</t>
+  </si>
+  <si>
+    <t>08.05.202537</t>
+  </si>
+  <si>
+    <t>08.05.202538</t>
+  </si>
+  <si>
+    <t>08.05.202539</t>
+  </si>
+  <si>
+    <t>08.05.202540</t>
+  </si>
+  <si>
+    <t>08.05.202541</t>
+  </si>
+  <si>
+    <t>08.05.202542</t>
+  </si>
+  <si>
+    <t>08.05.202543</t>
+  </si>
+  <si>
+    <t>08.05.202544</t>
+  </si>
+  <si>
+    <t>08.05.202545</t>
+  </si>
+  <si>
+    <t>08.05.202546</t>
+  </si>
+  <si>
+    <t>08.05.202547</t>
+  </si>
+  <si>
+    <t>08.05.202548</t>
+  </si>
+  <si>
+    <t>08.05.202549</t>
+  </si>
+  <si>
+    <t>08.05.202550</t>
+  </si>
+  <si>
+    <t>08.05.202551</t>
+  </si>
+  <si>
+    <t>08.05.202552</t>
+  </si>
+  <si>
+    <t>08.05.202553</t>
+  </si>
+  <si>
+    <t>08.05.202554</t>
+  </si>
+  <si>
+    <t>08.05.202555</t>
+  </si>
+  <si>
+    <t>08.05.202556</t>
+  </si>
+  <si>
+    <t>08.05.202557</t>
+  </si>
+  <si>
+    <t>08.05.202558</t>
+  </si>
+  <si>
+    <t>08.05.202559</t>
+  </si>
+  <si>
+    <t>08.05.202560</t>
+  </si>
+  <si>
+    <t>08.05.202561</t>
+  </si>
+  <si>
+    <t>08.05.202562</t>
+  </si>
+  <si>
+    <t>08.05.202563</t>
+  </si>
+  <si>
+    <t>08.05.202564</t>
+  </si>
+  <si>
+    <t>08.05.202565</t>
+  </si>
+  <si>
+    <t>08.05.202566</t>
+  </si>
+  <si>
+    <t>08.05.202567</t>
+  </si>
+  <si>
+    <t>08.05.202568</t>
+  </si>
+  <si>
+    <t>08.05.202569</t>
+  </si>
+  <si>
+    <t>08.05.202570</t>
+  </si>
+  <si>
+    <t>08.05.202571</t>
+  </si>
+  <si>
+    <t>08.05.202572</t>
+  </si>
+  <si>
+    <t>08.05.202573</t>
+  </si>
+  <si>
+    <t>08.05.202574</t>
+  </si>
+  <si>
+    <t>08.05.202575</t>
+  </si>
+  <si>
+    <t>08.05.202576</t>
+  </si>
+  <si>
+    <t>08.05.202577</t>
+  </si>
+  <si>
+    <t>08.05.202578</t>
+  </si>
+  <si>
+    <t>08.05.202579</t>
+  </si>
+  <si>
+    <t>08.05.202580</t>
+  </si>
+  <si>
+    <t>08.05.202581</t>
+  </si>
+  <si>
+    <t>08.05.202582</t>
+  </si>
+  <si>
+    <t>08.05.202583</t>
+  </si>
+  <si>
+    <t>08.05.202584</t>
+  </si>
+  <si>
+    <t>08.05.202585</t>
+  </si>
+  <si>
+    <t>08.05.202586</t>
+  </si>
+  <si>
+    <t>08.05.202587</t>
+  </si>
+  <si>
+    <t>08.05.202588</t>
+  </si>
+  <si>
+    <t>08.05.202589</t>
+  </si>
+  <si>
+    <t>08.05.202590</t>
+  </si>
+  <si>
+    <t>08.05.202591</t>
+  </si>
+  <si>
+    <t>08.05.202592</t>
+  </si>
+  <si>
+    <t>08.05.202593</t>
+  </si>
+  <si>
+    <t>08.05.202594</t>
+  </si>
+  <si>
+    <t>08.05.202595</t>
+  </si>
+  <si>
+    <t>08.05.202596</t>
+  </si>
+  <si>
+    <t>09.05.20251</t>
+  </si>
+  <si>
+    <t>09.05.20252</t>
+  </si>
+  <si>
+    <t>09.05.20253</t>
+  </si>
+  <si>
+    <t>09.05.20254</t>
+  </si>
+  <si>
+    <t>09.05.20255</t>
+  </si>
+  <si>
+    <t>09.05.20256</t>
+  </si>
+  <si>
+    <t>09.05.20257</t>
+  </si>
+  <si>
+    <t>09.05.20258</t>
+  </si>
+  <si>
+    <t>09.05.20259</t>
+  </si>
+  <si>
+    <t>09.05.202510</t>
+  </si>
+  <si>
+    <t>09.05.202511</t>
+  </si>
+  <si>
+    <t>09.05.202512</t>
+  </si>
+  <si>
+    <t>09.05.202513</t>
+  </si>
+  <si>
+    <t>09.05.202514</t>
+  </si>
+  <si>
+    <t>09.05.202515</t>
+  </si>
+  <si>
+    <t>09.05.202516</t>
+  </si>
+  <si>
+    <t>09.05.202517</t>
+  </si>
+  <si>
+    <t>09.05.202518</t>
+  </si>
+  <si>
+    <t>09.05.202519</t>
+  </si>
+  <si>
+    <t>09.05.202520</t>
+  </si>
+  <si>
+    <t>09.05.202521</t>
+  </si>
+  <si>
+    <t>09.05.202522</t>
+  </si>
+  <si>
+    <t>09.05.202523</t>
+  </si>
+  <si>
+    <t>09.05.202524</t>
+  </si>
+  <si>
+    <t>09.05.202525</t>
+  </si>
+  <si>
+    <t>09.05.202526</t>
+  </si>
+  <si>
+    <t>09.05.202527</t>
+  </si>
+  <si>
+    <t>09.05.202528</t>
+  </si>
+  <si>
+    <t>09.05.202529</t>
+  </si>
+  <si>
+    <t>09.05.202530</t>
+  </si>
+  <si>
+    <t>09.05.202531</t>
+  </si>
+  <si>
+    <t>09.05.202532</t>
+  </si>
+  <si>
+    <t>09.05.202533</t>
+  </si>
+  <si>
+    <t>09.05.202534</t>
+  </si>
+  <si>
+    <t>09.05.202535</t>
+  </si>
+  <si>
+    <t>09.05.202536</t>
+  </si>
+  <si>
+    <t>09.05.202537</t>
+  </si>
+  <si>
+    <t>09.05.202538</t>
+  </si>
+  <si>
+    <t>09.05.202539</t>
+  </si>
+  <si>
+    <t>09.05.202540</t>
+  </si>
+  <si>
+    <t>09.05.202541</t>
+  </si>
+  <si>
+    <t>09.05.202542</t>
+  </si>
+  <si>
+    <t>09.05.202543</t>
+  </si>
+  <si>
+    <t>09.05.202544</t>
+  </si>
+  <si>
+    <t>09.05.202545</t>
+  </si>
+  <si>
+    <t>09.05.202546</t>
+  </si>
+  <si>
+    <t>09.05.202547</t>
+  </si>
+  <si>
+    <t>09.05.202548</t>
+  </si>
+  <si>
+    <t>09.05.202549</t>
+  </si>
+  <si>
+    <t>09.05.202550</t>
+  </si>
+  <si>
+    <t>09.05.202551</t>
+  </si>
+  <si>
+    <t>09.05.202552</t>
+  </si>
+  <si>
+    <t>09.05.202553</t>
+  </si>
+  <si>
+    <t>09.05.202554</t>
+  </si>
+  <si>
+    <t>09.05.202555</t>
+  </si>
+  <si>
+    <t>09.05.202556</t>
+  </si>
+  <si>
+    <t>09.05.202557</t>
+  </si>
+  <si>
+    <t>09.05.202558</t>
+  </si>
+  <si>
+    <t>09.05.202559</t>
+  </si>
+  <si>
+    <t>09.05.202560</t>
+  </si>
+  <si>
+    <t>09.05.202561</t>
+  </si>
+  <si>
+    <t>09.05.202562</t>
+  </si>
+  <si>
+    <t>09.05.202563</t>
+  </si>
+  <si>
+    <t>09.05.202564</t>
+  </si>
+  <si>
+    <t>09.05.202565</t>
+  </si>
+  <si>
+    <t>09.05.202566</t>
+  </si>
+  <si>
+    <t>09.05.202567</t>
+  </si>
+  <si>
+    <t>09.05.202568</t>
+  </si>
+  <si>
+    <t>09.05.202569</t>
+  </si>
+  <si>
+    <t>09.05.202570</t>
+  </si>
+  <si>
+    <t>09.05.202571</t>
+  </si>
+  <si>
+    <t>09.05.202572</t>
+  </si>
+  <si>
+    <t>09.05.202573</t>
+  </si>
+  <si>
+    <t>09.05.202574</t>
+  </si>
+  <si>
+    <t>09.05.202575</t>
+  </si>
+  <si>
+    <t>09.05.202576</t>
+  </si>
+  <si>
+    <t>09.05.202577</t>
+  </si>
+  <si>
+    <t>09.05.202578</t>
+  </si>
+  <si>
+    <t>09.05.202579</t>
+  </si>
+  <si>
+    <t>09.05.202580</t>
+  </si>
+  <si>
+    <t>09.05.202581</t>
+  </si>
+  <si>
+    <t>09.05.202582</t>
+  </si>
+  <si>
+    <t>09.05.202583</t>
+  </si>
+  <si>
+    <t>09.05.202584</t>
+  </si>
+  <si>
+    <t>09.05.202585</t>
+  </si>
+  <si>
+    <t>09.05.202586</t>
+  </si>
+  <si>
+    <t>09.05.202587</t>
+  </si>
+  <si>
+    <t>09.05.202588</t>
+  </si>
+  <si>
+    <t>09.05.202589</t>
+  </si>
+  <si>
+    <t>09.05.202590</t>
+  </si>
+  <si>
+    <t>09.05.202591</t>
+  </si>
+  <si>
+    <t>09.05.202592</t>
+  </si>
+  <si>
+    <t>09.05.202593</t>
+  </si>
+  <si>
+    <t>09.05.202594</t>
+  </si>
+  <si>
+    <t>09.05.202595</t>
+  </si>
+  <si>
+    <t>09.05.202596</t>
   </si>
 </sst>
 </file>
@@ -985,10 +985,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45775</v>
+        <v>45785</v>
       </c>
       <c r="B2">
-        <v>4877</v>
+        <v>5337</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -999,10 +999,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45775.01041666666</v>
+        <v>45785.01041666666</v>
       </c>
       <c r="B3">
-        <v>4885</v>
+        <v>5295</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45775.02083333334</v>
+        <v>45785.02083333334</v>
       </c>
       <c r="B4">
-        <v>4846</v>
+        <v>5215</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45775.03125</v>
+        <v>45785.03125</v>
       </c>
       <c r="B5">
-        <v>4847</v>
+        <v>5143</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45775.04166666666</v>
+        <v>45785.04166666666</v>
       </c>
       <c r="B6">
-        <v>4753</v>
+        <v>5148</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45775.05208333334</v>
+        <v>45785.05208333334</v>
       </c>
       <c r="B7">
-        <v>4784</v>
+        <v>5157</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45775.0625</v>
+        <v>45785.0625</v>
       </c>
       <c r="B8">
-        <v>4738</v>
+        <v>5132</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45775.07291666666</v>
+        <v>45785.07291666666</v>
       </c>
       <c r="B9">
-        <v>4745</v>
+        <v>5106</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45775.08333333334</v>
+        <v>45785.08333333334</v>
       </c>
       <c r="B10">
-        <v>4732</v>
+        <v>5085</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1111,10 +1111,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45775.09375</v>
+        <v>45785.09375</v>
       </c>
       <c r="B11">
-        <v>4731</v>
+        <v>5095</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45775.10416666666</v>
+        <v>45785.10416666666</v>
       </c>
       <c r="B12">
-        <v>4739</v>
+        <v>5075</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1139,10 +1139,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45775.11458333334</v>
+        <v>45785.11458333334</v>
       </c>
       <c r="B13">
-        <v>4758</v>
+        <v>5087</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45775.125</v>
+        <v>45785.125</v>
       </c>
       <c r="B14">
-        <v>4738</v>
+        <v>5134</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45775.13541666666</v>
+        <v>45785.13541666666</v>
       </c>
       <c r="B15">
-        <v>4820</v>
+        <v>5132</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1181,10 +1181,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45775.14583333334</v>
+        <v>45785.14583333334</v>
       </c>
       <c r="B16">
-        <v>4847</v>
+        <v>5110</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45775.15625</v>
+        <v>45785.15625</v>
       </c>
       <c r="B17">
-        <v>4889</v>
+        <v>5151</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1209,10 +1209,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45775.16666666666</v>
+        <v>45785.16666666666</v>
       </c>
       <c r="B18">
-        <v>4906</v>
+        <v>5189</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1223,10 +1223,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45775.17708333334</v>
+        <v>45785.17708333334</v>
       </c>
       <c r="B19">
-        <v>5044</v>
+        <v>5282</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1237,10 +1237,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45775.1875</v>
+        <v>45785.1875</v>
       </c>
       <c r="B20">
-        <v>5047</v>
+        <v>5230</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45775.19791666666</v>
+        <v>45785.19791666666</v>
       </c>
       <c r="B21">
-        <v>5118</v>
+        <v>5300</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45775.20833333334</v>
+        <v>45785.20833333334</v>
       </c>
       <c r="B22">
-        <v>5281</v>
+        <v>5377</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45775.21875</v>
+        <v>45785.21875</v>
       </c>
       <c r="B23">
-        <v>5405</v>
+        <v>5470</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1293,10 +1293,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45775.22916666666</v>
+        <v>45785.22916666666</v>
       </c>
       <c r="B24">
-        <v>5537</v>
+        <v>5542</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45775.23958333334</v>
+        <v>45785.23958333334</v>
       </c>
       <c r="B25">
-        <v>5653</v>
+        <v>5743</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45775.25</v>
+        <v>45785.25</v>
       </c>
       <c r="B26">
-        <v>5986</v>
+        <v>6029</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45775.26041666666</v>
+        <v>45785.26041666666</v>
       </c>
       <c r="B27">
-        <v>6089</v>
+        <v>6163</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45775.27083333334</v>
+        <v>45785.27083333334</v>
       </c>
       <c r="B28">
-        <v>6085</v>
+        <v>6191</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45775.28125</v>
+        <v>45785.28125</v>
       </c>
       <c r="B29">
-        <v>6150</v>
+        <v>6258</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45775.29166666666</v>
+        <v>45785.29166666666</v>
       </c>
       <c r="B30">
-        <v>6155</v>
+        <v>6325</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1391,10 +1391,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45775.30208333334</v>
+        <v>45785.30208333334</v>
       </c>
       <c r="B31">
-        <v>6211</v>
+        <v>6330</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45775.3125</v>
+        <v>45785.3125</v>
       </c>
       <c r="B32">
-        <v>6101</v>
+        <v>6348</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1419,10 +1419,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45775.32291666666</v>
+        <v>45785.32291666666</v>
       </c>
       <c r="B33">
-        <v>6077</v>
+        <v>6329</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1433,10 +1433,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45775.33333333334</v>
+        <v>45785.33333333334</v>
       </c>
       <c r="B34">
-        <v>5895</v>
+        <v>6262</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1447,10 +1447,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45775.34375</v>
+        <v>45785.34375</v>
       </c>
       <c r="B35">
-        <v>5808</v>
+        <v>6184</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45775.35416666666</v>
+        <v>45785.35416666666</v>
       </c>
       <c r="B36">
-        <v>5734</v>
+        <v>6189</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45775.36458333334</v>
+        <v>45785.36458333334</v>
       </c>
       <c r="B37">
-        <v>5654</v>
+        <v>6120</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1489,10 +1489,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45775.375</v>
+        <v>45785.375</v>
       </c>
       <c r="B38">
-        <v>5400</v>
+        <v>6119</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45775.38541666666</v>
+        <v>45785.38541666666</v>
       </c>
       <c r="B39">
-        <v>5282</v>
+        <v>6101</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45775.39583333334</v>
+        <v>45785.39583333334</v>
       </c>
       <c r="B40">
-        <v>5236</v>
+        <v>6079</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45775.40625</v>
+        <v>45785.40625</v>
       </c>
       <c r="B41">
-        <v>5221</v>
+        <v>6011</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45775.41666666666</v>
+        <v>45785.41666666666</v>
       </c>
       <c r="B42">
-        <v>4960</v>
+        <v>6012</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45775.42708333334</v>
+        <v>45785.42708333334</v>
       </c>
       <c r="B43">
-        <v>4864</v>
+        <v>5911</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45775.4375</v>
+        <v>45785.4375</v>
       </c>
       <c r="B44">
-        <v>4778</v>
+        <v>5998</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45775.44791666666</v>
+        <v>45785.44791666666</v>
       </c>
       <c r="B45">
-        <v>4797</v>
+        <v>5908</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45775.45833333334</v>
+        <v>45785.45833333334</v>
       </c>
       <c r="B46">
-        <v>4711</v>
+        <v>5886</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45775.46875</v>
+        <v>45785.46875</v>
       </c>
       <c r="B47">
-        <v>4733</v>
+        <v>5841</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45775.47916666666</v>
+        <v>45785.47916666666</v>
       </c>
       <c r="B48">
-        <v>4673</v>
+        <v>5864</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1643,10 +1643,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45775.48958333334</v>
+        <v>45785.48958333334</v>
       </c>
       <c r="B49">
-        <v>4640</v>
+        <v>5872</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45775.5</v>
+        <v>45785.5</v>
       </c>
       <c r="B50">
-        <v>4589</v>
+        <v>5806</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1671,10 +1671,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45775.51041666666</v>
+        <v>45785.51041666666</v>
       </c>
       <c r="B51">
-        <v>4622</v>
+        <v>5842</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45775.52083333334</v>
+        <v>45785.52083333334</v>
       </c>
       <c r="B52">
-        <v>4665</v>
+        <v>5907</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1699,10 +1699,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45775.53125</v>
+        <v>45785.53125</v>
       </c>
       <c r="B53">
-        <v>4594</v>
+        <v>5875</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45775.54166666666</v>
+        <v>45785.54166666666</v>
       </c>
       <c r="B54">
-        <v>4662</v>
+        <v>5856</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45775.55208333334</v>
+        <v>45785.55208333334</v>
       </c>
       <c r="B55">
-        <v>4712</v>
+        <v>5782</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45775.5625</v>
+        <v>45785.5625</v>
       </c>
       <c r="B56">
-        <v>4633</v>
+        <v>5731</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -1755,10 +1755,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45775.57291666666</v>
+        <v>45785.57291666666</v>
       </c>
       <c r="B57">
-        <v>4631</v>
+        <v>5748</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45775.58333333334</v>
+        <v>45785.58333333334</v>
       </c>
       <c r="B58">
-        <v>4656</v>
+        <v>5713</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45775.59375</v>
+        <v>45785.59375</v>
       </c>
       <c r="B59">
-        <v>4664</v>
+        <v>5658</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45775.60416666666</v>
+        <v>45785.60416666666</v>
       </c>
       <c r="B60">
-        <v>4637</v>
+        <v>5642</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -1811,10 +1811,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45775.61458333334</v>
+        <v>45785.61458333334</v>
       </c>
       <c r="B61">
-        <v>4761</v>
+        <v>5577</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45775.625</v>
+        <v>45785.625</v>
       </c>
       <c r="B62">
-        <v>4873</v>
+        <v>5677</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45775.63541666666</v>
+        <v>45785.63541666666</v>
       </c>
       <c r="B63">
-        <v>4942</v>
+        <v>5741</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -1853,10 +1853,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45775.64583333334</v>
+        <v>45785.64583333334</v>
       </c>
       <c r="B64">
-        <v>4928</v>
+        <v>5891</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45775.65625</v>
+        <v>45785.65625</v>
       </c>
       <c r="B65">
-        <v>4996</v>
+        <v>5950</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45775.66666666666</v>
+        <v>45785.66666666666</v>
       </c>
       <c r="B66">
-        <v>5239</v>
+        <v>5993</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45775.67708333334</v>
+        <v>45785.67708333334</v>
       </c>
       <c r="B67">
-        <v>5272</v>
+        <v>6044</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45775.6875</v>
+        <v>45785.6875</v>
       </c>
       <c r="B68">
-        <v>5404</v>
+        <v>6237</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45775.69791666666</v>
+        <v>45785.69791666666</v>
       </c>
       <c r="B69">
-        <v>5557</v>
+        <v>6309</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45775.70833333334</v>
+        <v>45785.70833333334</v>
       </c>
       <c r="B70">
-        <v>5725</v>
+        <v>6412</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45775.71875</v>
+        <v>45785.71875</v>
       </c>
       <c r="B71">
-        <v>5808</v>
+        <v>6479</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45775.72916666666</v>
+        <v>45785.72916666666</v>
       </c>
       <c r="B72">
-        <v>6002</v>
+        <v>6581</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45775.73958333334</v>
+        <v>45785.73958333334</v>
       </c>
       <c r="B73">
-        <v>6153</v>
+        <v>6637</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45775.75</v>
+        <v>45785.75</v>
       </c>
       <c r="B74">
-        <v>6342</v>
+        <v>6723</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -2007,10 +2007,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45775.76041666666</v>
+        <v>45785.76041666666</v>
       </c>
       <c r="B75">
-        <v>6409</v>
+        <v>6862</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45775.77083333334</v>
+        <v>45785.77083333334</v>
       </c>
       <c r="B76">
-        <v>6604</v>
+        <v>6877</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45775.78125</v>
+        <v>45785.78125</v>
       </c>
       <c r="B77">
-        <v>6682</v>
+        <v>6973</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -2049,10 +2049,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45775.79166666666</v>
+        <v>45785.79166666666</v>
       </c>
       <c r="B78">
-        <v>6838</v>
+        <v>7012</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45775.80208333334</v>
+        <v>45785.80208333334</v>
       </c>
       <c r="B79">
-        <v>6932</v>
+        <v>7105</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45775.8125</v>
+        <v>45785.8125</v>
       </c>
       <c r="B80">
-        <v>7164</v>
+        <v>7111</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45775.82291666666</v>
+        <v>45785.82291666666</v>
       </c>
       <c r="B81">
-        <v>7297</v>
+        <v>7163</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -2105,10 +2105,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45775.83333333334</v>
+        <v>45785.83333333334</v>
       </c>
       <c r="B82">
-        <v>7333</v>
+        <v>7108</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45775.84375</v>
+        <v>45785.84375</v>
       </c>
       <c r="B83">
-        <v>7250</v>
+        <v>7147</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -2133,10 +2133,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45775.85416666666</v>
+        <v>45785.85416666666</v>
       </c>
       <c r="B84">
-        <v>7204</v>
+        <v>7053</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45775.86458333334</v>
+        <v>45785.86458333334</v>
       </c>
       <c r="B85">
-        <v>7034</v>
+        <v>6918</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -2161,10 +2161,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45775.875</v>
+        <v>45785.875</v>
       </c>
       <c r="B86">
-        <v>6924</v>
+        <v>6649</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45775.88541666666</v>
+        <v>45785.88541666666</v>
       </c>
       <c r="B87">
-        <v>6706</v>
+        <v>6494</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -2189,10 +2189,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45775.89583333334</v>
+        <v>45785.89583333334</v>
       </c>
       <c r="B88">
-        <v>6465</v>
+        <v>6373</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45775.90625</v>
+        <v>45785.90625</v>
       </c>
       <c r="B89">
-        <v>6359</v>
+        <v>6197</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45775.91666666666</v>
+        <v>45785.91666666666</v>
       </c>
       <c r="B90">
-        <v>6136</v>
+        <v>6054</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45775.92708333334</v>
+        <v>45785.92708333334</v>
       </c>
       <c r="B91">
-        <v>6013</v>
+        <v>5951</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45775.9375</v>
+        <v>45785.9375</v>
       </c>
       <c r="B92">
-        <v>5866</v>
+        <v>5854</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45775.94791666666</v>
+        <v>45785.94791666666</v>
       </c>
       <c r="B93">
-        <v>5780</v>
+        <v>5764</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -2273,10 +2273,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45775.95833333334</v>
+        <v>45785.95833333334</v>
       </c>
       <c r="B94">
-        <v>5691</v>
+        <v>5586</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45775.96875</v>
+        <v>45785.96875</v>
       </c>
       <c r="B95">
-        <v>5608</v>
+        <v>5535</v>
       </c>
       <c r="C95">
         <v>94</v>
@@ -2301,10 +2301,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45775.97916666666</v>
+        <v>45785.97916666666</v>
       </c>
       <c r="B96">
-        <v>5521</v>
+        <v>5472</v>
       </c>
       <c r="C96">
         <v>95</v>
@@ -2315,10 +2315,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>45775.98958333334</v>
+        <v>45785.98958333334</v>
       </c>
       <c r="B97">
-        <v>5483</v>
+        <v>5420</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>45776</v>
+        <v>45786</v>
       </c>
       <c r="B98">
-        <v>5361</v>
+        <v>5279</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>45776.01041666666</v>
+        <v>45786.01041666666</v>
       </c>
       <c r="B99">
-        <v>5319</v>
+        <v>5265</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>45776.02083333334</v>
+        <v>45786.02083333334</v>
       </c>
       <c r="B100">
-        <v>5244</v>
+        <v>5297</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2371,10 +2371,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>45776.03125</v>
+        <v>45786.03125</v>
       </c>
       <c r="B101">
-        <v>5291</v>
+        <v>5226</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>45776.04166666666</v>
+        <v>45786.04166666666</v>
       </c>
       <c r="B102">
-        <v>5231</v>
+        <v>5183</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>45776.05208333334</v>
+        <v>45786.05208333334</v>
       </c>
       <c r="B103">
-        <v>5220</v>
+        <v>5172</v>
       </c>
       <c r="C103">
         <v>6</v>
@@ -2413,10 +2413,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>45776.0625</v>
+        <v>45786.0625</v>
       </c>
       <c r="B104">
-        <v>5166</v>
+        <v>5168</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -2427,10 +2427,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>45776.07291666666</v>
+        <v>45786.07291666666</v>
       </c>
       <c r="B105">
-        <v>5164</v>
+        <v>5135</v>
       </c>
       <c r="C105">
         <v>8</v>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>45776.08333333334</v>
+        <v>45786.08333333334</v>
       </c>
       <c r="B106">
-        <v>5135</v>
+        <v>5061</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -2455,10 +2455,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>45776.09375</v>
+        <v>45786.09375</v>
       </c>
       <c r="B107">
-        <v>5122</v>
+        <v>5097</v>
       </c>
       <c r="C107">
         <v>10</v>
@@ -2469,10 +2469,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>45776.10416666666</v>
+        <v>45786.10416666666</v>
       </c>
       <c r="B108">
-        <v>5098</v>
+        <v>5063</v>
       </c>
       <c r="C108">
         <v>11</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>45776.11458333334</v>
+        <v>45786.11458333334</v>
       </c>
       <c r="B109">
-        <v>5145</v>
+        <v>5097</v>
       </c>
       <c r="C109">
         <v>12</v>
@@ -2497,10 +2497,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>45776.125</v>
+        <v>45786.125</v>
       </c>
       <c r="B110">
-        <v>5179</v>
+        <v>5124</v>
       </c>
       <c r="C110">
         <v>13</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>45776.13541666666</v>
+        <v>45786.13541666666</v>
       </c>
       <c r="B111">
-        <v>5172</v>
+        <v>5111</v>
       </c>
       <c r="C111">
         <v>14</v>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>45776.14583333334</v>
+        <v>45786.14583333334</v>
       </c>
       <c r="B112">
-        <v>5196</v>
+        <v>5157</v>
       </c>
       <c r="C112">
         <v>15</v>
@@ -2539,10 +2539,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>45776.15625</v>
+        <v>45786.15625</v>
       </c>
       <c r="B113">
-        <v>5258</v>
+        <v>5181</v>
       </c>
       <c r="C113">
         <v>16</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>45776.16666666666</v>
+        <v>45786.16666666666</v>
       </c>
       <c r="B114">
-        <v>5319</v>
+        <v>5240</v>
       </c>
       <c r="C114">
         <v>17</v>
@@ -2567,10 +2567,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>45776.17708333334</v>
+        <v>45786.17708333334</v>
       </c>
       <c r="B115">
-        <v>5315</v>
+        <v>5239</v>
       </c>
       <c r="C115">
         <v>18</v>
@@ -2581,10 +2581,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>45776.1875</v>
+        <v>45786.1875</v>
       </c>
       <c r="B116">
-        <v>5409</v>
+        <v>5239</v>
       </c>
       <c r="C116">
         <v>19</v>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>45776.19791666666</v>
+        <v>45786.19791666666</v>
       </c>
       <c r="B117">
-        <v>5469</v>
+        <v>5255</v>
       </c>
       <c r="C117">
         <v>20</v>
@@ -2609,10 +2609,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>45776.20833333334</v>
+        <v>45786.20833333334</v>
       </c>
       <c r="B118">
-        <v>5624</v>
+        <v>5307</v>
       </c>
       <c r="C118">
         <v>21</v>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>45776.21875</v>
+        <v>45786.21875</v>
       </c>
       <c r="B119">
-        <v>5659</v>
+        <v>5417</v>
       </c>
       <c r="C119">
         <v>22</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>45776.22916666666</v>
+        <v>45786.22916666666</v>
       </c>
       <c r="B120">
-        <v>5770</v>
+        <v>5522</v>
       </c>
       <c r="C120">
         <v>23</v>
@@ -2651,10 +2651,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>45776.23958333334</v>
+        <v>45786.23958333334</v>
       </c>
       <c r="B121">
-        <v>5864</v>
+        <v>5657</v>
       </c>
       <c r="C121">
         <v>24</v>
@@ -2665,10 +2665,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>45776.25</v>
+        <v>45786.25</v>
       </c>
       <c r="B122">
-        <v>6049</v>
+        <v>5807</v>
       </c>
       <c r="C122">
         <v>25</v>
@@ -2679,10 +2679,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>45776.26041666666</v>
+        <v>45786.26041666666</v>
       </c>
       <c r="B123">
-        <v>6144</v>
+        <v>0</v>
       </c>
       <c r="C123">
         <v>26</v>
@@ -2693,10 +2693,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>45776.27083333334</v>
+        <v>45786.27083333334</v>
       </c>
       <c r="B124">
-        <v>6175</v>
+        <v>0</v>
       </c>
       <c r="C124">
         <v>27</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>45776.28125</v>
+        <v>45786.28125</v>
       </c>
       <c r="B125">
-        <v>6170</v>
+        <v>0</v>
       </c>
       <c r="C125">
         <v>28</v>
@@ -2721,10 +2721,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>45776.29166666666</v>
+        <v>45786.29166666666</v>
       </c>
       <c r="B126">
-        <v>6108</v>
+        <v>0</v>
       </c>
       <c r="C126">
         <v>29</v>
@@ -2735,10 +2735,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>45776.30208333334</v>
+        <v>45786.30208333334</v>
       </c>
       <c r="B127">
-        <v>6080</v>
+        <v>0</v>
       </c>
       <c r="C127">
         <v>30</v>
@@ -2749,10 +2749,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>45776.3125</v>
+        <v>45786.3125</v>
       </c>
       <c r="B128">
-        <v>6022</v>
+        <v>0</v>
       </c>
       <c r="C128">
         <v>31</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>45776.32291666666</v>
+        <v>45786.32291666666</v>
       </c>
       <c r="B129">
-        <v>5981</v>
+        <v>0</v>
       </c>
       <c r="C129">
         <v>32</v>
@@ -2777,10 +2777,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>45776.33333333334</v>
+        <v>45786.33333333334</v>
       </c>
       <c r="B130">
-        <v>5736</v>
+        <v>0</v>
       </c>
       <c r="C130">
         <v>33</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>45776.34375</v>
+        <v>45786.34375</v>
       </c>
       <c r="B131">
-        <v>5682</v>
+        <v>0</v>
       </c>
       <c r="C131">
         <v>34</v>
@@ -2805,10 +2805,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>45776.35416666666</v>
+        <v>45786.35416666666</v>
       </c>
       <c r="B132">
-        <v>5572</v>
+        <v>0</v>
       </c>
       <c r="C132">
         <v>35</v>
@@ -2819,10 +2819,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>45776.36458333334</v>
+        <v>45786.36458333334</v>
       </c>
       <c r="B133">
-        <v>5440</v>
+        <v>0</v>
       </c>
       <c r="C133">
         <v>36</v>
@@ -2833,10 +2833,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>45776.375</v>
+        <v>45786.375</v>
       </c>
       <c r="B134">
-        <v>5198</v>
+        <v>0</v>
       </c>
       <c r="C134">
         <v>37</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>45776.38541666666</v>
+        <v>45786.38541666666</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>45776.39583333334</v>
+        <v>45786.39583333334</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>45776.40625</v>
+        <v>45786.40625</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>45776.41666666666</v>
+        <v>45786.41666666666</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>45776.42708333334</v>
+        <v>45786.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>45776.4375</v>
+        <v>45786.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>45776.44791666666</v>
+        <v>45786.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>45776.45833333334</v>
+        <v>45786.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>45776.46875</v>
+        <v>45786.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>45776.47916666666</v>
+        <v>45786.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>45776.48958333334</v>
+        <v>45786.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>45776.5</v>
+        <v>45786.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>45776.51041666666</v>
+        <v>45786.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>45776.52083333334</v>
+        <v>45786.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>45776.53125</v>
+        <v>45786.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>45776.54166666666</v>
+        <v>45786.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>45776.55208333334</v>
+        <v>45786.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>45776.5625</v>
+        <v>45786.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>45776.57291666666</v>
+        <v>45786.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>45776.58333333334</v>
+        <v>45786.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>45776.59375</v>
+        <v>45786.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>45776.60416666666</v>
+        <v>45786.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>45776.61458333334</v>
+        <v>45786.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>45776.625</v>
+        <v>45786.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>45776.63541666666</v>
+        <v>45786.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>45776.64583333334</v>
+        <v>45786.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>45776.65625</v>
+        <v>45786.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>45776.66666666666</v>
+        <v>45786.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>45776.67708333334</v>
+        <v>45786.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>45776.6875</v>
+        <v>45786.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>45776.69791666666</v>
+        <v>45786.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>45776.70833333334</v>
+        <v>45786.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>45776.71875</v>
+        <v>45786.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>45776.72916666666</v>
+        <v>45786.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>45776.73958333334</v>
+        <v>45786.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>45776.75</v>
+        <v>45786.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>45776.76041666666</v>
+        <v>45786.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>45776.77083333334</v>
+        <v>45786.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>45776.78125</v>
+        <v>45786.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>45776.79166666666</v>
+        <v>45786.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>45776.80208333334</v>
+        <v>45786.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>45776.8125</v>
+        <v>45786.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>45776.82291666666</v>
+        <v>45786.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>45776.83333333334</v>
+        <v>45786.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>45776.84375</v>
+        <v>45786.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>45776.85416666666</v>
+        <v>45786.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>45776.86458333334</v>
+        <v>45786.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>45776.875</v>
+        <v>45786.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>45776.88541666666</v>
+        <v>45786.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>45776.89583333334</v>
+        <v>45786.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>45776.90625</v>
+        <v>45786.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>45776.91666666666</v>
+        <v>45786.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>45776.92708333334</v>
+        <v>45786.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>45776.9375</v>
+        <v>45786.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>45776.94791666666</v>
+        <v>45786.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>45776.95833333334</v>
+        <v>45786.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>45776.96875</v>
+        <v>45786.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>45776.97916666666</v>
+        <v>45786.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>45776.98958333334</v>
+        <v>45786.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
@@ -28,580 +28,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>08.05.20251</t>
-  </si>
-  <si>
-    <t>08.05.20252</t>
-  </si>
-  <si>
-    <t>08.05.20253</t>
-  </si>
-  <si>
-    <t>08.05.20254</t>
-  </si>
-  <si>
-    <t>08.05.20255</t>
-  </si>
-  <si>
-    <t>08.05.20256</t>
-  </si>
-  <si>
-    <t>08.05.20257</t>
-  </si>
-  <si>
-    <t>08.05.20258</t>
-  </si>
-  <si>
-    <t>08.05.20259</t>
-  </si>
-  <si>
-    <t>08.05.202510</t>
-  </si>
-  <si>
-    <t>08.05.202511</t>
-  </si>
-  <si>
-    <t>08.05.202512</t>
-  </si>
-  <si>
-    <t>08.05.202513</t>
-  </si>
-  <si>
-    <t>08.05.202514</t>
-  </si>
-  <si>
-    <t>08.05.202515</t>
-  </si>
-  <si>
-    <t>08.05.202516</t>
-  </si>
-  <si>
-    <t>08.05.202517</t>
-  </si>
-  <si>
-    <t>08.05.202518</t>
-  </si>
-  <si>
-    <t>08.05.202519</t>
-  </si>
-  <si>
-    <t>08.05.202520</t>
-  </si>
-  <si>
-    <t>08.05.202521</t>
-  </si>
-  <si>
-    <t>08.05.202522</t>
-  </si>
-  <si>
-    <t>08.05.202523</t>
-  </si>
-  <si>
-    <t>08.05.202524</t>
-  </si>
-  <si>
-    <t>08.05.202525</t>
-  </si>
-  <si>
-    <t>08.05.202526</t>
-  </si>
-  <si>
-    <t>08.05.202527</t>
-  </si>
-  <si>
-    <t>08.05.202528</t>
-  </si>
-  <si>
-    <t>08.05.202529</t>
-  </si>
-  <si>
-    <t>08.05.202530</t>
-  </si>
-  <si>
-    <t>08.05.202531</t>
-  </si>
-  <si>
-    <t>08.05.202532</t>
-  </si>
-  <si>
-    <t>08.05.202533</t>
-  </si>
-  <si>
-    <t>08.05.202534</t>
-  </si>
-  <si>
-    <t>08.05.202535</t>
-  </si>
-  <si>
-    <t>08.05.202536</t>
-  </si>
-  <si>
-    <t>08.05.202537</t>
-  </si>
-  <si>
-    <t>08.05.202538</t>
-  </si>
-  <si>
-    <t>08.05.202539</t>
-  </si>
-  <si>
-    <t>08.05.202540</t>
-  </si>
-  <si>
-    <t>08.05.202541</t>
-  </si>
-  <si>
-    <t>08.05.202542</t>
-  </si>
-  <si>
-    <t>08.05.202543</t>
-  </si>
-  <si>
-    <t>08.05.202544</t>
-  </si>
-  <si>
-    <t>08.05.202545</t>
-  </si>
-  <si>
-    <t>08.05.202546</t>
-  </si>
-  <si>
-    <t>08.05.202547</t>
-  </si>
-  <si>
-    <t>08.05.202548</t>
-  </si>
-  <si>
-    <t>08.05.202549</t>
-  </si>
-  <si>
-    <t>08.05.202550</t>
-  </si>
-  <si>
-    <t>08.05.202551</t>
-  </si>
-  <si>
-    <t>08.05.202552</t>
-  </si>
-  <si>
-    <t>08.05.202553</t>
-  </si>
-  <si>
-    <t>08.05.202554</t>
-  </si>
-  <si>
-    <t>08.05.202555</t>
-  </si>
-  <si>
-    <t>08.05.202556</t>
-  </si>
-  <si>
-    <t>08.05.202557</t>
-  </si>
-  <si>
-    <t>08.05.202558</t>
-  </si>
-  <si>
-    <t>08.05.202559</t>
-  </si>
-  <si>
-    <t>08.05.202560</t>
-  </si>
-  <si>
-    <t>08.05.202561</t>
-  </si>
-  <si>
-    <t>08.05.202562</t>
-  </si>
-  <si>
-    <t>08.05.202563</t>
-  </si>
-  <si>
-    <t>08.05.202564</t>
-  </si>
-  <si>
-    <t>08.05.202565</t>
-  </si>
-  <si>
-    <t>08.05.202566</t>
-  </si>
-  <si>
-    <t>08.05.202567</t>
-  </si>
-  <si>
-    <t>08.05.202568</t>
-  </si>
-  <si>
-    <t>08.05.202569</t>
-  </si>
-  <si>
-    <t>08.05.202570</t>
-  </si>
-  <si>
-    <t>08.05.202571</t>
-  </si>
-  <si>
-    <t>08.05.202572</t>
-  </si>
-  <si>
-    <t>08.05.202573</t>
-  </si>
-  <si>
-    <t>08.05.202574</t>
-  </si>
-  <si>
-    <t>08.05.202575</t>
-  </si>
-  <si>
-    <t>08.05.202576</t>
-  </si>
-  <si>
-    <t>08.05.202577</t>
-  </si>
-  <si>
-    <t>08.05.202578</t>
-  </si>
-  <si>
-    <t>08.05.202579</t>
-  </si>
-  <si>
-    <t>08.05.202580</t>
-  </si>
-  <si>
-    <t>08.05.202581</t>
-  </si>
-  <si>
-    <t>08.05.202582</t>
-  </si>
-  <si>
-    <t>08.05.202583</t>
-  </si>
-  <si>
-    <t>08.05.202584</t>
-  </si>
-  <si>
-    <t>08.05.202585</t>
-  </si>
-  <si>
-    <t>08.05.202586</t>
-  </si>
-  <si>
-    <t>08.05.202587</t>
-  </si>
-  <si>
-    <t>08.05.202588</t>
-  </si>
-  <si>
-    <t>08.05.202589</t>
-  </si>
-  <si>
-    <t>08.05.202590</t>
-  </si>
-  <si>
-    <t>08.05.202591</t>
-  </si>
-  <si>
-    <t>08.05.202592</t>
-  </si>
-  <si>
-    <t>08.05.202593</t>
-  </si>
-  <si>
-    <t>08.05.202594</t>
-  </si>
-  <si>
-    <t>08.05.202595</t>
-  </si>
-  <si>
-    <t>08.05.202596</t>
-  </si>
-  <si>
-    <t>09.05.20251</t>
-  </si>
-  <si>
-    <t>09.05.20252</t>
-  </si>
-  <si>
-    <t>09.05.20253</t>
-  </si>
-  <si>
-    <t>09.05.20254</t>
-  </si>
-  <si>
-    <t>09.05.20255</t>
-  </si>
-  <si>
-    <t>09.05.20256</t>
-  </si>
-  <si>
-    <t>09.05.20257</t>
-  </si>
-  <si>
-    <t>09.05.20258</t>
-  </si>
-  <si>
-    <t>09.05.20259</t>
-  </si>
-  <si>
-    <t>09.05.202510</t>
-  </si>
-  <si>
-    <t>09.05.202511</t>
-  </si>
-  <si>
-    <t>09.05.202512</t>
-  </si>
-  <si>
-    <t>09.05.202513</t>
-  </si>
-  <si>
-    <t>09.05.202514</t>
-  </si>
-  <si>
-    <t>09.05.202515</t>
-  </si>
-  <si>
-    <t>09.05.202516</t>
-  </si>
-  <si>
-    <t>09.05.202517</t>
-  </si>
-  <si>
-    <t>09.05.202518</t>
-  </si>
-  <si>
-    <t>09.05.202519</t>
-  </si>
-  <si>
-    <t>09.05.202520</t>
-  </si>
-  <si>
-    <t>09.05.202521</t>
-  </si>
-  <si>
-    <t>09.05.202522</t>
-  </si>
-  <si>
-    <t>09.05.202523</t>
-  </si>
-  <si>
-    <t>09.05.202524</t>
-  </si>
-  <si>
-    <t>09.05.202525</t>
-  </si>
-  <si>
-    <t>09.05.202526</t>
-  </si>
-  <si>
-    <t>09.05.202527</t>
-  </si>
-  <si>
-    <t>09.05.202528</t>
-  </si>
-  <si>
-    <t>09.05.202529</t>
-  </si>
-  <si>
-    <t>09.05.202530</t>
-  </si>
-  <si>
-    <t>09.05.202531</t>
-  </si>
-  <si>
-    <t>09.05.202532</t>
-  </si>
-  <si>
-    <t>09.05.202533</t>
-  </si>
-  <si>
-    <t>09.05.202534</t>
-  </si>
-  <si>
-    <t>09.05.202535</t>
-  </si>
-  <si>
-    <t>09.05.202536</t>
-  </si>
-  <si>
-    <t>09.05.202537</t>
-  </si>
-  <si>
-    <t>09.05.202538</t>
-  </si>
-  <si>
-    <t>09.05.202539</t>
-  </si>
-  <si>
-    <t>09.05.202540</t>
-  </si>
-  <si>
-    <t>09.05.202541</t>
-  </si>
-  <si>
-    <t>09.05.202542</t>
-  </si>
-  <si>
-    <t>09.05.202543</t>
-  </si>
-  <si>
-    <t>09.05.202544</t>
-  </si>
-  <si>
-    <t>09.05.202545</t>
-  </si>
-  <si>
-    <t>09.05.202546</t>
-  </si>
-  <si>
-    <t>09.05.202547</t>
-  </si>
-  <si>
-    <t>09.05.202548</t>
-  </si>
-  <si>
-    <t>09.05.202549</t>
-  </si>
-  <si>
-    <t>09.05.202550</t>
-  </si>
-  <si>
-    <t>09.05.202551</t>
-  </si>
-  <si>
-    <t>09.05.202552</t>
-  </si>
-  <si>
-    <t>09.05.202553</t>
-  </si>
-  <si>
-    <t>09.05.202554</t>
-  </si>
-  <si>
-    <t>09.05.202555</t>
-  </si>
-  <si>
-    <t>09.05.202556</t>
-  </si>
-  <si>
-    <t>09.05.202557</t>
-  </si>
-  <si>
-    <t>09.05.202558</t>
-  </si>
-  <si>
-    <t>09.05.202559</t>
-  </si>
-  <si>
-    <t>09.05.202560</t>
-  </si>
-  <si>
-    <t>09.05.202561</t>
-  </si>
-  <si>
-    <t>09.05.202562</t>
-  </si>
-  <si>
-    <t>09.05.202563</t>
-  </si>
-  <si>
-    <t>09.05.202564</t>
-  </si>
-  <si>
-    <t>09.05.202565</t>
-  </si>
-  <si>
-    <t>09.05.202566</t>
-  </si>
-  <si>
-    <t>09.05.202567</t>
-  </si>
-  <si>
-    <t>09.05.202568</t>
-  </si>
-  <si>
-    <t>09.05.202569</t>
-  </si>
-  <si>
-    <t>09.05.202570</t>
-  </si>
-  <si>
-    <t>09.05.202571</t>
-  </si>
-  <si>
-    <t>09.05.202572</t>
-  </si>
-  <si>
-    <t>09.05.202573</t>
-  </si>
-  <si>
-    <t>09.05.202574</t>
-  </si>
-  <si>
-    <t>09.05.202575</t>
-  </si>
-  <si>
-    <t>09.05.202576</t>
-  </si>
-  <si>
-    <t>09.05.202577</t>
-  </si>
-  <si>
-    <t>09.05.202578</t>
-  </si>
-  <si>
-    <t>09.05.202579</t>
-  </si>
-  <si>
-    <t>09.05.202580</t>
-  </si>
-  <si>
-    <t>09.05.202581</t>
-  </si>
-  <si>
-    <t>09.05.202582</t>
-  </si>
-  <si>
-    <t>09.05.202583</t>
-  </si>
-  <si>
-    <t>09.05.202584</t>
-  </si>
-  <si>
-    <t>09.05.202585</t>
-  </si>
-  <si>
-    <t>09.05.202586</t>
-  </si>
-  <si>
-    <t>09.05.202587</t>
-  </si>
-  <si>
-    <t>09.05.202588</t>
-  </si>
-  <si>
-    <t>09.05.202589</t>
-  </si>
-  <si>
-    <t>09.05.202590</t>
-  </si>
-  <si>
-    <t>09.05.202591</t>
-  </si>
-  <si>
-    <t>09.05.202592</t>
-  </si>
-  <si>
-    <t>09.05.202593</t>
-  </si>
-  <si>
-    <t>09.05.202594</t>
-  </si>
-  <si>
-    <t>09.05.202595</t>
-  </si>
-  <si>
-    <t>09.05.202596</t>
+    <t>19.05.20251</t>
+  </si>
+  <si>
+    <t>19.05.20252</t>
+  </si>
+  <si>
+    <t>19.05.20253</t>
+  </si>
+  <si>
+    <t>19.05.20254</t>
+  </si>
+  <si>
+    <t>19.05.20255</t>
+  </si>
+  <si>
+    <t>19.05.20256</t>
+  </si>
+  <si>
+    <t>19.05.20257</t>
+  </si>
+  <si>
+    <t>19.05.20258</t>
+  </si>
+  <si>
+    <t>19.05.20259</t>
+  </si>
+  <si>
+    <t>19.05.202510</t>
+  </si>
+  <si>
+    <t>19.05.202511</t>
+  </si>
+  <si>
+    <t>19.05.202512</t>
+  </si>
+  <si>
+    <t>19.05.202513</t>
+  </si>
+  <si>
+    <t>19.05.202514</t>
+  </si>
+  <si>
+    <t>19.05.202515</t>
+  </si>
+  <si>
+    <t>19.05.202516</t>
+  </si>
+  <si>
+    <t>19.05.202517</t>
+  </si>
+  <si>
+    <t>19.05.202518</t>
+  </si>
+  <si>
+    <t>19.05.202519</t>
+  </si>
+  <si>
+    <t>19.05.202520</t>
+  </si>
+  <si>
+    <t>19.05.202521</t>
+  </si>
+  <si>
+    <t>19.05.202522</t>
+  </si>
+  <si>
+    <t>19.05.202523</t>
+  </si>
+  <si>
+    <t>19.05.202524</t>
+  </si>
+  <si>
+    <t>19.05.202525</t>
+  </si>
+  <si>
+    <t>19.05.202526</t>
+  </si>
+  <si>
+    <t>19.05.202527</t>
+  </si>
+  <si>
+    <t>19.05.202528</t>
+  </si>
+  <si>
+    <t>19.05.202529</t>
+  </si>
+  <si>
+    <t>19.05.202530</t>
+  </si>
+  <si>
+    <t>19.05.202531</t>
+  </si>
+  <si>
+    <t>19.05.202532</t>
+  </si>
+  <si>
+    <t>19.05.202533</t>
+  </si>
+  <si>
+    <t>19.05.202534</t>
+  </si>
+  <si>
+    <t>19.05.202535</t>
+  </si>
+  <si>
+    <t>19.05.202536</t>
+  </si>
+  <si>
+    <t>19.05.202537</t>
+  </si>
+  <si>
+    <t>19.05.202538</t>
+  </si>
+  <si>
+    <t>19.05.202539</t>
+  </si>
+  <si>
+    <t>19.05.202540</t>
+  </si>
+  <si>
+    <t>19.05.202541</t>
+  </si>
+  <si>
+    <t>19.05.202542</t>
+  </si>
+  <si>
+    <t>19.05.202543</t>
+  </si>
+  <si>
+    <t>19.05.202544</t>
+  </si>
+  <si>
+    <t>19.05.202545</t>
+  </si>
+  <si>
+    <t>19.05.202546</t>
+  </si>
+  <si>
+    <t>19.05.202547</t>
+  </si>
+  <si>
+    <t>19.05.202548</t>
+  </si>
+  <si>
+    <t>19.05.202549</t>
+  </si>
+  <si>
+    <t>19.05.202550</t>
+  </si>
+  <si>
+    <t>19.05.202551</t>
+  </si>
+  <si>
+    <t>19.05.202552</t>
+  </si>
+  <si>
+    <t>19.05.202553</t>
+  </si>
+  <si>
+    <t>19.05.202554</t>
+  </si>
+  <si>
+    <t>19.05.202555</t>
+  </si>
+  <si>
+    <t>19.05.202556</t>
+  </si>
+  <si>
+    <t>19.05.202557</t>
+  </si>
+  <si>
+    <t>19.05.202558</t>
+  </si>
+  <si>
+    <t>19.05.202559</t>
+  </si>
+  <si>
+    <t>19.05.202560</t>
+  </si>
+  <si>
+    <t>19.05.202561</t>
+  </si>
+  <si>
+    <t>19.05.202562</t>
+  </si>
+  <si>
+    <t>19.05.202563</t>
+  </si>
+  <si>
+    <t>19.05.202564</t>
+  </si>
+  <si>
+    <t>19.05.202565</t>
+  </si>
+  <si>
+    <t>19.05.202566</t>
+  </si>
+  <si>
+    <t>19.05.202567</t>
+  </si>
+  <si>
+    <t>19.05.202568</t>
+  </si>
+  <si>
+    <t>19.05.202569</t>
+  </si>
+  <si>
+    <t>19.05.202570</t>
+  </si>
+  <si>
+    <t>19.05.202571</t>
+  </si>
+  <si>
+    <t>19.05.202572</t>
+  </si>
+  <si>
+    <t>19.05.202573</t>
+  </si>
+  <si>
+    <t>19.05.202574</t>
+  </si>
+  <si>
+    <t>19.05.202575</t>
+  </si>
+  <si>
+    <t>19.05.202576</t>
+  </si>
+  <si>
+    <t>19.05.202577</t>
+  </si>
+  <si>
+    <t>19.05.202578</t>
+  </si>
+  <si>
+    <t>19.05.202579</t>
+  </si>
+  <si>
+    <t>19.05.202580</t>
+  </si>
+  <si>
+    <t>19.05.202581</t>
+  </si>
+  <si>
+    <t>19.05.202582</t>
+  </si>
+  <si>
+    <t>19.05.202583</t>
+  </si>
+  <si>
+    <t>19.05.202584</t>
+  </si>
+  <si>
+    <t>19.05.202585</t>
+  </si>
+  <si>
+    <t>19.05.202586</t>
+  </si>
+  <si>
+    <t>19.05.202587</t>
+  </si>
+  <si>
+    <t>19.05.202588</t>
+  </si>
+  <si>
+    <t>19.05.202589</t>
+  </si>
+  <si>
+    <t>19.05.202590</t>
+  </si>
+  <si>
+    <t>19.05.202591</t>
+  </si>
+  <si>
+    <t>19.05.202592</t>
+  </si>
+  <si>
+    <t>19.05.202593</t>
+  </si>
+  <si>
+    <t>19.05.202594</t>
+  </si>
+  <si>
+    <t>19.05.202595</t>
+  </si>
+  <si>
+    <t>19.05.202596</t>
+  </si>
+  <si>
+    <t>20.05.20251</t>
+  </si>
+  <si>
+    <t>20.05.20252</t>
+  </si>
+  <si>
+    <t>20.05.20253</t>
+  </si>
+  <si>
+    <t>20.05.20254</t>
+  </si>
+  <si>
+    <t>20.05.20255</t>
+  </si>
+  <si>
+    <t>20.05.20256</t>
+  </si>
+  <si>
+    <t>20.05.20257</t>
+  </si>
+  <si>
+    <t>20.05.20258</t>
+  </si>
+  <si>
+    <t>20.05.20259</t>
+  </si>
+  <si>
+    <t>20.05.202510</t>
+  </si>
+  <si>
+    <t>20.05.202511</t>
+  </si>
+  <si>
+    <t>20.05.202512</t>
+  </si>
+  <si>
+    <t>20.05.202513</t>
+  </si>
+  <si>
+    <t>20.05.202514</t>
+  </si>
+  <si>
+    <t>20.05.202515</t>
+  </si>
+  <si>
+    <t>20.05.202516</t>
+  </si>
+  <si>
+    <t>20.05.202517</t>
+  </si>
+  <si>
+    <t>20.05.202518</t>
+  </si>
+  <si>
+    <t>20.05.202519</t>
+  </si>
+  <si>
+    <t>20.05.202520</t>
+  </si>
+  <si>
+    <t>20.05.202521</t>
+  </si>
+  <si>
+    <t>20.05.202522</t>
+  </si>
+  <si>
+    <t>20.05.202523</t>
+  </si>
+  <si>
+    <t>20.05.202524</t>
+  </si>
+  <si>
+    <t>20.05.202525</t>
+  </si>
+  <si>
+    <t>20.05.202526</t>
+  </si>
+  <si>
+    <t>20.05.202527</t>
+  </si>
+  <si>
+    <t>20.05.202528</t>
+  </si>
+  <si>
+    <t>20.05.202529</t>
+  </si>
+  <si>
+    <t>20.05.202530</t>
+  </si>
+  <si>
+    <t>20.05.202531</t>
+  </si>
+  <si>
+    <t>20.05.202532</t>
+  </si>
+  <si>
+    <t>20.05.202533</t>
+  </si>
+  <si>
+    <t>20.05.202534</t>
+  </si>
+  <si>
+    <t>20.05.202535</t>
+  </si>
+  <si>
+    <t>20.05.202536</t>
+  </si>
+  <si>
+    <t>20.05.202537</t>
+  </si>
+  <si>
+    <t>20.05.202538</t>
+  </si>
+  <si>
+    <t>20.05.202539</t>
+  </si>
+  <si>
+    <t>20.05.202540</t>
+  </si>
+  <si>
+    <t>20.05.202541</t>
+  </si>
+  <si>
+    <t>20.05.202542</t>
+  </si>
+  <si>
+    <t>20.05.202543</t>
+  </si>
+  <si>
+    <t>20.05.202544</t>
+  </si>
+  <si>
+    <t>20.05.202545</t>
+  </si>
+  <si>
+    <t>20.05.202546</t>
+  </si>
+  <si>
+    <t>20.05.202547</t>
+  </si>
+  <si>
+    <t>20.05.202548</t>
+  </si>
+  <si>
+    <t>20.05.202549</t>
+  </si>
+  <si>
+    <t>20.05.202550</t>
+  </si>
+  <si>
+    <t>20.05.202551</t>
+  </si>
+  <si>
+    <t>20.05.202552</t>
+  </si>
+  <si>
+    <t>20.05.202553</t>
+  </si>
+  <si>
+    <t>20.05.202554</t>
+  </si>
+  <si>
+    <t>20.05.202555</t>
+  </si>
+  <si>
+    <t>20.05.202556</t>
+  </si>
+  <si>
+    <t>20.05.202557</t>
+  </si>
+  <si>
+    <t>20.05.202558</t>
+  </si>
+  <si>
+    <t>20.05.202559</t>
+  </si>
+  <si>
+    <t>20.05.202560</t>
+  </si>
+  <si>
+    <t>20.05.202561</t>
+  </si>
+  <si>
+    <t>20.05.202562</t>
+  </si>
+  <si>
+    <t>20.05.202563</t>
+  </si>
+  <si>
+    <t>20.05.202564</t>
+  </si>
+  <si>
+    <t>20.05.202565</t>
+  </si>
+  <si>
+    <t>20.05.202566</t>
+  </si>
+  <si>
+    <t>20.05.202567</t>
+  </si>
+  <si>
+    <t>20.05.202568</t>
+  </si>
+  <si>
+    <t>20.05.202569</t>
+  </si>
+  <si>
+    <t>20.05.202570</t>
+  </si>
+  <si>
+    <t>20.05.202571</t>
+  </si>
+  <si>
+    <t>20.05.202572</t>
+  </si>
+  <si>
+    <t>20.05.202573</t>
+  </si>
+  <si>
+    <t>20.05.202574</t>
+  </si>
+  <si>
+    <t>20.05.202575</t>
+  </si>
+  <si>
+    <t>20.05.202576</t>
+  </si>
+  <si>
+    <t>20.05.202577</t>
+  </si>
+  <si>
+    <t>20.05.202578</t>
+  </si>
+  <si>
+    <t>20.05.202579</t>
+  </si>
+  <si>
+    <t>20.05.202580</t>
+  </si>
+  <si>
+    <t>20.05.202581</t>
+  </si>
+  <si>
+    <t>20.05.202582</t>
+  </si>
+  <si>
+    <t>20.05.202583</t>
+  </si>
+  <si>
+    <t>20.05.202584</t>
+  </si>
+  <si>
+    <t>20.05.202585</t>
+  </si>
+  <si>
+    <t>20.05.202586</t>
+  </si>
+  <si>
+    <t>20.05.202587</t>
+  </si>
+  <si>
+    <t>20.05.202588</t>
+  </si>
+  <si>
+    <t>20.05.202589</t>
+  </si>
+  <si>
+    <t>20.05.202590</t>
+  </si>
+  <si>
+    <t>20.05.202591</t>
+  </si>
+  <si>
+    <t>20.05.202592</t>
+  </si>
+  <si>
+    <t>20.05.202593</t>
+  </si>
+  <si>
+    <t>20.05.202594</t>
+  </si>
+  <si>
+    <t>20.05.202595</t>
+  </si>
+  <si>
+    <t>20.05.202596</t>
   </si>
 </sst>
 </file>
@@ -985,10 +985,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45785</v>
+        <v>45796</v>
       </c>
       <c r="B2">
-        <v>5337</v>
+        <v>4833</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -999,10 +999,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45785.01041666666</v>
+        <v>45796.01041666666</v>
       </c>
       <c r="B3">
-        <v>5295</v>
+        <v>4804</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45785.02083333334</v>
+        <v>45796.02083333334</v>
       </c>
       <c r="B4">
-        <v>5215</v>
+        <v>4811</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45785.03125</v>
+        <v>45796.03125</v>
       </c>
       <c r="B5">
-        <v>5143</v>
+        <v>4734</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45785.04166666666</v>
+        <v>45796.04166666666</v>
       </c>
       <c r="B6">
-        <v>5148</v>
+        <v>4730</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45785.05208333334</v>
+        <v>45796.05208333334</v>
       </c>
       <c r="B7">
-        <v>5157</v>
+        <v>4675</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45785.0625</v>
+        <v>45796.0625</v>
       </c>
       <c r="B8">
-        <v>5132</v>
+        <v>4653</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45785.07291666666</v>
+        <v>45796.07291666666</v>
       </c>
       <c r="B9">
-        <v>5106</v>
+        <v>4666</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45785.08333333334</v>
+        <v>45796.08333333334</v>
       </c>
       <c r="B10">
-        <v>5085</v>
+        <v>4653</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1111,10 +1111,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45785.09375</v>
+        <v>45796.09375</v>
       </c>
       <c r="B11">
-        <v>5095</v>
+        <v>4663</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45785.10416666666</v>
+        <v>45796.10416666666</v>
       </c>
       <c r="B12">
-        <v>5075</v>
+        <v>4641</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1139,10 +1139,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45785.11458333334</v>
+        <v>45796.11458333334</v>
       </c>
       <c r="B13">
-        <v>5087</v>
+        <v>4608</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45785.125</v>
+        <v>45796.125</v>
       </c>
       <c r="B14">
-        <v>5134</v>
+        <v>4657</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45785.13541666666</v>
+        <v>45796.13541666666</v>
       </c>
       <c r="B15">
-        <v>5132</v>
+        <v>4656</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1181,10 +1181,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45785.14583333334</v>
+        <v>45796.14583333334</v>
       </c>
       <c r="B16">
-        <v>5110</v>
+        <v>4707</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45785.15625</v>
+        <v>45796.15625</v>
       </c>
       <c r="B17">
-        <v>5151</v>
+        <v>4749</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1209,10 +1209,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45785.16666666666</v>
+        <v>45796.16666666666</v>
       </c>
       <c r="B18">
-        <v>5189</v>
+        <v>4768</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1223,10 +1223,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45785.17708333334</v>
+        <v>45796.17708333334</v>
       </c>
       <c r="B19">
-        <v>5282</v>
+        <v>4824</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1237,10 +1237,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45785.1875</v>
+        <v>45796.1875</v>
       </c>
       <c r="B20">
-        <v>5230</v>
+        <v>4806</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45785.19791666666</v>
+        <v>45796.19791666666</v>
       </c>
       <c r="B21">
-        <v>5300</v>
+        <v>4893</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45785.20833333334</v>
+        <v>45796.20833333334</v>
       </c>
       <c r="B22">
-        <v>5377</v>
+        <v>5124</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45785.21875</v>
+        <v>45796.21875</v>
       </c>
       <c r="B23">
-        <v>5470</v>
+        <v>5266</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1293,10 +1293,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45785.22916666666</v>
+        <v>45796.22916666666</v>
       </c>
       <c r="B24">
-        <v>5542</v>
+        <v>5328</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45785.23958333334</v>
+        <v>45796.23958333334</v>
       </c>
       <c r="B25">
-        <v>5743</v>
+        <v>5532</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45785.25</v>
+        <v>45796.25</v>
       </c>
       <c r="B26">
-        <v>6029</v>
+        <v>5748</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45785.26041666666</v>
+        <v>45796.26041666666</v>
       </c>
       <c r="B27">
-        <v>6163</v>
+        <v>5745</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45785.27083333334</v>
+        <v>45796.27083333334</v>
       </c>
       <c r="B28">
-        <v>6191</v>
+        <v>5858</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45785.28125</v>
+        <v>45796.28125</v>
       </c>
       <c r="B29">
-        <v>6258</v>
+        <v>5920</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45785.29166666666</v>
+        <v>45796.29166666666</v>
       </c>
       <c r="B30">
-        <v>6325</v>
+        <v>6207</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1391,10 +1391,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45785.30208333334</v>
+        <v>45796.30208333334</v>
       </c>
       <c r="B31">
-        <v>6330</v>
+        <v>5995</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45785.3125</v>
+        <v>45796.3125</v>
       </c>
       <c r="B32">
-        <v>6348</v>
+        <v>5975</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1419,10 +1419,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45785.32291666666</v>
+        <v>45796.32291666666</v>
       </c>
       <c r="B33">
-        <v>6329</v>
+        <v>5898</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1433,10 +1433,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45785.33333333334</v>
+        <v>45796.33333333334</v>
       </c>
       <c r="B34">
-        <v>6262</v>
+        <v>5781</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1447,10 +1447,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45785.34375</v>
+        <v>45796.34375</v>
       </c>
       <c r="B35">
-        <v>6184</v>
+        <v>5869</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45785.35416666666</v>
+        <v>45796.35416666666</v>
       </c>
       <c r="B36">
-        <v>6189</v>
+        <v>5855</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45785.36458333334</v>
+        <v>45796.36458333334</v>
       </c>
       <c r="B37">
-        <v>6120</v>
+        <v>5857</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1489,10 +1489,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45785.375</v>
+        <v>45796.375</v>
       </c>
       <c r="B38">
-        <v>6119</v>
+        <v>5712</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45785.38541666666</v>
+        <v>45796.38541666666</v>
       </c>
       <c r="B39">
-        <v>6101</v>
+        <v>5596</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45785.39583333334</v>
+        <v>45796.39583333334</v>
       </c>
       <c r="B40">
-        <v>6079</v>
+        <v>5630</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45785.40625</v>
+        <v>45796.40625</v>
       </c>
       <c r="B41">
-        <v>6011</v>
+        <v>5583</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45785.41666666666</v>
+        <v>45796.41666666666</v>
       </c>
       <c r="B42">
-        <v>6012</v>
+        <v>5542</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45785.42708333334</v>
+        <v>45796.42708333334</v>
       </c>
       <c r="B43">
-        <v>5911</v>
+        <v>5432</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45785.4375</v>
+        <v>45796.4375</v>
       </c>
       <c r="B44">
-        <v>5998</v>
+        <v>5435</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45785.44791666666</v>
+        <v>45796.44791666666</v>
       </c>
       <c r="B45">
-        <v>5908</v>
+        <v>5495</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45785.45833333334</v>
+        <v>45796.45833333334</v>
       </c>
       <c r="B46">
-        <v>5886</v>
+        <v>5431</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45785.46875</v>
+        <v>45796.46875</v>
       </c>
       <c r="B47">
-        <v>5841</v>
+        <v>5399</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45785.47916666666</v>
+        <v>45796.47916666666</v>
       </c>
       <c r="B48">
-        <v>5864</v>
+        <v>5350</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1643,10 +1643,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45785.48958333334</v>
+        <v>45796.48958333334</v>
       </c>
       <c r="B49">
-        <v>5872</v>
+        <v>5353</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45785.5</v>
+        <v>45796.5</v>
       </c>
       <c r="B50">
-        <v>5806</v>
+        <v>5354</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1671,10 +1671,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45785.51041666666</v>
+        <v>45796.51041666666</v>
       </c>
       <c r="B51">
-        <v>5842</v>
+        <v>5361</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45785.52083333334</v>
+        <v>45796.52083333334</v>
       </c>
       <c r="B52">
-        <v>5907</v>
+        <v>5375</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1699,10 +1699,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45785.53125</v>
+        <v>45796.53125</v>
       </c>
       <c r="B53">
-        <v>5875</v>
+        <v>5422</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45785.54166666666</v>
+        <v>45796.54166666666</v>
       </c>
       <c r="B54">
-        <v>5856</v>
+        <v>5299</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45785.55208333334</v>
+        <v>45796.55208333334</v>
       </c>
       <c r="B55">
-        <v>5782</v>
+        <v>5241</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45785.5625</v>
+        <v>45796.5625</v>
       </c>
       <c r="B56">
-        <v>5731</v>
+        <v>5291</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -1755,10 +1755,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45785.57291666666</v>
+        <v>45796.57291666666</v>
       </c>
       <c r="B57">
-        <v>5748</v>
+        <v>5218</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45785.58333333334</v>
+        <v>45796.58333333334</v>
       </c>
       <c r="B58">
-        <v>5713</v>
+        <v>5253</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45785.59375</v>
+        <v>45796.59375</v>
       </c>
       <c r="B59">
-        <v>5658</v>
+        <v>5382</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45785.60416666666</v>
+        <v>45796.60416666666</v>
       </c>
       <c r="B60">
-        <v>5642</v>
+        <v>5312</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -1811,10 +1811,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45785.61458333334</v>
+        <v>45796.61458333334</v>
       </c>
       <c r="B61">
-        <v>5577</v>
+        <v>5400</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45785.625</v>
+        <v>45796.625</v>
       </c>
       <c r="B62">
-        <v>5677</v>
+        <v>5556</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45785.63541666666</v>
+        <v>45796.63541666666</v>
       </c>
       <c r="B63">
-        <v>5741</v>
+        <v>5693</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -1853,10 +1853,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45785.64583333334</v>
+        <v>45796.64583333334</v>
       </c>
       <c r="B64">
-        <v>5891</v>
+        <v>5787</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45785.65625</v>
+        <v>45796.65625</v>
       </c>
       <c r="B65">
-        <v>5950</v>
+        <v>5915</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45785.66666666666</v>
+        <v>45796.66666666666</v>
       </c>
       <c r="B66">
-        <v>5993</v>
+        <v>5878</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45785.67708333334</v>
+        <v>45796.67708333334</v>
       </c>
       <c r="B67">
-        <v>6044</v>
+        <v>5929</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45785.6875</v>
+        <v>45796.6875</v>
       </c>
       <c r="B68">
-        <v>6237</v>
+        <v>5970</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45785.69791666666</v>
+        <v>45796.69791666666</v>
       </c>
       <c r="B69">
-        <v>6309</v>
+        <v>5953</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45785.70833333334</v>
+        <v>45796.70833333334</v>
       </c>
       <c r="B70">
-        <v>6412</v>
+        <v>6166</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45785.71875</v>
+        <v>45796.71875</v>
       </c>
       <c r="B71">
-        <v>6479</v>
+        <v>6180</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45785.72916666666</v>
+        <v>45796.72916666666</v>
       </c>
       <c r="B72">
-        <v>6581</v>
+        <v>6244</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45785.73958333334</v>
+        <v>45796.73958333334</v>
       </c>
       <c r="B73">
-        <v>6637</v>
+        <v>6286</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45785.75</v>
+        <v>45796.75</v>
       </c>
       <c r="B74">
-        <v>6723</v>
+        <v>6439</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -2007,10 +2007,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45785.76041666666</v>
+        <v>45796.76041666666</v>
       </c>
       <c r="B75">
-        <v>6862</v>
+        <v>6585</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45785.77083333334</v>
+        <v>45796.77083333334</v>
       </c>
       <c r="B76">
-        <v>6877</v>
+        <v>6596</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45785.78125</v>
+        <v>45796.78125</v>
       </c>
       <c r="B77">
-        <v>6973</v>
+        <v>6744</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -2049,10 +2049,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45785.79166666666</v>
+        <v>45796.79166666666</v>
       </c>
       <c r="B78">
-        <v>7012</v>
+        <v>6789</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45785.80208333334</v>
+        <v>45796.80208333334</v>
       </c>
       <c r="B79">
-        <v>7105</v>
+        <v>6843</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45785.8125</v>
+        <v>45796.8125</v>
       </c>
       <c r="B80">
-        <v>7111</v>
+        <v>6940</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45785.82291666666</v>
+        <v>45796.82291666666</v>
       </c>
       <c r="B81">
-        <v>7163</v>
+        <v>7047</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -2105,10 +2105,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45785.83333333334</v>
+        <v>45796.83333333334</v>
       </c>
       <c r="B82">
-        <v>7108</v>
+        <v>7076</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45785.84375</v>
+        <v>45796.84375</v>
       </c>
       <c r="B83">
-        <v>7147</v>
+        <v>7057</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -2133,10 +2133,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45785.85416666666</v>
+        <v>45796.85416666666</v>
       </c>
       <c r="B84">
-        <v>7053</v>
+        <v>7055</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45785.86458333334</v>
+        <v>45796.86458333334</v>
       </c>
       <c r="B85">
-        <v>6918</v>
+        <v>6912</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -2161,10 +2161,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45785.875</v>
+        <v>45796.875</v>
       </c>
       <c r="B86">
-        <v>6649</v>
+        <v>6766</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45785.88541666666</v>
+        <v>45796.88541666666</v>
       </c>
       <c r="B87">
-        <v>6494</v>
+        <v>6555</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -2189,10 +2189,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45785.89583333334</v>
+        <v>45796.89583333334</v>
       </c>
       <c r="B88">
-        <v>6373</v>
+        <v>6409</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45785.90625</v>
+        <v>45796.90625</v>
       </c>
       <c r="B89">
-        <v>6197</v>
+        <v>6265</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45785.91666666666</v>
+        <v>45796.91666666666</v>
       </c>
       <c r="B90">
-        <v>6054</v>
+        <v>6079</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45785.92708333334</v>
+        <v>45796.92708333334</v>
       </c>
       <c r="B91">
-        <v>5951</v>
+        <v>5944</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45785.9375</v>
+        <v>45796.9375</v>
       </c>
       <c r="B92">
-        <v>5854</v>
+        <v>5831</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45785.94791666666</v>
+        <v>45796.94791666666</v>
       </c>
       <c r="B93">
-        <v>5764</v>
+        <v>5762</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -2273,10 +2273,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45785.95833333334</v>
+        <v>45796.95833333334</v>
       </c>
       <c r="B94">
-        <v>5586</v>
+        <v>5676</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45785.96875</v>
+        <v>45796.96875</v>
       </c>
       <c r="B95">
-        <v>5535</v>
+        <v>5625</v>
       </c>
       <c r="C95">
         <v>94</v>
@@ -2301,10 +2301,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45785.97916666666</v>
+        <v>45796.97916666666</v>
       </c>
       <c r="B96">
-        <v>5472</v>
+        <v>5481</v>
       </c>
       <c r="C96">
         <v>95</v>
@@ -2315,10 +2315,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>45785.98958333334</v>
+        <v>45796.98958333334</v>
       </c>
       <c r="B97">
-        <v>5420</v>
+        <v>5430</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>45786</v>
+        <v>45797</v>
       </c>
       <c r="B98">
-        <v>5279</v>
+        <v>5376</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>45786.01041666666</v>
+        <v>45797.01041666666</v>
       </c>
       <c r="B99">
-        <v>5265</v>
+        <v>5355</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>45786.02083333334</v>
+        <v>45797.02083333334</v>
       </c>
       <c r="B100">
-        <v>5297</v>
+        <v>5348</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2371,10 +2371,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>45786.03125</v>
+        <v>45797.03125</v>
       </c>
       <c r="B101">
-        <v>5226</v>
+        <v>5284</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>45786.04166666666</v>
+        <v>45797.04166666666</v>
       </c>
       <c r="B102">
-        <v>5183</v>
+        <v>5230</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>45786.05208333334</v>
+        <v>45797.05208333334</v>
       </c>
       <c r="B103">
-        <v>5172</v>
+        <v>5221</v>
       </c>
       <c r="C103">
         <v>6</v>
@@ -2413,10 +2413,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>45786.0625</v>
+        <v>45797.0625</v>
       </c>
       <c r="B104">
-        <v>5168</v>
+        <v>5166</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -2427,10 +2427,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>45786.07291666666</v>
+        <v>45797.07291666666</v>
       </c>
       <c r="B105">
-        <v>5135</v>
+        <v>5197</v>
       </c>
       <c r="C105">
         <v>8</v>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>45786.08333333334</v>
+        <v>45797.08333333334</v>
       </c>
       <c r="B106">
-        <v>5061</v>
+        <v>5159</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -2455,10 +2455,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>45786.09375</v>
+        <v>45797.09375</v>
       </c>
       <c r="B107">
-        <v>5097</v>
+        <v>5131</v>
       </c>
       <c r="C107">
         <v>10</v>
@@ -2469,10 +2469,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>45786.10416666666</v>
+        <v>45797.10416666666</v>
       </c>
       <c r="B108">
-        <v>5063</v>
+        <v>5124</v>
       </c>
       <c r="C108">
         <v>11</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>45786.11458333334</v>
+        <v>45797.11458333334</v>
       </c>
       <c r="B109">
-        <v>5097</v>
+        <v>5163</v>
       </c>
       <c r="C109">
         <v>12</v>
@@ -2497,10 +2497,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>45786.125</v>
+        <v>45797.125</v>
       </c>
       <c r="B110">
-        <v>5124</v>
+        <v>5247</v>
       </c>
       <c r="C110">
         <v>13</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>45786.13541666666</v>
+        <v>45797.13541666666</v>
       </c>
       <c r="B111">
-        <v>5111</v>
+        <v>5190</v>
       </c>
       <c r="C111">
         <v>14</v>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>45786.14583333334</v>
+        <v>45797.14583333334</v>
       </c>
       <c r="B112">
-        <v>5157</v>
+        <v>5249</v>
       </c>
       <c r="C112">
         <v>15</v>
@@ -2539,10 +2539,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>45786.15625</v>
+        <v>45797.15625</v>
       </c>
       <c r="B113">
-        <v>5181</v>
+        <v>5234</v>
       </c>
       <c r="C113">
         <v>16</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>45786.16666666666</v>
+        <v>45797.16666666666</v>
       </c>
       <c r="B114">
-        <v>5240</v>
+        <v>5337</v>
       </c>
       <c r="C114">
         <v>17</v>
@@ -2567,10 +2567,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>45786.17708333334</v>
+        <v>45797.17708333334</v>
       </c>
       <c r="B115">
-        <v>5239</v>
+        <v>5309</v>
       </c>
       <c r="C115">
         <v>18</v>
@@ -2581,10 +2581,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>45786.1875</v>
+        <v>45797.1875</v>
       </c>
       <c r="B116">
-        <v>5239</v>
+        <v>5342</v>
       </c>
       <c r="C116">
         <v>19</v>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>45786.19791666666</v>
+        <v>45797.19791666666</v>
       </c>
       <c r="B117">
-        <v>5255</v>
+        <v>5347</v>
       </c>
       <c r="C117">
         <v>20</v>
@@ -2609,10 +2609,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>45786.20833333334</v>
+        <v>45797.20833333334</v>
       </c>
       <c r="B118">
-        <v>5307</v>
+        <v>5505</v>
       </c>
       <c r="C118">
         <v>21</v>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>45786.21875</v>
+        <v>45797.21875</v>
       </c>
       <c r="B119">
-        <v>5417</v>
+        <v>5582</v>
       </c>
       <c r="C119">
         <v>22</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>45786.22916666666</v>
+        <v>45797.22916666666</v>
       </c>
       <c r="B120">
-        <v>5522</v>
+        <v>5686</v>
       </c>
       <c r="C120">
         <v>23</v>
@@ -2651,10 +2651,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>45786.23958333334</v>
+        <v>45797.23958333334</v>
       </c>
       <c r="B121">
-        <v>5657</v>
+        <v>5735</v>
       </c>
       <c r="C121">
         <v>24</v>
@@ -2665,10 +2665,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>45786.25</v>
+        <v>45797.25</v>
       </c>
       <c r="B122">
-        <v>5807</v>
+        <v>5920</v>
       </c>
       <c r="C122">
         <v>25</v>
@@ -2679,10 +2679,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>45786.26041666666</v>
+        <v>45797.26041666666</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>5975</v>
       </c>
       <c r="C123">
         <v>26</v>
@@ -2693,10 +2693,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>45786.27083333334</v>
+        <v>45797.27083333334</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>6003</v>
       </c>
       <c r="C124">
         <v>27</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>45786.28125</v>
+        <v>45797.28125</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>5979</v>
       </c>
       <c r="C125">
         <v>28</v>
@@ -2721,10 +2721,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>45786.29166666666</v>
+        <v>45797.29166666666</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>6017</v>
       </c>
       <c r="C126">
         <v>29</v>
@@ -2735,10 +2735,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>45786.30208333334</v>
+        <v>45797.30208333334</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="C127">
         <v>30</v>
@@ -2749,10 +2749,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>45786.3125</v>
+        <v>45797.3125</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>5899</v>
       </c>
       <c r="C128">
         <v>31</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>45786.32291666666</v>
+        <v>45797.32291666666</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>5807</v>
       </c>
       <c r="C129">
         <v>32</v>
@@ -2777,10 +2777,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>45786.33333333334</v>
+        <v>45797.33333333334</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>5652</v>
       </c>
       <c r="C130">
         <v>33</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>45786.34375</v>
+        <v>45797.34375</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>5556</v>
       </c>
       <c r="C131">
         <v>34</v>
@@ -2805,10 +2805,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>45786.35416666666</v>
+        <v>45797.35416666666</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>5471</v>
       </c>
       <c r="C132">
         <v>35</v>
@@ -2819,10 +2819,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>45786.36458333334</v>
+        <v>45797.36458333334</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>5371</v>
       </c>
       <c r="C133">
         <v>36</v>
@@ -2833,10 +2833,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>45786.375</v>
+        <v>45797.375</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>5346</v>
       </c>
       <c r="C134">
         <v>37</v>
@@ -2847,10 +2847,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>45786.38541666666</v>
+        <v>45797.38541666666</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>5320</v>
       </c>
       <c r="C135">
         <v>38</v>
@@ -2861,10 +2861,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>45786.39583333334</v>
+        <v>45797.39583333334</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>5220</v>
       </c>
       <c r="C136">
         <v>39</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>45786.40625</v>
+        <v>45797.40625</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>45786.41666666666</v>
+        <v>45797.41666666666</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>45786.42708333334</v>
+        <v>45797.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>45786.4375</v>
+        <v>45797.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>45786.44791666666</v>
+        <v>45797.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>45786.45833333334</v>
+        <v>45797.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>45786.46875</v>
+        <v>45797.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>45786.47916666666</v>
+        <v>45797.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>45786.48958333334</v>
+        <v>45797.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>45786.5</v>
+        <v>45797.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>45786.51041666666</v>
+        <v>45797.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>45786.52083333334</v>
+        <v>45797.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>45786.53125</v>
+        <v>45797.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>45786.54166666666</v>
+        <v>45797.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>45786.55208333334</v>
+        <v>45797.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>45786.5625</v>
+        <v>45797.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>45786.57291666666</v>
+        <v>45797.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>45786.58333333334</v>
+        <v>45797.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>45786.59375</v>
+        <v>45797.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>45786.60416666666</v>
+        <v>45797.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>45786.61458333334</v>
+        <v>45797.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>45786.625</v>
+        <v>45797.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>45786.63541666666</v>
+        <v>45797.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>45786.64583333334</v>
+        <v>45797.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>45786.65625</v>
+        <v>45797.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>45786.66666666666</v>
+        <v>45797.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>45786.67708333334</v>
+        <v>45797.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>45786.6875</v>
+        <v>45797.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>45786.69791666666</v>
+        <v>45797.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>45786.70833333334</v>
+        <v>45797.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>45786.71875</v>
+        <v>45797.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>45786.72916666666</v>
+        <v>45797.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>45786.73958333334</v>
+        <v>45797.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>45786.75</v>
+        <v>45797.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>45786.76041666666</v>
+        <v>45797.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>45786.77083333334</v>
+        <v>45797.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>45786.78125</v>
+        <v>45797.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>45786.79166666666</v>
+        <v>45797.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>45786.80208333334</v>
+        <v>45797.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>45786.8125</v>
+        <v>45797.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>45786.82291666666</v>
+        <v>45797.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>45786.83333333334</v>
+        <v>45797.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>45786.84375</v>
+        <v>45797.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>45786.85416666666</v>
+        <v>45797.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>45786.86458333334</v>
+        <v>45797.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>45786.875</v>
+        <v>45797.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>45786.88541666666</v>
+        <v>45797.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>45786.89583333334</v>
+        <v>45797.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>45786.90625</v>
+        <v>45797.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>45786.91666666666</v>
+        <v>45797.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>45786.92708333334</v>
+        <v>45797.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>45786.9375</v>
+        <v>45797.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>45786.94791666666</v>
+        <v>45797.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>45786.95833333334</v>
+        <v>45797.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>45786.96875</v>
+        <v>45797.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>45786.97916666666</v>
+        <v>45797.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>45786.98958333334</v>
+        <v>45797.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
   <si>
     <t>Timestamp</t>
   </si>
@@ -28,294 +28,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>19.05.20251</t>
-  </si>
-  <si>
-    <t>19.05.20252</t>
-  </si>
-  <si>
-    <t>19.05.20253</t>
-  </si>
-  <si>
-    <t>19.05.20254</t>
-  </si>
-  <si>
-    <t>19.05.20255</t>
-  </si>
-  <si>
-    <t>19.05.20256</t>
-  </si>
-  <si>
-    <t>19.05.20257</t>
-  </si>
-  <si>
-    <t>19.05.20258</t>
-  </si>
-  <si>
-    <t>19.05.20259</t>
-  </si>
-  <si>
-    <t>19.05.202510</t>
-  </si>
-  <si>
-    <t>19.05.202511</t>
-  </si>
-  <si>
-    <t>19.05.202512</t>
-  </si>
-  <si>
-    <t>19.05.202513</t>
-  </si>
-  <si>
-    <t>19.05.202514</t>
-  </si>
-  <si>
-    <t>19.05.202515</t>
-  </si>
-  <si>
-    <t>19.05.202516</t>
-  </si>
-  <si>
-    <t>19.05.202517</t>
-  </si>
-  <si>
-    <t>19.05.202518</t>
-  </si>
-  <si>
-    <t>19.05.202519</t>
-  </si>
-  <si>
-    <t>19.05.202520</t>
-  </si>
-  <si>
-    <t>19.05.202521</t>
-  </si>
-  <si>
-    <t>19.05.202522</t>
-  </si>
-  <si>
-    <t>19.05.202523</t>
-  </si>
-  <si>
-    <t>19.05.202524</t>
-  </si>
-  <si>
-    <t>19.05.202525</t>
-  </si>
-  <si>
-    <t>19.05.202526</t>
-  </si>
-  <si>
-    <t>19.05.202527</t>
-  </si>
-  <si>
-    <t>19.05.202528</t>
-  </si>
-  <si>
-    <t>19.05.202529</t>
-  </si>
-  <si>
-    <t>19.05.202530</t>
-  </si>
-  <si>
-    <t>19.05.202531</t>
-  </si>
-  <si>
-    <t>19.05.202532</t>
-  </si>
-  <si>
-    <t>19.05.202533</t>
-  </si>
-  <si>
-    <t>19.05.202534</t>
-  </si>
-  <si>
-    <t>19.05.202535</t>
-  </si>
-  <si>
-    <t>19.05.202536</t>
-  </si>
-  <si>
-    <t>19.05.202537</t>
-  </si>
-  <si>
-    <t>19.05.202538</t>
-  </si>
-  <si>
-    <t>19.05.202539</t>
-  </si>
-  <si>
-    <t>19.05.202540</t>
-  </si>
-  <si>
-    <t>19.05.202541</t>
-  </si>
-  <si>
-    <t>19.05.202542</t>
-  </si>
-  <si>
-    <t>19.05.202543</t>
-  </si>
-  <si>
-    <t>19.05.202544</t>
-  </si>
-  <si>
-    <t>19.05.202545</t>
-  </si>
-  <si>
-    <t>19.05.202546</t>
-  </si>
-  <si>
-    <t>19.05.202547</t>
-  </si>
-  <si>
-    <t>19.05.202548</t>
-  </si>
-  <si>
-    <t>19.05.202549</t>
-  </si>
-  <si>
-    <t>19.05.202550</t>
-  </si>
-  <si>
-    <t>19.05.202551</t>
-  </si>
-  <si>
-    <t>19.05.202552</t>
-  </si>
-  <si>
-    <t>19.05.202553</t>
-  </si>
-  <si>
-    <t>19.05.202554</t>
-  </si>
-  <si>
-    <t>19.05.202555</t>
-  </si>
-  <si>
-    <t>19.05.202556</t>
-  </si>
-  <si>
-    <t>19.05.202557</t>
-  </si>
-  <si>
-    <t>19.05.202558</t>
-  </si>
-  <si>
-    <t>19.05.202559</t>
-  </si>
-  <si>
-    <t>19.05.202560</t>
-  </si>
-  <si>
-    <t>19.05.202561</t>
-  </si>
-  <si>
-    <t>19.05.202562</t>
-  </si>
-  <si>
-    <t>19.05.202563</t>
-  </si>
-  <si>
-    <t>19.05.202564</t>
-  </si>
-  <si>
-    <t>19.05.202565</t>
-  </si>
-  <si>
-    <t>19.05.202566</t>
-  </si>
-  <si>
-    <t>19.05.202567</t>
-  </si>
-  <si>
-    <t>19.05.202568</t>
-  </si>
-  <si>
-    <t>19.05.202569</t>
-  </si>
-  <si>
-    <t>19.05.202570</t>
-  </si>
-  <si>
-    <t>19.05.202571</t>
-  </si>
-  <si>
-    <t>19.05.202572</t>
-  </si>
-  <si>
-    <t>19.05.202573</t>
-  </si>
-  <si>
-    <t>19.05.202574</t>
-  </si>
-  <si>
-    <t>19.05.202575</t>
-  </si>
-  <si>
-    <t>19.05.202576</t>
-  </si>
-  <si>
-    <t>19.05.202577</t>
-  </si>
-  <si>
-    <t>19.05.202578</t>
-  </si>
-  <si>
-    <t>19.05.202579</t>
-  </si>
-  <si>
-    <t>19.05.202580</t>
-  </si>
-  <si>
-    <t>19.05.202581</t>
-  </si>
-  <si>
-    <t>19.05.202582</t>
-  </si>
-  <si>
-    <t>19.05.202583</t>
-  </si>
-  <si>
-    <t>19.05.202584</t>
-  </si>
-  <si>
-    <t>19.05.202585</t>
-  </si>
-  <si>
-    <t>19.05.202586</t>
-  </si>
-  <si>
-    <t>19.05.202587</t>
-  </si>
-  <si>
-    <t>19.05.202588</t>
-  </si>
-  <si>
-    <t>19.05.202589</t>
-  </si>
-  <si>
-    <t>19.05.202590</t>
-  </si>
-  <si>
-    <t>19.05.202591</t>
-  </si>
-  <si>
-    <t>19.05.202592</t>
-  </si>
-  <si>
-    <t>19.05.202593</t>
-  </si>
-  <si>
-    <t>19.05.202594</t>
-  </si>
-  <si>
-    <t>19.05.202595</t>
-  </si>
-  <si>
-    <t>19.05.202596</t>
-  </si>
-  <si>
     <t>20.05.20251</t>
   </si>
   <si>
@@ -602,6 +314,582 @@
   </si>
   <si>
     <t>20.05.202596</t>
+  </si>
+  <si>
+    <t>21.05.20251</t>
+  </si>
+  <si>
+    <t>21.05.20252</t>
+  </si>
+  <si>
+    <t>21.05.20253</t>
+  </si>
+  <si>
+    <t>21.05.20254</t>
+  </si>
+  <si>
+    <t>21.05.20255</t>
+  </si>
+  <si>
+    <t>21.05.20256</t>
+  </si>
+  <si>
+    <t>21.05.20257</t>
+  </si>
+  <si>
+    <t>21.05.20258</t>
+  </si>
+  <si>
+    <t>21.05.20259</t>
+  </si>
+  <si>
+    <t>21.05.202510</t>
+  </si>
+  <si>
+    <t>21.05.202511</t>
+  </si>
+  <si>
+    <t>21.05.202512</t>
+  </si>
+  <si>
+    <t>21.05.202513</t>
+  </si>
+  <si>
+    <t>21.05.202514</t>
+  </si>
+  <si>
+    <t>21.05.202515</t>
+  </si>
+  <si>
+    <t>21.05.202516</t>
+  </si>
+  <si>
+    <t>21.05.202517</t>
+  </si>
+  <si>
+    <t>21.05.202518</t>
+  </si>
+  <si>
+    <t>21.05.202519</t>
+  </si>
+  <si>
+    <t>21.05.202520</t>
+  </si>
+  <si>
+    <t>21.05.202521</t>
+  </si>
+  <si>
+    <t>21.05.202522</t>
+  </si>
+  <si>
+    <t>21.05.202523</t>
+  </si>
+  <si>
+    <t>21.05.202524</t>
+  </si>
+  <si>
+    <t>21.05.202525</t>
+  </si>
+  <si>
+    <t>21.05.202526</t>
+  </si>
+  <si>
+    <t>21.05.202527</t>
+  </si>
+  <si>
+    <t>21.05.202528</t>
+  </si>
+  <si>
+    <t>21.05.202529</t>
+  </si>
+  <si>
+    <t>21.05.202530</t>
+  </si>
+  <si>
+    <t>21.05.202531</t>
+  </si>
+  <si>
+    <t>21.05.202532</t>
+  </si>
+  <si>
+    <t>21.05.202533</t>
+  </si>
+  <si>
+    <t>21.05.202534</t>
+  </si>
+  <si>
+    <t>21.05.202535</t>
+  </si>
+  <si>
+    <t>21.05.202536</t>
+  </si>
+  <si>
+    <t>21.05.202537</t>
+  </si>
+  <si>
+    <t>21.05.202538</t>
+  </si>
+  <si>
+    <t>21.05.202539</t>
+  </si>
+  <si>
+    <t>21.05.202540</t>
+  </si>
+  <si>
+    <t>21.05.202541</t>
+  </si>
+  <si>
+    <t>21.05.202542</t>
+  </si>
+  <si>
+    <t>21.05.202543</t>
+  </si>
+  <si>
+    <t>21.05.202544</t>
+  </si>
+  <si>
+    <t>21.05.202545</t>
+  </si>
+  <si>
+    <t>21.05.202546</t>
+  </si>
+  <si>
+    <t>21.05.202547</t>
+  </si>
+  <si>
+    <t>21.05.202548</t>
+  </si>
+  <si>
+    <t>21.05.202549</t>
+  </si>
+  <si>
+    <t>21.05.202550</t>
+  </si>
+  <si>
+    <t>21.05.202551</t>
+  </si>
+  <si>
+    <t>21.05.202552</t>
+  </si>
+  <si>
+    <t>21.05.202553</t>
+  </si>
+  <si>
+    <t>21.05.202554</t>
+  </si>
+  <si>
+    <t>21.05.202555</t>
+  </si>
+  <si>
+    <t>21.05.202556</t>
+  </si>
+  <si>
+    <t>21.05.202557</t>
+  </si>
+  <si>
+    <t>21.05.202558</t>
+  </si>
+  <si>
+    <t>21.05.202559</t>
+  </si>
+  <si>
+    <t>21.05.202560</t>
+  </si>
+  <si>
+    <t>21.05.202561</t>
+  </si>
+  <si>
+    <t>21.05.202562</t>
+  </si>
+  <si>
+    <t>21.05.202563</t>
+  </si>
+  <si>
+    <t>21.05.202564</t>
+  </si>
+  <si>
+    <t>21.05.202565</t>
+  </si>
+  <si>
+    <t>21.05.202566</t>
+  </si>
+  <si>
+    <t>21.05.202567</t>
+  </si>
+  <si>
+    <t>21.05.202568</t>
+  </si>
+  <si>
+    <t>21.05.202569</t>
+  </si>
+  <si>
+    <t>21.05.202570</t>
+  </si>
+  <si>
+    <t>21.05.202571</t>
+  </si>
+  <si>
+    <t>21.05.202572</t>
+  </si>
+  <si>
+    <t>21.05.202573</t>
+  </si>
+  <si>
+    <t>21.05.202574</t>
+  </si>
+  <si>
+    <t>21.05.202575</t>
+  </si>
+  <si>
+    <t>21.05.202576</t>
+  </si>
+  <si>
+    <t>21.05.202577</t>
+  </si>
+  <si>
+    <t>21.05.202578</t>
+  </si>
+  <si>
+    <t>21.05.202579</t>
+  </si>
+  <si>
+    <t>21.05.202580</t>
+  </si>
+  <si>
+    <t>21.05.202581</t>
+  </si>
+  <si>
+    <t>21.05.202582</t>
+  </si>
+  <si>
+    <t>21.05.202583</t>
+  </si>
+  <si>
+    <t>21.05.202584</t>
+  </si>
+  <si>
+    <t>21.05.202585</t>
+  </si>
+  <si>
+    <t>21.05.202586</t>
+  </si>
+  <si>
+    <t>21.05.202587</t>
+  </si>
+  <si>
+    <t>21.05.202588</t>
+  </si>
+  <si>
+    <t>21.05.202589</t>
+  </si>
+  <si>
+    <t>21.05.202590</t>
+  </si>
+  <si>
+    <t>21.05.202591</t>
+  </si>
+  <si>
+    <t>21.05.202592</t>
+  </si>
+  <si>
+    <t>21.05.202593</t>
+  </si>
+  <si>
+    <t>21.05.202594</t>
+  </si>
+  <si>
+    <t>21.05.202595</t>
+  </si>
+  <si>
+    <t>21.05.202596</t>
+  </si>
+  <si>
+    <t>22.05.20251</t>
+  </si>
+  <si>
+    <t>22.05.20252</t>
+  </si>
+  <si>
+    <t>22.05.20253</t>
+  </si>
+  <si>
+    <t>22.05.20254</t>
+  </si>
+  <si>
+    <t>22.05.20255</t>
+  </si>
+  <si>
+    <t>22.05.20256</t>
+  </si>
+  <si>
+    <t>22.05.20257</t>
+  </si>
+  <si>
+    <t>22.05.20258</t>
+  </si>
+  <si>
+    <t>22.05.20259</t>
+  </si>
+  <si>
+    <t>22.05.202510</t>
+  </si>
+  <si>
+    <t>22.05.202511</t>
+  </si>
+  <si>
+    <t>22.05.202512</t>
+  </si>
+  <si>
+    <t>22.05.202513</t>
+  </si>
+  <si>
+    <t>22.05.202514</t>
+  </si>
+  <si>
+    <t>22.05.202515</t>
+  </si>
+  <si>
+    <t>22.05.202516</t>
+  </si>
+  <si>
+    <t>22.05.202517</t>
+  </si>
+  <si>
+    <t>22.05.202518</t>
+  </si>
+  <si>
+    <t>22.05.202519</t>
+  </si>
+  <si>
+    <t>22.05.202520</t>
+  </si>
+  <si>
+    <t>22.05.202521</t>
+  </si>
+  <si>
+    <t>22.05.202522</t>
+  </si>
+  <si>
+    <t>22.05.202523</t>
+  </si>
+  <si>
+    <t>22.05.202524</t>
+  </si>
+  <si>
+    <t>22.05.202525</t>
+  </si>
+  <si>
+    <t>22.05.202526</t>
+  </si>
+  <si>
+    <t>22.05.202527</t>
+  </si>
+  <si>
+    <t>22.05.202528</t>
+  </si>
+  <si>
+    <t>22.05.202529</t>
+  </si>
+  <si>
+    <t>22.05.202530</t>
+  </si>
+  <si>
+    <t>22.05.202531</t>
+  </si>
+  <si>
+    <t>22.05.202532</t>
+  </si>
+  <si>
+    <t>22.05.202533</t>
+  </si>
+  <si>
+    <t>22.05.202534</t>
+  </si>
+  <si>
+    <t>22.05.202535</t>
+  </si>
+  <si>
+    <t>22.05.202536</t>
+  </si>
+  <si>
+    <t>22.05.202537</t>
+  </si>
+  <si>
+    <t>22.05.202538</t>
+  </si>
+  <si>
+    <t>22.05.202539</t>
+  </si>
+  <si>
+    <t>22.05.202540</t>
+  </si>
+  <si>
+    <t>22.05.202541</t>
+  </si>
+  <si>
+    <t>22.05.202542</t>
+  </si>
+  <si>
+    <t>22.05.202543</t>
+  </si>
+  <si>
+    <t>22.05.202544</t>
+  </si>
+  <si>
+    <t>22.05.202545</t>
+  </si>
+  <si>
+    <t>22.05.202546</t>
+  </si>
+  <si>
+    <t>22.05.202547</t>
+  </si>
+  <si>
+    <t>22.05.202548</t>
+  </si>
+  <si>
+    <t>22.05.202549</t>
+  </si>
+  <si>
+    <t>22.05.202550</t>
+  </si>
+  <si>
+    <t>22.05.202551</t>
+  </si>
+  <si>
+    <t>22.05.202552</t>
+  </si>
+  <si>
+    <t>22.05.202553</t>
+  </si>
+  <si>
+    <t>22.05.202554</t>
+  </si>
+  <si>
+    <t>22.05.202555</t>
+  </si>
+  <si>
+    <t>22.05.202556</t>
+  </si>
+  <si>
+    <t>22.05.202557</t>
+  </si>
+  <si>
+    <t>22.05.202558</t>
+  </si>
+  <si>
+    <t>22.05.202559</t>
+  </si>
+  <si>
+    <t>22.05.202560</t>
+  </si>
+  <si>
+    <t>22.05.202561</t>
+  </si>
+  <si>
+    <t>22.05.202562</t>
+  </si>
+  <si>
+    <t>22.05.202563</t>
+  </si>
+  <si>
+    <t>22.05.202564</t>
+  </si>
+  <si>
+    <t>22.05.202565</t>
+  </si>
+  <si>
+    <t>22.05.202566</t>
+  </si>
+  <si>
+    <t>22.05.202567</t>
+  </si>
+  <si>
+    <t>22.05.202568</t>
+  </si>
+  <si>
+    <t>22.05.202569</t>
+  </si>
+  <si>
+    <t>22.05.202570</t>
+  </si>
+  <si>
+    <t>22.05.202571</t>
+  </si>
+  <si>
+    <t>22.05.202572</t>
+  </si>
+  <si>
+    <t>22.05.202573</t>
+  </si>
+  <si>
+    <t>22.05.202574</t>
+  </si>
+  <si>
+    <t>22.05.202575</t>
+  </si>
+  <si>
+    <t>22.05.202576</t>
+  </si>
+  <si>
+    <t>22.05.202577</t>
+  </si>
+  <si>
+    <t>22.05.202578</t>
+  </si>
+  <si>
+    <t>22.05.202579</t>
+  </si>
+  <si>
+    <t>22.05.202580</t>
+  </si>
+  <si>
+    <t>22.05.202581</t>
+  </si>
+  <si>
+    <t>22.05.202582</t>
+  </si>
+  <si>
+    <t>22.05.202583</t>
+  </si>
+  <si>
+    <t>22.05.202584</t>
+  </si>
+  <si>
+    <t>22.05.202585</t>
+  </si>
+  <si>
+    <t>22.05.202586</t>
+  </si>
+  <si>
+    <t>22.05.202587</t>
+  </si>
+  <si>
+    <t>22.05.202588</t>
+  </si>
+  <si>
+    <t>22.05.202589</t>
+  </si>
+  <si>
+    <t>22.05.202590</t>
+  </si>
+  <si>
+    <t>22.05.202591</t>
+  </si>
+  <si>
+    <t>22.05.202592</t>
+  </si>
+  <si>
+    <t>22.05.202593</t>
+  </si>
+  <si>
+    <t>22.05.202594</t>
+  </si>
+  <si>
+    <t>22.05.202595</t>
+  </si>
+  <si>
+    <t>22.05.202596</t>
   </si>
 </sst>
 </file>
@@ -963,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:D289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -985,10 +1273,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45796</v>
+        <v>45797</v>
       </c>
       <c r="B2">
-        <v>4833</v>
+        <v>5376</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -999,10 +1287,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45796.01041666666</v>
+        <v>45797.01041666666</v>
       </c>
       <c r="B3">
-        <v>4804</v>
+        <v>5355</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1013,10 +1301,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45796.02083333334</v>
+        <v>45797.02083333334</v>
       </c>
       <c r="B4">
-        <v>4811</v>
+        <v>5348</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1027,10 +1315,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45796.03125</v>
+        <v>45797.03125</v>
       </c>
       <c r="B5">
-        <v>4734</v>
+        <v>5284</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1041,10 +1329,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45796.04166666666</v>
+        <v>45797.04166666666</v>
       </c>
       <c r="B6">
-        <v>4730</v>
+        <v>5230</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1055,10 +1343,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45796.05208333334</v>
+        <v>45797.05208333334</v>
       </c>
       <c r="B7">
-        <v>4675</v>
+        <v>5221</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1069,10 +1357,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45796.0625</v>
+        <v>45797.0625</v>
       </c>
       <c r="B8">
-        <v>4653</v>
+        <v>5166</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1083,10 +1371,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45796.07291666666</v>
+        <v>45797.07291666666</v>
       </c>
       <c r="B9">
-        <v>4666</v>
+        <v>5197</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1097,10 +1385,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45796.08333333334</v>
+        <v>45797.08333333334</v>
       </c>
       <c r="B10">
-        <v>4653</v>
+        <v>5159</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1111,10 +1399,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45796.09375</v>
+        <v>45797.09375</v>
       </c>
       <c r="B11">
-        <v>4663</v>
+        <v>5131</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1125,10 +1413,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45796.10416666666</v>
+        <v>45797.10416666666</v>
       </c>
       <c r="B12">
-        <v>4641</v>
+        <v>5124</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1139,10 +1427,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45796.11458333334</v>
+        <v>45797.11458333334</v>
       </c>
       <c r="B13">
-        <v>4608</v>
+        <v>5163</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1153,10 +1441,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45796.125</v>
+        <v>45797.125</v>
       </c>
       <c r="B14">
-        <v>4657</v>
+        <v>5247</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1167,10 +1455,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45796.13541666666</v>
+        <v>45797.13541666666</v>
       </c>
       <c r="B15">
-        <v>4656</v>
+        <v>5190</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1181,10 +1469,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45796.14583333334</v>
+        <v>45797.14583333334</v>
       </c>
       <c r="B16">
-        <v>4707</v>
+        <v>5249</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1195,10 +1483,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45796.15625</v>
+        <v>45797.15625</v>
       </c>
       <c r="B17">
-        <v>4749</v>
+        <v>5234</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1209,10 +1497,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45796.16666666666</v>
+        <v>45797.16666666666</v>
       </c>
       <c r="B18">
-        <v>4768</v>
+        <v>5337</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1223,10 +1511,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45796.17708333334</v>
+        <v>45797.17708333334</v>
       </c>
       <c r="B19">
-        <v>4824</v>
+        <v>5309</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1237,10 +1525,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45796.1875</v>
+        <v>45797.1875</v>
       </c>
       <c r="B20">
-        <v>4806</v>
+        <v>5342</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1251,10 +1539,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45796.19791666666</v>
+        <v>45797.19791666666</v>
       </c>
       <c r="B21">
-        <v>4893</v>
+        <v>5347</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1265,10 +1553,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45796.20833333334</v>
+        <v>45797.20833333334</v>
       </c>
       <c r="B22">
-        <v>5124</v>
+        <v>5505</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1279,10 +1567,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45796.21875</v>
+        <v>45797.21875</v>
       </c>
       <c r="B23">
-        <v>5266</v>
+        <v>5582</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1293,10 +1581,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45796.22916666666</v>
+        <v>45797.22916666666</v>
       </c>
       <c r="B24">
-        <v>5328</v>
+        <v>5686</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1307,10 +1595,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45796.23958333334</v>
+        <v>45797.23958333334</v>
       </c>
       <c r="B25">
-        <v>5532</v>
+        <v>5735</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1321,10 +1609,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45796.25</v>
+        <v>45797.25</v>
       </c>
       <c r="B26">
-        <v>5748</v>
+        <v>5920</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1335,10 +1623,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45796.26041666666</v>
+        <v>45797.26041666666</v>
       </c>
       <c r="B27">
-        <v>5745</v>
+        <v>5975</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1349,10 +1637,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45796.27083333334</v>
+        <v>45797.27083333334</v>
       </c>
       <c r="B28">
-        <v>5858</v>
+        <v>6003</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1363,10 +1651,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45796.28125</v>
+        <v>45797.28125</v>
       </c>
       <c r="B29">
-        <v>5920</v>
+        <v>5979</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1377,10 +1665,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45796.29166666666</v>
+        <v>45797.29166666666</v>
       </c>
       <c r="B30">
-        <v>6207</v>
+        <v>6017</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1391,10 +1679,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45796.30208333334</v>
+        <v>45797.30208333334</v>
       </c>
       <c r="B31">
-        <v>5995</v>
+        <v>6000</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1405,10 +1693,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45796.3125</v>
+        <v>45797.3125</v>
       </c>
       <c r="B32">
-        <v>5975</v>
+        <v>5899</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1419,10 +1707,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45796.32291666666</v>
+        <v>45797.32291666666</v>
       </c>
       <c r="B33">
-        <v>5898</v>
+        <v>5807</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1433,10 +1721,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45796.33333333334</v>
+        <v>45797.33333333334</v>
       </c>
       <c r="B34">
-        <v>5781</v>
+        <v>5652</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1447,10 +1735,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45796.34375</v>
+        <v>45797.34375</v>
       </c>
       <c r="B35">
-        <v>5869</v>
+        <v>5556</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1461,10 +1749,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45796.35416666666</v>
+        <v>45797.35416666666</v>
       </c>
       <c r="B36">
-        <v>5855</v>
+        <v>5471</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1475,10 +1763,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45796.36458333334</v>
+        <v>45797.36458333334</v>
       </c>
       <c r="B37">
-        <v>5857</v>
+        <v>5371</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1489,10 +1777,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45796.375</v>
+        <v>45797.375</v>
       </c>
       <c r="B38">
-        <v>5712</v>
+        <v>5346</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1503,10 +1791,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45796.38541666666</v>
+        <v>45797.38541666666</v>
       </c>
       <c r="B39">
-        <v>5596</v>
+        <v>5320</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1517,10 +1805,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45796.39583333334</v>
+        <v>45797.39583333334</v>
       </c>
       <c r="B40">
-        <v>5630</v>
+        <v>5220</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1531,10 +1819,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45796.40625</v>
+        <v>45797.40625</v>
       </c>
       <c r="B41">
-        <v>5583</v>
+        <v>5130</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1545,10 +1833,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45796.41666666666</v>
+        <v>45797.41666666666</v>
       </c>
       <c r="B42">
-        <v>5542</v>
+        <v>4953</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1559,10 +1847,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45796.42708333334</v>
+        <v>45797.42708333334</v>
       </c>
       <c r="B43">
-        <v>5432</v>
+        <v>4872</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1573,10 +1861,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45796.4375</v>
+        <v>45797.4375</v>
       </c>
       <c r="B44">
-        <v>5435</v>
+        <v>4931</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1587,10 +1875,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45796.44791666666</v>
+        <v>45797.44791666666</v>
       </c>
       <c r="B45">
-        <v>5495</v>
+        <v>4889</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1601,10 +1889,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45796.45833333334</v>
+        <v>45797.45833333334</v>
       </c>
       <c r="B46">
-        <v>5431</v>
+        <v>4817</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1615,10 +1903,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45796.46875</v>
+        <v>45797.46875</v>
       </c>
       <c r="B47">
-        <v>5399</v>
+        <v>4805</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1629,10 +1917,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45796.47916666666</v>
+        <v>45797.47916666666</v>
       </c>
       <c r="B48">
-        <v>5350</v>
+        <v>4744</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1643,10 +1931,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45796.48958333334</v>
+        <v>45797.48958333334</v>
       </c>
       <c r="B49">
-        <v>5353</v>
+        <v>4833</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1657,10 +1945,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45796.5</v>
+        <v>45797.5</v>
       </c>
       <c r="B50">
-        <v>5354</v>
+        <v>4885</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1671,10 +1959,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45796.51041666666</v>
+        <v>45797.51041666666</v>
       </c>
       <c r="B51">
-        <v>5361</v>
+        <v>4982</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1685,10 +1973,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45796.52083333334</v>
+        <v>45797.52083333334</v>
       </c>
       <c r="B52">
-        <v>5375</v>
+        <v>4981</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1699,10 +1987,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45796.53125</v>
+        <v>45797.53125</v>
       </c>
       <c r="B53">
-        <v>5422</v>
+        <v>4976</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -1713,10 +2001,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45796.54166666666</v>
+        <v>45797.54166666666</v>
       </c>
       <c r="B54">
-        <v>5299</v>
+        <v>4891</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -1727,10 +2015,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45796.55208333334</v>
+        <v>45797.55208333334</v>
       </c>
       <c r="B55">
-        <v>5241</v>
+        <v>4907</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -1741,10 +2029,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45796.5625</v>
+        <v>45797.5625</v>
       </c>
       <c r="B56">
-        <v>5291</v>
+        <v>4951</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -1755,10 +2043,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45796.57291666666</v>
+        <v>45797.57291666666</v>
       </c>
       <c r="B57">
-        <v>5218</v>
+        <v>4990</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -1769,10 +2057,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45796.58333333334</v>
+        <v>45797.58333333334</v>
       </c>
       <c r="B58">
-        <v>5253</v>
+        <v>5031</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -1783,10 +2071,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45796.59375</v>
+        <v>45797.59375</v>
       </c>
       <c r="B59">
-        <v>5382</v>
+        <v>5141</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -1797,10 +2085,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45796.60416666666</v>
+        <v>45797.60416666666</v>
       </c>
       <c r="B60">
-        <v>5312</v>
+        <v>5191</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -1811,10 +2099,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45796.61458333334</v>
+        <v>45797.61458333334</v>
       </c>
       <c r="B61">
-        <v>5400</v>
+        <v>5218</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -1825,10 +2113,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45796.625</v>
+        <v>45797.625</v>
       </c>
       <c r="B62">
-        <v>5556</v>
+        <v>5282</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -1839,10 +2127,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45796.63541666666</v>
+        <v>45797.63541666666</v>
       </c>
       <c r="B63">
-        <v>5693</v>
+        <v>5310</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -1853,10 +2141,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45796.64583333334</v>
+        <v>45797.64583333334</v>
       </c>
       <c r="B64">
-        <v>5787</v>
+        <v>5354</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -1867,10 +2155,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45796.65625</v>
+        <v>45797.65625</v>
       </c>
       <c r="B65">
-        <v>5915</v>
+        <v>5426</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -1881,10 +2169,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45796.66666666666</v>
+        <v>45797.66666666666</v>
       </c>
       <c r="B66">
-        <v>5878</v>
+        <v>5569</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -1895,10 +2183,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45796.67708333334</v>
+        <v>45797.67708333334</v>
       </c>
       <c r="B67">
-        <v>5929</v>
+        <v>5566</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -1909,10 +2197,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45796.6875</v>
+        <v>45797.6875</v>
       </c>
       <c r="B68">
-        <v>5970</v>
+        <v>5684</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -1923,10 +2211,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45796.69791666666</v>
+        <v>45797.69791666666</v>
       </c>
       <c r="B69">
-        <v>5953</v>
+        <v>5763</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -1937,10 +2225,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45796.70833333334</v>
+        <v>45797.70833333334</v>
       </c>
       <c r="B70">
-        <v>6166</v>
+        <v>5867</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -1951,10 +2239,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45796.71875</v>
+        <v>45797.71875</v>
       </c>
       <c r="B71">
-        <v>6180</v>
+        <v>5995</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -1965,10 +2253,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45796.72916666666</v>
+        <v>45797.72916666666</v>
       </c>
       <c r="B72">
-        <v>6244</v>
+        <v>6134</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -1979,10 +2267,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45796.73958333334</v>
+        <v>45797.73958333334</v>
       </c>
       <c r="B73">
-        <v>6286</v>
+        <v>6247</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -1993,10 +2281,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45796.75</v>
+        <v>45797.75</v>
       </c>
       <c r="B74">
-        <v>6439</v>
+        <v>6330</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -2007,10 +2295,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45796.76041666666</v>
+        <v>45797.76041666666</v>
       </c>
       <c r="B75">
-        <v>6585</v>
+        <v>6429</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -2021,10 +2309,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45796.77083333334</v>
+        <v>45797.77083333334</v>
       </c>
       <c r="B76">
-        <v>6596</v>
+        <v>6572</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -2035,10 +2323,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45796.78125</v>
+        <v>45797.78125</v>
       </c>
       <c r="B77">
-        <v>6744</v>
+        <v>6627</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -2049,10 +2337,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45796.79166666666</v>
+        <v>45797.79166666666</v>
       </c>
       <c r="B78">
-        <v>6789</v>
+        <v>6779</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -2063,10 +2351,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45796.80208333334</v>
+        <v>45797.80208333334</v>
       </c>
       <c r="B79">
-        <v>6843</v>
+        <v>6845</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -2077,10 +2365,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45796.8125</v>
+        <v>45797.8125</v>
       </c>
       <c r="B80">
-        <v>6940</v>
+        <v>6864</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -2091,10 +2379,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45796.82291666666</v>
+        <v>45797.82291666666</v>
       </c>
       <c r="B81">
-        <v>7047</v>
+        <v>7015</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -2105,10 +2393,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45796.83333333334</v>
+        <v>45797.83333333334</v>
       </c>
       <c r="B82">
-        <v>7076</v>
+        <v>7138</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -2119,10 +2407,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45796.84375</v>
+        <v>45797.84375</v>
       </c>
       <c r="B83">
-        <v>7057</v>
+        <v>7210</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -2133,10 +2421,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45796.85416666666</v>
+        <v>45797.85416666666</v>
       </c>
       <c r="B84">
-        <v>7055</v>
+        <v>7216</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -2147,10 +2435,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45796.86458333334</v>
+        <v>45797.86458333334</v>
       </c>
       <c r="B85">
-        <v>6912</v>
+        <v>7042</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -2161,10 +2449,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45796.875</v>
+        <v>45797.875</v>
       </c>
       <c r="B86">
-        <v>6766</v>
+        <v>6857</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -2175,10 +2463,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45796.88541666666</v>
+        <v>45797.88541666666</v>
       </c>
       <c r="B87">
-        <v>6555</v>
+        <v>6761</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -2189,10 +2477,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45796.89583333334</v>
+        <v>45797.89583333334</v>
       </c>
       <c r="B88">
-        <v>6409</v>
+        <v>6640</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -2203,10 +2491,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45796.90625</v>
+        <v>45797.90625</v>
       </c>
       <c r="B89">
-        <v>6265</v>
+        <v>6516</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -2217,10 +2505,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45796.91666666666</v>
+        <v>45797.91666666666</v>
       </c>
       <c r="B90">
-        <v>6079</v>
+        <v>6231</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -2231,10 +2519,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45796.92708333334</v>
+        <v>45797.92708333334</v>
       </c>
       <c r="B91">
-        <v>5944</v>
+        <v>6162</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -2245,10 +2533,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45796.9375</v>
+        <v>45797.9375</v>
       </c>
       <c r="B92">
-        <v>5831</v>
+        <v>6016</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -2259,10 +2547,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45796.94791666666</v>
+        <v>45797.94791666666</v>
       </c>
       <c r="B93">
-        <v>5762</v>
+        <v>5936</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -2273,10 +2561,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45796.95833333334</v>
+        <v>45797.95833333334</v>
       </c>
       <c r="B94">
-        <v>5676</v>
+        <v>5711</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -2287,10 +2575,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45796.96875</v>
+        <v>45797.96875</v>
       </c>
       <c r="B95">
-        <v>5625</v>
+        <v>5651</v>
       </c>
       <c r="C95">
         <v>94</v>
@@ -2301,10 +2589,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45796.97916666666</v>
+        <v>45797.97916666666</v>
       </c>
       <c r="B96">
-        <v>5481</v>
+        <v>5541</v>
       </c>
       <c r="C96">
         <v>95</v>
@@ -2315,10 +2603,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>45796.98958333334</v>
+        <v>45797.98958333334</v>
       </c>
       <c r="B97">
-        <v>5430</v>
+        <v>5449</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -2329,10 +2617,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>45797</v>
+        <v>45798</v>
       </c>
       <c r="B98">
-        <v>5376</v>
+        <v>5381</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2343,10 +2631,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>45797.01041666666</v>
+        <v>45798.01041666666</v>
       </c>
       <c r="B99">
-        <v>5355</v>
+        <v>5344</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2357,10 +2645,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>45797.02083333334</v>
+        <v>45798.02083333334</v>
       </c>
       <c r="B100">
-        <v>5348</v>
+        <v>5303</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2371,10 +2659,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>45797.03125</v>
+        <v>45798.03125</v>
       </c>
       <c r="B101">
-        <v>5284</v>
+        <v>5238</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2385,10 +2673,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>45797.04166666666</v>
+        <v>45798.04166666666</v>
       </c>
       <c r="B102">
-        <v>5230</v>
+        <v>5161</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2399,10 +2687,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>45797.05208333334</v>
+        <v>45798.05208333334</v>
       </c>
       <c r="B103">
-        <v>5221</v>
+        <v>5139</v>
       </c>
       <c r="C103">
         <v>6</v>
@@ -2413,10 +2701,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>45797.0625</v>
+        <v>45798.0625</v>
       </c>
       <c r="B104">
-        <v>5166</v>
+        <v>5154</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -2427,10 +2715,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>45797.07291666666</v>
+        <v>45798.07291666666</v>
       </c>
       <c r="B105">
-        <v>5197</v>
+        <v>5134</v>
       </c>
       <c r="C105">
         <v>8</v>
@@ -2441,10 +2729,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>45797.08333333334</v>
+        <v>45798.08333333334</v>
       </c>
       <c r="B106">
-        <v>5159</v>
+        <v>5119</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -2455,10 +2743,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>45797.09375</v>
+        <v>45798.09375</v>
       </c>
       <c r="B107">
-        <v>5131</v>
+        <v>5080</v>
       </c>
       <c r="C107">
         <v>10</v>
@@ -2469,10 +2757,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>45797.10416666666</v>
+        <v>45798.10416666666</v>
       </c>
       <c r="B108">
-        <v>5124</v>
+        <v>5089</v>
       </c>
       <c r="C108">
         <v>11</v>
@@ -2483,10 +2771,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>45797.11458333334</v>
+        <v>45798.11458333334</v>
       </c>
       <c r="B109">
-        <v>5163</v>
+        <v>5095</v>
       </c>
       <c r="C109">
         <v>12</v>
@@ -2497,10 +2785,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>45797.125</v>
+        <v>45798.125</v>
       </c>
       <c r="B110">
-        <v>5247</v>
+        <v>5072</v>
       </c>
       <c r="C110">
         <v>13</v>
@@ -2511,10 +2799,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>45797.13541666666</v>
+        <v>45798.13541666666</v>
       </c>
       <c r="B111">
-        <v>5190</v>
+        <v>5107</v>
       </c>
       <c r="C111">
         <v>14</v>
@@ -2525,10 +2813,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>45797.14583333334</v>
+        <v>45798.14583333334</v>
       </c>
       <c r="B112">
-        <v>5249</v>
+        <v>5100</v>
       </c>
       <c r="C112">
         <v>15</v>
@@ -2539,10 +2827,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>45797.15625</v>
+        <v>45798.15625</v>
       </c>
       <c r="B113">
-        <v>5234</v>
+        <v>5109</v>
       </c>
       <c r="C113">
         <v>16</v>
@@ -2553,10 +2841,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>45797.16666666666</v>
+        <v>45798.16666666666</v>
       </c>
       <c r="B114">
-        <v>5337</v>
+        <v>5129</v>
       </c>
       <c r="C114">
         <v>17</v>
@@ -2567,10 +2855,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>45797.17708333334</v>
+        <v>45798.17708333334</v>
       </c>
       <c r="B115">
-        <v>5309</v>
+        <v>5184</v>
       </c>
       <c r="C115">
         <v>18</v>
@@ -2581,10 +2869,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>45797.1875</v>
+        <v>45798.1875</v>
       </c>
       <c r="B116">
-        <v>5342</v>
+        <v>5173</v>
       </c>
       <c r="C116">
         <v>19</v>
@@ -2595,10 +2883,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>45797.19791666666</v>
+        <v>45798.19791666666</v>
       </c>
       <c r="B117">
-        <v>5347</v>
+        <v>5208</v>
       </c>
       <c r="C117">
         <v>20</v>
@@ -2609,10 +2897,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>45797.20833333334</v>
+        <v>45798.20833333334</v>
       </c>
       <c r="B118">
-        <v>5505</v>
+        <v>5309</v>
       </c>
       <c r="C118">
         <v>21</v>
@@ -2623,10 +2911,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>45797.21875</v>
+        <v>45798.21875</v>
       </c>
       <c r="B119">
-        <v>5582</v>
+        <v>5429</v>
       </c>
       <c r="C119">
         <v>22</v>
@@ -2637,10 +2925,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>45797.22916666666</v>
+        <v>45798.22916666666</v>
       </c>
       <c r="B120">
-        <v>5686</v>
+        <v>5465</v>
       </c>
       <c r="C120">
         <v>23</v>
@@ -2651,10 +2939,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>45797.23958333334</v>
+        <v>45798.23958333334</v>
       </c>
       <c r="B121">
-        <v>5735</v>
+        <v>5547</v>
       </c>
       <c r="C121">
         <v>24</v>
@@ -2665,10 +2953,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>45797.25</v>
+        <v>45798.25</v>
       </c>
       <c r="B122">
-        <v>5920</v>
+        <v>5678</v>
       </c>
       <c r="C122">
         <v>25</v>
@@ -2679,10 +2967,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>45797.26041666666</v>
+        <v>45798.26041666666</v>
       </c>
       <c r="B123">
-        <v>5975</v>
+        <v>5837</v>
       </c>
       <c r="C123">
         <v>26</v>
@@ -2693,10 +2981,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>45797.27083333334</v>
+        <v>45798.27083333334</v>
       </c>
       <c r="B124">
-        <v>6003</v>
+        <v>5782</v>
       </c>
       <c r="C124">
         <v>27</v>
@@ -2707,10 +2995,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>45797.28125</v>
+        <v>45798.28125</v>
       </c>
       <c r="B125">
-        <v>5979</v>
+        <v>5716</v>
       </c>
       <c r="C125">
         <v>28</v>
@@ -2721,10 +3009,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>45797.29166666666</v>
+        <v>45798.29166666666</v>
       </c>
       <c r="B126">
-        <v>6017</v>
+        <v>5748</v>
       </c>
       <c r="C126">
         <v>29</v>
@@ -2735,10 +3023,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>45797.30208333334</v>
+        <v>45798.30208333334</v>
       </c>
       <c r="B127">
-        <v>6000</v>
+        <v>5701</v>
       </c>
       <c r="C127">
         <v>30</v>
@@ -2749,10 +3037,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>45797.3125</v>
+        <v>45798.3125</v>
       </c>
       <c r="B128">
-        <v>5899</v>
+        <v>5684</v>
       </c>
       <c r="C128">
         <v>31</v>
@@ -2763,10 +3051,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>45797.32291666666</v>
+        <v>45798.32291666666</v>
       </c>
       <c r="B129">
-        <v>5807</v>
+        <v>5539</v>
       </c>
       <c r="C129">
         <v>32</v>
@@ -2777,10 +3065,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>45797.33333333334</v>
+        <v>45798.33333333334</v>
       </c>
       <c r="B130">
-        <v>5652</v>
+        <v>5490</v>
       </c>
       <c r="C130">
         <v>33</v>
@@ -2791,10 +3079,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>45797.34375</v>
+        <v>45798.34375</v>
       </c>
       <c r="B131">
-        <v>5556</v>
+        <v>5401</v>
       </c>
       <c r="C131">
         <v>34</v>
@@ -2805,10 +3093,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>45797.35416666666</v>
+        <v>45798.35416666666</v>
       </c>
       <c r="B132">
-        <v>5471</v>
+        <v>5349</v>
       </c>
       <c r="C132">
         <v>35</v>
@@ -2819,10 +3107,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>45797.36458333334</v>
+        <v>45798.36458333334</v>
       </c>
       <c r="B133">
-        <v>5371</v>
+        <v>5179</v>
       </c>
       <c r="C133">
         <v>36</v>
@@ -2833,10 +3121,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>45797.375</v>
+        <v>45798.375</v>
       </c>
       <c r="B134">
-        <v>5346</v>
+        <v>5089</v>
       </c>
       <c r="C134">
         <v>37</v>
@@ -2847,10 +3135,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>45797.38541666666</v>
+        <v>45798.38541666666</v>
       </c>
       <c r="B135">
-        <v>5320</v>
+        <v>5041</v>
       </c>
       <c r="C135">
         <v>38</v>
@@ -2861,10 +3149,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>45797.39583333334</v>
+        <v>45798.39583333334</v>
       </c>
       <c r="B136">
-        <v>5220</v>
+        <v>5001</v>
       </c>
       <c r="C136">
         <v>39</v>
@@ -2875,10 +3163,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>45797.40625</v>
+        <v>45798.40625</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>4966</v>
       </c>
       <c r="C137">
         <v>40</v>
@@ -2889,10 +3177,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>45797.41666666666</v>
+        <v>45798.41666666666</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>4940</v>
       </c>
       <c r="C138">
         <v>41</v>
@@ -2903,10 +3191,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>45797.42708333334</v>
+        <v>45798.42708333334</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>4866</v>
       </c>
       <c r="C139">
         <v>42</v>
@@ -2917,10 +3205,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>45797.4375</v>
+        <v>45798.4375</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>4821</v>
       </c>
       <c r="C140">
         <v>43</v>
@@ -2931,10 +3219,10 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>45797.44791666666</v>
+        <v>45798.44791666666</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>4762</v>
       </c>
       <c r="C141">
         <v>44</v>
@@ -2945,10 +3233,10 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>45797.45833333334</v>
+        <v>45798.45833333334</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>4607</v>
       </c>
       <c r="C142">
         <v>45</v>
@@ -2959,10 +3247,10 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>45797.46875</v>
+        <v>45798.46875</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>4623</v>
       </c>
       <c r="C143">
         <v>46</v>
@@ -2973,10 +3261,10 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>45797.47916666666</v>
+        <v>45798.47916666666</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>4598</v>
       </c>
       <c r="C144">
         <v>47</v>
@@ -2987,10 +3275,10 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>45797.48958333334</v>
+        <v>45798.48958333334</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>4648</v>
       </c>
       <c r="C145">
         <v>48</v>
@@ -3001,10 +3289,10 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>45797.5</v>
+        <v>45798.5</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>4587</v>
       </c>
       <c r="C146">
         <v>49</v>
@@ -3015,10 +3303,10 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>45797.51041666666</v>
+        <v>45798.51041666666</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>4602</v>
       </c>
       <c r="C147">
         <v>50</v>
@@ -3029,10 +3317,10 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>45797.52083333334</v>
+        <v>45798.52083333334</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>4698</v>
       </c>
       <c r="C148">
         <v>51</v>
@@ -3043,10 +3331,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>45797.53125</v>
+        <v>45798.53125</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>4636</v>
       </c>
       <c r="C149">
         <v>52</v>
@@ -3057,10 +3345,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>45797.54166666666</v>
+        <v>45798.54166666666</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>4611</v>
       </c>
       <c r="C150">
         <v>53</v>
@@ -3071,10 +3359,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>45797.55208333334</v>
+        <v>45798.55208333334</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>4560</v>
       </c>
       <c r="C151">
         <v>54</v>
@@ -3085,10 +3373,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>45797.5625</v>
+        <v>45798.5625</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>4685</v>
       </c>
       <c r="C152">
         <v>55</v>
@@ -3099,10 +3387,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>45797.57291666666</v>
+        <v>45798.57291666666</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>4770</v>
       </c>
       <c r="C153">
         <v>56</v>
@@ -3113,10 +3401,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>45797.58333333334</v>
+        <v>45798.58333333334</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>4774</v>
       </c>
       <c r="C154">
         <v>57</v>
@@ -3127,10 +3415,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>45797.59375</v>
+        <v>45798.59375</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>4819</v>
       </c>
       <c r="C155">
         <v>58</v>
@@ -3141,10 +3429,10 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>45797.60416666666</v>
+        <v>45798.60416666666</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>4870</v>
       </c>
       <c r="C156">
         <v>59</v>
@@ -3155,10 +3443,10 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>45797.61458333334</v>
+        <v>45798.61458333334</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>4895</v>
       </c>
       <c r="C157">
         <v>60</v>
@@ -3169,10 +3457,10 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>45797.625</v>
+        <v>45798.625</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>5003</v>
       </c>
       <c r="C158">
         <v>61</v>
@@ -3183,10 +3471,10 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>45797.63541666666</v>
+        <v>45798.63541666666</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>5008</v>
       </c>
       <c r="C159">
         <v>62</v>
@@ -3197,10 +3485,10 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>45797.64583333334</v>
+        <v>45798.64583333334</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>5077</v>
       </c>
       <c r="C160">
         <v>63</v>
@@ -3211,10 +3499,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>45797.65625</v>
+        <v>45798.65625</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>5209</v>
       </c>
       <c r="C161">
         <v>64</v>
@@ -3225,10 +3513,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>45797.66666666666</v>
+        <v>45798.66666666666</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>5379</v>
       </c>
       <c r="C162">
         <v>65</v>
@@ -3239,10 +3527,10 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>45797.67708333334</v>
+        <v>45798.67708333334</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>5398</v>
       </c>
       <c r="C163">
         <v>66</v>
@@ -3253,10 +3541,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>45797.6875</v>
+        <v>45798.6875</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>5468</v>
       </c>
       <c r="C164">
         <v>67</v>
@@ -3267,10 +3555,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>45797.69791666666</v>
+        <v>45798.69791666666</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>5602</v>
       </c>
       <c r="C165">
         <v>68</v>
@@ -3281,10 +3569,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>45797.70833333334</v>
+        <v>45798.70833333334</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>5690</v>
       </c>
       <c r="C166">
         <v>69</v>
@@ -3295,10 +3583,10 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>45797.71875</v>
+        <v>45798.71875</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>5880</v>
       </c>
       <c r="C167">
         <v>70</v>
@@ -3309,10 +3597,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>45797.72916666666</v>
+        <v>45798.72916666666</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>5920</v>
       </c>
       <c r="C168">
         <v>71</v>
@@ -3323,10 +3611,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>45797.73958333334</v>
+        <v>45798.73958333334</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>6009</v>
       </c>
       <c r="C169">
         <v>72</v>
@@ -3337,10 +3625,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>45797.75</v>
+        <v>45798.75</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>6186</v>
       </c>
       <c r="C170">
         <v>73</v>
@@ -3351,10 +3639,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>45797.76041666666</v>
+        <v>45798.76041666666</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>6290</v>
       </c>
       <c r="C171">
         <v>74</v>
@@ -3365,10 +3653,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>45797.77083333334</v>
+        <v>45798.77083333334</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>6325</v>
       </c>
       <c r="C172">
         <v>75</v>
@@ -3379,10 +3667,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>45797.78125</v>
+        <v>45798.78125</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>6413</v>
       </c>
       <c r="C173">
         <v>76</v>
@@ -3393,10 +3681,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>45797.79166666666</v>
+        <v>45798.79166666666</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>6496</v>
       </c>
       <c r="C174">
         <v>77</v>
@@ -3407,10 +3695,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>45797.80208333334</v>
+        <v>45798.80208333334</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>6572</v>
       </c>
       <c r="C175">
         <v>78</v>
@@ -3421,10 +3709,10 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>45797.8125</v>
+        <v>45798.8125</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>6668</v>
       </c>
       <c r="C176">
         <v>79</v>
@@ -3435,10 +3723,10 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>45797.82291666666</v>
+        <v>45798.82291666666</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>6750</v>
       </c>
       <c r="C177">
         <v>80</v>
@@ -3449,10 +3737,10 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>45797.83333333334</v>
+        <v>45798.83333333334</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>6792</v>
       </c>
       <c r="C178">
         <v>81</v>
@@ -3463,10 +3751,10 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>45797.84375</v>
+        <v>45798.84375</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>6882</v>
       </c>
       <c r="C179">
         <v>82</v>
@@ -3477,10 +3765,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>45797.85416666666</v>
+        <v>45798.85416666666</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>6856</v>
       </c>
       <c r="C180">
         <v>83</v>
@@ -3491,10 +3779,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>45797.86458333334</v>
+        <v>45798.86458333334</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>6800</v>
       </c>
       <c r="C181">
         <v>84</v>
@@ -3505,10 +3793,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>45797.875</v>
+        <v>45798.875</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>6548</v>
       </c>
       <c r="C182">
         <v>85</v>
@@ -3519,10 +3807,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>45797.88541666666</v>
+        <v>45798.88541666666</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>6430</v>
       </c>
       <c r="C183">
         <v>86</v>
@@ -3533,10 +3821,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>45797.89583333334</v>
+        <v>45798.89583333334</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>6234</v>
       </c>
       <c r="C184">
         <v>87</v>
@@ -3547,10 +3835,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>45797.90625</v>
+        <v>45798.90625</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>6118</v>
       </c>
       <c r="C185">
         <v>88</v>
@@ -3561,10 +3849,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>45797.91666666666</v>
+        <v>45798.91666666666</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>5917</v>
       </c>
       <c r="C186">
         <v>89</v>
@@ -3575,10 +3863,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>45797.92708333334</v>
+        <v>45798.92708333334</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>5778</v>
       </c>
       <c r="C187">
         <v>90</v>
@@ -3589,10 +3877,10 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>45797.9375</v>
+        <v>45798.9375</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>5680</v>
       </c>
       <c r="C188">
         <v>91</v>
@@ -3603,10 +3891,10 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>45797.94791666666</v>
+        <v>45798.94791666666</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>5578</v>
       </c>
       <c r="C189">
         <v>92</v>
@@ -3617,10 +3905,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>45797.95833333334</v>
+        <v>45798.95833333334</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>5479</v>
       </c>
       <c r="C190">
         <v>93</v>
@@ -3631,10 +3919,10 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>45797.96875</v>
+        <v>45798.96875</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>5412</v>
       </c>
       <c r="C191">
         <v>94</v>
@@ -3645,10 +3933,10 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>45797.97916666666</v>
+        <v>45798.97916666666</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>5334</v>
       </c>
       <c r="C192">
         <v>95</v>
@@ -3659,16 +3947,1360 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>45797.98958333334</v>
+        <v>45798.98958333334</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>5330</v>
       </c>
       <c r="C193">
         <v>96</v>
       </c>
       <c r="D193" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
+        <v>45799</v>
+      </c>
+      <c r="B194">
+        <v>5266</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
+        <v>45799.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>5262</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+      <c r="D195" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
+        <v>45799.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>5182</v>
+      </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
+      <c r="D196" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
+        <v>45799.03125</v>
+      </c>
+      <c r="B197">
+        <v>5202</v>
+      </c>
+      <c r="C197">
+        <v>4</v>
+      </c>
+      <c r="D197" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
+        <v>45799.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>5128</v>
+      </c>
+      <c r="C198">
+        <v>5</v>
+      </c>
+      <c r="D198" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
+        <v>45799.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>5089</v>
+      </c>
+      <c r="C199">
+        <v>6</v>
+      </c>
+      <c r="D199" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
+        <v>45799.0625</v>
+      </c>
+      <c r="B200">
+        <v>5084</v>
+      </c>
+      <c r="C200">
+        <v>7</v>
+      </c>
+      <c r="D200" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
+        <v>45799.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>5047</v>
+      </c>
+      <c r="C201">
+        <v>8</v>
+      </c>
+      <c r="D201" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
+        <v>45799.08333333334</v>
+      </c>
+      <c r="B202">
+        <v>5012</v>
+      </c>
+      <c r="C202">
+        <v>9</v>
+      </c>
+      <c r="D202" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
+        <v>45799.09375</v>
+      </c>
+      <c r="B203">
+        <v>5084</v>
+      </c>
+      <c r="C203">
+        <v>10</v>
+      </c>
+      <c r="D203" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
+        <v>45799.10416666666</v>
+      </c>
+      <c r="B204">
+        <v>5034</v>
+      </c>
+      <c r="C204">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
+        <v>45799.11458333334</v>
+      </c>
+      <c r="B205">
+        <v>5067</v>
+      </c>
+      <c r="C205">
+        <v>12</v>
+      </c>
+      <c r="D205" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
+        <v>45799.125</v>
+      </c>
+      <c r="B206">
+        <v>5064</v>
+      </c>
+      <c r="C206">
+        <v>13</v>
+      </c>
+      <c r="D206" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
+        <v>45799.13541666666</v>
+      </c>
+      <c r="B207">
+        <v>5111</v>
+      </c>
+      <c r="C207">
+        <v>14</v>
+      </c>
+      <c r="D207" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
+        <v>45799.14583333334</v>
+      </c>
+      <c r="B208">
+        <v>5132</v>
+      </c>
+      <c r="C208">
+        <v>15</v>
+      </c>
+      <c r="D208" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
+        <v>45799.15625</v>
+      </c>
+      <c r="B209">
+        <v>5154</v>
+      </c>
+      <c r="C209">
+        <v>16</v>
+      </c>
+      <c r="D209" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
+        <v>45799.16666666666</v>
+      </c>
+      <c r="B210">
+        <v>5221</v>
+      </c>
+      <c r="C210">
+        <v>17</v>
+      </c>
+      <c r="D210" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
+        <v>45799.17708333334</v>
+      </c>
+      <c r="B211">
+        <v>5194</v>
+      </c>
+      <c r="C211">
+        <v>18</v>
+      </c>
+      <c r="D211" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
+        <v>45799.1875</v>
+      </c>
+      <c r="B212">
+        <v>5209</v>
+      </c>
+      <c r="C212">
+        <v>19</v>
+      </c>
+      <c r="D212" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
+        <v>45799.19791666666</v>
+      </c>
+      <c r="B213">
+        <v>5230</v>
+      </c>
+      <c r="C213">
+        <v>20</v>
+      </c>
+      <c r="D213" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
+        <v>45799.20833333334</v>
+      </c>
+      <c r="B214">
+        <v>5342</v>
+      </c>
+      <c r="C214">
+        <v>21</v>
+      </c>
+      <c r="D214" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
+        <v>45799.21875</v>
+      </c>
+      <c r="B215">
+        <v>5492</v>
+      </c>
+      <c r="C215">
+        <v>22</v>
+      </c>
+      <c r="D215" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
+        <v>45799.22916666666</v>
+      </c>
+      <c r="B216">
+        <v>5555</v>
+      </c>
+      <c r="C216">
+        <v>23</v>
+      </c>
+      <c r="D216" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
+        <v>45799.23958333334</v>
+      </c>
+      <c r="B217">
+        <v>5686</v>
+      </c>
+      <c r="C217">
+        <v>24</v>
+      </c>
+      <c r="D217" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
+        <v>45799.25</v>
+      </c>
+      <c r="B218">
+        <v>5902</v>
+      </c>
+      <c r="C218">
+        <v>25</v>
+      </c>
+      <c r="D218" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
+        <v>45799.26041666666</v>
+      </c>
+      <c r="B219">
+        <v>6045</v>
+      </c>
+      <c r="C219">
+        <v>26</v>
+      </c>
+      <c r="D219" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
+        <v>45799.27083333334</v>
+      </c>
+      <c r="B220">
+        <v>6032</v>
+      </c>
+      <c r="C220">
+        <v>27</v>
+      </c>
+      <c r="D220" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
+        <v>45799.28125</v>
+      </c>
+      <c r="B221">
+        <v>6068</v>
+      </c>
+      <c r="C221">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
+        <v>45799.29166666666</v>
+      </c>
+      <c r="B222">
+        <v>6172</v>
+      </c>
+      <c r="C222">
+        <v>29</v>
+      </c>
+      <c r="D222" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
+        <v>45799.30208333334</v>
+      </c>
+      <c r="B223">
+        <v>6214</v>
+      </c>
+      <c r="C223">
+        <v>30</v>
+      </c>
+      <c r="D223" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
+        <v>45799.3125</v>
+      </c>
+      <c r="B224">
+        <v>6213</v>
+      </c>
+      <c r="C224">
+        <v>31</v>
+      </c>
+      <c r="D224" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
+        <v>45799.32291666666</v>
+      </c>
+      <c r="B225">
+        <v>6138</v>
+      </c>
+      <c r="C225">
+        <v>32</v>
+      </c>
+      <c r="D225" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
+        <v>45799.33333333334</v>
+      </c>
+      <c r="B226">
+        <v>6175</v>
+      </c>
+      <c r="C226">
+        <v>33</v>
+      </c>
+      <c r="D226" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
+        <v>45799.34375</v>
+      </c>
+      <c r="B227">
+        <v>6167</v>
+      </c>
+      <c r="C227">
+        <v>34</v>
+      </c>
+      <c r="D227" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
+        <v>45799.35416666666</v>
+      </c>
+      <c r="B228">
+        <v>6131</v>
+      </c>
+      <c r="C228">
+        <v>35</v>
+      </c>
+      <c r="D228" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
+        <v>45799.36458333334</v>
+      </c>
+      <c r="B229">
+        <v>5951</v>
+      </c>
+      <c r="C229">
+        <v>36</v>
+      </c>
+      <c r="D229" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
+        <v>45799.375</v>
+      </c>
+      <c r="B230">
+        <v>5834</v>
+      </c>
+      <c r="C230">
+        <v>37</v>
+      </c>
+      <c r="D230" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="2">
+        <v>45799.38541666666</v>
+      </c>
+      <c r="B231">
+        <v>5697</v>
+      </c>
+      <c r="C231">
+        <v>38</v>
+      </c>
+      <c r="D231" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="2">
+        <v>45799.39583333334</v>
+      </c>
+      <c r="B232">
+        <v>5630</v>
+      </c>
+      <c r="C232">
+        <v>39</v>
+      </c>
+      <c r="D232" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="2">
+        <v>45799.40625</v>
+      </c>
+      <c r="B233">
+        <v>5509</v>
+      </c>
+      <c r="C233">
+        <v>40</v>
+      </c>
+      <c r="D233" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="2">
+        <v>45799.41666666666</v>
+      </c>
+      <c r="B234">
+        <v>5303</v>
+      </c>
+      <c r="C234">
+        <v>41</v>
+      </c>
+      <c r="D234" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="2">
+        <v>45799.42708333334</v>
+      </c>
+      <c r="B235">
+        <v>5208</v>
+      </c>
+      <c r="C235">
+        <v>42</v>
+      </c>
+      <c r="D235" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="2">
+        <v>45799.4375</v>
+      </c>
+      <c r="B236">
+        <v>5232</v>
+      </c>
+      <c r="C236">
+        <v>43</v>
+      </c>
+      <c r="D236" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="2">
+        <v>45799.44791666666</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>44</v>
+      </c>
+      <c r="D237" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="2">
+        <v>45799.45833333334</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+      <c r="C238">
+        <v>45</v>
+      </c>
+      <c r="D238" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="2">
+        <v>45799.46875</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>46</v>
+      </c>
+      <c r="D239" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="2">
+        <v>45799.47916666666</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+      <c r="C240">
+        <v>47</v>
+      </c>
+      <c r="D240" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="2">
+        <v>45799.48958333334</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>48</v>
+      </c>
+      <c r="D241" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
+        <v>45799.5</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>49</v>
+      </c>
+      <c r="D242" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
+        <v>45799.51041666666</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>50</v>
+      </c>
+      <c r="D243" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
+        <v>45799.52083333334</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <v>51</v>
+      </c>
+      <c r="D244" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
+        <v>45799.53125</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>52</v>
+      </c>
+      <c r="D245" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
+        <v>45799.54166666666</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>53</v>
+      </c>
+      <c r="D246" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
+        <v>45799.55208333334</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>54</v>
+      </c>
+      <c r="D247" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
+        <v>45799.5625</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+      <c r="C248">
+        <v>55</v>
+      </c>
+      <c r="D248" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="2">
+        <v>45799.57291666666</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>56</v>
+      </c>
+      <c r="D249" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="2">
+        <v>45799.58333333334</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <v>57</v>
+      </c>
+      <c r="D250" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="2">
+        <v>45799.59375</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>58</v>
+      </c>
+      <c r="D251" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="2">
+        <v>45799.60416666666</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+      <c r="C252">
+        <v>59</v>
+      </c>
+      <c r="D252" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="2">
+        <v>45799.61458333334</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>60</v>
+      </c>
+      <c r="D253" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="2">
+        <v>45799.625</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>61</v>
+      </c>
+      <c r="D254" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="2">
+        <v>45799.63541666666</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>62</v>
+      </c>
+      <c r="D255" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="2">
+        <v>45799.64583333334</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <v>63</v>
+      </c>
+      <c r="D256" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="2">
+        <v>45799.65625</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+      <c r="C257">
+        <v>64</v>
+      </c>
+      <c r="D257" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="2">
+        <v>45799.66666666666</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <v>65</v>
+      </c>
+      <c r="D258" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="2">
+        <v>45799.67708333334</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+      <c r="C259">
+        <v>66</v>
+      </c>
+      <c r="D259" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="2">
+        <v>45799.6875</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <v>67</v>
+      </c>
+      <c r="D260" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="2">
+        <v>45799.69791666666</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+      <c r="C261">
+        <v>68</v>
+      </c>
+      <c r="D261" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="2">
+        <v>45799.70833333334</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+      <c r="C262">
+        <v>69</v>
+      </c>
+      <c r="D262" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="2">
+        <v>45799.71875</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <v>70</v>
+      </c>
+      <c r="D263" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="2">
+        <v>45799.72916666666</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <v>71</v>
+      </c>
+      <c r="D264" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="2">
+        <v>45799.73958333334</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>72</v>
+      </c>
+      <c r="D265" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="2">
+        <v>45799.75</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>73</v>
+      </c>
+      <c r="D266" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="2">
+        <v>45799.76041666666</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>74</v>
+      </c>
+      <c r="D267" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="2">
+        <v>45799.77083333334</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>75</v>
+      </c>
+      <c r="D268" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="2">
+        <v>45799.78125</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>76</v>
+      </c>
+      <c r="D269" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="2">
+        <v>45799.79166666666</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>77</v>
+      </c>
+      <c r="D270" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="2">
+        <v>45799.80208333334</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>78</v>
+      </c>
+      <c r="D271" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="2">
+        <v>45799.8125</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+      <c r="C272">
+        <v>79</v>
+      </c>
+      <c r="D272" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="2">
+        <v>45799.82291666666</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>80</v>
+      </c>
+      <c r="D273" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="2">
+        <v>45799.83333333334</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+      <c r="C274">
+        <v>81</v>
+      </c>
+      <c r="D274" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="2">
+        <v>45799.84375</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>82</v>
+      </c>
+      <c r="D275" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="2">
+        <v>45799.85416666666</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <v>83</v>
+      </c>
+      <c r="D276" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="2">
+        <v>45799.86458333334</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <v>84</v>
+      </c>
+      <c r="D277" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="2">
+        <v>45799.875</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>85</v>
+      </c>
+      <c r="D278" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="2">
+        <v>45799.88541666666</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>86</v>
+      </c>
+      <c r="D279" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="2">
+        <v>45799.89583333334</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+      <c r="C280">
+        <v>87</v>
+      </c>
+      <c r="D280" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="2">
+        <v>45799.90625</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <v>88</v>
+      </c>
+      <c r="D281" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="2">
+        <v>45799.91666666666</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <v>89</v>
+      </c>
+      <c r="D282" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="2">
+        <v>45799.92708333334</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <v>90</v>
+      </c>
+      <c r="D283" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="2">
+        <v>45799.9375</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>91</v>
+      </c>
+      <c r="D284" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="2">
+        <v>45799.94791666666</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <v>92</v>
+      </c>
+      <c r="D285" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="2">
+        <v>45799.95833333334</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <v>93</v>
+      </c>
+      <c r="D286" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="2">
+        <v>45799.96875</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>94</v>
+      </c>
+      <c r="D287" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="2">
+        <v>45799.97916666666</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <v>95</v>
+      </c>
+      <c r="D288" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="2">
+        <v>45799.98958333334</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>96</v>
+      </c>
+      <c r="D289" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="388">
   <si>
     <t>Timestamp</t>
   </si>
@@ -28,294 +28,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>29.05.20251</t>
-  </si>
-  <si>
-    <t>29.05.20252</t>
-  </si>
-  <si>
-    <t>29.05.20253</t>
-  </si>
-  <si>
-    <t>29.05.20254</t>
-  </si>
-  <si>
-    <t>29.05.20255</t>
-  </si>
-  <si>
-    <t>29.05.20256</t>
-  </si>
-  <si>
-    <t>29.05.20257</t>
-  </si>
-  <si>
-    <t>29.05.20258</t>
-  </si>
-  <si>
-    <t>29.05.20259</t>
-  </si>
-  <si>
-    <t>29.05.202510</t>
-  </si>
-  <si>
-    <t>29.05.202511</t>
-  </si>
-  <si>
-    <t>29.05.202512</t>
-  </si>
-  <si>
-    <t>29.05.202513</t>
-  </si>
-  <si>
-    <t>29.05.202514</t>
-  </si>
-  <si>
-    <t>29.05.202515</t>
-  </si>
-  <si>
-    <t>29.05.202516</t>
-  </si>
-  <si>
-    <t>29.05.202517</t>
-  </si>
-  <si>
-    <t>29.05.202518</t>
-  </si>
-  <si>
-    <t>29.05.202519</t>
-  </si>
-  <si>
-    <t>29.05.202520</t>
-  </si>
-  <si>
-    <t>29.05.202521</t>
-  </si>
-  <si>
-    <t>29.05.202522</t>
-  </si>
-  <si>
-    <t>29.05.202523</t>
-  </si>
-  <si>
-    <t>29.05.202524</t>
-  </si>
-  <si>
-    <t>29.05.202525</t>
-  </si>
-  <si>
-    <t>29.05.202526</t>
-  </si>
-  <si>
-    <t>29.05.202527</t>
-  </si>
-  <si>
-    <t>29.05.202528</t>
-  </si>
-  <si>
-    <t>29.05.202529</t>
-  </si>
-  <si>
-    <t>29.05.202530</t>
-  </si>
-  <si>
-    <t>29.05.202531</t>
-  </si>
-  <si>
-    <t>29.05.202532</t>
-  </si>
-  <si>
-    <t>29.05.202533</t>
-  </si>
-  <si>
-    <t>29.05.202534</t>
-  </si>
-  <si>
-    <t>29.05.202535</t>
-  </si>
-  <si>
-    <t>29.05.202536</t>
-  </si>
-  <si>
-    <t>29.05.202537</t>
-  </si>
-  <si>
-    <t>29.05.202538</t>
-  </si>
-  <si>
-    <t>29.05.202539</t>
-  </si>
-  <si>
-    <t>29.05.202540</t>
-  </si>
-  <si>
-    <t>29.05.202541</t>
-  </si>
-  <si>
-    <t>29.05.202542</t>
-  </si>
-  <si>
-    <t>29.05.202543</t>
-  </si>
-  <si>
-    <t>29.05.202544</t>
-  </si>
-  <si>
-    <t>29.05.202545</t>
-  </si>
-  <si>
-    <t>29.05.202546</t>
-  </si>
-  <si>
-    <t>29.05.202547</t>
-  </si>
-  <si>
-    <t>29.05.202548</t>
-  </si>
-  <si>
-    <t>29.05.202549</t>
-  </si>
-  <si>
-    <t>29.05.202550</t>
-  </si>
-  <si>
-    <t>29.05.202551</t>
-  </si>
-  <si>
-    <t>29.05.202552</t>
-  </si>
-  <si>
-    <t>29.05.202553</t>
-  </si>
-  <si>
-    <t>29.05.202554</t>
-  </si>
-  <si>
-    <t>29.05.202555</t>
-  </si>
-  <si>
-    <t>29.05.202556</t>
-  </si>
-  <si>
-    <t>29.05.202557</t>
-  </si>
-  <si>
-    <t>29.05.202558</t>
-  </si>
-  <si>
-    <t>29.05.202559</t>
-  </si>
-  <si>
-    <t>29.05.202560</t>
-  </si>
-  <si>
-    <t>29.05.202561</t>
-  </si>
-  <si>
-    <t>29.05.202562</t>
-  </si>
-  <si>
-    <t>29.05.202563</t>
-  </si>
-  <si>
-    <t>29.05.202564</t>
-  </si>
-  <si>
-    <t>29.05.202565</t>
-  </si>
-  <si>
-    <t>29.05.202566</t>
-  </si>
-  <si>
-    <t>29.05.202567</t>
-  </si>
-  <si>
-    <t>29.05.202568</t>
-  </si>
-  <si>
-    <t>29.05.202569</t>
-  </si>
-  <si>
-    <t>29.05.202570</t>
-  </si>
-  <si>
-    <t>29.05.202571</t>
-  </si>
-  <si>
-    <t>29.05.202572</t>
-  </si>
-  <si>
-    <t>29.05.202573</t>
-  </si>
-  <si>
-    <t>29.05.202574</t>
-  </si>
-  <si>
-    <t>29.05.202575</t>
-  </si>
-  <si>
-    <t>29.05.202576</t>
-  </si>
-  <si>
-    <t>29.05.202577</t>
-  </si>
-  <si>
-    <t>29.05.202578</t>
-  </si>
-  <si>
-    <t>29.05.202579</t>
-  </si>
-  <si>
-    <t>29.05.202580</t>
-  </si>
-  <si>
-    <t>29.05.202581</t>
-  </si>
-  <si>
-    <t>29.05.202582</t>
-  </si>
-  <si>
-    <t>29.05.202583</t>
-  </si>
-  <si>
-    <t>29.05.202584</t>
-  </si>
-  <si>
-    <t>29.05.202585</t>
-  </si>
-  <si>
-    <t>29.05.202586</t>
-  </si>
-  <si>
-    <t>29.05.202587</t>
-  </si>
-  <si>
-    <t>29.05.202588</t>
-  </si>
-  <si>
-    <t>29.05.202589</t>
-  </si>
-  <si>
-    <t>29.05.202590</t>
-  </si>
-  <si>
-    <t>29.05.202591</t>
-  </si>
-  <si>
-    <t>29.05.202592</t>
-  </si>
-  <si>
-    <t>29.05.202593</t>
-  </si>
-  <si>
-    <t>29.05.202594</t>
-  </si>
-  <si>
-    <t>29.05.202595</t>
-  </si>
-  <si>
-    <t>29.05.202596</t>
-  </si>
-  <si>
     <t>30.05.20251</t>
   </si>
   <si>
@@ -602,6 +314,870 @@
   </si>
   <si>
     <t>30.05.202596</t>
+  </si>
+  <si>
+    <t>31.05.20251</t>
+  </si>
+  <si>
+    <t>31.05.20252</t>
+  </si>
+  <si>
+    <t>31.05.20253</t>
+  </si>
+  <si>
+    <t>31.05.20254</t>
+  </si>
+  <si>
+    <t>31.05.20255</t>
+  </si>
+  <si>
+    <t>31.05.20256</t>
+  </si>
+  <si>
+    <t>31.05.20257</t>
+  </si>
+  <si>
+    <t>31.05.20258</t>
+  </si>
+  <si>
+    <t>31.05.20259</t>
+  </si>
+  <si>
+    <t>31.05.202510</t>
+  </si>
+  <si>
+    <t>31.05.202511</t>
+  </si>
+  <si>
+    <t>31.05.202512</t>
+  </si>
+  <si>
+    <t>31.05.202513</t>
+  </si>
+  <si>
+    <t>31.05.202514</t>
+  </si>
+  <si>
+    <t>31.05.202515</t>
+  </si>
+  <si>
+    <t>31.05.202516</t>
+  </si>
+  <si>
+    <t>31.05.202517</t>
+  </si>
+  <si>
+    <t>31.05.202518</t>
+  </si>
+  <si>
+    <t>31.05.202519</t>
+  </si>
+  <si>
+    <t>31.05.202520</t>
+  </si>
+  <si>
+    <t>31.05.202521</t>
+  </si>
+  <si>
+    <t>31.05.202522</t>
+  </si>
+  <si>
+    <t>31.05.202523</t>
+  </si>
+  <si>
+    <t>31.05.202524</t>
+  </si>
+  <si>
+    <t>31.05.202525</t>
+  </si>
+  <si>
+    <t>31.05.202526</t>
+  </si>
+  <si>
+    <t>31.05.202527</t>
+  </si>
+  <si>
+    <t>31.05.202528</t>
+  </si>
+  <si>
+    <t>31.05.202529</t>
+  </si>
+  <si>
+    <t>31.05.202530</t>
+  </si>
+  <si>
+    <t>31.05.202531</t>
+  </si>
+  <si>
+    <t>31.05.202532</t>
+  </si>
+  <si>
+    <t>31.05.202533</t>
+  </si>
+  <si>
+    <t>31.05.202534</t>
+  </si>
+  <si>
+    <t>31.05.202535</t>
+  </si>
+  <si>
+    <t>31.05.202536</t>
+  </si>
+  <si>
+    <t>31.05.202537</t>
+  </si>
+  <si>
+    <t>31.05.202538</t>
+  </si>
+  <si>
+    <t>31.05.202539</t>
+  </si>
+  <si>
+    <t>31.05.202540</t>
+  </si>
+  <si>
+    <t>31.05.202541</t>
+  </si>
+  <si>
+    <t>31.05.202542</t>
+  </si>
+  <si>
+    <t>31.05.202543</t>
+  </si>
+  <si>
+    <t>31.05.202544</t>
+  </si>
+  <si>
+    <t>31.05.202545</t>
+  </si>
+  <si>
+    <t>31.05.202546</t>
+  </si>
+  <si>
+    <t>31.05.202547</t>
+  </si>
+  <si>
+    <t>31.05.202548</t>
+  </si>
+  <si>
+    <t>31.05.202549</t>
+  </si>
+  <si>
+    <t>31.05.202550</t>
+  </si>
+  <si>
+    <t>31.05.202551</t>
+  </si>
+  <si>
+    <t>31.05.202552</t>
+  </si>
+  <si>
+    <t>31.05.202553</t>
+  </si>
+  <si>
+    <t>31.05.202554</t>
+  </si>
+  <si>
+    <t>31.05.202555</t>
+  </si>
+  <si>
+    <t>31.05.202556</t>
+  </si>
+  <si>
+    <t>31.05.202557</t>
+  </si>
+  <si>
+    <t>31.05.202558</t>
+  </si>
+  <si>
+    <t>31.05.202559</t>
+  </si>
+  <si>
+    <t>31.05.202560</t>
+  </si>
+  <si>
+    <t>31.05.202561</t>
+  </si>
+  <si>
+    <t>31.05.202562</t>
+  </si>
+  <si>
+    <t>31.05.202563</t>
+  </si>
+  <si>
+    <t>31.05.202564</t>
+  </si>
+  <si>
+    <t>31.05.202565</t>
+  </si>
+  <si>
+    <t>31.05.202566</t>
+  </si>
+  <si>
+    <t>31.05.202567</t>
+  </si>
+  <si>
+    <t>31.05.202568</t>
+  </si>
+  <si>
+    <t>31.05.202569</t>
+  </si>
+  <si>
+    <t>31.05.202570</t>
+  </si>
+  <si>
+    <t>31.05.202571</t>
+  </si>
+  <si>
+    <t>31.05.202572</t>
+  </si>
+  <si>
+    <t>31.05.202573</t>
+  </si>
+  <si>
+    <t>31.05.202574</t>
+  </si>
+  <si>
+    <t>31.05.202575</t>
+  </si>
+  <si>
+    <t>31.05.202576</t>
+  </si>
+  <si>
+    <t>31.05.202577</t>
+  </si>
+  <si>
+    <t>31.05.202578</t>
+  </si>
+  <si>
+    <t>31.05.202579</t>
+  </si>
+  <si>
+    <t>31.05.202580</t>
+  </si>
+  <si>
+    <t>31.05.202581</t>
+  </si>
+  <si>
+    <t>31.05.202582</t>
+  </si>
+  <si>
+    <t>31.05.202583</t>
+  </si>
+  <si>
+    <t>31.05.202584</t>
+  </si>
+  <si>
+    <t>31.05.202585</t>
+  </si>
+  <si>
+    <t>31.05.202586</t>
+  </si>
+  <si>
+    <t>31.05.202587</t>
+  </si>
+  <si>
+    <t>31.05.202588</t>
+  </si>
+  <si>
+    <t>31.05.202589</t>
+  </si>
+  <si>
+    <t>31.05.202590</t>
+  </si>
+  <si>
+    <t>31.05.202591</t>
+  </si>
+  <si>
+    <t>31.05.202592</t>
+  </si>
+  <si>
+    <t>31.05.202593</t>
+  </si>
+  <si>
+    <t>31.05.202594</t>
+  </si>
+  <si>
+    <t>31.05.202595</t>
+  </si>
+  <si>
+    <t>31.05.202596</t>
+  </si>
+  <si>
+    <t>01.06.20251</t>
+  </si>
+  <si>
+    <t>01.06.20252</t>
+  </si>
+  <si>
+    <t>01.06.20253</t>
+  </si>
+  <si>
+    <t>01.06.20254</t>
+  </si>
+  <si>
+    <t>01.06.20255</t>
+  </si>
+  <si>
+    <t>01.06.20256</t>
+  </si>
+  <si>
+    <t>01.06.20257</t>
+  </si>
+  <si>
+    <t>01.06.20258</t>
+  </si>
+  <si>
+    <t>01.06.20259</t>
+  </si>
+  <si>
+    <t>01.06.202510</t>
+  </si>
+  <si>
+    <t>01.06.202511</t>
+  </si>
+  <si>
+    <t>01.06.202512</t>
+  </si>
+  <si>
+    <t>01.06.202513</t>
+  </si>
+  <si>
+    <t>01.06.202514</t>
+  </si>
+  <si>
+    <t>01.06.202515</t>
+  </si>
+  <si>
+    <t>01.06.202516</t>
+  </si>
+  <si>
+    <t>01.06.202517</t>
+  </si>
+  <si>
+    <t>01.06.202518</t>
+  </si>
+  <si>
+    <t>01.06.202519</t>
+  </si>
+  <si>
+    <t>01.06.202520</t>
+  </si>
+  <si>
+    <t>01.06.202521</t>
+  </si>
+  <si>
+    <t>01.06.202522</t>
+  </si>
+  <si>
+    <t>01.06.202523</t>
+  </si>
+  <si>
+    <t>01.06.202524</t>
+  </si>
+  <si>
+    <t>01.06.202525</t>
+  </si>
+  <si>
+    <t>01.06.202526</t>
+  </si>
+  <si>
+    <t>01.06.202527</t>
+  </si>
+  <si>
+    <t>01.06.202528</t>
+  </si>
+  <si>
+    <t>01.06.202529</t>
+  </si>
+  <si>
+    <t>01.06.202530</t>
+  </si>
+  <si>
+    <t>01.06.202531</t>
+  </si>
+  <si>
+    <t>01.06.202532</t>
+  </si>
+  <si>
+    <t>01.06.202533</t>
+  </si>
+  <si>
+    <t>01.06.202534</t>
+  </si>
+  <si>
+    <t>01.06.202535</t>
+  </si>
+  <si>
+    <t>01.06.202536</t>
+  </si>
+  <si>
+    <t>01.06.202537</t>
+  </si>
+  <si>
+    <t>01.06.202538</t>
+  </si>
+  <si>
+    <t>01.06.202539</t>
+  </si>
+  <si>
+    <t>01.06.202540</t>
+  </si>
+  <si>
+    <t>01.06.202541</t>
+  </si>
+  <si>
+    <t>01.06.202542</t>
+  </si>
+  <si>
+    <t>01.06.202543</t>
+  </si>
+  <si>
+    <t>01.06.202544</t>
+  </si>
+  <si>
+    <t>01.06.202545</t>
+  </si>
+  <si>
+    <t>01.06.202546</t>
+  </si>
+  <si>
+    <t>01.06.202547</t>
+  </si>
+  <si>
+    <t>01.06.202548</t>
+  </si>
+  <si>
+    <t>01.06.202549</t>
+  </si>
+  <si>
+    <t>01.06.202550</t>
+  </si>
+  <si>
+    <t>01.06.202551</t>
+  </si>
+  <si>
+    <t>01.06.202552</t>
+  </si>
+  <si>
+    <t>01.06.202553</t>
+  </si>
+  <si>
+    <t>01.06.202554</t>
+  </si>
+  <si>
+    <t>01.06.202555</t>
+  </si>
+  <si>
+    <t>01.06.202556</t>
+  </si>
+  <si>
+    <t>01.06.202557</t>
+  </si>
+  <si>
+    <t>01.06.202558</t>
+  </si>
+  <si>
+    <t>01.06.202559</t>
+  </si>
+  <si>
+    <t>01.06.202560</t>
+  </si>
+  <si>
+    <t>01.06.202561</t>
+  </si>
+  <si>
+    <t>01.06.202562</t>
+  </si>
+  <si>
+    <t>01.06.202563</t>
+  </si>
+  <si>
+    <t>01.06.202564</t>
+  </si>
+  <si>
+    <t>01.06.202565</t>
+  </si>
+  <si>
+    <t>01.06.202566</t>
+  </si>
+  <si>
+    <t>01.06.202567</t>
+  </si>
+  <si>
+    <t>01.06.202568</t>
+  </si>
+  <si>
+    <t>01.06.202569</t>
+  </si>
+  <si>
+    <t>01.06.202570</t>
+  </si>
+  <si>
+    <t>01.06.202571</t>
+  </si>
+  <si>
+    <t>01.06.202572</t>
+  </si>
+  <si>
+    <t>01.06.202573</t>
+  </si>
+  <si>
+    <t>01.06.202574</t>
+  </si>
+  <si>
+    <t>01.06.202575</t>
+  </si>
+  <si>
+    <t>01.06.202576</t>
+  </si>
+  <si>
+    <t>01.06.202577</t>
+  </si>
+  <si>
+    <t>01.06.202578</t>
+  </si>
+  <si>
+    <t>01.06.202579</t>
+  </si>
+  <si>
+    <t>01.06.202580</t>
+  </si>
+  <si>
+    <t>01.06.202581</t>
+  </si>
+  <si>
+    <t>01.06.202582</t>
+  </si>
+  <si>
+    <t>01.06.202583</t>
+  </si>
+  <si>
+    <t>01.06.202584</t>
+  </si>
+  <si>
+    <t>01.06.202585</t>
+  </si>
+  <si>
+    <t>01.06.202586</t>
+  </si>
+  <si>
+    <t>01.06.202587</t>
+  </si>
+  <si>
+    <t>01.06.202588</t>
+  </si>
+  <si>
+    <t>01.06.202589</t>
+  </si>
+  <si>
+    <t>01.06.202590</t>
+  </si>
+  <si>
+    <t>01.06.202591</t>
+  </si>
+  <si>
+    <t>01.06.202592</t>
+  </si>
+  <si>
+    <t>01.06.202593</t>
+  </si>
+  <si>
+    <t>01.06.202594</t>
+  </si>
+  <si>
+    <t>01.06.202595</t>
+  </si>
+  <si>
+    <t>01.06.202596</t>
+  </si>
+  <si>
+    <t>02.06.20251</t>
+  </si>
+  <si>
+    <t>02.06.20252</t>
+  </si>
+  <si>
+    <t>02.06.20253</t>
+  </si>
+  <si>
+    <t>02.06.20254</t>
+  </si>
+  <si>
+    <t>02.06.20255</t>
+  </si>
+  <si>
+    <t>02.06.20256</t>
+  </si>
+  <si>
+    <t>02.06.20257</t>
+  </si>
+  <si>
+    <t>02.06.20258</t>
+  </si>
+  <si>
+    <t>02.06.20259</t>
+  </si>
+  <si>
+    <t>02.06.202510</t>
+  </si>
+  <si>
+    <t>02.06.202511</t>
+  </si>
+  <si>
+    <t>02.06.202512</t>
+  </si>
+  <si>
+    <t>02.06.202513</t>
+  </si>
+  <si>
+    <t>02.06.202514</t>
+  </si>
+  <si>
+    <t>02.06.202515</t>
+  </si>
+  <si>
+    <t>02.06.202516</t>
+  </si>
+  <si>
+    <t>02.06.202517</t>
+  </si>
+  <si>
+    <t>02.06.202518</t>
+  </si>
+  <si>
+    <t>02.06.202519</t>
+  </si>
+  <si>
+    <t>02.06.202520</t>
+  </si>
+  <si>
+    <t>02.06.202521</t>
+  </si>
+  <si>
+    <t>02.06.202522</t>
+  </si>
+  <si>
+    <t>02.06.202523</t>
+  </si>
+  <si>
+    <t>02.06.202524</t>
+  </si>
+  <si>
+    <t>02.06.202525</t>
+  </si>
+  <si>
+    <t>02.06.202526</t>
+  </si>
+  <si>
+    <t>02.06.202527</t>
+  </si>
+  <si>
+    <t>02.06.202528</t>
+  </si>
+  <si>
+    <t>02.06.202529</t>
+  </si>
+  <si>
+    <t>02.06.202530</t>
+  </si>
+  <si>
+    <t>02.06.202531</t>
+  </si>
+  <si>
+    <t>02.06.202532</t>
+  </si>
+  <si>
+    <t>02.06.202533</t>
+  </si>
+  <si>
+    <t>02.06.202534</t>
+  </si>
+  <si>
+    <t>02.06.202535</t>
+  </si>
+  <si>
+    <t>02.06.202536</t>
+  </si>
+  <si>
+    <t>02.06.202537</t>
+  </si>
+  <si>
+    <t>02.06.202538</t>
+  </si>
+  <si>
+    <t>02.06.202539</t>
+  </si>
+  <si>
+    <t>02.06.202540</t>
+  </si>
+  <si>
+    <t>02.06.202541</t>
+  </si>
+  <si>
+    <t>02.06.202542</t>
+  </si>
+  <si>
+    <t>02.06.202543</t>
+  </si>
+  <si>
+    <t>02.06.202544</t>
+  </si>
+  <si>
+    <t>02.06.202545</t>
+  </si>
+  <si>
+    <t>02.06.202546</t>
+  </si>
+  <si>
+    <t>02.06.202547</t>
+  </si>
+  <si>
+    <t>02.06.202548</t>
+  </si>
+  <si>
+    <t>02.06.202549</t>
+  </si>
+  <si>
+    <t>02.06.202550</t>
+  </si>
+  <si>
+    <t>02.06.202551</t>
+  </si>
+  <si>
+    <t>02.06.202552</t>
+  </si>
+  <si>
+    <t>02.06.202553</t>
+  </si>
+  <si>
+    <t>02.06.202554</t>
+  </si>
+  <si>
+    <t>02.06.202555</t>
+  </si>
+  <si>
+    <t>02.06.202556</t>
+  </si>
+  <si>
+    <t>02.06.202557</t>
+  </si>
+  <si>
+    <t>02.06.202558</t>
+  </si>
+  <si>
+    <t>02.06.202559</t>
+  </si>
+  <si>
+    <t>02.06.202560</t>
+  </si>
+  <si>
+    <t>02.06.202561</t>
+  </si>
+  <si>
+    <t>02.06.202562</t>
+  </si>
+  <si>
+    <t>02.06.202563</t>
+  </si>
+  <si>
+    <t>02.06.202564</t>
+  </si>
+  <si>
+    <t>02.06.202565</t>
+  </si>
+  <si>
+    <t>02.06.202566</t>
+  </si>
+  <si>
+    <t>02.06.202567</t>
+  </si>
+  <si>
+    <t>02.06.202568</t>
+  </si>
+  <si>
+    <t>02.06.202569</t>
+  </si>
+  <si>
+    <t>02.06.202570</t>
+  </si>
+  <si>
+    <t>02.06.202571</t>
+  </si>
+  <si>
+    <t>02.06.202572</t>
+  </si>
+  <si>
+    <t>02.06.202573</t>
+  </si>
+  <si>
+    <t>02.06.202574</t>
+  </si>
+  <si>
+    <t>02.06.202575</t>
+  </si>
+  <si>
+    <t>02.06.202576</t>
+  </si>
+  <si>
+    <t>02.06.202577</t>
+  </si>
+  <si>
+    <t>02.06.202578</t>
+  </si>
+  <si>
+    <t>02.06.202579</t>
+  </si>
+  <si>
+    <t>02.06.202580</t>
+  </si>
+  <si>
+    <t>02.06.202581</t>
+  </si>
+  <si>
+    <t>02.06.202582</t>
+  </si>
+  <si>
+    <t>02.06.202583</t>
+  </si>
+  <si>
+    <t>02.06.202584</t>
+  </si>
+  <si>
+    <t>02.06.202585</t>
+  </si>
+  <si>
+    <t>02.06.202586</t>
+  </si>
+  <si>
+    <t>02.06.202587</t>
+  </si>
+  <si>
+    <t>02.06.202588</t>
+  </si>
+  <si>
+    <t>02.06.202589</t>
+  </si>
+  <si>
+    <t>02.06.202590</t>
+  </si>
+  <si>
+    <t>02.06.202591</t>
+  </si>
+  <si>
+    <t>02.06.202592</t>
+  </si>
+  <si>
+    <t>02.06.202593</t>
+  </si>
+  <si>
+    <t>02.06.202594</t>
+  </si>
+  <si>
+    <t>02.06.202595</t>
+  </si>
+  <si>
+    <t>02.06.202596</t>
   </si>
 </sst>
 </file>
@@ -963,7 +1539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:D385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -985,10 +1561,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45806</v>
+        <v>45807</v>
       </c>
       <c r="B2">
-        <v>5322</v>
+        <v>5283</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -999,10 +1575,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45806.01041666666</v>
+        <v>45807.01041666666</v>
       </c>
       <c r="B3">
-        <v>5233</v>
+        <v>5275</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1013,10 +1589,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45806.02083333334</v>
+        <v>45807.02083333334</v>
       </c>
       <c r="B4">
-        <v>5210</v>
+        <v>5255</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1027,10 +1603,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45806.03125</v>
+        <v>45807.03125</v>
       </c>
       <c r="B5">
-        <v>5181</v>
+        <v>5187</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1041,10 +1617,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45806.04166666666</v>
+        <v>45807.04166666666</v>
       </c>
       <c r="B6">
-        <v>5160</v>
+        <v>5103</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1055,10 +1631,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45806.05208333334</v>
+        <v>45807.05208333334</v>
       </c>
       <c r="B7">
-        <v>5111</v>
+        <v>5067</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1069,10 +1645,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45806.0625</v>
+        <v>45807.0625</v>
       </c>
       <c r="B8">
-        <v>5093</v>
+        <v>5077</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1083,10 +1659,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45806.07291666666</v>
+        <v>45807.07291666666</v>
       </c>
       <c r="B9">
-        <v>5102</v>
+        <v>5042</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1097,10 +1673,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45806.08333333334</v>
+        <v>45807.08333333334</v>
       </c>
       <c r="B10">
-        <v>5098</v>
+        <v>5058</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1111,10 +1687,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45806.09375</v>
+        <v>45807.09375</v>
       </c>
       <c r="B11">
-        <v>5163</v>
+        <v>5026</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1125,10 +1701,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45806.10416666666</v>
+        <v>45807.10416666666</v>
       </c>
       <c r="B12">
-        <v>5127</v>
+        <v>5113</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1139,10 +1715,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45806.11458333334</v>
+        <v>45807.11458333334</v>
       </c>
       <c r="B13">
-        <v>5146</v>
+        <v>5056</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1153,10 +1729,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45806.125</v>
+        <v>45807.125</v>
       </c>
       <c r="B14">
-        <v>5140</v>
+        <v>5007</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1167,10 +1743,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45806.13541666666</v>
+        <v>45807.13541666666</v>
       </c>
       <c r="B15">
-        <v>5124</v>
+        <v>5017</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1181,10 +1757,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45806.14583333334</v>
+        <v>45807.14583333334</v>
       </c>
       <c r="B16">
-        <v>5205</v>
+        <v>5048</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1195,10 +1771,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45806.15625</v>
+        <v>45807.15625</v>
       </c>
       <c r="B17">
-        <v>5247</v>
+        <v>5010</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1209,10 +1785,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45806.16666666666</v>
+        <v>45807.16666666666</v>
       </c>
       <c r="B18">
-        <v>5210</v>
+        <v>5047</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1223,10 +1799,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45806.17708333334</v>
+        <v>45807.17708333334</v>
       </c>
       <c r="B19">
-        <v>5231</v>
+        <v>5045</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1237,10 +1813,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45806.1875</v>
+        <v>45807.1875</v>
       </c>
       <c r="B20">
-        <v>5204</v>
+        <v>5055</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1251,10 +1827,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45806.19791666666</v>
+        <v>45807.19791666666</v>
       </c>
       <c r="B21">
-        <v>5312</v>
+        <v>5068</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1265,10 +1841,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45806.20833333334</v>
+        <v>45807.20833333334</v>
       </c>
       <c r="B22">
-        <v>5381</v>
+        <v>5286</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1279,10 +1855,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45806.21875</v>
+        <v>45807.21875</v>
       </c>
       <c r="B23">
-        <v>5456</v>
+        <v>5405</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1293,10 +1869,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45806.22916666666</v>
+        <v>45807.22916666666</v>
       </c>
       <c r="B24">
-        <v>5575</v>
+        <v>5477</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1307,10 +1883,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45806.23958333334</v>
+        <v>45807.23958333334</v>
       </c>
       <c r="B25">
-        <v>5632</v>
+        <v>5601</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1321,10 +1897,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45806.25</v>
+        <v>45807.25</v>
       </c>
       <c r="B26">
-        <v>5778</v>
+        <v>5852</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1335,10 +1911,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45806.26041666666</v>
+        <v>45807.26041666666</v>
       </c>
       <c r="B27">
-        <v>5907</v>
+        <v>6007</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1349,10 +1925,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45806.27083333334</v>
+        <v>45807.27083333334</v>
       </c>
       <c r="B28">
-        <v>5914</v>
+        <v>6149</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1363,10 +1939,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45806.28125</v>
+        <v>45807.28125</v>
       </c>
       <c r="B29">
-        <v>5958</v>
+        <v>6164</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1377,10 +1953,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45806.29166666666</v>
+        <v>45807.29166666666</v>
       </c>
       <c r="B30">
-        <v>5907</v>
+        <v>6256</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1391,10 +1967,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45806.30208333334</v>
+        <v>45807.30208333334</v>
       </c>
       <c r="B31">
-        <v>5975</v>
+        <v>6320</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1405,10 +1981,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45806.3125</v>
+        <v>45807.3125</v>
       </c>
       <c r="B32">
-        <v>5957</v>
+        <v>6323</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1419,10 +1995,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45806.32291666666</v>
+        <v>45807.32291666666</v>
       </c>
       <c r="B33">
-        <v>5937</v>
+        <v>6250</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1433,10 +2009,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45806.33333333334</v>
+        <v>45807.33333333334</v>
       </c>
       <c r="B34">
-        <v>5899</v>
+        <v>6248</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1447,10 +2023,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45806.34375</v>
+        <v>45807.34375</v>
       </c>
       <c r="B35">
-        <v>5880</v>
+        <v>6217</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1461,10 +2037,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45806.35416666666</v>
+        <v>45807.35416666666</v>
       </c>
       <c r="B36">
-        <v>5876</v>
+        <v>6135</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1475,10 +2051,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45806.36458333334</v>
+        <v>45807.36458333334</v>
       </c>
       <c r="B37">
-        <v>5813</v>
+        <v>6065</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1489,10 +2065,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45806.375</v>
+        <v>45807.375</v>
       </c>
       <c r="B38">
-        <v>5738</v>
+        <v>5954</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1503,10 +2079,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45806.38541666666</v>
+        <v>45807.38541666666</v>
       </c>
       <c r="B39">
-        <v>5673</v>
+        <v>5792</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1517,10 +2093,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45806.39583333334</v>
+        <v>45807.39583333334</v>
       </c>
       <c r="B40">
-        <v>5641</v>
+        <v>5723</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1531,10 +2107,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45806.40625</v>
+        <v>45807.40625</v>
       </c>
       <c r="B41">
-        <v>5552</v>
+        <v>5632</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1545,10 +2121,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45806.41666666666</v>
+        <v>45807.41666666666</v>
       </c>
       <c r="B42">
-        <v>5564</v>
+        <v>5522</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1559,10 +2135,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45806.42708333334</v>
+        <v>45807.42708333334</v>
       </c>
       <c r="B43">
-        <v>5530</v>
+        <v>5485</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1573,10 +2149,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45806.4375</v>
+        <v>45807.4375</v>
       </c>
       <c r="B44">
-        <v>5528</v>
+        <v>5456</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1587,10 +2163,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45806.44791666666</v>
+        <v>45807.44791666666</v>
       </c>
       <c r="B45">
-        <v>5484</v>
+        <v>5394</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1601,10 +2177,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45806.45833333334</v>
+        <v>45807.45833333334</v>
       </c>
       <c r="B46">
-        <v>5400</v>
+        <v>5262</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1615,10 +2191,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45806.46875</v>
+        <v>45807.46875</v>
       </c>
       <c r="B47">
-        <v>5445</v>
+        <v>5284</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1629,10 +2205,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45806.47916666666</v>
+        <v>45807.47916666666</v>
       </c>
       <c r="B48">
-        <v>5334</v>
+        <v>5294</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1643,10 +2219,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45806.48958333334</v>
+        <v>45807.48958333334</v>
       </c>
       <c r="B49">
-        <v>5404</v>
+        <v>5232</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1657,10 +2233,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45806.5</v>
+        <v>45807.5</v>
       </c>
       <c r="B50">
-        <v>5377</v>
+        <v>5207</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1671,10 +2247,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45806.51041666666</v>
+        <v>45807.51041666666</v>
       </c>
       <c r="B51">
-        <v>5386</v>
+        <v>5260</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1685,10 +2261,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45806.52083333334</v>
+        <v>45807.52083333334</v>
       </c>
       <c r="B52">
-        <v>5303</v>
+        <v>5232</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1699,10 +2275,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45806.53125</v>
+        <v>45807.53125</v>
       </c>
       <c r="B53">
-        <v>5258</v>
+        <v>5260</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -1713,10 +2289,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45806.54166666666</v>
+        <v>45807.54166666666</v>
       </c>
       <c r="B54">
-        <v>5286</v>
+        <v>5259</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -1727,10 +2303,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45806.55208333334</v>
+        <v>45807.55208333334</v>
       </c>
       <c r="B55">
-        <v>5261</v>
+        <v>5193</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -1741,10 +2317,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45806.5625</v>
+        <v>45807.5625</v>
       </c>
       <c r="B56">
-        <v>5168</v>
+        <v>5167</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -1755,10 +2331,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45806.57291666666</v>
+        <v>45807.57291666666</v>
       </c>
       <c r="B57">
-        <v>5193</v>
+        <v>5188</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -1769,10 +2345,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45806.58333333334</v>
+        <v>45807.58333333334</v>
       </c>
       <c r="B58">
-        <v>5266</v>
+        <v>5202</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -1783,10 +2359,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45806.59375</v>
+        <v>45807.59375</v>
       </c>
       <c r="B59">
-        <v>5277</v>
+        <v>5204</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -1797,10 +2373,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45806.60416666666</v>
+        <v>45807.60416666666</v>
       </c>
       <c r="B60">
-        <v>5250</v>
+        <v>5237</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -1811,10 +2387,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45806.61458333334</v>
+        <v>45807.61458333334</v>
       </c>
       <c r="B61">
-        <v>5273</v>
+        <v>5298</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -1825,10 +2401,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45806.625</v>
+        <v>45807.625</v>
       </c>
       <c r="B62">
-        <v>5345</v>
+        <v>5256</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -1839,10 +2415,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45806.63541666666</v>
+        <v>45807.63541666666</v>
       </c>
       <c r="B63">
-        <v>5311</v>
+        <v>5269</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -1853,10 +2429,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45806.64583333334</v>
+        <v>45807.64583333334</v>
       </c>
       <c r="B64">
-        <v>5297</v>
+        <v>5359</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -1867,10 +2443,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45806.65625</v>
+        <v>45807.65625</v>
       </c>
       <c r="B65">
-        <v>5453</v>
+        <v>5402</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -1881,10 +2457,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45806.66666666666</v>
+        <v>45807.66666666666</v>
       </c>
       <c r="B66">
-        <v>5641</v>
+        <v>5467</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -1895,10 +2471,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45806.67708333334</v>
+        <v>45807.67708333334</v>
       </c>
       <c r="B67">
-        <v>5683</v>
+        <v>5515</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -1909,10 +2485,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45806.6875</v>
+        <v>45807.6875</v>
       </c>
       <c r="B68">
-        <v>5742</v>
+        <v>5693</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -1923,10 +2499,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45806.69791666666</v>
+        <v>45807.69791666666</v>
       </c>
       <c r="B69">
-        <v>5891</v>
+        <v>5745</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -1937,10 +2513,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45806.70833333334</v>
+        <v>45807.70833333334</v>
       </c>
       <c r="B70">
-        <v>5941</v>
+        <v>5761</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -1951,10 +2527,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45806.71875</v>
+        <v>45807.71875</v>
       </c>
       <c r="B71">
-        <v>6074</v>
+        <v>5875</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -1965,10 +2541,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45806.72916666666</v>
+        <v>45807.72916666666</v>
       </c>
       <c r="B72">
-        <v>6112</v>
+        <v>5874</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -1979,10 +2555,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45806.73958333334</v>
+        <v>45807.73958333334</v>
       </c>
       <c r="B73">
-        <v>6218</v>
+        <v>5934</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -1993,10 +2569,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45806.75</v>
+        <v>45807.75</v>
       </c>
       <c r="B74">
-        <v>6314</v>
+        <v>6213</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -2007,10 +2583,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45806.76041666666</v>
+        <v>45807.76041666666</v>
       </c>
       <c r="B75">
-        <v>6422</v>
+        <v>6271</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -2021,10 +2597,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45806.77083333334</v>
+        <v>45807.77083333334</v>
       </c>
       <c r="B76">
-        <v>6468</v>
+        <v>6292</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -2035,10 +2611,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45806.78125</v>
+        <v>45807.78125</v>
       </c>
       <c r="B77">
-        <v>6545</v>
+        <v>6357</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -2049,10 +2625,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45806.79166666666</v>
+        <v>45807.79166666666</v>
       </c>
       <c r="B78">
-        <v>6646</v>
+        <v>6430</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -2063,10 +2639,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45806.80208333334</v>
+        <v>45807.80208333334</v>
       </c>
       <c r="B79">
-        <v>6663</v>
+        <v>6521</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -2077,10 +2653,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45806.8125</v>
+        <v>45807.8125</v>
       </c>
       <c r="B80">
-        <v>6741</v>
+        <v>6567</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -2091,10 +2667,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45806.82291666666</v>
+        <v>45807.82291666666</v>
       </c>
       <c r="B81">
-        <v>6792</v>
+        <v>6679</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -2105,10 +2681,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45806.83333333334</v>
+        <v>45807.83333333334</v>
       </c>
       <c r="B82">
-        <v>6838</v>
+        <v>6752</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -2119,10 +2695,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45806.84375</v>
+        <v>45807.84375</v>
       </c>
       <c r="B83">
-        <v>6840</v>
+        <v>6821</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -2133,10 +2709,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45806.85416666666</v>
+        <v>45807.85416666666</v>
       </c>
       <c r="B84">
-        <v>6870</v>
+        <v>6798</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -2147,10 +2723,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45806.86458333334</v>
+        <v>45807.86458333334</v>
       </c>
       <c r="B85">
-        <v>6775</v>
+        <v>6762</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -2161,10 +2737,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45806.875</v>
+        <v>45807.875</v>
       </c>
       <c r="B86">
-        <v>6635</v>
+        <v>6633</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -2175,10 +2751,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45806.88541666666</v>
+        <v>45807.88541666666</v>
       </c>
       <c r="B87">
-        <v>6472</v>
+        <v>6545</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -2189,10 +2765,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45806.89583333334</v>
+        <v>45807.89583333334</v>
       </c>
       <c r="B88">
-        <v>6326</v>
+        <v>6286</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -2203,10 +2779,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45806.90625</v>
+        <v>45807.90625</v>
       </c>
       <c r="B89">
-        <v>6205</v>
+        <v>6174</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -2217,10 +2793,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45806.91666666666</v>
+        <v>45807.91666666666</v>
       </c>
       <c r="B90">
-        <v>6020</v>
+        <v>6059</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -2231,10 +2807,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45806.92708333334</v>
+        <v>45807.92708333334</v>
       </c>
       <c r="B91">
-        <v>5914</v>
+        <v>5989</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -2245,10 +2821,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45806.9375</v>
+        <v>45807.9375</v>
       </c>
       <c r="B92">
-        <v>5823</v>
+        <v>5812</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -2259,10 +2835,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45806.94791666666</v>
+        <v>45807.94791666666</v>
       </c>
       <c r="B93">
-        <v>5747</v>
+        <v>5698</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -2273,10 +2849,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45806.95833333334</v>
+        <v>45807.95833333334</v>
       </c>
       <c r="B94">
-        <v>5503</v>
+        <v>5585</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -2287,10 +2863,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45806.96875</v>
+        <v>45807.96875</v>
       </c>
       <c r="B95">
-        <v>5475</v>
+        <v>5503</v>
       </c>
       <c r="C95">
         <v>94</v>
@@ -2301,10 +2877,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45806.97916666666</v>
+        <v>45807.97916666666</v>
       </c>
       <c r="B96">
-        <v>5413</v>
+        <v>5348</v>
       </c>
       <c r="C96">
         <v>95</v>
@@ -2315,10 +2891,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>45806.98958333334</v>
+        <v>45807.98958333334</v>
       </c>
       <c r="B97">
-        <v>5366</v>
+        <v>5348</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -2329,10 +2905,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>45807</v>
+        <v>45808</v>
       </c>
       <c r="B98">
-        <v>5283</v>
+        <v>5261</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2343,10 +2919,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>45807.01041666666</v>
+        <v>45808.01041666666</v>
       </c>
       <c r="B99">
-        <v>5275</v>
+        <v>5210</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2357,10 +2933,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>45807.02083333334</v>
+        <v>45808.02083333334</v>
       </c>
       <c r="B100">
-        <v>5255</v>
+        <v>5144</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2371,10 +2947,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>45807.03125</v>
+        <v>45808.03125</v>
       </c>
       <c r="B101">
-        <v>5187</v>
+        <v>5163</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2385,10 +2961,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>45807.04166666666</v>
+        <v>45808.04166666666</v>
       </c>
       <c r="B102">
-        <v>5103</v>
+        <v>5105</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2399,10 +2975,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>45807.05208333334</v>
+        <v>45808.05208333334</v>
       </c>
       <c r="B103">
-        <v>5067</v>
+        <v>5028</v>
       </c>
       <c r="C103">
         <v>6</v>
@@ -2413,10 +2989,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>45807.0625</v>
+        <v>45808.0625</v>
       </c>
       <c r="B104">
-        <v>5077</v>
+        <v>5041</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -2427,10 +3003,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>45807.07291666666</v>
+        <v>45808.07291666666</v>
       </c>
       <c r="B105">
-        <v>5042</v>
+        <v>5017</v>
       </c>
       <c r="C105">
         <v>8</v>
@@ -2441,10 +3017,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>45807.08333333334</v>
+        <v>45808.08333333334</v>
       </c>
       <c r="B106">
-        <v>5058</v>
+        <v>4985</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -2455,10 +3031,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>45807.09375</v>
+        <v>45808.09375</v>
       </c>
       <c r="B107">
-        <v>5026</v>
+        <v>4981</v>
       </c>
       <c r="C107">
         <v>10</v>
@@ -2469,10 +3045,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>45807.10416666666</v>
+        <v>45808.10416666666</v>
       </c>
       <c r="B108">
-        <v>5113</v>
+        <v>4915</v>
       </c>
       <c r="C108">
         <v>11</v>
@@ -2483,10 +3059,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>45807.11458333334</v>
+        <v>45808.11458333334</v>
       </c>
       <c r="B109">
-        <v>5056</v>
+        <v>4882</v>
       </c>
       <c r="C109">
         <v>12</v>
@@ -2497,10 +3073,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>45807.125</v>
+        <v>45808.125</v>
       </c>
       <c r="B110">
-        <v>5007</v>
+        <v>4994</v>
       </c>
       <c r="C110">
         <v>13</v>
@@ -2511,10 +3087,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>45807.13541666666</v>
+        <v>45808.13541666666</v>
       </c>
       <c r="B111">
-        <v>5017</v>
+        <v>4970</v>
       </c>
       <c r="C111">
         <v>14</v>
@@ -2525,10 +3101,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>45807.14583333334</v>
+        <v>45808.14583333334</v>
       </c>
       <c r="B112">
-        <v>5048</v>
+        <v>4940</v>
       </c>
       <c r="C112">
         <v>15</v>
@@ -2539,10 +3115,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>45807.15625</v>
+        <v>45808.15625</v>
       </c>
       <c r="B113">
-        <v>5010</v>
+        <v>4933</v>
       </c>
       <c r="C113">
         <v>16</v>
@@ -2553,10 +3129,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>45807.16666666666</v>
+        <v>45808.16666666666</v>
       </c>
       <c r="B114">
-        <v>5047</v>
+        <v>4915</v>
       </c>
       <c r="C114">
         <v>17</v>
@@ -2567,10 +3143,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>45807.17708333334</v>
+        <v>45808.17708333334</v>
       </c>
       <c r="B115">
-        <v>5045</v>
+        <v>4843</v>
       </c>
       <c r="C115">
         <v>18</v>
@@ -2581,10 +3157,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>45807.1875</v>
+        <v>45808.1875</v>
       </c>
       <c r="B116">
-        <v>5055</v>
+        <v>4803</v>
       </c>
       <c r="C116">
         <v>19</v>
@@ -2595,10 +3171,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>45807.19791666666</v>
+        <v>45808.19791666666</v>
       </c>
       <c r="B117">
-        <v>5068</v>
+        <v>4805</v>
       </c>
       <c r="C117">
         <v>20</v>
@@ -2609,10 +3185,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>45807.20833333334</v>
+        <v>45808.20833333334</v>
       </c>
       <c r="B118">
-        <v>5286</v>
+        <v>4820</v>
       </c>
       <c r="C118">
         <v>21</v>
@@ -2623,10 +3199,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>45807.21875</v>
+        <v>45808.21875</v>
       </c>
       <c r="B119">
-        <v>5405</v>
+        <v>4830</v>
       </c>
       <c r="C119">
         <v>22</v>
@@ -2637,10 +3213,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>45807.22916666666</v>
+        <v>45808.22916666666</v>
       </c>
       <c r="B120">
-        <v>5477</v>
+        <v>4819</v>
       </c>
       <c r="C120">
         <v>23</v>
@@ -2651,10 +3227,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>45807.23958333334</v>
+        <v>45808.23958333334</v>
       </c>
       <c r="B121">
-        <v>5601</v>
+        <v>4794</v>
       </c>
       <c r="C121">
         <v>24</v>
@@ -2665,10 +3241,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>45807.25</v>
+        <v>45808.25</v>
       </c>
       <c r="B122">
-        <v>5852</v>
+        <v>4873</v>
       </c>
       <c r="C122">
         <v>25</v>
@@ -2679,10 +3255,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>45807.26041666666</v>
+        <v>45808.26041666666</v>
       </c>
       <c r="B123">
-        <v>6007</v>
+        <v>4855</v>
       </c>
       <c r="C123">
         <v>26</v>
@@ -2693,10 +3269,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>45807.27083333334</v>
+        <v>45808.27083333334</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>4877</v>
       </c>
       <c r="C124">
         <v>27</v>
@@ -2707,10 +3283,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>45807.28125</v>
+        <v>45808.28125</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>4973</v>
       </c>
       <c r="C125">
         <v>28</v>
@@ -2721,10 +3297,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>45807.29166666666</v>
+        <v>45808.29166666666</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>5148</v>
       </c>
       <c r="C126">
         <v>29</v>
@@ -2735,10 +3311,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>45807.30208333334</v>
+        <v>45808.30208333334</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>5650</v>
       </c>
       <c r="C127">
         <v>30</v>
@@ -2749,10 +3325,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>45807.3125</v>
+        <v>45808.3125</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>5111</v>
       </c>
       <c r="C128">
         <v>31</v>
@@ -2763,10 +3339,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>45807.32291666666</v>
+        <v>45808.32291666666</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>4873</v>
       </c>
       <c r="C129">
         <v>32</v>
@@ -2777,10 +3353,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>45807.33333333334</v>
+        <v>45808.33333333334</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>4773</v>
       </c>
       <c r="C130">
         <v>33</v>
@@ -2791,10 +3367,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>45807.34375</v>
+        <v>45808.34375</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>4755</v>
       </c>
       <c r="C131">
         <v>34</v>
@@ -2805,10 +3381,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>45807.35416666666</v>
+        <v>45808.35416666666</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>4756</v>
       </c>
       <c r="C132">
         <v>35</v>
@@ -2819,10 +3395,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>45807.36458333334</v>
+        <v>45808.36458333334</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>4701</v>
       </c>
       <c r="C133">
         <v>36</v>
@@ -2833,10 +3409,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>45807.375</v>
+        <v>45808.375</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>4574</v>
       </c>
       <c r="C134">
         <v>37</v>
@@ -2847,10 +3423,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>45807.38541666666</v>
+        <v>45808.38541666666</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>4458</v>
       </c>
       <c r="C135">
         <v>38</v>
@@ -2861,10 +3437,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>45807.39583333334</v>
+        <v>45808.39583333334</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>4519</v>
       </c>
       <c r="C136">
         <v>39</v>
@@ -2875,10 +3451,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>45807.40625</v>
+        <v>45808.40625</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>4368</v>
       </c>
       <c r="C137">
         <v>40</v>
@@ -2889,10 +3465,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>45807.41666666666</v>
+        <v>45808.41666666666</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="C138">
         <v>41</v>
@@ -2903,10 +3479,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>45807.42708333334</v>
+        <v>45808.42708333334</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>4237</v>
       </c>
       <c r="C139">
         <v>42</v>
@@ -2917,10 +3493,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>45807.4375</v>
+        <v>45808.4375</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>4263</v>
       </c>
       <c r="C140">
         <v>43</v>
@@ -2931,10 +3507,10 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>45807.44791666666</v>
+        <v>45808.44791666666</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>4226</v>
       </c>
       <c r="C141">
         <v>44</v>
@@ -2945,10 +3521,10 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>45807.45833333334</v>
+        <v>45808.45833333334</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>4233</v>
       </c>
       <c r="C142">
         <v>45</v>
@@ -2959,10 +3535,10 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>45807.46875</v>
+        <v>45808.46875</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>4218</v>
       </c>
       <c r="C143">
         <v>46</v>
@@ -2973,10 +3549,10 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>45807.47916666666</v>
+        <v>45808.47916666666</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>4224</v>
       </c>
       <c r="C144">
         <v>47</v>
@@ -2987,10 +3563,10 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>45807.48958333334</v>
+        <v>45808.48958333334</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>4197</v>
       </c>
       <c r="C145">
         <v>48</v>
@@ -3001,10 +3577,10 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>45807.5</v>
+        <v>45808.5</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>4265</v>
       </c>
       <c r="C146">
         <v>49</v>
@@ -3015,10 +3591,10 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>45807.51041666666</v>
+        <v>45808.51041666666</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>4217</v>
       </c>
       <c r="C147">
         <v>50</v>
@@ -3029,10 +3605,10 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>45807.52083333334</v>
+        <v>45808.52083333334</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>4196</v>
       </c>
       <c r="C148">
         <v>51</v>
@@ -3043,10 +3619,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>45807.53125</v>
+        <v>45808.53125</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>4211</v>
       </c>
       <c r="C149">
         <v>52</v>
@@ -3057,10 +3633,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>45807.54166666666</v>
+        <v>45808.54166666666</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>4242</v>
       </c>
       <c r="C150">
         <v>53</v>
@@ -3071,10 +3647,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>45807.55208333334</v>
+        <v>45808.55208333334</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>4259</v>
       </c>
       <c r="C151">
         <v>54</v>
@@ -3085,10 +3661,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>45807.5625</v>
+        <v>45808.5625</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>4244</v>
       </c>
       <c r="C152">
         <v>55</v>
@@ -3099,10 +3675,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>45807.57291666666</v>
+        <v>45808.57291666666</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>4253</v>
       </c>
       <c r="C153">
         <v>56</v>
@@ -3113,10 +3689,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>45807.58333333334</v>
+        <v>45808.58333333334</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>4212</v>
       </c>
       <c r="C154">
         <v>57</v>
@@ -3127,10 +3703,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>45807.59375</v>
+        <v>45808.59375</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>4258</v>
       </c>
       <c r="C155">
         <v>58</v>
@@ -3141,10 +3717,10 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>45807.60416666666</v>
+        <v>45808.60416666666</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>4241</v>
       </c>
       <c r="C156">
         <v>59</v>
@@ -3155,10 +3731,10 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>45807.61458333334</v>
+        <v>45808.61458333334</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>4322</v>
       </c>
       <c r="C157">
         <v>60</v>
@@ -3169,10 +3745,10 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>45807.625</v>
+        <v>45808.625</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="C158">
         <v>61</v>
@@ -3183,10 +3759,10 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>45807.63541666666</v>
+        <v>45808.63541666666</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>4378</v>
       </c>
       <c r="C159">
         <v>62</v>
@@ -3197,10 +3773,10 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>45807.64583333334</v>
+        <v>45808.64583333334</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>4413</v>
       </c>
       <c r="C160">
         <v>63</v>
@@ -3211,10 +3787,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>45807.65625</v>
+        <v>45808.65625</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>4446</v>
       </c>
       <c r="C161">
         <v>64</v>
@@ -3225,10 +3801,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>45807.66666666666</v>
+        <v>45808.66666666666</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>4555</v>
       </c>
       <c r="C162">
         <v>65</v>
@@ -3239,10 +3815,10 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>45807.67708333334</v>
+        <v>45808.67708333334</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>4637</v>
       </c>
       <c r="C163">
         <v>66</v>
@@ -3253,10 +3829,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>45807.6875</v>
+        <v>45808.6875</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>4706</v>
       </c>
       <c r="C164">
         <v>67</v>
@@ -3267,10 +3843,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>45807.69791666666</v>
+        <v>45808.69791666666</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>4784</v>
       </c>
       <c r="C165">
         <v>68</v>
@@ -3281,10 +3857,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>45807.70833333334</v>
+        <v>45808.70833333334</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>4934</v>
       </c>
       <c r="C166">
         <v>69</v>
@@ -3295,10 +3871,10 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>45807.71875</v>
+        <v>45808.71875</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>5025</v>
       </c>
       <c r="C167">
         <v>70</v>
@@ -3309,10 +3885,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>45807.72916666666</v>
+        <v>45808.72916666666</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>5210</v>
       </c>
       <c r="C168">
         <v>71</v>
@@ -3323,10 +3899,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>45807.73958333334</v>
+        <v>45808.73958333334</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>5296</v>
       </c>
       <c r="C169">
         <v>72</v>
@@ -3337,10 +3913,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>45807.75</v>
+        <v>45808.75</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>5392</v>
       </c>
       <c r="C170">
         <v>73</v>
@@ -3351,10 +3927,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>45807.76041666666</v>
+        <v>45808.76041666666</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>5583</v>
       </c>
       <c r="C171">
         <v>74</v>
@@ -3365,10 +3941,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>45807.77083333334</v>
+        <v>45808.77083333334</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>5650</v>
       </c>
       <c r="C172">
         <v>75</v>
@@ -3379,10 +3955,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>45807.78125</v>
+        <v>45808.78125</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>5793</v>
       </c>
       <c r="C173">
         <v>76</v>
@@ -3393,10 +3969,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>45807.79166666666</v>
+        <v>45808.79166666666</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>5879</v>
       </c>
       <c r="C174">
         <v>77</v>
@@ -3407,10 +3983,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>45807.80208333334</v>
+        <v>45808.80208333334</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>5913</v>
       </c>
       <c r="C175">
         <v>78</v>
@@ -3421,10 +3997,10 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>45807.8125</v>
+        <v>45808.8125</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>5969</v>
       </c>
       <c r="C176">
         <v>79</v>
@@ -3435,10 +4011,10 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>45807.82291666666</v>
+        <v>45808.82291666666</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>6060</v>
       </c>
       <c r="C177">
         <v>80</v>
@@ -3449,10 +4025,10 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>45807.83333333334</v>
+        <v>45808.83333333334</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>6164</v>
       </c>
       <c r="C178">
         <v>81</v>
@@ -3463,10 +4039,10 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>45807.84375</v>
+        <v>45808.84375</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>6241</v>
       </c>
       <c r="C179">
         <v>82</v>
@@ -3477,10 +4053,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>45807.85416666666</v>
+        <v>45808.85416666666</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>6389</v>
       </c>
       <c r="C180">
         <v>83</v>
@@ -3491,10 +4067,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>45807.86458333334</v>
+        <v>45808.86458333334</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>6344</v>
       </c>
       <c r="C181">
         <v>84</v>
@@ -3505,10 +4081,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>45807.875</v>
+        <v>45808.875</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>6216</v>
       </c>
       <c r="C182">
         <v>85</v>
@@ -3519,10 +4095,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>45807.88541666666</v>
+        <v>45808.88541666666</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>6092</v>
       </c>
       <c r="C183">
         <v>86</v>
@@ -3533,10 +4109,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>45807.89583333334</v>
+        <v>45808.89583333334</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>5936</v>
       </c>
       <c r="C184">
         <v>87</v>
@@ -3547,10 +4123,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>45807.90625</v>
+        <v>45808.90625</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>5846</v>
       </c>
       <c r="C185">
         <v>88</v>
@@ -3561,10 +4137,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>45807.91666666666</v>
+        <v>45808.91666666666</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>5697</v>
       </c>
       <c r="C186">
         <v>89</v>
@@ -3575,10 +4151,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>45807.92708333334</v>
+        <v>45808.92708333334</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>5618</v>
       </c>
       <c r="C187">
         <v>90</v>
@@ -3589,10 +4165,10 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>45807.9375</v>
+        <v>45808.9375</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>5446</v>
       </c>
       <c r="C188">
         <v>91</v>
@@ -3603,10 +4179,10 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>45807.94791666666</v>
+        <v>45808.94791666666</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>5370</v>
       </c>
       <c r="C189">
         <v>92</v>
@@ -3617,10 +4193,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>45807.95833333334</v>
+        <v>45808.95833333334</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>5255</v>
       </c>
       <c r="C190">
         <v>93</v>
@@ -3631,10 +4207,10 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>45807.96875</v>
+        <v>45808.96875</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>5141</v>
       </c>
       <c r="C191">
         <v>94</v>
@@ -3645,10 +4221,10 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>45807.97916666666</v>
+        <v>45808.97916666666</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>5086</v>
       </c>
       <c r="C192">
         <v>95</v>
@@ -3659,16 +4235,2704 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>45807.98958333334</v>
+        <v>45808.98958333334</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>5027</v>
       </c>
       <c r="C193">
         <v>96</v>
       </c>
       <c r="D193" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
+        <v>45809</v>
+      </c>
+      <c r="B194">
+        <v>4908</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
+        <v>45809.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>4782</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+      <c r="D195" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
+        <v>45809.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>4716</v>
+      </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
+      <c r="D196" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
+        <v>45809.03125</v>
+      </c>
+      <c r="B197">
+        <v>4750</v>
+      </c>
+      <c r="C197">
+        <v>4</v>
+      </c>
+      <c r="D197" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
+        <v>45809.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>4678</v>
+      </c>
+      <c r="C198">
+        <v>5</v>
+      </c>
+      <c r="D198" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
+        <v>45809.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>4632</v>
+      </c>
+      <c r="C199">
+        <v>6</v>
+      </c>
+      <c r="D199" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
+        <v>45809.0625</v>
+      </c>
+      <c r="B200">
+        <v>4580</v>
+      </c>
+      <c r="C200">
+        <v>7</v>
+      </c>
+      <c r="D200" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
+        <v>45809.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>4696</v>
+      </c>
+      <c r="C201">
+        <v>8</v>
+      </c>
+      <c r="D201" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
+        <v>45809.08333333334</v>
+      </c>
+      <c r="B202">
+        <v>4544</v>
+      </c>
+      <c r="C202">
+        <v>9</v>
+      </c>
+      <c r="D202" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
+        <v>45809.09375</v>
+      </c>
+      <c r="B203">
+        <v>4528</v>
+      </c>
+      <c r="C203">
+        <v>10</v>
+      </c>
+      <c r="D203" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
+        <v>45809.10416666666</v>
+      </c>
+      <c r="B204">
+        <v>4531</v>
+      </c>
+      <c r="C204">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
+        <v>45809.11458333334</v>
+      </c>
+      <c r="B205">
+        <v>4520</v>
+      </c>
+      <c r="C205">
+        <v>12</v>
+      </c>
+      <c r="D205" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
+        <v>45809.125</v>
+      </c>
+      <c r="B206">
+        <v>4494</v>
+      </c>
+      <c r="C206">
+        <v>13</v>
+      </c>
+      <c r="D206" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
+        <v>45809.13541666666</v>
+      </c>
+      <c r="B207">
+        <v>4537</v>
+      </c>
+      <c r="C207">
+        <v>14</v>
+      </c>
+      <c r="D207" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
+        <v>45809.14583333334</v>
+      </c>
+      <c r="B208">
+        <v>4482</v>
+      </c>
+      <c r="C208">
+        <v>15</v>
+      </c>
+      <c r="D208" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
+        <v>45809.15625</v>
+      </c>
+      <c r="B209">
+        <v>4485</v>
+      </c>
+      <c r="C209">
+        <v>16</v>
+      </c>
+      <c r="D209" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
+        <v>45809.16666666666</v>
+      </c>
+      <c r="B210">
+        <v>4460</v>
+      </c>
+      <c r="C210">
+        <v>17</v>
+      </c>
+      <c r="D210" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
+        <v>45809.17708333334</v>
+      </c>
+      <c r="B211">
+        <v>4374</v>
+      </c>
+      <c r="C211">
+        <v>18</v>
+      </c>
+      <c r="D211" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
+        <v>45809.1875</v>
+      </c>
+      <c r="B212">
+        <v>4344</v>
+      </c>
+      <c r="C212">
+        <v>19</v>
+      </c>
+      <c r="D212" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
+        <v>45809.19791666666</v>
+      </c>
+      <c r="B213">
+        <v>4277</v>
+      </c>
+      <c r="C213">
+        <v>20</v>
+      </c>
+      <c r="D213" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
+        <v>45809.20833333334</v>
+      </c>
+      <c r="B214">
+        <v>4237</v>
+      </c>
+      <c r="C214">
+        <v>21</v>
+      </c>
+      <c r="D214" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
+        <v>45809.21875</v>
+      </c>
+      <c r="B215">
+        <v>4238</v>
+      </c>
+      <c r="C215">
+        <v>22</v>
+      </c>
+      <c r="D215" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
+        <v>45809.22916666666</v>
+      </c>
+      <c r="B216">
+        <v>4196</v>
+      </c>
+      <c r="C216">
+        <v>23</v>
+      </c>
+      <c r="D216" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
+        <v>45809.23958333334</v>
+      </c>
+      <c r="B217">
+        <v>4207</v>
+      </c>
+      <c r="C217">
+        <v>24</v>
+      </c>
+      <c r="D217" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
+        <v>45809.25</v>
+      </c>
+      <c r="B218">
+        <v>4104</v>
+      </c>
+      <c r="C218">
+        <v>25</v>
+      </c>
+      <c r="D218" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
+        <v>45809.26041666666</v>
+      </c>
+      <c r="B219">
+        <v>4117</v>
+      </c>
+      <c r="C219">
+        <v>26</v>
+      </c>
+      <c r="D219" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
+        <v>45809.27083333334</v>
+      </c>
+      <c r="B220">
+        <v>4127</v>
+      </c>
+      <c r="C220">
+        <v>27</v>
+      </c>
+      <c r="D220" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
+        <v>45809.28125</v>
+      </c>
+      <c r="B221">
+        <v>4125</v>
+      </c>
+      <c r="C221">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
+        <v>45809.29166666666</v>
+      </c>
+      <c r="B222">
+        <v>4033</v>
+      </c>
+      <c r="C222">
+        <v>29</v>
+      </c>
+      <c r="D222" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
+        <v>45809.30208333334</v>
+      </c>
+      <c r="B223">
+        <v>3958</v>
+      </c>
+      <c r="C223">
+        <v>30</v>
+      </c>
+      <c r="D223" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
+        <v>45809.3125</v>
+      </c>
+      <c r="B224">
+        <v>3914</v>
+      </c>
+      <c r="C224">
+        <v>31</v>
+      </c>
+      <c r="D224" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
+        <v>45809.32291666666</v>
+      </c>
+      <c r="B225">
+        <v>3900</v>
+      </c>
+      <c r="C225">
+        <v>32</v>
+      </c>
+      <c r="D225" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
+        <v>45809.33333333334</v>
+      </c>
+      <c r="B226">
+        <v>3785</v>
+      </c>
+      <c r="C226">
+        <v>33</v>
+      </c>
+      <c r="D226" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
+        <v>45809.34375</v>
+      </c>
+      <c r="B227">
+        <v>3719</v>
+      </c>
+      <c r="C227">
+        <v>34</v>
+      </c>
+      <c r="D227" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
+        <v>45809.35416666666</v>
+      </c>
+      <c r="B228">
+        <v>3712</v>
+      </c>
+      <c r="C228">
+        <v>35</v>
+      </c>
+      <c r="D228" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
+        <v>45809.36458333334</v>
+      </c>
+      <c r="B229">
+        <v>3657</v>
+      </c>
+      <c r="C229">
+        <v>36</v>
+      </c>
+      <c r="D229" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
+        <v>45809.375</v>
+      </c>
+      <c r="B230">
+        <v>3559</v>
+      </c>
+      <c r="C230">
+        <v>37</v>
+      </c>
+      <c r="D230" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="2">
+        <v>45809.38541666666</v>
+      </c>
+      <c r="B231">
+        <v>3476</v>
+      </c>
+      <c r="C231">
+        <v>38</v>
+      </c>
+      <c r="D231" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="2">
+        <v>45809.39583333334</v>
+      </c>
+      <c r="B232">
+        <v>3433</v>
+      </c>
+      <c r="C232">
+        <v>39</v>
+      </c>
+      <c r="D232" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="2">
+        <v>45809.40625</v>
+      </c>
+      <c r="B233">
+        <v>3461</v>
+      </c>
+      <c r="C233">
+        <v>40</v>
+      </c>
+      <c r="D233" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="2">
+        <v>45809.41666666666</v>
+      </c>
+      <c r="B234">
+        <v>3402</v>
+      </c>
+      <c r="C234">
+        <v>41</v>
+      </c>
+      <c r="D234" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="2">
+        <v>45809.42708333334</v>
+      </c>
+      <c r="B235">
+        <v>3380</v>
+      </c>
+      <c r="C235">
+        <v>42</v>
+      </c>
+      <c r="D235" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="2">
+        <v>45809.4375</v>
+      </c>
+      <c r="B236">
+        <v>3407</v>
+      </c>
+      <c r="C236">
+        <v>43</v>
+      </c>
+      <c r="D236" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="2">
+        <v>45809.44791666666</v>
+      </c>
+      <c r="B237">
+        <v>3367</v>
+      </c>
+      <c r="C237">
+        <v>44</v>
+      </c>
+      <c r="D237" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="2">
+        <v>45809.45833333334</v>
+      </c>
+      <c r="B238">
+        <v>3335</v>
+      </c>
+      <c r="C238">
+        <v>45</v>
+      </c>
+      <c r="D238" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="2">
+        <v>45809.46875</v>
+      </c>
+      <c r="B239">
+        <v>3329</v>
+      </c>
+      <c r="C239">
+        <v>46</v>
+      </c>
+      <c r="D239" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="2">
+        <v>45809.47916666666</v>
+      </c>
+      <c r="B240">
+        <v>3359</v>
+      </c>
+      <c r="C240">
+        <v>47</v>
+      </c>
+      <c r="D240" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="2">
+        <v>45809.48958333334</v>
+      </c>
+      <c r="B241">
+        <v>3293</v>
+      </c>
+      <c r="C241">
+        <v>48</v>
+      </c>
+      <c r="D241" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
+        <v>45809.5</v>
+      </c>
+      <c r="B242">
+        <v>3297</v>
+      </c>
+      <c r="C242">
+        <v>49</v>
+      </c>
+      <c r="D242" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
+        <v>45809.51041666666</v>
+      </c>
+      <c r="B243">
+        <v>3295</v>
+      </c>
+      <c r="C243">
+        <v>50</v>
+      </c>
+      <c r="D243" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
+        <v>45809.52083333334</v>
+      </c>
+      <c r="B244">
+        <v>3425</v>
+      </c>
+      <c r="C244">
+        <v>51</v>
+      </c>
+      <c r="D244" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
+        <v>45809.53125</v>
+      </c>
+      <c r="B245">
+        <v>3423</v>
+      </c>
+      <c r="C245">
+        <v>52</v>
+      </c>
+      <c r="D245" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
+        <v>45809.54166666666</v>
+      </c>
+      <c r="B246">
+        <v>3330</v>
+      </c>
+      <c r="C246">
+        <v>53</v>
+      </c>
+      <c r="D246" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
+        <v>45809.55208333334</v>
+      </c>
+      <c r="B247">
+        <v>3413</v>
+      </c>
+      <c r="C247">
+        <v>54</v>
+      </c>
+      <c r="D247" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
+        <v>45809.5625</v>
+      </c>
+      <c r="B248">
+        <v>3381</v>
+      </c>
+      <c r="C248">
+        <v>55</v>
+      </c>
+      <c r="D248" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="2">
+        <v>45809.57291666666</v>
+      </c>
+      <c r="B249">
+        <v>3476</v>
+      </c>
+      <c r="C249">
+        <v>56</v>
+      </c>
+      <c r="D249" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="2">
+        <v>45809.58333333334</v>
+      </c>
+      <c r="B250">
+        <v>3506</v>
+      </c>
+      <c r="C250">
+        <v>57</v>
+      </c>
+      <c r="D250" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="2">
+        <v>45809.59375</v>
+      </c>
+      <c r="B251">
+        <v>3535</v>
+      </c>
+      <c r="C251">
+        <v>58</v>
+      </c>
+      <c r="D251" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="2">
+        <v>45809.60416666666</v>
+      </c>
+      <c r="B252">
+        <v>3597</v>
+      </c>
+      <c r="C252">
+        <v>59</v>
+      </c>
+      <c r="D252" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="2">
+        <v>45809.61458333334</v>
+      </c>
+      <c r="B253">
+        <v>3735</v>
+      </c>
+      <c r="C253">
+        <v>60</v>
+      </c>
+      <c r="D253" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="2">
+        <v>45809.625</v>
+      </c>
+      <c r="B254">
+        <v>3842</v>
+      </c>
+      <c r="C254">
+        <v>61</v>
+      </c>
+      <c r="D254" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="2">
+        <v>45809.63541666666</v>
+      </c>
+      <c r="B255">
+        <v>3911</v>
+      </c>
+      <c r="C255">
+        <v>62</v>
+      </c>
+      <c r="D255" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="2">
+        <v>45809.64583333334</v>
+      </c>
+      <c r="B256">
+        <v>3962</v>
+      </c>
+      <c r="C256">
+        <v>63</v>
+      </c>
+      <c r="D256" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="2">
+        <v>45809.65625</v>
+      </c>
+      <c r="B257">
+        <v>4123</v>
+      </c>
+      <c r="C257">
+        <v>64</v>
+      </c>
+      <c r="D257" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="2">
+        <v>45809.66666666666</v>
+      </c>
+      <c r="B258">
+        <v>4208</v>
+      </c>
+      <c r="C258">
+        <v>65</v>
+      </c>
+      <c r="D258" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="2">
+        <v>45809.67708333334</v>
+      </c>
+      <c r="B259">
+        <v>4348</v>
+      </c>
+      <c r="C259">
+        <v>66</v>
+      </c>
+      <c r="D259" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="2">
+        <v>45809.6875</v>
+      </c>
+      <c r="B260">
+        <v>4432</v>
+      </c>
+      <c r="C260">
+        <v>67</v>
+      </c>
+      <c r="D260" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="2">
+        <v>45809.69791666666</v>
+      </c>
+      <c r="B261">
+        <v>4551</v>
+      </c>
+      <c r="C261">
+        <v>68</v>
+      </c>
+      <c r="D261" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="2">
+        <v>45809.70833333334</v>
+      </c>
+      <c r="B262">
+        <v>4640</v>
+      </c>
+      <c r="C262">
+        <v>69</v>
+      </c>
+      <c r="D262" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="2">
+        <v>45809.71875</v>
+      </c>
+      <c r="B263">
+        <v>4788</v>
+      </c>
+      <c r="C263">
+        <v>70</v>
+      </c>
+      <c r="D263" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="2">
+        <v>45809.72916666666</v>
+      </c>
+      <c r="B264">
+        <v>4820</v>
+      </c>
+      <c r="C264">
+        <v>71</v>
+      </c>
+      <c r="D264" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="2">
+        <v>45809.73958333334</v>
+      </c>
+      <c r="B265">
+        <v>4890</v>
+      </c>
+      <c r="C265">
+        <v>72</v>
+      </c>
+      <c r="D265" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="2">
+        <v>45809.75</v>
+      </c>
+      <c r="B266">
+        <v>5143</v>
+      </c>
+      <c r="C266">
+        <v>73</v>
+      </c>
+      <c r="D266" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="2">
+        <v>45809.76041666666</v>
+      </c>
+      <c r="B267">
+        <v>5134</v>
+      </c>
+      <c r="C267">
+        <v>74</v>
+      </c>
+      <c r="D267" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="2">
+        <v>45809.77083333334</v>
+      </c>
+      <c r="B268">
+        <v>5171</v>
+      </c>
+      <c r="C268">
+        <v>75</v>
+      </c>
+      <c r="D268" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="2">
+        <v>45809.78125</v>
+      </c>
+      <c r="B269">
+        <v>5287</v>
+      </c>
+      <c r="C269">
+        <v>76</v>
+      </c>
+      <c r="D269" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="2">
+        <v>45809.79166666666</v>
+      </c>
+      <c r="B270">
+        <v>5385</v>
+      </c>
+      <c r="C270">
+        <v>77</v>
+      </c>
+      <c r="D270" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="2">
+        <v>45809.80208333334</v>
+      </c>
+      <c r="B271">
+        <v>5415</v>
+      </c>
+      <c r="C271">
+        <v>78</v>
+      </c>
+      <c r="D271" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="2">
+        <v>45809.8125</v>
+      </c>
+      <c r="B272">
+        <v>5493</v>
+      </c>
+      <c r="C272">
+        <v>79</v>
+      </c>
+      <c r="D272" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="2">
+        <v>45809.82291666666</v>
+      </c>
+      <c r="B273">
+        <v>5594</v>
+      </c>
+      <c r="C273">
+        <v>80</v>
+      </c>
+      <c r="D273" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="2">
+        <v>45809.83333333334</v>
+      </c>
+      <c r="B274">
+        <v>5649</v>
+      </c>
+      <c r="C274">
+        <v>81</v>
+      </c>
+      <c r="D274" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="2">
+        <v>45809.84375</v>
+      </c>
+      <c r="B275">
+        <v>5749</v>
+      </c>
+      <c r="C275">
+        <v>82</v>
+      </c>
+      <c r="D275" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="2">
+        <v>45809.85416666666</v>
+      </c>
+      <c r="B276">
+        <v>5804</v>
+      </c>
+      <c r="C276">
+        <v>83</v>
+      </c>
+      <c r="D276" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="2">
+        <v>45809.86458333334</v>
+      </c>
+      <c r="B277">
+        <v>5761</v>
+      </c>
+      <c r="C277">
+        <v>84</v>
+      </c>
+      <c r="D277" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="2">
+        <v>45809.875</v>
+      </c>
+      <c r="B278">
+        <v>5658</v>
+      </c>
+      <c r="C278">
+        <v>85</v>
+      </c>
+      <c r="D278" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="2">
+        <v>45809.88541666666</v>
+      </c>
+      <c r="B279">
+        <v>5614</v>
+      </c>
+      <c r="C279">
+        <v>86</v>
+      </c>
+      <c r="D279" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="2">
+        <v>45809.89583333334</v>
+      </c>
+      <c r="B280">
+        <v>5470</v>
+      </c>
+      <c r="C280">
+        <v>87</v>
+      </c>
+      <c r="D280" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="2">
+        <v>45809.90625</v>
+      </c>
+      <c r="B281">
+        <v>5361</v>
+      </c>
+      <c r="C281">
+        <v>88</v>
+      </c>
+      <c r="D281" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="2">
+        <v>45809.91666666666</v>
+      </c>
+      <c r="B282">
+        <v>5214</v>
+      </c>
+      <c r="C282">
+        <v>89</v>
+      </c>
+      <c r="D282" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="2">
+        <v>45809.92708333334</v>
+      </c>
+      <c r="B283">
+        <v>5144</v>
+      </c>
+      <c r="C283">
+        <v>90</v>
+      </c>
+      <c r="D283" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="2">
+        <v>45809.9375</v>
+      </c>
+      <c r="B284">
+        <v>5055</v>
+      </c>
+      <c r="C284">
+        <v>91</v>
+      </c>
+      <c r="D284" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="2">
+        <v>45809.94791666666</v>
+      </c>
+      <c r="B285">
+        <v>4944</v>
+      </c>
+      <c r="C285">
+        <v>92</v>
+      </c>
+      <c r="D285" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="2">
+        <v>45809.95833333334</v>
+      </c>
+      <c r="B286">
+        <v>4851</v>
+      </c>
+      <c r="C286">
+        <v>93</v>
+      </c>
+      <c r="D286" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="2">
+        <v>45809.96875</v>
+      </c>
+      <c r="B287">
+        <v>4813</v>
+      </c>
+      <c r="C287">
+        <v>94</v>
+      </c>
+      <c r="D287" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="2">
+        <v>45809.97916666666</v>
+      </c>
+      <c r="B288">
+        <v>4732</v>
+      </c>
+      <c r="C288">
+        <v>95</v>
+      </c>
+      <c r="D288" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="2">
+        <v>45809.98958333334</v>
+      </c>
+      <c r="B289">
+        <v>4719</v>
+      </c>
+      <c r="C289">
+        <v>96</v>
+      </c>
+      <c r="D289" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="2">
+        <v>45810</v>
+      </c>
+      <c r="B290">
+        <v>4622</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="2">
+        <v>45810.01041666666</v>
+      </c>
+      <c r="B291">
+        <v>4520</v>
+      </c>
+      <c r="C291">
+        <v>2</v>
+      </c>
+      <c r="D291" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="2">
+        <v>45810.02083333334</v>
+      </c>
+      <c r="B292">
+        <v>4502</v>
+      </c>
+      <c r="C292">
+        <v>3</v>
+      </c>
+      <c r="D292" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="2">
+        <v>45810.03125</v>
+      </c>
+      <c r="B293">
+        <v>4573</v>
+      </c>
+      <c r="C293">
+        <v>4</v>
+      </c>
+      <c r="D293" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="2">
+        <v>45810.04166666666</v>
+      </c>
+      <c r="B294">
+        <v>4525</v>
+      </c>
+      <c r="C294">
+        <v>5</v>
+      </c>
+      <c r="D294" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="2">
+        <v>45810.05208333334</v>
+      </c>
+      <c r="B295">
+        <v>4515</v>
+      </c>
+      <c r="C295">
+        <v>6</v>
+      </c>
+      <c r="D295" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="2">
+        <v>45810.0625</v>
+      </c>
+      <c r="B296">
+        <v>4463</v>
+      </c>
+      <c r="C296">
+        <v>7</v>
+      </c>
+      <c r="D296" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="2">
+        <v>45810.07291666666</v>
+      </c>
+      <c r="B297">
+        <v>4434</v>
+      </c>
+      <c r="C297">
+        <v>8</v>
+      </c>
+      <c r="D297" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="2">
+        <v>45810.08333333334</v>
+      </c>
+      <c r="B298">
+        <v>4408</v>
+      </c>
+      <c r="C298">
+        <v>9</v>
+      </c>
+      <c r="D298" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="2">
+        <v>45810.09375</v>
+      </c>
+      <c r="B299">
+        <v>4416</v>
+      </c>
+      <c r="C299">
+        <v>10</v>
+      </c>
+      <c r="D299" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="2">
+        <v>45810.10416666666</v>
+      </c>
+      <c r="B300">
+        <v>4433</v>
+      </c>
+      <c r="C300">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="2">
+        <v>45810.11458333334</v>
+      </c>
+      <c r="B301">
+        <v>4427</v>
+      </c>
+      <c r="C301">
+        <v>12</v>
+      </c>
+      <c r="D301" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="2">
+        <v>45810.125</v>
+      </c>
+      <c r="B302">
+        <v>4380</v>
+      </c>
+      <c r="C302">
+        <v>13</v>
+      </c>
+      <c r="D302" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="2">
+        <v>45810.13541666666</v>
+      </c>
+      <c r="B303">
+        <v>4478</v>
+      </c>
+      <c r="C303">
+        <v>14</v>
+      </c>
+      <c r="D303" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="2">
+        <v>45810.14583333334</v>
+      </c>
+      <c r="B304">
+        <v>4459</v>
+      </c>
+      <c r="C304">
+        <v>15</v>
+      </c>
+      <c r="D304" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="2">
+        <v>45810.15625</v>
+      </c>
+      <c r="B305">
+        <v>4465</v>
+      </c>
+      <c r="C305">
+        <v>16</v>
+      </c>
+      <c r="D305" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="2">
+        <v>45810.16666666666</v>
+      </c>
+      <c r="B306">
+        <v>4524</v>
+      </c>
+      <c r="C306">
+        <v>17</v>
+      </c>
+      <c r="D306" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="2">
+        <v>45810.17708333334</v>
+      </c>
+      <c r="B307">
+        <v>4501</v>
+      </c>
+      <c r="C307">
+        <v>18</v>
+      </c>
+      <c r="D307" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="2">
+        <v>45810.1875</v>
+      </c>
+      <c r="B308">
+        <v>4535</v>
+      </c>
+      <c r="C308">
+        <v>19</v>
+      </c>
+      <c r="D308" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="2">
+        <v>45810.19791666666</v>
+      </c>
+      <c r="B309">
+        <v>4687</v>
+      </c>
+      <c r="C309">
+        <v>20</v>
+      </c>
+      <c r="D309" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="2">
+        <v>45810.20833333334</v>
+      </c>
+      <c r="B310">
+        <v>4870</v>
+      </c>
+      <c r="C310">
+        <v>21</v>
+      </c>
+      <c r="D310" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="2">
+        <v>45810.21875</v>
+      </c>
+      <c r="B311">
+        <v>4971</v>
+      </c>
+      <c r="C311">
+        <v>22</v>
+      </c>
+      <c r="D311" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="2">
+        <v>45810.22916666666</v>
+      </c>
+      <c r="B312">
+        <v>5059</v>
+      </c>
+      <c r="C312">
+        <v>23</v>
+      </c>
+      <c r="D312" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="2">
+        <v>45810.23958333334</v>
+      </c>
+      <c r="B313">
+        <v>5215</v>
+      </c>
+      <c r="C313">
+        <v>24</v>
+      </c>
+      <c r="D313" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="2">
+        <v>45810.25</v>
+      </c>
+      <c r="B314">
+        <v>5456</v>
+      </c>
+      <c r="C314">
+        <v>25</v>
+      </c>
+      <c r="D314" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="2">
+        <v>45810.26041666666</v>
+      </c>
+      <c r="B315">
+        <v>5530</v>
+      </c>
+      <c r="C315">
+        <v>26</v>
+      </c>
+      <c r="D315" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="2">
+        <v>45810.27083333334</v>
+      </c>
+      <c r="B316">
+        <v>5633</v>
+      </c>
+      <c r="C316">
+        <v>27</v>
+      </c>
+      <c r="D316" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="2">
+        <v>45810.28125</v>
+      </c>
+      <c r="B317">
+        <v>5622</v>
+      </c>
+      <c r="C317">
+        <v>28</v>
+      </c>
+      <c r="D317" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="2">
+        <v>45810.29166666666</v>
+      </c>
+      <c r="B318">
+        <v>5603</v>
+      </c>
+      <c r="C318">
+        <v>29</v>
+      </c>
+      <c r="D318" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="2">
+        <v>45810.30208333334</v>
+      </c>
+      <c r="B319">
+        <v>5617</v>
+      </c>
+      <c r="C319">
+        <v>30</v>
+      </c>
+      <c r="D319" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="2">
+        <v>45810.3125</v>
+      </c>
+      <c r="B320">
+        <v>5656</v>
+      </c>
+      <c r="C320">
+        <v>31</v>
+      </c>
+      <c r="D320" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="2">
+        <v>45810.32291666666</v>
+      </c>
+      <c r="B321">
+        <v>5616</v>
+      </c>
+      <c r="C321">
+        <v>32</v>
+      </c>
+      <c r="D321" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="2">
+        <v>45810.33333333334</v>
+      </c>
+      <c r="B322">
+        <v>5520</v>
+      </c>
+      <c r="C322">
+        <v>33</v>
+      </c>
+      <c r="D322" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="2">
+        <v>45810.34375</v>
+      </c>
+      <c r="B323">
+        <v>5472</v>
+      </c>
+      <c r="C323">
+        <v>34</v>
+      </c>
+      <c r="D323" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="2">
+        <v>45810.35416666666</v>
+      </c>
+      <c r="B324">
+        <v>5406</v>
+      </c>
+      <c r="C324">
+        <v>35</v>
+      </c>
+      <c r="D324" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="2">
+        <v>45810.36458333334</v>
+      </c>
+      <c r="B325">
+        <v>5429</v>
+      </c>
+      <c r="C325">
+        <v>36</v>
+      </c>
+      <c r="D325" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="2">
+        <v>45810.375</v>
+      </c>
+      <c r="B326">
+        <v>5265</v>
+      </c>
+      <c r="C326">
+        <v>37</v>
+      </c>
+      <c r="D326" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="2">
+        <v>45810.38541666666</v>
+      </c>
+      <c r="B327">
+        <v>5098</v>
+      </c>
+      <c r="C327">
+        <v>38</v>
+      </c>
+      <c r="D327" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="2">
+        <v>45810.39583333334</v>
+      </c>
+      <c r="B328">
+        <v>5087</v>
+      </c>
+      <c r="C328">
+        <v>39</v>
+      </c>
+      <c r="D328" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="2">
+        <v>45810.40625</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+      <c r="C329">
+        <v>40</v>
+      </c>
+      <c r="D329" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="2">
+        <v>45810.41666666666</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+      <c r="C330">
+        <v>41</v>
+      </c>
+      <c r="D330" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="2">
+        <v>45810.42708333334</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+      <c r="C331">
+        <v>42</v>
+      </c>
+      <c r="D331" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="2">
+        <v>45810.4375</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+      <c r="C332">
+        <v>43</v>
+      </c>
+      <c r="D332" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="2">
+        <v>45810.44791666666</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+      <c r="C333">
+        <v>44</v>
+      </c>
+      <c r="D333" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="2">
+        <v>45810.45833333334</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+      <c r="C334">
+        <v>45</v>
+      </c>
+      <c r="D334" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="2">
+        <v>45810.46875</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>46</v>
+      </c>
+      <c r="D335" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="2">
+        <v>45810.47916666666</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+      <c r="C336">
+        <v>47</v>
+      </c>
+      <c r="D336" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="2">
+        <v>45810.48958333334</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337">
+        <v>48</v>
+      </c>
+      <c r="D337" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="2">
+        <v>45810.5</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+      <c r="C338">
+        <v>49</v>
+      </c>
+      <c r="D338" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="2">
+        <v>45810.51041666666</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>50</v>
+      </c>
+      <c r="D339" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="2">
+        <v>45810.52083333334</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340">
+        <v>51</v>
+      </c>
+      <c r="D340" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="2">
+        <v>45810.53125</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+      <c r="C341">
+        <v>52</v>
+      </c>
+      <c r="D341" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="2">
+        <v>45810.54166666666</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+      <c r="C342">
+        <v>53</v>
+      </c>
+      <c r="D342" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="2">
+        <v>45810.55208333334</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+      <c r="C343">
+        <v>54</v>
+      </c>
+      <c r="D343" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="2">
+        <v>45810.5625</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+      <c r="C344">
+        <v>55</v>
+      </c>
+      <c r="D344" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="2">
+        <v>45810.57291666666</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>56</v>
+      </c>
+      <c r="D345" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="2">
+        <v>45810.58333333334</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+      <c r="C346">
+        <v>57</v>
+      </c>
+      <c r="D346" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="2">
+        <v>45810.59375</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+      <c r="C347">
+        <v>58</v>
+      </c>
+      <c r="D347" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="2">
+        <v>45810.60416666666</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>59</v>
+      </c>
+      <c r="D348" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="2">
+        <v>45810.61458333334</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>60</v>
+      </c>
+      <c r="D349" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="2">
+        <v>45810.625</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+      <c r="C350">
+        <v>61</v>
+      </c>
+      <c r="D350" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="2">
+        <v>45810.63541666666</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+      <c r="C351">
+        <v>62</v>
+      </c>
+      <c r="D351" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="2">
+        <v>45810.64583333334</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+      <c r="C352">
+        <v>63</v>
+      </c>
+      <c r="D352" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="2">
+        <v>45810.65625</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+      <c r="C353">
+        <v>64</v>
+      </c>
+      <c r="D353" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="2">
+        <v>45810.66666666666</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+      <c r="C354">
+        <v>65</v>
+      </c>
+      <c r="D354" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="2">
+        <v>45810.67708333334</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <v>66</v>
+      </c>
+      <c r="D355" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="2">
+        <v>45810.6875</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+      <c r="C356">
+        <v>67</v>
+      </c>
+      <c r="D356" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="2">
+        <v>45810.69791666666</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+      <c r="C357">
+        <v>68</v>
+      </c>
+      <c r="D357" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="2">
+        <v>45810.70833333334</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+      <c r="C358">
+        <v>69</v>
+      </c>
+      <c r="D358" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="2">
+        <v>45810.71875</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+      <c r="C359">
+        <v>70</v>
+      </c>
+      <c r="D359" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="2">
+        <v>45810.72916666666</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+      <c r="C360">
+        <v>71</v>
+      </c>
+      <c r="D360" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="2">
+        <v>45810.73958333334</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+      <c r="C361">
+        <v>72</v>
+      </c>
+      <c r="D361" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="2">
+        <v>45810.75</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+      <c r="C362">
+        <v>73</v>
+      </c>
+      <c r="D362" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="2">
+        <v>45810.76041666666</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <v>74</v>
+      </c>
+      <c r="D363" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="2">
+        <v>45810.77083333334</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+      <c r="C364">
+        <v>75</v>
+      </c>
+      <c r="D364" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="2">
+        <v>45810.78125</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+      <c r="C365">
+        <v>76</v>
+      </c>
+      <c r="D365" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="2">
+        <v>45810.79166666666</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+      <c r="C366">
+        <v>77</v>
+      </c>
+      <c r="D366" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="2">
+        <v>45810.80208333334</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <v>78</v>
+      </c>
+      <c r="D367" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
+        <v>45810.8125</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+      <c r="C368">
+        <v>79</v>
+      </c>
+      <c r="D368" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
+        <v>45810.82291666666</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+      <c r="C369">
+        <v>80</v>
+      </c>
+      <c r="D369" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
+        <v>45810.83333333334</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+      <c r="C370">
+        <v>81</v>
+      </c>
+      <c r="D370" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
+        <v>45810.84375</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+      <c r="C371">
+        <v>82</v>
+      </c>
+      <c r="D371" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
+        <v>45810.85416666666</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+      <c r="C372">
+        <v>83</v>
+      </c>
+      <c r="D372" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
+        <v>45810.86458333334</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+      <c r="C373">
+        <v>84</v>
+      </c>
+      <c r="D373" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
+        <v>45810.875</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+      <c r="C374">
+        <v>85</v>
+      </c>
+      <c r="D374" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
+        <v>45810.88541666666</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+      <c r="C375">
+        <v>86</v>
+      </c>
+      <c r="D375" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
+        <v>45810.89583333334</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+      <c r="C376">
+        <v>87</v>
+      </c>
+      <c r="D376" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
+        <v>45810.90625</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <v>88</v>
+      </c>
+      <c r="D377" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
+        <v>45810.91666666666</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+      <c r="C378">
+        <v>89</v>
+      </c>
+      <c r="D378" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
+        <v>45810.92708333334</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+      <c r="C379">
+        <v>90</v>
+      </c>
+      <c r="D379" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
+        <v>45810.9375</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+      <c r="C380">
+        <v>91</v>
+      </c>
+      <c r="D380" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
+        <v>45810.94791666666</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="C381">
+        <v>92</v>
+      </c>
+      <c r="D381" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
+        <v>45810.95833333334</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+      <c r="C382">
+        <v>93</v>
+      </c>
+      <c r="D382" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
+        <v>45810.96875</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+      <c r="C383">
+        <v>94</v>
+      </c>
+      <c r="D383" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
+        <v>45810.97916666666</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+      <c r="C384">
+        <v>95</v>
+      </c>
+      <c r="D384" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
+        <v>45810.98958333334</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385">
+        <v>96</v>
+      </c>
+      <c r="D385" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
@@ -28,580 +28,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>12.06.20251</t>
-  </si>
-  <si>
-    <t>12.06.20252</t>
-  </si>
-  <si>
-    <t>12.06.20253</t>
-  </si>
-  <si>
-    <t>12.06.20254</t>
-  </si>
-  <si>
-    <t>12.06.20255</t>
-  </si>
-  <si>
-    <t>12.06.20256</t>
-  </si>
-  <si>
-    <t>12.06.20257</t>
-  </si>
-  <si>
-    <t>12.06.20258</t>
-  </si>
-  <si>
-    <t>12.06.20259</t>
-  </si>
-  <si>
-    <t>12.06.202510</t>
-  </si>
-  <si>
-    <t>12.06.202511</t>
-  </si>
-  <si>
-    <t>12.06.202512</t>
-  </si>
-  <si>
-    <t>12.06.202513</t>
-  </si>
-  <si>
-    <t>12.06.202514</t>
-  </si>
-  <si>
-    <t>12.06.202515</t>
-  </si>
-  <si>
-    <t>12.06.202516</t>
-  </si>
-  <si>
-    <t>12.06.202517</t>
-  </si>
-  <si>
-    <t>12.06.202518</t>
-  </si>
-  <si>
-    <t>12.06.202519</t>
-  </si>
-  <si>
-    <t>12.06.202520</t>
-  </si>
-  <si>
-    <t>12.06.202521</t>
-  </si>
-  <si>
-    <t>12.06.202522</t>
-  </si>
-  <si>
-    <t>12.06.202523</t>
-  </si>
-  <si>
-    <t>12.06.202524</t>
-  </si>
-  <si>
-    <t>12.06.202525</t>
-  </si>
-  <si>
-    <t>12.06.202526</t>
-  </si>
-  <si>
-    <t>12.06.202527</t>
-  </si>
-  <si>
-    <t>12.06.202528</t>
-  </si>
-  <si>
-    <t>12.06.202529</t>
-  </si>
-  <si>
-    <t>12.06.202530</t>
-  </si>
-  <si>
-    <t>12.06.202531</t>
-  </si>
-  <si>
-    <t>12.06.202532</t>
-  </si>
-  <si>
-    <t>12.06.202533</t>
-  </si>
-  <si>
-    <t>12.06.202534</t>
-  </si>
-  <si>
-    <t>12.06.202535</t>
-  </si>
-  <si>
-    <t>12.06.202536</t>
-  </si>
-  <si>
-    <t>12.06.202537</t>
-  </si>
-  <si>
-    <t>12.06.202538</t>
-  </si>
-  <si>
-    <t>12.06.202539</t>
-  </si>
-  <si>
-    <t>12.06.202540</t>
-  </si>
-  <si>
-    <t>12.06.202541</t>
-  </si>
-  <si>
-    <t>12.06.202542</t>
-  </si>
-  <si>
-    <t>12.06.202543</t>
-  </si>
-  <si>
-    <t>12.06.202544</t>
-  </si>
-  <si>
-    <t>12.06.202545</t>
-  </si>
-  <si>
-    <t>12.06.202546</t>
-  </si>
-  <si>
-    <t>12.06.202547</t>
-  </si>
-  <si>
-    <t>12.06.202548</t>
-  </si>
-  <si>
-    <t>12.06.202549</t>
-  </si>
-  <si>
-    <t>12.06.202550</t>
-  </si>
-  <si>
-    <t>12.06.202551</t>
-  </si>
-  <si>
-    <t>12.06.202552</t>
-  </si>
-  <si>
-    <t>12.06.202553</t>
-  </si>
-  <si>
-    <t>12.06.202554</t>
-  </si>
-  <si>
-    <t>12.06.202555</t>
-  </si>
-  <si>
-    <t>12.06.202556</t>
-  </si>
-  <si>
-    <t>12.06.202557</t>
-  </si>
-  <si>
-    <t>12.06.202558</t>
-  </si>
-  <si>
-    <t>12.06.202559</t>
-  </si>
-  <si>
-    <t>12.06.202560</t>
-  </si>
-  <si>
-    <t>12.06.202561</t>
-  </si>
-  <si>
-    <t>12.06.202562</t>
-  </si>
-  <si>
-    <t>12.06.202563</t>
-  </si>
-  <si>
-    <t>12.06.202564</t>
-  </si>
-  <si>
-    <t>12.06.202565</t>
-  </si>
-  <si>
-    <t>12.06.202566</t>
-  </si>
-  <si>
-    <t>12.06.202567</t>
-  </si>
-  <si>
-    <t>12.06.202568</t>
-  </si>
-  <si>
-    <t>12.06.202569</t>
-  </si>
-  <si>
-    <t>12.06.202570</t>
-  </si>
-  <si>
-    <t>12.06.202571</t>
-  </si>
-  <si>
-    <t>12.06.202572</t>
-  </si>
-  <si>
-    <t>12.06.202573</t>
-  </si>
-  <si>
-    <t>12.06.202574</t>
-  </si>
-  <si>
-    <t>12.06.202575</t>
-  </si>
-  <si>
-    <t>12.06.202576</t>
-  </si>
-  <si>
-    <t>12.06.202577</t>
-  </si>
-  <si>
-    <t>12.06.202578</t>
-  </si>
-  <si>
-    <t>12.06.202579</t>
-  </si>
-  <si>
-    <t>12.06.202580</t>
-  </si>
-  <si>
-    <t>12.06.202581</t>
-  </si>
-  <si>
-    <t>12.06.202582</t>
-  </si>
-  <si>
-    <t>12.06.202583</t>
-  </si>
-  <si>
-    <t>12.06.202584</t>
-  </si>
-  <si>
-    <t>12.06.202585</t>
-  </si>
-  <si>
-    <t>12.06.202586</t>
-  </si>
-  <si>
-    <t>12.06.202587</t>
-  </si>
-  <si>
-    <t>12.06.202588</t>
-  </si>
-  <si>
-    <t>12.06.202589</t>
-  </si>
-  <si>
-    <t>12.06.202590</t>
-  </si>
-  <si>
-    <t>12.06.202591</t>
-  </si>
-  <si>
-    <t>12.06.202592</t>
-  </si>
-  <si>
-    <t>12.06.202593</t>
-  </si>
-  <si>
-    <t>12.06.202594</t>
-  </si>
-  <si>
-    <t>12.06.202595</t>
-  </si>
-  <si>
-    <t>12.06.202596</t>
-  </si>
-  <si>
-    <t>13.06.20251</t>
-  </si>
-  <si>
-    <t>13.06.20252</t>
-  </si>
-  <si>
-    <t>13.06.20253</t>
-  </si>
-  <si>
-    <t>13.06.20254</t>
-  </si>
-  <si>
-    <t>13.06.20255</t>
-  </si>
-  <si>
-    <t>13.06.20256</t>
-  </si>
-  <si>
-    <t>13.06.20257</t>
-  </si>
-  <si>
-    <t>13.06.20258</t>
-  </si>
-  <si>
-    <t>13.06.20259</t>
-  </si>
-  <si>
-    <t>13.06.202510</t>
-  </si>
-  <si>
-    <t>13.06.202511</t>
-  </si>
-  <si>
-    <t>13.06.202512</t>
-  </si>
-  <si>
-    <t>13.06.202513</t>
-  </si>
-  <si>
-    <t>13.06.202514</t>
-  </si>
-  <si>
-    <t>13.06.202515</t>
-  </si>
-  <si>
-    <t>13.06.202516</t>
-  </si>
-  <si>
-    <t>13.06.202517</t>
-  </si>
-  <si>
-    <t>13.06.202518</t>
-  </si>
-  <si>
-    <t>13.06.202519</t>
-  </si>
-  <si>
-    <t>13.06.202520</t>
-  </si>
-  <si>
-    <t>13.06.202521</t>
-  </si>
-  <si>
-    <t>13.06.202522</t>
-  </si>
-  <si>
-    <t>13.06.202523</t>
-  </si>
-  <si>
-    <t>13.06.202524</t>
-  </si>
-  <si>
-    <t>13.06.202525</t>
-  </si>
-  <si>
-    <t>13.06.202526</t>
-  </si>
-  <si>
-    <t>13.06.202527</t>
-  </si>
-  <si>
-    <t>13.06.202528</t>
-  </si>
-  <si>
-    <t>13.06.202529</t>
-  </si>
-  <si>
-    <t>13.06.202530</t>
-  </si>
-  <si>
-    <t>13.06.202531</t>
-  </si>
-  <si>
-    <t>13.06.202532</t>
-  </si>
-  <si>
-    <t>13.06.202533</t>
-  </si>
-  <si>
-    <t>13.06.202534</t>
-  </si>
-  <si>
-    <t>13.06.202535</t>
-  </si>
-  <si>
-    <t>13.06.202536</t>
-  </si>
-  <si>
-    <t>13.06.202537</t>
-  </si>
-  <si>
-    <t>13.06.202538</t>
-  </si>
-  <si>
-    <t>13.06.202539</t>
-  </si>
-  <si>
-    <t>13.06.202540</t>
-  </si>
-  <si>
-    <t>13.06.202541</t>
-  </si>
-  <si>
-    <t>13.06.202542</t>
-  </si>
-  <si>
-    <t>13.06.202543</t>
-  </si>
-  <si>
-    <t>13.06.202544</t>
-  </si>
-  <si>
-    <t>13.06.202545</t>
-  </si>
-  <si>
-    <t>13.06.202546</t>
-  </si>
-  <si>
-    <t>13.06.202547</t>
-  </si>
-  <si>
-    <t>13.06.202548</t>
-  </si>
-  <si>
-    <t>13.06.202549</t>
-  </si>
-  <si>
-    <t>13.06.202550</t>
-  </si>
-  <si>
-    <t>13.06.202551</t>
-  </si>
-  <si>
-    <t>13.06.202552</t>
-  </si>
-  <si>
-    <t>13.06.202553</t>
-  </si>
-  <si>
-    <t>13.06.202554</t>
-  </si>
-  <si>
-    <t>13.06.202555</t>
-  </si>
-  <si>
-    <t>13.06.202556</t>
-  </si>
-  <si>
-    <t>13.06.202557</t>
-  </si>
-  <si>
-    <t>13.06.202558</t>
-  </si>
-  <si>
-    <t>13.06.202559</t>
-  </si>
-  <si>
-    <t>13.06.202560</t>
-  </si>
-  <si>
-    <t>13.06.202561</t>
-  </si>
-  <si>
-    <t>13.06.202562</t>
-  </si>
-  <si>
-    <t>13.06.202563</t>
-  </si>
-  <si>
-    <t>13.06.202564</t>
-  </si>
-  <si>
-    <t>13.06.202565</t>
-  </si>
-  <si>
-    <t>13.06.202566</t>
-  </si>
-  <si>
-    <t>13.06.202567</t>
-  </si>
-  <si>
-    <t>13.06.202568</t>
-  </si>
-  <si>
-    <t>13.06.202569</t>
-  </si>
-  <si>
-    <t>13.06.202570</t>
-  </si>
-  <si>
-    <t>13.06.202571</t>
-  </si>
-  <si>
-    <t>13.06.202572</t>
-  </si>
-  <si>
-    <t>13.06.202573</t>
-  </si>
-  <si>
-    <t>13.06.202574</t>
-  </si>
-  <si>
-    <t>13.06.202575</t>
-  </si>
-  <si>
-    <t>13.06.202576</t>
-  </si>
-  <si>
-    <t>13.06.202577</t>
-  </si>
-  <si>
-    <t>13.06.202578</t>
-  </si>
-  <si>
-    <t>13.06.202579</t>
-  </si>
-  <si>
-    <t>13.06.202580</t>
-  </si>
-  <si>
-    <t>13.06.202581</t>
-  </si>
-  <si>
-    <t>13.06.202582</t>
-  </si>
-  <si>
-    <t>13.06.202583</t>
-  </si>
-  <si>
-    <t>13.06.202584</t>
-  </si>
-  <si>
-    <t>13.06.202585</t>
-  </si>
-  <si>
-    <t>13.06.202586</t>
-  </si>
-  <si>
-    <t>13.06.202587</t>
-  </si>
-  <si>
-    <t>13.06.202588</t>
-  </si>
-  <si>
-    <t>13.06.202589</t>
-  </si>
-  <si>
-    <t>13.06.202590</t>
-  </si>
-  <si>
-    <t>13.06.202591</t>
-  </si>
-  <si>
-    <t>13.06.202592</t>
-  </si>
-  <si>
-    <t>13.06.202593</t>
-  </si>
-  <si>
-    <t>13.06.202594</t>
-  </si>
-  <si>
-    <t>13.06.202595</t>
-  </si>
-  <si>
-    <t>13.06.202596</t>
+    <t>16.06.20251</t>
+  </si>
+  <si>
+    <t>16.06.20252</t>
+  </si>
+  <si>
+    <t>16.06.20253</t>
+  </si>
+  <si>
+    <t>16.06.20254</t>
+  </si>
+  <si>
+    <t>16.06.20255</t>
+  </si>
+  <si>
+    <t>16.06.20256</t>
+  </si>
+  <si>
+    <t>16.06.20257</t>
+  </si>
+  <si>
+    <t>16.06.20258</t>
+  </si>
+  <si>
+    <t>16.06.20259</t>
+  </si>
+  <si>
+    <t>16.06.202510</t>
+  </si>
+  <si>
+    <t>16.06.202511</t>
+  </si>
+  <si>
+    <t>16.06.202512</t>
+  </si>
+  <si>
+    <t>16.06.202513</t>
+  </si>
+  <si>
+    <t>16.06.202514</t>
+  </si>
+  <si>
+    <t>16.06.202515</t>
+  </si>
+  <si>
+    <t>16.06.202516</t>
+  </si>
+  <si>
+    <t>16.06.202517</t>
+  </si>
+  <si>
+    <t>16.06.202518</t>
+  </si>
+  <si>
+    <t>16.06.202519</t>
+  </si>
+  <si>
+    <t>16.06.202520</t>
+  </si>
+  <si>
+    <t>16.06.202521</t>
+  </si>
+  <si>
+    <t>16.06.202522</t>
+  </si>
+  <si>
+    <t>16.06.202523</t>
+  </si>
+  <si>
+    <t>16.06.202524</t>
+  </si>
+  <si>
+    <t>16.06.202525</t>
+  </si>
+  <si>
+    <t>16.06.202526</t>
+  </si>
+  <si>
+    <t>16.06.202527</t>
+  </si>
+  <si>
+    <t>16.06.202528</t>
+  </si>
+  <si>
+    <t>16.06.202529</t>
+  </si>
+  <si>
+    <t>16.06.202530</t>
+  </si>
+  <si>
+    <t>16.06.202531</t>
+  </si>
+  <si>
+    <t>16.06.202532</t>
+  </si>
+  <si>
+    <t>16.06.202533</t>
+  </si>
+  <si>
+    <t>16.06.202534</t>
+  </si>
+  <si>
+    <t>16.06.202535</t>
+  </si>
+  <si>
+    <t>16.06.202536</t>
+  </si>
+  <si>
+    <t>16.06.202537</t>
+  </si>
+  <si>
+    <t>16.06.202538</t>
+  </si>
+  <si>
+    <t>16.06.202539</t>
+  </si>
+  <si>
+    <t>16.06.202540</t>
+  </si>
+  <si>
+    <t>16.06.202541</t>
+  </si>
+  <si>
+    <t>16.06.202542</t>
+  </si>
+  <si>
+    <t>16.06.202543</t>
+  </si>
+  <si>
+    <t>16.06.202544</t>
+  </si>
+  <si>
+    <t>16.06.202545</t>
+  </si>
+  <si>
+    <t>16.06.202546</t>
+  </si>
+  <si>
+    <t>16.06.202547</t>
+  </si>
+  <si>
+    <t>16.06.202548</t>
+  </si>
+  <si>
+    <t>16.06.202549</t>
+  </si>
+  <si>
+    <t>16.06.202550</t>
+  </si>
+  <si>
+    <t>16.06.202551</t>
+  </si>
+  <si>
+    <t>16.06.202552</t>
+  </si>
+  <si>
+    <t>16.06.202553</t>
+  </si>
+  <si>
+    <t>16.06.202554</t>
+  </si>
+  <si>
+    <t>16.06.202555</t>
+  </si>
+  <si>
+    <t>16.06.202556</t>
+  </si>
+  <si>
+    <t>16.06.202557</t>
+  </si>
+  <si>
+    <t>16.06.202558</t>
+  </si>
+  <si>
+    <t>16.06.202559</t>
+  </si>
+  <si>
+    <t>16.06.202560</t>
+  </si>
+  <si>
+    <t>16.06.202561</t>
+  </si>
+  <si>
+    <t>16.06.202562</t>
+  </si>
+  <si>
+    <t>16.06.202563</t>
+  </si>
+  <si>
+    <t>16.06.202564</t>
+  </si>
+  <si>
+    <t>16.06.202565</t>
+  </si>
+  <si>
+    <t>16.06.202566</t>
+  </si>
+  <si>
+    <t>16.06.202567</t>
+  </si>
+  <si>
+    <t>16.06.202568</t>
+  </si>
+  <si>
+    <t>16.06.202569</t>
+  </si>
+  <si>
+    <t>16.06.202570</t>
+  </si>
+  <si>
+    <t>16.06.202571</t>
+  </si>
+  <si>
+    <t>16.06.202572</t>
+  </si>
+  <si>
+    <t>16.06.202573</t>
+  </si>
+  <si>
+    <t>16.06.202574</t>
+  </si>
+  <si>
+    <t>16.06.202575</t>
+  </si>
+  <si>
+    <t>16.06.202576</t>
+  </si>
+  <si>
+    <t>16.06.202577</t>
+  </si>
+  <si>
+    <t>16.06.202578</t>
+  </si>
+  <si>
+    <t>16.06.202579</t>
+  </si>
+  <si>
+    <t>16.06.202580</t>
+  </si>
+  <si>
+    <t>16.06.202581</t>
+  </si>
+  <si>
+    <t>16.06.202582</t>
+  </si>
+  <si>
+    <t>16.06.202583</t>
+  </si>
+  <si>
+    <t>16.06.202584</t>
+  </si>
+  <si>
+    <t>16.06.202585</t>
+  </si>
+  <si>
+    <t>16.06.202586</t>
+  </si>
+  <si>
+    <t>16.06.202587</t>
+  </si>
+  <si>
+    <t>16.06.202588</t>
+  </si>
+  <si>
+    <t>16.06.202589</t>
+  </si>
+  <si>
+    <t>16.06.202590</t>
+  </si>
+  <si>
+    <t>16.06.202591</t>
+  </si>
+  <si>
+    <t>16.06.202592</t>
+  </si>
+  <si>
+    <t>16.06.202593</t>
+  </si>
+  <si>
+    <t>16.06.202594</t>
+  </si>
+  <si>
+    <t>16.06.202595</t>
+  </si>
+  <si>
+    <t>16.06.202596</t>
+  </si>
+  <si>
+    <t>17.06.20251</t>
+  </si>
+  <si>
+    <t>17.06.20252</t>
+  </si>
+  <si>
+    <t>17.06.20253</t>
+  </si>
+  <si>
+    <t>17.06.20254</t>
+  </si>
+  <si>
+    <t>17.06.20255</t>
+  </si>
+  <si>
+    <t>17.06.20256</t>
+  </si>
+  <si>
+    <t>17.06.20257</t>
+  </si>
+  <si>
+    <t>17.06.20258</t>
+  </si>
+  <si>
+    <t>17.06.20259</t>
+  </si>
+  <si>
+    <t>17.06.202510</t>
+  </si>
+  <si>
+    <t>17.06.202511</t>
+  </si>
+  <si>
+    <t>17.06.202512</t>
+  </si>
+  <si>
+    <t>17.06.202513</t>
+  </si>
+  <si>
+    <t>17.06.202514</t>
+  </si>
+  <si>
+    <t>17.06.202515</t>
+  </si>
+  <si>
+    <t>17.06.202516</t>
+  </si>
+  <si>
+    <t>17.06.202517</t>
+  </si>
+  <si>
+    <t>17.06.202518</t>
+  </si>
+  <si>
+    <t>17.06.202519</t>
+  </si>
+  <si>
+    <t>17.06.202520</t>
+  </si>
+  <si>
+    <t>17.06.202521</t>
+  </si>
+  <si>
+    <t>17.06.202522</t>
+  </si>
+  <si>
+    <t>17.06.202523</t>
+  </si>
+  <si>
+    <t>17.06.202524</t>
+  </si>
+  <si>
+    <t>17.06.202525</t>
+  </si>
+  <si>
+    <t>17.06.202526</t>
+  </si>
+  <si>
+    <t>17.06.202527</t>
+  </si>
+  <si>
+    <t>17.06.202528</t>
+  </si>
+  <si>
+    <t>17.06.202529</t>
+  </si>
+  <si>
+    <t>17.06.202530</t>
+  </si>
+  <si>
+    <t>17.06.202531</t>
+  </si>
+  <si>
+    <t>17.06.202532</t>
+  </si>
+  <si>
+    <t>17.06.202533</t>
+  </si>
+  <si>
+    <t>17.06.202534</t>
+  </si>
+  <si>
+    <t>17.06.202535</t>
+  </si>
+  <si>
+    <t>17.06.202536</t>
+  </si>
+  <si>
+    <t>17.06.202537</t>
+  </si>
+  <si>
+    <t>17.06.202538</t>
+  </si>
+  <si>
+    <t>17.06.202539</t>
+  </si>
+  <si>
+    <t>17.06.202540</t>
+  </si>
+  <si>
+    <t>17.06.202541</t>
+  </si>
+  <si>
+    <t>17.06.202542</t>
+  </si>
+  <si>
+    <t>17.06.202543</t>
+  </si>
+  <si>
+    <t>17.06.202544</t>
+  </si>
+  <si>
+    <t>17.06.202545</t>
+  </si>
+  <si>
+    <t>17.06.202546</t>
+  </si>
+  <si>
+    <t>17.06.202547</t>
+  </si>
+  <si>
+    <t>17.06.202548</t>
+  </si>
+  <si>
+    <t>17.06.202549</t>
+  </si>
+  <si>
+    <t>17.06.202550</t>
+  </si>
+  <si>
+    <t>17.06.202551</t>
+  </si>
+  <si>
+    <t>17.06.202552</t>
+  </si>
+  <si>
+    <t>17.06.202553</t>
+  </si>
+  <si>
+    <t>17.06.202554</t>
+  </si>
+  <si>
+    <t>17.06.202555</t>
+  </si>
+  <si>
+    <t>17.06.202556</t>
+  </si>
+  <si>
+    <t>17.06.202557</t>
+  </si>
+  <si>
+    <t>17.06.202558</t>
+  </si>
+  <si>
+    <t>17.06.202559</t>
+  </si>
+  <si>
+    <t>17.06.202560</t>
+  </si>
+  <si>
+    <t>17.06.202561</t>
+  </si>
+  <si>
+    <t>17.06.202562</t>
+  </si>
+  <si>
+    <t>17.06.202563</t>
+  </si>
+  <si>
+    <t>17.06.202564</t>
+  </si>
+  <si>
+    <t>17.06.202565</t>
+  </si>
+  <si>
+    <t>17.06.202566</t>
+  </si>
+  <si>
+    <t>17.06.202567</t>
+  </si>
+  <si>
+    <t>17.06.202568</t>
+  </si>
+  <si>
+    <t>17.06.202569</t>
+  </si>
+  <si>
+    <t>17.06.202570</t>
+  </si>
+  <si>
+    <t>17.06.202571</t>
+  </si>
+  <si>
+    <t>17.06.202572</t>
+  </si>
+  <si>
+    <t>17.06.202573</t>
+  </si>
+  <si>
+    <t>17.06.202574</t>
+  </si>
+  <si>
+    <t>17.06.202575</t>
+  </si>
+  <si>
+    <t>17.06.202576</t>
+  </si>
+  <si>
+    <t>17.06.202577</t>
+  </si>
+  <si>
+    <t>17.06.202578</t>
+  </si>
+  <si>
+    <t>17.06.202579</t>
+  </si>
+  <si>
+    <t>17.06.202580</t>
+  </si>
+  <si>
+    <t>17.06.202581</t>
+  </si>
+  <si>
+    <t>17.06.202582</t>
+  </si>
+  <si>
+    <t>17.06.202583</t>
+  </si>
+  <si>
+    <t>17.06.202584</t>
+  </si>
+  <si>
+    <t>17.06.202585</t>
+  </si>
+  <si>
+    <t>17.06.202586</t>
+  </si>
+  <si>
+    <t>17.06.202587</t>
+  </si>
+  <si>
+    <t>17.06.202588</t>
+  </si>
+  <si>
+    <t>17.06.202589</t>
+  </si>
+  <si>
+    <t>17.06.202590</t>
+  </si>
+  <si>
+    <t>17.06.202591</t>
+  </si>
+  <si>
+    <t>17.06.202592</t>
+  </si>
+  <si>
+    <t>17.06.202593</t>
+  </si>
+  <si>
+    <t>17.06.202594</t>
+  </si>
+  <si>
+    <t>17.06.202595</t>
+  </si>
+  <si>
+    <t>17.06.202596</t>
   </si>
 </sst>
 </file>
@@ -985,10 +985,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B2">
-        <v>5507</v>
+        <v>4813</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -999,10 +999,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45820.01041666666</v>
+        <v>45824.01041666666</v>
       </c>
       <c r="B3">
-        <v>5493</v>
+        <v>4710</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45820.02083333334</v>
+        <v>45824.02083333334</v>
       </c>
       <c r="B4">
-        <v>5456</v>
+        <v>4669</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45820.03125</v>
+        <v>45824.03125</v>
       </c>
       <c r="B5">
-        <v>5358</v>
+        <v>4624</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45820.04166666666</v>
+        <v>45824.04166666666</v>
       </c>
       <c r="B6">
-        <v>5376</v>
+        <v>4598</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45820.05208333334</v>
+        <v>45824.05208333334</v>
       </c>
       <c r="B7">
-        <v>5343</v>
+        <v>4595</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45820.0625</v>
+        <v>45824.0625</v>
       </c>
       <c r="B8">
-        <v>5267</v>
+        <v>4569</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45820.07291666666</v>
+        <v>45824.07291666666</v>
       </c>
       <c r="B9">
-        <v>5262</v>
+        <v>4591</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45820.08333333334</v>
+        <v>45824.08333333334</v>
       </c>
       <c r="B10">
-        <v>5178</v>
+        <v>4565</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1111,10 +1111,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45820.09375</v>
+        <v>45824.09375</v>
       </c>
       <c r="B11">
-        <v>5175</v>
+        <v>4551</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45820.10416666666</v>
+        <v>45824.10416666666</v>
       </c>
       <c r="B12">
-        <v>5157</v>
+        <v>4551</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1139,10 +1139,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45820.11458333334</v>
+        <v>45824.11458333334</v>
       </c>
       <c r="B13">
-        <v>5218</v>
+        <v>4555</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45820.125</v>
+        <v>45824.125</v>
       </c>
       <c r="B14">
-        <v>5145</v>
+        <v>4532</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45820.13541666666</v>
+        <v>45824.13541666666</v>
       </c>
       <c r="B15">
-        <v>5194</v>
+        <v>4555</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1181,10 +1181,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45820.14583333334</v>
+        <v>45824.14583333334</v>
       </c>
       <c r="B16">
-        <v>5146</v>
+        <v>4602</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45820.15625</v>
+        <v>45824.15625</v>
       </c>
       <c r="B17">
-        <v>5244</v>
+        <v>4618</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1209,10 +1209,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45820.16666666666</v>
+        <v>45824.16666666666</v>
       </c>
       <c r="B18">
-        <v>5277</v>
+        <v>4637</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1223,10 +1223,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45820.17708333334</v>
+        <v>45824.17708333334</v>
       </c>
       <c r="B19">
-        <v>5269</v>
+        <v>4668</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1237,10 +1237,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45820.1875</v>
+        <v>45824.1875</v>
       </c>
       <c r="B20">
-        <v>5210</v>
+        <v>4669</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45820.19791666666</v>
+        <v>45824.19791666666</v>
       </c>
       <c r="B21">
-        <v>5287</v>
+        <v>4736</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45820.20833333334</v>
+        <v>45824.20833333334</v>
       </c>
       <c r="B22">
-        <v>5411</v>
+        <v>4895</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45820.21875</v>
+        <v>45824.21875</v>
       </c>
       <c r="B23">
-        <v>5522</v>
+        <v>5057</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1293,10 +1293,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45820.22916666666</v>
+        <v>45824.22916666666</v>
       </c>
       <c r="B24">
-        <v>5430</v>
+        <v>5181</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45820.23958333334</v>
+        <v>45824.23958333334</v>
       </c>
       <c r="B25">
-        <v>5556</v>
+        <v>5295</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45820.25</v>
+        <v>45824.25</v>
       </c>
       <c r="B26">
-        <v>5781</v>
+        <v>5532</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45820.26041666666</v>
+        <v>45824.26041666666</v>
       </c>
       <c r="B27">
-        <v>5896</v>
+        <v>5573</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45820.27083333334</v>
+        <v>45824.27083333334</v>
       </c>
       <c r="B28">
-        <v>5913</v>
+        <v>5626</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45820.28125</v>
+        <v>45824.28125</v>
       </c>
       <c r="B29">
-        <v>5906</v>
+        <v>5652</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45820.29166666666</v>
+        <v>45824.29166666666</v>
       </c>
       <c r="B30">
-        <v>5848</v>
+        <v>5752</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1391,10 +1391,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45820.30208333334</v>
+        <v>45824.30208333334</v>
       </c>
       <c r="B31">
-        <v>6001</v>
+        <v>5738</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45820.3125</v>
+        <v>45824.3125</v>
       </c>
       <c r="B32">
-        <v>5894</v>
+        <v>5751</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1419,10 +1419,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45820.32291666666</v>
+        <v>45824.32291666666</v>
       </c>
       <c r="B33">
-        <v>5816</v>
+        <v>5694</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1433,10 +1433,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45820.33333333334</v>
+        <v>45824.33333333334</v>
       </c>
       <c r="B34">
-        <v>5705</v>
+        <v>5490</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1447,10 +1447,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45820.34375</v>
+        <v>45824.34375</v>
       </c>
       <c r="B35">
-        <v>5682</v>
+        <v>5483</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45820.35416666666</v>
+        <v>45824.35416666666</v>
       </c>
       <c r="B36">
-        <v>5665</v>
+        <v>5471</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45820.36458333334</v>
+        <v>45824.36458333334</v>
       </c>
       <c r="B37">
-        <v>5588</v>
+        <v>5448</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1489,10 +1489,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45820.375</v>
+        <v>45824.375</v>
       </c>
       <c r="B38">
-        <v>5479</v>
+        <v>5335</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45820.38541666666</v>
+        <v>45824.38541666666</v>
       </c>
       <c r="B39">
-        <v>5436</v>
+        <v>5251</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45820.39583333334</v>
+        <v>45824.39583333334</v>
       </c>
       <c r="B40">
-        <v>5326</v>
+        <v>5227</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45820.40625</v>
+        <v>45824.40625</v>
       </c>
       <c r="B41">
-        <v>5252</v>
+        <v>5236</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45820.41666666666</v>
+        <v>45824.41666666666</v>
       </c>
       <c r="B42">
-        <v>5191</v>
+        <v>5040</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45820.42708333334</v>
+        <v>45824.42708333334</v>
       </c>
       <c r="B43">
-        <v>5169</v>
+        <v>5050</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45820.4375</v>
+        <v>45824.4375</v>
       </c>
       <c r="B44">
-        <v>5059</v>
+        <v>4999</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45820.44791666666</v>
+        <v>45824.44791666666</v>
       </c>
       <c r="B45">
-        <v>5071</v>
+        <v>5036</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45820.45833333334</v>
+        <v>45824.45833333334</v>
       </c>
       <c r="B46">
-        <v>4939</v>
+        <v>4905</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45820.46875</v>
+        <v>45824.46875</v>
       </c>
       <c r="B47">
-        <v>4877</v>
+        <v>4943</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45820.47916666666</v>
+        <v>45824.47916666666</v>
       </c>
       <c r="B48">
-        <v>4900</v>
+        <v>4874</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1643,10 +1643,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45820.48958333334</v>
+        <v>45824.48958333334</v>
       </c>
       <c r="B49">
-        <v>4961</v>
+        <v>4949</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45820.5</v>
+        <v>45824.5</v>
       </c>
       <c r="B50">
-        <v>4923</v>
+        <v>4945</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1671,10 +1671,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45820.51041666666</v>
+        <v>45824.51041666666</v>
       </c>
       <c r="B51">
-        <v>4981</v>
+        <v>5031</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45820.52083333334</v>
+        <v>45824.52083333334</v>
       </c>
       <c r="B52">
-        <v>4995</v>
+        <v>4982</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1699,10 +1699,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45820.53125</v>
+        <v>45824.53125</v>
       </c>
       <c r="B53">
-        <v>4967</v>
+        <v>4950</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45820.54166666666</v>
+        <v>45824.54166666666</v>
       </c>
       <c r="B54">
-        <v>4989</v>
+        <v>4990</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45820.55208333334</v>
+        <v>45824.55208333334</v>
       </c>
       <c r="B55">
-        <v>4970</v>
+        <v>5026</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45820.5625</v>
+        <v>45824.5625</v>
       </c>
       <c r="B56">
-        <v>5029</v>
+        <v>4983</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -1755,10 +1755,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45820.57291666666</v>
+        <v>45824.57291666666</v>
       </c>
       <c r="B57">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45820.58333333334</v>
+        <v>45824.58333333334</v>
       </c>
       <c r="B58">
-        <v>5075</v>
+        <v>5134</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45820.59375</v>
+        <v>45824.59375</v>
       </c>
       <c r="B59">
-        <v>5115</v>
+        <v>5227</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45820.60416666666</v>
+        <v>45824.60416666666</v>
       </c>
       <c r="B60">
-        <v>5098</v>
+        <v>5260</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -1811,10 +1811,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45820.61458333334</v>
+        <v>45824.61458333334</v>
       </c>
       <c r="B61">
-        <v>5230</v>
+        <v>5269</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45820.625</v>
+        <v>45824.625</v>
       </c>
       <c r="B62">
-        <v>5189</v>
+        <v>5364</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45820.63541666666</v>
+        <v>45824.63541666666</v>
       </c>
       <c r="B63">
-        <v>5385</v>
+        <v>5472</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -1853,10 +1853,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45820.64583333334</v>
+        <v>45824.64583333334</v>
       </c>
       <c r="B64">
-        <v>5449</v>
+        <v>5538</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45820.65625</v>
+        <v>45824.65625</v>
       </c>
       <c r="B65">
-        <v>5439</v>
+        <v>5546</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45820.66666666666</v>
+        <v>45824.66666666666</v>
       </c>
       <c r="B66">
-        <v>5591</v>
+        <v>5686</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45820.67708333334</v>
+        <v>45824.67708333334</v>
       </c>
       <c r="B67">
-        <v>5678</v>
+        <v>5764</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45820.6875</v>
+        <v>45824.6875</v>
       </c>
       <c r="B68">
-        <v>5795</v>
+        <v>5827</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45820.69791666666</v>
+        <v>45824.69791666666</v>
       </c>
       <c r="B69">
-        <v>5926</v>
+        <v>5978</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45820.70833333334</v>
+        <v>45824.70833333334</v>
       </c>
       <c r="B70">
-        <v>6149</v>
+        <v>6080</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45820.71875</v>
+        <v>45824.71875</v>
       </c>
       <c r="B71">
-        <v>6309</v>
+        <v>6203</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45820.72916666666</v>
+        <v>45824.72916666666</v>
       </c>
       <c r="B72">
-        <v>6366</v>
+        <v>6355</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45820.73958333334</v>
+        <v>45824.73958333334</v>
       </c>
       <c r="B73">
-        <v>6409</v>
+        <v>6440</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45820.75</v>
+        <v>45824.75</v>
       </c>
       <c r="B74">
-        <v>6509</v>
+        <v>6562</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -2007,10 +2007,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45820.76041666666</v>
+        <v>45824.76041666666</v>
       </c>
       <c r="B75">
-        <v>6585</v>
+        <v>6727</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45820.77083333334</v>
+        <v>45824.77083333334</v>
       </c>
       <c r="B76">
-        <v>6766</v>
+        <v>6860</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45820.78125</v>
+        <v>45824.78125</v>
       </c>
       <c r="B77">
-        <v>6840</v>
+        <v>6998</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -2049,10 +2049,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45820.79166666666</v>
+        <v>45824.79166666666</v>
       </c>
       <c r="B78">
-        <v>6865</v>
+        <v>6983</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45820.80208333334</v>
+        <v>45824.80208333334</v>
       </c>
       <c r="B79">
-        <v>6945</v>
+        <v>7031</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45820.8125</v>
+        <v>45824.8125</v>
       </c>
       <c r="B80">
-        <v>6998</v>
+        <v>7024</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45820.82291666666</v>
+        <v>45824.82291666666</v>
       </c>
       <c r="B81">
-        <v>7076</v>
+        <v>7092</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -2105,10 +2105,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45820.83333333334</v>
+        <v>45824.83333333334</v>
       </c>
       <c r="B82">
-        <v>7061</v>
+        <v>7145</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45820.84375</v>
+        <v>45824.84375</v>
       </c>
       <c r="B83">
-        <v>7140</v>
+        <v>7164</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -2133,10 +2133,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45820.85416666666</v>
+        <v>45824.85416666666</v>
       </c>
       <c r="B84">
-        <v>7140</v>
+        <v>7198</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45820.86458333334</v>
+        <v>45824.86458333334</v>
       </c>
       <c r="B85">
-        <v>7113</v>
+        <v>7183</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -2161,10 +2161,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45820.875</v>
+        <v>45824.875</v>
       </c>
       <c r="B86">
-        <v>6988</v>
+        <v>7096</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45820.88541666666</v>
+        <v>45824.88541666666</v>
       </c>
       <c r="B87">
-        <v>6878</v>
+        <v>6983</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -2189,10 +2189,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45820.89583333334</v>
+        <v>45824.89583333334</v>
       </c>
       <c r="B88">
-        <v>6711</v>
+        <v>6727</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45820.90625</v>
+        <v>45824.90625</v>
       </c>
       <c r="B89">
-        <v>6541</v>
+        <v>6551</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45820.91666666666</v>
+        <v>45824.91666666666</v>
       </c>
       <c r="B90">
-        <v>6319</v>
+        <v>6355</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45820.92708333334</v>
+        <v>45824.92708333334</v>
       </c>
       <c r="B91">
-        <v>6239</v>
+        <v>6273</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45820.9375</v>
+        <v>45824.9375</v>
       </c>
       <c r="B92">
-        <v>6074</v>
+        <v>6132</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45820.94791666666</v>
+        <v>45824.94791666666</v>
       </c>
       <c r="B93">
-        <v>5939</v>
+        <v>5978</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -2273,10 +2273,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45820.95833333334</v>
+        <v>45824.95833333334</v>
       </c>
       <c r="B94">
-        <v>5844</v>
+        <v>5810</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45820.96875</v>
+        <v>45824.96875</v>
       </c>
       <c r="B95">
-        <v>5757</v>
+        <v>5759</v>
       </c>
       <c r="C95">
         <v>94</v>
@@ -2301,10 +2301,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45820.97916666666</v>
+        <v>45824.97916666666</v>
       </c>
       <c r="B96">
-        <v>5663</v>
+        <v>5656</v>
       </c>
       <c r="C96">
         <v>95</v>
@@ -2315,10 +2315,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>45820.98958333334</v>
+        <v>45824.98958333334</v>
       </c>
       <c r="B97">
-        <v>5567</v>
+        <v>5582</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B98">
-        <v>5529</v>
+        <v>5509</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>45821.01041666666</v>
+        <v>45825.01041666666</v>
       </c>
       <c r="B99">
-        <v>5537</v>
+        <v>5420</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>45821.02083333334</v>
+        <v>45825.02083333334</v>
       </c>
       <c r="B100">
-        <v>5462</v>
+        <v>5377</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2371,10 +2371,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>45821.03125</v>
+        <v>45825.03125</v>
       </c>
       <c r="B101">
-        <v>5407</v>
+        <v>5365</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>45821.04166666666</v>
+        <v>45825.04166666666</v>
       </c>
       <c r="B102">
-        <v>5333</v>
+        <v>5329</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>45821.05208333334</v>
+        <v>45825.05208333334</v>
       </c>
       <c r="B103">
-        <v>5337</v>
+        <v>5315</v>
       </c>
       <c r="C103">
         <v>6</v>
@@ -2413,10 +2413,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>45821.0625</v>
+        <v>45825.0625</v>
       </c>
       <c r="B104">
-        <v>5413</v>
+        <v>5301</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -2427,10 +2427,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>45821.07291666666</v>
+        <v>45825.07291666666</v>
       </c>
       <c r="B105">
-        <v>5338</v>
+        <v>5299</v>
       </c>
       <c r="C105">
         <v>8</v>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>45821.08333333334</v>
+        <v>45825.08333333334</v>
       </c>
       <c r="B106">
-        <v>5228</v>
+        <v>5237</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -2455,10 +2455,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>45821.09375</v>
+        <v>45825.09375</v>
       </c>
       <c r="B107">
-        <v>5319</v>
+        <v>5235</v>
       </c>
       <c r="C107">
         <v>10</v>
@@ -2469,10 +2469,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>45821.10416666666</v>
+        <v>45825.10416666666</v>
       </c>
       <c r="B108">
-        <v>5263</v>
+        <v>5218</v>
       </c>
       <c r="C108">
         <v>11</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>45821.11458333334</v>
+        <v>45825.11458333334</v>
       </c>
       <c r="B109">
-        <v>5264</v>
+        <v>5225</v>
       </c>
       <c r="C109">
         <v>12</v>
@@ -2497,10 +2497,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>45821.125</v>
+        <v>45825.125</v>
       </c>
       <c r="B110">
-        <v>5232</v>
+        <v>5309</v>
       </c>
       <c r="C110">
         <v>13</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>45821.13541666666</v>
+        <v>45825.13541666666</v>
       </c>
       <c r="B111">
-        <v>5339</v>
+        <v>5257</v>
       </c>
       <c r="C111">
         <v>14</v>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>45821.14583333334</v>
+        <v>45825.14583333334</v>
       </c>
       <c r="B112">
-        <v>5317</v>
+        <v>5343</v>
       </c>
       <c r="C112">
         <v>15</v>
@@ -2539,10 +2539,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>45821.15625</v>
+        <v>45825.15625</v>
       </c>
       <c r="B113">
-        <v>5289</v>
+        <v>5300</v>
       </c>
       <c r="C113">
         <v>16</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>45821.16666666666</v>
+        <v>45825.16666666666</v>
       </c>
       <c r="B114">
-        <v>5291</v>
+        <v>5262</v>
       </c>
       <c r="C114">
         <v>17</v>
@@ -2567,10 +2567,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>45821.17708333334</v>
+        <v>45825.17708333334</v>
       </c>
       <c r="B115">
-        <v>5317</v>
+        <v>5271</v>
       </c>
       <c r="C115">
         <v>18</v>
@@ -2581,10 +2581,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>45821.1875</v>
+        <v>45825.1875</v>
       </c>
       <c r="B116">
-        <v>5370</v>
+        <v>5258</v>
       </c>
       <c r="C116">
         <v>19</v>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>45821.19791666666</v>
+        <v>45825.19791666666</v>
       </c>
       <c r="B117">
-        <v>5343</v>
+        <v>5357</v>
       </c>
       <c r="C117">
         <v>20</v>
@@ -2609,10 +2609,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>45821.20833333334</v>
+        <v>45825.20833333334</v>
       </c>
       <c r="B118">
-        <v>5518</v>
+        <v>5451</v>
       </c>
       <c r="C118">
         <v>21</v>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>45821.21875</v>
+        <v>45825.21875</v>
       </c>
       <c r="B119">
-        <v>5470</v>
+        <v>5528</v>
       </c>
       <c r="C119">
         <v>22</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>45821.22916666666</v>
+        <v>45825.22916666666</v>
       </c>
       <c r="B120">
-        <v>5603</v>
+        <v>5604</v>
       </c>
       <c r="C120">
         <v>23</v>
@@ -2651,10 +2651,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>45821.23958333334</v>
+        <v>45825.23958333334</v>
       </c>
       <c r="B121">
-        <v>5670</v>
+        <v>5658</v>
       </c>
       <c r="C121">
         <v>24</v>
@@ -2665,10 +2665,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>45821.25</v>
+        <v>45825.25</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>5857</v>
       </c>
       <c r="C122">
         <v>25</v>
@@ -2679,10 +2679,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>45821.26041666666</v>
+        <v>45825.26041666666</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>5932</v>
       </c>
       <c r="C123">
         <v>26</v>
@@ -2693,10 +2693,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>45821.27083333334</v>
+        <v>45825.27083333334</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>5960</v>
       </c>
       <c r="C124">
         <v>27</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>45821.28125</v>
+        <v>45825.28125</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>5948</v>
       </c>
       <c r="C125">
         <v>28</v>
@@ -2721,10 +2721,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>45821.29166666666</v>
+        <v>45825.29166666666</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>6026</v>
       </c>
       <c r="C126">
         <v>29</v>
@@ -2735,10 +2735,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>45821.30208333334</v>
+        <v>45825.30208333334</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>5993</v>
       </c>
       <c r="C127">
         <v>30</v>
@@ -2749,10 +2749,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>45821.3125</v>
+        <v>45825.3125</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>5982</v>
       </c>
       <c r="C128">
         <v>31</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>45821.32291666666</v>
+        <v>45825.32291666666</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>5982</v>
       </c>
       <c r="C129">
         <v>32</v>
@@ -2777,10 +2777,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>45821.33333333334</v>
+        <v>45825.33333333334</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>5928</v>
       </c>
       <c r="C130">
         <v>33</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>45821.34375</v>
+        <v>45825.34375</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>5849</v>
       </c>
       <c r="C131">
         <v>34</v>
@@ -2805,10 +2805,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>45821.35416666666</v>
+        <v>45825.35416666666</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>5862</v>
       </c>
       <c r="C132">
         <v>35</v>
@@ -2819,10 +2819,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>45821.36458333334</v>
+        <v>45825.36458333334</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>5802</v>
       </c>
       <c r="C133">
         <v>36</v>
@@ -2833,10 +2833,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>45821.375</v>
+        <v>45825.375</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>5688</v>
       </c>
       <c r="C134">
         <v>37</v>
@@ -2847,10 +2847,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>45821.38541666666</v>
+        <v>45825.38541666666</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>5634</v>
       </c>
       <c r="C135">
         <v>38</v>
@@ -2861,10 +2861,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>45821.39583333334</v>
+        <v>45825.39583333334</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>5597</v>
       </c>
       <c r="C136">
         <v>39</v>
@@ -2875,10 +2875,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>45821.40625</v>
+        <v>45825.40625</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>5557</v>
       </c>
       <c r="C137">
         <v>40</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>45821.41666666666</v>
+        <v>45825.41666666666</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>45821.42708333334</v>
+        <v>45825.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>45821.4375</v>
+        <v>45825.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>45821.44791666666</v>
+        <v>45825.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>45821.45833333334</v>
+        <v>45825.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>45821.46875</v>
+        <v>45825.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>45821.47916666666</v>
+        <v>45825.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>45821.48958333334</v>
+        <v>45825.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>45821.5</v>
+        <v>45825.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>45821.51041666666</v>
+        <v>45825.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>45821.52083333334</v>
+        <v>45825.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>45821.53125</v>
+        <v>45825.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>45821.54166666666</v>
+        <v>45825.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>45821.55208333334</v>
+        <v>45825.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>45821.5625</v>
+        <v>45825.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>45821.57291666666</v>
+        <v>45825.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>45821.58333333334</v>
+        <v>45825.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>45821.59375</v>
+        <v>45825.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>45821.60416666666</v>
+        <v>45825.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>45821.61458333334</v>
+        <v>45825.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>45821.625</v>
+        <v>45825.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>45821.63541666666</v>
+        <v>45825.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>45821.64583333334</v>
+        <v>45825.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>45821.65625</v>
+        <v>45825.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>45821.66666666666</v>
+        <v>45825.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>45821.67708333334</v>
+        <v>45825.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>45821.6875</v>
+        <v>45825.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>45821.69791666666</v>
+        <v>45825.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>45821.70833333334</v>
+        <v>45825.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>45821.71875</v>
+        <v>45825.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>45821.72916666666</v>
+        <v>45825.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>45821.73958333334</v>
+        <v>45825.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>45821.75</v>
+        <v>45825.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>45821.76041666666</v>
+        <v>45825.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>45821.77083333334</v>
+        <v>45825.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>45821.78125</v>
+        <v>45825.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>45821.79166666666</v>
+        <v>45825.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>45821.80208333334</v>
+        <v>45825.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>45821.8125</v>
+        <v>45825.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>45821.82291666666</v>
+        <v>45825.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>45821.83333333334</v>
+        <v>45825.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>45821.84375</v>
+        <v>45825.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>45821.85416666666</v>
+        <v>45825.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>45821.86458333334</v>
+        <v>45825.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>45821.875</v>
+        <v>45825.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>45821.88541666666</v>
+        <v>45825.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>45821.89583333334</v>
+        <v>45825.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>45821.90625</v>
+        <v>45825.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>45821.91666666666</v>
+        <v>45825.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>45821.92708333334</v>
+        <v>45825.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>45821.9375</v>
+        <v>45825.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>45821.94791666666</v>
+        <v>45825.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>45821.95833333334</v>
+        <v>45825.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>45821.96875</v>
+        <v>45825.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>45821.97916666666</v>
+        <v>45825.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>45821.98958333334</v>
+        <v>45825.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="388">
   <si>
     <t>Timestamp</t>
   </si>
@@ -28,294 +28,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>16.06.20251</t>
-  </si>
-  <si>
-    <t>16.06.20252</t>
-  </si>
-  <si>
-    <t>16.06.20253</t>
-  </si>
-  <si>
-    <t>16.06.20254</t>
-  </si>
-  <si>
-    <t>16.06.20255</t>
-  </si>
-  <si>
-    <t>16.06.20256</t>
-  </si>
-  <si>
-    <t>16.06.20257</t>
-  </si>
-  <si>
-    <t>16.06.20258</t>
-  </si>
-  <si>
-    <t>16.06.20259</t>
-  </si>
-  <si>
-    <t>16.06.202510</t>
-  </si>
-  <si>
-    <t>16.06.202511</t>
-  </si>
-  <si>
-    <t>16.06.202512</t>
-  </si>
-  <si>
-    <t>16.06.202513</t>
-  </si>
-  <si>
-    <t>16.06.202514</t>
-  </si>
-  <si>
-    <t>16.06.202515</t>
-  </si>
-  <si>
-    <t>16.06.202516</t>
-  </si>
-  <si>
-    <t>16.06.202517</t>
-  </si>
-  <si>
-    <t>16.06.202518</t>
-  </si>
-  <si>
-    <t>16.06.202519</t>
-  </si>
-  <si>
-    <t>16.06.202520</t>
-  </si>
-  <si>
-    <t>16.06.202521</t>
-  </si>
-  <si>
-    <t>16.06.202522</t>
-  </si>
-  <si>
-    <t>16.06.202523</t>
-  </si>
-  <si>
-    <t>16.06.202524</t>
-  </si>
-  <si>
-    <t>16.06.202525</t>
-  </si>
-  <si>
-    <t>16.06.202526</t>
-  </si>
-  <si>
-    <t>16.06.202527</t>
-  </si>
-  <si>
-    <t>16.06.202528</t>
-  </si>
-  <si>
-    <t>16.06.202529</t>
-  </si>
-  <si>
-    <t>16.06.202530</t>
-  </si>
-  <si>
-    <t>16.06.202531</t>
-  </si>
-  <si>
-    <t>16.06.202532</t>
-  </si>
-  <si>
-    <t>16.06.202533</t>
-  </si>
-  <si>
-    <t>16.06.202534</t>
-  </si>
-  <si>
-    <t>16.06.202535</t>
-  </si>
-  <si>
-    <t>16.06.202536</t>
-  </si>
-  <si>
-    <t>16.06.202537</t>
-  </si>
-  <si>
-    <t>16.06.202538</t>
-  </si>
-  <si>
-    <t>16.06.202539</t>
-  </si>
-  <si>
-    <t>16.06.202540</t>
-  </si>
-  <si>
-    <t>16.06.202541</t>
-  </si>
-  <si>
-    <t>16.06.202542</t>
-  </si>
-  <si>
-    <t>16.06.202543</t>
-  </si>
-  <si>
-    <t>16.06.202544</t>
-  </si>
-  <si>
-    <t>16.06.202545</t>
-  </si>
-  <si>
-    <t>16.06.202546</t>
-  </si>
-  <si>
-    <t>16.06.202547</t>
-  </si>
-  <si>
-    <t>16.06.202548</t>
-  </si>
-  <si>
-    <t>16.06.202549</t>
-  </si>
-  <si>
-    <t>16.06.202550</t>
-  </si>
-  <si>
-    <t>16.06.202551</t>
-  </si>
-  <si>
-    <t>16.06.202552</t>
-  </si>
-  <si>
-    <t>16.06.202553</t>
-  </si>
-  <si>
-    <t>16.06.202554</t>
-  </si>
-  <si>
-    <t>16.06.202555</t>
-  </si>
-  <si>
-    <t>16.06.202556</t>
-  </si>
-  <si>
-    <t>16.06.202557</t>
-  </si>
-  <si>
-    <t>16.06.202558</t>
-  </si>
-  <si>
-    <t>16.06.202559</t>
-  </si>
-  <si>
-    <t>16.06.202560</t>
-  </si>
-  <si>
-    <t>16.06.202561</t>
-  </si>
-  <si>
-    <t>16.06.202562</t>
-  </si>
-  <si>
-    <t>16.06.202563</t>
-  </si>
-  <si>
-    <t>16.06.202564</t>
-  </si>
-  <si>
-    <t>16.06.202565</t>
-  </si>
-  <si>
-    <t>16.06.202566</t>
-  </si>
-  <si>
-    <t>16.06.202567</t>
-  </si>
-  <si>
-    <t>16.06.202568</t>
-  </si>
-  <si>
-    <t>16.06.202569</t>
-  </si>
-  <si>
-    <t>16.06.202570</t>
-  </si>
-  <si>
-    <t>16.06.202571</t>
-  </si>
-  <si>
-    <t>16.06.202572</t>
-  </si>
-  <si>
-    <t>16.06.202573</t>
-  </si>
-  <si>
-    <t>16.06.202574</t>
-  </si>
-  <si>
-    <t>16.06.202575</t>
-  </si>
-  <si>
-    <t>16.06.202576</t>
-  </si>
-  <si>
-    <t>16.06.202577</t>
-  </si>
-  <si>
-    <t>16.06.202578</t>
-  </si>
-  <si>
-    <t>16.06.202579</t>
-  </si>
-  <si>
-    <t>16.06.202580</t>
-  </si>
-  <si>
-    <t>16.06.202581</t>
-  </si>
-  <si>
-    <t>16.06.202582</t>
-  </si>
-  <si>
-    <t>16.06.202583</t>
-  </si>
-  <si>
-    <t>16.06.202584</t>
-  </si>
-  <si>
-    <t>16.06.202585</t>
-  </si>
-  <si>
-    <t>16.06.202586</t>
-  </si>
-  <si>
-    <t>16.06.202587</t>
-  </si>
-  <si>
-    <t>16.06.202588</t>
-  </si>
-  <si>
-    <t>16.06.202589</t>
-  </si>
-  <si>
-    <t>16.06.202590</t>
-  </si>
-  <si>
-    <t>16.06.202591</t>
-  </si>
-  <si>
-    <t>16.06.202592</t>
-  </si>
-  <si>
-    <t>16.06.202593</t>
-  </si>
-  <si>
-    <t>16.06.202594</t>
-  </si>
-  <si>
-    <t>16.06.202595</t>
-  </si>
-  <si>
-    <t>16.06.202596</t>
-  </si>
-  <si>
     <t>17.06.20251</t>
   </si>
   <si>
@@ -602,6 +314,870 @@
   </si>
   <si>
     <t>17.06.202596</t>
+  </si>
+  <si>
+    <t>18.06.20251</t>
+  </si>
+  <si>
+    <t>18.06.20252</t>
+  </si>
+  <si>
+    <t>18.06.20253</t>
+  </si>
+  <si>
+    <t>18.06.20254</t>
+  </si>
+  <si>
+    <t>18.06.20255</t>
+  </si>
+  <si>
+    <t>18.06.20256</t>
+  </si>
+  <si>
+    <t>18.06.20257</t>
+  </si>
+  <si>
+    <t>18.06.20258</t>
+  </si>
+  <si>
+    <t>18.06.20259</t>
+  </si>
+  <si>
+    <t>18.06.202510</t>
+  </si>
+  <si>
+    <t>18.06.202511</t>
+  </si>
+  <si>
+    <t>18.06.202512</t>
+  </si>
+  <si>
+    <t>18.06.202513</t>
+  </si>
+  <si>
+    <t>18.06.202514</t>
+  </si>
+  <si>
+    <t>18.06.202515</t>
+  </si>
+  <si>
+    <t>18.06.202516</t>
+  </si>
+  <si>
+    <t>18.06.202517</t>
+  </si>
+  <si>
+    <t>18.06.202518</t>
+  </si>
+  <si>
+    <t>18.06.202519</t>
+  </si>
+  <si>
+    <t>18.06.202520</t>
+  </si>
+  <si>
+    <t>18.06.202521</t>
+  </si>
+  <si>
+    <t>18.06.202522</t>
+  </si>
+  <si>
+    <t>18.06.202523</t>
+  </si>
+  <si>
+    <t>18.06.202524</t>
+  </si>
+  <si>
+    <t>18.06.202525</t>
+  </si>
+  <si>
+    <t>18.06.202526</t>
+  </si>
+  <si>
+    <t>18.06.202527</t>
+  </si>
+  <si>
+    <t>18.06.202528</t>
+  </si>
+  <si>
+    <t>18.06.202529</t>
+  </si>
+  <si>
+    <t>18.06.202530</t>
+  </si>
+  <si>
+    <t>18.06.202531</t>
+  </si>
+  <si>
+    <t>18.06.202532</t>
+  </si>
+  <si>
+    <t>18.06.202533</t>
+  </si>
+  <si>
+    <t>18.06.202534</t>
+  </si>
+  <si>
+    <t>18.06.202535</t>
+  </si>
+  <si>
+    <t>18.06.202536</t>
+  </si>
+  <si>
+    <t>18.06.202537</t>
+  </si>
+  <si>
+    <t>18.06.202538</t>
+  </si>
+  <si>
+    <t>18.06.202539</t>
+  </si>
+  <si>
+    <t>18.06.202540</t>
+  </si>
+  <si>
+    <t>18.06.202541</t>
+  </si>
+  <si>
+    <t>18.06.202542</t>
+  </si>
+  <si>
+    <t>18.06.202543</t>
+  </si>
+  <si>
+    <t>18.06.202544</t>
+  </si>
+  <si>
+    <t>18.06.202545</t>
+  </si>
+  <si>
+    <t>18.06.202546</t>
+  </si>
+  <si>
+    <t>18.06.202547</t>
+  </si>
+  <si>
+    <t>18.06.202548</t>
+  </si>
+  <si>
+    <t>18.06.202549</t>
+  </si>
+  <si>
+    <t>18.06.202550</t>
+  </si>
+  <si>
+    <t>18.06.202551</t>
+  </si>
+  <si>
+    <t>18.06.202552</t>
+  </si>
+  <si>
+    <t>18.06.202553</t>
+  </si>
+  <si>
+    <t>18.06.202554</t>
+  </si>
+  <si>
+    <t>18.06.202555</t>
+  </si>
+  <si>
+    <t>18.06.202556</t>
+  </si>
+  <si>
+    <t>18.06.202557</t>
+  </si>
+  <si>
+    <t>18.06.202558</t>
+  </si>
+  <si>
+    <t>18.06.202559</t>
+  </si>
+  <si>
+    <t>18.06.202560</t>
+  </si>
+  <si>
+    <t>18.06.202561</t>
+  </si>
+  <si>
+    <t>18.06.202562</t>
+  </si>
+  <si>
+    <t>18.06.202563</t>
+  </si>
+  <si>
+    <t>18.06.202564</t>
+  </si>
+  <si>
+    <t>18.06.202565</t>
+  </si>
+  <si>
+    <t>18.06.202566</t>
+  </si>
+  <si>
+    <t>18.06.202567</t>
+  </si>
+  <si>
+    <t>18.06.202568</t>
+  </si>
+  <si>
+    <t>18.06.202569</t>
+  </si>
+  <si>
+    <t>18.06.202570</t>
+  </si>
+  <si>
+    <t>18.06.202571</t>
+  </si>
+  <si>
+    <t>18.06.202572</t>
+  </si>
+  <si>
+    <t>18.06.202573</t>
+  </si>
+  <si>
+    <t>18.06.202574</t>
+  </si>
+  <si>
+    <t>18.06.202575</t>
+  </si>
+  <si>
+    <t>18.06.202576</t>
+  </si>
+  <si>
+    <t>18.06.202577</t>
+  </si>
+  <si>
+    <t>18.06.202578</t>
+  </si>
+  <si>
+    <t>18.06.202579</t>
+  </si>
+  <si>
+    <t>18.06.202580</t>
+  </si>
+  <si>
+    <t>18.06.202581</t>
+  </si>
+  <si>
+    <t>18.06.202582</t>
+  </si>
+  <si>
+    <t>18.06.202583</t>
+  </si>
+  <si>
+    <t>18.06.202584</t>
+  </si>
+  <si>
+    <t>18.06.202585</t>
+  </si>
+  <si>
+    <t>18.06.202586</t>
+  </si>
+  <si>
+    <t>18.06.202587</t>
+  </si>
+  <si>
+    <t>18.06.202588</t>
+  </si>
+  <si>
+    <t>18.06.202589</t>
+  </si>
+  <si>
+    <t>18.06.202590</t>
+  </si>
+  <si>
+    <t>18.06.202591</t>
+  </si>
+  <si>
+    <t>18.06.202592</t>
+  </si>
+  <si>
+    <t>18.06.202593</t>
+  </si>
+  <si>
+    <t>18.06.202594</t>
+  </si>
+  <si>
+    <t>18.06.202595</t>
+  </si>
+  <si>
+    <t>18.06.202596</t>
+  </si>
+  <si>
+    <t>19.06.20251</t>
+  </si>
+  <si>
+    <t>19.06.20252</t>
+  </si>
+  <si>
+    <t>19.06.20253</t>
+  </si>
+  <si>
+    <t>19.06.20254</t>
+  </si>
+  <si>
+    <t>19.06.20255</t>
+  </si>
+  <si>
+    <t>19.06.20256</t>
+  </si>
+  <si>
+    <t>19.06.20257</t>
+  </si>
+  <si>
+    <t>19.06.20258</t>
+  </si>
+  <si>
+    <t>19.06.20259</t>
+  </si>
+  <si>
+    <t>19.06.202510</t>
+  </si>
+  <si>
+    <t>19.06.202511</t>
+  </si>
+  <si>
+    <t>19.06.202512</t>
+  </si>
+  <si>
+    <t>19.06.202513</t>
+  </si>
+  <si>
+    <t>19.06.202514</t>
+  </si>
+  <si>
+    <t>19.06.202515</t>
+  </si>
+  <si>
+    <t>19.06.202516</t>
+  </si>
+  <si>
+    <t>19.06.202517</t>
+  </si>
+  <si>
+    <t>19.06.202518</t>
+  </si>
+  <si>
+    <t>19.06.202519</t>
+  </si>
+  <si>
+    <t>19.06.202520</t>
+  </si>
+  <si>
+    <t>19.06.202521</t>
+  </si>
+  <si>
+    <t>19.06.202522</t>
+  </si>
+  <si>
+    <t>19.06.202523</t>
+  </si>
+  <si>
+    <t>19.06.202524</t>
+  </si>
+  <si>
+    <t>19.06.202525</t>
+  </si>
+  <si>
+    <t>19.06.202526</t>
+  </si>
+  <si>
+    <t>19.06.202527</t>
+  </si>
+  <si>
+    <t>19.06.202528</t>
+  </si>
+  <si>
+    <t>19.06.202529</t>
+  </si>
+  <si>
+    <t>19.06.202530</t>
+  </si>
+  <si>
+    <t>19.06.202531</t>
+  </si>
+  <si>
+    <t>19.06.202532</t>
+  </si>
+  <si>
+    <t>19.06.202533</t>
+  </si>
+  <si>
+    <t>19.06.202534</t>
+  </si>
+  <si>
+    <t>19.06.202535</t>
+  </si>
+  <si>
+    <t>19.06.202536</t>
+  </si>
+  <si>
+    <t>19.06.202537</t>
+  </si>
+  <si>
+    <t>19.06.202538</t>
+  </si>
+  <si>
+    <t>19.06.202539</t>
+  </si>
+  <si>
+    <t>19.06.202540</t>
+  </si>
+  <si>
+    <t>19.06.202541</t>
+  </si>
+  <si>
+    <t>19.06.202542</t>
+  </si>
+  <si>
+    <t>19.06.202543</t>
+  </si>
+  <si>
+    <t>19.06.202544</t>
+  </si>
+  <si>
+    <t>19.06.202545</t>
+  </si>
+  <si>
+    <t>19.06.202546</t>
+  </si>
+  <si>
+    <t>19.06.202547</t>
+  </si>
+  <si>
+    <t>19.06.202548</t>
+  </si>
+  <si>
+    <t>19.06.202549</t>
+  </si>
+  <si>
+    <t>19.06.202550</t>
+  </si>
+  <si>
+    <t>19.06.202551</t>
+  </si>
+  <si>
+    <t>19.06.202552</t>
+  </si>
+  <si>
+    <t>19.06.202553</t>
+  </si>
+  <si>
+    <t>19.06.202554</t>
+  </si>
+  <si>
+    <t>19.06.202555</t>
+  </si>
+  <si>
+    <t>19.06.202556</t>
+  </si>
+  <si>
+    <t>19.06.202557</t>
+  </si>
+  <si>
+    <t>19.06.202558</t>
+  </si>
+  <si>
+    <t>19.06.202559</t>
+  </si>
+  <si>
+    <t>19.06.202560</t>
+  </si>
+  <si>
+    <t>19.06.202561</t>
+  </si>
+  <si>
+    <t>19.06.202562</t>
+  </si>
+  <si>
+    <t>19.06.202563</t>
+  </si>
+  <si>
+    <t>19.06.202564</t>
+  </si>
+  <si>
+    <t>19.06.202565</t>
+  </si>
+  <si>
+    <t>19.06.202566</t>
+  </si>
+  <si>
+    <t>19.06.202567</t>
+  </si>
+  <si>
+    <t>19.06.202568</t>
+  </si>
+  <si>
+    <t>19.06.202569</t>
+  </si>
+  <si>
+    <t>19.06.202570</t>
+  </si>
+  <si>
+    <t>19.06.202571</t>
+  </si>
+  <si>
+    <t>19.06.202572</t>
+  </si>
+  <si>
+    <t>19.06.202573</t>
+  </si>
+  <si>
+    <t>19.06.202574</t>
+  </si>
+  <si>
+    <t>19.06.202575</t>
+  </si>
+  <si>
+    <t>19.06.202576</t>
+  </si>
+  <si>
+    <t>19.06.202577</t>
+  </si>
+  <si>
+    <t>19.06.202578</t>
+  </si>
+  <si>
+    <t>19.06.202579</t>
+  </si>
+  <si>
+    <t>19.06.202580</t>
+  </si>
+  <si>
+    <t>19.06.202581</t>
+  </si>
+  <si>
+    <t>19.06.202582</t>
+  </si>
+  <si>
+    <t>19.06.202583</t>
+  </si>
+  <si>
+    <t>19.06.202584</t>
+  </si>
+  <si>
+    <t>19.06.202585</t>
+  </si>
+  <si>
+    <t>19.06.202586</t>
+  </si>
+  <si>
+    <t>19.06.202587</t>
+  </si>
+  <si>
+    <t>19.06.202588</t>
+  </si>
+  <si>
+    <t>19.06.202589</t>
+  </si>
+  <si>
+    <t>19.06.202590</t>
+  </si>
+  <si>
+    <t>19.06.202591</t>
+  </si>
+  <si>
+    <t>19.06.202592</t>
+  </si>
+  <si>
+    <t>19.06.202593</t>
+  </si>
+  <si>
+    <t>19.06.202594</t>
+  </si>
+  <si>
+    <t>19.06.202595</t>
+  </si>
+  <si>
+    <t>19.06.202596</t>
+  </si>
+  <si>
+    <t>20.06.20251</t>
+  </si>
+  <si>
+    <t>20.06.20252</t>
+  </si>
+  <si>
+    <t>20.06.20253</t>
+  </si>
+  <si>
+    <t>20.06.20254</t>
+  </si>
+  <si>
+    <t>20.06.20255</t>
+  </si>
+  <si>
+    <t>20.06.20256</t>
+  </si>
+  <si>
+    <t>20.06.20257</t>
+  </si>
+  <si>
+    <t>20.06.20258</t>
+  </si>
+  <si>
+    <t>20.06.20259</t>
+  </si>
+  <si>
+    <t>20.06.202510</t>
+  </si>
+  <si>
+    <t>20.06.202511</t>
+  </si>
+  <si>
+    <t>20.06.202512</t>
+  </si>
+  <si>
+    <t>20.06.202513</t>
+  </si>
+  <si>
+    <t>20.06.202514</t>
+  </si>
+  <si>
+    <t>20.06.202515</t>
+  </si>
+  <si>
+    <t>20.06.202516</t>
+  </si>
+  <si>
+    <t>20.06.202517</t>
+  </si>
+  <si>
+    <t>20.06.202518</t>
+  </si>
+  <si>
+    <t>20.06.202519</t>
+  </si>
+  <si>
+    <t>20.06.202520</t>
+  </si>
+  <si>
+    <t>20.06.202521</t>
+  </si>
+  <si>
+    <t>20.06.202522</t>
+  </si>
+  <si>
+    <t>20.06.202523</t>
+  </si>
+  <si>
+    <t>20.06.202524</t>
+  </si>
+  <si>
+    <t>20.06.202525</t>
+  </si>
+  <si>
+    <t>20.06.202526</t>
+  </si>
+  <si>
+    <t>20.06.202527</t>
+  </si>
+  <si>
+    <t>20.06.202528</t>
+  </si>
+  <si>
+    <t>20.06.202529</t>
+  </si>
+  <si>
+    <t>20.06.202530</t>
+  </si>
+  <si>
+    <t>20.06.202531</t>
+  </si>
+  <si>
+    <t>20.06.202532</t>
+  </si>
+  <si>
+    <t>20.06.202533</t>
+  </si>
+  <si>
+    <t>20.06.202534</t>
+  </si>
+  <si>
+    <t>20.06.202535</t>
+  </si>
+  <si>
+    <t>20.06.202536</t>
+  </si>
+  <si>
+    <t>20.06.202537</t>
+  </si>
+  <si>
+    <t>20.06.202538</t>
+  </si>
+  <si>
+    <t>20.06.202539</t>
+  </si>
+  <si>
+    <t>20.06.202540</t>
+  </si>
+  <si>
+    <t>20.06.202541</t>
+  </si>
+  <si>
+    <t>20.06.202542</t>
+  </si>
+  <si>
+    <t>20.06.202543</t>
+  </si>
+  <si>
+    <t>20.06.202544</t>
+  </si>
+  <si>
+    <t>20.06.202545</t>
+  </si>
+  <si>
+    <t>20.06.202546</t>
+  </si>
+  <si>
+    <t>20.06.202547</t>
+  </si>
+  <si>
+    <t>20.06.202548</t>
+  </si>
+  <si>
+    <t>20.06.202549</t>
+  </si>
+  <si>
+    <t>20.06.202550</t>
+  </si>
+  <si>
+    <t>20.06.202551</t>
+  </si>
+  <si>
+    <t>20.06.202552</t>
+  </si>
+  <si>
+    <t>20.06.202553</t>
+  </si>
+  <si>
+    <t>20.06.202554</t>
+  </si>
+  <si>
+    <t>20.06.202555</t>
+  </si>
+  <si>
+    <t>20.06.202556</t>
+  </si>
+  <si>
+    <t>20.06.202557</t>
+  </si>
+  <si>
+    <t>20.06.202558</t>
+  </si>
+  <si>
+    <t>20.06.202559</t>
+  </si>
+  <si>
+    <t>20.06.202560</t>
+  </si>
+  <si>
+    <t>20.06.202561</t>
+  </si>
+  <si>
+    <t>20.06.202562</t>
+  </si>
+  <si>
+    <t>20.06.202563</t>
+  </si>
+  <si>
+    <t>20.06.202564</t>
+  </si>
+  <si>
+    <t>20.06.202565</t>
+  </si>
+  <si>
+    <t>20.06.202566</t>
+  </si>
+  <si>
+    <t>20.06.202567</t>
+  </si>
+  <si>
+    <t>20.06.202568</t>
+  </si>
+  <si>
+    <t>20.06.202569</t>
+  </si>
+  <si>
+    <t>20.06.202570</t>
+  </si>
+  <si>
+    <t>20.06.202571</t>
+  </si>
+  <si>
+    <t>20.06.202572</t>
+  </si>
+  <si>
+    <t>20.06.202573</t>
+  </si>
+  <si>
+    <t>20.06.202574</t>
+  </si>
+  <si>
+    <t>20.06.202575</t>
+  </si>
+  <si>
+    <t>20.06.202576</t>
+  </si>
+  <si>
+    <t>20.06.202577</t>
+  </si>
+  <si>
+    <t>20.06.202578</t>
+  </si>
+  <si>
+    <t>20.06.202579</t>
+  </si>
+  <si>
+    <t>20.06.202580</t>
+  </si>
+  <si>
+    <t>20.06.202581</t>
+  </si>
+  <si>
+    <t>20.06.202582</t>
+  </si>
+  <si>
+    <t>20.06.202583</t>
+  </si>
+  <si>
+    <t>20.06.202584</t>
+  </si>
+  <si>
+    <t>20.06.202585</t>
+  </si>
+  <si>
+    <t>20.06.202586</t>
+  </si>
+  <si>
+    <t>20.06.202587</t>
+  </si>
+  <si>
+    <t>20.06.202588</t>
+  </si>
+  <si>
+    <t>20.06.202589</t>
+  </si>
+  <si>
+    <t>20.06.202590</t>
+  </si>
+  <si>
+    <t>20.06.202591</t>
+  </si>
+  <si>
+    <t>20.06.202592</t>
+  </si>
+  <si>
+    <t>20.06.202593</t>
+  </si>
+  <si>
+    <t>20.06.202594</t>
+  </si>
+  <si>
+    <t>20.06.202595</t>
+  </si>
+  <si>
+    <t>20.06.202596</t>
   </si>
 </sst>
 </file>
@@ -963,7 +1539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:D385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -985,10 +1561,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="B2">
-        <v>4813</v>
+        <v>5509</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -999,10 +1575,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45824.01041666666</v>
+        <v>45825.01041666666</v>
       </c>
       <c r="B3">
-        <v>4710</v>
+        <v>5420</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1013,10 +1589,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45824.02083333334</v>
+        <v>45825.02083333334</v>
       </c>
       <c r="B4">
-        <v>4669</v>
+        <v>5377</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1027,10 +1603,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45824.03125</v>
+        <v>45825.03125</v>
       </c>
       <c r="B5">
-        <v>4624</v>
+        <v>5365</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1041,10 +1617,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45824.04166666666</v>
+        <v>45825.04166666666</v>
       </c>
       <c r="B6">
-        <v>4598</v>
+        <v>5329</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1055,10 +1631,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45824.05208333334</v>
+        <v>45825.05208333334</v>
       </c>
       <c r="B7">
-        <v>4595</v>
+        <v>5315</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1069,10 +1645,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45824.0625</v>
+        <v>45825.0625</v>
       </c>
       <c r="B8">
-        <v>4569</v>
+        <v>5301</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1083,10 +1659,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45824.07291666666</v>
+        <v>45825.07291666666</v>
       </c>
       <c r="B9">
-        <v>4591</v>
+        <v>5299</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1097,10 +1673,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45824.08333333334</v>
+        <v>45825.08333333334</v>
       </c>
       <c r="B10">
-        <v>4565</v>
+        <v>5237</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1111,10 +1687,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45824.09375</v>
+        <v>45825.09375</v>
       </c>
       <c r="B11">
-        <v>4551</v>
+        <v>5235</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1125,10 +1701,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45824.10416666666</v>
+        <v>45825.10416666666</v>
       </c>
       <c r="B12">
-        <v>4551</v>
+        <v>5218</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1139,10 +1715,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45824.11458333334</v>
+        <v>45825.11458333334</v>
       </c>
       <c r="B13">
-        <v>4555</v>
+        <v>5225</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1153,10 +1729,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45824.125</v>
+        <v>45825.125</v>
       </c>
       <c r="B14">
-        <v>4532</v>
+        <v>5309</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1167,10 +1743,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45824.13541666666</v>
+        <v>45825.13541666666</v>
       </c>
       <c r="B15">
-        <v>4555</v>
+        <v>5257</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1181,10 +1757,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45824.14583333334</v>
+        <v>45825.14583333334</v>
       </c>
       <c r="B16">
-        <v>4602</v>
+        <v>5343</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1195,10 +1771,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45824.15625</v>
+        <v>45825.15625</v>
       </c>
       <c r="B17">
-        <v>4618</v>
+        <v>5300</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1209,10 +1785,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45824.16666666666</v>
+        <v>45825.16666666666</v>
       </c>
       <c r="B18">
-        <v>4637</v>
+        <v>5262</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1223,10 +1799,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45824.17708333334</v>
+        <v>45825.17708333334</v>
       </c>
       <c r="B19">
-        <v>4668</v>
+        <v>5271</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1237,10 +1813,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45824.1875</v>
+        <v>45825.1875</v>
       </c>
       <c r="B20">
-        <v>4669</v>
+        <v>5258</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1251,10 +1827,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45824.19791666666</v>
+        <v>45825.19791666666</v>
       </c>
       <c r="B21">
-        <v>4736</v>
+        <v>5357</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1265,10 +1841,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45824.20833333334</v>
+        <v>45825.20833333334</v>
       </c>
       <c r="B22">
-        <v>4895</v>
+        <v>5451</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1279,10 +1855,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45824.21875</v>
+        <v>45825.21875</v>
       </c>
       <c r="B23">
-        <v>5057</v>
+        <v>5528</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1293,10 +1869,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45824.22916666666</v>
+        <v>45825.22916666666</v>
       </c>
       <c r="B24">
-        <v>5181</v>
+        <v>5604</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1307,10 +1883,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45824.23958333334</v>
+        <v>45825.23958333334</v>
       </c>
       <c r="B25">
-        <v>5295</v>
+        <v>5658</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1321,10 +1897,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45824.25</v>
+        <v>45825.25</v>
       </c>
       <c r="B26">
-        <v>5532</v>
+        <v>5857</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1335,10 +1911,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45824.26041666666</v>
+        <v>45825.26041666666</v>
       </c>
       <c r="B27">
-        <v>5573</v>
+        <v>5932</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1349,10 +1925,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45824.27083333334</v>
+        <v>45825.27083333334</v>
       </c>
       <c r="B28">
-        <v>5626</v>
+        <v>5960</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1363,10 +1939,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45824.28125</v>
+        <v>45825.28125</v>
       </c>
       <c r="B29">
-        <v>5652</v>
+        <v>5948</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1377,10 +1953,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45824.29166666666</v>
+        <v>45825.29166666666</v>
       </c>
       <c r="B30">
-        <v>5752</v>
+        <v>6026</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1391,10 +1967,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45824.30208333334</v>
+        <v>45825.30208333334</v>
       </c>
       <c r="B31">
-        <v>5738</v>
+        <v>5993</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1405,10 +1981,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45824.3125</v>
+        <v>45825.3125</v>
       </c>
       <c r="B32">
-        <v>5751</v>
+        <v>5982</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1419,10 +1995,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45824.32291666666</v>
+        <v>45825.32291666666</v>
       </c>
       <c r="B33">
-        <v>5694</v>
+        <v>5982</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1433,10 +2009,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45824.33333333334</v>
+        <v>45825.33333333334</v>
       </c>
       <c r="B34">
-        <v>5490</v>
+        <v>5928</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1447,10 +2023,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45824.34375</v>
+        <v>45825.34375</v>
       </c>
       <c r="B35">
-        <v>5483</v>
+        <v>5849</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1461,10 +2037,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45824.35416666666</v>
+        <v>45825.35416666666</v>
       </c>
       <c r="B36">
-        <v>5471</v>
+        <v>5862</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1475,10 +2051,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45824.36458333334</v>
+        <v>45825.36458333334</v>
       </c>
       <c r="B37">
-        <v>5448</v>
+        <v>5802</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1489,10 +2065,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45824.375</v>
+        <v>45825.375</v>
       </c>
       <c r="B38">
-        <v>5335</v>
+        <v>5688</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1503,10 +2079,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45824.38541666666</v>
+        <v>45825.38541666666</v>
       </c>
       <c r="B39">
-        <v>5251</v>
+        <v>5634</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1517,10 +2093,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45824.39583333334</v>
+        <v>45825.39583333334</v>
       </c>
       <c r="B40">
-        <v>5227</v>
+        <v>5597</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1531,10 +2107,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45824.40625</v>
+        <v>45825.40625</v>
       </c>
       <c r="B41">
-        <v>5236</v>
+        <v>5557</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1545,10 +2121,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45824.41666666666</v>
+        <v>45825.41666666666</v>
       </c>
       <c r="B42">
-        <v>5040</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1559,10 +2135,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45824.42708333334</v>
+        <v>45825.42708333334</v>
       </c>
       <c r="B43">
-        <v>5050</v>
+        <v>5362</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1573,10 +2149,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45824.4375</v>
+        <v>45825.4375</v>
       </c>
       <c r="B44">
-        <v>4999</v>
+        <v>5299</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1587,10 +2163,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45824.44791666666</v>
+        <v>45825.44791666666</v>
       </c>
       <c r="B45">
-        <v>5036</v>
+        <v>5266</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1601,10 +2177,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45824.45833333334</v>
+        <v>45825.45833333334</v>
       </c>
       <c r="B46">
-        <v>4905</v>
+        <v>5236</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1615,10 +2191,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45824.46875</v>
+        <v>45825.46875</v>
       </c>
       <c r="B47">
-        <v>4943</v>
+        <v>5176</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1629,10 +2205,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45824.47916666666</v>
+        <v>45825.47916666666</v>
       </c>
       <c r="B48">
-        <v>4874</v>
+        <v>5259</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1643,10 +2219,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45824.48958333334</v>
+        <v>45825.48958333334</v>
       </c>
       <c r="B49">
-        <v>4949</v>
+        <v>5280</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1657,10 +2233,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45824.5</v>
+        <v>45825.5</v>
       </c>
       <c r="B50">
-        <v>4945</v>
+        <v>5353</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1671,10 +2247,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45824.51041666666</v>
+        <v>45825.51041666666</v>
       </c>
       <c r="B51">
-        <v>5031</v>
+        <v>5322</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1685,10 +2261,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45824.52083333334</v>
+        <v>45825.52083333334</v>
       </c>
       <c r="B52">
-        <v>4982</v>
+        <v>5466</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1699,10 +2275,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45824.53125</v>
+        <v>45825.53125</v>
       </c>
       <c r="B53">
-        <v>4950</v>
+        <v>5917</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -1713,10 +2289,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45824.54166666666</v>
+        <v>45825.54166666666</v>
       </c>
       <c r="B54">
-        <v>4990</v>
+        <v>5590</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -1727,10 +2303,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45824.55208333334</v>
+        <v>45825.55208333334</v>
       </c>
       <c r="B55">
-        <v>5026</v>
+        <v>5512</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -1741,10 +2317,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45824.5625</v>
+        <v>45825.5625</v>
       </c>
       <c r="B56">
-        <v>4983</v>
+        <v>5456</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -1755,10 +2331,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45824.57291666666</v>
+        <v>45825.57291666666</v>
       </c>
       <c r="B57">
-        <v>5042</v>
+        <v>5429</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -1769,10 +2345,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45824.58333333334</v>
+        <v>45825.58333333334</v>
       </c>
       <c r="B58">
-        <v>5134</v>
+        <v>5485</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -1783,10 +2359,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45824.59375</v>
+        <v>45825.59375</v>
       </c>
       <c r="B59">
-        <v>5227</v>
+        <v>5608</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -1797,10 +2373,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45824.60416666666</v>
+        <v>45825.60416666666</v>
       </c>
       <c r="B60">
-        <v>5260</v>
+        <v>5684</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -1811,10 +2387,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45824.61458333334</v>
+        <v>45825.61458333334</v>
       </c>
       <c r="B61">
-        <v>5269</v>
+        <v>5765</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -1825,10 +2401,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45824.625</v>
+        <v>45825.625</v>
       </c>
       <c r="B62">
-        <v>5364</v>
+        <v>5789</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -1839,10 +2415,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45824.63541666666</v>
+        <v>45825.63541666666</v>
       </c>
       <c r="B63">
-        <v>5472</v>
+        <v>5849</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -1853,10 +2429,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45824.64583333334</v>
+        <v>45825.64583333334</v>
       </c>
       <c r="B64">
-        <v>5538</v>
+        <v>5878</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -1867,10 +2443,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45824.65625</v>
+        <v>45825.65625</v>
       </c>
       <c r="B65">
-        <v>5546</v>
+        <v>5991</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -1881,10 +2457,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45824.66666666666</v>
+        <v>45825.66666666666</v>
       </c>
       <c r="B66">
-        <v>5686</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -1895,10 +2471,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45824.67708333334</v>
+        <v>45825.67708333334</v>
       </c>
       <c r="B67">
-        <v>5764</v>
+        <v>6061</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -1909,10 +2485,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45824.6875</v>
+        <v>45825.6875</v>
       </c>
       <c r="B68">
-        <v>5827</v>
+        <v>6061</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -1923,10 +2499,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45824.69791666666</v>
+        <v>45825.69791666666</v>
       </c>
       <c r="B69">
-        <v>5978</v>
+        <v>6225</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -1937,10 +2513,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45824.70833333334</v>
+        <v>45825.70833333334</v>
       </c>
       <c r="B70">
-        <v>6080</v>
+        <v>6463</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -1951,10 +2527,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45824.71875</v>
+        <v>45825.71875</v>
       </c>
       <c r="B71">
-        <v>6203</v>
+        <v>6543</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -1965,10 +2541,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45824.72916666666</v>
+        <v>45825.72916666666</v>
       </c>
       <c r="B72">
-        <v>6355</v>
+        <v>6657</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -1979,10 +2555,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45824.73958333334</v>
+        <v>45825.73958333334</v>
       </c>
       <c r="B73">
-        <v>6440</v>
+        <v>6763</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -1993,10 +2569,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45824.75</v>
+        <v>45825.75</v>
       </c>
       <c r="B74">
-        <v>6562</v>
+        <v>6843</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -2007,10 +2583,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45824.76041666666</v>
+        <v>45825.76041666666</v>
       </c>
       <c r="B75">
-        <v>6727</v>
+        <v>6927</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -2021,10 +2597,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45824.77083333334</v>
+        <v>45825.77083333334</v>
       </c>
       <c r="B76">
-        <v>6860</v>
+        <v>6976</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -2035,10 +2611,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45824.78125</v>
+        <v>45825.78125</v>
       </c>
       <c r="B77">
-        <v>6998</v>
+        <v>7054</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -2049,10 +2625,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45824.79166666666</v>
+        <v>45825.79166666666</v>
       </c>
       <c r="B78">
-        <v>6983</v>
+        <v>7118</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -2063,10 +2639,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45824.80208333334</v>
+        <v>45825.80208333334</v>
       </c>
       <c r="B79">
-        <v>7031</v>
+        <v>7225</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -2077,10 +2653,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45824.8125</v>
+        <v>45825.8125</v>
       </c>
       <c r="B80">
-        <v>7024</v>
+        <v>7127</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -2091,10 +2667,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45824.82291666666</v>
+        <v>45825.82291666666</v>
       </c>
       <c r="B81">
-        <v>7092</v>
+        <v>7221</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -2105,10 +2681,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45824.83333333334</v>
+        <v>45825.83333333334</v>
       </c>
       <c r="B82">
-        <v>7145</v>
+        <v>7238</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -2119,10 +2695,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45824.84375</v>
+        <v>45825.84375</v>
       </c>
       <c r="B83">
-        <v>7164</v>
+        <v>7276</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -2133,10 +2709,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45824.85416666666</v>
+        <v>45825.85416666666</v>
       </c>
       <c r="B84">
-        <v>7198</v>
+        <v>7319</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -2147,10 +2723,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45824.86458333334</v>
+        <v>45825.86458333334</v>
       </c>
       <c r="B85">
-        <v>7183</v>
+        <v>7256</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -2161,10 +2737,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45824.875</v>
+        <v>45825.875</v>
       </c>
       <c r="B86">
-        <v>7096</v>
+        <v>7152</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -2175,10 +2751,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45824.88541666666</v>
+        <v>45825.88541666666</v>
       </c>
       <c r="B87">
-        <v>6983</v>
+        <v>6991</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -2189,10 +2765,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45824.89583333334</v>
+        <v>45825.89583333334</v>
       </c>
       <c r="B88">
-        <v>6727</v>
+        <v>6807</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -2203,10 +2779,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45824.90625</v>
+        <v>45825.90625</v>
       </c>
       <c r="B89">
-        <v>6551</v>
+        <v>6715</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -2217,10 +2793,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45824.91666666666</v>
+        <v>45825.91666666666</v>
       </c>
       <c r="B90">
-        <v>6355</v>
+        <v>6461</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -2231,10 +2807,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45824.92708333334</v>
+        <v>45825.92708333334</v>
       </c>
       <c r="B91">
-        <v>6273</v>
+        <v>6431</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -2245,10 +2821,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45824.9375</v>
+        <v>45825.9375</v>
       </c>
       <c r="B92">
-        <v>6132</v>
+        <v>6274</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -2259,10 +2835,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45824.94791666666</v>
+        <v>45825.94791666666</v>
       </c>
       <c r="B93">
-        <v>5978</v>
+        <v>6124</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -2273,10 +2849,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45824.95833333334</v>
+        <v>45825.95833333334</v>
       </c>
       <c r="B94">
-        <v>5810</v>
+        <v>5923</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -2287,10 +2863,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45824.96875</v>
+        <v>45825.96875</v>
       </c>
       <c r="B95">
-        <v>5759</v>
+        <v>5825</v>
       </c>
       <c r="C95">
         <v>94</v>
@@ -2301,10 +2877,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45824.97916666666</v>
+        <v>45825.97916666666</v>
       </c>
       <c r="B96">
-        <v>5656</v>
+        <v>5756</v>
       </c>
       <c r="C96">
         <v>95</v>
@@ -2315,10 +2891,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>45824.98958333334</v>
+        <v>45825.98958333334</v>
       </c>
       <c r="B97">
-        <v>5582</v>
+        <v>5626</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -2329,10 +2905,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="B98">
-        <v>5509</v>
+        <v>5683</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2343,10 +2919,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>45825.01041666666</v>
+        <v>45826.01041666666</v>
       </c>
       <c r="B99">
-        <v>5420</v>
+        <v>5609</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2357,10 +2933,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>45825.02083333334</v>
+        <v>45826.02083333334</v>
       </c>
       <c r="B100">
-        <v>5377</v>
+        <v>5455</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2371,10 +2947,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>45825.03125</v>
+        <v>45826.03125</v>
       </c>
       <c r="B101">
-        <v>5365</v>
+        <v>5491</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2385,10 +2961,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>45825.04166666666</v>
+        <v>45826.04166666666</v>
       </c>
       <c r="B102">
-        <v>5329</v>
+        <v>5470</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2399,10 +2975,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>45825.05208333334</v>
+        <v>45826.05208333334</v>
       </c>
       <c r="B103">
-        <v>5315</v>
+        <v>5385</v>
       </c>
       <c r="C103">
         <v>6</v>
@@ -2413,10 +2989,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>45825.0625</v>
+        <v>45826.0625</v>
       </c>
       <c r="B104">
-        <v>5301</v>
+        <v>5446</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -2427,10 +3003,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>45825.07291666666</v>
+        <v>45826.07291666666</v>
       </c>
       <c r="B105">
-        <v>5299</v>
+        <v>5353</v>
       </c>
       <c r="C105">
         <v>8</v>
@@ -2441,10 +3017,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>45825.08333333334</v>
+        <v>45826.08333333334</v>
       </c>
       <c r="B106">
-        <v>5237</v>
+        <v>5310</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -2455,10 +3031,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>45825.09375</v>
+        <v>45826.09375</v>
       </c>
       <c r="B107">
-        <v>5235</v>
+        <v>5333</v>
       </c>
       <c r="C107">
         <v>10</v>
@@ -2469,10 +3045,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>45825.10416666666</v>
+        <v>45826.10416666666</v>
       </c>
       <c r="B108">
-        <v>5218</v>
+        <v>5336</v>
       </c>
       <c r="C108">
         <v>11</v>
@@ -2483,10 +3059,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>45825.11458333334</v>
+        <v>45826.11458333334</v>
       </c>
       <c r="B109">
-        <v>5225</v>
+        <v>5327</v>
       </c>
       <c r="C109">
         <v>12</v>
@@ -2497,10 +3073,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>45825.125</v>
+        <v>45826.125</v>
       </c>
       <c r="B110">
-        <v>5309</v>
+        <v>5363</v>
       </c>
       <c r="C110">
         <v>13</v>
@@ -2511,10 +3087,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>45825.13541666666</v>
+        <v>45826.13541666666</v>
       </c>
       <c r="B111">
-        <v>5257</v>
+        <v>5345</v>
       </c>
       <c r="C111">
         <v>14</v>
@@ -2525,10 +3101,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>45825.14583333334</v>
+        <v>45826.14583333334</v>
       </c>
       <c r="B112">
-        <v>5343</v>
+        <v>5392</v>
       </c>
       <c r="C112">
         <v>15</v>
@@ -2539,10 +3115,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>45825.15625</v>
+        <v>45826.15625</v>
       </c>
       <c r="B113">
-        <v>5300</v>
+        <v>5325</v>
       </c>
       <c r="C113">
         <v>16</v>
@@ -2553,10 +3129,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>45825.16666666666</v>
+        <v>45826.16666666666</v>
       </c>
       <c r="B114">
-        <v>5262</v>
+        <v>5366</v>
       </c>
       <c r="C114">
         <v>17</v>
@@ -2567,10 +3143,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>45825.17708333334</v>
+        <v>45826.17708333334</v>
       </c>
       <c r="B115">
-        <v>5271</v>
+        <v>5349</v>
       </c>
       <c r="C115">
         <v>18</v>
@@ -2581,10 +3157,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>45825.1875</v>
+        <v>45826.1875</v>
       </c>
       <c r="B116">
-        <v>5258</v>
+        <v>5363</v>
       </c>
       <c r="C116">
         <v>19</v>
@@ -2595,10 +3171,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>45825.19791666666</v>
+        <v>45826.19791666666</v>
       </c>
       <c r="B117">
-        <v>5357</v>
+        <v>5427</v>
       </c>
       <c r="C117">
         <v>20</v>
@@ -2609,10 +3185,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>45825.20833333334</v>
+        <v>45826.20833333334</v>
       </c>
       <c r="B118">
-        <v>5451</v>
+        <v>5579</v>
       </c>
       <c r="C118">
         <v>21</v>
@@ -2623,10 +3199,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>45825.21875</v>
+        <v>45826.21875</v>
       </c>
       <c r="B119">
-        <v>5528</v>
+        <v>5619</v>
       </c>
       <c r="C119">
         <v>22</v>
@@ -2637,10 +3213,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>45825.22916666666</v>
+        <v>45826.22916666666</v>
       </c>
       <c r="B120">
-        <v>5604</v>
+        <v>5658</v>
       </c>
       <c r="C120">
         <v>23</v>
@@ -2651,10 +3227,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>45825.23958333334</v>
+        <v>45826.23958333334</v>
       </c>
       <c r="B121">
-        <v>5658</v>
+        <v>5808</v>
       </c>
       <c r="C121">
         <v>24</v>
@@ -2665,10 +3241,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>45825.25</v>
+        <v>45826.25</v>
       </c>
       <c r="B122">
-        <v>5857</v>
+        <v>6027</v>
       </c>
       <c r="C122">
         <v>25</v>
@@ -2679,10 +3255,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>45825.26041666666</v>
+        <v>45826.26041666666</v>
       </c>
       <c r="B123">
-        <v>5932</v>
+        <v>6160</v>
       </c>
       <c r="C123">
         <v>26</v>
@@ -2693,10 +3269,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>45825.27083333334</v>
+        <v>45826.27083333334</v>
       </c>
       <c r="B124">
-        <v>5960</v>
+        <v>6186</v>
       </c>
       <c r="C124">
         <v>27</v>
@@ -2707,10 +3283,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>45825.28125</v>
+        <v>45826.28125</v>
       </c>
       <c r="B125">
-        <v>5948</v>
+        <v>6186</v>
       </c>
       <c r="C125">
         <v>28</v>
@@ -2721,10 +3297,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>45825.29166666666</v>
+        <v>45826.29166666666</v>
       </c>
       <c r="B126">
-        <v>6026</v>
+        <v>6231</v>
       </c>
       <c r="C126">
         <v>29</v>
@@ -2735,10 +3311,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>45825.30208333334</v>
+        <v>45826.30208333334</v>
       </c>
       <c r="B127">
-        <v>5993</v>
+        <v>6247</v>
       </c>
       <c r="C127">
         <v>30</v>
@@ -2749,10 +3325,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>45825.3125</v>
+        <v>45826.3125</v>
       </c>
       <c r="B128">
-        <v>5982</v>
+        <v>6266</v>
       </c>
       <c r="C128">
         <v>31</v>
@@ -2763,10 +3339,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>45825.32291666666</v>
+        <v>45826.32291666666</v>
       </c>
       <c r="B129">
-        <v>5982</v>
+        <v>6262</v>
       </c>
       <c r="C129">
         <v>32</v>
@@ -2777,10 +3353,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>45825.33333333334</v>
+        <v>45826.33333333334</v>
       </c>
       <c r="B130">
-        <v>5928</v>
+        <v>6159</v>
       </c>
       <c r="C130">
         <v>33</v>
@@ -2791,10 +3367,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>45825.34375</v>
+        <v>45826.34375</v>
       </c>
       <c r="B131">
-        <v>5849</v>
+        <v>6053</v>
       </c>
       <c r="C131">
         <v>34</v>
@@ -2805,10 +3381,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>45825.35416666666</v>
+        <v>45826.35416666666</v>
       </c>
       <c r="B132">
-        <v>5862</v>
+        <v>5913</v>
       </c>
       <c r="C132">
         <v>35</v>
@@ -2819,10 +3395,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>45825.36458333334</v>
+        <v>45826.36458333334</v>
       </c>
       <c r="B133">
-        <v>5802</v>
+        <v>5873</v>
       </c>
       <c r="C133">
         <v>36</v>
@@ -2833,10 +3409,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>45825.375</v>
+        <v>45826.375</v>
       </c>
       <c r="B134">
-        <v>5688</v>
+        <v>5665</v>
       </c>
       <c r="C134">
         <v>37</v>
@@ -2847,10 +3423,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>45825.38541666666</v>
+        <v>45826.38541666666</v>
       </c>
       <c r="B135">
-        <v>5634</v>
+        <v>5658</v>
       </c>
       <c r="C135">
         <v>38</v>
@@ -2861,10 +3437,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>45825.39583333334</v>
+        <v>45826.39583333334</v>
       </c>
       <c r="B136">
-        <v>5597</v>
+        <v>5608</v>
       </c>
       <c r="C136">
         <v>39</v>
@@ -2875,10 +3451,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>45825.40625</v>
+        <v>45826.40625</v>
       </c>
       <c r="B137">
-        <v>5557</v>
+        <v>5547</v>
       </c>
       <c r="C137">
         <v>40</v>
@@ -2889,10 +3465,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>45825.41666666666</v>
+        <v>45826.41666666666</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>5441</v>
       </c>
       <c r="C138">
         <v>41</v>
@@ -2903,10 +3479,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>45825.42708333334</v>
+        <v>45826.42708333334</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>5357</v>
       </c>
       <c r="C139">
         <v>42</v>
@@ -2917,10 +3493,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>45825.4375</v>
+        <v>45826.4375</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>5359</v>
       </c>
       <c r="C140">
         <v>43</v>
@@ -2931,10 +3507,10 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>45825.44791666666</v>
+        <v>45826.44791666666</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>5382</v>
       </c>
       <c r="C141">
         <v>44</v>
@@ -2945,10 +3521,10 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>45825.45833333334</v>
+        <v>45826.45833333334</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>5328</v>
       </c>
       <c r="C142">
         <v>45</v>
@@ -2959,10 +3535,10 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>45825.46875</v>
+        <v>45826.46875</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>5333</v>
       </c>
       <c r="C143">
         <v>46</v>
@@ -2973,10 +3549,10 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>45825.47916666666</v>
+        <v>45826.47916666666</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>5314</v>
       </c>
       <c r="C144">
         <v>47</v>
@@ -2987,10 +3563,10 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>45825.48958333334</v>
+        <v>45826.48958333334</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>5295</v>
       </c>
       <c r="C145">
         <v>48</v>
@@ -3001,10 +3577,10 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>45825.5</v>
+        <v>45826.5</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>5295</v>
       </c>
       <c r="C146">
         <v>49</v>
@@ -3015,10 +3591,10 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>45825.51041666666</v>
+        <v>45826.51041666666</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>5339</v>
       </c>
       <c r="C147">
         <v>50</v>
@@ -3029,10 +3605,10 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>45825.52083333334</v>
+        <v>45826.52083333334</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>5401</v>
       </c>
       <c r="C148">
         <v>51</v>
@@ -3043,10 +3619,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>45825.53125</v>
+        <v>45826.53125</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>5350</v>
       </c>
       <c r="C149">
         <v>52</v>
@@ -3057,10 +3633,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>45825.54166666666</v>
+        <v>45826.54166666666</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>5397</v>
       </c>
       <c r="C150">
         <v>53</v>
@@ -3071,10 +3647,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>45825.55208333334</v>
+        <v>45826.55208333334</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>5425</v>
       </c>
       <c r="C151">
         <v>54</v>
@@ -3085,10 +3661,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>45825.5625</v>
+        <v>45826.5625</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>5454</v>
       </c>
       <c r="C152">
         <v>55</v>
@@ -3099,10 +3675,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>45825.57291666666</v>
+        <v>45826.57291666666</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>5369</v>
       </c>
       <c r="C153">
         <v>56</v>
@@ -3113,10 +3689,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>45825.58333333334</v>
+        <v>45826.58333333334</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>5416</v>
       </c>
       <c r="C154">
         <v>57</v>
@@ -3127,10 +3703,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>45825.59375</v>
+        <v>45826.59375</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>5497</v>
       </c>
       <c r="C155">
         <v>58</v>
@@ -3141,10 +3717,10 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>45825.60416666666</v>
+        <v>45826.60416666666</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>5550</v>
       </c>
       <c r="C156">
         <v>59</v>
@@ -3155,10 +3731,10 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>45825.61458333334</v>
+        <v>45826.61458333334</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>5596</v>
       </c>
       <c r="C157">
         <v>60</v>
@@ -3169,10 +3745,10 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>45825.625</v>
+        <v>45826.625</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>5699</v>
       </c>
       <c r="C158">
         <v>61</v>
@@ -3183,10 +3759,10 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>45825.63541666666</v>
+        <v>45826.63541666666</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>5754</v>
       </c>
       <c r="C159">
         <v>62</v>
@@ -3197,10 +3773,10 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>45825.64583333334</v>
+        <v>45826.64583333334</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>5869</v>
       </c>
       <c r="C160">
         <v>63</v>
@@ -3211,10 +3787,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>45825.65625</v>
+        <v>45826.65625</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>5855</v>
       </c>
       <c r="C161">
         <v>64</v>
@@ -3225,10 +3801,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>45825.66666666666</v>
+        <v>45826.66666666666</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>5976</v>
       </c>
       <c r="C162">
         <v>65</v>
@@ -3239,10 +3815,10 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>45825.67708333334</v>
+        <v>45826.67708333334</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>6064</v>
       </c>
       <c r="C163">
         <v>66</v>
@@ -3253,10 +3829,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>45825.6875</v>
+        <v>45826.6875</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>6218</v>
       </c>
       <c r="C164">
         <v>67</v>
@@ -3267,10 +3843,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>45825.69791666666</v>
+        <v>45826.69791666666</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>6318</v>
       </c>
       <c r="C165">
         <v>68</v>
@@ -3281,10 +3857,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>45825.70833333334</v>
+        <v>45826.70833333334</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>6590</v>
       </c>
       <c r="C166">
         <v>69</v>
@@ -3295,10 +3871,10 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>45825.71875</v>
+        <v>45826.71875</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>6682</v>
       </c>
       <c r="C167">
         <v>70</v>
@@ -3309,10 +3885,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>45825.72916666666</v>
+        <v>45826.72916666666</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>6748</v>
       </c>
       <c r="C168">
         <v>71</v>
@@ -3323,10 +3899,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>45825.73958333334</v>
+        <v>45826.73958333334</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>6739</v>
       </c>
       <c r="C169">
         <v>72</v>
@@ -3337,10 +3913,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>45825.75</v>
+        <v>45826.75</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>6998</v>
       </c>
       <c r="C170">
         <v>73</v>
@@ -3351,10 +3927,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>45825.76041666666</v>
+        <v>45826.76041666666</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>7020</v>
       </c>
       <c r="C171">
         <v>74</v>
@@ -3365,10 +3941,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>45825.77083333334</v>
+        <v>45826.77083333334</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>7166</v>
       </c>
       <c r="C172">
         <v>75</v>
@@ -3379,10 +3955,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>45825.78125</v>
+        <v>45826.78125</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>7207</v>
       </c>
       <c r="C173">
         <v>76</v>
@@ -3393,10 +3969,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>45825.79166666666</v>
+        <v>45826.79166666666</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>7207</v>
       </c>
       <c r="C174">
         <v>77</v>
@@ -3407,10 +3983,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>45825.80208333334</v>
+        <v>45826.80208333334</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>7277</v>
       </c>
       <c r="C175">
         <v>78</v>
@@ -3421,10 +3997,10 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>45825.8125</v>
+        <v>45826.8125</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>7323</v>
       </c>
       <c r="C176">
         <v>79</v>
@@ -3435,10 +4011,10 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>45825.82291666666</v>
+        <v>45826.82291666666</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>7341</v>
       </c>
       <c r="C177">
         <v>80</v>
@@ -3449,10 +4025,10 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>45825.83333333334</v>
+        <v>45826.83333333334</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>7315</v>
       </c>
       <c r="C178">
         <v>81</v>
@@ -3463,10 +4039,10 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>45825.84375</v>
+        <v>45826.84375</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>7415</v>
       </c>
       <c r="C179">
         <v>82</v>
@@ -3477,10 +4053,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>45825.85416666666</v>
+        <v>45826.85416666666</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>7464</v>
       </c>
       <c r="C180">
         <v>83</v>
@@ -3491,10 +4067,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>45825.86458333334</v>
+        <v>45826.86458333334</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>7427</v>
       </c>
       <c r="C181">
         <v>84</v>
@@ -3505,10 +4081,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>45825.875</v>
+        <v>45826.875</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>7378</v>
       </c>
       <c r="C182">
         <v>85</v>
@@ -3519,10 +4095,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>45825.88541666666</v>
+        <v>45826.88541666666</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>7274</v>
       </c>
       <c r="C183">
         <v>86</v>
@@ -3533,10 +4109,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>45825.89583333334</v>
+        <v>45826.89583333334</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>7059</v>
       </c>
       <c r="C184">
         <v>87</v>
@@ -3547,10 +4123,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>45825.90625</v>
+        <v>45826.90625</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>6850</v>
       </c>
       <c r="C185">
         <v>88</v>
@@ -3561,10 +4137,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>45825.91666666666</v>
+        <v>45826.91666666666</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>6682</v>
       </c>
       <c r="C186">
         <v>89</v>
@@ -3575,10 +4151,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>45825.92708333334</v>
+        <v>45826.92708333334</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>6530</v>
       </c>
       <c r="C187">
         <v>90</v>
@@ -3589,10 +4165,10 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>45825.9375</v>
+        <v>45826.9375</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>6410</v>
       </c>
       <c r="C188">
         <v>91</v>
@@ -3603,10 +4179,10 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>45825.94791666666</v>
+        <v>45826.94791666666</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>6237</v>
       </c>
       <c r="C189">
         <v>92</v>
@@ -3617,10 +4193,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>45825.95833333334</v>
+        <v>45826.95833333334</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>6168</v>
       </c>
       <c r="C190">
         <v>93</v>
@@ -3631,10 +4207,10 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>45825.96875</v>
+        <v>45826.96875</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>5986</v>
       </c>
       <c r="C191">
         <v>94</v>
@@ -3645,10 +4221,10 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>45825.97916666666</v>
+        <v>45826.97916666666</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>5884</v>
       </c>
       <c r="C192">
         <v>95</v>
@@ -3659,16 +4235,2704 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>45825.98958333334</v>
+        <v>45826.98958333334</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>5893</v>
       </c>
       <c r="C193">
         <v>96</v>
       </c>
       <c r="D193" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
+        <v>45827</v>
+      </c>
+      <c r="B194">
+        <v>5686</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
+        <v>45827.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>5679</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+      <c r="D195" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
+        <v>45827.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>5623</v>
+      </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
+      <c r="D196" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
+        <v>45827.03125</v>
+      </c>
+      <c r="B197">
+        <v>5603</v>
+      </c>
+      <c r="C197">
+        <v>4</v>
+      </c>
+      <c r="D197" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
+        <v>45827.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>5592</v>
+      </c>
+      <c r="C198">
+        <v>5</v>
+      </c>
+      <c r="D198" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
+        <v>45827.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>5506</v>
+      </c>
+      <c r="C199">
+        <v>6</v>
+      </c>
+      <c r="D199" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
+        <v>45827.0625</v>
+      </c>
+      <c r="B200">
+        <v>5595</v>
+      </c>
+      <c r="C200">
+        <v>7</v>
+      </c>
+      <c r="D200" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
+        <v>45827.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>5539</v>
+      </c>
+      <c r="C201">
+        <v>8</v>
+      </c>
+      <c r="D201" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
+        <v>45827.08333333334</v>
+      </c>
+      <c r="B202">
+        <v>5385</v>
+      </c>
+      <c r="C202">
+        <v>9</v>
+      </c>
+      <c r="D202" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
+        <v>45827.09375</v>
+      </c>
+      <c r="B203">
+        <v>5429</v>
+      </c>
+      <c r="C203">
+        <v>10</v>
+      </c>
+      <c r="D203" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
+        <v>45827.10416666666</v>
+      </c>
+      <c r="B204">
+        <v>5359</v>
+      </c>
+      <c r="C204">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
+        <v>45827.11458333334</v>
+      </c>
+      <c r="B205">
+        <v>5428</v>
+      </c>
+      <c r="C205">
+        <v>12</v>
+      </c>
+      <c r="D205" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
+        <v>45827.125</v>
+      </c>
+      <c r="B206">
+        <v>5413</v>
+      </c>
+      <c r="C206">
+        <v>13</v>
+      </c>
+      <c r="D206" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
+        <v>45827.13541666666</v>
+      </c>
+      <c r="B207">
+        <v>5391</v>
+      </c>
+      <c r="C207">
+        <v>14</v>
+      </c>
+      <c r="D207" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
+        <v>45827.14583333334</v>
+      </c>
+      <c r="B208">
+        <v>5434</v>
+      </c>
+      <c r="C208">
+        <v>15</v>
+      </c>
+      <c r="D208" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
+        <v>45827.15625</v>
+      </c>
+      <c r="B209">
+        <v>5416</v>
+      </c>
+      <c r="C209">
+        <v>16</v>
+      </c>
+      <c r="D209" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
+        <v>45827.16666666666</v>
+      </c>
+      <c r="B210">
+        <v>5433</v>
+      </c>
+      <c r="C210">
+        <v>17</v>
+      </c>
+      <c r="D210" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
+        <v>45827.17708333334</v>
+      </c>
+      <c r="B211">
+        <v>5461</v>
+      </c>
+      <c r="C211">
+        <v>18</v>
+      </c>
+      <c r="D211" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
+        <v>45827.1875</v>
+      </c>
+      <c r="B212">
+        <v>5418</v>
+      </c>
+      <c r="C212">
+        <v>19</v>
+      </c>
+      <c r="D212" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
+        <v>45827.19791666666</v>
+      </c>
+      <c r="B213">
+        <v>5436</v>
+      </c>
+      <c r="C213">
+        <v>20</v>
+      </c>
+      <c r="D213" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
+        <v>45827.20833333334</v>
+      </c>
+      <c r="B214">
+        <v>5596</v>
+      </c>
+      <c r="C214">
+        <v>21</v>
+      </c>
+      <c r="D214" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
+        <v>45827.21875</v>
+      </c>
+      <c r="B215">
+        <v>5681</v>
+      </c>
+      <c r="C215">
+        <v>22</v>
+      </c>
+      <c r="D215" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
+        <v>45827.22916666666</v>
+      </c>
+      <c r="B216">
+        <v>5715</v>
+      </c>
+      <c r="C216">
+        <v>23</v>
+      </c>
+      <c r="D216" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
+        <v>45827.23958333334</v>
+      </c>
+      <c r="B217">
+        <v>5829</v>
+      </c>
+      <c r="C217">
+        <v>24</v>
+      </c>
+      <c r="D217" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
+        <v>45827.25</v>
+      </c>
+      <c r="B218">
+        <v>5931</v>
+      </c>
+      <c r="C218">
+        <v>25</v>
+      </c>
+      <c r="D218" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
+        <v>45827.26041666666</v>
+      </c>
+      <c r="B219">
+        <v>6086</v>
+      </c>
+      <c r="C219">
+        <v>26</v>
+      </c>
+      <c r="D219" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
+        <v>45827.27083333334</v>
+      </c>
+      <c r="B220">
+        <v>6155</v>
+      </c>
+      <c r="C220">
+        <v>27</v>
+      </c>
+      <c r="D220" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
+        <v>45827.28125</v>
+      </c>
+      <c r="B221">
+        <v>6146</v>
+      </c>
+      <c r="C221">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
+        <v>45827.29166666666</v>
+      </c>
+      <c r="B222">
+        <v>6228</v>
+      </c>
+      <c r="C222">
+        <v>29</v>
+      </c>
+      <c r="D222" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
+        <v>45827.30208333334</v>
+      </c>
+      <c r="B223">
+        <v>6233</v>
+      </c>
+      <c r="C223">
+        <v>30</v>
+      </c>
+      <c r="D223" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
+        <v>45827.3125</v>
+      </c>
+      <c r="B224">
+        <v>6177</v>
+      </c>
+      <c r="C224">
+        <v>31</v>
+      </c>
+      <c r="D224" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
+        <v>45827.32291666666</v>
+      </c>
+      <c r="B225">
+        <v>6067</v>
+      </c>
+      <c r="C225">
+        <v>32</v>
+      </c>
+      <c r="D225" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
+        <v>45827.33333333334</v>
+      </c>
+      <c r="B226">
+        <v>6051</v>
+      </c>
+      <c r="C226">
+        <v>33</v>
+      </c>
+      <c r="D226" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
+        <v>45827.34375</v>
+      </c>
+      <c r="B227">
+        <v>5998</v>
+      </c>
+      <c r="C227">
+        <v>34</v>
+      </c>
+      <c r="D227" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
+        <v>45827.35416666666</v>
+      </c>
+      <c r="B228">
+        <v>5983</v>
+      </c>
+      <c r="C228">
+        <v>35</v>
+      </c>
+      <c r="D228" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
+        <v>45827.36458333334</v>
+      </c>
+      <c r="B229">
+        <v>5954</v>
+      </c>
+      <c r="C229">
+        <v>36</v>
+      </c>
+      <c r="D229" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
+        <v>45827.375</v>
+      </c>
+      <c r="B230">
+        <v>5782</v>
+      </c>
+      <c r="C230">
+        <v>37</v>
+      </c>
+      <c r="D230" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="2">
+        <v>45827.38541666666</v>
+      </c>
+      <c r="B231">
+        <v>5818</v>
+      </c>
+      <c r="C231">
+        <v>38</v>
+      </c>
+      <c r="D231" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="2">
+        <v>45827.39583333334</v>
+      </c>
+      <c r="B232">
+        <v>5758</v>
+      </c>
+      <c r="C232">
+        <v>39</v>
+      </c>
+      <c r="D232" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="2">
+        <v>45827.40625</v>
+      </c>
+      <c r="B233">
+        <v>5722</v>
+      </c>
+      <c r="C233">
+        <v>40</v>
+      </c>
+      <c r="D233" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="2">
+        <v>45827.41666666666</v>
+      </c>
+      <c r="B234">
+        <v>5586</v>
+      </c>
+      <c r="C234">
+        <v>41</v>
+      </c>
+      <c r="D234" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="2">
+        <v>45827.42708333334</v>
+      </c>
+      <c r="B235">
+        <v>5664</v>
+      </c>
+      <c r="C235">
+        <v>42</v>
+      </c>
+      <c r="D235" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="2">
+        <v>45827.4375</v>
+      </c>
+      <c r="B236">
+        <v>5657</v>
+      </c>
+      <c r="C236">
+        <v>43</v>
+      </c>
+      <c r="D236" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="2">
+        <v>45827.44791666666</v>
+      </c>
+      <c r="B237">
+        <v>5704</v>
+      </c>
+      <c r="C237">
+        <v>44</v>
+      </c>
+      <c r="D237" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="2">
+        <v>45827.45833333334</v>
+      </c>
+      <c r="B238">
+        <v>5643</v>
+      </c>
+      <c r="C238">
+        <v>45</v>
+      </c>
+      <c r="D238" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="2">
+        <v>45827.46875</v>
+      </c>
+      <c r="B239">
+        <v>5666</v>
+      </c>
+      <c r="C239">
+        <v>46</v>
+      </c>
+      <c r="D239" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="2">
+        <v>45827.47916666666</v>
+      </c>
+      <c r="B240">
+        <v>5727</v>
+      </c>
+      <c r="C240">
+        <v>47</v>
+      </c>
+      <c r="D240" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="2">
+        <v>45827.48958333334</v>
+      </c>
+      <c r="B241">
+        <v>5802</v>
+      </c>
+      <c r="C241">
+        <v>48</v>
+      </c>
+      <c r="D241" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
+        <v>45827.5</v>
+      </c>
+      <c r="B242">
+        <v>5776</v>
+      </c>
+      <c r="C242">
+        <v>49</v>
+      </c>
+      <c r="D242" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
+        <v>45827.51041666666</v>
+      </c>
+      <c r="B243">
+        <v>5843</v>
+      </c>
+      <c r="C243">
+        <v>50</v>
+      </c>
+      <c r="D243" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
+        <v>45827.52083333334</v>
+      </c>
+      <c r="B244">
+        <v>5833</v>
+      </c>
+      <c r="C244">
+        <v>51</v>
+      </c>
+      <c r="D244" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
+        <v>45827.53125</v>
+      </c>
+      <c r="B245">
+        <v>5820</v>
+      </c>
+      <c r="C245">
+        <v>52</v>
+      </c>
+      <c r="D245" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
+        <v>45827.54166666666</v>
+      </c>
+      <c r="B246">
+        <v>5808</v>
+      </c>
+      <c r="C246">
+        <v>53</v>
+      </c>
+      <c r="D246" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
+        <v>45827.55208333334</v>
+      </c>
+      <c r="B247">
+        <v>5831</v>
+      </c>
+      <c r="C247">
+        <v>54</v>
+      </c>
+      <c r="D247" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
+        <v>45827.5625</v>
+      </c>
+      <c r="B248">
+        <v>5806</v>
+      </c>
+      <c r="C248">
+        <v>55</v>
+      </c>
+      <c r="D248" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="2">
+        <v>45827.57291666666</v>
+      </c>
+      <c r="B249">
+        <v>5931</v>
+      </c>
+      <c r="C249">
+        <v>56</v>
+      </c>
+      <c r="D249" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="2">
+        <v>45827.58333333334</v>
+      </c>
+      <c r="B250">
+        <v>5871</v>
+      </c>
+      <c r="C250">
+        <v>57</v>
+      </c>
+      <c r="D250" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="2">
+        <v>45827.59375</v>
+      </c>
+      <c r="B251">
+        <v>5896</v>
+      </c>
+      <c r="C251">
+        <v>58</v>
+      </c>
+      <c r="D251" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="2">
+        <v>45827.60416666666</v>
+      </c>
+      <c r="B252">
+        <v>5957</v>
+      </c>
+      <c r="C252">
+        <v>59</v>
+      </c>
+      <c r="D252" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="2">
+        <v>45827.61458333334</v>
+      </c>
+      <c r="B253">
+        <v>5954</v>
+      </c>
+      <c r="C253">
+        <v>60</v>
+      </c>
+      <c r="D253" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="2">
+        <v>45827.625</v>
+      </c>
+      <c r="B254">
+        <v>6119</v>
+      </c>
+      <c r="C254">
+        <v>61</v>
+      </c>
+      <c r="D254" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="2">
+        <v>45827.63541666666</v>
+      </c>
+      <c r="B255">
+        <v>6112</v>
+      </c>
+      <c r="C255">
+        <v>62</v>
+      </c>
+      <c r="D255" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="2">
+        <v>45827.64583333334</v>
+      </c>
+      <c r="B256">
+        <v>6173</v>
+      </c>
+      <c r="C256">
+        <v>63</v>
+      </c>
+      <c r="D256" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="2">
+        <v>45827.65625</v>
+      </c>
+      <c r="B257">
+        <v>6230</v>
+      </c>
+      <c r="C257">
+        <v>64</v>
+      </c>
+      <c r="D257" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="2">
+        <v>45827.66666666666</v>
+      </c>
+      <c r="B258">
+        <v>6343</v>
+      </c>
+      <c r="C258">
+        <v>65</v>
+      </c>
+      <c r="D258" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="2">
+        <v>45827.67708333334</v>
+      </c>
+      <c r="B259">
+        <v>6400</v>
+      </c>
+      <c r="C259">
+        <v>66</v>
+      </c>
+      <c r="D259" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="2">
+        <v>45827.6875</v>
+      </c>
+      <c r="B260">
+        <v>6478</v>
+      </c>
+      <c r="C260">
+        <v>67</v>
+      </c>
+      <c r="D260" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="2">
+        <v>45827.69791666666</v>
+      </c>
+      <c r="B261">
+        <v>6559</v>
+      </c>
+      <c r="C261">
+        <v>68</v>
+      </c>
+      <c r="D261" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="2">
+        <v>45827.70833333334</v>
+      </c>
+      <c r="B262">
+        <v>6699</v>
+      </c>
+      <c r="C262">
+        <v>69</v>
+      </c>
+      <c r="D262" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="2">
+        <v>45827.71875</v>
+      </c>
+      <c r="B263">
+        <v>6765</v>
+      </c>
+      <c r="C263">
+        <v>70</v>
+      </c>
+      <c r="D263" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="2">
+        <v>45827.72916666666</v>
+      </c>
+      <c r="B264">
+        <v>6906</v>
+      </c>
+      <c r="C264">
+        <v>71</v>
+      </c>
+      <c r="D264" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="2">
+        <v>45827.73958333334</v>
+      </c>
+      <c r="B265">
+        <v>7014</v>
+      </c>
+      <c r="C265">
+        <v>72</v>
+      </c>
+      <c r="D265" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="2">
+        <v>45827.75</v>
+      </c>
+      <c r="B266">
+        <v>7144</v>
+      </c>
+      <c r="C266">
+        <v>73</v>
+      </c>
+      <c r="D266" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="2">
+        <v>45827.76041666666</v>
+      </c>
+      <c r="B267">
+        <v>7241</v>
+      </c>
+      <c r="C267">
+        <v>74</v>
+      </c>
+      <c r="D267" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="2">
+        <v>45827.77083333334</v>
+      </c>
+      <c r="B268">
+        <v>7317</v>
+      </c>
+      <c r="C268">
+        <v>75</v>
+      </c>
+      <c r="D268" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="2">
+        <v>45827.78125</v>
+      </c>
+      <c r="B269">
+        <v>7337</v>
+      </c>
+      <c r="C269">
+        <v>76</v>
+      </c>
+      <c r="D269" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="2">
+        <v>45827.79166666666</v>
+      </c>
+      <c r="B270">
+        <v>7442</v>
+      </c>
+      <c r="C270">
+        <v>77</v>
+      </c>
+      <c r="D270" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="2">
+        <v>45827.80208333334</v>
+      </c>
+      <c r="B271">
+        <v>7452</v>
+      </c>
+      <c r="C271">
+        <v>78</v>
+      </c>
+      <c r="D271" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="2">
+        <v>45827.8125</v>
+      </c>
+      <c r="B272">
+        <v>7433</v>
+      </c>
+      <c r="C272">
+        <v>79</v>
+      </c>
+      <c r="D272" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="2">
+        <v>45827.82291666666</v>
+      </c>
+      <c r="B273">
+        <v>7498</v>
+      </c>
+      <c r="C273">
+        <v>80</v>
+      </c>
+      <c r="D273" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="2">
+        <v>45827.83333333334</v>
+      </c>
+      <c r="B274">
+        <v>7468</v>
+      </c>
+      <c r="C274">
+        <v>81</v>
+      </c>
+      <c r="D274" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="2">
+        <v>45827.84375</v>
+      </c>
+      <c r="B275">
+        <v>7523</v>
+      </c>
+      <c r="C275">
+        <v>82</v>
+      </c>
+      <c r="D275" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="2">
+        <v>45827.85416666666</v>
+      </c>
+      <c r="B276">
+        <v>7515</v>
+      </c>
+      <c r="C276">
+        <v>83</v>
+      </c>
+      <c r="D276" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="2">
+        <v>45827.86458333334</v>
+      </c>
+      <c r="B277">
+        <v>7479</v>
+      </c>
+      <c r="C277">
+        <v>84</v>
+      </c>
+      <c r="D277" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="2">
+        <v>45827.875</v>
+      </c>
+      <c r="B278">
+        <v>7426</v>
+      </c>
+      <c r="C278">
+        <v>85</v>
+      </c>
+      <c r="D278" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="2">
+        <v>45827.88541666666</v>
+      </c>
+      <c r="B279">
+        <v>7269</v>
+      </c>
+      <c r="C279">
+        <v>86</v>
+      </c>
+      <c r="D279" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="2">
+        <v>45827.89583333334</v>
+      </c>
+      <c r="B280">
+        <v>7139</v>
+      </c>
+      <c r="C280">
+        <v>87</v>
+      </c>
+      <c r="D280" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="2">
+        <v>45827.90625</v>
+      </c>
+      <c r="B281">
+        <v>6950</v>
+      </c>
+      <c r="C281">
+        <v>88</v>
+      </c>
+      <c r="D281" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="2">
+        <v>45827.91666666666</v>
+      </c>
+      <c r="B282">
+        <v>6689</v>
+      </c>
+      <c r="C282">
+        <v>89</v>
+      </c>
+      <c r="D282" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="2">
+        <v>45827.92708333334</v>
+      </c>
+      <c r="B283">
+        <v>6561</v>
+      </c>
+      <c r="C283">
+        <v>90</v>
+      </c>
+      <c r="D283" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="2">
+        <v>45827.9375</v>
+      </c>
+      <c r="B284">
+        <v>6466</v>
+      </c>
+      <c r="C284">
+        <v>91</v>
+      </c>
+      <c r="D284" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="2">
+        <v>45827.94791666666</v>
+      </c>
+      <c r="B285">
+        <v>6294</v>
+      </c>
+      <c r="C285">
+        <v>92</v>
+      </c>
+      <c r="D285" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="2">
+        <v>45827.95833333334</v>
+      </c>
+      <c r="B286">
+        <v>6121</v>
+      </c>
+      <c r="C286">
+        <v>93</v>
+      </c>
+      <c r="D286" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="2">
+        <v>45827.96875</v>
+      </c>
+      <c r="B287">
+        <v>6044</v>
+      </c>
+      <c r="C287">
+        <v>94</v>
+      </c>
+      <c r="D287" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="2">
+        <v>45827.97916666666</v>
+      </c>
+      <c r="B288">
+        <v>5974</v>
+      </c>
+      <c r="C288">
+        <v>95</v>
+      </c>
+      <c r="D288" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="2">
+        <v>45827.98958333334</v>
+      </c>
+      <c r="B289">
+        <v>5887</v>
+      </c>
+      <c r="C289">
+        <v>96</v>
+      </c>
+      <c r="D289" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="2">
+        <v>45828</v>
+      </c>
+      <c r="B290">
+        <v>5788</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="2">
+        <v>45828.01041666666</v>
+      </c>
+      <c r="B291">
+        <v>5719</v>
+      </c>
+      <c r="C291">
+        <v>2</v>
+      </c>
+      <c r="D291" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="2">
+        <v>45828.02083333334</v>
+      </c>
+      <c r="B292">
+        <v>5682</v>
+      </c>
+      <c r="C292">
+        <v>3</v>
+      </c>
+      <c r="D292" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="2">
+        <v>45828.03125</v>
+      </c>
+      <c r="B293">
+        <v>5639</v>
+      </c>
+      <c r="C293">
+        <v>4</v>
+      </c>
+      <c r="D293" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="2">
+        <v>45828.04166666666</v>
+      </c>
+      <c r="B294">
+        <v>5610</v>
+      </c>
+      <c r="C294">
+        <v>5</v>
+      </c>
+      <c r="D294" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="2">
+        <v>45828.05208333334</v>
+      </c>
+      <c r="B295">
+        <v>5518</v>
+      </c>
+      <c r="C295">
+        <v>6</v>
+      </c>
+      <c r="D295" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="2">
+        <v>45828.0625</v>
+      </c>
+      <c r="B296">
+        <v>5500</v>
+      </c>
+      <c r="C296">
+        <v>7</v>
+      </c>
+      <c r="D296" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="2">
+        <v>45828.07291666666</v>
+      </c>
+      <c r="B297">
+        <v>5513</v>
+      </c>
+      <c r="C297">
+        <v>8</v>
+      </c>
+      <c r="D297" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="2">
+        <v>45828.08333333334</v>
+      </c>
+      <c r="B298">
+        <v>5495</v>
+      </c>
+      <c r="C298">
+        <v>9</v>
+      </c>
+      <c r="D298" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="2">
+        <v>45828.09375</v>
+      </c>
+      <c r="B299">
+        <v>5513</v>
+      </c>
+      <c r="C299">
+        <v>10</v>
+      </c>
+      <c r="D299" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="2">
+        <v>45828.10416666666</v>
+      </c>
+      <c r="B300">
+        <v>5453</v>
+      </c>
+      <c r="C300">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="2">
+        <v>45828.11458333334</v>
+      </c>
+      <c r="B301">
+        <v>5549</v>
+      </c>
+      <c r="C301">
+        <v>12</v>
+      </c>
+      <c r="D301" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="2">
+        <v>45828.125</v>
+      </c>
+      <c r="B302">
+        <v>5509</v>
+      </c>
+      <c r="C302">
+        <v>13</v>
+      </c>
+      <c r="D302" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="2">
+        <v>45828.13541666666</v>
+      </c>
+      <c r="B303">
+        <v>5475</v>
+      </c>
+      <c r="C303">
+        <v>14</v>
+      </c>
+      <c r="D303" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="2">
+        <v>45828.14583333334</v>
+      </c>
+      <c r="B304">
+        <v>5454</v>
+      </c>
+      <c r="C304">
+        <v>15</v>
+      </c>
+      <c r="D304" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="2">
+        <v>45828.15625</v>
+      </c>
+      <c r="B305">
+        <v>5473</v>
+      </c>
+      <c r="C305">
+        <v>16</v>
+      </c>
+      <c r="D305" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="2">
+        <v>45828.16666666666</v>
+      </c>
+      <c r="B306">
+        <v>5402</v>
+      </c>
+      <c r="C306">
+        <v>17</v>
+      </c>
+      <c r="D306" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="2">
+        <v>45828.17708333334</v>
+      </c>
+      <c r="B307">
+        <v>5376</v>
+      </c>
+      <c r="C307">
+        <v>18</v>
+      </c>
+      <c r="D307" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="2">
+        <v>45828.1875</v>
+      </c>
+      <c r="B308">
+        <v>5391</v>
+      </c>
+      <c r="C308">
+        <v>19</v>
+      </c>
+      <c r="D308" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="2">
+        <v>45828.19791666666</v>
+      </c>
+      <c r="B309">
+        <v>5443</v>
+      </c>
+      <c r="C309">
+        <v>20</v>
+      </c>
+      <c r="D309" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="2">
+        <v>45828.20833333334</v>
+      </c>
+      <c r="B310">
+        <v>5524</v>
+      </c>
+      <c r="C310">
+        <v>21</v>
+      </c>
+      <c r="D310" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="2">
+        <v>45828.21875</v>
+      </c>
+      <c r="B311">
+        <v>5703</v>
+      </c>
+      <c r="C311">
+        <v>22</v>
+      </c>
+      <c r="D311" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="2">
+        <v>45828.22916666666</v>
+      </c>
+      <c r="B312">
+        <v>5734</v>
+      </c>
+      <c r="C312">
+        <v>23</v>
+      </c>
+      <c r="D312" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="2">
+        <v>45828.23958333334</v>
+      </c>
+      <c r="B313">
+        <v>5779</v>
+      </c>
+      <c r="C313">
+        <v>24</v>
+      </c>
+      <c r="D313" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="2">
+        <v>45828.25</v>
+      </c>
+      <c r="B314">
+        <v>5984</v>
+      </c>
+      <c r="C314">
+        <v>25</v>
+      </c>
+      <c r="D314" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="2">
+        <v>45828.26041666666</v>
+      </c>
+      <c r="B315">
+        <v>6081</v>
+      </c>
+      <c r="C315">
+        <v>26</v>
+      </c>
+      <c r="D315" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="2">
+        <v>45828.27083333334</v>
+      </c>
+      <c r="B316">
+        <v>6163</v>
+      </c>
+      <c r="C316">
+        <v>27</v>
+      </c>
+      <c r="D316" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="2">
+        <v>45828.28125</v>
+      </c>
+      <c r="B317">
+        <v>6231</v>
+      </c>
+      <c r="C317">
+        <v>28</v>
+      </c>
+      <c r="D317" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="2">
+        <v>45828.29166666666</v>
+      </c>
+      <c r="B318">
+        <v>6285</v>
+      </c>
+      <c r="C318">
+        <v>29</v>
+      </c>
+      <c r="D318" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="2">
+        <v>45828.30208333334</v>
+      </c>
+      <c r="B319">
+        <v>6271</v>
+      </c>
+      <c r="C319">
+        <v>30</v>
+      </c>
+      <c r="D319" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="2">
+        <v>45828.3125</v>
+      </c>
+      <c r="B320">
+        <v>6225</v>
+      </c>
+      <c r="C320">
+        <v>31</v>
+      </c>
+      <c r="D320" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="2">
+        <v>45828.32291666666</v>
+      </c>
+      <c r="B321">
+        <v>6209</v>
+      </c>
+      <c r="C321">
+        <v>32</v>
+      </c>
+      <c r="D321" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="2">
+        <v>45828.33333333334</v>
+      </c>
+      <c r="B322">
+        <v>6062</v>
+      </c>
+      <c r="C322">
+        <v>33</v>
+      </c>
+      <c r="D322" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="2">
+        <v>45828.34375</v>
+      </c>
+      <c r="B323">
+        <v>5962</v>
+      </c>
+      <c r="C323">
+        <v>34</v>
+      </c>
+      <c r="D323" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="2">
+        <v>45828.35416666666</v>
+      </c>
+      <c r="B324">
+        <v>5975</v>
+      </c>
+      <c r="C324">
+        <v>35</v>
+      </c>
+      <c r="D324" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="2">
+        <v>45828.36458333334</v>
+      </c>
+      <c r="B325">
+        <v>5860</v>
+      </c>
+      <c r="C325">
+        <v>36</v>
+      </c>
+      <c r="D325" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="2">
+        <v>45828.375</v>
+      </c>
+      <c r="B326">
+        <v>5671</v>
+      </c>
+      <c r="C326">
+        <v>37</v>
+      </c>
+      <c r="D326" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="2">
+        <v>45828.38541666666</v>
+      </c>
+      <c r="B327">
+        <v>5639</v>
+      </c>
+      <c r="C327">
+        <v>38</v>
+      </c>
+      <c r="D327" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="2">
+        <v>45828.39583333334</v>
+      </c>
+      <c r="B328">
+        <v>5646</v>
+      </c>
+      <c r="C328">
+        <v>39</v>
+      </c>
+      <c r="D328" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="2">
+        <v>45828.40625</v>
+      </c>
+      <c r="B329">
+        <v>5651</v>
+      </c>
+      <c r="C329">
+        <v>40</v>
+      </c>
+      <c r="D329" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="2">
+        <v>45828.41666666666</v>
+      </c>
+      <c r="B330">
+        <v>5404</v>
+      </c>
+      <c r="C330">
+        <v>41</v>
+      </c>
+      <c r="D330" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="2">
+        <v>45828.42708333334</v>
+      </c>
+      <c r="B331">
+        <v>5303</v>
+      </c>
+      <c r="C331">
+        <v>42</v>
+      </c>
+      <c r="D331" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="2">
+        <v>45828.4375</v>
+      </c>
+      <c r="B332">
+        <v>5334</v>
+      </c>
+      <c r="C332">
+        <v>43</v>
+      </c>
+      <c r="D332" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="2">
+        <v>45828.44791666666</v>
+      </c>
+      <c r="B333">
+        <v>5307</v>
+      </c>
+      <c r="C333">
+        <v>44</v>
+      </c>
+      <c r="D333" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="2">
+        <v>45828.45833333334</v>
+      </c>
+      <c r="B334">
+        <v>5293</v>
+      </c>
+      <c r="C334">
+        <v>45</v>
+      </c>
+      <c r="D334" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="2">
+        <v>45828.46875</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>46</v>
+      </c>
+      <c r="D335" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="2">
+        <v>45828.47916666666</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+      <c r="C336">
+        <v>47</v>
+      </c>
+      <c r="D336" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="2">
+        <v>45828.48958333334</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337">
+        <v>48</v>
+      </c>
+      <c r="D337" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="2">
+        <v>45828.5</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+      <c r="C338">
+        <v>49</v>
+      </c>
+      <c r="D338" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="2">
+        <v>45828.51041666666</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>50</v>
+      </c>
+      <c r="D339" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="2">
+        <v>45828.52083333334</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340">
+        <v>51</v>
+      </c>
+      <c r="D340" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="2">
+        <v>45828.53125</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+      <c r="C341">
+        <v>52</v>
+      </c>
+      <c r="D341" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="2">
+        <v>45828.54166666666</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+      <c r="C342">
+        <v>53</v>
+      </c>
+      <c r="D342" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="2">
+        <v>45828.55208333334</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+      <c r="C343">
+        <v>54</v>
+      </c>
+      <c r="D343" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="2">
+        <v>45828.5625</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+      <c r="C344">
+        <v>55</v>
+      </c>
+      <c r="D344" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="2">
+        <v>45828.57291666666</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>56</v>
+      </c>
+      <c r="D345" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="2">
+        <v>45828.58333333334</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+      <c r="C346">
+        <v>57</v>
+      </c>
+      <c r="D346" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="2">
+        <v>45828.59375</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+      <c r="C347">
+        <v>58</v>
+      </c>
+      <c r="D347" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="2">
+        <v>45828.60416666666</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>59</v>
+      </c>
+      <c r="D348" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="2">
+        <v>45828.61458333334</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>60</v>
+      </c>
+      <c r="D349" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="2">
+        <v>45828.625</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+      <c r="C350">
+        <v>61</v>
+      </c>
+      <c r="D350" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="2">
+        <v>45828.63541666666</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+      <c r="C351">
+        <v>62</v>
+      </c>
+      <c r="D351" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="2">
+        <v>45828.64583333334</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+      <c r="C352">
+        <v>63</v>
+      </c>
+      <c r="D352" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="2">
+        <v>45828.65625</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+      <c r="C353">
+        <v>64</v>
+      </c>
+      <c r="D353" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="2">
+        <v>45828.66666666666</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+      <c r="C354">
+        <v>65</v>
+      </c>
+      <c r="D354" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="2">
+        <v>45828.67708333334</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <v>66</v>
+      </c>
+      <c r="D355" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="2">
+        <v>45828.6875</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+      <c r="C356">
+        <v>67</v>
+      </c>
+      <c r="D356" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="2">
+        <v>45828.69791666666</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+      <c r="C357">
+        <v>68</v>
+      </c>
+      <c r="D357" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="2">
+        <v>45828.70833333334</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+      <c r="C358">
+        <v>69</v>
+      </c>
+      <c r="D358" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="2">
+        <v>45828.71875</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+      <c r="C359">
+        <v>70</v>
+      </c>
+      <c r="D359" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="2">
+        <v>45828.72916666666</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+      <c r="C360">
+        <v>71</v>
+      </c>
+      <c r="D360" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="2">
+        <v>45828.73958333334</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+      <c r="C361">
+        <v>72</v>
+      </c>
+      <c r="D361" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="2">
+        <v>45828.75</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+      <c r="C362">
+        <v>73</v>
+      </c>
+      <c r="D362" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="2">
+        <v>45828.76041666666</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <v>74</v>
+      </c>
+      <c r="D363" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="2">
+        <v>45828.77083333334</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+      <c r="C364">
+        <v>75</v>
+      </c>
+      <c r="D364" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="2">
+        <v>45828.78125</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+      <c r="C365">
+        <v>76</v>
+      </c>
+      <c r="D365" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="2">
+        <v>45828.79166666666</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+      <c r="C366">
+        <v>77</v>
+      </c>
+      <c r="D366" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="2">
+        <v>45828.80208333334</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <v>78</v>
+      </c>
+      <c r="D367" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
+        <v>45828.8125</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+      <c r="C368">
+        <v>79</v>
+      </c>
+      <c r="D368" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
+        <v>45828.82291666666</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+      <c r="C369">
+        <v>80</v>
+      </c>
+      <c r="D369" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
+        <v>45828.83333333334</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+      <c r="C370">
+        <v>81</v>
+      </c>
+      <c r="D370" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
+        <v>45828.84375</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+      <c r="C371">
+        <v>82</v>
+      </c>
+      <c r="D371" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
+        <v>45828.85416666666</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+      <c r="C372">
+        <v>83</v>
+      </c>
+      <c r="D372" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
+        <v>45828.86458333334</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+      <c r="C373">
+        <v>84</v>
+      </c>
+      <c r="D373" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
+        <v>45828.875</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+      <c r="C374">
+        <v>85</v>
+      </c>
+      <c r="D374" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
+        <v>45828.88541666666</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+      <c r="C375">
+        <v>86</v>
+      </c>
+      <c r="D375" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
+        <v>45828.89583333334</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+      <c r="C376">
+        <v>87</v>
+      </c>
+      <c r="D376" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
+        <v>45828.90625</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <v>88</v>
+      </c>
+      <c r="D377" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
+        <v>45828.91666666666</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+      <c r="C378">
+        <v>89</v>
+      </c>
+      <c r="D378" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
+        <v>45828.92708333334</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+      <c r="C379">
+        <v>90</v>
+      </c>
+      <c r="D379" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
+        <v>45828.9375</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+      <c r="C380">
+        <v>91</v>
+      </c>
+      <c r="D380" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
+        <v>45828.94791666666</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="C381">
+        <v>92</v>
+      </c>
+      <c r="D381" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
+        <v>45828.95833333334</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+      <c r="C382">
+        <v>93</v>
+      </c>
+      <c r="D382" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
+        <v>45828.96875</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+      <c r="C383">
+        <v>94</v>
+      </c>
+      <c r="D383" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
+        <v>45828.97916666666</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+      <c r="C384">
+        <v>95</v>
+      </c>
+      <c r="D384" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
+        <v>45828.98958333334</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385">
+        <v>96</v>
+      </c>
+      <c r="D385" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
@@ -28,580 +28,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>20.08.20251</t>
-  </si>
-  <si>
-    <t>20.08.20252</t>
-  </si>
-  <si>
-    <t>20.08.20253</t>
-  </si>
-  <si>
-    <t>20.08.20254</t>
-  </si>
-  <si>
-    <t>20.08.20255</t>
-  </si>
-  <si>
-    <t>20.08.20256</t>
-  </si>
-  <si>
-    <t>20.08.20257</t>
-  </si>
-  <si>
-    <t>20.08.20258</t>
-  </si>
-  <si>
-    <t>20.08.20259</t>
-  </si>
-  <si>
-    <t>20.08.202510</t>
-  </si>
-  <si>
-    <t>20.08.202511</t>
-  </si>
-  <si>
-    <t>20.08.202512</t>
-  </si>
-  <si>
-    <t>20.08.202513</t>
-  </si>
-  <si>
-    <t>20.08.202514</t>
-  </si>
-  <si>
-    <t>20.08.202515</t>
-  </si>
-  <si>
-    <t>20.08.202516</t>
-  </si>
-  <si>
-    <t>20.08.202517</t>
-  </si>
-  <si>
-    <t>20.08.202518</t>
-  </si>
-  <si>
-    <t>20.08.202519</t>
-  </si>
-  <si>
-    <t>20.08.202520</t>
-  </si>
-  <si>
-    <t>20.08.202521</t>
-  </si>
-  <si>
-    <t>20.08.202522</t>
-  </si>
-  <si>
-    <t>20.08.202523</t>
-  </si>
-  <si>
-    <t>20.08.202524</t>
-  </si>
-  <si>
-    <t>20.08.202525</t>
-  </si>
-  <si>
-    <t>20.08.202526</t>
-  </si>
-  <si>
-    <t>20.08.202527</t>
-  </si>
-  <si>
-    <t>20.08.202528</t>
-  </si>
-  <si>
-    <t>20.08.202529</t>
-  </si>
-  <si>
-    <t>20.08.202530</t>
-  </si>
-  <si>
-    <t>20.08.202531</t>
-  </si>
-  <si>
-    <t>20.08.202532</t>
-  </si>
-  <si>
-    <t>20.08.202533</t>
-  </si>
-  <si>
-    <t>20.08.202534</t>
-  </si>
-  <si>
-    <t>20.08.202535</t>
-  </si>
-  <si>
-    <t>20.08.202536</t>
-  </si>
-  <si>
-    <t>20.08.202537</t>
-  </si>
-  <si>
-    <t>20.08.202538</t>
-  </si>
-  <si>
-    <t>20.08.202539</t>
-  </si>
-  <si>
-    <t>20.08.202540</t>
-  </si>
-  <si>
-    <t>20.08.202541</t>
-  </si>
-  <si>
-    <t>20.08.202542</t>
-  </si>
-  <si>
-    <t>20.08.202543</t>
-  </si>
-  <si>
-    <t>20.08.202544</t>
-  </si>
-  <si>
-    <t>20.08.202545</t>
-  </si>
-  <si>
-    <t>20.08.202546</t>
-  </si>
-  <si>
-    <t>20.08.202547</t>
-  </si>
-  <si>
-    <t>20.08.202548</t>
-  </si>
-  <si>
-    <t>20.08.202549</t>
-  </si>
-  <si>
-    <t>20.08.202550</t>
-  </si>
-  <si>
-    <t>20.08.202551</t>
-  </si>
-  <si>
-    <t>20.08.202552</t>
-  </si>
-  <si>
-    <t>20.08.202553</t>
-  </si>
-  <si>
-    <t>20.08.202554</t>
-  </si>
-  <si>
-    <t>20.08.202555</t>
-  </si>
-  <si>
-    <t>20.08.202556</t>
-  </si>
-  <si>
-    <t>20.08.202557</t>
-  </si>
-  <si>
-    <t>20.08.202558</t>
-  </si>
-  <si>
-    <t>20.08.202559</t>
-  </si>
-  <si>
-    <t>20.08.202560</t>
-  </si>
-  <si>
-    <t>20.08.202561</t>
-  </si>
-  <si>
-    <t>20.08.202562</t>
-  </si>
-  <si>
-    <t>20.08.202563</t>
-  </si>
-  <si>
-    <t>20.08.202564</t>
-  </si>
-  <si>
-    <t>20.08.202565</t>
-  </si>
-  <si>
-    <t>20.08.202566</t>
-  </si>
-  <si>
-    <t>20.08.202567</t>
-  </si>
-  <si>
-    <t>20.08.202568</t>
-  </si>
-  <si>
-    <t>20.08.202569</t>
-  </si>
-  <si>
-    <t>20.08.202570</t>
-  </si>
-  <si>
-    <t>20.08.202571</t>
-  </si>
-  <si>
-    <t>20.08.202572</t>
-  </si>
-  <si>
-    <t>20.08.202573</t>
-  </si>
-  <si>
-    <t>20.08.202574</t>
-  </si>
-  <si>
-    <t>20.08.202575</t>
-  </si>
-  <si>
-    <t>20.08.202576</t>
-  </si>
-  <si>
-    <t>20.08.202577</t>
-  </si>
-  <si>
-    <t>20.08.202578</t>
-  </si>
-  <si>
-    <t>20.08.202579</t>
-  </si>
-  <si>
-    <t>20.08.202580</t>
-  </si>
-  <si>
-    <t>20.08.202581</t>
-  </si>
-  <si>
-    <t>20.08.202582</t>
-  </si>
-  <si>
-    <t>20.08.202583</t>
-  </si>
-  <si>
-    <t>20.08.202584</t>
-  </si>
-  <si>
-    <t>20.08.202585</t>
-  </si>
-  <si>
-    <t>20.08.202586</t>
-  </si>
-  <si>
-    <t>20.08.202587</t>
-  </si>
-  <si>
-    <t>20.08.202588</t>
-  </si>
-  <si>
-    <t>20.08.202589</t>
-  </si>
-  <si>
-    <t>20.08.202590</t>
-  </si>
-  <si>
-    <t>20.08.202591</t>
-  </si>
-  <si>
-    <t>20.08.202592</t>
-  </si>
-  <si>
-    <t>20.08.202593</t>
-  </si>
-  <si>
-    <t>20.08.202594</t>
-  </si>
-  <si>
-    <t>20.08.202595</t>
-  </si>
-  <si>
-    <t>20.08.202596</t>
-  </si>
-  <si>
-    <t>21.08.20251</t>
-  </si>
-  <si>
-    <t>21.08.20252</t>
-  </si>
-  <si>
-    <t>21.08.20253</t>
-  </si>
-  <si>
-    <t>21.08.20254</t>
-  </si>
-  <si>
-    <t>21.08.20255</t>
-  </si>
-  <si>
-    <t>21.08.20256</t>
-  </si>
-  <si>
-    <t>21.08.20257</t>
-  </si>
-  <si>
-    <t>21.08.20258</t>
-  </si>
-  <si>
-    <t>21.08.20259</t>
-  </si>
-  <si>
-    <t>21.08.202510</t>
-  </si>
-  <si>
-    <t>21.08.202511</t>
-  </si>
-  <si>
-    <t>21.08.202512</t>
-  </si>
-  <si>
-    <t>21.08.202513</t>
-  </si>
-  <si>
-    <t>21.08.202514</t>
-  </si>
-  <si>
-    <t>21.08.202515</t>
-  </si>
-  <si>
-    <t>21.08.202516</t>
-  </si>
-  <si>
-    <t>21.08.202517</t>
-  </si>
-  <si>
-    <t>21.08.202518</t>
-  </si>
-  <si>
-    <t>21.08.202519</t>
-  </si>
-  <si>
-    <t>21.08.202520</t>
-  </si>
-  <si>
-    <t>21.08.202521</t>
-  </si>
-  <si>
-    <t>21.08.202522</t>
-  </si>
-  <si>
-    <t>21.08.202523</t>
-  </si>
-  <si>
-    <t>21.08.202524</t>
-  </si>
-  <si>
-    <t>21.08.202525</t>
-  </si>
-  <si>
-    <t>21.08.202526</t>
-  </si>
-  <si>
-    <t>21.08.202527</t>
-  </si>
-  <si>
-    <t>21.08.202528</t>
-  </si>
-  <si>
-    <t>21.08.202529</t>
-  </si>
-  <si>
-    <t>21.08.202530</t>
-  </si>
-  <si>
-    <t>21.08.202531</t>
-  </si>
-  <si>
-    <t>21.08.202532</t>
-  </si>
-  <si>
-    <t>21.08.202533</t>
-  </si>
-  <si>
-    <t>21.08.202534</t>
-  </si>
-  <si>
-    <t>21.08.202535</t>
-  </si>
-  <si>
-    <t>21.08.202536</t>
-  </si>
-  <si>
-    <t>21.08.202537</t>
-  </si>
-  <si>
-    <t>21.08.202538</t>
-  </si>
-  <si>
-    <t>21.08.202539</t>
-  </si>
-  <si>
-    <t>21.08.202540</t>
-  </si>
-  <si>
-    <t>21.08.202541</t>
-  </si>
-  <si>
-    <t>21.08.202542</t>
-  </si>
-  <si>
-    <t>21.08.202543</t>
-  </si>
-  <si>
-    <t>21.08.202544</t>
-  </si>
-  <si>
-    <t>21.08.202545</t>
-  </si>
-  <si>
-    <t>21.08.202546</t>
-  </si>
-  <si>
-    <t>21.08.202547</t>
-  </si>
-  <si>
-    <t>21.08.202548</t>
-  </si>
-  <si>
-    <t>21.08.202549</t>
-  </si>
-  <si>
-    <t>21.08.202550</t>
-  </si>
-  <si>
-    <t>21.08.202551</t>
-  </si>
-  <si>
-    <t>21.08.202552</t>
-  </si>
-  <si>
-    <t>21.08.202553</t>
-  </si>
-  <si>
-    <t>21.08.202554</t>
-  </si>
-  <si>
-    <t>21.08.202555</t>
-  </si>
-  <si>
-    <t>21.08.202556</t>
-  </si>
-  <si>
-    <t>21.08.202557</t>
-  </si>
-  <si>
-    <t>21.08.202558</t>
-  </si>
-  <si>
-    <t>21.08.202559</t>
-  </si>
-  <si>
-    <t>21.08.202560</t>
-  </si>
-  <si>
-    <t>21.08.202561</t>
-  </si>
-  <si>
-    <t>21.08.202562</t>
-  </si>
-  <si>
-    <t>21.08.202563</t>
-  </si>
-  <si>
-    <t>21.08.202564</t>
-  </si>
-  <si>
-    <t>21.08.202565</t>
-  </si>
-  <si>
-    <t>21.08.202566</t>
-  </si>
-  <si>
-    <t>21.08.202567</t>
-  </si>
-  <si>
-    <t>21.08.202568</t>
-  </si>
-  <si>
-    <t>21.08.202569</t>
-  </si>
-  <si>
-    <t>21.08.202570</t>
-  </si>
-  <si>
-    <t>21.08.202571</t>
-  </si>
-  <si>
-    <t>21.08.202572</t>
-  </si>
-  <si>
-    <t>21.08.202573</t>
-  </si>
-  <si>
-    <t>21.08.202574</t>
-  </si>
-  <si>
-    <t>21.08.202575</t>
-  </si>
-  <si>
-    <t>21.08.202576</t>
-  </si>
-  <si>
-    <t>21.08.202577</t>
-  </si>
-  <si>
-    <t>21.08.202578</t>
-  </si>
-  <si>
-    <t>21.08.202579</t>
-  </si>
-  <si>
-    <t>21.08.202580</t>
-  </si>
-  <si>
-    <t>21.08.202581</t>
-  </si>
-  <si>
-    <t>21.08.202582</t>
-  </si>
-  <si>
-    <t>21.08.202583</t>
-  </si>
-  <si>
-    <t>21.08.202584</t>
-  </si>
-  <si>
-    <t>21.08.202585</t>
-  </si>
-  <si>
-    <t>21.08.202586</t>
-  </si>
-  <si>
-    <t>21.08.202587</t>
-  </si>
-  <si>
-    <t>21.08.202588</t>
-  </si>
-  <si>
-    <t>21.08.202589</t>
-  </si>
-  <si>
-    <t>21.08.202590</t>
-  </si>
-  <si>
-    <t>21.08.202591</t>
-  </si>
-  <si>
-    <t>21.08.202592</t>
-  </si>
-  <si>
-    <t>21.08.202593</t>
-  </si>
-  <si>
-    <t>21.08.202594</t>
-  </si>
-  <si>
-    <t>21.08.202595</t>
-  </si>
-  <si>
-    <t>21.08.202596</t>
+    <t>17.09.20251</t>
+  </si>
+  <si>
+    <t>17.09.20252</t>
+  </si>
+  <si>
+    <t>17.09.20253</t>
+  </si>
+  <si>
+    <t>17.09.20254</t>
+  </si>
+  <si>
+    <t>17.09.20255</t>
+  </si>
+  <si>
+    <t>17.09.20256</t>
+  </si>
+  <si>
+    <t>17.09.20257</t>
+  </si>
+  <si>
+    <t>17.09.20258</t>
+  </si>
+  <si>
+    <t>17.09.20259</t>
+  </si>
+  <si>
+    <t>17.09.202510</t>
+  </si>
+  <si>
+    <t>17.09.202511</t>
+  </si>
+  <si>
+    <t>17.09.202512</t>
+  </si>
+  <si>
+    <t>17.09.202513</t>
+  </si>
+  <si>
+    <t>17.09.202514</t>
+  </si>
+  <si>
+    <t>17.09.202515</t>
+  </si>
+  <si>
+    <t>17.09.202516</t>
+  </si>
+  <si>
+    <t>17.09.202517</t>
+  </si>
+  <si>
+    <t>17.09.202518</t>
+  </si>
+  <si>
+    <t>17.09.202519</t>
+  </si>
+  <si>
+    <t>17.09.202520</t>
+  </si>
+  <si>
+    <t>17.09.202521</t>
+  </si>
+  <si>
+    <t>17.09.202522</t>
+  </si>
+  <si>
+    <t>17.09.202523</t>
+  </si>
+  <si>
+    <t>17.09.202524</t>
+  </si>
+  <si>
+    <t>17.09.202525</t>
+  </si>
+  <si>
+    <t>17.09.202526</t>
+  </si>
+  <si>
+    <t>17.09.202527</t>
+  </si>
+  <si>
+    <t>17.09.202528</t>
+  </si>
+  <si>
+    <t>17.09.202529</t>
+  </si>
+  <si>
+    <t>17.09.202530</t>
+  </si>
+  <si>
+    <t>17.09.202531</t>
+  </si>
+  <si>
+    <t>17.09.202532</t>
+  </si>
+  <si>
+    <t>17.09.202533</t>
+  </si>
+  <si>
+    <t>17.09.202534</t>
+  </si>
+  <si>
+    <t>17.09.202535</t>
+  </si>
+  <si>
+    <t>17.09.202536</t>
+  </si>
+  <si>
+    <t>17.09.202537</t>
+  </si>
+  <si>
+    <t>17.09.202538</t>
+  </si>
+  <si>
+    <t>17.09.202539</t>
+  </si>
+  <si>
+    <t>17.09.202540</t>
+  </si>
+  <si>
+    <t>17.09.202541</t>
+  </si>
+  <si>
+    <t>17.09.202542</t>
+  </si>
+  <si>
+    <t>17.09.202543</t>
+  </si>
+  <si>
+    <t>17.09.202544</t>
+  </si>
+  <si>
+    <t>17.09.202545</t>
+  </si>
+  <si>
+    <t>17.09.202546</t>
+  </si>
+  <si>
+    <t>17.09.202547</t>
+  </si>
+  <si>
+    <t>17.09.202548</t>
+  </si>
+  <si>
+    <t>17.09.202549</t>
+  </si>
+  <si>
+    <t>17.09.202550</t>
+  </si>
+  <si>
+    <t>17.09.202551</t>
+  </si>
+  <si>
+    <t>17.09.202552</t>
+  </si>
+  <si>
+    <t>17.09.202553</t>
+  </si>
+  <si>
+    <t>17.09.202554</t>
+  </si>
+  <si>
+    <t>17.09.202555</t>
+  </si>
+  <si>
+    <t>17.09.202556</t>
+  </si>
+  <si>
+    <t>17.09.202557</t>
+  </si>
+  <si>
+    <t>17.09.202558</t>
+  </si>
+  <si>
+    <t>17.09.202559</t>
+  </si>
+  <si>
+    <t>17.09.202560</t>
+  </si>
+  <si>
+    <t>17.09.202561</t>
+  </si>
+  <si>
+    <t>17.09.202562</t>
+  </si>
+  <si>
+    <t>17.09.202563</t>
+  </si>
+  <si>
+    <t>17.09.202564</t>
+  </si>
+  <si>
+    <t>17.09.202565</t>
+  </si>
+  <si>
+    <t>17.09.202566</t>
+  </si>
+  <si>
+    <t>17.09.202567</t>
+  </si>
+  <si>
+    <t>17.09.202568</t>
+  </si>
+  <si>
+    <t>17.09.202569</t>
+  </si>
+  <si>
+    <t>17.09.202570</t>
+  </si>
+  <si>
+    <t>17.09.202571</t>
+  </si>
+  <si>
+    <t>17.09.202572</t>
+  </si>
+  <si>
+    <t>17.09.202573</t>
+  </si>
+  <si>
+    <t>17.09.202574</t>
+  </si>
+  <si>
+    <t>17.09.202575</t>
+  </si>
+  <si>
+    <t>17.09.202576</t>
+  </si>
+  <si>
+    <t>17.09.202577</t>
+  </si>
+  <si>
+    <t>17.09.202578</t>
+  </si>
+  <si>
+    <t>17.09.202579</t>
+  </si>
+  <si>
+    <t>17.09.202580</t>
+  </si>
+  <si>
+    <t>17.09.202581</t>
+  </si>
+  <si>
+    <t>17.09.202582</t>
+  </si>
+  <si>
+    <t>17.09.202583</t>
+  </si>
+  <si>
+    <t>17.09.202584</t>
+  </si>
+  <si>
+    <t>17.09.202585</t>
+  </si>
+  <si>
+    <t>17.09.202586</t>
+  </si>
+  <si>
+    <t>17.09.202587</t>
+  </si>
+  <si>
+    <t>17.09.202588</t>
+  </si>
+  <si>
+    <t>17.09.202589</t>
+  </si>
+  <si>
+    <t>17.09.202590</t>
+  </si>
+  <si>
+    <t>17.09.202591</t>
+  </si>
+  <si>
+    <t>17.09.202592</t>
+  </si>
+  <si>
+    <t>17.09.202593</t>
+  </si>
+  <si>
+    <t>17.09.202594</t>
+  </si>
+  <si>
+    <t>17.09.202595</t>
+  </si>
+  <si>
+    <t>17.09.202596</t>
+  </si>
+  <si>
+    <t>18.09.20251</t>
+  </si>
+  <si>
+    <t>18.09.20252</t>
+  </si>
+  <si>
+    <t>18.09.20253</t>
+  </si>
+  <si>
+    <t>18.09.20254</t>
+  </si>
+  <si>
+    <t>18.09.20255</t>
+  </si>
+  <si>
+    <t>18.09.20256</t>
+  </si>
+  <si>
+    <t>18.09.20257</t>
+  </si>
+  <si>
+    <t>18.09.20258</t>
+  </si>
+  <si>
+    <t>18.09.20259</t>
+  </si>
+  <si>
+    <t>18.09.202510</t>
+  </si>
+  <si>
+    <t>18.09.202511</t>
+  </si>
+  <si>
+    <t>18.09.202512</t>
+  </si>
+  <si>
+    <t>18.09.202513</t>
+  </si>
+  <si>
+    <t>18.09.202514</t>
+  </si>
+  <si>
+    <t>18.09.202515</t>
+  </si>
+  <si>
+    <t>18.09.202516</t>
+  </si>
+  <si>
+    <t>18.09.202517</t>
+  </si>
+  <si>
+    <t>18.09.202518</t>
+  </si>
+  <si>
+    <t>18.09.202519</t>
+  </si>
+  <si>
+    <t>18.09.202520</t>
+  </si>
+  <si>
+    <t>18.09.202521</t>
+  </si>
+  <si>
+    <t>18.09.202522</t>
+  </si>
+  <si>
+    <t>18.09.202523</t>
+  </si>
+  <si>
+    <t>18.09.202524</t>
+  </si>
+  <si>
+    <t>18.09.202525</t>
+  </si>
+  <si>
+    <t>18.09.202526</t>
+  </si>
+  <si>
+    <t>18.09.202527</t>
+  </si>
+  <si>
+    <t>18.09.202528</t>
+  </si>
+  <si>
+    <t>18.09.202529</t>
+  </si>
+  <si>
+    <t>18.09.202530</t>
+  </si>
+  <si>
+    <t>18.09.202531</t>
+  </si>
+  <si>
+    <t>18.09.202532</t>
+  </si>
+  <si>
+    <t>18.09.202533</t>
+  </si>
+  <si>
+    <t>18.09.202534</t>
+  </si>
+  <si>
+    <t>18.09.202535</t>
+  </si>
+  <si>
+    <t>18.09.202536</t>
+  </si>
+  <si>
+    <t>18.09.202537</t>
+  </si>
+  <si>
+    <t>18.09.202538</t>
+  </si>
+  <si>
+    <t>18.09.202539</t>
+  </si>
+  <si>
+    <t>18.09.202540</t>
+  </si>
+  <si>
+    <t>18.09.202541</t>
+  </si>
+  <si>
+    <t>18.09.202542</t>
+  </si>
+  <si>
+    <t>18.09.202543</t>
+  </si>
+  <si>
+    <t>18.09.202544</t>
+  </si>
+  <si>
+    <t>18.09.202545</t>
+  </si>
+  <si>
+    <t>18.09.202546</t>
+  </si>
+  <si>
+    <t>18.09.202547</t>
+  </si>
+  <si>
+    <t>18.09.202548</t>
+  </si>
+  <si>
+    <t>18.09.202549</t>
+  </si>
+  <si>
+    <t>18.09.202550</t>
+  </si>
+  <si>
+    <t>18.09.202551</t>
+  </si>
+  <si>
+    <t>18.09.202552</t>
+  </si>
+  <si>
+    <t>18.09.202553</t>
+  </si>
+  <si>
+    <t>18.09.202554</t>
+  </si>
+  <si>
+    <t>18.09.202555</t>
+  </si>
+  <si>
+    <t>18.09.202556</t>
+  </si>
+  <si>
+    <t>18.09.202557</t>
+  </si>
+  <si>
+    <t>18.09.202558</t>
+  </si>
+  <si>
+    <t>18.09.202559</t>
+  </si>
+  <si>
+    <t>18.09.202560</t>
+  </si>
+  <si>
+    <t>18.09.202561</t>
+  </si>
+  <si>
+    <t>18.09.202562</t>
+  </si>
+  <si>
+    <t>18.09.202563</t>
+  </si>
+  <si>
+    <t>18.09.202564</t>
+  </si>
+  <si>
+    <t>18.09.202565</t>
+  </si>
+  <si>
+    <t>18.09.202566</t>
+  </si>
+  <si>
+    <t>18.09.202567</t>
+  </si>
+  <si>
+    <t>18.09.202568</t>
+  </si>
+  <si>
+    <t>18.09.202569</t>
+  </si>
+  <si>
+    <t>18.09.202570</t>
+  </si>
+  <si>
+    <t>18.09.202571</t>
+  </si>
+  <si>
+    <t>18.09.202572</t>
+  </si>
+  <si>
+    <t>18.09.202573</t>
+  </si>
+  <si>
+    <t>18.09.202574</t>
+  </si>
+  <si>
+    <t>18.09.202575</t>
+  </si>
+  <si>
+    <t>18.09.202576</t>
+  </si>
+  <si>
+    <t>18.09.202577</t>
+  </si>
+  <si>
+    <t>18.09.202578</t>
+  </si>
+  <si>
+    <t>18.09.202579</t>
+  </si>
+  <si>
+    <t>18.09.202580</t>
+  </si>
+  <si>
+    <t>18.09.202581</t>
+  </si>
+  <si>
+    <t>18.09.202582</t>
+  </si>
+  <si>
+    <t>18.09.202583</t>
+  </si>
+  <si>
+    <t>18.09.202584</t>
+  </si>
+  <si>
+    <t>18.09.202585</t>
+  </si>
+  <si>
+    <t>18.09.202586</t>
+  </si>
+  <si>
+    <t>18.09.202587</t>
+  </si>
+  <si>
+    <t>18.09.202588</t>
+  </si>
+  <si>
+    <t>18.09.202589</t>
+  </si>
+  <si>
+    <t>18.09.202590</t>
+  </si>
+  <si>
+    <t>18.09.202591</t>
+  </si>
+  <si>
+    <t>18.09.202592</t>
+  </si>
+  <si>
+    <t>18.09.202593</t>
+  </si>
+  <si>
+    <t>18.09.202594</t>
+  </si>
+  <si>
+    <t>18.09.202595</t>
+  </si>
+  <si>
+    <t>18.09.202596</t>
   </si>
 </sst>
 </file>
@@ -985,10 +985,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45889</v>
+        <v>45917</v>
       </c>
       <c r="B2">
-        <v>5340</v>
+        <v>5273</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -999,10 +999,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45889.01041666666</v>
+        <v>45917.01041666666</v>
       </c>
       <c r="B3">
-        <v>5303</v>
+        <v>5270</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45889.02083333334</v>
+        <v>45917.02083333334</v>
       </c>
       <c r="B4">
-        <v>5242</v>
+        <v>5185</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45889.03125</v>
+        <v>45917.03125</v>
       </c>
       <c r="B5">
-        <v>5233</v>
+        <v>5150</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45889.04166666666</v>
+        <v>45917.04166666666</v>
       </c>
       <c r="B6">
-        <v>5237</v>
+        <v>5145</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45889.05208333334</v>
+        <v>45917.05208333334</v>
       </c>
       <c r="B7">
-        <v>5215</v>
+        <v>5162</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45889.0625</v>
+        <v>45917.0625</v>
       </c>
       <c r="B8">
-        <v>5164</v>
+        <v>5126</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45889.07291666666</v>
+        <v>45917.07291666666</v>
       </c>
       <c r="B9">
-        <v>5178</v>
+        <v>5097</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45889.08333333334</v>
+        <v>45917.08333333334</v>
       </c>
       <c r="B10">
-        <v>5196</v>
+        <v>5010</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1111,10 +1111,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45889.09375</v>
+        <v>45917.09375</v>
       </c>
       <c r="B11">
-        <v>5172</v>
+        <v>5055</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45889.10416666666</v>
+        <v>45917.10416666666</v>
       </c>
       <c r="B12">
-        <v>5140</v>
+        <v>5110</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1139,10 +1139,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45889.11458333334</v>
+        <v>45917.11458333334</v>
       </c>
       <c r="B13">
-        <v>5133</v>
+        <v>5088</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45889.125</v>
+        <v>45917.125</v>
       </c>
       <c r="B14">
-        <v>5093</v>
+        <v>5120</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45889.13541666666</v>
+        <v>45917.13541666666</v>
       </c>
       <c r="B15">
-        <v>5055</v>
+        <v>5077</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1181,10 +1181,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45889.14583333334</v>
+        <v>45917.14583333334</v>
       </c>
       <c r="B16">
-        <v>5070</v>
+        <v>5074</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45889.15625</v>
+        <v>45917.15625</v>
       </c>
       <c r="B17">
-        <v>5080</v>
+        <v>5121</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1209,10 +1209,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45889.16666666666</v>
+        <v>45917.16666666666</v>
       </c>
       <c r="B18">
-        <v>5142</v>
+        <v>5166</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1223,10 +1223,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45889.17708333334</v>
+        <v>45917.17708333334</v>
       </c>
       <c r="B19">
-        <v>5190</v>
+        <v>5267</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1237,10 +1237,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45889.1875</v>
+        <v>45917.1875</v>
       </c>
       <c r="B20">
-        <v>5229</v>
+        <v>5301</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45889.19791666666</v>
+        <v>45917.19791666666</v>
       </c>
       <c r="B21">
-        <v>5260</v>
+        <v>5337</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45889.20833333334</v>
+        <v>45917.20833333334</v>
       </c>
       <c r="B22">
-        <v>5356</v>
+        <v>5515</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45889.21875</v>
+        <v>45917.21875</v>
       </c>
       <c r="B23">
-        <v>5404</v>
+        <v>5659</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1293,10 +1293,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45889.22916666666</v>
+        <v>45917.22916666666</v>
       </c>
       <c r="B24">
-        <v>5507</v>
+        <v>5763</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45889.23958333334</v>
+        <v>45917.23958333334</v>
       </c>
       <c r="B25">
-        <v>5578</v>
+        <v>5887</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45889.25</v>
+        <v>45917.25</v>
       </c>
       <c r="B26">
-        <v>5725</v>
+        <v>6085</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45889.26041666666</v>
+        <v>45917.26041666666</v>
       </c>
       <c r="B27">
-        <v>5828</v>
+        <v>6265</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45889.27083333334</v>
+        <v>45917.27083333334</v>
       </c>
       <c r="B28">
-        <v>5881</v>
+        <v>6421</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45889.28125</v>
+        <v>45917.28125</v>
       </c>
       <c r="B29">
-        <v>5920</v>
+        <v>6503</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45889.29166666666</v>
+        <v>45917.29166666666</v>
       </c>
       <c r="B30">
-        <v>5948</v>
+        <v>6640</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1391,10 +1391,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45889.30208333334</v>
+        <v>45917.30208333334</v>
       </c>
       <c r="B31">
-        <v>5915</v>
+        <v>6770</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45889.3125</v>
+        <v>45917.3125</v>
       </c>
       <c r="B32">
-        <v>5890</v>
+        <v>6796</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1419,10 +1419,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45889.32291666666</v>
+        <v>45917.32291666666</v>
       </c>
       <c r="B33">
-        <v>5738</v>
+        <v>6739</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1433,10 +1433,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45889.33333333334</v>
+        <v>45917.33333333334</v>
       </c>
       <c r="B34">
-        <v>5685</v>
+        <v>6802</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1447,10 +1447,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45889.34375</v>
+        <v>45917.34375</v>
       </c>
       <c r="B35">
-        <v>5647</v>
+        <v>6957</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45889.35416666666</v>
+        <v>45917.35416666666</v>
       </c>
       <c r="B36">
-        <v>5584</v>
+        <v>6934</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45889.36458333334</v>
+        <v>45917.36458333334</v>
       </c>
       <c r="B37">
-        <v>5463</v>
+        <v>6836</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1489,10 +1489,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45889.375</v>
+        <v>45917.375</v>
       </c>
       <c r="B38">
-        <v>5347</v>
+        <v>6676</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45889.38541666666</v>
+        <v>45917.38541666666</v>
       </c>
       <c r="B39">
-        <v>5230</v>
+        <v>6655</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45889.39583333334</v>
+        <v>45917.39583333334</v>
       </c>
       <c r="B40">
-        <v>5181</v>
+        <v>6627</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45889.40625</v>
+        <v>45917.40625</v>
       </c>
       <c r="B41">
-        <v>5148</v>
+        <v>6505</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45889.41666666666</v>
+        <v>45917.41666666666</v>
       </c>
       <c r="B42">
-        <v>5008</v>
+        <v>6372</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45889.42708333334</v>
+        <v>45917.42708333334</v>
       </c>
       <c r="B43">
-        <v>4982</v>
+        <v>6279</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45889.4375</v>
+        <v>45917.4375</v>
       </c>
       <c r="B44">
-        <v>4955</v>
+        <v>6254</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45889.44791666666</v>
+        <v>45917.44791666666</v>
       </c>
       <c r="B45">
-        <v>4939</v>
+        <v>6169</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45889.45833333334</v>
+        <v>45917.45833333334</v>
       </c>
       <c r="B46">
-        <v>4935</v>
+        <v>5998</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45889.46875</v>
+        <v>45917.46875</v>
       </c>
       <c r="B47">
-        <v>4895</v>
+        <v>5966</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45889.47916666666</v>
+        <v>45917.47916666666</v>
       </c>
       <c r="B48">
-        <v>4931</v>
+        <v>5956</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1643,10 +1643,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45889.48958333334</v>
+        <v>45917.48958333334</v>
       </c>
       <c r="B49">
-        <v>4945</v>
+        <v>5995</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45889.5</v>
+        <v>45917.5</v>
       </c>
       <c r="B50">
-        <v>5026</v>
+        <v>6002</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1671,10 +1671,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45889.51041666666</v>
+        <v>45917.51041666666</v>
       </c>
       <c r="B51">
-        <v>5063</v>
+        <v>5947</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45889.52083333334</v>
+        <v>45917.52083333334</v>
       </c>
       <c r="B52">
-        <v>5060</v>
+        <v>5955</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1699,10 +1699,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45889.53125</v>
+        <v>45917.53125</v>
       </c>
       <c r="B53">
-        <v>5062</v>
+        <v>5842</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45889.54166666666</v>
+        <v>45917.54166666666</v>
       </c>
       <c r="B54">
-        <v>5095</v>
+        <v>5847</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45889.55208333334</v>
+        <v>45917.55208333334</v>
       </c>
       <c r="B55">
-        <v>5115</v>
+        <v>5804</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45889.5625</v>
+        <v>45917.5625</v>
       </c>
       <c r="B56">
-        <v>5192</v>
+        <v>5725</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -1755,10 +1755,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45889.57291666666</v>
+        <v>45917.57291666666</v>
       </c>
       <c r="B57">
-        <v>5196</v>
+        <v>5681</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45889.58333333334</v>
+        <v>45917.58333333334</v>
       </c>
       <c r="B58">
-        <v>5249</v>
+        <v>5765</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45889.59375</v>
+        <v>45917.59375</v>
       </c>
       <c r="B59">
-        <v>5310</v>
+        <v>5768</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45889.60416666666</v>
+        <v>45917.60416666666</v>
       </c>
       <c r="B60">
-        <v>5353</v>
+        <v>5768</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -1811,10 +1811,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45889.61458333334</v>
+        <v>45917.61458333334</v>
       </c>
       <c r="B61">
-        <v>5376</v>
+        <v>5723</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45889.625</v>
+        <v>45917.625</v>
       </c>
       <c r="B62">
-        <v>5502</v>
+        <v>5661</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45889.63541666666</v>
+        <v>45917.63541666666</v>
       </c>
       <c r="B63">
-        <v>5509</v>
+        <v>5671</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -1853,10 +1853,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45889.64583333334</v>
+        <v>45917.64583333334</v>
       </c>
       <c r="B64">
-        <v>5561</v>
+        <v>5764</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45889.65625</v>
+        <v>45917.65625</v>
       </c>
       <c r="B65">
-        <v>5660</v>
+        <v>5805</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45889.66666666666</v>
+        <v>45917.66666666666</v>
       </c>
       <c r="B66">
-        <v>5721</v>
+        <v>5861</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45889.67708333334</v>
+        <v>45917.67708333334</v>
       </c>
       <c r="B67">
-        <v>5798</v>
+        <v>5954</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45889.6875</v>
+        <v>45917.6875</v>
       </c>
       <c r="B68">
-        <v>5892</v>
+        <v>6015</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45889.69791666666</v>
+        <v>45917.69791666666</v>
       </c>
       <c r="B69">
-        <v>6050</v>
+        <v>6077</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45889.70833333334</v>
+        <v>45917.70833333334</v>
       </c>
       <c r="B70">
-        <v>6177</v>
+        <v>6240</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45889.71875</v>
+        <v>45917.71875</v>
       </c>
       <c r="B71">
-        <v>6291</v>
+        <v>6361</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45889.72916666666</v>
+        <v>45917.72916666666</v>
       </c>
       <c r="B72">
-        <v>6391</v>
+        <v>6498</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45889.73958333334</v>
+        <v>45917.73958333334</v>
       </c>
       <c r="B73">
-        <v>6515</v>
+        <v>6524</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45889.75</v>
+        <v>45917.75</v>
       </c>
       <c r="B74">
-        <v>6699</v>
+        <v>6572</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -2007,10 +2007,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45889.76041666666</v>
+        <v>45917.76041666666</v>
       </c>
       <c r="B75">
-        <v>6797</v>
+        <v>6729</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45889.77083333334</v>
+        <v>45917.77083333334</v>
       </c>
       <c r="B76">
-        <v>6899</v>
+        <v>6904</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45889.78125</v>
+        <v>45917.78125</v>
       </c>
       <c r="B77">
-        <v>6983</v>
+        <v>7021</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -2049,10 +2049,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45889.79166666666</v>
+        <v>45917.79166666666</v>
       </c>
       <c r="B78">
-        <v>6958</v>
+        <v>7059</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45889.80208333334</v>
+        <v>45917.80208333334</v>
       </c>
       <c r="B79">
-        <v>7003</v>
+        <v>7063</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45889.8125</v>
+        <v>45917.8125</v>
       </c>
       <c r="B80">
-        <v>7093</v>
+        <v>7048</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45889.82291666666</v>
+        <v>45917.82291666666</v>
       </c>
       <c r="B81">
-        <v>7157</v>
+        <v>7020</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -2105,10 +2105,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45889.83333333334</v>
+        <v>45917.83333333334</v>
       </c>
       <c r="B82">
-        <v>7153</v>
+        <v>6901</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45889.84375</v>
+        <v>45917.84375</v>
       </c>
       <c r="B83">
-        <v>7124</v>
+        <v>6806</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -2133,10 +2133,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45889.85416666666</v>
+        <v>45917.85416666666</v>
       </c>
       <c r="B84">
-        <v>7059</v>
+        <v>6698</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45889.86458333334</v>
+        <v>45917.86458333334</v>
       </c>
       <c r="B85">
-        <v>6928</v>
+        <v>6574</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -2161,10 +2161,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45889.875</v>
+        <v>45917.875</v>
       </c>
       <c r="B86">
-        <v>6737</v>
+        <v>6365</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45889.88541666666</v>
+        <v>45917.88541666666</v>
       </c>
       <c r="B87">
-        <v>6585</v>
+        <v>6292</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -2189,10 +2189,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45889.89583333334</v>
+        <v>45917.89583333334</v>
       </c>
       <c r="B88">
-        <v>6447</v>
+        <v>6183</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45889.90625</v>
+        <v>45917.90625</v>
       </c>
       <c r="B89">
-        <v>6333</v>
+        <v>6049</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45889.91666666666</v>
+        <v>45917.91666666666</v>
       </c>
       <c r="B90">
-        <v>6086</v>
+        <v>5773</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45889.92708333334</v>
+        <v>45917.92708333334</v>
       </c>
       <c r="B91">
-        <v>6002</v>
+        <v>5627</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45889.9375</v>
+        <v>45917.9375</v>
       </c>
       <c r="B92">
-        <v>5874</v>
+        <v>5566</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45889.94791666666</v>
+        <v>45917.94791666666</v>
       </c>
       <c r="B93">
-        <v>5773</v>
+        <v>5490</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -2273,10 +2273,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45889.95833333334</v>
+        <v>45917.95833333334</v>
       </c>
       <c r="B94">
-        <v>5681</v>
+        <v>5371</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45889.96875</v>
+        <v>45917.96875</v>
       </c>
       <c r="B95">
-        <v>5612</v>
+        <v>5275</v>
       </c>
       <c r="C95">
         <v>94</v>
@@ -2301,10 +2301,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45889.97916666666</v>
+        <v>45917.97916666666</v>
       </c>
       <c r="B96">
-        <v>5521</v>
+        <v>5200</v>
       </c>
       <c r="C96">
         <v>95</v>
@@ -2315,10 +2315,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>45889.98958333334</v>
+        <v>45917.98958333334</v>
       </c>
       <c r="B97">
-        <v>5460</v>
+        <v>5184</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>45890</v>
+        <v>45918</v>
       </c>
       <c r="B98">
-        <v>5371</v>
+        <v>5184</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>45890.01041666666</v>
+        <v>45918.01041666666</v>
       </c>
       <c r="B99">
-        <v>5337</v>
+        <v>5139</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>45890.02083333334</v>
+        <v>45918.02083333334</v>
       </c>
       <c r="B100">
-        <v>5300</v>
+        <v>5137</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2371,10 +2371,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>45890.03125</v>
+        <v>45918.03125</v>
       </c>
       <c r="B101">
-        <v>5252</v>
+        <v>5095</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>45890.04166666666</v>
+        <v>45918.04166666666</v>
       </c>
       <c r="B102">
-        <v>5213</v>
+        <v>4961</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>45890.05208333334</v>
+        <v>45918.05208333334</v>
       </c>
       <c r="B103">
-        <v>5190</v>
+        <v>5014</v>
       </c>
       <c r="C103">
         <v>6</v>
@@ -2413,10 +2413,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>45890.0625</v>
+        <v>45918.0625</v>
       </c>
       <c r="B104">
-        <v>5171</v>
+        <v>4980</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -2427,10 +2427,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>45890.07291666666</v>
+        <v>45918.07291666666</v>
       </c>
       <c r="B105">
-        <v>5136</v>
+        <v>4962</v>
       </c>
       <c r="C105">
         <v>8</v>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>45890.08333333334</v>
+        <v>45918.08333333334</v>
       </c>
       <c r="B106">
-        <v>5121</v>
+        <v>4860</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -2455,10 +2455,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>45890.09375</v>
+        <v>45918.09375</v>
       </c>
       <c r="B107">
-        <v>5098</v>
+        <v>4926</v>
       </c>
       <c r="C107">
         <v>10</v>
@@ -2469,10 +2469,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>45890.10416666666</v>
+        <v>45918.10416666666</v>
       </c>
       <c r="B108">
-        <v>5085</v>
+        <v>4970</v>
       </c>
       <c r="C108">
         <v>11</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>45890.11458333334</v>
+        <v>45918.11458333334</v>
       </c>
       <c r="B109">
-        <v>5085</v>
+        <v>4926</v>
       </c>
       <c r="C109">
         <v>12</v>
@@ -2497,10 +2497,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>45890.125</v>
+        <v>45918.125</v>
       </c>
       <c r="B110">
-        <v>5083</v>
+        <v>4970</v>
       </c>
       <c r="C110">
         <v>13</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>45890.13541666666</v>
+        <v>45918.13541666666</v>
       </c>
       <c r="B111">
-        <v>5099</v>
+        <v>4936</v>
       </c>
       <c r="C111">
         <v>14</v>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>45890.14583333334</v>
+        <v>45918.14583333334</v>
       </c>
       <c r="B112">
-        <v>5114</v>
+        <v>5016</v>
       </c>
       <c r="C112">
         <v>15</v>
@@ -2539,10 +2539,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>45890.15625</v>
+        <v>45918.15625</v>
       </c>
       <c r="B113">
-        <v>5123</v>
+        <v>4971</v>
       </c>
       <c r="C113">
         <v>16</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>45890.16666666666</v>
+        <v>45918.16666666666</v>
       </c>
       <c r="B114">
-        <v>5174</v>
+        <v>5096</v>
       </c>
       <c r="C114">
         <v>17</v>
@@ -2567,10 +2567,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>45890.17708333334</v>
+        <v>45918.17708333334</v>
       </c>
       <c r="B115">
-        <v>5213</v>
+        <v>5138</v>
       </c>
       <c r="C115">
         <v>18</v>
@@ -2581,10 +2581,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>45890.1875</v>
+        <v>45918.1875</v>
       </c>
       <c r="B116">
-        <v>5261</v>
+        <v>5151</v>
       </c>
       <c r="C116">
         <v>19</v>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>45890.19791666666</v>
+        <v>45918.19791666666</v>
       </c>
       <c r="B117">
-        <v>5312</v>
+        <v>5247</v>
       </c>
       <c r="C117">
         <v>20</v>
@@ -2609,10 +2609,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>45890.20833333334</v>
+        <v>45918.20833333334</v>
       </c>
       <c r="B118">
-        <v>5455</v>
+        <v>5446</v>
       </c>
       <c r="C118">
         <v>21</v>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>45890.21875</v>
+        <v>45918.21875</v>
       </c>
       <c r="B119">
-        <v>5487</v>
+        <v>5551</v>
       </c>
       <c r="C119">
         <v>22</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>45890.22916666666</v>
+        <v>45918.22916666666</v>
       </c>
       <c r="B120">
-        <v>5516</v>
+        <v>5678</v>
       </c>
       <c r="C120">
         <v>23</v>
@@ -2651,10 +2651,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>45890.23958333334</v>
+        <v>45918.23958333334</v>
       </c>
       <c r="B121">
-        <v>5585</v>
+        <v>5764</v>
       </c>
       <c r="C121">
         <v>24</v>
@@ -2665,10 +2665,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>45890.25</v>
+        <v>45918.25</v>
       </c>
       <c r="B122">
-        <v>5792</v>
+        <v>5974</v>
       </c>
       <c r="C122">
         <v>25</v>
@@ -2679,10 +2679,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>45890.26041666666</v>
+        <v>45918.26041666666</v>
       </c>
       <c r="B123">
-        <v>5837</v>
+        <v>6151</v>
       </c>
       <c r="C123">
         <v>26</v>
@@ -2693,10 +2693,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>45890.27083333334</v>
+        <v>45918.27083333334</v>
       </c>
       <c r="B124">
-        <v>5886</v>
+        <v>6227</v>
       </c>
       <c r="C124">
         <v>27</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>45890.28125</v>
+        <v>45918.28125</v>
       </c>
       <c r="B125">
-        <v>5953</v>
+        <v>6263</v>
       </c>
       <c r="C125">
         <v>28</v>
@@ -2721,10 +2721,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>45890.29166666666</v>
+        <v>45918.29166666666</v>
       </c>
       <c r="B126">
-        <v>6013</v>
+        <v>6255</v>
       </c>
       <c r="C126">
         <v>29</v>
@@ -2735,10 +2735,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>45890.30208333334</v>
+        <v>45918.30208333334</v>
       </c>
       <c r="B127">
-        <v>5994</v>
+        <v>6172</v>
       </c>
       <c r="C127">
         <v>30</v>
@@ -2749,10 +2749,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>45890.3125</v>
+        <v>45918.3125</v>
       </c>
       <c r="B128">
-        <v>5974</v>
+        <v>6178</v>
       </c>
       <c r="C128">
         <v>31</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>45890.32291666666</v>
+        <v>45918.32291666666</v>
       </c>
       <c r="B129">
-        <v>5939</v>
+        <v>6171</v>
       </c>
       <c r="C129">
         <v>32</v>
@@ -2777,10 +2777,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>45890.33333333334</v>
+        <v>45918.33333333334</v>
       </c>
       <c r="B130">
-        <v>5814</v>
+        <v>5883</v>
       </c>
       <c r="C130">
         <v>33</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>45890.34375</v>
+        <v>45918.34375</v>
       </c>
       <c r="B131">
-        <v>5851</v>
+        <v>5818</v>
       </c>
       <c r="C131">
         <v>34</v>
@@ -2805,10 +2805,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>45890.35416666666</v>
+        <v>45918.35416666666</v>
       </c>
       <c r="B132">
-        <v>5812</v>
+        <v>5783</v>
       </c>
       <c r="C132">
         <v>35</v>
@@ -2819,10 +2819,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>45890.36458333334</v>
+        <v>45918.36458333334</v>
       </c>
       <c r="B133">
-        <v>5732</v>
+        <v>5616</v>
       </c>
       <c r="C133">
         <v>36</v>
@@ -2833,10 +2833,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>45890.375</v>
+        <v>45918.375</v>
       </c>
       <c r="B134">
-        <v>5712</v>
+        <v>5324</v>
       </c>
       <c r="C134">
         <v>37</v>
@@ -2847,10 +2847,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>45890.38541666666</v>
+        <v>45918.38541666666</v>
       </c>
       <c r="B135">
-        <v>5641</v>
+        <v>5195</v>
       </c>
       <c r="C135">
         <v>38</v>
@@ -2861,10 +2861,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>45890.39583333334</v>
+        <v>45918.39583333334</v>
       </c>
       <c r="B136">
-        <v>5623</v>
+        <v>5135</v>
       </c>
       <c r="C136">
         <v>39</v>
@@ -2875,10 +2875,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>45890.40625</v>
+        <v>45918.40625</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>5055</v>
       </c>
       <c r="C137">
         <v>40</v>
@@ -2889,10 +2889,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>45890.41666666666</v>
+        <v>45918.41666666666</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>4914</v>
       </c>
       <c r="C138">
         <v>41</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>45890.42708333334</v>
+        <v>45918.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>45890.4375</v>
+        <v>45918.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>45890.44791666666</v>
+        <v>45918.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>45890.45833333334</v>
+        <v>45918.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>45890.46875</v>
+        <v>45918.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>45890.47916666666</v>
+        <v>45918.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>45890.48958333334</v>
+        <v>45918.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>45890.5</v>
+        <v>45918.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>45890.51041666666</v>
+        <v>45918.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>45890.52083333334</v>
+        <v>45918.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>45890.53125</v>
+        <v>45918.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>45890.54166666666</v>
+        <v>45918.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>45890.55208333334</v>
+        <v>45918.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>45890.5625</v>
+        <v>45918.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>45890.57291666666</v>
+        <v>45918.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>45890.58333333334</v>
+        <v>45918.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>45890.59375</v>
+        <v>45918.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>45890.60416666666</v>
+        <v>45918.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>45890.61458333334</v>
+        <v>45918.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>45890.625</v>
+        <v>45918.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>45890.63541666666</v>
+        <v>45918.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>45890.64583333334</v>
+        <v>45918.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>45890.65625</v>
+        <v>45918.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>45890.66666666666</v>
+        <v>45918.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>45890.67708333334</v>
+        <v>45918.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>45890.6875</v>
+        <v>45918.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>45890.69791666666</v>
+        <v>45918.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>45890.70833333334</v>
+        <v>45918.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>45890.71875</v>
+        <v>45918.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>45890.72916666666</v>
+        <v>45918.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>45890.73958333334</v>
+        <v>45918.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>45890.75</v>
+        <v>45918.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>45890.76041666666</v>
+        <v>45918.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>45890.77083333334</v>
+        <v>45918.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>45890.78125</v>
+        <v>45918.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>45890.79166666666</v>
+        <v>45918.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>45890.80208333334</v>
+        <v>45918.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>45890.8125</v>
+        <v>45918.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>45890.82291666666</v>
+        <v>45918.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>45890.83333333334</v>
+        <v>45918.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>45890.84375</v>
+        <v>45918.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>45890.85416666666</v>
+        <v>45918.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>45890.86458333334</v>
+        <v>45918.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>45890.875</v>
+        <v>45918.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>45890.88541666666</v>
+        <v>45918.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>45890.89583333334</v>
+        <v>45918.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>45890.90625</v>
+        <v>45918.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>45890.91666666666</v>
+        <v>45918.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>45890.92708333334</v>
+        <v>45918.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>45890.9375</v>
+        <v>45918.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>45890.94791666666</v>
+        <v>45918.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>45890.95833333334</v>
+        <v>45918.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>45890.96875</v>
+        <v>45918.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>45890.97916666666</v>
+        <v>45918.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>45890.98958333334</v>
+        <v>45918.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
@@ -28,294 +28,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>17.09.20251</t>
-  </si>
-  <si>
-    <t>17.09.20252</t>
-  </si>
-  <si>
-    <t>17.09.20253</t>
-  </si>
-  <si>
-    <t>17.09.20254</t>
-  </si>
-  <si>
-    <t>17.09.20255</t>
-  </si>
-  <si>
-    <t>17.09.20256</t>
-  </si>
-  <si>
-    <t>17.09.20257</t>
-  </si>
-  <si>
-    <t>17.09.20258</t>
-  </si>
-  <si>
-    <t>17.09.20259</t>
-  </si>
-  <si>
-    <t>17.09.202510</t>
-  </si>
-  <si>
-    <t>17.09.202511</t>
-  </si>
-  <si>
-    <t>17.09.202512</t>
-  </si>
-  <si>
-    <t>17.09.202513</t>
-  </si>
-  <si>
-    <t>17.09.202514</t>
-  </si>
-  <si>
-    <t>17.09.202515</t>
-  </si>
-  <si>
-    <t>17.09.202516</t>
-  </si>
-  <si>
-    <t>17.09.202517</t>
-  </si>
-  <si>
-    <t>17.09.202518</t>
-  </si>
-  <si>
-    <t>17.09.202519</t>
-  </si>
-  <si>
-    <t>17.09.202520</t>
-  </si>
-  <si>
-    <t>17.09.202521</t>
-  </si>
-  <si>
-    <t>17.09.202522</t>
-  </si>
-  <si>
-    <t>17.09.202523</t>
-  </si>
-  <si>
-    <t>17.09.202524</t>
-  </si>
-  <si>
-    <t>17.09.202525</t>
-  </si>
-  <si>
-    <t>17.09.202526</t>
-  </si>
-  <si>
-    <t>17.09.202527</t>
-  </si>
-  <si>
-    <t>17.09.202528</t>
-  </si>
-  <si>
-    <t>17.09.202529</t>
-  </si>
-  <si>
-    <t>17.09.202530</t>
-  </si>
-  <si>
-    <t>17.09.202531</t>
-  </si>
-  <si>
-    <t>17.09.202532</t>
-  </si>
-  <si>
-    <t>17.09.202533</t>
-  </si>
-  <si>
-    <t>17.09.202534</t>
-  </si>
-  <si>
-    <t>17.09.202535</t>
-  </si>
-  <si>
-    <t>17.09.202536</t>
-  </si>
-  <si>
-    <t>17.09.202537</t>
-  </si>
-  <si>
-    <t>17.09.202538</t>
-  </si>
-  <si>
-    <t>17.09.202539</t>
-  </si>
-  <si>
-    <t>17.09.202540</t>
-  </si>
-  <si>
-    <t>17.09.202541</t>
-  </si>
-  <si>
-    <t>17.09.202542</t>
-  </si>
-  <si>
-    <t>17.09.202543</t>
-  </si>
-  <si>
-    <t>17.09.202544</t>
-  </si>
-  <si>
-    <t>17.09.202545</t>
-  </si>
-  <si>
-    <t>17.09.202546</t>
-  </si>
-  <si>
-    <t>17.09.202547</t>
-  </si>
-  <si>
-    <t>17.09.202548</t>
-  </si>
-  <si>
-    <t>17.09.202549</t>
-  </si>
-  <si>
-    <t>17.09.202550</t>
-  </si>
-  <si>
-    <t>17.09.202551</t>
-  </si>
-  <si>
-    <t>17.09.202552</t>
-  </si>
-  <si>
-    <t>17.09.202553</t>
-  </si>
-  <si>
-    <t>17.09.202554</t>
-  </si>
-  <si>
-    <t>17.09.202555</t>
-  </si>
-  <si>
-    <t>17.09.202556</t>
-  </si>
-  <si>
-    <t>17.09.202557</t>
-  </si>
-  <si>
-    <t>17.09.202558</t>
-  </si>
-  <si>
-    <t>17.09.202559</t>
-  </si>
-  <si>
-    <t>17.09.202560</t>
-  </si>
-  <si>
-    <t>17.09.202561</t>
-  </si>
-  <si>
-    <t>17.09.202562</t>
-  </si>
-  <si>
-    <t>17.09.202563</t>
-  </si>
-  <si>
-    <t>17.09.202564</t>
-  </si>
-  <si>
-    <t>17.09.202565</t>
-  </si>
-  <si>
-    <t>17.09.202566</t>
-  </si>
-  <si>
-    <t>17.09.202567</t>
-  </si>
-  <si>
-    <t>17.09.202568</t>
-  </si>
-  <si>
-    <t>17.09.202569</t>
-  </si>
-  <si>
-    <t>17.09.202570</t>
-  </si>
-  <si>
-    <t>17.09.202571</t>
-  </si>
-  <si>
-    <t>17.09.202572</t>
-  </si>
-  <si>
-    <t>17.09.202573</t>
-  </si>
-  <si>
-    <t>17.09.202574</t>
-  </si>
-  <si>
-    <t>17.09.202575</t>
-  </si>
-  <si>
-    <t>17.09.202576</t>
-  </si>
-  <si>
-    <t>17.09.202577</t>
-  </si>
-  <si>
-    <t>17.09.202578</t>
-  </si>
-  <si>
-    <t>17.09.202579</t>
-  </si>
-  <si>
-    <t>17.09.202580</t>
-  </si>
-  <si>
-    <t>17.09.202581</t>
-  </si>
-  <si>
-    <t>17.09.202582</t>
-  </si>
-  <si>
-    <t>17.09.202583</t>
-  </si>
-  <si>
-    <t>17.09.202584</t>
-  </si>
-  <si>
-    <t>17.09.202585</t>
-  </si>
-  <si>
-    <t>17.09.202586</t>
-  </si>
-  <si>
-    <t>17.09.202587</t>
-  </si>
-  <si>
-    <t>17.09.202588</t>
-  </si>
-  <si>
-    <t>17.09.202589</t>
-  </si>
-  <si>
-    <t>17.09.202590</t>
-  </si>
-  <si>
-    <t>17.09.202591</t>
-  </si>
-  <si>
-    <t>17.09.202592</t>
-  </si>
-  <si>
-    <t>17.09.202593</t>
-  </si>
-  <si>
-    <t>17.09.202594</t>
-  </si>
-  <si>
-    <t>17.09.202595</t>
-  </si>
-  <si>
-    <t>17.09.202596</t>
-  </si>
-  <si>
     <t>18.09.20251</t>
   </si>
   <si>
@@ -602,6 +314,294 @@
   </si>
   <si>
     <t>18.09.202596</t>
+  </si>
+  <si>
+    <t>19.09.20251</t>
+  </si>
+  <si>
+    <t>19.09.20252</t>
+  </si>
+  <si>
+    <t>19.09.20253</t>
+  </si>
+  <si>
+    <t>19.09.20254</t>
+  </si>
+  <si>
+    <t>19.09.20255</t>
+  </si>
+  <si>
+    <t>19.09.20256</t>
+  </si>
+  <si>
+    <t>19.09.20257</t>
+  </si>
+  <si>
+    <t>19.09.20258</t>
+  </si>
+  <si>
+    <t>19.09.20259</t>
+  </si>
+  <si>
+    <t>19.09.202510</t>
+  </si>
+  <si>
+    <t>19.09.202511</t>
+  </si>
+  <si>
+    <t>19.09.202512</t>
+  </si>
+  <si>
+    <t>19.09.202513</t>
+  </si>
+  <si>
+    <t>19.09.202514</t>
+  </si>
+  <si>
+    <t>19.09.202515</t>
+  </si>
+  <si>
+    <t>19.09.202516</t>
+  </si>
+  <si>
+    <t>19.09.202517</t>
+  </si>
+  <si>
+    <t>19.09.202518</t>
+  </si>
+  <si>
+    <t>19.09.202519</t>
+  </si>
+  <si>
+    <t>19.09.202520</t>
+  </si>
+  <si>
+    <t>19.09.202521</t>
+  </si>
+  <si>
+    <t>19.09.202522</t>
+  </si>
+  <si>
+    <t>19.09.202523</t>
+  </si>
+  <si>
+    <t>19.09.202524</t>
+  </si>
+  <si>
+    <t>19.09.202525</t>
+  </si>
+  <si>
+    <t>19.09.202526</t>
+  </si>
+  <si>
+    <t>19.09.202527</t>
+  </si>
+  <si>
+    <t>19.09.202528</t>
+  </si>
+  <si>
+    <t>19.09.202529</t>
+  </si>
+  <si>
+    <t>19.09.202530</t>
+  </si>
+  <si>
+    <t>19.09.202531</t>
+  </si>
+  <si>
+    <t>19.09.202532</t>
+  </si>
+  <si>
+    <t>19.09.202533</t>
+  </si>
+  <si>
+    <t>19.09.202534</t>
+  </si>
+  <si>
+    <t>19.09.202535</t>
+  </si>
+  <si>
+    <t>19.09.202536</t>
+  </si>
+  <si>
+    <t>19.09.202537</t>
+  </si>
+  <si>
+    <t>19.09.202538</t>
+  </si>
+  <si>
+    <t>19.09.202539</t>
+  </si>
+  <si>
+    <t>19.09.202540</t>
+  </si>
+  <si>
+    <t>19.09.202541</t>
+  </si>
+  <si>
+    <t>19.09.202542</t>
+  </si>
+  <si>
+    <t>19.09.202543</t>
+  </si>
+  <si>
+    <t>19.09.202544</t>
+  </si>
+  <si>
+    <t>19.09.202545</t>
+  </si>
+  <si>
+    <t>19.09.202546</t>
+  </si>
+  <si>
+    <t>19.09.202547</t>
+  </si>
+  <si>
+    <t>19.09.202548</t>
+  </si>
+  <si>
+    <t>19.09.202549</t>
+  </si>
+  <si>
+    <t>19.09.202550</t>
+  </si>
+  <si>
+    <t>19.09.202551</t>
+  </si>
+  <si>
+    <t>19.09.202552</t>
+  </si>
+  <si>
+    <t>19.09.202553</t>
+  </si>
+  <si>
+    <t>19.09.202554</t>
+  </si>
+  <si>
+    <t>19.09.202555</t>
+  </si>
+  <si>
+    <t>19.09.202556</t>
+  </si>
+  <si>
+    <t>19.09.202557</t>
+  </si>
+  <si>
+    <t>19.09.202558</t>
+  </si>
+  <si>
+    <t>19.09.202559</t>
+  </si>
+  <si>
+    <t>19.09.202560</t>
+  </si>
+  <si>
+    <t>19.09.202561</t>
+  </si>
+  <si>
+    <t>19.09.202562</t>
+  </si>
+  <si>
+    <t>19.09.202563</t>
+  </si>
+  <si>
+    <t>19.09.202564</t>
+  </si>
+  <si>
+    <t>19.09.202565</t>
+  </si>
+  <si>
+    <t>19.09.202566</t>
+  </si>
+  <si>
+    <t>19.09.202567</t>
+  </si>
+  <si>
+    <t>19.09.202568</t>
+  </si>
+  <si>
+    <t>19.09.202569</t>
+  </si>
+  <si>
+    <t>19.09.202570</t>
+  </si>
+  <si>
+    <t>19.09.202571</t>
+  </si>
+  <si>
+    <t>19.09.202572</t>
+  </si>
+  <si>
+    <t>19.09.202573</t>
+  </si>
+  <si>
+    <t>19.09.202574</t>
+  </si>
+  <si>
+    <t>19.09.202575</t>
+  </si>
+  <si>
+    <t>19.09.202576</t>
+  </si>
+  <si>
+    <t>19.09.202577</t>
+  </si>
+  <si>
+    <t>19.09.202578</t>
+  </si>
+  <si>
+    <t>19.09.202579</t>
+  </si>
+  <si>
+    <t>19.09.202580</t>
+  </si>
+  <si>
+    <t>19.09.202581</t>
+  </si>
+  <si>
+    <t>19.09.202582</t>
+  </si>
+  <si>
+    <t>19.09.202583</t>
+  </si>
+  <si>
+    <t>19.09.202584</t>
+  </si>
+  <si>
+    <t>19.09.202585</t>
+  </si>
+  <si>
+    <t>19.09.202586</t>
+  </si>
+  <si>
+    <t>19.09.202587</t>
+  </si>
+  <si>
+    <t>19.09.202588</t>
+  </si>
+  <si>
+    <t>19.09.202589</t>
+  </si>
+  <si>
+    <t>19.09.202590</t>
+  </si>
+  <si>
+    <t>19.09.202591</t>
+  </si>
+  <si>
+    <t>19.09.202592</t>
+  </si>
+  <si>
+    <t>19.09.202593</t>
+  </si>
+  <si>
+    <t>19.09.202594</t>
+  </si>
+  <si>
+    <t>19.09.202595</t>
+  </si>
+  <si>
+    <t>19.09.202596</t>
   </si>
 </sst>
 </file>
@@ -985,10 +985,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="B2">
-        <v>5273</v>
+        <v>5184</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -999,10 +999,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45917.01041666666</v>
+        <v>45918.01041666666</v>
       </c>
       <c r="B3">
-        <v>5270</v>
+        <v>5139</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45917.02083333334</v>
+        <v>45918.02083333334</v>
       </c>
       <c r="B4">
-        <v>5185</v>
+        <v>5137</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45917.03125</v>
+        <v>45918.03125</v>
       </c>
       <c r="B5">
-        <v>5150</v>
+        <v>5095</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45917.04166666666</v>
+        <v>45918.04166666666</v>
       </c>
       <c r="B6">
-        <v>5145</v>
+        <v>4961</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45917.05208333334</v>
+        <v>45918.05208333334</v>
       </c>
       <c r="B7">
-        <v>5162</v>
+        <v>5014</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45917.0625</v>
+        <v>45918.0625</v>
       </c>
       <c r="B8">
-        <v>5126</v>
+        <v>4980</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45917.07291666666</v>
+        <v>45918.07291666666</v>
       </c>
       <c r="B9">
-        <v>5097</v>
+        <v>4962</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45917.08333333334</v>
+        <v>45918.08333333334</v>
       </c>
       <c r="B10">
-        <v>5010</v>
+        <v>4860</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1111,10 +1111,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45917.09375</v>
+        <v>45918.09375</v>
       </c>
       <c r="B11">
-        <v>5055</v>
+        <v>4926</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45917.10416666666</v>
+        <v>45918.10416666666</v>
       </c>
       <c r="B12">
-        <v>5110</v>
+        <v>4970</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1139,10 +1139,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45917.11458333334</v>
+        <v>45918.11458333334</v>
       </c>
       <c r="B13">
-        <v>5088</v>
+        <v>4926</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45917.125</v>
+        <v>45918.125</v>
       </c>
       <c r="B14">
-        <v>5120</v>
+        <v>4970</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45917.13541666666</v>
+        <v>45918.13541666666</v>
       </c>
       <c r="B15">
-        <v>5077</v>
+        <v>4936</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1181,10 +1181,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45917.14583333334</v>
+        <v>45918.14583333334</v>
       </c>
       <c r="B16">
-        <v>5074</v>
+        <v>5016</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45917.15625</v>
+        <v>45918.15625</v>
       </c>
       <c r="B17">
-        <v>5121</v>
+        <v>4971</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1209,10 +1209,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45917.16666666666</v>
+        <v>45918.16666666666</v>
       </c>
       <c r="B18">
-        <v>5166</v>
+        <v>5096</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1223,10 +1223,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45917.17708333334</v>
+        <v>45918.17708333334</v>
       </c>
       <c r="B19">
-        <v>5267</v>
+        <v>5138</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1237,10 +1237,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45917.1875</v>
+        <v>45918.1875</v>
       </c>
       <c r="B20">
-        <v>5301</v>
+        <v>5151</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45917.19791666666</v>
+        <v>45918.19791666666</v>
       </c>
       <c r="B21">
-        <v>5337</v>
+        <v>5247</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45917.20833333334</v>
+        <v>45918.20833333334</v>
       </c>
       <c r="B22">
-        <v>5515</v>
+        <v>5446</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45917.21875</v>
+        <v>45918.21875</v>
       </c>
       <c r="B23">
-        <v>5659</v>
+        <v>5551</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1293,10 +1293,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45917.22916666666</v>
+        <v>45918.22916666666</v>
       </c>
       <c r="B24">
-        <v>5763</v>
+        <v>5678</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45917.23958333334</v>
+        <v>45918.23958333334</v>
       </c>
       <c r="B25">
-        <v>5887</v>
+        <v>5764</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45917.25</v>
+        <v>45918.25</v>
       </c>
       <c r="B26">
-        <v>6085</v>
+        <v>5974</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45917.26041666666</v>
+        <v>45918.26041666666</v>
       </c>
       <c r="B27">
-        <v>6265</v>
+        <v>6151</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45917.27083333334</v>
+        <v>45918.27083333334</v>
       </c>
       <c r="B28">
-        <v>6421</v>
+        <v>6227</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45917.28125</v>
+        <v>45918.28125</v>
       </c>
       <c r="B29">
-        <v>6503</v>
+        <v>6263</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45917.29166666666</v>
+        <v>45918.29166666666</v>
       </c>
       <c r="B30">
-        <v>6640</v>
+        <v>6255</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1391,10 +1391,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45917.30208333334</v>
+        <v>45918.30208333334</v>
       </c>
       <c r="B31">
-        <v>6770</v>
+        <v>6172</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45917.3125</v>
+        <v>45918.3125</v>
       </c>
       <c r="B32">
-        <v>6796</v>
+        <v>6178</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1419,10 +1419,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45917.32291666666</v>
+        <v>45918.32291666666</v>
       </c>
       <c r="B33">
-        <v>6739</v>
+        <v>6171</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1433,10 +1433,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45917.33333333334</v>
+        <v>45918.33333333334</v>
       </c>
       <c r="B34">
-        <v>6802</v>
+        <v>5883</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1447,10 +1447,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45917.34375</v>
+        <v>45918.34375</v>
       </c>
       <c r="B35">
-        <v>6957</v>
+        <v>5818</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45917.35416666666</v>
+        <v>45918.35416666666</v>
       </c>
       <c r="B36">
-        <v>6934</v>
+        <v>5783</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45917.36458333334</v>
+        <v>45918.36458333334</v>
       </c>
       <c r="B37">
-        <v>6836</v>
+        <v>5616</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1489,10 +1489,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45917.375</v>
+        <v>45918.375</v>
       </c>
       <c r="B38">
-        <v>6676</v>
+        <v>5324</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45917.38541666666</v>
+        <v>45918.38541666666</v>
       </c>
       <c r="B39">
-        <v>6655</v>
+        <v>5195</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45917.39583333334</v>
+        <v>45918.39583333334</v>
       </c>
       <c r="B40">
-        <v>6627</v>
+        <v>5135</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45917.40625</v>
+        <v>45918.40625</v>
       </c>
       <c r="B41">
-        <v>6505</v>
+        <v>5055</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45917.41666666666</v>
+        <v>45918.41666666666</v>
       </c>
       <c r="B42">
-        <v>6372</v>
+        <v>4914</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45917.42708333334</v>
+        <v>45918.42708333334</v>
       </c>
       <c r="B43">
-        <v>6279</v>
+        <v>4844</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45917.4375</v>
+        <v>45918.4375</v>
       </c>
       <c r="B44">
-        <v>6254</v>
+        <v>4810</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45917.44791666666</v>
+        <v>45918.44791666666</v>
       </c>
       <c r="B45">
-        <v>6169</v>
+        <v>4752</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45917.45833333334</v>
+        <v>45918.45833333334</v>
       </c>
       <c r="B46">
-        <v>5998</v>
+        <v>4690</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45917.46875</v>
+        <v>45918.46875</v>
       </c>
       <c r="B47">
-        <v>5966</v>
+        <v>4688</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45917.47916666666</v>
+        <v>45918.47916666666</v>
       </c>
       <c r="B48">
-        <v>5956</v>
+        <v>4727</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1643,10 +1643,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45917.48958333334</v>
+        <v>45918.48958333334</v>
       </c>
       <c r="B49">
-        <v>5995</v>
+        <v>4691</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45917.5</v>
+        <v>45918.5</v>
       </c>
       <c r="B50">
-        <v>6002</v>
+        <v>4725</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1671,10 +1671,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45917.51041666666</v>
+        <v>45918.51041666666</v>
       </c>
       <c r="B51">
-        <v>5947</v>
+        <v>4803</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45917.52083333334</v>
+        <v>45918.52083333334</v>
       </c>
       <c r="B52">
-        <v>5955</v>
+        <v>4827</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1699,10 +1699,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45917.53125</v>
+        <v>45918.53125</v>
       </c>
       <c r="B53">
-        <v>5842</v>
+        <v>4828</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45917.54166666666</v>
+        <v>45918.54166666666</v>
       </c>
       <c r="B54">
-        <v>5847</v>
+        <v>4886</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45917.55208333334</v>
+        <v>45918.55208333334</v>
       </c>
       <c r="B55">
-        <v>5804</v>
+        <v>4837</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45917.5625</v>
+        <v>45918.5625</v>
       </c>
       <c r="B56">
-        <v>5725</v>
+        <v>4901</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -1755,10 +1755,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45917.57291666666</v>
+        <v>45918.57291666666</v>
       </c>
       <c r="B57">
-        <v>5681</v>
+        <v>4910</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45917.58333333334</v>
+        <v>45918.58333333334</v>
       </c>
       <c r="B58">
-        <v>5765</v>
+        <v>5027</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45917.59375</v>
+        <v>45918.59375</v>
       </c>
       <c r="B59">
-        <v>5768</v>
+        <v>4980</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45917.60416666666</v>
+        <v>45918.60416666666</v>
       </c>
       <c r="B60">
-        <v>5768</v>
+        <v>5031</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -1811,10 +1811,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45917.61458333334</v>
+        <v>45918.61458333334</v>
       </c>
       <c r="B61">
-        <v>5723</v>
+        <v>5112</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45917.625</v>
+        <v>45918.625</v>
       </c>
       <c r="B62">
-        <v>5661</v>
+        <v>5259</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45917.63541666666</v>
+        <v>45918.63541666666</v>
       </c>
       <c r="B63">
-        <v>5671</v>
+        <v>5284</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -1853,10 +1853,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45917.64583333334</v>
+        <v>45918.64583333334</v>
       </c>
       <c r="B64">
-        <v>5764</v>
+        <v>5296</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45917.65625</v>
+        <v>45918.65625</v>
       </c>
       <c r="B65">
-        <v>5805</v>
+        <v>5374</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45917.66666666666</v>
+        <v>45918.66666666666</v>
       </c>
       <c r="B66">
-        <v>5861</v>
+        <v>5464</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45917.67708333334</v>
+        <v>45918.67708333334</v>
       </c>
       <c r="B67">
-        <v>5954</v>
+        <v>5561</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45917.6875</v>
+        <v>45918.6875</v>
       </c>
       <c r="B68">
-        <v>6015</v>
+        <v>5753</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45917.69791666666</v>
+        <v>45918.69791666666</v>
       </c>
       <c r="B69">
-        <v>6077</v>
+        <v>5853</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45917.70833333334</v>
+        <v>45918.70833333334</v>
       </c>
       <c r="B70">
-        <v>6240</v>
+        <v>6090</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45917.71875</v>
+        <v>45918.71875</v>
       </c>
       <c r="B71">
-        <v>6361</v>
+        <v>6220</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45917.72916666666</v>
+        <v>45918.72916666666</v>
       </c>
       <c r="B72">
-        <v>6498</v>
+        <v>6326</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45917.73958333334</v>
+        <v>45918.73958333334</v>
       </c>
       <c r="B73">
-        <v>6524</v>
+        <v>6500</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45917.75</v>
+        <v>45918.75</v>
       </c>
       <c r="B74">
-        <v>6572</v>
+        <v>6550</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -2007,10 +2007,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45917.76041666666</v>
+        <v>45918.76041666666</v>
       </c>
       <c r="B75">
-        <v>6729</v>
+        <v>6674</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45917.77083333334</v>
+        <v>45918.77083333334</v>
       </c>
       <c r="B76">
-        <v>6904</v>
+        <v>6838</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45917.78125</v>
+        <v>45918.78125</v>
       </c>
       <c r="B77">
-        <v>7021</v>
+        <v>6938</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -2049,10 +2049,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45917.79166666666</v>
+        <v>45918.79166666666</v>
       </c>
       <c r="B78">
-        <v>7059</v>
+        <v>7117</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45917.80208333334</v>
+        <v>45918.80208333334</v>
       </c>
       <c r="B79">
-        <v>7063</v>
+        <v>7117</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45917.8125</v>
+        <v>45918.8125</v>
       </c>
       <c r="B80">
-        <v>7048</v>
+        <v>7113</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45917.82291666666</v>
+        <v>45918.82291666666</v>
       </c>
       <c r="B81">
-        <v>7020</v>
+        <v>7033</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -2105,10 +2105,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45917.83333333334</v>
+        <v>45918.83333333334</v>
       </c>
       <c r="B82">
-        <v>6901</v>
+        <v>6950</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45917.84375</v>
+        <v>45918.84375</v>
       </c>
       <c r="B83">
-        <v>6806</v>
+        <v>6868</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -2133,10 +2133,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45917.85416666666</v>
+        <v>45918.85416666666</v>
       </c>
       <c r="B84">
-        <v>6698</v>
+        <v>6720</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45917.86458333334</v>
+        <v>45918.86458333334</v>
       </c>
       <c r="B85">
-        <v>6574</v>
+        <v>6604</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -2161,10 +2161,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45917.875</v>
+        <v>45918.875</v>
       </c>
       <c r="B86">
-        <v>6365</v>
+        <v>6332</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45917.88541666666</v>
+        <v>45918.88541666666</v>
       </c>
       <c r="B87">
-        <v>6292</v>
+        <v>6214</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -2189,10 +2189,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45917.89583333334</v>
+        <v>45918.89583333334</v>
       </c>
       <c r="B88">
-        <v>6183</v>
+        <v>6033</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45917.90625</v>
+        <v>45918.90625</v>
       </c>
       <c r="B89">
-        <v>6049</v>
+        <v>5935</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45917.91666666666</v>
+        <v>45918.91666666666</v>
       </c>
       <c r="B90">
-        <v>5773</v>
+        <v>5699</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45917.92708333334</v>
+        <v>45918.92708333334</v>
       </c>
       <c r="B91">
-        <v>5627</v>
+        <v>5548</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45917.9375</v>
+        <v>45918.9375</v>
       </c>
       <c r="B92">
-        <v>5566</v>
+        <v>5479</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45917.94791666666</v>
+        <v>45918.94791666666</v>
       </c>
       <c r="B93">
-        <v>5490</v>
+        <v>5402</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -2273,10 +2273,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45917.95833333334</v>
+        <v>45918.95833333334</v>
       </c>
       <c r="B94">
-        <v>5371</v>
+        <v>5291</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45917.96875</v>
+        <v>45918.96875</v>
       </c>
       <c r="B95">
-        <v>5275</v>
+        <v>5246</v>
       </c>
       <c r="C95">
         <v>94</v>
@@ -2301,10 +2301,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45917.97916666666</v>
+        <v>45918.97916666666</v>
       </c>
       <c r="B96">
-        <v>5200</v>
+        <v>5187</v>
       </c>
       <c r="C96">
         <v>95</v>
@@ -2315,10 +2315,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>45917.98958333334</v>
+        <v>45918.98958333334</v>
       </c>
       <c r="B97">
-        <v>5184</v>
+        <v>5150</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="B98">
-        <v>5184</v>
+        <v>5053</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>45918.01041666666</v>
+        <v>45919.01041666666</v>
       </c>
       <c r="B99">
-        <v>5139</v>
+        <v>5063</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>45918.02083333334</v>
+        <v>45919.02083333334</v>
       </c>
       <c r="B100">
-        <v>5137</v>
+        <v>5051</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2371,10 +2371,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>45918.03125</v>
+        <v>45919.03125</v>
       </c>
       <c r="B101">
-        <v>5095</v>
+        <v>5031</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>45918.04166666666</v>
+        <v>45919.04166666666</v>
       </c>
       <c r="B102">
-        <v>4961</v>
+        <v>4981</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>45918.05208333334</v>
+        <v>45919.05208333334</v>
       </c>
       <c r="B103">
-        <v>5014</v>
+        <v>5038</v>
       </c>
       <c r="C103">
         <v>6</v>
@@ -2413,10 +2413,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>45918.0625</v>
+        <v>45919.0625</v>
       </c>
       <c r="B104">
-        <v>4980</v>
+        <v>4972</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -2427,10 +2427,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>45918.07291666666</v>
+        <v>45919.07291666666</v>
       </c>
       <c r="B105">
-        <v>4962</v>
+        <v>4985</v>
       </c>
       <c r="C105">
         <v>8</v>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>45918.08333333334</v>
+        <v>45919.08333333334</v>
       </c>
       <c r="B106">
-        <v>4860</v>
+        <v>4933</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -2455,10 +2455,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>45918.09375</v>
+        <v>45919.09375</v>
       </c>
       <c r="B107">
-        <v>4926</v>
+        <v>4949</v>
       </c>
       <c r="C107">
         <v>10</v>
@@ -2469,10 +2469,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>45918.10416666666</v>
+        <v>45919.10416666666</v>
       </c>
       <c r="B108">
-        <v>4970</v>
+        <v>4906</v>
       </c>
       <c r="C108">
         <v>11</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>45918.11458333334</v>
+        <v>45919.11458333334</v>
       </c>
       <c r="B109">
-        <v>4926</v>
+        <v>4922</v>
       </c>
       <c r="C109">
         <v>12</v>
@@ -2497,10 +2497,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>45918.125</v>
+        <v>45919.125</v>
       </c>
       <c r="B110">
-        <v>4970</v>
+        <v>4942</v>
       </c>
       <c r="C110">
         <v>13</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>45918.13541666666</v>
+        <v>45919.13541666666</v>
       </c>
       <c r="B111">
-        <v>4936</v>
+        <v>5011</v>
       </c>
       <c r="C111">
         <v>14</v>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>45918.14583333334</v>
+        <v>45919.14583333334</v>
       </c>
       <c r="B112">
-        <v>5016</v>
+        <v>4974</v>
       </c>
       <c r="C112">
         <v>15</v>
@@ -2539,10 +2539,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>45918.15625</v>
+        <v>45919.15625</v>
       </c>
       <c r="B113">
-        <v>4971</v>
+        <v>4991</v>
       </c>
       <c r="C113">
         <v>16</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>45918.16666666666</v>
+        <v>45919.16666666666</v>
       </c>
       <c r="B114">
-        <v>5096</v>
+        <v>5117</v>
       </c>
       <c r="C114">
         <v>17</v>
@@ -2567,10 +2567,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>45918.17708333334</v>
+        <v>45919.17708333334</v>
       </c>
       <c r="B115">
-        <v>5138</v>
+        <v>5198</v>
       </c>
       <c r="C115">
         <v>18</v>
@@ -2581,10 +2581,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>45918.1875</v>
+        <v>45919.1875</v>
       </c>
       <c r="B116">
-        <v>5151</v>
+        <v>5168</v>
       </c>
       <c r="C116">
         <v>19</v>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>45918.19791666666</v>
+        <v>45919.19791666666</v>
       </c>
       <c r="B117">
-        <v>5247</v>
+        <v>5262</v>
       </c>
       <c r="C117">
         <v>20</v>
@@ -2609,10 +2609,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>45918.20833333334</v>
+        <v>45919.20833333334</v>
       </c>
       <c r="B118">
-        <v>5446</v>
+        <v>5484</v>
       </c>
       <c r="C118">
         <v>21</v>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>45918.21875</v>
+        <v>45919.21875</v>
       </c>
       <c r="B119">
-        <v>5551</v>
+        <v>5587</v>
       </c>
       <c r="C119">
         <v>22</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>45918.22916666666</v>
+        <v>45919.22916666666</v>
       </c>
       <c r="B120">
-        <v>5678</v>
+        <v>5640</v>
       </c>
       <c r="C120">
         <v>23</v>
@@ -2651,10 +2651,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>45918.23958333334</v>
+        <v>45919.23958333334</v>
       </c>
       <c r="B121">
-        <v>5764</v>
+        <v>5709</v>
       </c>
       <c r="C121">
         <v>24</v>
@@ -2665,10 +2665,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>45918.25</v>
+        <v>45919.25</v>
       </c>
       <c r="B122">
-        <v>5974</v>
+        <v>5941</v>
       </c>
       <c r="C122">
         <v>25</v>
@@ -2679,10 +2679,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>45918.26041666666</v>
+        <v>45919.26041666666</v>
       </c>
       <c r="B123">
-        <v>6151</v>
+        <v>6121</v>
       </c>
       <c r="C123">
         <v>26</v>
@@ -2693,10 +2693,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>45918.27083333334</v>
+        <v>45919.27083333334</v>
       </c>
       <c r="B124">
-        <v>6227</v>
+        <v>6129</v>
       </c>
       <c r="C124">
         <v>27</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>45918.28125</v>
+        <v>45919.28125</v>
       </c>
       <c r="B125">
-        <v>6263</v>
+        <v>6160</v>
       </c>
       <c r="C125">
         <v>28</v>
@@ -2721,10 +2721,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>45918.29166666666</v>
+        <v>45919.29166666666</v>
       </c>
       <c r="B126">
-        <v>6255</v>
+        <v>6230</v>
       </c>
       <c r="C126">
         <v>29</v>
@@ -2735,10 +2735,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>45918.30208333334</v>
+        <v>45919.30208333334</v>
       </c>
       <c r="B127">
-        <v>6172</v>
+        <v>6284</v>
       </c>
       <c r="C127">
         <v>30</v>
@@ -2749,10 +2749,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>45918.3125</v>
+        <v>45919.3125</v>
       </c>
       <c r="B128">
-        <v>6178</v>
+        <v>6235</v>
       </c>
       <c r="C128">
         <v>31</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>45918.32291666666</v>
+        <v>45919.32291666666</v>
       </c>
       <c r="B129">
-        <v>6171</v>
+        <v>6082</v>
       </c>
       <c r="C129">
         <v>32</v>
@@ -2777,10 +2777,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>45918.33333333334</v>
+        <v>45919.33333333334</v>
       </c>
       <c r="B130">
-        <v>5883</v>
+        <v>5983</v>
       </c>
       <c r="C130">
         <v>33</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>45918.34375</v>
+        <v>45919.34375</v>
       </c>
       <c r="B131">
-        <v>5818</v>
+        <v>5905</v>
       </c>
       <c r="C131">
         <v>34</v>
@@ -2805,10 +2805,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>45918.35416666666</v>
+        <v>45919.35416666666</v>
       </c>
       <c r="B132">
-        <v>5783</v>
+        <v>5815</v>
       </c>
       <c r="C132">
         <v>35</v>
@@ -2819,10 +2819,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>45918.36458333334</v>
+        <v>45919.36458333334</v>
       </c>
       <c r="B133">
-        <v>5616</v>
+        <v>5680</v>
       </c>
       <c r="C133">
         <v>36</v>
@@ -2833,10 +2833,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>45918.375</v>
+        <v>45919.375</v>
       </c>
       <c r="B134">
-        <v>5324</v>
+        <v>5577</v>
       </c>
       <c r="C134">
         <v>37</v>
@@ -2847,10 +2847,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>45918.38541666666</v>
+        <v>45919.38541666666</v>
       </c>
       <c r="B135">
-        <v>5195</v>
+        <v>5473</v>
       </c>
       <c r="C135">
         <v>38</v>
@@ -2861,10 +2861,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>45918.39583333334</v>
+        <v>45919.39583333334</v>
       </c>
       <c r="B136">
-        <v>5135</v>
+        <v>5343</v>
       </c>
       <c r="C136">
         <v>39</v>
@@ -2875,10 +2875,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>45918.40625</v>
+        <v>45919.40625</v>
       </c>
       <c r="B137">
-        <v>5055</v>
+        <v>0</v>
       </c>
       <c r="C137">
         <v>40</v>
@@ -2889,10 +2889,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>45918.41666666666</v>
+        <v>45919.41666666666</v>
       </c>
       <c r="B138">
-        <v>4914</v>
+        <v>0</v>
       </c>
       <c r="C138">
         <v>41</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>45918.42708333334</v>
+        <v>45919.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>45918.4375</v>
+        <v>45919.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>45918.44791666666</v>
+        <v>45919.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>45918.45833333334</v>
+        <v>45919.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>45918.46875</v>
+        <v>45919.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>45918.47916666666</v>
+        <v>45919.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>45918.48958333334</v>
+        <v>45919.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>45918.5</v>
+        <v>45919.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>45918.51041666666</v>
+        <v>45919.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>45918.52083333334</v>
+        <v>45919.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>45918.53125</v>
+        <v>45919.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>45918.54166666666</v>
+        <v>45919.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>45918.55208333334</v>
+        <v>45919.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>45918.5625</v>
+        <v>45919.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>45918.57291666666</v>
+        <v>45919.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>45918.58333333334</v>
+        <v>45919.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>45918.59375</v>
+        <v>45919.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>45918.60416666666</v>
+        <v>45919.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>45918.61458333334</v>
+        <v>45919.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>45918.625</v>
+        <v>45919.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>45918.63541666666</v>
+        <v>45919.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>45918.64583333334</v>
+        <v>45919.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>45918.65625</v>
+        <v>45919.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>45918.66666666666</v>
+        <v>45919.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>45918.67708333334</v>
+        <v>45919.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>45918.6875</v>
+        <v>45919.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>45918.69791666666</v>
+        <v>45919.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>45918.70833333334</v>
+        <v>45919.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>45918.71875</v>
+        <v>45919.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>45918.72916666666</v>
+        <v>45919.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>45918.73958333334</v>
+        <v>45919.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>45918.75</v>
+        <v>45919.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>45918.76041666666</v>
+        <v>45919.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>45918.77083333334</v>
+        <v>45919.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>45918.78125</v>
+        <v>45919.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>45918.79166666666</v>
+        <v>45919.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>45918.80208333334</v>
+        <v>45919.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>45918.8125</v>
+        <v>45919.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>45918.82291666666</v>
+        <v>45919.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>45918.83333333334</v>
+        <v>45919.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>45918.84375</v>
+        <v>45919.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>45918.85416666666</v>
+        <v>45919.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>45918.86458333334</v>
+        <v>45919.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>45918.875</v>
+        <v>45919.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>45918.88541666666</v>
+        <v>45919.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>45918.89583333334</v>
+        <v>45919.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>45918.90625</v>
+        <v>45919.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>45918.91666666666</v>
+        <v>45919.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>45918.92708333334</v>
+        <v>45919.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>45918.9375</v>
+        <v>45919.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>45918.94791666666</v>
+        <v>45919.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>45918.95833333334</v>
+        <v>45919.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>45918.96875</v>
+        <v>45919.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>45918.97916666666</v>
+        <v>45919.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>45918.98958333334</v>
+        <v>45919.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
@@ -28,580 +28,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>18.09.20251</t>
-  </si>
-  <si>
-    <t>18.09.20252</t>
-  </si>
-  <si>
-    <t>18.09.20253</t>
-  </si>
-  <si>
-    <t>18.09.20254</t>
-  </si>
-  <si>
-    <t>18.09.20255</t>
-  </si>
-  <si>
-    <t>18.09.20256</t>
-  </si>
-  <si>
-    <t>18.09.20257</t>
-  </si>
-  <si>
-    <t>18.09.20258</t>
-  </si>
-  <si>
-    <t>18.09.20259</t>
-  </si>
-  <si>
-    <t>18.09.202510</t>
-  </si>
-  <si>
-    <t>18.09.202511</t>
-  </si>
-  <si>
-    <t>18.09.202512</t>
-  </si>
-  <si>
-    <t>18.09.202513</t>
-  </si>
-  <si>
-    <t>18.09.202514</t>
-  </si>
-  <si>
-    <t>18.09.202515</t>
-  </si>
-  <si>
-    <t>18.09.202516</t>
-  </si>
-  <si>
-    <t>18.09.202517</t>
-  </si>
-  <si>
-    <t>18.09.202518</t>
-  </si>
-  <si>
-    <t>18.09.202519</t>
-  </si>
-  <si>
-    <t>18.09.202520</t>
-  </si>
-  <si>
-    <t>18.09.202521</t>
-  </si>
-  <si>
-    <t>18.09.202522</t>
-  </si>
-  <si>
-    <t>18.09.202523</t>
-  </si>
-  <si>
-    <t>18.09.202524</t>
-  </si>
-  <si>
-    <t>18.09.202525</t>
-  </si>
-  <si>
-    <t>18.09.202526</t>
-  </si>
-  <si>
-    <t>18.09.202527</t>
-  </si>
-  <si>
-    <t>18.09.202528</t>
-  </si>
-  <si>
-    <t>18.09.202529</t>
-  </si>
-  <si>
-    <t>18.09.202530</t>
-  </si>
-  <si>
-    <t>18.09.202531</t>
-  </si>
-  <si>
-    <t>18.09.202532</t>
-  </si>
-  <si>
-    <t>18.09.202533</t>
-  </si>
-  <si>
-    <t>18.09.202534</t>
-  </si>
-  <si>
-    <t>18.09.202535</t>
-  </si>
-  <si>
-    <t>18.09.202536</t>
-  </si>
-  <si>
-    <t>18.09.202537</t>
-  </si>
-  <si>
-    <t>18.09.202538</t>
-  </si>
-  <si>
-    <t>18.09.202539</t>
-  </si>
-  <si>
-    <t>18.09.202540</t>
-  </si>
-  <si>
-    <t>18.09.202541</t>
-  </si>
-  <si>
-    <t>18.09.202542</t>
-  </si>
-  <si>
-    <t>18.09.202543</t>
-  </si>
-  <si>
-    <t>18.09.202544</t>
-  </si>
-  <si>
-    <t>18.09.202545</t>
-  </si>
-  <si>
-    <t>18.09.202546</t>
-  </si>
-  <si>
-    <t>18.09.202547</t>
-  </si>
-  <si>
-    <t>18.09.202548</t>
-  </si>
-  <si>
-    <t>18.09.202549</t>
-  </si>
-  <si>
-    <t>18.09.202550</t>
-  </si>
-  <si>
-    <t>18.09.202551</t>
-  </si>
-  <si>
-    <t>18.09.202552</t>
-  </si>
-  <si>
-    <t>18.09.202553</t>
-  </si>
-  <si>
-    <t>18.09.202554</t>
-  </si>
-  <si>
-    <t>18.09.202555</t>
-  </si>
-  <si>
-    <t>18.09.202556</t>
-  </si>
-  <si>
-    <t>18.09.202557</t>
-  </si>
-  <si>
-    <t>18.09.202558</t>
-  </si>
-  <si>
-    <t>18.09.202559</t>
-  </si>
-  <si>
-    <t>18.09.202560</t>
-  </si>
-  <si>
-    <t>18.09.202561</t>
-  </si>
-  <si>
-    <t>18.09.202562</t>
-  </si>
-  <si>
-    <t>18.09.202563</t>
-  </si>
-  <si>
-    <t>18.09.202564</t>
-  </si>
-  <si>
-    <t>18.09.202565</t>
-  </si>
-  <si>
-    <t>18.09.202566</t>
-  </si>
-  <si>
-    <t>18.09.202567</t>
-  </si>
-  <si>
-    <t>18.09.202568</t>
-  </si>
-  <si>
-    <t>18.09.202569</t>
-  </si>
-  <si>
-    <t>18.09.202570</t>
-  </si>
-  <si>
-    <t>18.09.202571</t>
-  </si>
-  <si>
-    <t>18.09.202572</t>
-  </si>
-  <si>
-    <t>18.09.202573</t>
-  </si>
-  <si>
-    <t>18.09.202574</t>
-  </si>
-  <si>
-    <t>18.09.202575</t>
-  </si>
-  <si>
-    <t>18.09.202576</t>
-  </si>
-  <si>
-    <t>18.09.202577</t>
-  </si>
-  <si>
-    <t>18.09.202578</t>
-  </si>
-  <si>
-    <t>18.09.202579</t>
-  </si>
-  <si>
-    <t>18.09.202580</t>
-  </si>
-  <si>
-    <t>18.09.202581</t>
-  </si>
-  <si>
-    <t>18.09.202582</t>
-  </si>
-  <si>
-    <t>18.09.202583</t>
-  </si>
-  <si>
-    <t>18.09.202584</t>
-  </si>
-  <si>
-    <t>18.09.202585</t>
-  </si>
-  <si>
-    <t>18.09.202586</t>
-  </si>
-  <si>
-    <t>18.09.202587</t>
-  </si>
-  <si>
-    <t>18.09.202588</t>
-  </si>
-  <si>
-    <t>18.09.202589</t>
-  </si>
-  <si>
-    <t>18.09.202590</t>
-  </si>
-  <si>
-    <t>18.09.202591</t>
-  </si>
-  <si>
-    <t>18.09.202592</t>
-  </si>
-  <si>
-    <t>18.09.202593</t>
-  </si>
-  <si>
-    <t>18.09.202594</t>
-  </si>
-  <si>
-    <t>18.09.202595</t>
-  </si>
-  <si>
-    <t>18.09.202596</t>
-  </si>
-  <si>
-    <t>19.09.20251</t>
-  </si>
-  <si>
-    <t>19.09.20252</t>
-  </si>
-  <si>
-    <t>19.09.20253</t>
-  </si>
-  <si>
-    <t>19.09.20254</t>
-  </si>
-  <si>
-    <t>19.09.20255</t>
-  </si>
-  <si>
-    <t>19.09.20256</t>
-  </si>
-  <si>
-    <t>19.09.20257</t>
-  </si>
-  <si>
-    <t>19.09.20258</t>
-  </si>
-  <si>
-    <t>19.09.20259</t>
-  </si>
-  <si>
-    <t>19.09.202510</t>
-  </si>
-  <si>
-    <t>19.09.202511</t>
-  </si>
-  <si>
-    <t>19.09.202512</t>
-  </si>
-  <si>
-    <t>19.09.202513</t>
-  </si>
-  <si>
-    <t>19.09.202514</t>
-  </si>
-  <si>
-    <t>19.09.202515</t>
-  </si>
-  <si>
-    <t>19.09.202516</t>
-  </si>
-  <si>
-    <t>19.09.202517</t>
-  </si>
-  <si>
-    <t>19.09.202518</t>
-  </si>
-  <si>
-    <t>19.09.202519</t>
-  </si>
-  <si>
-    <t>19.09.202520</t>
-  </si>
-  <si>
-    <t>19.09.202521</t>
-  </si>
-  <si>
-    <t>19.09.202522</t>
-  </si>
-  <si>
-    <t>19.09.202523</t>
-  </si>
-  <si>
-    <t>19.09.202524</t>
-  </si>
-  <si>
-    <t>19.09.202525</t>
-  </si>
-  <si>
-    <t>19.09.202526</t>
-  </si>
-  <si>
-    <t>19.09.202527</t>
-  </si>
-  <si>
-    <t>19.09.202528</t>
-  </si>
-  <si>
-    <t>19.09.202529</t>
-  </si>
-  <si>
-    <t>19.09.202530</t>
-  </si>
-  <si>
-    <t>19.09.202531</t>
-  </si>
-  <si>
-    <t>19.09.202532</t>
-  </si>
-  <si>
-    <t>19.09.202533</t>
-  </si>
-  <si>
-    <t>19.09.202534</t>
-  </si>
-  <si>
-    <t>19.09.202535</t>
-  </si>
-  <si>
-    <t>19.09.202536</t>
-  </si>
-  <si>
-    <t>19.09.202537</t>
-  </si>
-  <si>
-    <t>19.09.202538</t>
-  </si>
-  <si>
-    <t>19.09.202539</t>
-  </si>
-  <si>
-    <t>19.09.202540</t>
-  </si>
-  <si>
-    <t>19.09.202541</t>
-  </si>
-  <si>
-    <t>19.09.202542</t>
-  </si>
-  <si>
-    <t>19.09.202543</t>
-  </si>
-  <si>
-    <t>19.09.202544</t>
-  </si>
-  <si>
-    <t>19.09.202545</t>
-  </si>
-  <si>
-    <t>19.09.202546</t>
-  </si>
-  <si>
-    <t>19.09.202547</t>
-  </si>
-  <si>
-    <t>19.09.202548</t>
-  </si>
-  <si>
-    <t>19.09.202549</t>
-  </si>
-  <si>
-    <t>19.09.202550</t>
-  </si>
-  <si>
-    <t>19.09.202551</t>
-  </si>
-  <si>
-    <t>19.09.202552</t>
-  </si>
-  <si>
-    <t>19.09.202553</t>
-  </si>
-  <si>
-    <t>19.09.202554</t>
-  </si>
-  <si>
-    <t>19.09.202555</t>
-  </si>
-  <si>
-    <t>19.09.202556</t>
-  </si>
-  <si>
-    <t>19.09.202557</t>
-  </si>
-  <si>
-    <t>19.09.202558</t>
-  </si>
-  <si>
-    <t>19.09.202559</t>
-  </si>
-  <si>
-    <t>19.09.202560</t>
-  </si>
-  <si>
-    <t>19.09.202561</t>
-  </si>
-  <si>
-    <t>19.09.202562</t>
-  </si>
-  <si>
-    <t>19.09.202563</t>
-  </si>
-  <si>
-    <t>19.09.202564</t>
-  </si>
-  <si>
-    <t>19.09.202565</t>
-  </si>
-  <si>
-    <t>19.09.202566</t>
-  </si>
-  <si>
-    <t>19.09.202567</t>
-  </si>
-  <si>
-    <t>19.09.202568</t>
-  </si>
-  <si>
-    <t>19.09.202569</t>
-  </si>
-  <si>
-    <t>19.09.202570</t>
-  </si>
-  <si>
-    <t>19.09.202571</t>
-  </si>
-  <si>
-    <t>19.09.202572</t>
-  </si>
-  <si>
-    <t>19.09.202573</t>
-  </si>
-  <si>
-    <t>19.09.202574</t>
-  </si>
-  <si>
-    <t>19.09.202575</t>
-  </si>
-  <si>
-    <t>19.09.202576</t>
-  </si>
-  <si>
-    <t>19.09.202577</t>
-  </si>
-  <si>
-    <t>19.09.202578</t>
-  </si>
-  <si>
-    <t>19.09.202579</t>
-  </si>
-  <si>
-    <t>19.09.202580</t>
-  </si>
-  <si>
-    <t>19.09.202581</t>
-  </si>
-  <si>
-    <t>19.09.202582</t>
-  </si>
-  <si>
-    <t>19.09.202583</t>
-  </si>
-  <si>
-    <t>19.09.202584</t>
-  </si>
-  <si>
-    <t>19.09.202585</t>
-  </si>
-  <si>
-    <t>19.09.202586</t>
-  </si>
-  <si>
-    <t>19.09.202587</t>
-  </si>
-  <si>
-    <t>19.09.202588</t>
-  </si>
-  <si>
-    <t>19.09.202589</t>
-  </si>
-  <si>
-    <t>19.09.202590</t>
-  </si>
-  <si>
-    <t>19.09.202591</t>
-  </si>
-  <si>
-    <t>19.09.202592</t>
-  </si>
-  <si>
-    <t>19.09.202593</t>
-  </si>
-  <si>
-    <t>19.09.202594</t>
-  </si>
-  <si>
-    <t>19.09.202595</t>
-  </si>
-  <si>
-    <t>19.09.202596</t>
+    <t>22.09.20251</t>
+  </si>
+  <si>
+    <t>22.09.20252</t>
+  </si>
+  <si>
+    <t>22.09.20253</t>
+  </si>
+  <si>
+    <t>22.09.20254</t>
+  </si>
+  <si>
+    <t>22.09.20255</t>
+  </si>
+  <si>
+    <t>22.09.20256</t>
+  </si>
+  <si>
+    <t>22.09.20257</t>
+  </si>
+  <si>
+    <t>22.09.20258</t>
+  </si>
+  <si>
+    <t>22.09.20259</t>
+  </si>
+  <si>
+    <t>22.09.202510</t>
+  </si>
+  <si>
+    <t>22.09.202511</t>
+  </si>
+  <si>
+    <t>22.09.202512</t>
+  </si>
+  <si>
+    <t>22.09.202513</t>
+  </si>
+  <si>
+    <t>22.09.202514</t>
+  </si>
+  <si>
+    <t>22.09.202515</t>
+  </si>
+  <si>
+    <t>22.09.202516</t>
+  </si>
+  <si>
+    <t>22.09.202517</t>
+  </si>
+  <si>
+    <t>22.09.202518</t>
+  </si>
+  <si>
+    <t>22.09.202519</t>
+  </si>
+  <si>
+    <t>22.09.202520</t>
+  </si>
+  <si>
+    <t>22.09.202521</t>
+  </si>
+  <si>
+    <t>22.09.202522</t>
+  </si>
+  <si>
+    <t>22.09.202523</t>
+  </si>
+  <si>
+    <t>22.09.202524</t>
+  </si>
+  <si>
+    <t>22.09.202525</t>
+  </si>
+  <si>
+    <t>22.09.202526</t>
+  </si>
+  <si>
+    <t>22.09.202527</t>
+  </si>
+  <si>
+    <t>22.09.202528</t>
+  </si>
+  <si>
+    <t>22.09.202529</t>
+  </si>
+  <si>
+    <t>22.09.202530</t>
+  </si>
+  <si>
+    <t>22.09.202531</t>
+  </si>
+  <si>
+    <t>22.09.202532</t>
+  </si>
+  <si>
+    <t>22.09.202533</t>
+  </si>
+  <si>
+    <t>22.09.202534</t>
+  </si>
+  <si>
+    <t>22.09.202535</t>
+  </si>
+  <si>
+    <t>22.09.202536</t>
+  </si>
+  <si>
+    <t>22.09.202537</t>
+  </si>
+  <si>
+    <t>22.09.202538</t>
+  </si>
+  <si>
+    <t>22.09.202539</t>
+  </si>
+  <si>
+    <t>22.09.202540</t>
+  </si>
+  <si>
+    <t>22.09.202541</t>
+  </si>
+  <si>
+    <t>22.09.202542</t>
+  </si>
+  <si>
+    <t>22.09.202543</t>
+  </si>
+  <si>
+    <t>22.09.202544</t>
+  </si>
+  <si>
+    <t>22.09.202545</t>
+  </si>
+  <si>
+    <t>22.09.202546</t>
+  </si>
+  <si>
+    <t>22.09.202547</t>
+  </si>
+  <si>
+    <t>22.09.202548</t>
+  </si>
+  <si>
+    <t>22.09.202549</t>
+  </si>
+  <si>
+    <t>22.09.202550</t>
+  </si>
+  <si>
+    <t>22.09.202551</t>
+  </si>
+  <si>
+    <t>22.09.202552</t>
+  </si>
+  <si>
+    <t>22.09.202553</t>
+  </si>
+  <si>
+    <t>22.09.202554</t>
+  </si>
+  <si>
+    <t>22.09.202555</t>
+  </si>
+  <si>
+    <t>22.09.202556</t>
+  </si>
+  <si>
+    <t>22.09.202557</t>
+  </si>
+  <si>
+    <t>22.09.202558</t>
+  </si>
+  <si>
+    <t>22.09.202559</t>
+  </si>
+  <si>
+    <t>22.09.202560</t>
+  </si>
+  <si>
+    <t>22.09.202561</t>
+  </si>
+  <si>
+    <t>22.09.202562</t>
+  </si>
+  <si>
+    <t>22.09.202563</t>
+  </si>
+  <si>
+    <t>22.09.202564</t>
+  </si>
+  <si>
+    <t>22.09.202565</t>
+  </si>
+  <si>
+    <t>22.09.202566</t>
+  </si>
+  <si>
+    <t>22.09.202567</t>
+  </si>
+  <si>
+    <t>22.09.202568</t>
+  </si>
+  <si>
+    <t>22.09.202569</t>
+  </si>
+  <si>
+    <t>22.09.202570</t>
+  </si>
+  <si>
+    <t>22.09.202571</t>
+  </si>
+  <si>
+    <t>22.09.202572</t>
+  </si>
+  <si>
+    <t>22.09.202573</t>
+  </si>
+  <si>
+    <t>22.09.202574</t>
+  </si>
+  <si>
+    <t>22.09.202575</t>
+  </si>
+  <si>
+    <t>22.09.202576</t>
+  </si>
+  <si>
+    <t>22.09.202577</t>
+  </si>
+  <si>
+    <t>22.09.202578</t>
+  </si>
+  <si>
+    <t>22.09.202579</t>
+  </si>
+  <si>
+    <t>22.09.202580</t>
+  </si>
+  <si>
+    <t>22.09.202581</t>
+  </si>
+  <si>
+    <t>22.09.202582</t>
+  </si>
+  <si>
+    <t>22.09.202583</t>
+  </si>
+  <si>
+    <t>22.09.202584</t>
+  </si>
+  <si>
+    <t>22.09.202585</t>
+  </si>
+  <si>
+    <t>22.09.202586</t>
+  </si>
+  <si>
+    <t>22.09.202587</t>
+  </si>
+  <si>
+    <t>22.09.202588</t>
+  </si>
+  <si>
+    <t>22.09.202589</t>
+  </si>
+  <si>
+    <t>22.09.202590</t>
+  </si>
+  <si>
+    <t>22.09.202591</t>
+  </si>
+  <si>
+    <t>22.09.202592</t>
+  </si>
+  <si>
+    <t>22.09.202593</t>
+  </si>
+  <si>
+    <t>22.09.202594</t>
+  </si>
+  <si>
+    <t>22.09.202595</t>
+  </si>
+  <si>
+    <t>22.09.202596</t>
+  </si>
+  <si>
+    <t>23.09.20251</t>
+  </si>
+  <si>
+    <t>23.09.20252</t>
+  </si>
+  <si>
+    <t>23.09.20253</t>
+  </si>
+  <si>
+    <t>23.09.20254</t>
+  </si>
+  <si>
+    <t>23.09.20255</t>
+  </si>
+  <si>
+    <t>23.09.20256</t>
+  </si>
+  <si>
+    <t>23.09.20257</t>
+  </si>
+  <si>
+    <t>23.09.20258</t>
+  </si>
+  <si>
+    <t>23.09.20259</t>
+  </si>
+  <si>
+    <t>23.09.202510</t>
+  </si>
+  <si>
+    <t>23.09.202511</t>
+  </si>
+  <si>
+    <t>23.09.202512</t>
+  </si>
+  <si>
+    <t>23.09.202513</t>
+  </si>
+  <si>
+    <t>23.09.202514</t>
+  </si>
+  <si>
+    <t>23.09.202515</t>
+  </si>
+  <si>
+    <t>23.09.202516</t>
+  </si>
+  <si>
+    <t>23.09.202517</t>
+  </si>
+  <si>
+    <t>23.09.202518</t>
+  </si>
+  <si>
+    <t>23.09.202519</t>
+  </si>
+  <si>
+    <t>23.09.202520</t>
+  </si>
+  <si>
+    <t>23.09.202521</t>
+  </si>
+  <si>
+    <t>23.09.202522</t>
+  </si>
+  <si>
+    <t>23.09.202523</t>
+  </si>
+  <si>
+    <t>23.09.202524</t>
+  </si>
+  <si>
+    <t>23.09.202525</t>
+  </si>
+  <si>
+    <t>23.09.202526</t>
+  </si>
+  <si>
+    <t>23.09.202527</t>
+  </si>
+  <si>
+    <t>23.09.202528</t>
+  </si>
+  <si>
+    <t>23.09.202529</t>
+  </si>
+  <si>
+    <t>23.09.202530</t>
+  </si>
+  <si>
+    <t>23.09.202531</t>
+  </si>
+  <si>
+    <t>23.09.202532</t>
+  </si>
+  <si>
+    <t>23.09.202533</t>
+  </si>
+  <si>
+    <t>23.09.202534</t>
+  </si>
+  <si>
+    <t>23.09.202535</t>
+  </si>
+  <si>
+    <t>23.09.202536</t>
+  </si>
+  <si>
+    <t>23.09.202537</t>
+  </si>
+  <si>
+    <t>23.09.202538</t>
+  </si>
+  <si>
+    <t>23.09.202539</t>
+  </si>
+  <si>
+    <t>23.09.202540</t>
+  </si>
+  <si>
+    <t>23.09.202541</t>
+  </si>
+  <si>
+    <t>23.09.202542</t>
+  </si>
+  <si>
+    <t>23.09.202543</t>
+  </si>
+  <si>
+    <t>23.09.202544</t>
+  </si>
+  <si>
+    <t>23.09.202545</t>
+  </si>
+  <si>
+    <t>23.09.202546</t>
+  </si>
+  <si>
+    <t>23.09.202547</t>
+  </si>
+  <si>
+    <t>23.09.202548</t>
+  </si>
+  <si>
+    <t>23.09.202549</t>
+  </si>
+  <si>
+    <t>23.09.202550</t>
+  </si>
+  <si>
+    <t>23.09.202551</t>
+  </si>
+  <si>
+    <t>23.09.202552</t>
+  </si>
+  <si>
+    <t>23.09.202553</t>
+  </si>
+  <si>
+    <t>23.09.202554</t>
+  </si>
+  <si>
+    <t>23.09.202555</t>
+  </si>
+  <si>
+    <t>23.09.202556</t>
+  </si>
+  <si>
+    <t>23.09.202557</t>
+  </si>
+  <si>
+    <t>23.09.202558</t>
+  </si>
+  <si>
+    <t>23.09.202559</t>
+  </si>
+  <si>
+    <t>23.09.202560</t>
+  </si>
+  <si>
+    <t>23.09.202561</t>
+  </si>
+  <si>
+    <t>23.09.202562</t>
+  </si>
+  <si>
+    <t>23.09.202563</t>
+  </si>
+  <si>
+    <t>23.09.202564</t>
+  </si>
+  <si>
+    <t>23.09.202565</t>
+  </si>
+  <si>
+    <t>23.09.202566</t>
+  </si>
+  <si>
+    <t>23.09.202567</t>
+  </si>
+  <si>
+    <t>23.09.202568</t>
+  </si>
+  <si>
+    <t>23.09.202569</t>
+  </si>
+  <si>
+    <t>23.09.202570</t>
+  </si>
+  <si>
+    <t>23.09.202571</t>
+  </si>
+  <si>
+    <t>23.09.202572</t>
+  </si>
+  <si>
+    <t>23.09.202573</t>
+  </si>
+  <si>
+    <t>23.09.202574</t>
+  </si>
+  <si>
+    <t>23.09.202575</t>
+  </si>
+  <si>
+    <t>23.09.202576</t>
+  </si>
+  <si>
+    <t>23.09.202577</t>
+  </si>
+  <si>
+    <t>23.09.202578</t>
+  </si>
+  <si>
+    <t>23.09.202579</t>
+  </si>
+  <si>
+    <t>23.09.202580</t>
+  </si>
+  <si>
+    <t>23.09.202581</t>
+  </si>
+  <si>
+    <t>23.09.202582</t>
+  </si>
+  <si>
+    <t>23.09.202583</t>
+  </si>
+  <si>
+    <t>23.09.202584</t>
+  </si>
+  <si>
+    <t>23.09.202585</t>
+  </si>
+  <si>
+    <t>23.09.202586</t>
+  </si>
+  <si>
+    <t>23.09.202587</t>
+  </si>
+  <si>
+    <t>23.09.202588</t>
+  </si>
+  <si>
+    <t>23.09.202589</t>
+  </si>
+  <si>
+    <t>23.09.202590</t>
+  </si>
+  <si>
+    <t>23.09.202591</t>
+  </si>
+  <si>
+    <t>23.09.202592</t>
+  </si>
+  <si>
+    <t>23.09.202593</t>
+  </si>
+  <si>
+    <t>23.09.202594</t>
+  </si>
+  <si>
+    <t>23.09.202595</t>
+  </si>
+  <si>
+    <t>23.09.202596</t>
   </si>
 </sst>
 </file>
@@ -985,10 +985,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B2">
-        <v>5184</v>
+        <v>4628</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -999,10 +999,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45918.01041666666</v>
+        <v>45922.01041666666</v>
       </c>
       <c r="B3">
-        <v>5139</v>
+        <v>4648</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45918.02083333334</v>
+        <v>45922.02083333334</v>
       </c>
       <c r="B4">
-        <v>5137</v>
+        <v>4624</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45918.03125</v>
+        <v>45922.03125</v>
       </c>
       <c r="B5">
-        <v>5095</v>
+        <v>4608</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45918.04166666666</v>
+        <v>45922.04166666666</v>
       </c>
       <c r="B6">
-        <v>4961</v>
+        <v>4557</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45918.05208333334</v>
+        <v>45922.05208333334</v>
       </c>
       <c r="B7">
-        <v>5014</v>
+        <v>4564</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45918.0625</v>
+        <v>45922.0625</v>
       </c>
       <c r="B8">
-        <v>4980</v>
+        <v>4581</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45918.07291666666</v>
+        <v>45922.07291666666</v>
       </c>
       <c r="B9">
-        <v>4962</v>
+        <v>4572</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45918.08333333334</v>
+        <v>45922.08333333334</v>
       </c>
       <c r="B10">
-        <v>4860</v>
+        <v>4590</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1111,10 +1111,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45918.09375</v>
+        <v>45922.09375</v>
       </c>
       <c r="B11">
-        <v>4926</v>
+        <v>4531</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45918.10416666666</v>
+        <v>45922.10416666666</v>
       </c>
       <c r="B12">
-        <v>4970</v>
+        <v>4542</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1139,10 +1139,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45918.11458333334</v>
+        <v>45922.11458333334</v>
       </c>
       <c r="B13">
-        <v>4926</v>
+        <v>4525</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45918.125</v>
+        <v>45922.125</v>
       </c>
       <c r="B14">
-        <v>4970</v>
+        <v>4571</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45918.13541666666</v>
+        <v>45922.13541666666</v>
       </c>
       <c r="B15">
-        <v>4936</v>
+        <v>4524</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1181,10 +1181,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45918.14583333334</v>
+        <v>45922.14583333334</v>
       </c>
       <c r="B16">
-        <v>5016</v>
+        <v>4581</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45918.15625</v>
+        <v>45922.15625</v>
       </c>
       <c r="B17">
-        <v>4971</v>
+        <v>4597</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1209,10 +1209,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45918.16666666666</v>
+        <v>45922.16666666666</v>
       </c>
       <c r="B18">
-        <v>5096</v>
+        <v>4725</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1223,10 +1223,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45918.17708333334</v>
+        <v>45922.17708333334</v>
       </c>
       <c r="B19">
-        <v>5138</v>
+        <v>4698</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1237,10 +1237,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45918.1875</v>
+        <v>45922.1875</v>
       </c>
       <c r="B20">
-        <v>5151</v>
+        <v>4851</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45918.19791666666</v>
+        <v>45922.19791666666</v>
       </c>
       <c r="B21">
-        <v>5247</v>
+        <v>4948</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45918.20833333334</v>
+        <v>45922.20833333334</v>
       </c>
       <c r="B22">
-        <v>5446</v>
+        <v>5159</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45918.21875</v>
+        <v>45922.21875</v>
       </c>
       <c r="B23">
-        <v>5551</v>
+        <v>5276</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1293,10 +1293,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45918.22916666666</v>
+        <v>45922.22916666666</v>
       </c>
       <c r="B24">
-        <v>5678</v>
+        <v>5435</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45918.23958333334</v>
+        <v>45922.23958333334</v>
       </c>
       <c r="B25">
-        <v>5764</v>
+        <v>5649</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45918.25</v>
+        <v>45922.25</v>
       </c>
       <c r="B26">
-        <v>5974</v>
+        <v>5831</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45918.26041666666</v>
+        <v>45922.26041666666</v>
       </c>
       <c r="B27">
-        <v>6151</v>
+        <v>5946</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45918.27083333334</v>
+        <v>45922.27083333334</v>
       </c>
       <c r="B28">
-        <v>6227</v>
+        <v>6034</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45918.28125</v>
+        <v>45922.28125</v>
       </c>
       <c r="B29">
-        <v>6263</v>
+        <v>6072</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45918.29166666666</v>
+        <v>45922.29166666666</v>
       </c>
       <c r="B30">
-        <v>6255</v>
+        <v>6114</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1391,10 +1391,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45918.30208333334</v>
+        <v>45922.30208333334</v>
       </c>
       <c r="B31">
-        <v>6172</v>
+        <v>6131</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45918.3125</v>
+        <v>45922.3125</v>
       </c>
       <c r="B32">
-        <v>6178</v>
+        <v>6019</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1419,10 +1419,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45918.32291666666</v>
+        <v>45922.32291666666</v>
       </c>
       <c r="B33">
-        <v>6171</v>
+        <v>5965</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1433,10 +1433,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45918.33333333334</v>
+        <v>45922.33333333334</v>
       </c>
       <c r="B34">
-        <v>5883</v>
+        <v>5848</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1447,10 +1447,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45918.34375</v>
+        <v>45922.34375</v>
       </c>
       <c r="B35">
-        <v>5818</v>
+        <v>5733</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45918.35416666666</v>
+        <v>45922.35416666666</v>
       </c>
       <c r="B36">
-        <v>5783</v>
+        <v>5650</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45918.36458333334</v>
+        <v>45922.36458333334</v>
       </c>
       <c r="B37">
-        <v>5616</v>
+        <v>5613</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1489,10 +1489,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45918.375</v>
+        <v>45922.375</v>
       </c>
       <c r="B38">
-        <v>5324</v>
+        <v>5286</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45918.38541666666</v>
+        <v>45922.38541666666</v>
       </c>
       <c r="B39">
-        <v>5195</v>
+        <v>5276</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45918.39583333334</v>
+        <v>45922.39583333334</v>
       </c>
       <c r="B40">
-        <v>5135</v>
+        <v>5202</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45918.40625</v>
+        <v>45922.40625</v>
       </c>
       <c r="B41">
-        <v>5055</v>
+        <v>5064</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45918.41666666666</v>
+        <v>45922.41666666666</v>
       </c>
       <c r="B42">
-        <v>4914</v>
+        <v>4863</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45918.42708333334</v>
+        <v>45922.42708333334</v>
       </c>
       <c r="B43">
-        <v>4844</v>
+        <v>4804</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45918.4375</v>
+        <v>45922.4375</v>
       </c>
       <c r="B44">
-        <v>4810</v>
+        <v>4769</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45918.44791666666</v>
+        <v>45922.44791666666</v>
       </c>
       <c r="B45">
-        <v>4752</v>
+        <v>4725</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45918.45833333334</v>
+        <v>45922.45833333334</v>
       </c>
       <c r="B46">
-        <v>4690</v>
+        <v>4557</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45918.46875</v>
+        <v>45922.46875</v>
       </c>
       <c r="B47">
-        <v>4688</v>
+        <v>4552</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45918.47916666666</v>
+        <v>45922.47916666666</v>
       </c>
       <c r="B48">
-        <v>4727</v>
+        <v>4556</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1643,10 +1643,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45918.48958333334</v>
+        <v>45922.48958333334</v>
       </c>
       <c r="B49">
-        <v>4691</v>
+        <v>4599</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45918.5</v>
+        <v>45922.5</v>
       </c>
       <c r="B50">
-        <v>4725</v>
+        <v>4504</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1671,10 +1671,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45918.51041666666</v>
+        <v>45922.51041666666</v>
       </c>
       <c r="B51">
-        <v>4803</v>
+        <v>4592</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45918.52083333334</v>
+        <v>45922.52083333334</v>
       </c>
       <c r="B52">
-        <v>4827</v>
+        <v>4612</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1699,10 +1699,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45918.53125</v>
+        <v>45922.53125</v>
       </c>
       <c r="B53">
-        <v>4828</v>
+        <v>4606</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45918.54166666666</v>
+        <v>45922.54166666666</v>
       </c>
       <c r="B54">
-        <v>4886</v>
+        <v>4620</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45918.55208333334</v>
+        <v>45922.55208333334</v>
       </c>
       <c r="B55">
-        <v>4837</v>
+        <v>4640</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45918.5625</v>
+        <v>45922.5625</v>
       </c>
       <c r="B56">
-        <v>4901</v>
+        <v>4660</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -1755,10 +1755,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45918.57291666666</v>
+        <v>45922.57291666666</v>
       </c>
       <c r="B57">
-        <v>4910</v>
+        <v>4729</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45918.58333333334</v>
+        <v>45922.58333333334</v>
       </c>
       <c r="B58">
-        <v>5027</v>
+        <v>4836</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45918.59375</v>
+        <v>45922.59375</v>
       </c>
       <c r="B59">
-        <v>4980</v>
+        <v>4884</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45918.60416666666</v>
+        <v>45922.60416666666</v>
       </c>
       <c r="B60">
-        <v>5031</v>
+        <v>4886</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -1811,10 +1811,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45918.61458333334</v>
+        <v>45922.61458333334</v>
       </c>
       <c r="B61">
-        <v>5112</v>
+        <v>5020</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45918.625</v>
+        <v>45922.625</v>
       </c>
       <c r="B62">
-        <v>5259</v>
+        <v>5142</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45918.63541666666</v>
+        <v>45922.63541666666</v>
       </c>
       <c r="B63">
-        <v>5284</v>
+        <v>5267</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -1853,10 +1853,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45918.64583333334</v>
+        <v>45922.64583333334</v>
       </c>
       <c r="B64">
-        <v>5296</v>
+        <v>5399</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45918.65625</v>
+        <v>45922.65625</v>
       </c>
       <c r="B65">
-        <v>5374</v>
+        <v>5544</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45918.66666666666</v>
+        <v>45922.66666666666</v>
       </c>
       <c r="B66">
-        <v>5464</v>
+        <v>5714</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45918.67708333334</v>
+        <v>45922.67708333334</v>
       </c>
       <c r="B67">
-        <v>5561</v>
+        <v>5825</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45918.6875</v>
+        <v>45922.6875</v>
       </c>
       <c r="B68">
-        <v>5753</v>
+        <v>6011</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45918.69791666666</v>
+        <v>45922.69791666666</v>
       </c>
       <c r="B69">
-        <v>5853</v>
+        <v>6178</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45918.70833333334</v>
+        <v>45922.70833333334</v>
       </c>
       <c r="B70">
-        <v>6090</v>
+        <v>6277</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45918.71875</v>
+        <v>45922.71875</v>
       </c>
       <c r="B71">
-        <v>6220</v>
+        <v>6427</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45918.72916666666</v>
+        <v>45922.72916666666</v>
       </c>
       <c r="B72">
-        <v>6326</v>
+        <v>6545</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45918.73958333334</v>
+        <v>45922.73958333334</v>
       </c>
       <c r="B73">
-        <v>6500</v>
+        <v>6669</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45918.75</v>
+        <v>45922.75</v>
       </c>
       <c r="B74">
-        <v>6550</v>
+        <v>6698</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -2007,10 +2007,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45918.76041666666</v>
+        <v>45922.76041666666</v>
       </c>
       <c r="B75">
-        <v>6674</v>
+        <v>6845</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45918.77083333334</v>
+        <v>45922.77083333334</v>
       </c>
       <c r="B76">
-        <v>6838</v>
+        <v>7008</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45918.78125</v>
+        <v>45922.78125</v>
       </c>
       <c r="B77">
-        <v>6938</v>
+        <v>7171</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -2049,10 +2049,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45918.79166666666</v>
+        <v>45922.79166666666</v>
       </c>
       <c r="B78">
-        <v>7117</v>
+        <v>7179</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45918.80208333334</v>
+        <v>45922.80208333334</v>
       </c>
       <c r="B79">
-        <v>7117</v>
+        <v>7193</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45918.8125</v>
+        <v>45922.8125</v>
       </c>
       <c r="B80">
-        <v>7113</v>
+        <v>7155</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45918.82291666666</v>
+        <v>45922.82291666666</v>
       </c>
       <c r="B81">
-        <v>7033</v>
+        <v>7095</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -2105,10 +2105,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45918.83333333334</v>
+        <v>45922.83333333334</v>
       </c>
       <c r="B82">
-        <v>6950</v>
+        <v>6954</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45918.84375</v>
+        <v>45922.84375</v>
       </c>
       <c r="B83">
-        <v>6868</v>
+        <v>6900</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -2133,10 +2133,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45918.85416666666</v>
+        <v>45922.85416666666</v>
       </c>
       <c r="B84">
-        <v>6720</v>
+        <v>6813</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45918.86458333334</v>
+        <v>45922.86458333334</v>
       </c>
       <c r="B85">
-        <v>6604</v>
+        <v>6666</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -2161,10 +2161,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45918.875</v>
+        <v>45922.875</v>
       </c>
       <c r="B86">
-        <v>6332</v>
+        <v>6341</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45918.88541666666</v>
+        <v>45922.88541666666</v>
       </c>
       <c r="B87">
-        <v>6214</v>
+        <v>6182</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -2189,10 +2189,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45918.89583333334</v>
+        <v>45922.89583333334</v>
       </c>
       <c r="B88">
-        <v>6033</v>
+        <v>6039</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45918.90625</v>
+        <v>45922.90625</v>
       </c>
       <c r="B89">
-        <v>5935</v>
+        <v>5979</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45918.91666666666</v>
+        <v>45922.91666666666</v>
       </c>
       <c r="B90">
-        <v>5699</v>
+        <v>5745</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45918.92708333334</v>
+        <v>45922.92708333334</v>
       </c>
       <c r="B91">
-        <v>5548</v>
+        <v>5620</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45918.9375</v>
+        <v>45922.9375</v>
       </c>
       <c r="B92">
-        <v>5479</v>
+        <v>5530</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45918.94791666666</v>
+        <v>45922.94791666666</v>
       </c>
       <c r="B93">
-        <v>5402</v>
+        <v>5473</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -2273,10 +2273,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45918.95833333334</v>
+        <v>45922.95833333334</v>
       </c>
       <c r="B94">
-        <v>5291</v>
+        <v>5394</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45918.96875</v>
+        <v>45922.96875</v>
       </c>
       <c r="B95">
-        <v>5246</v>
+        <v>5313</v>
       </c>
       <c r="C95">
         <v>94</v>
@@ -2301,10 +2301,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45918.97916666666</v>
+        <v>45922.97916666666</v>
       </c>
       <c r="B96">
-        <v>5187</v>
+        <v>5194</v>
       </c>
       <c r="C96">
         <v>95</v>
@@ -2315,10 +2315,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>45918.98958333334</v>
+        <v>45922.98958333334</v>
       </c>
       <c r="B97">
-        <v>5150</v>
+        <v>5158</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B98">
-        <v>5053</v>
+        <v>5142</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>45919.01041666666</v>
+        <v>45923.01041666666</v>
       </c>
       <c r="B99">
-        <v>5063</v>
+        <v>5136</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>45919.02083333334</v>
+        <v>45923.02083333334</v>
       </c>
       <c r="B100">
-        <v>5051</v>
+        <v>5093</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2371,10 +2371,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>45919.03125</v>
+        <v>45923.03125</v>
       </c>
       <c r="B101">
-        <v>5031</v>
+        <v>5035</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>45919.04166666666</v>
+        <v>45923.04166666666</v>
       </c>
       <c r="B102">
-        <v>4981</v>
+        <v>5049</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>45919.05208333334</v>
+        <v>45923.05208333334</v>
       </c>
       <c r="B103">
-        <v>5038</v>
+        <v>5056</v>
       </c>
       <c r="C103">
         <v>6</v>
@@ -2413,10 +2413,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>45919.0625</v>
+        <v>45923.0625</v>
       </c>
       <c r="B104">
-        <v>4972</v>
+        <v>5058</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -2427,10 +2427,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>45919.07291666666</v>
+        <v>45923.07291666666</v>
       </c>
       <c r="B105">
-        <v>4985</v>
+        <v>5015</v>
       </c>
       <c r="C105">
         <v>8</v>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>45919.08333333334</v>
+        <v>45923.08333333334</v>
       </c>
       <c r="B106">
-        <v>4933</v>
+        <v>5028</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -2455,10 +2455,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>45919.09375</v>
+        <v>45923.09375</v>
       </c>
       <c r="B107">
-        <v>4949</v>
+        <v>4988</v>
       </c>
       <c r="C107">
         <v>10</v>
@@ -2469,10 +2469,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>45919.10416666666</v>
+        <v>45923.10416666666</v>
       </c>
       <c r="B108">
-        <v>4906</v>
+        <v>4992</v>
       </c>
       <c r="C108">
         <v>11</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>45919.11458333334</v>
+        <v>45923.11458333334</v>
       </c>
       <c r="B109">
-        <v>4922</v>
+        <v>4986</v>
       </c>
       <c r="C109">
         <v>12</v>
@@ -2497,10 +2497,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>45919.125</v>
+        <v>45923.125</v>
       </c>
       <c r="B110">
-        <v>4942</v>
+        <v>5040</v>
       </c>
       <c r="C110">
         <v>13</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>45919.13541666666</v>
+        <v>45923.13541666666</v>
       </c>
       <c r="B111">
-        <v>5011</v>
+        <v>5053</v>
       </c>
       <c r="C111">
         <v>14</v>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>45919.14583333334</v>
+        <v>45923.14583333334</v>
       </c>
       <c r="B112">
-        <v>4974</v>
+        <v>5109</v>
       </c>
       <c r="C112">
         <v>15</v>
@@ -2539,10 +2539,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>45919.15625</v>
+        <v>45923.15625</v>
       </c>
       <c r="B113">
-        <v>4991</v>
+        <v>5027</v>
       </c>
       <c r="C113">
         <v>16</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>45919.16666666666</v>
+        <v>45923.16666666666</v>
       </c>
       <c r="B114">
-        <v>5117</v>
+        <v>5128</v>
       </c>
       <c r="C114">
         <v>17</v>
@@ -2567,10 +2567,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>45919.17708333334</v>
+        <v>45923.17708333334</v>
       </c>
       <c r="B115">
-        <v>5198</v>
+        <v>5163</v>
       </c>
       <c r="C115">
         <v>18</v>
@@ -2581,10 +2581,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>45919.1875</v>
+        <v>45923.1875</v>
       </c>
       <c r="B116">
-        <v>5168</v>
+        <v>5278</v>
       </c>
       <c r="C116">
         <v>19</v>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>45919.19791666666</v>
+        <v>45923.19791666666</v>
       </c>
       <c r="B117">
-        <v>5262</v>
+        <v>5314</v>
       </c>
       <c r="C117">
         <v>20</v>
@@ -2609,10 +2609,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>45919.20833333334</v>
+        <v>45923.20833333334</v>
       </c>
       <c r="B118">
-        <v>5484</v>
+        <v>5556</v>
       </c>
       <c r="C118">
         <v>21</v>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>45919.21875</v>
+        <v>45923.21875</v>
       </c>
       <c r="B119">
-        <v>5587</v>
+        <v>5692</v>
       </c>
       <c r="C119">
         <v>22</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>45919.22916666666</v>
+        <v>45923.22916666666</v>
       </c>
       <c r="B120">
-        <v>5640</v>
+        <v>5780</v>
       </c>
       <c r="C120">
         <v>23</v>
@@ -2651,10 +2651,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>45919.23958333334</v>
+        <v>45923.23958333334</v>
       </c>
       <c r="B121">
-        <v>5709</v>
+        <v>5832</v>
       </c>
       <c r="C121">
         <v>24</v>
@@ -2665,10 +2665,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>45919.25</v>
+        <v>45923.25</v>
       </c>
       <c r="B122">
-        <v>5941</v>
+        <v>6079</v>
       </c>
       <c r="C122">
         <v>25</v>
@@ -2679,10 +2679,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>45919.26041666666</v>
+        <v>45923.26041666666</v>
       </c>
       <c r="B123">
-        <v>6121</v>
+        <v>6252</v>
       </c>
       <c r="C123">
         <v>26</v>
@@ -2693,10 +2693,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>45919.27083333334</v>
+        <v>45923.27083333334</v>
       </c>
       <c r="B124">
-        <v>6129</v>
+        <v>6295</v>
       </c>
       <c r="C124">
         <v>27</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>45919.28125</v>
+        <v>45923.28125</v>
       </c>
       <c r="B125">
-        <v>6160</v>
+        <v>0</v>
       </c>
       <c r="C125">
         <v>28</v>
@@ -2721,10 +2721,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>45919.29166666666</v>
+        <v>45923.29166666666</v>
       </c>
       <c r="B126">
-        <v>6230</v>
+        <v>0</v>
       </c>
       <c r="C126">
         <v>29</v>
@@ -2735,10 +2735,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>45919.30208333334</v>
+        <v>45923.30208333334</v>
       </c>
       <c r="B127">
-        <v>6284</v>
+        <v>0</v>
       </c>
       <c r="C127">
         <v>30</v>
@@ -2749,10 +2749,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>45919.3125</v>
+        <v>45923.3125</v>
       </c>
       <c r="B128">
-        <v>6235</v>
+        <v>0</v>
       </c>
       <c r="C128">
         <v>31</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>45919.32291666666</v>
+        <v>45923.32291666666</v>
       </c>
       <c r="B129">
-        <v>6082</v>
+        <v>0</v>
       </c>
       <c r="C129">
         <v>32</v>
@@ -2777,10 +2777,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>45919.33333333334</v>
+        <v>45923.33333333334</v>
       </c>
       <c r="B130">
-        <v>5983</v>
+        <v>0</v>
       </c>
       <c r="C130">
         <v>33</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>45919.34375</v>
+        <v>45923.34375</v>
       </c>
       <c r="B131">
-        <v>5905</v>
+        <v>0</v>
       </c>
       <c r="C131">
         <v>34</v>
@@ -2805,10 +2805,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>45919.35416666666</v>
+        <v>45923.35416666666</v>
       </c>
       <c r="B132">
-        <v>5815</v>
+        <v>0</v>
       </c>
       <c r="C132">
         <v>35</v>
@@ -2819,10 +2819,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>45919.36458333334</v>
+        <v>45923.36458333334</v>
       </c>
       <c r="B133">
-        <v>5680</v>
+        <v>0</v>
       </c>
       <c r="C133">
         <v>36</v>
@@ -2833,10 +2833,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>45919.375</v>
+        <v>45923.375</v>
       </c>
       <c r="B134">
-        <v>5577</v>
+        <v>0</v>
       </c>
       <c r="C134">
         <v>37</v>
@@ -2847,10 +2847,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>45919.38541666666</v>
+        <v>45923.38541666666</v>
       </c>
       <c r="B135">
-        <v>5473</v>
+        <v>0</v>
       </c>
       <c r="C135">
         <v>38</v>
@@ -2861,10 +2861,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>45919.39583333334</v>
+        <v>45923.39583333334</v>
       </c>
       <c r="B136">
-        <v>5343</v>
+        <v>0</v>
       </c>
       <c r="C136">
         <v>39</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>45919.40625</v>
+        <v>45923.40625</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>45919.41666666666</v>
+        <v>45923.41666666666</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>45919.42708333334</v>
+        <v>45923.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>45919.4375</v>
+        <v>45923.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>45919.44791666666</v>
+        <v>45923.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>45919.45833333334</v>
+        <v>45923.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>45919.46875</v>
+        <v>45923.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>45919.47916666666</v>
+        <v>45923.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>45919.48958333334</v>
+        <v>45923.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>45919.5</v>
+        <v>45923.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>45919.51041666666</v>
+        <v>45923.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>45919.52083333334</v>
+        <v>45923.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>45919.53125</v>
+        <v>45923.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>45919.54166666666</v>
+        <v>45923.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>45919.55208333334</v>
+        <v>45923.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>45919.5625</v>
+        <v>45923.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>45919.57291666666</v>
+        <v>45923.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>45919.58333333334</v>
+        <v>45923.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>45919.59375</v>
+        <v>45923.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>45919.60416666666</v>
+        <v>45923.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>45919.61458333334</v>
+        <v>45923.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>45919.625</v>
+        <v>45923.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>45919.63541666666</v>
+        <v>45923.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>45919.64583333334</v>
+        <v>45923.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>45919.65625</v>
+        <v>45923.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>45919.66666666666</v>
+        <v>45923.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>45919.67708333334</v>
+        <v>45923.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>45919.6875</v>
+        <v>45923.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>45919.69791666666</v>
+        <v>45923.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>45919.70833333334</v>
+        <v>45923.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>45919.71875</v>
+        <v>45923.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>45919.72916666666</v>
+        <v>45923.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>45919.73958333334</v>
+        <v>45923.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>45919.75</v>
+        <v>45923.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>45919.76041666666</v>
+        <v>45923.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>45919.77083333334</v>
+        <v>45923.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>45919.78125</v>
+        <v>45923.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>45919.79166666666</v>
+        <v>45923.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>45919.80208333334</v>
+        <v>45923.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>45919.8125</v>
+        <v>45923.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>45919.82291666666</v>
+        <v>45923.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>45919.83333333334</v>
+        <v>45923.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>45919.84375</v>
+        <v>45923.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>45919.85416666666</v>
+        <v>45923.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>45919.86458333334</v>
+        <v>45923.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>45919.875</v>
+        <v>45923.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>45919.88541666666</v>
+        <v>45923.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>45919.89583333334</v>
+        <v>45923.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>45919.90625</v>
+        <v>45923.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>45919.91666666666</v>
+        <v>45923.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>45919.92708333334</v>
+        <v>45923.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>45919.9375</v>
+        <v>45923.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>45919.94791666666</v>
+        <v>45923.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>45919.95833333334</v>
+        <v>45923.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>45919.96875</v>
+        <v>45923.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>45919.97916666666</v>
+        <v>45923.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>45919.98958333334</v>
+        <v>45923.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
@@ -28,580 +28,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>22.09.20251</t>
-  </si>
-  <si>
-    <t>22.09.20252</t>
-  </si>
-  <si>
-    <t>22.09.20253</t>
-  </si>
-  <si>
-    <t>22.09.20254</t>
-  </si>
-  <si>
-    <t>22.09.20255</t>
-  </si>
-  <si>
-    <t>22.09.20256</t>
-  </si>
-  <si>
-    <t>22.09.20257</t>
-  </si>
-  <si>
-    <t>22.09.20258</t>
-  </si>
-  <si>
-    <t>22.09.20259</t>
-  </si>
-  <si>
-    <t>22.09.202510</t>
-  </si>
-  <si>
-    <t>22.09.202511</t>
-  </si>
-  <si>
-    <t>22.09.202512</t>
-  </si>
-  <si>
-    <t>22.09.202513</t>
-  </si>
-  <si>
-    <t>22.09.202514</t>
-  </si>
-  <si>
-    <t>22.09.202515</t>
-  </si>
-  <si>
-    <t>22.09.202516</t>
-  </si>
-  <si>
-    <t>22.09.202517</t>
-  </si>
-  <si>
-    <t>22.09.202518</t>
-  </si>
-  <si>
-    <t>22.09.202519</t>
-  </si>
-  <si>
-    <t>22.09.202520</t>
-  </si>
-  <si>
-    <t>22.09.202521</t>
-  </si>
-  <si>
-    <t>22.09.202522</t>
-  </si>
-  <si>
-    <t>22.09.202523</t>
-  </si>
-  <si>
-    <t>22.09.202524</t>
-  </si>
-  <si>
-    <t>22.09.202525</t>
-  </si>
-  <si>
-    <t>22.09.202526</t>
-  </si>
-  <si>
-    <t>22.09.202527</t>
-  </si>
-  <si>
-    <t>22.09.202528</t>
-  </si>
-  <si>
-    <t>22.09.202529</t>
-  </si>
-  <si>
-    <t>22.09.202530</t>
-  </si>
-  <si>
-    <t>22.09.202531</t>
-  </si>
-  <si>
-    <t>22.09.202532</t>
-  </si>
-  <si>
-    <t>22.09.202533</t>
-  </si>
-  <si>
-    <t>22.09.202534</t>
-  </si>
-  <si>
-    <t>22.09.202535</t>
-  </si>
-  <si>
-    <t>22.09.202536</t>
-  </si>
-  <si>
-    <t>22.09.202537</t>
-  </si>
-  <si>
-    <t>22.09.202538</t>
-  </si>
-  <si>
-    <t>22.09.202539</t>
-  </si>
-  <si>
-    <t>22.09.202540</t>
-  </si>
-  <si>
-    <t>22.09.202541</t>
-  </si>
-  <si>
-    <t>22.09.202542</t>
-  </si>
-  <si>
-    <t>22.09.202543</t>
-  </si>
-  <si>
-    <t>22.09.202544</t>
-  </si>
-  <si>
-    <t>22.09.202545</t>
-  </si>
-  <si>
-    <t>22.09.202546</t>
-  </si>
-  <si>
-    <t>22.09.202547</t>
-  </si>
-  <si>
-    <t>22.09.202548</t>
-  </si>
-  <si>
-    <t>22.09.202549</t>
-  </si>
-  <si>
-    <t>22.09.202550</t>
-  </si>
-  <si>
-    <t>22.09.202551</t>
-  </si>
-  <si>
-    <t>22.09.202552</t>
-  </si>
-  <si>
-    <t>22.09.202553</t>
-  </si>
-  <si>
-    <t>22.09.202554</t>
-  </si>
-  <si>
-    <t>22.09.202555</t>
-  </si>
-  <si>
-    <t>22.09.202556</t>
-  </si>
-  <si>
-    <t>22.09.202557</t>
-  </si>
-  <si>
-    <t>22.09.202558</t>
-  </si>
-  <si>
-    <t>22.09.202559</t>
-  </si>
-  <si>
-    <t>22.09.202560</t>
-  </si>
-  <si>
-    <t>22.09.202561</t>
-  </si>
-  <si>
-    <t>22.09.202562</t>
-  </si>
-  <si>
-    <t>22.09.202563</t>
-  </si>
-  <si>
-    <t>22.09.202564</t>
-  </si>
-  <si>
-    <t>22.09.202565</t>
-  </si>
-  <si>
-    <t>22.09.202566</t>
-  </si>
-  <si>
-    <t>22.09.202567</t>
-  </si>
-  <si>
-    <t>22.09.202568</t>
-  </si>
-  <si>
-    <t>22.09.202569</t>
-  </si>
-  <si>
-    <t>22.09.202570</t>
-  </si>
-  <si>
-    <t>22.09.202571</t>
-  </si>
-  <si>
-    <t>22.09.202572</t>
-  </si>
-  <si>
-    <t>22.09.202573</t>
-  </si>
-  <si>
-    <t>22.09.202574</t>
-  </si>
-  <si>
-    <t>22.09.202575</t>
-  </si>
-  <si>
-    <t>22.09.202576</t>
-  </si>
-  <si>
-    <t>22.09.202577</t>
-  </si>
-  <si>
-    <t>22.09.202578</t>
-  </si>
-  <si>
-    <t>22.09.202579</t>
-  </si>
-  <si>
-    <t>22.09.202580</t>
-  </si>
-  <si>
-    <t>22.09.202581</t>
-  </si>
-  <si>
-    <t>22.09.202582</t>
-  </si>
-  <si>
-    <t>22.09.202583</t>
-  </si>
-  <si>
-    <t>22.09.202584</t>
-  </si>
-  <si>
-    <t>22.09.202585</t>
-  </si>
-  <si>
-    <t>22.09.202586</t>
-  </si>
-  <si>
-    <t>22.09.202587</t>
-  </si>
-  <si>
-    <t>22.09.202588</t>
-  </si>
-  <si>
-    <t>22.09.202589</t>
-  </si>
-  <si>
-    <t>22.09.202590</t>
-  </si>
-  <si>
-    <t>22.09.202591</t>
-  </si>
-  <si>
-    <t>22.09.202592</t>
-  </si>
-  <si>
-    <t>22.09.202593</t>
-  </si>
-  <si>
-    <t>22.09.202594</t>
-  </si>
-  <si>
-    <t>22.09.202595</t>
-  </si>
-  <si>
-    <t>22.09.202596</t>
-  </si>
-  <si>
-    <t>23.09.20251</t>
-  </si>
-  <si>
-    <t>23.09.20252</t>
-  </si>
-  <si>
-    <t>23.09.20253</t>
-  </si>
-  <si>
-    <t>23.09.20254</t>
-  </si>
-  <si>
-    <t>23.09.20255</t>
-  </si>
-  <si>
-    <t>23.09.20256</t>
-  </si>
-  <si>
-    <t>23.09.20257</t>
-  </si>
-  <si>
-    <t>23.09.20258</t>
-  </si>
-  <si>
-    <t>23.09.20259</t>
-  </si>
-  <si>
-    <t>23.09.202510</t>
-  </si>
-  <si>
-    <t>23.09.202511</t>
-  </si>
-  <si>
-    <t>23.09.202512</t>
-  </si>
-  <si>
-    <t>23.09.202513</t>
-  </si>
-  <si>
-    <t>23.09.202514</t>
-  </si>
-  <si>
-    <t>23.09.202515</t>
-  </si>
-  <si>
-    <t>23.09.202516</t>
-  </si>
-  <si>
-    <t>23.09.202517</t>
-  </si>
-  <si>
-    <t>23.09.202518</t>
-  </si>
-  <si>
-    <t>23.09.202519</t>
-  </si>
-  <si>
-    <t>23.09.202520</t>
-  </si>
-  <si>
-    <t>23.09.202521</t>
-  </si>
-  <si>
-    <t>23.09.202522</t>
-  </si>
-  <si>
-    <t>23.09.202523</t>
-  </si>
-  <si>
-    <t>23.09.202524</t>
-  </si>
-  <si>
-    <t>23.09.202525</t>
-  </si>
-  <si>
-    <t>23.09.202526</t>
-  </si>
-  <si>
-    <t>23.09.202527</t>
-  </si>
-  <si>
-    <t>23.09.202528</t>
-  </si>
-  <si>
-    <t>23.09.202529</t>
-  </si>
-  <si>
-    <t>23.09.202530</t>
-  </si>
-  <si>
-    <t>23.09.202531</t>
-  </si>
-  <si>
-    <t>23.09.202532</t>
-  </si>
-  <si>
-    <t>23.09.202533</t>
-  </si>
-  <si>
-    <t>23.09.202534</t>
-  </si>
-  <si>
-    <t>23.09.202535</t>
-  </si>
-  <si>
-    <t>23.09.202536</t>
-  </si>
-  <si>
-    <t>23.09.202537</t>
-  </si>
-  <si>
-    <t>23.09.202538</t>
-  </si>
-  <si>
-    <t>23.09.202539</t>
-  </si>
-  <si>
-    <t>23.09.202540</t>
-  </si>
-  <si>
-    <t>23.09.202541</t>
-  </si>
-  <si>
-    <t>23.09.202542</t>
-  </si>
-  <si>
-    <t>23.09.202543</t>
-  </si>
-  <si>
-    <t>23.09.202544</t>
-  </si>
-  <si>
-    <t>23.09.202545</t>
-  </si>
-  <si>
-    <t>23.09.202546</t>
-  </si>
-  <si>
-    <t>23.09.202547</t>
-  </si>
-  <si>
-    <t>23.09.202548</t>
-  </si>
-  <si>
-    <t>23.09.202549</t>
-  </si>
-  <si>
-    <t>23.09.202550</t>
-  </si>
-  <si>
-    <t>23.09.202551</t>
-  </si>
-  <si>
-    <t>23.09.202552</t>
-  </si>
-  <si>
-    <t>23.09.202553</t>
-  </si>
-  <si>
-    <t>23.09.202554</t>
-  </si>
-  <si>
-    <t>23.09.202555</t>
-  </si>
-  <si>
-    <t>23.09.202556</t>
-  </si>
-  <si>
-    <t>23.09.202557</t>
-  </si>
-  <si>
-    <t>23.09.202558</t>
-  </si>
-  <si>
-    <t>23.09.202559</t>
-  </si>
-  <si>
-    <t>23.09.202560</t>
-  </si>
-  <si>
-    <t>23.09.202561</t>
-  </si>
-  <si>
-    <t>23.09.202562</t>
-  </si>
-  <si>
-    <t>23.09.202563</t>
-  </si>
-  <si>
-    <t>23.09.202564</t>
-  </si>
-  <si>
-    <t>23.09.202565</t>
-  </si>
-  <si>
-    <t>23.09.202566</t>
-  </si>
-  <si>
-    <t>23.09.202567</t>
-  </si>
-  <si>
-    <t>23.09.202568</t>
-  </si>
-  <si>
-    <t>23.09.202569</t>
-  </si>
-  <si>
-    <t>23.09.202570</t>
-  </si>
-  <si>
-    <t>23.09.202571</t>
-  </si>
-  <si>
-    <t>23.09.202572</t>
-  </si>
-  <si>
-    <t>23.09.202573</t>
-  </si>
-  <si>
-    <t>23.09.202574</t>
-  </si>
-  <si>
-    <t>23.09.202575</t>
-  </si>
-  <si>
-    <t>23.09.202576</t>
-  </si>
-  <si>
-    <t>23.09.202577</t>
-  </si>
-  <si>
-    <t>23.09.202578</t>
-  </si>
-  <si>
-    <t>23.09.202579</t>
-  </si>
-  <si>
-    <t>23.09.202580</t>
-  </si>
-  <si>
-    <t>23.09.202581</t>
-  </si>
-  <si>
-    <t>23.09.202582</t>
-  </si>
-  <si>
-    <t>23.09.202583</t>
-  </si>
-  <si>
-    <t>23.09.202584</t>
-  </si>
-  <si>
-    <t>23.09.202585</t>
-  </si>
-  <si>
-    <t>23.09.202586</t>
-  </si>
-  <si>
-    <t>23.09.202587</t>
-  </si>
-  <si>
-    <t>23.09.202588</t>
-  </si>
-  <si>
-    <t>23.09.202589</t>
-  </si>
-  <si>
-    <t>23.09.202590</t>
-  </si>
-  <si>
-    <t>23.09.202591</t>
-  </si>
-  <si>
-    <t>23.09.202592</t>
-  </si>
-  <si>
-    <t>23.09.202593</t>
-  </si>
-  <si>
-    <t>23.09.202594</t>
-  </si>
-  <si>
-    <t>23.09.202595</t>
-  </si>
-  <si>
-    <t>23.09.202596</t>
+    <t>01.10.20251</t>
+  </si>
+  <si>
+    <t>01.10.20252</t>
+  </si>
+  <si>
+    <t>01.10.20253</t>
+  </si>
+  <si>
+    <t>01.10.20254</t>
+  </si>
+  <si>
+    <t>01.10.20255</t>
+  </si>
+  <si>
+    <t>01.10.20256</t>
+  </si>
+  <si>
+    <t>01.10.20257</t>
+  </si>
+  <si>
+    <t>01.10.20258</t>
+  </si>
+  <si>
+    <t>01.10.20259</t>
+  </si>
+  <si>
+    <t>01.10.202510</t>
+  </si>
+  <si>
+    <t>01.10.202511</t>
+  </si>
+  <si>
+    <t>01.10.202512</t>
+  </si>
+  <si>
+    <t>01.10.202513</t>
+  </si>
+  <si>
+    <t>01.10.202514</t>
+  </si>
+  <si>
+    <t>01.10.202515</t>
+  </si>
+  <si>
+    <t>01.10.202516</t>
+  </si>
+  <si>
+    <t>01.10.202517</t>
+  </si>
+  <si>
+    <t>01.10.202518</t>
+  </si>
+  <si>
+    <t>01.10.202519</t>
+  </si>
+  <si>
+    <t>01.10.202520</t>
+  </si>
+  <si>
+    <t>01.10.202521</t>
+  </si>
+  <si>
+    <t>01.10.202522</t>
+  </si>
+  <si>
+    <t>01.10.202523</t>
+  </si>
+  <si>
+    <t>01.10.202524</t>
+  </si>
+  <si>
+    <t>01.10.202525</t>
+  </si>
+  <si>
+    <t>01.10.202526</t>
+  </si>
+  <si>
+    <t>01.10.202527</t>
+  </si>
+  <si>
+    <t>01.10.202528</t>
+  </si>
+  <si>
+    <t>01.10.202529</t>
+  </si>
+  <si>
+    <t>01.10.202530</t>
+  </si>
+  <si>
+    <t>01.10.202531</t>
+  </si>
+  <si>
+    <t>01.10.202532</t>
+  </si>
+  <si>
+    <t>01.10.202533</t>
+  </si>
+  <si>
+    <t>01.10.202534</t>
+  </si>
+  <si>
+    <t>01.10.202535</t>
+  </si>
+  <si>
+    <t>01.10.202536</t>
+  </si>
+  <si>
+    <t>01.10.202537</t>
+  </si>
+  <si>
+    <t>01.10.202538</t>
+  </si>
+  <si>
+    <t>01.10.202539</t>
+  </si>
+  <si>
+    <t>01.10.202540</t>
+  </si>
+  <si>
+    <t>01.10.202541</t>
+  </si>
+  <si>
+    <t>01.10.202542</t>
+  </si>
+  <si>
+    <t>01.10.202543</t>
+  </si>
+  <si>
+    <t>01.10.202544</t>
+  </si>
+  <si>
+    <t>01.10.202545</t>
+  </si>
+  <si>
+    <t>01.10.202546</t>
+  </si>
+  <si>
+    <t>01.10.202547</t>
+  </si>
+  <si>
+    <t>01.10.202548</t>
+  </si>
+  <si>
+    <t>01.10.202549</t>
+  </si>
+  <si>
+    <t>01.10.202550</t>
+  </si>
+  <si>
+    <t>01.10.202551</t>
+  </si>
+  <si>
+    <t>01.10.202552</t>
+  </si>
+  <si>
+    <t>01.10.202553</t>
+  </si>
+  <si>
+    <t>01.10.202554</t>
+  </si>
+  <si>
+    <t>01.10.202555</t>
+  </si>
+  <si>
+    <t>01.10.202556</t>
+  </si>
+  <si>
+    <t>01.10.202557</t>
+  </si>
+  <si>
+    <t>01.10.202558</t>
+  </si>
+  <si>
+    <t>01.10.202559</t>
+  </si>
+  <si>
+    <t>01.10.202560</t>
+  </si>
+  <si>
+    <t>01.10.202561</t>
+  </si>
+  <si>
+    <t>01.10.202562</t>
+  </si>
+  <si>
+    <t>01.10.202563</t>
+  </si>
+  <si>
+    <t>01.10.202564</t>
+  </si>
+  <si>
+    <t>01.10.202565</t>
+  </si>
+  <si>
+    <t>01.10.202566</t>
+  </si>
+  <si>
+    <t>01.10.202567</t>
+  </si>
+  <si>
+    <t>01.10.202568</t>
+  </si>
+  <si>
+    <t>01.10.202569</t>
+  </si>
+  <si>
+    <t>01.10.202570</t>
+  </si>
+  <si>
+    <t>01.10.202571</t>
+  </si>
+  <si>
+    <t>01.10.202572</t>
+  </si>
+  <si>
+    <t>01.10.202573</t>
+  </si>
+  <si>
+    <t>01.10.202574</t>
+  </si>
+  <si>
+    <t>01.10.202575</t>
+  </si>
+  <si>
+    <t>01.10.202576</t>
+  </si>
+  <si>
+    <t>01.10.202577</t>
+  </si>
+  <si>
+    <t>01.10.202578</t>
+  </si>
+  <si>
+    <t>01.10.202579</t>
+  </si>
+  <si>
+    <t>01.10.202580</t>
+  </si>
+  <si>
+    <t>01.10.202581</t>
+  </si>
+  <si>
+    <t>01.10.202582</t>
+  </si>
+  <si>
+    <t>01.10.202583</t>
+  </si>
+  <si>
+    <t>01.10.202584</t>
+  </si>
+  <si>
+    <t>01.10.202585</t>
+  </si>
+  <si>
+    <t>01.10.202586</t>
+  </si>
+  <si>
+    <t>01.10.202587</t>
+  </si>
+  <si>
+    <t>01.10.202588</t>
+  </si>
+  <si>
+    <t>01.10.202589</t>
+  </si>
+  <si>
+    <t>01.10.202590</t>
+  </si>
+  <si>
+    <t>01.10.202591</t>
+  </si>
+  <si>
+    <t>01.10.202592</t>
+  </si>
+  <si>
+    <t>01.10.202593</t>
+  </si>
+  <si>
+    <t>01.10.202594</t>
+  </si>
+  <si>
+    <t>01.10.202595</t>
+  </si>
+  <si>
+    <t>01.10.202596</t>
+  </si>
+  <si>
+    <t>02.10.20251</t>
+  </si>
+  <si>
+    <t>02.10.20252</t>
+  </si>
+  <si>
+    <t>02.10.20253</t>
+  </si>
+  <si>
+    <t>02.10.20254</t>
+  </si>
+  <si>
+    <t>02.10.20255</t>
+  </si>
+  <si>
+    <t>02.10.20256</t>
+  </si>
+  <si>
+    <t>02.10.20257</t>
+  </si>
+  <si>
+    <t>02.10.20258</t>
+  </si>
+  <si>
+    <t>02.10.20259</t>
+  </si>
+  <si>
+    <t>02.10.202510</t>
+  </si>
+  <si>
+    <t>02.10.202511</t>
+  </si>
+  <si>
+    <t>02.10.202512</t>
+  </si>
+  <si>
+    <t>02.10.202513</t>
+  </si>
+  <si>
+    <t>02.10.202514</t>
+  </si>
+  <si>
+    <t>02.10.202515</t>
+  </si>
+  <si>
+    <t>02.10.202516</t>
+  </si>
+  <si>
+    <t>02.10.202517</t>
+  </si>
+  <si>
+    <t>02.10.202518</t>
+  </si>
+  <si>
+    <t>02.10.202519</t>
+  </si>
+  <si>
+    <t>02.10.202520</t>
+  </si>
+  <si>
+    <t>02.10.202521</t>
+  </si>
+  <si>
+    <t>02.10.202522</t>
+  </si>
+  <si>
+    <t>02.10.202523</t>
+  </si>
+  <si>
+    <t>02.10.202524</t>
+  </si>
+  <si>
+    <t>02.10.202525</t>
+  </si>
+  <si>
+    <t>02.10.202526</t>
+  </si>
+  <si>
+    <t>02.10.202527</t>
+  </si>
+  <si>
+    <t>02.10.202528</t>
+  </si>
+  <si>
+    <t>02.10.202529</t>
+  </si>
+  <si>
+    <t>02.10.202530</t>
+  </si>
+  <si>
+    <t>02.10.202531</t>
+  </si>
+  <si>
+    <t>02.10.202532</t>
+  </si>
+  <si>
+    <t>02.10.202533</t>
+  </si>
+  <si>
+    <t>02.10.202534</t>
+  </si>
+  <si>
+    <t>02.10.202535</t>
+  </si>
+  <si>
+    <t>02.10.202536</t>
+  </si>
+  <si>
+    <t>02.10.202537</t>
+  </si>
+  <si>
+    <t>02.10.202538</t>
+  </si>
+  <si>
+    <t>02.10.202539</t>
+  </si>
+  <si>
+    <t>02.10.202540</t>
+  </si>
+  <si>
+    <t>02.10.202541</t>
+  </si>
+  <si>
+    <t>02.10.202542</t>
+  </si>
+  <si>
+    <t>02.10.202543</t>
+  </si>
+  <si>
+    <t>02.10.202544</t>
+  </si>
+  <si>
+    <t>02.10.202545</t>
+  </si>
+  <si>
+    <t>02.10.202546</t>
+  </si>
+  <si>
+    <t>02.10.202547</t>
+  </si>
+  <si>
+    <t>02.10.202548</t>
+  </si>
+  <si>
+    <t>02.10.202549</t>
+  </si>
+  <si>
+    <t>02.10.202550</t>
+  </si>
+  <si>
+    <t>02.10.202551</t>
+  </si>
+  <si>
+    <t>02.10.202552</t>
+  </si>
+  <si>
+    <t>02.10.202553</t>
+  </si>
+  <si>
+    <t>02.10.202554</t>
+  </si>
+  <si>
+    <t>02.10.202555</t>
+  </si>
+  <si>
+    <t>02.10.202556</t>
+  </si>
+  <si>
+    <t>02.10.202557</t>
+  </si>
+  <si>
+    <t>02.10.202558</t>
+  </si>
+  <si>
+    <t>02.10.202559</t>
+  </si>
+  <si>
+    <t>02.10.202560</t>
+  </si>
+  <si>
+    <t>02.10.202561</t>
+  </si>
+  <si>
+    <t>02.10.202562</t>
+  </si>
+  <si>
+    <t>02.10.202563</t>
+  </si>
+  <si>
+    <t>02.10.202564</t>
+  </si>
+  <si>
+    <t>02.10.202565</t>
+  </si>
+  <si>
+    <t>02.10.202566</t>
+  </si>
+  <si>
+    <t>02.10.202567</t>
+  </si>
+  <si>
+    <t>02.10.202568</t>
+  </si>
+  <si>
+    <t>02.10.202569</t>
+  </si>
+  <si>
+    <t>02.10.202570</t>
+  </si>
+  <si>
+    <t>02.10.202571</t>
+  </si>
+  <si>
+    <t>02.10.202572</t>
+  </si>
+  <si>
+    <t>02.10.202573</t>
+  </si>
+  <si>
+    <t>02.10.202574</t>
+  </si>
+  <si>
+    <t>02.10.202575</t>
+  </si>
+  <si>
+    <t>02.10.202576</t>
+  </si>
+  <si>
+    <t>02.10.202577</t>
+  </si>
+  <si>
+    <t>02.10.202578</t>
+  </si>
+  <si>
+    <t>02.10.202579</t>
+  </si>
+  <si>
+    <t>02.10.202580</t>
+  </si>
+  <si>
+    <t>02.10.202581</t>
+  </si>
+  <si>
+    <t>02.10.202582</t>
+  </si>
+  <si>
+    <t>02.10.202583</t>
+  </si>
+  <si>
+    <t>02.10.202584</t>
+  </si>
+  <si>
+    <t>02.10.202585</t>
+  </si>
+  <si>
+    <t>02.10.202586</t>
+  </si>
+  <si>
+    <t>02.10.202587</t>
+  </si>
+  <si>
+    <t>02.10.202588</t>
+  </si>
+  <si>
+    <t>02.10.202589</t>
+  </si>
+  <si>
+    <t>02.10.202590</t>
+  </si>
+  <si>
+    <t>02.10.202591</t>
+  </si>
+  <si>
+    <t>02.10.202592</t>
+  </si>
+  <si>
+    <t>02.10.202593</t>
+  </si>
+  <si>
+    <t>02.10.202594</t>
+  </si>
+  <si>
+    <t>02.10.202595</t>
+  </si>
+  <si>
+    <t>02.10.202596</t>
   </si>
 </sst>
 </file>
@@ -985,10 +985,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45922</v>
+        <v>45931</v>
       </c>
       <c r="B2">
-        <v>4628</v>
+        <v>5352</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -999,10 +999,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45922.01041666666</v>
+        <v>45931.01041666666</v>
       </c>
       <c r="B3">
-        <v>4648</v>
+        <v>5337</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45922.02083333334</v>
+        <v>45931.02083333334</v>
       </c>
       <c r="B4">
-        <v>4624</v>
+        <v>5258</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45922.03125</v>
+        <v>45931.03125</v>
       </c>
       <c r="B5">
-        <v>4608</v>
+        <v>5267</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45922.04166666666</v>
+        <v>45931.04166666666</v>
       </c>
       <c r="B6">
-        <v>4557</v>
+        <v>5199</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45922.05208333334</v>
+        <v>45931.05208333334</v>
       </c>
       <c r="B7">
-        <v>4564</v>
+        <v>5186</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45922.0625</v>
+        <v>45931.0625</v>
       </c>
       <c r="B8">
-        <v>4581</v>
+        <v>5162</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45922.07291666666</v>
+        <v>45931.07291666666</v>
       </c>
       <c r="B9">
-        <v>4572</v>
+        <v>5141</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45922.08333333334</v>
+        <v>45931.08333333334</v>
       </c>
       <c r="B10">
-        <v>4590</v>
+        <v>5146</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1111,10 +1111,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45922.09375</v>
+        <v>45931.09375</v>
       </c>
       <c r="B11">
-        <v>4531</v>
+        <v>5161</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45922.10416666666</v>
+        <v>45931.10416666666</v>
       </c>
       <c r="B12">
-        <v>4542</v>
+        <v>5131</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1139,10 +1139,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45922.11458333334</v>
+        <v>45931.11458333334</v>
       </c>
       <c r="B13">
-        <v>4525</v>
+        <v>5130</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45922.125</v>
+        <v>45931.125</v>
       </c>
       <c r="B14">
-        <v>4571</v>
+        <v>5161</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45922.13541666666</v>
+        <v>45931.13541666666</v>
       </c>
       <c r="B15">
-        <v>4524</v>
+        <v>5151</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1181,10 +1181,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45922.14583333334</v>
+        <v>45931.14583333334</v>
       </c>
       <c r="B16">
-        <v>4581</v>
+        <v>5135</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45922.15625</v>
+        <v>45931.15625</v>
       </c>
       <c r="B17">
-        <v>4597</v>
+        <v>5153</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1209,10 +1209,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45922.16666666666</v>
+        <v>45931.16666666666</v>
       </c>
       <c r="B18">
-        <v>4725</v>
+        <v>5265</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1223,10 +1223,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45922.17708333334</v>
+        <v>45931.17708333334</v>
       </c>
       <c r="B19">
-        <v>4698</v>
+        <v>5273</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1237,10 +1237,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45922.1875</v>
+        <v>45931.1875</v>
       </c>
       <c r="B20">
-        <v>4851</v>
+        <v>5369</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45922.19791666666</v>
+        <v>45931.19791666666</v>
       </c>
       <c r="B21">
-        <v>4948</v>
+        <v>5467</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45922.20833333334</v>
+        <v>45931.20833333334</v>
       </c>
       <c r="B22">
-        <v>5159</v>
+        <v>5657</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45922.21875</v>
+        <v>45931.21875</v>
       </c>
       <c r="B23">
-        <v>5276</v>
+        <v>5759</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1293,10 +1293,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45922.22916666666</v>
+        <v>45931.22916666666</v>
       </c>
       <c r="B24">
-        <v>5435</v>
+        <v>5966</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45922.23958333334</v>
+        <v>45931.23958333334</v>
       </c>
       <c r="B25">
-        <v>5649</v>
+        <v>6124</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45922.25</v>
+        <v>45931.25</v>
       </c>
       <c r="B26">
-        <v>5831</v>
+        <v>6313</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45922.26041666666</v>
+        <v>45931.26041666666</v>
       </c>
       <c r="B27">
-        <v>5946</v>
+        <v>6420</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45922.27083333334</v>
+        <v>45931.27083333334</v>
       </c>
       <c r="B28">
-        <v>6034</v>
+        <v>6480</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45922.28125</v>
+        <v>45931.28125</v>
       </c>
       <c r="B29">
-        <v>6072</v>
+        <v>6508</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45922.29166666666</v>
+        <v>45931.29166666666</v>
       </c>
       <c r="B30">
-        <v>6114</v>
+        <v>6667</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1391,10 +1391,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45922.30208333334</v>
+        <v>45931.30208333334</v>
       </c>
       <c r="B31">
-        <v>6131</v>
+        <v>6676</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45922.3125</v>
+        <v>45931.3125</v>
       </c>
       <c r="B32">
-        <v>6019</v>
+        <v>6684</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1419,10 +1419,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45922.32291666666</v>
+        <v>45931.32291666666</v>
       </c>
       <c r="B33">
-        <v>5965</v>
+        <v>6654</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1433,10 +1433,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45922.33333333334</v>
+        <v>45931.33333333334</v>
       </c>
       <c r="B34">
-        <v>5848</v>
+        <v>6565</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1447,10 +1447,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45922.34375</v>
+        <v>45931.34375</v>
       </c>
       <c r="B35">
-        <v>5733</v>
+        <v>6421</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45922.35416666666</v>
+        <v>45931.35416666666</v>
       </c>
       <c r="B36">
-        <v>5650</v>
+        <v>6401</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45922.36458333334</v>
+        <v>45931.36458333334</v>
       </c>
       <c r="B37">
-        <v>5613</v>
+        <v>6394</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1489,10 +1489,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45922.375</v>
+        <v>45931.375</v>
       </c>
       <c r="B38">
-        <v>5286</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45922.38541666666</v>
+        <v>45931.38541666666</v>
       </c>
       <c r="B39">
-        <v>5276</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45922.39583333334</v>
+        <v>45931.39583333334</v>
       </c>
       <c r="B40">
-        <v>5202</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45922.40625</v>
+        <v>45931.40625</v>
       </c>
       <c r="B41">
-        <v>5064</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45922.41666666666</v>
+        <v>45931.41666666666</v>
       </c>
       <c r="B42">
-        <v>4863</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45922.42708333334</v>
+        <v>45931.42708333334</v>
       </c>
       <c r="B43">
-        <v>4804</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45922.4375</v>
+        <v>45931.4375</v>
       </c>
       <c r="B44">
-        <v>4769</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45922.44791666666</v>
+        <v>45931.44791666666</v>
       </c>
       <c r="B45">
-        <v>4725</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45922.45833333334</v>
+        <v>45931.45833333334</v>
       </c>
       <c r="B46">
-        <v>4557</v>
+        <v>0</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45922.46875</v>
+        <v>45931.46875</v>
       </c>
       <c r="B47">
-        <v>4552</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45922.47916666666</v>
+        <v>45931.47916666666</v>
       </c>
       <c r="B48">
-        <v>4556</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1643,10 +1643,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45922.48958333334</v>
+        <v>45931.48958333334</v>
       </c>
       <c r="B49">
-        <v>4599</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45922.5</v>
+        <v>45931.5</v>
       </c>
       <c r="B50">
-        <v>4504</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1671,10 +1671,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45922.51041666666</v>
+        <v>45931.51041666666</v>
       </c>
       <c r="B51">
-        <v>4592</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45922.52083333334</v>
+        <v>45931.52083333334</v>
       </c>
       <c r="B52">
-        <v>4612</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1699,10 +1699,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45922.53125</v>
+        <v>45931.53125</v>
       </c>
       <c r="B53">
-        <v>4606</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45922.54166666666</v>
+        <v>45931.54166666666</v>
       </c>
       <c r="B54">
-        <v>4620</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45922.55208333334</v>
+        <v>45931.55208333334</v>
       </c>
       <c r="B55">
-        <v>4640</v>
+        <v>0</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45922.5625</v>
+        <v>45931.5625</v>
       </c>
       <c r="B56">
-        <v>4660</v>
+        <v>0</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -1755,10 +1755,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45922.57291666666</v>
+        <v>45931.57291666666</v>
       </c>
       <c r="B57">
-        <v>4729</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45922.58333333334</v>
+        <v>45931.58333333334</v>
       </c>
       <c r="B58">
-        <v>4836</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45922.59375</v>
+        <v>45931.59375</v>
       </c>
       <c r="B59">
-        <v>4884</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45922.60416666666</v>
+        <v>45931.60416666666</v>
       </c>
       <c r="B60">
-        <v>4886</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -1811,10 +1811,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45922.61458333334</v>
+        <v>45931.61458333334</v>
       </c>
       <c r="B61">
-        <v>5020</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45922.625</v>
+        <v>45931.625</v>
       </c>
       <c r="B62">
-        <v>5142</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45922.63541666666</v>
+        <v>45931.63541666666</v>
       </c>
       <c r="B63">
-        <v>5267</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -1853,10 +1853,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45922.64583333334</v>
+        <v>45931.64583333334</v>
       </c>
       <c r="B64">
-        <v>5399</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45922.65625</v>
+        <v>45931.65625</v>
       </c>
       <c r="B65">
-        <v>5544</v>
+        <v>0</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45922.66666666666</v>
+        <v>45931.66666666666</v>
       </c>
       <c r="B66">
-        <v>5714</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45922.67708333334</v>
+        <v>45931.67708333334</v>
       </c>
       <c r="B67">
-        <v>5825</v>
+        <v>0</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45922.6875</v>
+        <v>45931.6875</v>
       </c>
       <c r="B68">
-        <v>6011</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45922.69791666666</v>
+        <v>45931.69791666666</v>
       </c>
       <c r="B69">
-        <v>6178</v>
+        <v>0</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45922.70833333334</v>
+        <v>45931.70833333334</v>
       </c>
       <c r="B70">
-        <v>6277</v>
+        <v>0</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45922.71875</v>
+        <v>45931.71875</v>
       </c>
       <c r="B71">
-        <v>6427</v>
+        <v>0</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45922.72916666666</v>
+        <v>45931.72916666666</v>
       </c>
       <c r="B72">
-        <v>6545</v>
+        <v>0</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45922.73958333334</v>
+        <v>45931.73958333334</v>
       </c>
       <c r="B73">
-        <v>6669</v>
+        <v>0</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45922.75</v>
+        <v>45931.75</v>
       </c>
       <c r="B74">
-        <v>6698</v>
+        <v>0</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -2007,10 +2007,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45922.76041666666</v>
+        <v>45931.76041666666</v>
       </c>
       <c r="B75">
-        <v>6845</v>
+        <v>0</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45922.77083333334</v>
+        <v>45931.77083333334</v>
       </c>
       <c r="B76">
-        <v>7008</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45922.78125</v>
+        <v>45931.78125</v>
       </c>
       <c r="B77">
-        <v>7171</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -2049,10 +2049,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45922.79166666666</v>
+        <v>45931.79166666666</v>
       </c>
       <c r="B78">
-        <v>7179</v>
+        <v>0</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45922.80208333334</v>
+        <v>45931.80208333334</v>
       </c>
       <c r="B79">
-        <v>7193</v>
+        <v>0</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45922.8125</v>
+        <v>45931.8125</v>
       </c>
       <c r="B80">
-        <v>7155</v>
+        <v>0</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45922.82291666666</v>
+        <v>45931.82291666666</v>
       </c>
       <c r="B81">
-        <v>7095</v>
+        <v>0</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -2105,10 +2105,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45922.83333333334</v>
+        <v>45931.83333333334</v>
       </c>
       <c r="B82">
-        <v>6954</v>
+        <v>0</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45922.84375</v>
+        <v>45931.84375</v>
       </c>
       <c r="B83">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -2133,10 +2133,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45922.85416666666</v>
+        <v>45931.85416666666</v>
       </c>
       <c r="B84">
-        <v>6813</v>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45922.86458333334</v>
+        <v>45931.86458333334</v>
       </c>
       <c r="B85">
-        <v>6666</v>
+        <v>0</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -2161,10 +2161,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45922.875</v>
+        <v>45931.875</v>
       </c>
       <c r="B86">
-        <v>6341</v>
+        <v>0</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45922.88541666666</v>
+        <v>45931.88541666666</v>
       </c>
       <c r="B87">
-        <v>6182</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -2189,10 +2189,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45922.89583333334</v>
+        <v>45931.89583333334</v>
       </c>
       <c r="B88">
-        <v>6039</v>
+        <v>0</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45922.90625</v>
+        <v>45931.90625</v>
       </c>
       <c r="B89">
-        <v>5979</v>
+        <v>0</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45922.91666666666</v>
+        <v>45931.91666666666</v>
       </c>
       <c r="B90">
-        <v>5745</v>
+        <v>0</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45922.92708333334</v>
+        <v>45931.92708333334</v>
       </c>
       <c r="B91">
-        <v>5620</v>
+        <v>0</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45922.9375</v>
+        <v>45931.9375</v>
       </c>
       <c r="B92">
-        <v>5530</v>
+        <v>0</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45922.94791666666</v>
+        <v>45931.94791666666</v>
       </c>
       <c r="B93">
-        <v>5473</v>
+        <v>0</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -2273,10 +2273,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45922.95833333334</v>
+        <v>45931.95833333334</v>
       </c>
       <c r="B94">
-        <v>5394</v>
+        <v>0</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45922.96875</v>
+        <v>45931.96875</v>
       </c>
       <c r="B95">
-        <v>5313</v>
+        <v>0</v>
       </c>
       <c r="C95">
         <v>94</v>
@@ -2301,10 +2301,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45922.97916666666</v>
+        <v>45931.97916666666</v>
       </c>
       <c r="B96">
-        <v>5194</v>
+        <v>0</v>
       </c>
       <c r="C96">
         <v>95</v>
@@ -2315,10 +2315,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>45922.98958333334</v>
+        <v>45931.98958333334</v>
       </c>
       <c r="B97">
-        <v>5158</v>
+        <v>0</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>45923</v>
+        <v>45932</v>
       </c>
       <c r="B98">
-        <v>5142</v>
+        <v>0</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>45923.01041666666</v>
+        <v>45932.01041666666</v>
       </c>
       <c r="B99">
-        <v>5136</v>
+        <v>0</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>45923.02083333334</v>
+        <v>45932.02083333334</v>
       </c>
       <c r="B100">
-        <v>5093</v>
+        <v>0</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2371,10 +2371,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>45923.03125</v>
+        <v>45932.03125</v>
       </c>
       <c r="B101">
-        <v>5035</v>
+        <v>0</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>45923.04166666666</v>
+        <v>45932.04166666666</v>
       </c>
       <c r="B102">
-        <v>5049</v>
+        <v>0</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>45923.05208333334</v>
+        <v>45932.05208333334</v>
       </c>
       <c r="B103">
-        <v>5056</v>
+        <v>0</v>
       </c>
       <c r="C103">
         <v>6</v>
@@ -2413,10 +2413,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>45923.0625</v>
+        <v>45932.0625</v>
       </c>
       <c r="B104">
-        <v>5058</v>
+        <v>0</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -2427,10 +2427,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>45923.07291666666</v>
+        <v>45932.07291666666</v>
       </c>
       <c r="B105">
-        <v>5015</v>
+        <v>0</v>
       </c>
       <c r="C105">
         <v>8</v>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>45923.08333333334</v>
+        <v>45932.08333333334</v>
       </c>
       <c r="B106">
-        <v>5028</v>
+        <v>0</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -2455,10 +2455,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>45923.09375</v>
+        <v>45932.09375</v>
       </c>
       <c r="B107">
-        <v>4988</v>
+        <v>0</v>
       </c>
       <c r="C107">
         <v>10</v>
@@ -2469,10 +2469,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>45923.10416666666</v>
+        <v>45932.10416666666</v>
       </c>
       <c r="B108">
-        <v>4992</v>
+        <v>0</v>
       </c>
       <c r="C108">
         <v>11</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>45923.11458333334</v>
+        <v>45932.11458333334</v>
       </c>
       <c r="B109">
-        <v>4986</v>
+        <v>0</v>
       </c>
       <c r="C109">
         <v>12</v>
@@ -2497,10 +2497,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>45923.125</v>
+        <v>45932.125</v>
       </c>
       <c r="B110">
-        <v>5040</v>
+        <v>0</v>
       </c>
       <c r="C110">
         <v>13</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>45923.13541666666</v>
+        <v>45932.13541666666</v>
       </c>
       <c r="B111">
-        <v>5053</v>
+        <v>0</v>
       </c>
       <c r="C111">
         <v>14</v>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>45923.14583333334</v>
+        <v>45932.14583333334</v>
       </c>
       <c r="B112">
-        <v>5109</v>
+        <v>0</v>
       </c>
       <c r="C112">
         <v>15</v>
@@ -2539,10 +2539,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>45923.15625</v>
+        <v>45932.15625</v>
       </c>
       <c r="B113">
-        <v>5027</v>
+        <v>0</v>
       </c>
       <c r="C113">
         <v>16</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>45923.16666666666</v>
+        <v>45932.16666666666</v>
       </c>
       <c r="B114">
-        <v>5128</v>
+        <v>0</v>
       </c>
       <c r="C114">
         <v>17</v>
@@ -2567,10 +2567,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>45923.17708333334</v>
+        <v>45932.17708333334</v>
       </c>
       <c r="B115">
-        <v>5163</v>
+        <v>0</v>
       </c>
       <c r="C115">
         <v>18</v>
@@ -2581,10 +2581,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>45923.1875</v>
+        <v>45932.1875</v>
       </c>
       <c r="B116">
-        <v>5278</v>
+        <v>0</v>
       </c>
       <c r="C116">
         <v>19</v>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>45923.19791666666</v>
+        <v>45932.19791666666</v>
       </c>
       <c r="B117">
-        <v>5314</v>
+        <v>0</v>
       </c>
       <c r="C117">
         <v>20</v>
@@ -2609,10 +2609,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>45923.20833333334</v>
+        <v>45932.20833333334</v>
       </c>
       <c r="B118">
-        <v>5556</v>
+        <v>0</v>
       </c>
       <c r="C118">
         <v>21</v>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>45923.21875</v>
+        <v>45932.21875</v>
       </c>
       <c r="B119">
-        <v>5692</v>
+        <v>0</v>
       </c>
       <c r="C119">
         <v>22</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>45923.22916666666</v>
+        <v>45932.22916666666</v>
       </c>
       <c r="B120">
-        <v>5780</v>
+        <v>0</v>
       </c>
       <c r="C120">
         <v>23</v>
@@ -2651,10 +2651,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>45923.23958333334</v>
+        <v>45932.23958333334</v>
       </c>
       <c r="B121">
-        <v>5832</v>
+        <v>0</v>
       </c>
       <c r="C121">
         <v>24</v>
@@ -2665,10 +2665,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>45923.25</v>
+        <v>45932.25</v>
       </c>
       <c r="B122">
-        <v>6079</v>
+        <v>0</v>
       </c>
       <c r="C122">
         <v>25</v>
@@ -2679,10 +2679,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>45923.26041666666</v>
+        <v>45932.26041666666</v>
       </c>
       <c r="B123">
-        <v>6252</v>
+        <v>0</v>
       </c>
       <c r="C123">
         <v>26</v>
@@ -2693,10 +2693,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>45923.27083333334</v>
+        <v>45932.27083333334</v>
       </c>
       <c r="B124">
-        <v>6295</v>
+        <v>0</v>
       </c>
       <c r="C124">
         <v>27</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>45923.28125</v>
+        <v>45932.28125</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>45923.29166666666</v>
+        <v>45932.29166666666</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>45923.30208333334</v>
+        <v>45932.30208333334</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>45923.3125</v>
+        <v>45932.3125</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -2763,7 +2763,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>45923.32291666666</v>
+        <v>45932.32291666666</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>45923.33333333334</v>
+        <v>45932.33333333334</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>45923.34375</v>
+        <v>45932.34375</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -2805,7 +2805,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>45923.35416666666</v>
+        <v>45932.35416666666</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -2819,7 +2819,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>45923.36458333334</v>
+        <v>45932.36458333334</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>45923.375</v>
+        <v>45932.375</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>45923.38541666666</v>
+        <v>45932.38541666666</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>45923.39583333334</v>
+        <v>45932.39583333334</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>45923.40625</v>
+        <v>45932.40625</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>45923.41666666666</v>
+        <v>45932.41666666666</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>45923.42708333334</v>
+        <v>45932.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>45923.4375</v>
+        <v>45932.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>45923.44791666666</v>
+        <v>45932.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>45923.45833333334</v>
+        <v>45932.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>45923.46875</v>
+        <v>45932.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>45923.47916666666</v>
+        <v>45932.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>45923.48958333334</v>
+        <v>45932.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>45923.5</v>
+        <v>45932.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>45923.51041666666</v>
+        <v>45932.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>45923.52083333334</v>
+        <v>45932.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>45923.53125</v>
+        <v>45932.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>45923.54166666666</v>
+        <v>45932.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>45923.55208333334</v>
+        <v>45932.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>45923.5625</v>
+        <v>45932.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>45923.57291666666</v>
+        <v>45932.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>45923.58333333334</v>
+        <v>45932.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>45923.59375</v>
+        <v>45932.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>45923.60416666666</v>
+        <v>45932.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>45923.61458333334</v>
+        <v>45932.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>45923.625</v>
+        <v>45932.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>45923.63541666666</v>
+        <v>45932.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>45923.64583333334</v>
+        <v>45932.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>45923.65625</v>
+        <v>45932.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>45923.66666666666</v>
+        <v>45932.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>45923.67708333334</v>
+        <v>45932.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>45923.6875</v>
+        <v>45932.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>45923.69791666666</v>
+        <v>45932.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>45923.70833333334</v>
+        <v>45932.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>45923.71875</v>
+        <v>45932.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>45923.72916666666</v>
+        <v>45932.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>45923.73958333334</v>
+        <v>45932.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>45923.75</v>
+        <v>45932.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>45923.76041666666</v>
+        <v>45932.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>45923.77083333334</v>
+        <v>45932.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>45923.78125</v>
+        <v>45932.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>45923.79166666666</v>
+        <v>45932.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>45923.80208333334</v>
+        <v>45932.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>45923.8125</v>
+        <v>45932.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>45923.82291666666</v>
+        <v>45932.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>45923.83333333334</v>
+        <v>45932.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>45923.84375</v>
+        <v>45932.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>45923.85416666666</v>
+        <v>45932.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>45923.86458333334</v>
+        <v>45932.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>45923.875</v>
+        <v>45932.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>45923.88541666666</v>
+        <v>45932.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>45923.89583333334</v>
+        <v>45932.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>45923.90625</v>
+        <v>45932.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>45923.91666666666</v>
+        <v>45932.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>45923.92708333334</v>
+        <v>45932.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>45923.9375</v>
+        <v>45932.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>45923.94791666666</v>
+        <v>45932.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>45923.95833333334</v>
+        <v>45932.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>45923.96875</v>
+        <v>45932.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>45923.97916666666</v>
+        <v>45932.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>45923.98958333334</v>
+        <v>45932.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
   <si>
     <t>Timestamp</t>
   </si>
@@ -28,580 +28,868 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>01.10.20251</t>
-  </si>
-  <si>
-    <t>01.10.20252</t>
-  </si>
-  <si>
-    <t>01.10.20253</t>
-  </si>
-  <si>
-    <t>01.10.20254</t>
-  </si>
-  <si>
-    <t>01.10.20255</t>
-  </si>
-  <si>
-    <t>01.10.20256</t>
-  </si>
-  <si>
-    <t>01.10.20257</t>
-  </si>
-  <si>
-    <t>01.10.20258</t>
-  </si>
-  <si>
-    <t>01.10.20259</t>
-  </si>
-  <si>
-    <t>01.10.202510</t>
-  </si>
-  <si>
-    <t>01.10.202511</t>
-  </si>
-  <si>
-    <t>01.10.202512</t>
-  </si>
-  <si>
-    <t>01.10.202513</t>
-  </si>
-  <si>
-    <t>01.10.202514</t>
-  </si>
-  <si>
-    <t>01.10.202515</t>
-  </si>
-  <si>
-    <t>01.10.202516</t>
-  </si>
-  <si>
-    <t>01.10.202517</t>
-  </si>
-  <si>
-    <t>01.10.202518</t>
-  </si>
-  <si>
-    <t>01.10.202519</t>
-  </si>
-  <si>
-    <t>01.10.202520</t>
-  </si>
-  <si>
-    <t>01.10.202521</t>
-  </si>
-  <si>
-    <t>01.10.202522</t>
-  </si>
-  <si>
-    <t>01.10.202523</t>
-  </si>
-  <si>
-    <t>01.10.202524</t>
-  </si>
-  <si>
-    <t>01.10.202525</t>
-  </si>
-  <si>
-    <t>01.10.202526</t>
-  </si>
-  <si>
-    <t>01.10.202527</t>
-  </si>
-  <si>
-    <t>01.10.202528</t>
-  </si>
-  <si>
-    <t>01.10.202529</t>
-  </si>
-  <si>
-    <t>01.10.202530</t>
-  </si>
-  <si>
-    <t>01.10.202531</t>
-  </si>
-  <si>
-    <t>01.10.202532</t>
-  </si>
-  <si>
-    <t>01.10.202533</t>
-  </si>
-  <si>
-    <t>01.10.202534</t>
-  </si>
-  <si>
-    <t>01.10.202535</t>
-  </si>
-  <si>
-    <t>01.10.202536</t>
-  </si>
-  <si>
-    <t>01.10.202537</t>
-  </si>
-  <si>
-    <t>01.10.202538</t>
-  </si>
-  <si>
-    <t>01.10.202539</t>
-  </si>
-  <si>
-    <t>01.10.202540</t>
-  </si>
-  <si>
-    <t>01.10.202541</t>
-  </si>
-  <si>
-    <t>01.10.202542</t>
-  </si>
-  <si>
-    <t>01.10.202543</t>
-  </si>
-  <si>
-    <t>01.10.202544</t>
-  </si>
-  <si>
-    <t>01.10.202545</t>
-  </si>
-  <si>
-    <t>01.10.202546</t>
-  </si>
-  <si>
-    <t>01.10.202547</t>
-  </si>
-  <si>
-    <t>01.10.202548</t>
-  </si>
-  <si>
-    <t>01.10.202549</t>
-  </si>
-  <si>
-    <t>01.10.202550</t>
-  </si>
-  <si>
-    <t>01.10.202551</t>
-  </si>
-  <si>
-    <t>01.10.202552</t>
-  </si>
-  <si>
-    <t>01.10.202553</t>
-  </si>
-  <si>
-    <t>01.10.202554</t>
-  </si>
-  <si>
-    <t>01.10.202555</t>
-  </si>
-  <si>
-    <t>01.10.202556</t>
-  </si>
-  <si>
-    <t>01.10.202557</t>
-  </si>
-  <si>
-    <t>01.10.202558</t>
-  </si>
-  <si>
-    <t>01.10.202559</t>
-  </si>
-  <si>
-    <t>01.10.202560</t>
-  </si>
-  <si>
-    <t>01.10.202561</t>
-  </si>
-  <si>
-    <t>01.10.202562</t>
-  </si>
-  <si>
-    <t>01.10.202563</t>
-  </si>
-  <si>
-    <t>01.10.202564</t>
-  </si>
-  <si>
-    <t>01.10.202565</t>
-  </si>
-  <si>
-    <t>01.10.202566</t>
-  </si>
-  <si>
-    <t>01.10.202567</t>
-  </si>
-  <si>
-    <t>01.10.202568</t>
-  </si>
-  <si>
-    <t>01.10.202569</t>
-  </si>
-  <si>
-    <t>01.10.202570</t>
-  </si>
-  <si>
-    <t>01.10.202571</t>
-  </si>
-  <si>
-    <t>01.10.202572</t>
-  </si>
-  <si>
-    <t>01.10.202573</t>
-  </si>
-  <si>
-    <t>01.10.202574</t>
-  </si>
-  <si>
-    <t>01.10.202575</t>
-  </si>
-  <si>
-    <t>01.10.202576</t>
-  </si>
-  <si>
-    <t>01.10.202577</t>
-  </si>
-  <si>
-    <t>01.10.202578</t>
-  </si>
-  <si>
-    <t>01.10.202579</t>
-  </si>
-  <si>
-    <t>01.10.202580</t>
-  </si>
-  <si>
-    <t>01.10.202581</t>
-  </si>
-  <si>
-    <t>01.10.202582</t>
-  </si>
-  <si>
-    <t>01.10.202583</t>
-  </si>
-  <si>
-    <t>01.10.202584</t>
-  </si>
-  <si>
-    <t>01.10.202585</t>
-  </si>
-  <si>
-    <t>01.10.202586</t>
-  </si>
-  <si>
-    <t>01.10.202587</t>
-  </si>
-  <si>
-    <t>01.10.202588</t>
-  </si>
-  <si>
-    <t>01.10.202589</t>
-  </si>
-  <si>
-    <t>01.10.202590</t>
-  </si>
-  <si>
-    <t>01.10.202591</t>
-  </si>
-  <si>
-    <t>01.10.202592</t>
-  </si>
-  <si>
-    <t>01.10.202593</t>
-  </si>
-  <si>
-    <t>01.10.202594</t>
-  </si>
-  <si>
-    <t>01.10.202595</t>
-  </si>
-  <si>
-    <t>01.10.202596</t>
-  </si>
-  <si>
-    <t>02.10.20251</t>
-  </si>
-  <si>
-    <t>02.10.20252</t>
-  </si>
-  <si>
-    <t>02.10.20253</t>
-  </si>
-  <si>
-    <t>02.10.20254</t>
-  </si>
-  <si>
-    <t>02.10.20255</t>
-  </si>
-  <si>
-    <t>02.10.20256</t>
-  </si>
-  <si>
-    <t>02.10.20257</t>
-  </si>
-  <si>
-    <t>02.10.20258</t>
-  </si>
-  <si>
-    <t>02.10.20259</t>
-  </si>
-  <si>
-    <t>02.10.202510</t>
-  </si>
-  <si>
-    <t>02.10.202511</t>
-  </si>
-  <si>
-    <t>02.10.202512</t>
-  </si>
-  <si>
-    <t>02.10.202513</t>
-  </si>
-  <si>
-    <t>02.10.202514</t>
-  </si>
-  <si>
-    <t>02.10.202515</t>
-  </si>
-  <si>
-    <t>02.10.202516</t>
-  </si>
-  <si>
-    <t>02.10.202517</t>
-  </si>
-  <si>
-    <t>02.10.202518</t>
-  </si>
-  <si>
-    <t>02.10.202519</t>
-  </si>
-  <si>
-    <t>02.10.202520</t>
-  </si>
-  <si>
-    <t>02.10.202521</t>
-  </si>
-  <si>
-    <t>02.10.202522</t>
-  </si>
-  <si>
-    <t>02.10.202523</t>
-  </si>
-  <si>
-    <t>02.10.202524</t>
-  </si>
-  <si>
-    <t>02.10.202525</t>
-  </si>
-  <si>
-    <t>02.10.202526</t>
-  </si>
-  <si>
-    <t>02.10.202527</t>
-  </si>
-  <si>
-    <t>02.10.202528</t>
-  </si>
-  <si>
-    <t>02.10.202529</t>
-  </si>
-  <si>
-    <t>02.10.202530</t>
-  </si>
-  <si>
-    <t>02.10.202531</t>
-  </si>
-  <si>
-    <t>02.10.202532</t>
-  </si>
-  <si>
-    <t>02.10.202533</t>
-  </si>
-  <si>
-    <t>02.10.202534</t>
-  </si>
-  <si>
-    <t>02.10.202535</t>
-  </si>
-  <si>
-    <t>02.10.202536</t>
-  </si>
-  <si>
-    <t>02.10.202537</t>
-  </si>
-  <si>
-    <t>02.10.202538</t>
-  </si>
-  <si>
-    <t>02.10.202539</t>
-  </si>
-  <si>
-    <t>02.10.202540</t>
-  </si>
-  <si>
-    <t>02.10.202541</t>
-  </si>
-  <si>
-    <t>02.10.202542</t>
-  </si>
-  <si>
-    <t>02.10.202543</t>
-  </si>
-  <si>
-    <t>02.10.202544</t>
-  </si>
-  <si>
-    <t>02.10.202545</t>
-  </si>
-  <si>
-    <t>02.10.202546</t>
-  </si>
-  <si>
-    <t>02.10.202547</t>
-  </si>
-  <si>
-    <t>02.10.202548</t>
-  </si>
-  <si>
-    <t>02.10.202549</t>
-  </si>
-  <si>
-    <t>02.10.202550</t>
-  </si>
-  <si>
-    <t>02.10.202551</t>
-  </si>
-  <si>
-    <t>02.10.202552</t>
-  </si>
-  <si>
-    <t>02.10.202553</t>
-  </si>
-  <si>
-    <t>02.10.202554</t>
-  </si>
-  <si>
-    <t>02.10.202555</t>
-  </si>
-  <si>
-    <t>02.10.202556</t>
-  </si>
-  <si>
-    <t>02.10.202557</t>
-  </si>
-  <si>
-    <t>02.10.202558</t>
-  </si>
-  <si>
-    <t>02.10.202559</t>
-  </si>
-  <si>
-    <t>02.10.202560</t>
-  </si>
-  <si>
-    <t>02.10.202561</t>
-  </si>
-  <si>
-    <t>02.10.202562</t>
-  </si>
-  <si>
-    <t>02.10.202563</t>
-  </si>
-  <si>
-    <t>02.10.202564</t>
-  </si>
-  <si>
-    <t>02.10.202565</t>
-  </si>
-  <si>
-    <t>02.10.202566</t>
-  </si>
-  <si>
-    <t>02.10.202567</t>
-  </si>
-  <si>
-    <t>02.10.202568</t>
-  </si>
-  <si>
-    <t>02.10.202569</t>
-  </si>
-  <si>
-    <t>02.10.202570</t>
-  </si>
-  <si>
-    <t>02.10.202571</t>
-  </si>
-  <si>
-    <t>02.10.202572</t>
-  </si>
-  <si>
-    <t>02.10.202573</t>
-  </si>
-  <si>
-    <t>02.10.202574</t>
-  </si>
-  <si>
-    <t>02.10.202575</t>
-  </si>
-  <si>
-    <t>02.10.202576</t>
-  </si>
-  <si>
-    <t>02.10.202577</t>
-  </si>
-  <si>
-    <t>02.10.202578</t>
-  </si>
-  <si>
-    <t>02.10.202579</t>
-  </si>
-  <si>
-    <t>02.10.202580</t>
-  </si>
-  <si>
-    <t>02.10.202581</t>
-  </si>
-  <si>
-    <t>02.10.202582</t>
-  </si>
-  <si>
-    <t>02.10.202583</t>
-  </si>
-  <si>
-    <t>02.10.202584</t>
-  </si>
-  <si>
-    <t>02.10.202585</t>
-  </si>
-  <si>
-    <t>02.10.202586</t>
-  </si>
-  <si>
-    <t>02.10.202587</t>
-  </si>
-  <si>
-    <t>02.10.202588</t>
-  </si>
-  <si>
-    <t>02.10.202589</t>
-  </si>
-  <si>
-    <t>02.10.202590</t>
-  </si>
-  <si>
-    <t>02.10.202591</t>
-  </si>
-  <si>
-    <t>02.10.202592</t>
-  </si>
-  <si>
-    <t>02.10.202593</t>
-  </si>
-  <si>
-    <t>02.10.202594</t>
-  </si>
-  <si>
-    <t>02.10.202595</t>
-  </si>
-  <si>
-    <t>02.10.202596</t>
+    <t>14.10.20251</t>
+  </si>
+  <si>
+    <t>14.10.20252</t>
+  </si>
+  <si>
+    <t>14.10.20253</t>
+  </si>
+  <si>
+    <t>14.10.20254</t>
+  </si>
+  <si>
+    <t>14.10.20255</t>
+  </si>
+  <si>
+    <t>14.10.20256</t>
+  </si>
+  <si>
+    <t>14.10.20257</t>
+  </si>
+  <si>
+    <t>14.10.20258</t>
+  </si>
+  <si>
+    <t>14.10.20259</t>
+  </si>
+  <si>
+    <t>14.10.202510</t>
+  </si>
+  <si>
+    <t>14.10.202511</t>
+  </si>
+  <si>
+    <t>14.10.202512</t>
+  </si>
+  <si>
+    <t>14.10.202513</t>
+  </si>
+  <si>
+    <t>14.10.202514</t>
+  </si>
+  <si>
+    <t>14.10.202515</t>
+  </si>
+  <si>
+    <t>14.10.202516</t>
+  </si>
+  <si>
+    <t>14.10.202517</t>
+  </si>
+  <si>
+    <t>14.10.202518</t>
+  </si>
+  <si>
+    <t>14.10.202519</t>
+  </si>
+  <si>
+    <t>14.10.202520</t>
+  </si>
+  <si>
+    <t>14.10.202521</t>
+  </si>
+  <si>
+    <t>14.10.202522</t>
+  </si>
+  <si>
+    <t>14.10.202523</t>
+  </si>
+  <si>
+    <t>14.10.202524</t>
+  </si>
+  <si>
+    <t>14.10.202525</t>
+  </si>
+  <si>
+    <t>14.10.202526</t>
+  </si>
+  <si>
+    <t>14.10.202527</t>
+  </si>
+  <si>
+    <t>14.10.202528</t>
+  </si>
+  <si>
+    <t>14.10.202529</t>
+  </si>
+  <si>
+    <t>14.10.202530</t>
+  </si>
+  <si>
+    <t>14.10.202531</t>
+  </si>
+  <si>
+    <t>14.10.202532</t>
+  </si>
+  <si>
+    <t>14.10.202533</t>
+  </si>
+  <si>
+    <t>14.10.202534</t>
+  </si>
+  <si>
+    <t>14.10.202535</t>
+  </si>
+  <si>
+    <t>14.10.202536</t>
+  </si>
+  <si>
+    <t>14.10.202537</t>
+  </si>
+  <si>
+    <t>14.10.202538</t>
+  </si>
+  <si>
+    <t>14.10.202539</t>
+  </si>
+  <si>
+    <t>14.10.202540</t>
+  </si>
+  <si>
+    <t>14.10.202541</t>
+  </si>
+  <si>
+    <t>14.10.202542</t>
+  </si>
+  <si>
+    <t>14.10.202543</t>
+  </si>
+  <si>
+    <t>14.10.202544</t>
+  </si>
+  <si>
+    <t>14.10.202545</t>
+  </si>
+  <si>
+    <t>14.10.202546</t>
+  </si>
+  <si>
+    <t>14.10.202547</t>
+  </si>
+  <si>
+    <t>14.10.202548</t>
+  </si>
+  <si>
+    <t>14.10.202549</t>
+  </si>
+  <si>
+    <t>14.10.202550</t>
+  </si>
+  <si>
+    <t>14.10.202551</t>
+  </si>
+  <si>
+    <t>14.10.202552</t>
+  </si>
+  <si>
+    <t>14.10.202553</t>
+  </si>
+  <si>
+    <t>14.10.202554</t>
+  </si>
+  <si>
+    <t>14.10.202555</t>
+  </si>
+  <si>
+    <t>14.10.202556</t>
+  </si>
+  <si>
+    <t>14.10.202557</t>
+  </si>
+  <si>
+    <t>14.10.202558</t>
+  </si>
+  <si>
+    <t>14.10.202559</t>
+  </si>
+  <si>
+    <t>14.10.202560</t>
+  </si>
+  <si>
+    <t>14.10.202561</t>
+  </si>
+  <si>
+    <t>14.10.202562</t>
+  </si>
+  <si>
+    <t>14.10.202563</t>
+  </si>
+  <si>
+    <t>14.10.202564</t>
+  </si>
+  <si>
+    <t>14.10.202565</t>
+  </si>
+  <si>
+    <t>14.10.202566</t>
+  </si>
+  <si>
+    <t>14.10.202567</t>
+  </si>
+  <si>
+    <t>14.10.202568</t>
+  </si>
+  <si>
+    <t>14.10.202569</t>
+  </si>
+  <si>
+    <t>14.10.202570</t>
+  </si>
+  <si>
+    <t>14.10.202571</t>
+  </si>
+  <si>
+    <t>14.10.202572</t>
+  </si>
+  <si>
+    <t>14.10.202573</t>
+  </si>
+  <si>
+    <t>14.10.202574</t>
+  </si>
+  <si>
+    <t>14.10.202575</t>
+  </si>
+  <si>
+    <t>14.10.202576</t>
+  </si>
+  <si>
+    <t>14.10.202577</t>
+  </si>
+  <si>
+    <t>14.10.202578</t>
+  </si>
+  <si>
+    <t>14.10.202579</t>
+  </si>
+  <si>
+    <t>14.10.202580</t>
+  </si>
+  <si>
+    <t>14.10.202581</t>
+  </si>
+  <si>
+    <t>14.10.202582</t>
+  </si>
+  <si>
+    <t>14.10.202583</t>
+  </si>
+  <si>
+    <t>14.10.202584</t>
+  </si>
+  <si>
+    <t>14.10.202585</t>
+  </si>
+  <si>
+    <t>14.10.202586</t>
+  </si>
+  <si>
+    <t>14.10.202587</t>
+  </si>
+  <si>
+    <t>14.10.202588</t>
+  </si>
+  <si>
+    <t>14.10.202589</t>
+  </si>
+  <si>
+    <t>14.10.202590</t>
+  </si>
+  <si>
+    <t>14.10.202591</t>
+  </si>
+  <si>
+    <t>14.10.202592</t>
+  </si>
+  <si>
+    <t>14.10.202593</t>
+  </si>
+  <si>
+    <t>14.10.202594</t>
+  </si>
+  <si>
+    <t>14.10.202595</t>
+  </si>
+  <si>
+    <t>14.10.202596</t>
+  </si>
+  <si>
+    <t>15.10.20251</t>
+  </si>
+  <si>
+    <t>15.10.20252</t>
+  </si>
+  <si>
+    <t>15.10.20253</t>
+  </si>
+  <si>
+    <t>15.10.20254</t>
+  </si>
+  <si>
+    <t>15.10.20255</t>
+  </si>
+  <si>
+    <t>15.10.20256</t>
+  </si>
+  <si>
+    <t>15.10.20257</t>
+  </si>
+  <si>
+    <t>15.10.20258</t>
+  </si>
+  <si>
+    <t>15.10.20259</t>
+  </si>
+  <si>
+    <t>15.10.202510</t>
+  </si>
+  <si>
+    <t>15.10.202511</t>
+  </si>
+  <si>
+    <t>15.10.202512</t>
+  </si>
+  <si>
+    <t>15.10.202513</t>
+  </si>
+  <si>
+    <t>15.10.202514</t>
+  </si>
+  <si>
+    <t>15.10.202515</t>
+  </si>
+  <si>
+    <t>15.10.202516</t>
+  </si>
+  <si>
+    <t>15.10.202517</t>
+  </si>
+  <si>
+    <t>15.10.202518</t>
+  </si>
+  <si>
+    <t>15.10.202519</t>
+  </si>
+  <si>
+    <t>15.10.202520</t>
+  </si>
+  <si>
+    <t>15.10.202521</t>
+  </si>
+  <si>
+    <t>15.10.202522</t>
+  </si>
+  <si>
+    <t>15.10.202523</t>
+  </si>
+  <si>
+    <t>15.10.202524</t>
+  </si>
+  <si>
+    <t>15.10.202525</t>
+  </si>
+  <si>
+    <t>15.10.202526</t>
+  </si>
+  <si>
+    <t>15.10.202527</t>
+  </si>
+  <si>
+    <t>15.10.202528</t>
+  </si>
+  <si>
+    <t>15.10.202529</t>
+  </si>
+  <si>
+    <t>15.10.202530</t>
+  </si>
+  <si>
+    <t>15.10.202531</t>
+  </si>
+  <si>
+    <t>15.10.202532</t>
+  </si>
+  <si>
+    <t>15.10.202533</t>
+  </si>
+  <si>
+    <t>15.10.202534</t>
+  </si>
+  <si>
+    <t>15.10.202535</t>
+  </si>
+  <si>
+    <t>15.10.202536</t>
+  </si>
+  <si>
+    <t>15.10.202537</t>
+  </si>
+  <si>
+    <t>15.10.202538</t>
+  </si>
+  <si>
+    <t>15.10.202539</t>
+  </si>
+  <si>
+    <t>15.10.202540</t>
+  </si>
+  <si>
+    <t>15.10.202541</t>
+  </si>
+  <si>
+    <t>15.10.202542</t>
+  </si>
+  <si>
+    <t>15.10.202543</t>
+  </si>
+  <si>
+    <t>15.10.202544</t>
+  </si>
+  <si>
+    <t>15.10.202545</t>
+  </si>
+  <si>
+    <t>15.10.202546</t>
+  </si>
+  <si>
+    <t>15.10.202547</t>
+  </si>
+  <si>
+    <t>15.10.202548</t>
+  </si>
+  <si>
+    <t>15.10.202549</t>
+  </si>
+  <si>
+    <t>15.10.202550</t>
+  </si>
+  <si>
+    <t>15.10.202551</t>
+  </si>
+  <si>
+    <t>15.10.202552</t>
+  </si>
+  <si>
+    <t>15.10.202553</t>
+  </si>
+  <si>
+    <t>15.10.202554</t>
+  </si>
+  <si>
+    <t>15.10.202555</t>
+  </si>
+  <si>
+    <t>15.10.202556</t>
+  </si>
+  <si>
+    <t>15.10.202557</t>
+  </si>
+  <si>
+    <t>15.10.202558</t>
+  </si>
+  <si>
+    <t>15.10.202559</t>
+  </si>
+  <si>
+    <t>15.10.202560</t>
+  </si>
+  <si>
+    <t>15.10.202561</t>
+  </si>
+  <si>
+    <t>15.10.202562</t>
+  </si>
+  <si>
+    <t>15.10.202563</t>
+  </si>
+  <si>
+    <t>15.10.202564</t>
+  </si>
+  <si>
+    <t>15.10.202565</t>
+  </si>
+  <si>
+    <t>15.10.202566</t>
+  </si>
+  <si>
+    <t>15.10.202567</t>
+  </si>
+  <si>
+    <t>15.10.202568</t>
+  </si>
+  <si>
+    <t>15.10.202569</t>
+  </si>
+  <si>
+    <t>15.10.202570</t>
+  </si>
+  <si>
+    <t>15.10.202571</t>
+  </si>
+  <si>
+    <t>15.10.202572</t>
+  </si>
+  <si>
+    <t>15.10.202573</t>
+  </si>
+  <si>
+    <t>15.10.202574</t>
+  </si>
+  <si>
+    <t>15.10.202575</t>
+  </si>
+  <si>
+    <t>15.10.202576</t>
+  </si>
+  <si>
+    <t>15.10.202577</t>
+  </si>
+  <si>
+    <t>15.10.202578</t>
+  </si>
+  <si>
+    <t>15.10.202579</t>
+  </si>
+  <si>
+    <t>15.10.202580</t>
+  </si>
+  <si>
+    <t>15.10.202581</t>
+  </si>
+  <si>
+    <t>15.10.202582</t>
+  </si>
+  <si>
+    <t>15.10.202583</t>
+  </si>
+  <si>
+    <t>15.10.202584</t>
+  </si>
+  <si>
+    <t>15.10.202585</t>
+  </si>
+  <si>
+    <t>15.10.202586</t>
+  </si>
+  <si>
+    <t>15.10.202587</t>
+  </si>
+  <si>
+    <t>15.10.202588</t>
+  </si>
+  <si>
+    <t>15.10.202589</t>
+  </si>
+  <si>
+    <t>15.10.202590</t>
+  </si>
+  <si>
+    <t>15.10.202591</t>
+  </si>
+  <si>
+    <t>15.10.202592</t>
+  </si>
+  <si>
+    <t>15.10.202593</t>
+  </si>
+  <si>
+    <t>15.10.202594</t>
+  </si>
+  <si>
+    <t>15.10.202595</t>
+  </si>
+  <si>
+    <t>15.10.202596</t>
+  </si>
+  <si>
+    <t>16.10.20251</t>
+  </si>
+  <si>
+    <t>16.10.20252</t>
+  </si>
+  <si>
+    <t>16.10.20253</t>
+  </si>
+  <si>
+    <t>16.10.20254</t>
+  </si>
+  <si>
+    <t>16.10.20255</t>
+  </si>
+  <si>
+    <t>16.10.20256</t>
+  </si>
+  <si>
+    <t>16.10.20257</t>
+  </si>
+  <si>
+    <t>16.10.20258</t>
+  </si>
+  <si>
+    <t>16.10.20259</t>
+  </si>
+  <si>
+    <t>16.10.202510</t>
+  </si>
+  <si>
+    <t>16.10.202511</t>
+  </si>
+  <si>
+    <t>16.10.202512</t>
+  </si>
+  <si>
+    <t>16.10.202513</t>
+  </si>
+  <si>
+    <t>16.10.202514</t>
+  </si>
+  <si>
+    <t>16.10.202515</t>
+  </si>
+  <si>
+    <t>16.10.202516</t>
+  </si>
+  <si>
+    <t>16.10.202517</t>
+  </si>
+  <si>
+    <t>16.10.202518</t>
+  </si>
+  <si>
+    <t>16.10.202519</t>
+  </si>
+  <si>
+    <t>16.10.202520</t>
+  </si>
+  <si>
+    <t>16.10.202521</t>
+  </si>
+  <si>
+    <t>16.10.202522</t>
+  </si>
+  <si>
+    <t>16.10.202523</t>
+  </si>
+  <si>
+    <t>16.10.202524</t>
+  </si>
+  <si>
+    <t>16.10.202525</t>
+  </si>
+  <si>
+    <t>16.10.202526</t>
+  </si>
+  <si>
+    <t>16.10.202527</t>
+  </si>
+  <si>
+    <t>16.10.202528</t>
+  </si>
+  <si>
+    <t>16.10.202529</t>
+  </si>
+  <si>
+    <t>16.10.202530</t>
+  </si>
+  <si>
+    <t>16.10.202531</t>
+  </si>
+  <si>
+    <t>16.10.202532</t>
+  </si>
+  <si>
+    <t>16.10.202533</t>
+  </si>
+  <si>
+    <t>16.10.202534</t>
+  </si>
+  <si>
+    <t>16.10.202535</t>
+  </si>
+  <si>
+    <t>16.10.202536</t>
+  </si>
+  <si>
+    <t>16.10.202537</t>
+  </si>
+  <si>
+    <t>16.10.202538</t>
+  </si>
+  <si>
+    <t>16.10.202539</t>
+  </si>
+  <si>
+    <t>16.10.202540</t>
+  </si>
+  <si>
+    <t>16.10.202541</t>
+  </si>
+  <si>
+    <t>16.10.202542</t>
+  </si>
+  <si>
+    <t>16.10.202543</t>
+  </si>
+  <si>
+    <t>16.10.202544</t>
+  </si>
+  <si>
+    <t>16.10.202545</t>
+  </si>
+  <si>
+    <t>16.10.202546</t>
+  </si>
+  <si>
+    <t>16.10.202547</t>
+  </si>
+  <si>
+    <t>16.10.202548</t>
+  </si>
+  <si>
+    <t>16.10.202549</t>
+  </si>
+  <si>
+    <t>16.10.202550</t>
+  </si>
+  <si>
+    <t>16.10.202551</t>
+  </si>
+  <si>
+    <t>16.10.202552</t>
+  </si>
+  <si>
+    <t>16.10.202553</t>
+  </si>
+  <si>
+    <t>16.10.202554</t>
+  </si>
+  <si>
+    <t>16.10.202555</t>
+  </si>
+  <si>
+    <t>16.10.202556</t>
+  </si>
+  <si>
+    <t>16.10.202557</t>
+  </si>
+  <si>
+    <t>16.10.202558</t>
+  </si>
+  <si>
+    <t>16.10.202559</t>
+  </si>
+  <si>
+    <t>16.10.202560</t>
+  </si>
+  <si>
+    <t>16.10.202561</t>
+  </si>
+  <si>
+    <t>16.10.202562</t>
+  </si>
+  <si>
+    <t>16.10.202563</t>
+  </si>
+  <si>
+    <t>16.10.202564</t>
+  </si>
+  <si>
+    <t>16.10.202565</t>
+  </si>
+  <si>
+    <t>16.10.202566</t>
+  </si>
+  <si>
+    <t>16.10.202567</t>
+  </si>
+  <si>
+    <t>16.10.202568</t>
+  </si>
+  <si>
+    <t>16.10.202569</t>
+  </si>
+  <si>
+    <t>16.10.202570</t>
+  </si>
+  <si>
+    <t>16.10.202571</t>
+  </si>
+  <si>
+    <t>16.10.202572</t>
+  </si>
+  <si>
+    <t>16.10.202573</t>
+  </si>
+  <si>
+    <t>16.10.202574</t>
+  </si>
+  <si>
+    <t>16.10.202575</t>
+  </si>
+  <si>
+    <t>16.10.202576</t>
+  </si>
+  <si>
+    <t>16.10.202577</t>
+  </si>
+  <si>
+    <t>16.10.202578</t>
+  </si>
+  <si>
+    <t>16.10.202579</t>
+  </si>
+  <si>
+    <t>16.10.202580</t>
+  </si>
+  <si>
+    <t>16.10.202581</t>
+  </si>
+  <si>
+    <t>16.10.202582</t>
+  </si>
+  <si>
+    <t>16.10.202583</t>
+  </si>
+  <si>
+    <t>16.10.202584</t>
+  </si>
+  <si>
+    <t>16.10.202585</t>
+  </si>
+  <si>
+    <t>16.10.202586</t>
+  </si>
+  <si>
+    <t>16.10.202587</t>
+  </si>
+  <si>
+    <t>16.10.202588</t>
+  </si>
+  <si>
+    <t>16.10.202589</t>
+  </si>
+  <si>
+    <t>16.10.202590</t>
+  </si>
+  <si>
+    <t>16.10.202591</t>
+  </si>
+  <si>
+    <t>16.10.202592</t>
+  </si>
+  <si>
+    <t>16.10.202593</t>
+  </si>
+  <si>
+    <t>16.10.202594</t>
+  </si>
+  <si>
+    <t>16.10.202595</t>
+  </si>
+  <si>
+    <t>16.10.202596</t>
   </si>
 </sst>
 </file>
@@ -963,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:D289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -985,10 +1273,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45931</v>
+        <v>45944</v>
       </c>
       <c r="B2">
-        <v>5352</v>
+        <v>5457</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -999,10 +1287,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45931.01041666666</v>
+        <v>45944.01041666666</v>
       </c>
       <c r="B3">
-        <v>5337</v>
+        <v>5438</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1013,10 +1301,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45931.02083333334</v>
+        <v>45944.02083333334</v>
       </c>
       <c r="B4">
-        <v>5258</v>
+        <v>5340</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1027,10 +1315,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45931.03125</v>
+        <v>45944.03125</v>
       </c>
       <c r="B5">
-        <v>5267</v>
+        <v>5318</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1041,10 +1329,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45931.04166666666</v>
+        <v>45944.04166666666</v>
       </c>
       <c r="B6">
-        <v>5199</v>
+        <v>5289</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1055,10 +1343,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45931.05208333334</v>
+        <v>45944.05208333334</v>
       </c>
       <c r="B7">
-        <v>5186</v>
+        <v>5297</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1069,10 +1357,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45931.0625</v>
+        <v>45944.0625</v>
       </c>
       <c r="B8">
-        <v>5162</v>
+        <v>5293</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1083,10 +1371,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45931.07291666666</v>
+        <v>45944.07291666666</v>
       </c>
       <c r="B9">
-        <v>5141</v>
+        <v>5235</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1097,10 +1385,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45931.08333333334</v>
+        <v>45944.08333333334</v>
       </c>
       <c r="B10">
-        <v>5146</v>
+        <v>5259</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1111,10 +1399,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45931.09375</v>
+        <v>45944.09375</v>
       </c>
       <c r="B11">
-        <v>5161</v>
+        <v>5209</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1125,10 +1413,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45931.10416666666</v>
+        <v>45944.10416666666</v>
       </c>
       <c r="B12">
-        <v>5131</v>
+        <v>5260</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1139,10 +1427,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45931.11458333334</v>
+        <v>45944.11458333334</v>
       </c>
       <c r="B13">
-        <v>5130</v>
+        <v>5312</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1153,10 +1441,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45931.125</v>
+        <v>45944.125</v>
       </c>
       <c r="B14">
-        <v>5161</v>
+        <v>5317</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1167,10 +1455,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45931.13541666666</v>
+        <v>45944.13541666666</v>
       </c>
       <c r="B15">
-        <v>5151</v>
+        <v>5275</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1181,10 +1469,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45931.14583333334</v>
+        <v>45944.14583333334</v>
       </c>
       <c r="B16">
-        <v>5135</v>
+        <v>5320</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1195,10 +1483,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45931.15625</v>
+        <v>45944.15625</v>
       </c>
       <c r="B17">
-        <v>5153</v>
+        <v>5335</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1209,10 +1497,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45931.16666666666</v>
+        <v>45944.16666666666</v>
       </c>
       <c r="B18">
-        <v>5265</v>
+        <v>5454</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1223,10 +1511,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45931.17708333334</v>
+        <v>45944.17708333334</v>
       </c>
       <c r="B19">
-        <v>5273</v>
+        <v>5539</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1237,10 +1525,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45931.1875</v>
+        <v>45944.1875</v>
       </c>
       <c r="B20">
-        <v>5369</v>
+        <v>5598</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1251,10 +1539,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45931.19791666666</v>
+        <v>45944.19791666666</v>
       </c>
       <c r="B21">
-        <v>5467</v>
+        <v>5615</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1265,10 +1553,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45931.20833333334</v>
+        <v>45944.20833333334</v>
       </c>
       <c r="B22">
-        <v>5657</v>
+        <v>5800</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1279,10 +1567,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45931.21875</v>
+        <v>45944.21875</v>
       </c>
       <c r="B23">
-        <v>5759</v>
+        <v>5987</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1293,10 +1581,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45931.22916666666</v>
+        <v>45944.22916666666</v>
       </c>
       <c r="B24">
-        <v>5966</v>
+        <v>6120</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1307,10 +1595,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45931.23958333334</v>
+        <v>45944.23958333334</v>
       </c>
       <c r="B25">
-        <v>6124</v>
+        <v>6388</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1321,10 +1609,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45931.25</v>
+        <v>45944.25</v>
       </c>
       <c r="B26">
-        <v>6313</v>
+        <v>6592</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1335,10 +1623,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45931.26041666666</v>
+        <v>45944.26041666666</v>
       </c>
       <c r="B27">
-        <v>6420</v>
+        <v>6763</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1349,10 +1637,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45931.27083333334</v>
+        <v>45944.27083333334</v>
       </c>
       <c r="B28">
-        <v>6480</v>
+        <v>6838</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1363,10 +1651,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45931.28125</v>
+        <v>45944.28125</v>
       </c>
       <c r="B29">
-        <v>6508</v>
+        <v>6959</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1377,10 +1665,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45931.29166666666</v>
+        <v>45944.29166666666</v>
       </c>
       <c r="B30">
-        <v>6667</v>
+        <v>6955</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1391,10 +1679,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45931.30208333334</v>
+        <v>45944.30208333334</v>
       </c>
       <c r="B31">
-        <v>6676</v>
+        <v>6972</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1405,10 +1693,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45931.3125</v>
+        <v>45944.3125</v>
       </c>
       <c r="B32">
-        <v>6684</v>
+        <v>6971</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1419,10 +1707,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45931.32291666666</v>
+        <v>45944.32291666666</v>
       </c>
       <c r="B33">
-        <v>6654</v>
+        <v>6910</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1433,10 +1721,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45931.33333333334</v>
+        <v>45944.33333333334</v>
       </c>
       <c r="B34">
-        <v>6565</v>
+        <v>6964</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1447,10 +1735,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45931.34375</v>
+        <v>45944.34375</v>
       </c>
       <c r="B35">
-        <v>6421</v>
+        <v>6919</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1461,10 +1749,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45931.35416666666</v>
+        <v>45944.35416666666</v>
       </c>
       <c r="B36">
-        <v>6401</v>
+        <v>6833</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1475,10 +1763,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45931.36458333334</v>
+        <v>45944.36458333334</v>
       </c>
       <c r="B37">
-        <v>6394</v>
+        <v>6815</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1489,10 +1777,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45931.375</v>
+        <v>45944.375</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>6695</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1503,10 +1791,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45931.38541666666</v>
+        <v>45944.38541666666</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>6565</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1517,10 +1805,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45931.39583333334</v>
+        <v>45944.39583333334</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>6459</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1531,10 +1819,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45931.40625</v>
+        <v>45944.40625</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>6364</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1545,10 +1833,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45931.41666666666</v>
+        <v>45944.41666666666</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>6096</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1559,10 +1847,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45931.42708333334</v>
+        <v>45944.42708333334</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>5968</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1573,10 +1861,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45931.4375</v>
+        <v>45944.4375</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>5823</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1587,10 +1875,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45931.44791666666</v>
+        <v>45944.44791666666</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>5765</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1601,10 +1889,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45931.45833333334</v>
+        <v>45944.45833333334</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>5709</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1615,10 +1903,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45931.46875</v>
+        <v>45944.46875</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>5656</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1629,10 +1917,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45931.47916666666</v>
+        <v>45944.47916666666</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>5547</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1643,10 +1931,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45931.48958333334</v>
+        <v>45944.48958333334</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>5575</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1657,10 +1945,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45931.5</v>
+        <v>45944.5</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>5516</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1671,10 +1959,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45931.51041666666</v>
+        <v>45944.51041666666</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>5639</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1685,10 +1973,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45931.52083333334</v>
+        <v>45944.52083333334</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>5665</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1699,10 +1987,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45931.53125</v>
+        <v>45944.53125</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>5616</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -1713,10 +2001,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45931.54166666666</v>
+        <v>45944.54166666666</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>5636</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -1727,10 +2015,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45931.55208333334</v>
+        <v>45944.55208333334</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>5646</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -1741,10 +2029,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45931.5625</v>
+        <v>45944.5625</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>5719</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -1755,10 +2043,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45931.57291666666</v>
+        <v>45944.57291666666</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>5779</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -1769,10 +2057,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45931.58333333334</v>
+        <v>45944.58333333334</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>5824</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -1783,10 +2071,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45931.59375</v>
+        <v>45944.59375</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>5850</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -1797,10 +2085,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45931.60416666666</v>
+        <v>45944.60416666666</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>5897</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -1811,10 +2099,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45931.61458333334</v>
+        <v>45944.61458333334</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>6024</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -1825,10 +2113,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45931.625</v>
+        <v>45944.625</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>6068</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -1839,10 +2127,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45931.63541666666</v>
+        <v>45944.63541666666</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>6212</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -1853,10 +2141,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45931.64583333334</v>
+        <v>45944.64583333334</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>6256</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -1867,10 +2155,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45931.65625</v>
+        <v>45944.65625</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>6338</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -1881,10 +2169,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45931.66666666666</v>
+        <v>45944.66666666666</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>6396</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -1895,10 +2183,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45931.67708333334</v>
+        <v>45944.67708333334</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>6468</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -1909,10 +2197,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45931.6875</v>
+        <v>45944.6875</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>6580</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -1923,10 +2211,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45931.69791666666</v>
+        <v>45944.69791666666</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>6685</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -1937,10 +2225,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45931.70833333334</v>
+        <v>45944.70833333334</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>6822</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -1951,10 +2239,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45931.71875</v>
+        <v>45944.71875</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>6889</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -1965,10 +2253,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45931.72916666666</v>
+        <v>45944.72916666666</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>7074</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -1979,10 +2267,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45931.73958333334</v>
+        <v>45944.73958333334</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>7214</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -1993,10 +2281,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45931.75</v>
+        <v>45944.75</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>7309</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -2007,10 +2295,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45931.76041666666</v>
+        <v>45944.76041666666</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>7368</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -2021,10 +2309,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45931.77083333334</v>
+        <v>45944.77083333334</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>7439</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -2035,10 +2323,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45931.78125</v>
+        <v>45944.78125</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>7460</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -2049,10 +2337,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45931.79166666666</v>
+        <v>45944.79166666666</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>7412</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -2063,10 +2351,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45931.80208333334</v>
+        <v>45944.80208333334</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>7408</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -2077,10 +2365,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45931.8125</v>
+        <v>45944.8125</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>7340</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -2091,10 +2379,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45931.82291666666</v>
+        <v>45944.82291666666</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>7204</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -2105,10 +2393,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45931.83333333334</v>
+        <v>45944.83333333334</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>7123</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -2119,10 +2407,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45931.84375</v>
+        <v>45944.84375</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>7039</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -2133,10 +2421,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45931.85416666666</v>
+        <v>45944.85416666666</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>6946</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -2147,10 +2435,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45931.86458333334</v>
+        <v>45944.86458333334</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>6833</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -2161,10 +2449,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45931.875</v>
+        <v>45944.875</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>6573</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -2175,10 +2463,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45931.88541666666</v>
+        <v>45944.88541666666</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>6443</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -2189,10 +2477,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45931.89583333334</v>
+        <v>45944.89583333334</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>6345</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -2203,10 +2491,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45931.90625</v>
+        <v>45944.90625</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>6206</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -2217,10 +2505,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45931.91666666666</v>
+        <v>45944.91666666666</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>6044</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -2231,10 +2519,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45931.92708333334</v>
+        <v>45944.92708333334</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>5884</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -2245,10 +2533,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45931.9375</v>
+        <v>45944.9375</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>5840</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -2259,10 +2547,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45931.94791666666</v>
+        <v>45944.94791666666</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>5754</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -2273,10 +2561,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45931.95833333334</v>
+        <v>45944.95833333334</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>5729</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -2287,10 +2575,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45931.96875</v>
+        <v>45944.96875</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>5609</v>
       </c>
       <c r="C95">
         <v>94</v>
@@ -2301,10 +2589,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45931.97916666666</v>
+        <v>45944.97916666666</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>5544</v>
       </c>
       <c r="C96">
         <v>95</v>
@@ -2315,10 +2603,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>45931.98958333334</v>
+        <v>45944.98958333334</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>5530</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -2329,10 +2617,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>45932</v>
+        <v>45945</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>5491</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2343,10 +2631,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>45932.01041666666</v>
+        <v>45945.01041666666</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>5465</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2357,10 +2645,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>45932.02083333334</v>
+        <v>45945.02083333334</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2371,10 +2659,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>45932.03125</v>
+        <v>45945.03125</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>5319</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2385,10 +2673,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>45932.04166666666</v>
+        <v>45945.04166666666</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>5308</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2399,10 +2687,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>45932.05208333334</v>
+        <v>45945.05208333334</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>5299</v>
       </c>
       <c r="C103">
         <v>6</v>
@@ -2413,10 +2701,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>45932.0625</v>
+        <v>45945.0625</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>5338</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -2427,10 +2715,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>45932.07291666666</v>
+        <v>45945.07291666666</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>5350</v>
       </c>
       <c r="C105">
         <v>8</v>
@@ -2441,10 +2729,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>45932.08333333334</v>
+        <v>45945.08333333334</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>5290</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -2455,10 +2743,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>45932.09375</v>
+        <v>45945.09375</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>5339</v>
       </c>
       <c r="C107">
         <v>10</v>
@@ -2469,10 +2757,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>45932.10416666666</v>
+        <v>45945.10416666666</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>5293</v>
       </c>
       <c r="C108">
         <v>11</v>
@@ -2483,10 +2771,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>45932.11458333334</v>
+        <v>45945.11458333334</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>5303</v>
       </c>
       <c r="C109">
         <v>12</v>
@@ -2497,10 +2785,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>45932.125</v>
+        <v>45945.125</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>5245</v>
       </c>
       <c r="C110">
         <v>13</v>
@@ -2511,10 +2799,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>45932.13541666666</v>
+        <v>45945.13541666666</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>5248</v>
       </c>
       <c r="C111">
         <v>14</v>
@@ -2525,10 +2813,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>45932.14583333334</v>
+        <v>45945.14583333334</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>5333</v>
       </c>
       <c r="C112">
         <v>15</v>
@@ -2539,10 +2827,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>45932.15625</v>
+        <v>45945.15625</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>5340</v>
       </c>
       <c r="C113">
         <v>16</v>
@@ -2553,10 +2841,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>45932.16666666666</v>
+        <v>45945.16666666666</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>5424</v>
       </c>
       <c r="C114">
         <v>17</v>
@@ -2567,10 +2855,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>45932.17708333334</v>
+        <v>45945.17708333334</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>5445</v>
       </c>
       <c r="C115">
         <v>18</v>
@@ -2581,10 +2869,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>45932.1875</v>
+        <v>45945.1875</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>5529</v>
       </c>
       <c r="C116">
         <v>19</v>
@@ -2595,10 +2883,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>45932.19791666666</v>
+        <v>45945.19791666666</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>5655</v>
       </c>
       <c r="C117">
         <v>20</v>
@@ -2609,10 +2897,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>45932.20833333334</v>
+        <v>45945.20833333334</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>5847</v>
       </c>
       <c r="C118">
         <v>21</v>
@@ -2623,10 +2911,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>45932.21875</v>
+        <v>45945.21875</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>6042</v>
       </c>
       <c r="C119">
         <v>22</v>
@@ -2637,10 +2925,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>45932.22916666666</v>
+        <v>45945.22916666666</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>6178</v>
       </c>
       <c r="C120">
         <v>23</v>
@@ -2651,10 +2939,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>45932.23958333334</v>
+        <v>45945.23958333334</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>6346</v>
       </c>
       <c r="C121">
         <v>24</v>
@@ -2665,10 +2953,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>45932.25</v>
+        <v>45945.25</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>6665</v>
       </c>
       <c r="C122">
         <v>25</v>
@@ -2679,10 +2967,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>45932.26041666666</v>
+        <v>45945.26041666666</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>6879</v>
       </c>
       <c r="C123">
         <v>26</v>
@@ -2693,10 +2981,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>45932.27083333334</v>
+        <v>45945.27083333334</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>6959</v>
       </c>
       <c r="C124">
         <v>27</v>
@@ -2707,10 +2995,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>45932.28125</v>
+        <v>45945.28125</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>7096</v>
       </c>
       <c r="C125">
         <v>28</v>
@@ -2721,10 +3009,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>45932.29166666666</v>
+        <v>45945.29166666666</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>7187</v>
       </c>
       <c r="C126">
         <v>29</v>
@@ -2735,10 +3023,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>45932.30208333334</v>
+        <v>45945.30208333334</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>7282</v>
       </c>
       <c r="C127">
         <v>30</v>
@@ -2749,10 +3037,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>45932.3125</v>
+        <v>45945.3125</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>7349</v>
       </c>
       <c r="C128">
         <v>31</v>
@@ -2763,10 +3051,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>45932.32291666666</v>
+        <v>45945.32291666666</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>7404</v>
       </c>
       <c r="C129">
         <v>32</v>
@@ -2777,10 +3065,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>45932.33333333334</v>
+        <v>45945.33333333334</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>7415</v>
       </c>
       <c r="C130">
         <v>33</v>
@@ -2791,10 +3079,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>45932.34375</v>
+        <v>45945.34375</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>7338</v>
       </c>
       <c r="C131">
         <v>34</v>
@@ -2805,10 +3093,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>45932.35416666666</v>
+        <v>45945.35416666666</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>7228</v>
       </c>
       <c r="C132">
         <v>35</v>
@@ -2819,10 +3107,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>45932.36458333334</v>
+        <v>45945.36458333334</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>7167</v>
       </c>
       <c r="C133">
         <v>36</v>
@@ -2833,10 +3121,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>45932.375</v>
+        <v>45945.375</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>7104</v>
       </c>
       <c r="C134">
         <v>37</v>
@@ -2847,10 +3135,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>45932.38541666666</v>
+        <v>45945.38541666666</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>7063</v>
       </c>
       <c r="C135">
         <v>38</v>
@@ -2861,10 +3149,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>45932.39583333334</v>
+        <v>45945.39583333334</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>6948</v>
       </c>
       <c r="C136">
         <v>39</v>
@@ -2875,10 +3163,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>45932.40625</v>
+        <v>45945.40625</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>6755</v>
       </c>
       <c r="C137">
         <v>40</v>
@@ -2889,10 +3177,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>45932.41666666666</v>
+        <v>45945.41666666666</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>6618</v>
       </c>
       <c r="C138">
         <v>41</v>
@@ -2903,10 +3191,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>45932.42708333334</v>
+        <v>45945.42708333334</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>6516</v>
       </c>
       <c r="C139">
         <v>42</v>
@@ -2917,10 +3205,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>45932.4375</v>
+        <v>45945.4375</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>6490</v>
       </c>
       <c r="C140">
         <v>43</v>
@@ -2931,10 +3219,10 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>45932.44791666666</v>
+        <v>45945.44791666666</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>6380</v>
       </c>
       <c r="C141">
         <v>44</v>
@@ -2945,10 +3233,10 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>45932.45833333334</v>
+        <v>45945.45833333334</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>6318</v>
       </c>
       <c r="C142">
         <v>45</v>
@@ -2959,10 +3247,10 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>45932.46875</v>
+        <v>45945.46875</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>6294</v>
       </c>
       <c r="C143">
         <v>46</v>
@@ -2973,10 +3261,10 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>45932.47916666666</v>
+        <v>45945.47916666666</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>6341</v>
       </c>
       <c r="C144">
         <v>47</v>
@@ -2987,10 +3275,10 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>45932.48958333334</v>
+        <v>45945.48958333334</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="C145">
         <v>48</v>
@@ -3001,10 +3289,10 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>45932.5</v>
+        <v>45945.5</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>6254</v>
       </c>
       <c r="C146">
         <v>49</v>
@@ -3015,10 +3303,10 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>45932.51041666666</v>
+        <v>45945.51041666666</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>6326</v>
       </c>
       <c r="C147">
         <v>50</v>
@@ -3029,10 +3317,10 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>45932.52083333334</v>
+        <v>45945.52083333334</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>6307</v>
       </c>
       <c r="C148">
         <v>51</v>
@@ -3043,10 +3331,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>45932.53125</v>
+        <v>45945.53125</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>6289</v>
       </c>
       <c r="C149">
         <v>52</v>
@@ -3057,10 +3345,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>45932.54166666666</v>
+        <v>45945.54166666666</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>6191</v>
       </c>
       <c r="C150">
         <v>53</v>
@@ -3071,10 +3359,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>45932.55208333334</v>
+        <v>45945.55208333334</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>6179</v>
       </c>
       <c r="C151">
         <v>54</v>
@@ -3085,10 +3373,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>45932.5625</v>
+        <v>45945.5625</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>6138</v>
       </c>
       <c r="C152">
         <v>55</v>
@@ -3099,10 +3387,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>45932.57291666666</v>
+        <v>45945.57291666666</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>6216</v>
       </c>
       <c r="C153">
         <v>56</v>
@@ -3113,10 +3401,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>45932.58333333334</v>
+        <v>45945.58333333334</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>6240</v>
       </c>
       <c r="C154">
         <v>57</v>
@@ -3127,10 +3415,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>45932.59375</v>
+        <v>45945.59375</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>6254</v>
       </c>
       <c r="C155">
         <v>58</v>
@@ -3141,10 +3429,10 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>45932.60416666666</v>
+        <v>45945.60416666666</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>6364</v>
       </c>
       <c r="C156">
         <v>59</v>
@@ -3155,10 +3443,10 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>45932.61458333334</v>
+        <v>45945.61458333334</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>6324</v>
       </c>
       <c r="C157">
         <v>60</v>
@@ -3169,10 +3457,10 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>45932.625</v>
+        <v>45945.625</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>6415</v>
       </c>
       <c r="C158">
         <v>61</v>
@@ -3183,10 +3471,10 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>45932.63541666666</v>
+        <v>45945.63541666666</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>6509</v>
       </c>
       <c r="C159">
         <v>62</v>
@@ -3197,10 +3485,10 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>45932.64583333334</v>
+        <v>45945.64583333334</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>6571</v>
       </c>
       <c r="C160">
         <v>63</v>
@@ -3211,10 +3499,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>45932.65625</v>
+        <v>45945.65625</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>6651</v>
       </c>
       <c r="C161">
         <v>64</v>
@@ -3225,10 +3513,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>45932.66666666666</v>
+        <v>45945.66666666666</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>6662</v>
       </c>
       <c r="C162">
         <v>65</v>
@@ -3239,10 +3527,10 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>45932.67708333334</v>
+        <v>45945.67708333334</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>6802</v>
       </c>
       <c r="C163">
         <v>66</v>
@@ -3253,10 +3541,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>45932.6875</v>
+        <v>45945.6875</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>6937</v>
       </c>
       <c r="C164">
         <v>67</v>
@@ -3267,10 +3555,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>45932.69791666666</v>
+        <v>45945.69791666666</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>7050</v>
       </c>
       <c r="C165">
         <v>68</v>
@@ -3281,10 +3569,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>45932.70833333334</v>
+        <v>45945.70833333334</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>7058</v>
       </c>
       <c r="C166">
         <v>69</v>
@@ -3295,10 +3583,10 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>45932.71875</v>
+        <v>45945.71875</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>7207</v>
       </c>
       <c r="C167">
         <v>70</v>
@@ -3309,10 +3597,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>45932.72916666666</v>
+        <v>45945.72916666666</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>7372</v>
       </c>
       <c r="C168">
         <v>71</v>
@@ -3323,10 +3611,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>45932.73958333334</v>
+        <v>45945.73958333334</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>7468</v>
       </c>
       <c r="C169">
         <v>72</v>
@@ -3337,10 +3625,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>45932.75</v>
+        <v>45945.75</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>7612</v>
       </c>
       <c r="C170">
         <v>73</v>
@@ -3351,7 +3639,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>45932.76041666666</v>
+        <v>45945.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3365,7 +3653,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>45932.77083333334</v>
+        <v>45945.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3379,7 +3667,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>45932.78125</v>
+        <v>45945.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3393,7 +3681,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>45932.79166666666</v>
+        <v>45945.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3407,7 +3695,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>45932.80208333334</v>
+        <v>45945.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3421,7 +3709,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>45932.8125</v>
+        <v>45945.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3435,7 +3723,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>45932.82291666666</v>
+        <v>45945.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3449,7 +3737,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>45932.83333333334</v>
+        <v>45945.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -3463,7 +3751,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>45932.84375</v>
+        <v>45945.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -3477,7 +3765,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>45932.85416666666</v>
+        <v>45945.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -3491,7 +3779,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>45932.86458333334</v>
+        <v>45945.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -3505,7 +3793,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>45932.875</v>
+        <v>45945.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -3519,7 +3807,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>45932.88541666666</v>
+        <v>45945.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -3533,7 +3821,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>45932.89583333334</v>
+        <v>45945.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -3547,7 +3835,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>45932.90625</v>
+        <v>45945.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -3561,7 +3849,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>45932.91666666666</v>
+        <v>45945.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -3575,7 +3863,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>45932.92708333334</v>
+        <v>45945.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -3589,7 +3877,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>45932.9375</v>
+        <v>45945.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -3603,7 +3891,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>45932.94791666666</v>
+        <v>45945.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -3617,7 +3905,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>45932.95833333334</v>
+        <v>45945.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -3631,7 +3919,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>45932.96875</v>
+        <v>45945.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -3645,7 +3933,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>45932.97916666666</v>
+        <v>45945.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -3659,7 +3947,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>45932.98958333334</v>
+        <v>45945.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -3669,6 +3957,1350 @@
       </c>
       <c r="D193" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
+        <v>45946</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
+        <v>45946.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+      <c r="D195" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
+        <v>45946.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
+      <c r="D196" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
+        <v>45946.03125</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>4</v>
+      </c>
+      <c r="D197" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
+        <v>45946.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>5</v>
+      </c>
+      <c r="D198" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
+        <v>45946.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>6</v>
+      </c>
+      <c r="D199" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
+        <v>45946.0625</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>7</v>
+      </c>
+      <c r="D200" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
+        <v>45946.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>8</v>
+      </c>
+      <c r="D201" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
+        <v>45946.08333333334</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>9</v>
+      </c>
+      <c r="D202" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
+        <v>45946.09375</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>10</v>
+      </c>
+      <c r="D203" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
+        <v>45946.10416666666</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
+        <v>45946.11458333334</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>12</v>
+      </c>
+      <c r="D205" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
+        <v>45946.125</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>13</v>
+      </c>
+      <c r="D206" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
+        <v>45946.13541666666</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>14</v>
+      </c>
+      <c r="D207" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
+        <v>45946.14583333334</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>15</v>
+      </c>
+      <c r="D208" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
+        <v>45946.15625</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>16</v>
+      </c>
+      <c r="D209" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
+        <v>45946.16666666666</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>17</v>
+      </c>
+      <c r="D210" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
+        <v>45946.17708333334</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>18</v>
+      </c>
+      <c r="D211" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
+        <v>45946.1875</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>19</v>
+      </c>
+      <c r="D212" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
+        <v>45946.19791666666</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>20</v>
+      </c>
+      <c r="D213" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
+        <v>45946.20833333334</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>21</v>
+      </c>
+      <c r="D214" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
+        <v>45946.21875</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>22</v>
+      </c>
+      <c r="D215" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
+        <v>45946.22916666666</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>23</v>
+      </c>
+      <c r="D216" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
+        <v>45946.23958333334</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>24</v>
+      </c>
+      <c r="D217" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
+        <v>45946.25</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>25</v>
+      </c>
+      <c r="D218" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
+        <v>45946.26041666666</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>26</v>
+      </c>
+      <c r="D219" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
+        <v>45946.27083333334</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>27</v>
+      </c>
+      <c r="D220" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
+        <v>45946.28125</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
+        <v>45946.29166666666</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>29</v>
+      </c>
+      <c r="D222" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
+        <v>45946.30208333334</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>30</v>
+      </c>
+      <c r="D223" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
+        <v>45946.3125</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>31</v>
+      </c>
+      <c r="D224" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
+        <v>45946.32291666666</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>32</v>
+      </c>
+      <c r="D225" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
+        <v>45946.33333333334</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>33</v>
+      </c>
+      <c r="D226" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
+        <v>45946.34375</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>34</v>
+      </c>
+      <c r="D227" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
+        <v>45946.35416666666</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>35</v>
+      </c>
+      <c r="D228" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
+        <v>45946.36458333334</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>36</v>
+      </c>
+      <c r="D229" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
+        <v>45946.375</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>37</v>
+      </c>
+      <c r="D230" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="2">
+        <v>45946.38541666666</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>38</v>
+      </c>
+      <c r="D231" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="2">
+        <v>45946.39583333334</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>39</v>
+      </c>
+      <c r="D232" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="2">
+        <v>45946.40625</v>
+      </c>
+      <c r="B233">
+        <v>6614</v>
+      </c>
+      <c r="C233">
+        <v>40</v>
+      </c>
+      <c r="D233" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="2">
+        <v>45946.41666666666</v>
+      </c>
+      <c r="B234">
+        <v>6483</v>
+      </c>
+      <c r="C234">
+        <v>41</v>
+      </c>
+      <c r="D234" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="2">
+        <v>45946.42708333334</v>
+      </c>
+      <c r="B235">
+        <v>6386</v>
+      </c>
+      <c r="C235">
+        <v>42</v>
+      </c>
+      <c r="D235" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="2">
+        <v>45946.4375</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="C236">
+        <v>43</v>
+      </c>
+      <c r="D236" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="2">
+        <v>45946.44791666666</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>44</v>
+      </c>
+      <c r="D237" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="2">
+        <v>45946.45833333334</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+      <c r="C238">
+        <v>45</v>
+      </c>
+      <c r="D238" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="2">
+        <v>45946.46875</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>46</v>
+      </c>
+      <c r="D239" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="2">
+        <v>45946.47916666666</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+      <c r="C240">
+        <v>47</v>
+      </c>
+      <c r="D240" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="2">
+        <v>45946.48958333334</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>48</v>
+      </c>
+      <c r="D241" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
+        <v>45946.5</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>49</v>
+      </c>
+      <c r="D242" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
+        <v>45946.51041666666</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>50</v>
+      </c>
+      <c r="D243" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
+        <v>45946.52083333334</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <v>51</v>
+      </c>
+      <c r="D244" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
+        <v>45946.53125</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>52</v>
+      </c>
+      <c r="D245" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
+        <v>45946.54166666666</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>53</v>
+      </c>
+      <c r="D246" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
+        <v>45946.55208333334</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>54</v>
+      </c>
+      <c r="D247" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
+        <v>45946.5625</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+      <c r="C248">
+        <v>55</v>
+      </c>
+      <c r="D248" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="2">
+        <v>45946.57291666666</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>56</v>
+      </c>
+      <c r="D249" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="2">
+        <v>45946.58333333334</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <v>57</v>
+      </c>
+      <c r="D250" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="2">
+        <v>45946.59375</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>58</v>
+      </c>
+      <c r="D251" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="2">
+        <v>45946.60416666666</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+      <c r="C252">
+        <v>59</v>
+      </c>
+      <c r="D252" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="2">
+        <v>45946.61458333334</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>60</v>
+      </c>
+      <c r="D253" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="2">
+        <v>45946.625</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>61</v>
+      </c>
+      <c r="D254" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="2">
+        <v>45946.63541666666</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>62</v>
+      </c>
+      <c r="D255" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="2">
+        <v>45946.64583333334</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <v>63</v>
+      </c>
+      <c r="D256" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="2">
+        <v>45946.65625</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+      <c r="C257">
+        <v>64</v>
+      </c>
+      <c r="D257" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="2">
+        <v>45946.66666666666</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <v>65</v>
+      </c>
+      <c r="D258" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="2">
+        <v>45946.67708333334</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+      <c r="C259">
+        <v>66</v>
+      </c>
+      <c r="D259" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="2">
+        <v>45946.6875</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <v>67</v>
+      </c>
+      <c r="D260" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="2">
+        <v>45946.69791666666</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+      <c r="C261">
+        <v>68</v>
+      </c>
+      <c r="D261" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="2">
+        <v>45946.70833333334</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+      <c r="C262">
+        <v>69</v>
+      </c>
+      <c r="D262" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="2">
+        <v>45946.71875</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <v>70</v>
+      </c>
+      <c r="D263" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="2">
+        <v>45946.72916666666</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <v>71</v>
+      </c>
+      <c r="D264" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="2">
+        <v>45946.73958333334</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>72</v>
+      </c>
+      <c r="D265" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="2">
+        <v>45946.75</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>73</v>
+      </c>
+      <c r="D266" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="2">
+        <v>45946.76041666666</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>74</v>
+      </c>
+      <c r="D267" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="2">
+        <v>45946.77083333334</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>75</v>
+      </c>
+      <c r="D268" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="2">
+        <v>45946.78125</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>76</v>
+      </c>
+      <c r="D269" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="2">
+        <v>45946.79166666666</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>77</v>
+      </c>
+      <c r="D270" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="2">
+        <v>45946.80208333334</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>78</v>
+      </c>
+      <c r="D271" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="2">
+        <v>45946.8125</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+      <c r="C272">
+        <v>79</v>
+      </c>
+      <c r="D272" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="2">
+        <v>45946.82291666666</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>80</v>
+      </c>
+      <c r="D273" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="2">
+        <v>45946.83333333334</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+      <c r="C274">
+        <v>81</v>
+      </c>
+      <c r="D274" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="2">
+        <v>45946.84375</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>82</v>
+      </c>
+      <c r="D275" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="2">
+        <v>45946.85416666666</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <v>83</v>
+      </c>
+      <c r="D276" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="2">
+        <v>45946.86458333334</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <v>84</v>
+      </c>
+      <c r="D277" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="2">
+        <v>45946.875</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>85</v>
+      </c>
+      <c r="D278" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="2">
+        <v>45946.88541666666</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>86</v>
+      </c>
+      <c r="D279" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="2">
+        <v>45946.89583333334</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+      <c r="C280">
+        <v>87</v>
+      </c>
+      <c r="D280" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="2">
+        <v>45946.90625</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <v>88</v>
+      </c>
+      <c r="D281" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="2">
+        <v>45946.91666666666</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <v>89</v>
+      </c>
+      <c r="D282" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="2">
+        <v>45946.92708333334</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <v>90</v>
+      </c>
+      <c r="D283" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="2">
+        <v>45946.9375</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>91</v>
+      </c>
+      <c r="D284" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="2">
+        <v>45946.94791666666</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <v>92</v>
+      </c>
+      <c r="D285" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="2">
+        <v>45946.95833333334</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <v>93</v>
+      </c>
+      <c r="D286" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="2">
+        <v>45946.96875</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>94</v>
+      </c>
+      <c r="D287" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="2">
+        <v>45946.97916666666</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <v>95</v>
+      </c>
+      <c r="D288" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="2">
+        <v>45946.98958333334</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>96</v>
+      </c>
+      <c r="D289" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
@@ -28,580 +28,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>23.10.20251</t>
-  </si>
-  <si>
-    <t>23.10.20252</t>
-  </si>
-  <si>
-    <t>23.10.20253</t>
-  </si>
-  <si>
-    <t>23.10.20254</t>
-  </si>
-  <si>
-    <t>23.10.20255</t>
-  </si>
-  <si>
-    <t>23.10.20256</t>
-  </si>
-  <si>
-    <t>23.10.20257</t>
-  </si>
-  <si>
-    <t>23.10.20258</t>
-  </si>
-  <si>
-    <t>23.10.20259</t>
-  </si>
-  <si>
-    <t>23.10.202510</t>
-  </si>
-  <si>
-    <t>23.10.202511</t>
-  </si>
-  <si>
-    <t>23.10.202512</t>
-  </si>
-  <si>
-    <t>23.10.202513</t>
-  </si>
-  <si>
-    <t>23.10.202514</t>
-  </si>
-  <si>
-    <t>23.10.202515</t>
-  </si>
-  <si>
-    <t>23.10.202516</t>
-  </si>
-  <si>
-    <t>23.10.202517</t>
-  </si>
-  <si>
-    <t>23.10.202518</t>
-  </si>
-  <si>
-    <t>23.10.202519</t>
-  </si>
-  <si>
-    <t>23.10.202520</t>
-  </si>
-  <si>
-    <t>23.10.202521</t>
-  </si>
-  <si>
-    <t>23.10.202522</t>
-  </si>
-  <si>
-    <t>23.10.202523</t>
-  </si>
-  <si>
-    <t>23.10.202524</t>
-  </si>
-  <si>
-    <t>23.10.202525</t>
-  </si>
-  <si>
-    <t>23.10.202526</t>
-  </si>
-  <si>
-    <t>23.10.202527</t>
-  </si>
-  <si>
-    <t>23.10.202528</t>
-  </si>
-  <si>
-    <t>23.10.202529</t>
-  </si>
-  <si>
-    <t>23.10.202530</t>
-  </si>
-  <si>
-    <t>23.10.202531</t>
-  </si>
-  <si>
-    <t>23.10.202532</t>
-  </si>
-  <si>
-    <t>23.10.202533</t>
-  </si>
-  <si>
-    <t>23.10.202534</t>
-  </si>
-  <si>
-    <t>23.10.202535</t>
-  </si>
-  <si>
-    <t>23.10.202536</t>
-  </si>
-  <si>
-    <t>23.10.202537</t>
-  </si>
-  <si>
-    <t>23.10.202538</t>
-  </si>
-  <si>
-    <t>23.10.202539</t>
-  </si>
-  <si>
-    <t>23.10.202540</t>
-  </si>
-  <si>
-    <t>23.10.202541</t>
-  </si>
-  <si>
-    <t>23.10.202542</t>
-  </si>
-  <si>
-    <t>23.10.202543</t>
-  </si>
-  <si>
-    <t>23.10.202544</t>
-  </si>
-  <si>
-    <t>23.10.202545</t>
-  </si>
-  <si>
-    <t>23.10.202546</t>
-  </si>
-  <si>
-    <t>23.10.202547</t>
-  </si>
-  <si>
-    <t>23.10.202548</t>
-  </si>
-  <si>
-    <t>23.10.202549</t>
-  </si>
-  <si>
-    <t>23.10.202550</t>
-  </si>
-  <si>
-    <t>23.10.202551</t>
-  </si>
-  <si>
-    <t>23.10.202552</t>
-  </si>
-  <si>
-    <t>23.10.202553</t>
-  </si>
-  <si>
-    <t>23.10.202554</t>
-  </si>
-  <si>
-    <t>23.10.202555</t>
-  </si>
-  <si>
-    <t>23.10.202556</t>
-  </si>
-  <si>
-    <t>23.10.202557</t>
-  </si>
-  <si>
-    <t>23.10.202558</t>
-  </si>
-  <si>
-    <t>23.10.202559</t>
-  </si>
-  <si>
-    <t>23.10.202560</t>
-  </si>
-  <si>
-    <t>23.10.202561</t>
-  </si>
-  <si>
-    <t>23.10.202562</t>
-  </si>
-  <si>
-    <t>23.10.202563</t>
-  </si>
-  <si>
-    <t>23.10.202564</t>
-  </si>
-  <si>
-    <t>23.10.202565</t>
-  </si>
-  <si>
-    <t>23.10.202566</t>
-  </si>
-  <si>
-    <t>23.10.202567</t>
-  </si>
-  <si>
-    <t>23.10.202568</t>
-  </si>
-  <si>
-    <t>23.10.202569</t>
-  </si>
-  <si>
-    <t>23.10.202570</t>
-  </si>
-  <si>
-    <t>23.10.202571</t>
-  </si>
-  <si>
-    <t>23.10.202572</t>
-  </si>
-  <si>
-    <t>23.10.202573</t>
-  </si>
-  <si>
-    <t>23.10.202574</t>
-  </si>
-  <si>
-    <t>23.10.202575</t>
-  </si>
-  <si>
-    <t>23.10.202576</t>
-  </si>
-  <si>
-    <t>23.10.202577</t>
-  </si>
-  <si>
-    <t>23.10.202578</t>
-  </si>
-  <si>
-    <t>23.10.202579</t>
-  </si>
-  <si>
-    <t>23.10.202580</t>
-  </si>
-  <si>
-    <t>23.10.202581</t>
-  </si>
-  <si>
-    <t>23.10.202582</t>
-  </si>
-  <si>
-    <t>23.10.202583</t>
-  </si>
-  <si>
-    <t>23.10.202584</t>
-  </si>
-  <si>
-    <t>23.10.202585</t>
-  </si>
-  <si>
-    <t>23.10.202586</t>
-  </si>
-  <si>
-    <t>23.10.202587</t>
-  </si>
-  <si>
-    <t>23.10.202588</t>
-  </si>
-  <si>
-    <t>23.10.202589</t>
-  </si>
-  <si>
-    <t>23.10.202590</t>
-  </si>
-  <si>
-    <t>23.10.202591</t>
-  </si>
-  <si>
-    <t>23.10.202592</t>
-  </si>
-  <si>
-    <t>23.10.202593</t>
-  </si>
-  <si>
-    <t>23.10.202594</t>
-  </si>
-  <si>
-    <t>23.10.202595</t>
-  </si>
-  <si>
-    <t>23.10.202596</t>
-  </si>
-  <si>
-    <t>24.10.20251</t>
-  </si>
-  <si>
-    <t>24.10.20252</t>
-  </si>
-  <si>
-    <t>24.10.20253</t>
-  </si>
-  <si>
-    <t>24.10.20254</t>
-  </si>
-  <si>
-    <t>24.10.20255</t>
-  </si>
-  <si>
-    <t>24.10.20256</t>
-  </si>
-  <si>
-    <t>24.10.20257</t>
-  </si>
-  <si>
-    <t>24.10.20258</t>
-  </si>
-  <si>
-    <t>24.10.20259</t>
-  </si>
-  <si>
-    <t>24.10.202510</t>
-  </si>
-  <si>
-    <t>24.10.202511</t>
-  </si>
-  <si>
-    <t>24.10.202512</t>
-  </si>
-  <si>
-    <t>24.10.202513</t>
-  </si>
-  <si>
-    <t>24.10.202514</t>
-  </si>
-  <si>
-    <t>24.10.202515</t>
-  </si>
-  <si>
-    <t>24.10.202516</t>
-  </si>
-  <si>
-    <t>24.10.202517</t>
-  </si>
-  <si>
-    <t>24.10.202518</t>
-  </si>
-  <si>
-    <t>24.10.202519</t>
-  </si>
-  <si>
-    <t>24.10.202520</t>
-  </si>
-  <si>
-    <t>24.10.202521</t>
-  </si>
-  <si>
-    <t>24.10.202522</t>
-  </si>
-  <si>
-    <t>24.10.202523</t>
-  </si>
-  <si>
-    <t>24.10.202524</t>
-  </si>
-  <si>
-    <t>24.10.202525</t>
-  </si>
-  <si>
-    <t>24.10.202526</t>
-  </si>
-  <si>
-    <t>24.10.202527</t>
-  </si>
-  <si>
-    <t>24.10.202528</t>
-  </si>
-  <si>
-    <t>24.10.202529</t>
-  </si>
-  <si>
-    <t>24.10.202530</t>
-  </si>
-  <si>
-    <t>24.10.202531</t>
-  </si>
-  <si>
-    <t>24.10.202532</t>
-  </si>
-  <si>
-    <t>24.10.202533</t>
-  </si>
-  <si>
-    <t>24.10.202534</t>
-  </si>
-  <si>
-    <t>24.10.202535</t>
-  </si>
-  <si>
-    <t>24.10.202536</t>
-  </si>
-  <si>
-    <t>24.10.202537</t>
-  </si>
-  <si>
-    <t>24.10.202538</t>
-  </si>
-  <si>
-    <t>24.10.202539</t>
-  </si>
-  <si>
-    <t>24.10.202540</t>
-  </si>
-  <si>
-    <t>24.10.202541</t>
-  </si>
-  <si>
-    <t>24.10.202542</t>
-  </si>
-  <si>
-    <t>24.10.202543</t>
-  </si>
-  <si>
-    <t>24.10.202544</t>
-  </si>
-  <si>
-    <t>24.10.202545</t>
-  </si>
-  <si>
-    <t>24.10.202546</t>
-  </si>
-  <si>
-    <t>24.10.202547</t>
-  </si>
-  <si>
-    <t>24.10.202548</t>
-  </si>
-  <si>
-    <t>24.10.202549</t>
-  </si>
-  <si>
-    <t>24.10.202550</t>
-  </si>
-  <si>
-    <t>24.10.202551</t>
-  </si>
-  <si>
-    <t>24.10.202552</t>
-  </si>
-  <si>
-    <t>24.10.202553</t>
-  </si>
-  <si>
-    <t>24.10.202554</t>
-  </si>
-  <si>
-    <t>24.10.202555</t>
-  </si>
-  <si>
-    <t>24.10.202556</t>
-  </si>
-  <si>
-    <t>24.10.202557</t>
-  </si>
-  <si>
-    <t>24.10.202558</t>
-  </si>
-  <si>
-    <t>24.10.202559</t>
-  </si>
-  <si>
-    <t>24.10.202560</t>
-  </si>
-  <si>
-    <t>24.10.202561</t>
-  </si>
-  <si>
-    <t>24.10.202562</t>
-  </si>
-  <si>
-    <t>24.10.202563</t>
-  </si>
-  <si>
-    <t>24.10.202564</t>
-  </si>
-  <si>
-    <t>24.10.202565</t>
-  </si>
-  <si>
-    <t>24.10.202566</t>
-  </si>
-  <si>
-    <t>24.10.202567</t>
-  </si>
-  <si>
-    <t>24.10.202568</t>
-  </si>
-  <si>
-    <t>24.10.202569</t>
-  </si>
-  <si>
-    <t>24.10.202570</t>
-  </si>
-  <si>
-    <t>24.10.202571</t>
-  </si>
-  <si>
-    <t>24.10.202572</t>
-  </si>
-  <si>
-    <t>24.10.202573</t>
-  </si>
-  <si>
-    <t>24.10.202574</t>
-  </si>
-  <si>
-    <t>24.10.202575</t>
-  </si>
-  <si>
-    <t>24.10.202576</t>
-  </si>
-  <si>
-    <t>24.10.202577</t>
-  </si>
-  <si>
-    <t>24.10.202578</t>
-  </si>
-  <si>
-    <t>24.10.202579</t>
-  </si>
-  <si>
-    <t>24.10.202580</t>
-  </si>
-  <si>
-    <t>24.10.202581</t>
-  </si>
-  <si>
-    <t>24.10.202582</t>
-  </si>
-  <si>
-    <t>24.10.202583</t>
-  </si>
-  <si>
-    <t>24.10.202584</t>
-  </si>
-  <si>
-    <t>24.10.202585</t>
-  </si>
-  <si>
-    <t>24.10.202586</t>
-  </si>
-  <si>
-    <t>24.10.202587</t>
-  </si>
-  <si>
-    <t>24.10.202588</t>
-  </si>
-  <si>
-    <t>24.10.202589</t>
-  </si>
-  <si>
-    <t>24.10.202590</t>
-  </si>
-  <si>
-    <t>24.10.202591</t>
-  </si>
-  <si>
-    <t>24.10.202592</t>
-  </si>
-  <si>
-    <t>24.10.202593</t>
-  </si>
-  <si>
-    <t>24.10.202594</t>
-  </si>
-  <si>
-    <t>24.10.202595</t>
-  </si>
-  <si>
-    <t>24.10.202596</t>
+    <t>07.11.20251</t>
+  </si>
+  <si>
+    <t>07.11.20252</t>
+  </si>
+  <si>
+    <t>07.11.20253</t>
+  </si>
+  <si>
+    <t>07.11.20254</t>
+  </si>
+  <si>
+    <t>07.11.20255</t>
+  </si>
+  <si>
+    <t>07.11.20256</t>
+  </si>
+  <si>
+    <t>07.11.20257</t>
+  </si>
+  <si>
+    <t>07.11.20258</t>
+  </si>
+  <si>
+    <t>07.11.20259</t>
+  </si>
+  <si>
+    <t>07.11.202510</t>
+  </si>
+  <si>
+    <t>07.11.202511</t>
+  </si>
+  <si>
+    <t>07.11.202512</t>
+  </si>
+  <si>
+    <t>07.11.202513</t>
+  </si>
+  <si>
+    <t>07.11.202514</t>
+  </si>
+  <si>
+    <t>07.11.202515</t>
+  </si>
+  <si>
+    <t>07.11.202516</t>
+  </si>
+  <si>
+    <t>07.11.202517</t>
+  </si>
+  <si>
+    <t>07.11.202518</t>
+  </si>
+  <si>
+    <t>07.11.202519</t>
+  </si>
+  <si>
+    <t>07.11.202520</t>
+  </si>
+  <si>
+    <t>07.11.202521</t>
+  </si>
+  <si>
+    <t>07.11.202522</t>
+  </si>
+  <si>
+    <t>07.11.202523</t>
+  </si>
+  <si>
+    <t>07.11.202524</t>
+  </si>
+  <si>
+    <t>07.11.202525</t>
+  </si>
+  <si>
+    <t>07.11.202526</t>
+  </si>
+  <si>
+    <t>07.11.202527</t>
+  </si>
+  <si>
+    <t>07.11.202528</t>
+  </si>
+  <si>
+    <t>07.11.202529</t>
+  </si>
+  <si>
+    <t>07.11.202530</t>
+  </si>
+  <si>
+    <t>07.11.202531</t>
+  </si>
+  <si>
+    <t>07.11.202532</t>
+  </si>
+  <si>
+    <t>07.11.202533</t>
+  </si>
+  <si>
+    <t>07.11.202534</t>
+  </si>
+  <si>
+    <t>07.11.202535</t>
+  </si>
+  <si>
+    <t>07.11.202536</t>
+  </si>
+  <si>
+    <t>07.11.202537</t>
+  </si>
+  <si>
+    <t>07.11.202538</t>
+  </si>
+  <si>
+    <t>07.11.202539</t>
+  </si>
+  <si>
+    <t>07.11.202540</t>
+  </si>
+  <si>
+    <t>07.11.202541</t>
+  </si>
+  <si>
+    <t>07.11.202542</t>
+  </si>
+  <si>
+    <t>07.11.202543</t>
+  </si>
+  <si>
+    <t>07.11.202544</t>
+  </si>
+  <si>
+    <t>07.11.202545</t>
+  </si>
+  <si>
+    <t>07.11.202546</t>
+  </si>
+  <si>
+    <t>07.11.202547</t>
+  </si>
+  <si>
+    <t>07.11.202548</t>
+  </si>
+  <si>
+    <t>07.11.202549</t>
+  </si>
+  <si>
+    <t>07.11.202550</t>
+  </si>
+  <si>
+    <t>07.11.202551</t>
+  </si>
+  <si>
+    <t>07.11.202552</t>
+  </si>
+  <si>
+    <t>07.11.202553</t>
+  </si>
+  <si>
+    <t>07.11.202554</t>
+  </si>
+  <si>
+    <t>07.11.202555</t>
+  </si>
+  <si>
+    <t>07.11.202556</t>
+  </si>
+  <si>
+    <t>07.11.202557</t>
+  </si>
+  <si>
+    <t>07.11.202558</t>
+  </si>
+  <si>
+    <t>07.11.202559</t>
+  </si>
+  <si>
+    <t>07.11.202560</t>
+  </si>
+  <si>
+    <t>07.11.202561</t>
+  </si>
+  <si>
+    <t>07.11.202562</t>
+  </si>
+  <si>
+    <t>07.11.202563</t>
+  </si>
+  <si>
+    <t>07.11.202564</t>
+  </si>
+  <si>
+    <t>07.11.202565</t>
+  </si>
+  <si>
+    <t>07.11.202566</t>
+  </si>
+  <si>
+    <t>07.11.202567</t>
+  </si>
+  <si>
+    <t>07.11.202568</t>
+  </si>
+  <si>
+    <t>07.11.202569</t>
+  </si>
+  <si>
+    <t>07.11.202570</t>
+  </si>
+  <si>
+    <t>07.11.202571</t>
+  </si>
+  <si>
+    <t>07.11.202572</t>
+  </si>
+  <si>
+    <t>07.11.202573</t>
+  </si>
+  <si>
+    <t>07.11.202574</t>
+  </si>
+  <si>
+    <t>07.11.202575</t>
+  </si>
+  <si>
+    <t>07.11.202576</t>
+  </si>
+  <si>
+    <t>07.11.202577</t>
+  </si>
+  <si>
+    <t>07.11.202578</t>
+  </si>
+  <si>
+    <t>07.11.202579</t>
+  </si>
+  <si>
+    <t>07.11.202580</t>
+  </si>
+  <si>
+    <t>07.11.202581</t>
+  </si>
+  <si>
+    <t>07.11.202582</t>
+  </si>
+  <si>
+    <t>07.11.202583</t>
+  </si>
+  <si>
+    <t>07.11.202584</t>
+  </si>
+  <si>
+    <t>07.11.202585</t>
+  </si>
+  <si>
+    <t>07.11.202586</t>
+  </si>
+  <si>
+    <t>07.11.202587</t>
+  </si>
+  <si>
+    <t>07.11.202588</t>
+  </si>
+  <si>
+    <t>07.11.202589</t>
+  </si>
+  <si>
+    <t>07.11.202590</t>
+  </si>
+  <si>
+    <t>07.11.202591</t>
+  </si>
+  <si>
+    <t>07.11.202592</t>
+  </si>
+  <si>
+    <t>07.11.202593</t>
+  </si>
+  <si>
+    <t>07.11.202594</t>
+  </si>
+  <si>
+    <t>07.11.202595</t>
+  </si>
+  <si>
+    <t>07.11.202596</t>
+  </si>
+  <si>
+    <t>08.11.20251</t>
+  </si>
+  <si>
+    <t>08.11.20252</t>
+  </si>
+  <si>
+    <t>08.11.20253</t>
+  </si>
+  <si>
+    <t>08.11.20254</t>
+  </si>
+  <si>
+    <t>08.11.20255</t>
+  </si>
+  <si>
+    <t>08.11.20256</t>
+  </si>
+  <si>
+    <t>08.11.20257</t>
+  </si>
+  <si>
+    <t>08.11.20258</t>
+  </si>
+  <si>
+    <t>08.11.20259</t>
+  </si>
+  <si>
+    <t>08.11.202510</t>
+  </si>
+  <si>
+    <t>08.11.202511</t>
+  </si>
+  <si>
+    <t>08.11.202512</t>
+  </si>
+  <si>
+    <t>08.11.202513</t>
+  </si>
+  <si>
+    <t>08.11.202514</t>
+  </si>
+  <si>
+    <t>08.11.202515</t>
+  </si>
+  <si>
+    <t>08.11.202516</t>
+  </si>
+  <si>
+    <t>08.11.202517</t>
+  </si>
+  <si>
+    <t>08.11.202518</t>
+  </si>
+  <si>
+    <t>08.11.202519</t>
+  </si>
+  <si>
+    <t>08.11.202520</t>
+  </si>
+  <si>
+    <t>08.11.202521</t>
+  </si>
+  <si>
+    <t>08.11.202522</t>
+  </si>
+  <si>
+    <t>08.11.202523</t>
+  </si>
+  <si>
+    <t>08.11.202524</t>
+  </si>
+  <si>
+    <t>08.11.202525</t>
+  </si>
+  <si>
+    <t>08.11.202526</t>
+  </si>
+  <si>
+    <t>08.11.202527</t>
+  </si>
+  <si>
+    <t>08.11.202528</t>
+  </si>
+  <si>
+    <t>08.11.202529</t>
+  </si>
+  <si>
+    <t>08.11.202530</t>
+  </si>
+  <si>
+    <t>08.11.202531</t>
+  </si>
+  <si>
+    <t>08.11.202532</t>
+  </si>
+  <si>
+    <t>08.11.202533</t>
+  </si>
+  <si>
+    <t>08.11.202534</t>
+  </si>
+  <si>
+    <t>08.11.202535</t>
+  </si>
+  <si>
+    <t>08.11.202536</t>
+  </si>
+  <si>
+    <t>08.11.202537</t>
+  </si>
+  <si>
+    <t>08.11.202538</t>
+  </si>
+  <si>
+    <t>08.11.202539</t>
+  </si>
+  <si>
+    <t>08.11.202540</t>
+  </si>
+  <si>
+    <t>08.11.202541</t>
+  </si>
+  <si>
+    <t>08.11.202542</t>
+  </si>
+  <si>
+    <t>08.11.202543</t>
+  </si>
+  <si>
+    <t>08.11.202544</t>
+  </si>
+  <si>
+    <t>08.11.202545</t>
+  </si>
+  <si>
+    <t>08.11.202546</t>
+  </si>
+  <si>
+    <t>08.11.202547</t>
+  </si>
+  <si>
+    <t>08.11.202548</t>
+  </si>
+  <si>
+    <t>08.11.202549</t>
+  </si>
+  <si>
+    <t>08.11.202550</t>
+  </si>
+  <si>
+    <t>08.11.202551</t>
+  </si>
+  <si>
+    <t>08.11.202552</t>
+  </si>
+  <si>
+    <t>08.11.202553</t>
+  </si>
+  <si>
+    <t>08.11.202554</t>
+  </si>
+  <si>
+    <t>08.11.202555</t>
+  </si>
+  <si>
+    <t>08.11.202556</t>
+  </si>
+  <si>
+    <t>08.11.202557</t>
+  </si>
+  <si>
+    <t>08.11.202558</t>
+  </si>
+  <si>
+    <t>08.11.202559</t>
+  </si>
+  <si>
+    <t>08.11.202560</t>
+  </si>
+  <si>
+    <t>08.11.202561</t>
+  </si>
+  <si>
+    <t>08.11.202562</t>
+  </si>
+  <si>
+    <t>08.11.202563</t>
+  </si>
+  <si>
+    <t>08.11.202564</t>
+  </si>
+  <si>
+    <t>08.11.202565</t>
+  </si>
+  <si>
+    <t>08.11.202566</t>
+  </si>
+  <si>
+    <t>08.11.202567</t>
+  </si>
+  <si>
+    <t>08.11.202568</t>
+  </si>
+  <si>
+    <t>08.11.202569</t>
+  </si>
+  <si>
+    <t>08.11.202570</t>
+  </si>
+  <si>
+    <t>08.11.202571</t>
+  </si>
+  <si>
+    <t>08.11.202572</t>
+  </si>
+  <si>
+    <t>08.11.202573</t>
+  </si>
+  <si>
+    <t>08.11.202574</t>
+  </si>
+  <si>
+    <t>08.11.202575</t>
+  </si>
+  <si>
+    <t>08.11.202576</t>
+  </si>
+  <si>
+    <t>08.11.202577</t>
+  </si>
+  <si>
+    <t>08.11.202578</t>
+  </si>
+  <si>
+    <t>08.11.202579</t>
+  </si>
+  <si>
+    <t>08.11.202580</t>
+  </si>
+  <si>
+    <t>08.11.202581</t>
+  </si>
+  <si>
+    <t>08.11.202582</t>
+  </si>
+  <si>
+    <t>08.11.202583</t>
+  </si>
+  <si>
+    <t>08.11.202584</t>
+  </si>
+  <si>
+    <t>08.11.202585</t>
+  </si>
+  <si>
+    <t>08.11.202586</t>
+  </si>
+  <si>
+    <t>08.11.202587</t>
+  </si>
+  <si>
+    <t>08.11.202588</t>
+  </si>
+  <si>
+    <t>08.11.202589</t>
+  </si>
+  <si>
+    <t>08.11.202590</t>
+  </si>
+  <si>
+    <t>08.11.202591</t>
+  </si>
+  <si>
+    <t>08.11.202592</t>
+  </si>
+  <si>
+    <t>08.11.202593</t>
+  </si>
+  <si>
+    <t>08.11.202594</t>
+  </si>
+  <si>
+    <t>08.11.202595</t>
+  </si>
+  <si>
+    <t>08.11.202596</t>
   </si>
 </sst>
 </file>
@@ -985,10 +985,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45953</v>
+        <v>45968</v>
       </c>
       <c r="B2">
-        <v>5499</v>
+        <v>5505</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -999,10 +999,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45953.01041666666</v>
+        <v>45968.01041666666</v>
       </c>
       <c r="B3">
-        <v>5447</v>
+        <v>5509</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45953.02083333334</v>
+        <v>45968.02083333334</v>
       </c>
       <c r="B4">
-        <v>5395</v>
+        <v>5516</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45953.03125</v>
+        <v>45968.03125</v>
       </c>
       <c r="B5">
-        <v>5366</v>
+        <v>5520</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45953.04166666666</v>
+        <v>45968.04166666666</v>
       </c>
       <c r="B6">
-        <v>5317</v>
+        <v>5416</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45953.05208333334</v>
+        <v>45968.05208333334</v>
       </c>
       <c r="B7">
-        <v>5305</v>
+        <v>5435</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45953.0625</v>
+        <v>45968.0625</v>
       </c>
       <c r="B8">
-        <v>5329</v>
+        <v>5420</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45953.07291666666</v>
+        <v>45968.07291666666</v>
       </c>
       <c r="B9">
-        <v>5305</v>
+        <v>5490</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45953.08333333334</v>
+        <v>45968.08333333334</v>
       </c>
       <c r="B10">
-        <v>5278</v>
+        <v>5387</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1111,10 +1111,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45953.09375</v>
+        <v>45968.09375</v>
       </c>
       <c r="B11">
-        <v>5301</v>
+        <v>5366</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45953.10416666666</v>
+        <v>45968.10416666666</v>
       </c>
       <c r="B12">
-        <v>5296</v>
+        <v>5406</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1139,10 +1139,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45953.11458333334</v>
+        <v>45968.11458333334</v>
       </c>
       <c r="B13">
-        <v>5318</v>
+        <v>5451</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45953.125</v>
+        <v>45968.125</v>
       </c>
       <c r="B14">
-        <v>5341</v>
+        <v>5455</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45953.13541666666</v>
+        <v>45968.13541666666</v>
       </c>
       <c r="B15">
-        <v>5338</v>
+        <v>5395</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1181,10 +1181,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45953.14583333334</v>
+        <v>45968.14583333334</v>
       </c>
       <c r="B16">
-        <v>5397</v>
+        <v>5476</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45953.15625</v>
+        <v>45968.15625</v>
       </c>
       <c r="B17">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1209,10 +1209,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45953.16666666666</v>
+        <v>45968.16666666666</v>
       </c>
       <c r="B18">
-        <v>5461</v>
+        <v>5670</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1223,10 +1223,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45953.17708333334</v>
+        <v>45968.17708333334</v>
       </c>
       <c r="B19">
-        <v>5500</v>
+        <v>5713</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1237,10 +1237,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45953.1875</v>
+        <v>45968.1875</v>
       </c>
       <c r="B20">
-        <v>5575</v>
+        <v>5853</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45953.19791666666</v>
+        <v>45968.19791666666</v>
       </c>
       <c r="B21">
-        <v>5666</v>
+        <v>5953</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45953.20833333334</v>
+        <v>45968.20833333334</v>
       </c>
       <c r="B22">
-        <v>5899</v>
+        <v>6183</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45953.21875</v>
+        <v>45968.21875</v>
       </c>
       <c r="B23">
-        <v>6073</v>
+        <v>6304</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1293,10 +1293,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45953.22916666666</v>
+        <v>45968.22916666666</v>
       </c>
       <c r="B24">
-        <v>6170</v>
+        <v>6473</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45953.23958333334</v>
+        <v>45968.23958333334</v>
       </c>
       <c r="B25">
-        <v>6360</v>
+        <v>6648</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45953.25</v>
+        <v>45968.25</v>
       </c>
       <c r="B26">
-        <v>6677</v>
+        <v>6787</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45953.26041666666</v>
+        <v>45968.26041666666</v>
       </c>
       <c r="B27">
-        <v>6883</v>
+        <v>6938</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45953.27083333334</v>
+        <v>45968.27083333334</v>
       </c>
       <c r="B28">
-        <v>6971</v>
+        <v>7135</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45953.28125</v>
+        <v>45968.28125</v>
       </c>
       <c r="B29">
-        <v>7042</v>
+        <v>7196</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45953.29166666666</v>
+        <v>45968.29166666666</v>
       </c>
       <c r="B30">
-        <v>7165</v>
+        <v>7288</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1391,10 +1391,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45953.30208333334</v>
+        <v>45968.30208333334</v>
       </c>
       <c r="B31">
-        <v>7258</v>
+        <v>7300</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45953.3125</v>
+        <v>45968.3125</v>
       </c>
       <c r="B32">
-        <v>7252</v>
+        <v>7316</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1419,10 +1419,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45953.32291666666</v>
+        <v>45968.32291666666</v>
       </c>
       <c r="B33">
-        <v>7245</v>
+        <v>7375</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1433,10 +1433,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45953.33333333334</v>
+        <v>45968.33333333334</v>
       </c>
       <c r="B34">
-        <v>7158</v>
+        <v>7350</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1447,10 +1447,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45953.34375</v>
+        <v>45968.34375</v>
       </c>
       <c r="B35">
-        <v>7087</v>
+        <v>7364</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45953.35416666666</v>
+        <v>45968.35416666666</v>
       </c>
       <c r="B36">
-        <v>6966</v>
+        <v>7311</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45953.36458333334</v>
+        <v>45968.36458333334</v>
       </c>
       <c r="B37">
-        <v>6922</v>
+        <v>7302</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1489,10 +1489,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45953.375</v>
+        <v>45968.375</v>
       </c>
       <c r="B38">
-        <v>6793</v>
+        <v>7251</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45953.38541666666</v>
+        <v>45968.38541666666</v>
       </c>
       <c r="B39">
-        <v>6684</v>
+        <v>7226</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45953.39583333334</v>
+        <v>45968.39583333334</v>
       </c>
       <c r="B40">
-        <v>6590</v>
+        <v>7153</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45953.40625</v>
+        <v>45968.40625</v>
       </c>
       <c r="B41">
-        <v>6456</v>
+        <v>7101</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45953.41666666666</v>
+        <v>45968.41666666666</v>
       </c>
       <c r="B42">
-        <v>6233</v>
+        <v>6815</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45953.42708333334</v>
+        <v>45968.42708333334</v>
       </c>
       <c r="B43">
-        <v>6135</v>
+        <v>6915</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45953.4375</v>
+        <v>45968.4375</v>
       </c>
       <c r="B44">
-        <v>5995</v>
+        <v>6911</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45953.44791666666</v>
+        <v>45968.44791666666</v>
       </c>
       <c r="B45">
-        <v>5818</v>
+        <v>6893</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45953.45833333334</v>
+        <v>45968.45833333334</v>
       </c>
       <c r="B46">
-        <v>5723</v>
+        <v>6804</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45953.46875</v>
+        <v>45968.46875</v>
       </c>
       <c r="B47">
-        <v>5649</v>
+        <v>6842</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45953.47916666666</v>
+        <v>45968.47916666666</v>
       </c>
       <c r="B48">
-        <v>5635</v>
+        <v>6866</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1643,10 +1643,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45953.48958333334</v>
+        <v>45968.48958333334</v>
       </c>
       <c r="B49">
-        <v>5547</v>
+        <v>6881</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45953.5</v>
+        <v>45968.5</v>
       </c>
       <c r="B50">
-        <v>5493</v>
+        <v>6916</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1671,10 +1671,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45953.51041666666</v>
+        <v>45968.51041666666</v>
       </c>
       <c r="B51">
-        <v>5571</v>
+        <v>7050</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45953.52083333334</v>
+        <v>45968.52083333334</v>
       </c>
       <c r="B52">
-        <v>5539</v>
+        <v>7078</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1699,10 +1699,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45953.53125</v>
+        <v>45968.53125</v>
       </c>
       <c r="B53">
-        <v>5499</v>
+        <v>7198</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45953.54166666666</v>
+        <v>45968.54166666666</v>
       </c>
       <c r="B54">
-        <v>5484</v>
+        <v>7239</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45953.55208333334</v>
+        <v>45968.55208333334</v>
       </c>
       <c r="B55">
-        <v>5446</v>
+        <v>7256</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45953.5625</v>
+        <v>45968.5625</v>
       </c>
       <c r="B56">
-        <v>5442</v>
+        <v>7267</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -1755,10 +1755,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45953.57291666666</v>
+        <v>45968.57291666666</v>
       </c>
       <c r="B57">
-        <v>5488</v>
+        <v>7267</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45953.58333333334</v>
+        <v>45968.58333333334</v>
       </c>
       <c r="B58">
-        <v>5508</v>
+        <v>7314</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45953.59375</v>
+        <v>45968.59375</v>
       </c>
       <c r="B59">
-        <v>5572</v>
+        <v>7361</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45953.60416666666</v>
+        <v>45968.60416666666</v>
       </c>
       <c r="B60">
-        <v>5621</v>
+        <v>7477</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -1811,10 +1811,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45953.61458333334</v>
+        <v>45968.61458333334</v>
       </c>
       <c r="B61">
-        <v>5732</v>
+        <v>7562</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45953.625</v>
+        <v>45968.625</v>
       </c>
       <c r="B62">
-        <v>5872</v>
+        <v>7527</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45953.63541666666</v>
+        <v>45968.63541666666</v>
       </c>
       <c r="B63">
-        <v>5986</v>
+        <v>7524</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -1853,10 +1853,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45953.64583333334</v>
+        <v>45968.64583333334</v>
       </c>
       <c r="B64">
-        <v>6130</v>
+        <v>7626</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45953.65625</v>
+        <v>45968.65625</v>
       </c>
       <c r="B65">
-        <v>6266</v>
+        <v>7697</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45953.66666666666</v>
+        <v>45968.66666666666</v>
       </c>
       <c r="B66">
-        <v>6346</v>
+        <v>7818</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45953.67708333334</v>
+        <v>45968.67708333334</v>
       </c>
       <c r="B67">
-        <v>6530</v>
+        <v>7991</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45953.6875</v>
+        <v>45968.6875</v>
       </c>
       <c r="B68">
-        <v>6641</v>
+        <v>8060</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45953.69791666666</v>
+        <v>45968.69791666666</v>
       </c>
       <c r="B69">
-        <v>6765</v>
+        <v>8112</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45953.70833333334</v>
+        <v>45968.70833333334</v>
       </c>
       <c r="B70">
-        <v>6930</v>
+        <v>8013</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45953.71875</v>
+        <v>45968.71875</v>
       </c>
       <c r="B71">
-        <v>7058</v>
+        <v>8046</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45953.72916666666</v>
+        <v>45968.72916666666</v>
       </c>
       <c r="B72">
-        <v>7250</v>
+        <v>8000</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45953.73958333334</v>
+        <v>45968.73958333334</v>
       </c>
       <c r="B73">
-        <v>7394</v>
+        <v>7933</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45953.75</v>
+        <v>45968.75</v>
       </c>
       <c r="B74">
-        <v>7428</v>
+        <v>7895</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -2007,10 +2007,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45953.76041666666</v>
+        <v>45968.76041666666</v>
       </c>
       <c r="B75">
-        <v>7490</v>
+        <v>7868</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45953.77083333334</v>
+        <v>45968.77083333334</v>
       </c>
       <c r="B76">
-        <v>7561</v>
+        <v>7885</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45953.78125</v>
+        <v>45968.78125</v>
       </c>
       <c r="B77">
-        <v>7535</v>
+        <v>7908</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -2049,10 +2049,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45953.79166666666</v>
+        <v>45968.79166666666</v>
       </c>
       <c r="B78">
-        <v>7464</v>
+        <v>7755</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45953.80208333334</v>
+        <v>45968.80208333334</v>
       </c>
       <c r="B79">
-        <v>7433</v>
+        <v>7700</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45953.8125</v>
+        <v>45968.8125</v>
       </c>
       <c r="B80">
-        <v>7382</v>
+        <v>7596</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45953.82291666666</v>
+        <v>45968.82291666666</v>
       </c>
       <c r="B81">
-        <v>7324</v>
+        <v>7507</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -2105,10 +2105,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45953.83333333334</v>
+        <v>45968.83333333334</v>
       </c>
       <c r="B82">
-        <v>7166</v>
+        <v>7377</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45953.84375</v>
+        <v>45968.84375</v>
       </c>
       <c r="B83">
-        <v>7108</v>
+        <v>7287</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -2133,10 +2133,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45953.85416666666</v>
+        <v>45968.85416666666</v>
       </c>
       <c r="B84">
-        <v>6965</v>
+        <v>7140</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45953.86458333334</v>
+        <v>45968.86458333334</v>
       </c>
       <c r="B85">
-        <v>6816</v>
+        <v>7026</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -2161,10 +2161,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45953.875</v>
+        <v>45968.875</v>
       </c>
       <c r="B86">
-        <v>6675</v>
+        <v>6837</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45953.88541666666</v>
+        <v>45968.88541666666</v>
       </c>
       <c r="B87">
-        <v>6505</v>
+        <v>6726</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -2189,10 +2189,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45953.89583333334</v>
+        <v>45968.89583333334</v>
       </c>
       <c r="B88">
-        <v>6304</v>
+        <v>6563</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45953.90625</v>
+        <v>45968.90625</v>
       </c>
       <c r="B89">
-        <v>6194</v>
+        <v>6466</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45953.91666666666</v>
+        <v>45968.91666666666</v>
       </c>
       <c r="B90">
-        <v>6035</v>
+        <v>6329</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45953.92708333334</v>
+        <v>45968.92708333334</v>
       </c>
       <c r="B91">
-        <v>5911</v>
+        <v>6224</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45953.9375</v>
+        <v>45968.9375</v>
       </c>
       <c r="B92">
-        <v>5819</v>
+        <v>6105</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45953.94791666666</v>
+        <v>45968.94791666666</v>
       </c>
       <c r="B93">
-        <v>5728</v>
+        <v>6077</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -2273,10 +2273,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45953.95833333334</v>
+        <v>45968.95833333334</v>
       </c>
       <c r="B94">
-        <v>5700</v>
+        <v>5920</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45953.96875</v>
+        <v>45968.96875</v>
       </c>
       <c r="B95">
-        <v>5635</v>
+        <v>5835</v>
       </c>
       <c r="C95">
         <v>94</v>
@@ -2301,10 +2301,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45953.97916666666</v>
+        <v>45968.97916666666</v>
       </c>
       <c r="B96">
-        <v>5585</v>
+        <v>5744</v>
       </c>
       <c r="C96">
         <v>95</v>
@@ -2315,10 +2315,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>45953.98958333334</v>
+        <v>45968.98958333334</v>
       </c>
       <c r="B97">
-        <v>5553</v>
+        <v>5666</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>45954</v>
+        <v>45969</v>
       </c>
       <c r="B98">
-        <v>5450</v>
+        <v>5600</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>45954.01041666666</v>
+        <v>45969.01041666666</v>
       </c>
       <c r="B99">
-        <v>5367</v>
+        <v>5569</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>45954.02083333334</v>
+        <v>45969.02083333334</v>
       </c>
       <c r="B100">
-        <v>5340</v>
+        <v>5557</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2371,10 +2371,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>45954.03125</v>
+        <v>45969.03125</v>
       </c>
       <c r="B101">
-        <v>5343</v>
+        <v>5475</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>45954.04166666666</v>
+        <v>45969.04166666666</v>
       </c>
       <c r="B102">
-        <v>5286</v>
+        <v>5469</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>45954.05208333334</v>
+        <v>45969.05208333334</v>
       </c>
       <c r="B103">
-        <v>5269</v>
+        <v>5449</v>
       </c>
       <c r="C103">
         <v>6</v>
@@ -2413,10 +2413,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>45954.0625</v>
+        <v>45969.0625</v>
       </c>
       <c r="B104">
-        <v>5280</v>
+        <v>5412</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -2427,10 +2427,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>45954.07291666666</v>
+        <v>45969.07291666666</v>
       </c>
       <c r="B105">
-        <v>5232</v>
+        <v>5365</v>
       </c>
       <c r="C105">
         <v>8</v>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>45954.08333333334</v>
+        <v>45969.08333333334</v>
       </c>
       <c r="B106">
-        <v>5194</v>
+        <v>5403</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -2455,10 +2455,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>45954.09375</v>
+        <v>45969.09375</v>
       </c>
       <c r="B107">
-        <v>5214</v>
+        <v>5364</v>
       </c>
       <c r="C107">
         <v>10</v>
@@ -2469,10 +2469,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>45954.10416666666</v>
+        <v>45969.10416666666</v>
       </c>
       <c r="B108">
-        <v>5249</v>
+        <v>5399</v>
       </c>
       <c r="C108">
         <v>11</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>45954.11458333334</v>
+        <v>45969.11458333334</v>
       </c>
       <c r="B109">
-        <v>5290</v>
+        <v>5391</v>
       </c>
       <c r="C109">
         <v>12</v>
@@ -2497,10 +2497,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>45954.125</v>
+        <v>45969.125</v>
       </c>
       <c r="B110">
-        <v>5263</v>
+        <v>5423</v>
       </c>
       <c r="C110">
         <v>13</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>45954.13541666666</v>
+        <v>45969.13541666666</v>
       </c>
       <c r="B111">
-        <v>5224</v>
+        <v>5402</v>
       </c>
       <c r="C111">
         <v>14</v>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>45954.14583333334</v>
+        <v>45969.14583333334</v>
       </c>
       <c r="B112">
-        <v>5328</v>
+        <v>5421</v>
       </c>
       <c r="C112">
         <v>15</v>
@@ -2539,10 +2539,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>45954.15625</v>
+        <v>45969.15625</v>
       </c>
       <c r="B113">
-        <v>5357</v>
+        <v>5401</v>
       </c>
       <c r="C113">
         <v>16</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>45954.16666666666</v>
+        <v>45969.16666666666</v>
       </c>
       <c r="B114">
-        <v>5418</v>
+        <v>5457</v>
       </c>
       <c r="C114">
         <v>17</v>
@@ -2567,10 +2567,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>45954.17708333334</v>
+        <v>45969.17708333334</v>
       </c>
       <c r="B115">
-        <v>5499</v>
+        <v>5475</v>
       </c>
       <c r="C115">
         <v>18</v>
@@ -2581,10 +2581,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>45954.1875</v>
+        <v>45969.1875</v>
       </c>
       <c r="B116">
-        <v>5526</v>
+        <v>5481</v>
       </c>
       <c r="C116">
         <v>19</v>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>45954.19791666666</v>
+        <v>45969.19791666666</v>
       </c>
       <c r="B117">
-        <v>5631</v>
+        <v>5526</v>
       </c>
       <c r="C117">
         <v>20</v>
@@ -2609,10 +2609,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>45954.20833333334</v>
+        <v>45969.20833333334</v>
       </c>
       <c r="B118">
-        <v>5783</v>
+        <v>5485</v>
       </c>
       <c r="C118">
         <v>21</v>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>45954.21875</v>
+        <v>45969.21875</v>
       </c>
       <c r="B119">
-        <v>5957</v>
+        <v>5534</v>
       </c>
       <c r="C119">
         <v>22</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>45954.22916666666</v>
+        <v>45969.22916666666</v>
       </c>
       <c r="B120">
-        <v>6136</v>
+        <v>5588</v>
       </c>
       <c r="C120">
         <v>23</v>
@@ -2651,10 +2651,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>45954.23958333334</v>
+        <v>45969.23958333334</v>
       </c>
       <c r="B121">
-        <v>6263</v>
+        <v>5636</v>
       </c>
       <c r="C121">
         <v>24</v>
@@ -2665,10 +2665,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>45954.25</v>
+        <v>45969.25</v>
       </c>
       <c r="B122">
-        <v>6576</v>
+        <v>5744</v>
       </c>
       <c r="C122">
         <v>25</v>
@@ -2679,10 +2679,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>45954.26041666666</v>
+        <v>45969.26041666666</v>
       </c>
       <c r="B123">
-        <v>6709</v>
+        <v>5821</v>
       </c>
       <c r="C123">
         <v>26</v>
@@ -2693,10 +2693,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>45954.27083333334</v>
+        <v>45969.27083333334</v>
       </c>
       <c r="B124">
-        <v>6816</v>
+        <v>5843</v>
       </c>
       <c r="C124">
         <v>27</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>45954.28125</v>
+        <v>45969.28125</v>
       </c>
       <c r="B125">
-        <v>6902</v>
+        <v>5915</v>
       </c>
       <c r="C125">
         <v>28</v>
@@ -2721,10 +2721,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>45954.29166666666</v>
+        <v>45969.29166666666</v>
       </c>
       <c r="B126">
-        <v>7084</v>
+        <v>5985</v>
       </c>
       <c r="C126">
         <v>29</v>
@@ -2735,10 +2735,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>45954.30208333334</v>
+        <v>45969.30208333334</v>
       </c>
       <c r="B127">
-        <v>7162</v>
+        <v>0</v>
       </c>
       <c r="C127">
         <v>30</v>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>45954.3125</v>
+        <v>45969.3125</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -2763,7 +2763,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>45954.32291666666</v>
+        <v>45969.32291666666</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>45954.33333333334</v>
+        <v>45969.33333333334</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>45954.34375</v>
+        <v>45969.34375</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -2805,7 +2805,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>45954.35416666666</v>
+        <v>45969.35416666666</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -2819,7 +2819,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>45954.36458333334</v>
+        <v>45969.36458333334</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>45954.375</v>
+        <v>45969.375</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>45954.38541666666</v>
+        <v>45969.38541666666</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>45954.39583333334</v>
+        <v>45969.39583333334</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>45954.40625</v>
+        <v>45969.40625</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>45954.41666666666</v>
+        <v>45969.41666666666</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>45954.42708333334</v>
+        <v>45969.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>45954.4375</v>
+        <v>45969.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>45954.44791666666</v>
+        <v>45969.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>45954.45833333334</v>
+        <v>45969.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>45954.46875</v>
+        <v>45969.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>45954.47916666666</v>
+        <v>45969.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>45954.48958333334</v>
+        <v>45969.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>45954.5</v>
+        <v>45969.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>45954.51041666666</v>
+        <v>45969.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>45954.52083333334</v>
+        <v>45969.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>45954.53125</v>
+        <v>45969.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>45954.54166666666</v>
+        <v>45969.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>45954.55208333334</v>
+        <v>45969.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>45954.5625</v>
+        <v>45969.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>45954.57291666666</v>
+        <v>45969.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>45954.58333333334</v>
+        <v>45969.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>45954.59375</v>
+        <v>45969.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>45954.60416666666</v>
+        <v>45969.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>45954.61458333334</v>
+        <v>45969.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>45954.625</v>
+        <v>45969.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>45954.63541666666</v>
+        <v>45969.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>45954.64583333334</v>
+        <v>45969.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>45954.65625</v>
+        <v>45969.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>45954.66666666666</v>
+        <v>45969.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>45954.67708333334</v>
+        <v>45969.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>45954.6875</v>
+        <v>45969.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>45954.69791666666</v>
+        <v>45969.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>45954.70833333334</v>
+        <v>45969.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>45954.71875</v>
+        <v>45969.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>45954.72916666666</v>
+        <v>45969.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>45954.73958333334</v>
+        <v>45969.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>45954.75</v>
+        <v>45969.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>45954.76041666666</v>
+        <v>45969.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>45954.77083333334</v>
+        <v>45969.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>45954.78125</v>
+        <v>45969.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>45954.79166666666</v>
+        <v>45969.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>45954.80208333334</v>
+        <v>45969.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>45954.8125</v>
+        <v>45969.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>45954.82291666666</v>
+        <v>45969.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>45954.83333333334</v>
+        <v>45969.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>45954.84375</v>
+        <v>45969.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>45954.85416666666</v>
+        <v>45969.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>45954.86458333334</v>
+        <v>45969.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>45954.875</v>
+        <v>45969.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>45954.88541666666</v>
+        <v>45969.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>45954.89583333334</v>
+        <v>45969.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>45954.90625</v>
+        <v>45969.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>45954.91666666666</v>
+        <v>45969.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>45954.92708333334</v>
+        <v>45969.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>45954.9375</v>
+        <v>45969.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>45954.94791666666</v>
+        <v>45969.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>45954.95833333334</v>
+        <v>45969.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>45954.96875</v>
+        <v>45969.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>45954.97916666666</v>
+        <v>45969.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>45954.98958333334</v>
+        <v>45969.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
@@ -28,294 +28,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>07.11.20251</t>
-  </si>
-  <si>
-    <t>07.11.20252</t>
-  </si>
-  <si>
-    <t>07.11.20253</t>
-  </si>
-  <si>
-    <t>07.11.20254</t>
-  </si>
-  <si>
-    <t>07.11.20255</t>
-  </si>
-  <si>
-    <t>07.11.20256</t>
-  </si>
-  <si>
-    <t>07.11.20257</t>
-  </si>
-  <si>
-    <t>07.11.20258</t>
-  </si>
-  <si>
-    <t>07.11.20259</t>
-  </si>
-  <si>
-    <t>07.11.202510</t>
-  </si>
-  <si>
-    <t>07.11.202511</t>
-  </si>
-  <si>
-    <t>07.11.202512</t>
-  </si>
-  <si>
-    <t>07.11.202513</t>
-  </si>
-  <si>
-    <t>07.11.202514</t>
-  </si>
-  <si>
-    <t>07.11.202515</t>
-  </si>
-  <si>
-    <t>07.11.202516</t>
-  </si>
-  <si>
-    <t>07.11.202517</t>
-  </si>
-  <si>
-    <t>07.11.202518</t>
-  </si>
-  <si>
-    <t>07.11.202519</t>
-  </si>
-  <si>
-    <t>07.11.202520</t>
-  </si>
-  <si>
-    <t>07.11.202521</t>
-  </si>
-  <si>
-    <t>07.11.202522</t>
-  </si>
-  <si>
-    <t>07.11.202523</t>
-  </si>
-  <si>
-    <t>07.11.202524</t>
-  </si>
-  <si>
-    <t>07.11.202525</t>
-  </si>
-  <si>
-    <t>07.11.202526</t>
-  </si>
-  <si>
-    <t>07.11.202527</t>
-  </si>
-  <si>
-    <t>07.11.202528</t>
-  </si>
-  <si>
-    <t>07.11.202529</t>
-  </si>
-  <si>
-    <t>07.11.202530</t>
-  </si>
-  <si>
-    <t>07.11.202531</t>
-  </si>
-  <si>
-    <t>07.11.202532</t>
-  </si>
-  <si>
-    <t>07.11.202533</t>
-  </si>
-  <si>
-    <t>07.11.202534</t>
-  </si>
-  <si>
-    <t>07.11.202535</t>
-  </si>
-  <si>
-    <t>07.11.202536</t>
-  </si>
-  <si>
-    <t>07.11.202537</t>
-  </si>
-  <si>
-    <t>07.11.202538</t>
-  </si>
-  <si>
-    <t>07.11.202539</t>
-  </si>
-  <si>
-    <t>07.11.202540</t>
-  </si>
-  <si>
-    <t>07.11.202541</t>
-  </si>
-  <si>
-    <t>07.11.202542</t>
-  </si>
-  <si>
-    <t>07.11.202543</t>
-  </si>
-  <si>
-    <t>07.11.202544</t>
-  </si>
-  <si>
-    <t>07.11.202545</t>
-  </si>
-  <si>
-    <t>07.11.202546</t>
-  </si>
-  <si>
-    <t>07.11.202547</t>
-  </si>
-  <si>
-    <t>07.11.202548</t>
-  </si>
-  <si>
-    <t>07.11.202549</t>
-  </si>
-  <si>
-    <t>07.11.202550</t>
-  </si>
-  <si>
-    <t>07.11.202551</t>
-  </si>
-  <si>
-    <t>07.11.202552</t>
-  </si>
-  <si>
-    <t>07.11.202553</t>
-  </si>
-  <si>
-    <t>07.11.202554</t>
-  </si>
-  <si>
-    <t>07.11.202555</t>
-  </si>
-  <si>
-    <t>07.11.202556</t>
-  </si>
-  <si>
-    <t>07.11.202557</t>
-  </si>
-  <si>
-    <t>07.11.202558</t>
-  </si>
-  <si>
-    <t>07.11.202559</t>
-  </si>
-  <si>
-    <t>07.11.202560</t>
-  </si>
-  <si>
-    <t>07.11.202561</t>
-  </si>
-  <si>
-    <t>07.11.202562</t>
-  </si>
-  <si>
-    <t>07.11.202563</t>
-  </si>
-  <si>
-    <t>07.11.202564</t>
-  </si>
-  <si>
-    <t>07.11.202565</t>
-  </si>
-  <si>
-    <t>07.11.202566</t>
-  </si>
-  <si>
-    <t>07.11.202567</t>
-  </si>
-  <si>
-    <t>07.11.202568</t>
-  </si>
-  <si>
-    <t>07.11.202569</t>
-  </si>
-  <si>
-    <t>07.11.202570</t>
-  </si>
-  <si>
-    <t>07.11.202571</t>
-  </si>
-  <si>
-    <t>07.11.202572</t>
-  </si>
-  <si>
-    <t>07.11.202573</t>
-  </si>
-  <si>
-    <t>07.11.202574</t>
-  </si>
-  <si>
-    <t>07.11.202575</t>
-  </si>
-  <si>
-    <t>07.11.202576</t>
-  </si>
-  <si>
-    <t>07.11.202577</t>
-  </si>
-  <si>
-    <t>07.11.202578</t>
-  </si>
-  <si>
-    <t>07.11.202579</t>
-  </si>
-  <si>
-    <t>07.11.202580</t>
-  </si>
-  <si>
-    <t>07.11.202581</t>
-  </si>
-  <si>
-    <t>07.11.202582</t>
-  </si>
-  <si>
-    <t>07.11.202583</t>
-  </si>
-  <si>
-    <t>07.11.202584</t>
-  </si>
-  <si>
-    <t>07.11.202585</t>
-  </si>
-  <si>
-    <t>07.11.202586</t>
-  </si>
-  <si>
-    <t>07.11.202587</t>
-  </si>
-  <si>
-    <t>07.11.202588</t>
-  </si>
-  <si>
-    <t>07.11.202589</t>
-  </si>
-  <si>
-    <t>07.11.202590</t>
-  </si>
-  <si>
-    <t>07.11.202591</t>
-  </si>
-  <si>
-    <t>07.11.202592</t>
-  </si>
-  <si>
-    <t>07.11.202593</t>
-  </si>
-  <si>
-    <t>07.11.202594</t>
-  </si>
-  <si>
-    <t>07.11.202595</t>
-  </si>
-  <si>
-    <t>07.11.202596</t>
-  </si>
-  <si>
     <t>08.11.20251</t>
   </si>
   <si>
@@ -602,6 +314,294 @@
   </si>
   <si>
     <t>08.11.202596</t>
+  </si>
+  <si>
+    <t>09.11.20251</t>
+  </si>
+  <si>
+    <t>09.11.20252</t>
+  </si>
+  <si>
+    <t>09.11.20253</t>
+  </si>
+  <si>
+    <t>09.11.20254</t>
+  </si>
+  <si>
+    <t>09.11.20255</t>
+  </si>
+  <si>
+    <t>09.11.20256</t>
+  </si>
+  <si>
+    <t>09.11.20257</t>
+  </si>
+  <si>
+    <t>09.11.20258</t>
+  </si>
+  <si>
+    <t>09.11.20259</t>
+  </si>
+  <si>
+    <t>09.11.202510</t>
+  </si>
+  <si>
+    <t>09.11.202511</t>
+  </si>
+  <si>
+    <t>09.11.202512</t>
+  </si>
+  <si>
+    <t>09.11.202513</t>
+  </si>
+  <si>
+    <t>09.11.202514</t>
+  </si>
+  <si>
+    <t>09.11.202515</t>
+  </si>
+  <si>
+    <t>09.11.202516</t>
+  </si>
+  <si>
+    <t>09.11.202517</t>
+  </si>
+  <si>
+    <t>09.11.202518</t>
+  </si>
+  <si>
+    <t>09.11.202519</t>
+  </si>
+  <si>
+    <t>09.11.202520</t>
+  </si>
+  <si>
+    <t>09.11.202521</t>
+  </si>
+  <si>
+    <t>09.11.202522</t>
+  </si>
+  <si>
+    <t>09.11.202523</t>
+  </si>
+  <si>
+    <t>09.11.202524</t>
+  </si>
+  <si>
+    <t>09.11.202525</t>
+  </si>
+  <si>
+    <t>09.11.202526</t>
+  </si>
+  <si>
+    <t>09.11.202527</t>
+  </si>
+  <si>
+    <t>09.11.202528</t>
+  </si>
+  <si>
+    <t>09.11.202529</t>
+  </si>
+  <si>
+    <t>09.11.202530</t>
+  </si>
+  <si>
+    <t>09.11.202531</t>
+  </si>
+  <si>
+    <t>09.11.202532</t>
+  </si>
+  <si>
+    <t>09.11.202533</t>
+  </si>
+  <si>
+    <t>09.11.202534</t>
+  </si>
+  <si>
+    <t>09.11.202535</t>
+  </si>
+  <si>
+    <t>09.11.202536</t>
+  </si>
+  <si>
+    <t>09.11.202537</t>
+  </si>
+  <si>
+    <t>09.11.202538</t>
+  </si>
+  <si>
+    <t>09.11.202539</t>
+  </si>
+  <si>
+    <t>09.11.202540</t>
+  </si>
+  <si>
+    <t>09.11.202541</t>
+  </si>
+  <si>
+    <t>09.11.202542</t>
+  </si>
+  <si>
+    <t>09.11.202543</t>
+  </si>
+  <si>
+    <t>09.11.202544</t>
+  </si>
+  <si>
+    <t>09.11.202545</t>
+  </si>
+  <si>
+    <t>09.11.202546</t>
+  </si>
+  <si>
+    <t>09.11.202547</t>
+  </si>
+  <si>
+    <t>09.11.202548</t>
+  </si>
+  <si>
+    <t>09.11.202549</t>
+  </si>
+  <si>
+    <t>09.11.202550</t>
+  </si>
+  <si>
+    <t>09.11.202551</t>
+  </si>
+  <si>
+    <t>09.11.202552</t>
+  </si>
+  <si>
+    <t>09.11.202553</t>
+  </si>
+  <si>
+    <t>09.11.202554</t>
+  </si>
+  <si>
+    <t>09.11.202555</t>
+  </si>
+  <si>
+    <t>09.11.202556</t>
+  </si>
+  <si>
+    <t>09.11.202557</t>
+  </si>
+  <si>
+    <t>09.11.202558</t>
+  </si>
+  <si>
+    <t>09.11.202559</t>
+  </si>
+  <si>
+    <t>09.11.202560</t>
+  </si>
+  <si>
+    <t>09.11.202561</t>
+  </si>
+  <si>
+    <t>09.11.202562</t>
+  </si>
+  <si>
+    <t>09.11.202563</t>
+  </si>
+  <si>
+    <t>09.11.202564</t>
+  </si>
+  <si>
+    <t>09.11.202565</t>
+  </si>
+  <si>
+    <t>09.11.202566</t>
+  </si>
+  <si>
+    <t>09.11.202567</t>
+  </si>
+  <si>
+    <t>09.11.202568</t>
+  </si>
+  <si>
+    <t>09.11.202569</t>
+  </si>
+  <si>
+    <t>09.11.202570</t>
+  </si>
+  <si>
+    <t>09.11.202571</t>
+  </si>
+  <si>
+    <t>09.11.202572</t>
+  </si>
+  <si>
+    <t>09.11.202573</t>
+  </si>
+  <si>
+    <t>09.11.202574</t>
+  </si>
+  <si>
+    <t>09.11.202575</t>
+  </si>
+  <si>
+    <t>09.11.202576</t>
+  </si>
+  <si>
+    <t>09.11.202577</t>
+  </si>
+  <si>
+    <t>09.11.202578</t>
+  </si>
+  <si>
+    <t>09.11.202579</t>
+  </si>
+  <si>
+    <t>09.11.202580</t>
+  </si>
+  <si>
+    <t>09.11.202581</t>
+  </si>
+  <si>
+    <t>09.11.202582</t>
+  </si>
+  <si>
+    <t>09.11.202583</t>
+  </si>
+  <si>
+    <t>09.11.202584</t>
+  </si>
+  <si>
+    <t>09.11.202585</t>
+  </si>
+  <si>
+    <t>09.11.202586</t>
+  </si>
+  <si>
+    <t>09.11.202587</t>
+  </si>
+  <si>
+    <t>09.11.202588</t>
+  </si>
+  <si>
+    <t>09.11.202589</t>
+  </si>
+  <si>
+    <t>09.11.202590</t>
+  </si>
+  <si>
+    <t>09.11.202591</t>
+  </si>
+  <si>
+    <t>09.11.202592</t>
+  </si>
+  <si>
+    <t>09.11.202593</t>
+  </si>
+  <si>
+    <t>09.11.202594</t>
+  </si>
+  <si>
+    <t>09.11.202595</t>
+  </si>
+  <si>
+    <t>09.11.202596</t>
   </si>
 </sst>
 </file>
@@ -985,10 +985,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45968</v>
+        <v>45969</v>
       </c>
       <c r="B2">
-        <v>5505</v>
+        <v>5600</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -999,10 +999,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45968.01041666666</v>
+        <v>45969.01041666666</v>
       </c>
       <c r="B3">
-        <v>5509</v>
+        <v>5569</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45968.02083333334</v>
+        <v>45969.02083333334</v>
       </c>
       <c r="B4">
-        <v>5516</v>
+        <v>5557</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45968.03125</v>
+        <v>45969.03125</v>
       </c>
       <c r="B5">
-        <v>5520</v>
+        <v>5475</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45968.04166666666</v>
+        <v>45969.04166666666</v>
       </c>
       <c r="B6">
-        <v>5416</v>
+        <v>5469</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45968.05208333334</v>
+        <v>45969.05208333334</v>
       </c>
       <c r="B7">
-        <v>5435</v>
+        <v>5449</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45968.0625</v>
+        <v>45969.0625</v>
       </c>
       <c r="B8">
-        <v>5420</v>
+        <v>5412</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45968.07291666666</v>
+        <v>45969.07291666666</v>
       </c>
       <c r="B9">
-        <v>5490</v>
+        <v>5365</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45968.08333333334</v>
+        <v>45969.08333333334</v>
       </c>
       <c r="B10">
-        <v>5387</v>
+        <v>5403</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1111,10 +1111,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45968.09375</v>
+        <v>45969.09375</v>
       </c>
       <c r="B11">
-        <v>5366</v>
+        <v>5364</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45968.10416666666</v>
+        <v>45969.10416666666</v>
       </c>
       <c r="B12">
-        <v>5406</v>
+        <v>5399</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1139,10 +1139,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45968.11458333334</v>
+        <v>45969.11458333334</v>
       </c>
       <c r="B13">
-        <v>5451</v>
+        <v>5391</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45968.125</v>
+        <v>45969.125</v>
       </c>
       <c r="B14">
-        <v>5455</v>
+        <v>5423</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45968.13541666666</v>
+        <v>45969.13541666666</v>
       </c>
       <c r="B15">
-        <v>5395</v>
+        <v>5402</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1181,10 +1181,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45968.14583333334</v>
+        <v>45969.14583333334</v>
       </c>
       <c r="B16">
-        <v>5476</v>
+        <v>5421</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45968.15625</v>
+        <v>45969.15625</v>
       </c>
       <c r="B17">
-        <v>5500</v>
+        <v>5401</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1209,10 +1209,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45968.16666666666</v>
+        <v>45969.16666666666</v>
       </c>
       <c r="B18">
-        <v>5670</v>
+        <v>5457</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1223,10 +1223,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45968.17708333334</v>
+        <v>45969.17708333334</v>
       </c>
       <c r="B19">
-        <v>5713</v>
+        <v>5475</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1237,10 +1237,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45968.1875</v>
+        <v>45969.1875</v>
       </c>
       <c r="B20">
-        <v>5853</v>
+        <v>5481</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45968.19791666666</v>
+        <v>45969.19791666666</v>
       </c>
       <c r="B21">
-        <v>5953</v>
+        <v>5526</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45968.20833333334</v>
+        <v>45969.20833333334</v>
       </c>
       <c r="B22">
-        <v>6183</v>
+        <v>5485</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45968.21875</v>
+        <v>45969.21875</v>
       </c>
       <c r="B23">
-        <v>6304</v>
+        <v>5534</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1293,10 +1293,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45968.22916666666</v>
+        <v>45969.22916666666</v>
       </c>
       <c r="B24">
-        <v>6473</v>
+        <v>5588</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45968.23958333334</v>
+        <v>45969.23958333334</v>
       </c>
       <c r="B25">
-        <v>6648</v>
+        <v>5636</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45968.25</v>
+        <v>45969.25</v>
       </c>
       <c r="B26">
-        <v>6787</v>
+        <v>5744</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45968.26041666666</v>
+        <v>45969.26041666666</v>
       </c>
       <c r="B27">
-        <v>6938</v>
+        <v>5821</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45968.27083333334</v>
+        <v>45969.27083333334</v>
       </c>
       <c r="B28">
-        <v>7135</v>
+        <v>5843</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45968.28125</v>
+        <v>45969.28125</v>
       </c>
       <c r="B29">
-        <v>7196</v>
+        <v>5915</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45968.29166666666</v>
+        <v>45969.29166666666</v>
       </c>
       <c r="B30">
-        <v>7288</v>
+        <v>5985</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1391,10 +1391,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45968.30208333334</v>
+        <v>45969.30208333334</v>
       </c>
       <c r="B31">
-        <v>7300</v>
+        <v>6024</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45968.3125</v>
+        <v>45969.3125</v>
       </c>
       <c r="B32">
-        <v>7316</v>
+        <v>6101</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1419,10 +1419,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45968.32291666666</v>
+        <v>45969.32291666666</v>
       </c>
       <c r="B33">
-        <v>7375</v>
+        <v>6070</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1433,10 +1433,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45968.33333333334</v>
+        <v>45969.33333333334</v>
       </c>
       <c r="B34">
-        <v>7350</v>
+        <v>6135</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1447,10 +1447,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45968.34375</v>
+        <v>45969.34375</v>
       </c>
       <c r="B35">
-        <v>7364</v>
+        <v>6216</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45968.35416666666</v>
+        <v>45969.35416666666</v>
       </c>
       <c r="B36">
-        <v>7311</v>
+        <v>6162</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45968.36458333334</v>
+        <v>45969.36458333334</v>
       </c>
       <c r="B37">
-        <v>7302</v>
+        <v>6193</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1489,10 +1489,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45968.375</v>
+        <v>45969.375</v>
       </c>
       <c r="B38">
-        <v>7251</v>
+        <v>6169</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45968.38541666666</v>
+        <v>45969.38541666666</v>
       </c>
       <c r="B39">
-        <v>7226</v>
+        <v>6216</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45968.39583333334</v>
+        <v>45969.39583333334</v>
       </c>
       <c r="B40">
-        <v>7153</v>
+        <v>6234</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45968.40625</v>
+        <v>45969.40625</v>
       </c>
       <c r="B41">
-        <v>7101</v>
+        <v>6306</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45968.41666666666</v>
+        <v>45969.41666666666</v>
       </c>
       <c r="B42">
-        <v>6815</v>
+        <v>6141</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45968.42708333334</v>
+        <v>45969.42708333334</v>
       </c>
       <c r="B43">
-        <v>6915</v>
+        <v>6195</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45968.4375</v>
+        <v>45969.4375</v>
       </c>
       <c r="B44">
-        <v>6911</v>
+        <v>6223</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45968.44791666666</v>
+        <v>45969.44791666666</v>
       </c>
       <c r="B45">
-        <v>6893</v>
+        <v>6282</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45968.45833333334</v>
+        <v>45969.45833333334</v>
       </c>
       <c r="B46">
-        <v>6804</v>
+        <v>6210</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45968.46875</v>
+        <v>45969.46875</v>
       </c>
       <c r="B47">
-        <v>6842</v>
+        <v>6222</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45968.47916666666</v>
+        <v>45969.47916666666</v>
       </c>
       <c r="B48">
-        <v>6866</v>
+        <v>6267</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1643,10 +1643,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45968.48958333334</v>
+        <v>45969.48958333334</v>
       </c>
       <c r="B49">
-        <v>6881</v>
+        <v>6266</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45968.5</v>
+        <v>45969.5</v>
       </c>
       <c r="B50">
-        <v>6916</v>
+        <v>6253</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1671,10 +1671,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45968.51041666666</v>
+        <v>45969.51041666666</v>
       </c>
       <c r="B51">
-        <v>7050</v>
+        <v>6218</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45968.52083333334</v>
+        <v>45969.52083333334</v>
       </c>
       <c r="B52">
-        <v>7078</v>
+        <v>6257</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1699,10 +1699,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45968.53125</v>
+        <v>45969.53125</v>
       </c>
       <c r="B53">
-        <v>7198</v>
+        <v>6248</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45968.54166666666</v>
+        <v>45969.54166666666</v>
       </c>
       <c r="B54">
-        <v>7239</v>
+        <v>6286</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45968.55208333334</v>
+        <v>45969.55208333334</v>
       </c>
       <c r="B55">
-        <v>7256</v>
+        <v>6255</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45968.5625</v>
+        <v>45969.5625</v>
       </c>
       <c r="B56">
-        <v>7267</v>
+        <v>6282</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -1755,10 +1755,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45968.57291666666</v>
+        <v>45969.57291666666</v>
       </c>
       <c r="B57">
-        <v>7267</v>
+        <v>6283</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45968.58333333334</v>
+        <v>45969.58333333334</v>
       </c>
       <c r="B58">
-        <v>7314</v>
+        <v>6309</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45968.59375</v>
+        <v>45969.59375</v>
       </c>
       <c r="B59">
-        <v>7361</v>
+        <v>6305</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45968.60416666666</v>
+        <v>45969.60416666666</v>
       </c>
       <c r="B60">
-        <v>7477</v>
+        <v>6380</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -1811,10 +1811,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45968.61458333334</v>
+        <v>45969.61458333334</v>
       </c>
       <c r="B61">
-        <v>7562</v>
+        <v>6418</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45968.625</v>
+        <v>45969.625</v>
       </c>
       <c r="B62">
-        <v>7527</v>
+        <v>6511</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45968.63541666666</v>
+        <v>45969.63541666666</v>
       </c>
       <c r="B63">
-        <v>7524</v>
+        <v>6533</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -1853,10 +1853,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45968.64583333334</v>
+        <v>45969.64583333334</v>
       </c>
       <c r="B64">
-        <v>7626</v>
+        <v>6611</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45968.65625</v>
+        <v>45969.65625</v>
       </c>
       <c r="B65">
-        <v>7697</v>
+        <v>6703</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45968.66666666666</v>
+        <v>45969.66666666666</v>
       </c>
       <c r="B66">
-        <v>7818</v>
+        <v>6806</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45968.67708333334</v>
+        <v>45969.67708333334</v>
       </c>
       <c r="B67">
-        <v>7991</v>
+        <v>6874</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45968.6875</v>
+        <v>45969.6875</v>
       </c>
       <c r="B68">
-        <v>8060</v>
+        <v>6954</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45968.69791666666</v>
+        <v>45969.69791666666</v>
       </c>
       <c r="B69">
-        <v>8112</v>
+        <v>7006</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45968.70833333334</v>
+        <v>45969.70833333334</v>
       </c>
       <c r="B70">
-        <v>8013</v>
+        <v>7002</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45968.71875</v>
+        <v>45969.71875</v>
       </c>
       <c r="B71">
-        <v>8046</v>
+        <v>6964</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45968.72916666666</v>
+        <v>45969.72916666666</v>
       </c>
       <c r="B72">
-        <v>8000</v>
+        <v>6913</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45968.73958333334</v>
+        <v>45969.73958333334</v>
       </c>
       <c r="B73">
-        <v>7933</v>
+        <v>6930</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45968.75</v>
+        <v>45969.75</v>
       </c>
       <c r="B74">
-        <v>7895</v>
+        <v>6912</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -2007,10 +2007,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45968.76041666666</v>
+        <v>45969.76041666666</v>
       </c>
       <c r="B75">
-        <v>7868</v>
+        <v>6842</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45968.77083333334</v>
+        <v>45969.77083333334</v>
       </c>
       <c r="B76">
-        <v>7885</v>
+        <v>6818</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45968.78125</v>
+        <v>45969.78125</v>
       </c>
       <c r="B77">
-        <v>7908</v>
+        <v>6791</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -2049,10 +2049,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45968.79166666666</v>
+        <v>45969.79166666666</v>
       </c>
       <c r="B78">
-        <v>7755</v>
+        <v>6752</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45968.80208333334</v>
+        <v>45969.80208333334</v>
       </c>
       <c r="B79">
-        <v>7700</v>
+        <v>6713</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45968.8125</v>
+        <v>45969.8125</v>
       </c>
       <c r="B80">
-        <v>7596</v>
+        <v>6668</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45968.82291666666</v>
+        <v>45969.82291666666</v>
       </c>
       <c r="B81">
-        <v>7507</v>
+        <v>6630</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -2105,10 +2105,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45968.83333333334</v>
+        <v>45969.83333333334</v>
       </c>
       <c r="B82">
-        <v>7377</v>
+        <v>6516</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45968.84375</v>
+        <v>45969.84375</v>
       </c>
       <c r="B83">
-        <v>7287</v>
+        <v>6440</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -2133,10 +2133,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45968.85416666666</v>
+        <v>45969.85416666666</v>
       </c>
       <c r="B84">
-        <v>7140</v>
+        <v>6318</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45968.86458333334</v>
+        <v>45969.86458333334</v>
       </c>
       <c r="B85">
-        <v>7026</v>
+        <v>6230</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -2161,10 +2161,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45968.875</v>
+        <v>45969.875</v>
       </c>
       <c r="B86">
-        <v>6837</v>
+        <v>6092</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45968.88541666666</v>
+        <v>45969.88541666666</v>
       </c>
       <c r="B87">
-        <v>6726</v>
+        <v>6015</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -2189,10 +2189,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45968.89583333334</v>
+        <v>45969.89583333334</v>
       </c>
       <c r="B88">
-        <v>6563</v>
+        <v>5918</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45968.90625</v>
+        <v>45969.90625</v>
       </c>
       <c r="B89">
-        <v>6466</v>
+        <v>5795</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45968.91666666666</v>
+        <v>45969.91666666666</v>
       </c>
       <c r="B90">
-        <v>6329</v>
+        <v>5712</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45968.92708333334</v>
+        <v>45969.92708333334</v>
       </c>
       <c r="B91">
-        <v>6224</v>
+        <v>5607</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45968.9375</v>
+        <v>45969.9375</v>
       </c>
       <c r="B92">
-        <v>6105</v>
+        <v>5517</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45968.94791666666</v>
+        <v>45969.94791666666</v>
       </c>
       <c r="B93">
-        <v>6077</v>
+        <v>5439</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -2273,10 +2273,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45968.95833333334</v>
+        <v>45969.95833333334</v>
       </c>
       <c r="B94">
-        <v>5920</v>
+        <v>5424</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45968.96875</v>
+        <v>45969.96875</v>
       </c>
       <c r="B95">
-        <v>5835</v>
+        <v>5455</v>
       </c>
       <c r="C95">
         <v>94</v>
@@ -2301,10 +2301,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45968.97916666666</v>
+        <v>45969.97916666666</v>
       </c>
       <c r="B96">
-        <v>5744</v>
+        <v>5430</v>
       </c>
       <c r="C96">
         <v>95</v>
@@ -2315,10 +2315,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>45968.98958333334</v>
+        <v>45969.98958333334</v>
       </c>
       <c r="B97">
-        <v>5666</v>
+        <v>5337</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>45969</v>
+        <v>45970</v>
       </c>
       <c r="B98">
-        <v>5600</v>
+        <v>5216</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>45969.01041666666</v>
+        <v>45970.01041666666</v>
       </c>
       <c r="B99">
-        <v>5569</v>
+        <v>5126</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>45969.02083333334</v>
+        <v>45970.02083333334</v>
       </c>
       <c r="B100">
-        <v>5557</v>
+        <v>5129</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2371,10 +2371,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>45969.03125</v>
+        <v>45970.03125</v>
       </c>
       <c r="B101">
-        <v>5475</v>
+        <v>5037</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>45969.04166666666</v>
+        <v>45970.04166666666</v>
       </c>
       <c r="B102">
-        <v>5469</v>
+        <v>5048</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>45969.05208333334</v>
+        <v>45970.05208333334</v>
       </c>
       <c r="B103">
-        <v>5449</v>
+        <v>5060</v>
       </c>
       <c r="C103">
         <v>6</v>
@@ -2413,10 +2413,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>45969.0625</v>
+        <v>45970.0625</v>
       </c>
       <c r="B104">
-        <v>5412</v>
+        <v>5022</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -2427,10 +2427,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>45969.07291666666</v>
+        <v>45970.07291666666</v>
       </c>
       <c r="B105">
-        <v>5365</v>
+        <v>5029</v>
       </c>
       <c r="C105">
         <v>8</v>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>45969.08333333334</v>
+        <v>45970.08333333334</v>
       </c>
       <c r="B106">
-        <v>5403</v>
+        <v>4966</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -2455,10 +2455,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>45969.09375</v>
+        <v>45970.09375</v>
       </c>
       <c r="B107">
-        <v>5364</v>
+        <v>4994</v>
       </c>
       <c r="C107">
         <v>10</v>
@@ -2469,10 +2469,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>45969.10416666666</v>
+        <v>45970.10416666666</v>
       </c>
       <c r="B108">
-        <v>5399</v>
+        <v>4913</v>
       </c>
       <c r="C108">
         <v>11</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>45969.11458333334</v>
+        <v>45970.11458333334</v>
       </c>
       <c r="B109">
-        <v>5391</v>
+        <v>4884</v>
       </c>
       <c r="C109">
         <v>12</v>
@@ -2497,10 +2497,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>45969.125</v>
+        <v>45970.125</v>
       </c>
       <c r="B110">
-        <v>5423</v>
+        <v>4913</v>
       </c>
       <c r="C110">
         <v>13</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>45969.13541666666</v>
+        <v>45970.13541666666</v>
       </c>
       <c r="B111">
-        <v>5402</v>
+        <v>4897</v>
       </c>
       <c r="C111">
         <v>14</v>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>45969.14583333334</v>
+        <v>45970.14583333334</v>
       </c>
       <c r="B112">
-        <v>5421</v>
+        <v>4904</v>
       </c>
       <c r="C112">
         <v>15</v>
@@ -2539,10 +2539,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>45969.15625</v>
+        <v>45970.15625</v>
       </c>
       <c r="B113">
-        <v>5401</v>
+        <v>4886</v>
       </c>
       <c r="C113">
         <v>16</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>45969.16666666666</v>
+        <v>45970.16666666666</v>
       </c>
       <c r="B114">
-        <v>5457</v>
+        <v>4956</v>
       </c>
       <c r="C114">
         <v>17</v>
@@ -2567,10 +2567,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>45969.17708333334</v>
+        <v>45970.17708333334</v>
       </c>
       <c r="B115">
-        <v>5475</v>
+        <v>4906</v>
       </c>
       <c r="C115">
         <v>18</v>
@@ -2581,10 +2581,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>45969.1875</v>
+        <v>45970.1875</v>
       </c>
       <c r="B116">
-        <v>5481</v>
+        <v>4948</v>
       </c>
       <c r="C116">
         <v>19</v>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>45969.19791666666</v>
+        <v>45970.19791666666</v>
       </c>
       <c r="B117">
-        <v>5526</v>
+        <v>4986</v>
       </c>
       <c r="C117">
         <v>20</v>
@@ -2609,10 +2609,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>45969.20833333334</v>
+        <v>45970.20833333334</v>
       </c>
       <c r="B118">
-        <v>5485</v>
+        <v>5046</v>
       </c>
       <c r="C118">
         <v>21</v>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>45969.21875</v>
+        <v>45970.21875</v>
       </c>
       <c r="B119">
-        <v>5534</v>
+        <v>5055</v>
       </c>
       <c r="C119">
         <v>22</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>45969.22916666666</v>
+        <v>45970.22916666666</v>
       </c>
       <c r="B120">
-        <v>5588</v>
+        <v>5116</v>
       </c>
       <c r="C120">
         <v>23</v>
@@ -2651,10 +2651,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>45969.23958333334</v>
+        <v>45970.23958333334</v>
       </c>
       <c r="B121">
-        <v>5636</v>
+        <v>5102</v>
       </c>
       <c r="C121">
         <v>24</v>
@@ -2665,10 +2665,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>45969.25</v>
+        <v>45970.25</v>
       </c>
       <c r="B122">
-        <v>5744</v>
+        <v>5093</v>
       </c>
       <c r="C122">
         <v>25</v>
@@ -2679,10 +2679,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>45969.26041666666</v>
+        <v>45970.26041666666</v>
       </c>
       <c r="B123">
-        <v>5821</v>
+        <v>5143</v>
       </c>
       <c r="C123">
         <v>26</v>
@@ -2693,10 +2693,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>45969.27083333334</v>
+        <v>45970.27083333334</v>
       </c>
       <c r="B124">
-        <v>5843</v>
+        <v>5207</v>
       </c>
       <c r="C124">
         <v>27</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>45969.28125</v>
+        <v>45970.28125</v>
       </c>
       <c r="B125">
-        <v>5915</v>
+        <v>5258</v>
       </c>
       <c r="C125">
         <v>28</v>
@@ -2721,10 +2721,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>45969.29166666666</v>
+        <v>45970.29166666666</v>
       </c>
       <c r="B126">
-        <v>5985</v>
+        <v>5269</v>
       </c>
       <c r="C126">
         <v>29</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>45969.30208333334</v>
+        <v>45970.30208333334</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>45969.3125</v>
+        <v>45970.3125</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -2763,7 +2763,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>45969.32291666666</v>
+        <v>45970.32291666666</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>45969.33333333334</v>
+        <v>45970.33333333334</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>45969.34375</v>
+        <v>45970.34375</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -2805,7 +2805,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>45969.35416666666</v>
+        <v>45970.35416666666</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -2819,7 +2819,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>45969.36458333334</v>
+        <v>45970.36458333334</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>45969.375</v>
+        <v>45970.375</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>45969.38541666666</v>
+        <v>45970.38541666666</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>45969.39583333334</v>
+        <v>45970.39583333334</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>45969.40625</v>
+        <v>45970.40625</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>45969.41666666666</v>
+        <v>45970.41666666666</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>45969.42708333334</v>
+        <v>45970.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>45969.4375</v>
+        <v>45970.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>45969.44791666666</v>
+        <v>45970.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>45969.45833333334</v>
+        <v>45970.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>45969.46875</v>
+        <v>45970.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>45969.47916666666</v>
+        <v>45970.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>45969.48958333334</v>
+        <v>45970.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>45969.5</v>
+        <v>45970.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>45969.51041666666</v>
+        <v>45970.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>45969.52083333334</v>
+        <v>45970.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>45969.53125</v>
+        <v>45970.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>45969.54166666666</v>
+        <v>45970.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>45969.55208333334</v>
+        <v>45970.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>45969.5625</v>
+        <v>45970.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>45969.57291666666</v>
+        <v>45970.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>45969.58333333334</v>
+        <v>45970.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>45969.59375</v>
+        <v>45970.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>45969.60416666666</v>
+        <v>45970.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>45969.61458333334</v>
+        <v>45970.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>45969.625</v>
+        <v>45970.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>45969.63541666666</v>
+        <v>45970.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>45969.64583333334</v>
+        <v>45970.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>45969.65625</v>
+        <v>45970.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>45969.66666666666</v>
+        <v>45970.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>45969.67708333334</v>
+        <v>45970.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>45969.6875</v>
+        <v>45970.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>45969.69791666666</v>
+        <v>45970.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>45969.70833333334</v>
+        <v>45970.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>45969.71875</v>
+        <v>45970.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>45969.72916666666</v>
+        <v>45970.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>45969.73958333334</v>
+        <v>45970.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>45969.75</v>
+        <v>45970.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>45969.76041666666</v>
+        <v>45970.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>45969.77083333334</v>
+        <v>45970.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>45969.78125</v>
+        <v>45970.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>45969.79166666666</v>
+        <v>45970.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>45969.80208333334</v>
+        <v>45970.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>45969.8125</v>
+        <v>45970.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>45969.82291666666</v>
+        <v>45970.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>45969.83333333334</v>
+        <v>45970.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>45969.84375</v>
+        <v>45970.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>45969.85416666666</v>
+        <v>45970.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>45969.86458333334</v>
+        <v>45970.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>45969.875</v>
+        <v>45970.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>45969.88541666666</v>
+        <v>45970.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>45969.89583333334</v>
+        <v>45970.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>45969.90625</v>
+        <v>45970.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>45969.91666666666</v>
+        <v>45970.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>45969.92708333334</v>
+        <v>45970.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>45969.9375</v>
+        <v>45970.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>45969.94791666666</v>
+        <v>45970.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>45969.95833333334</v>
+        <v>45970.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>45969.96875</v>
+        <v>45970.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>45969.97916666666</v>
+        <v>45970.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>45969.98958333334</v>
+        <v>45970.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
   <si>
     <t>Timestamp</t>
   </si>
@@ -28,580 +28,868 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>08.11.20251</t>
-  </si>
-  <si>
-    <t>08.11.20252</t>
-  </si>
-  <si>
-    <t>08.11.20253</t>
-  </si>
-  <si>
-    <t>08.11.20254</t>
-  </si>
-  <si>
-    <t>08.11.20255</t>
-  </si>
-  <si>
-    <t>08.11.20256</t>
-  </si>
-  <si>
-    <t>08.11.20257</t>
-  </si>
-  <si>
-    <t>08.11.20258</t>
-  </si>
-  <si>
-    <t>08.11.20259</t>
-  </si>
-  <si>
-    <t>08.11.202510</t>
-  </si>
-  <si>
-    <t>08.11.202511</t>
-  </si>
-  <si>
-    <t>08.11.202512</t>
-  </si>
-  <si>
-    <t>08.11.202513</t>
-  </si>
-  <si>
-    <t>08.11.202514</t>
-  </si>
-  <si>
-    <t>08.11.202515</t>
-  </si>
-  <si>
-    <t>08.11.202516</t>
-  </si>
-  <si>
-    <t>08.11.202517</t>
-  </si>
-  <si>
-    <t>08.11.202518</t>
-  </si>
-  <si>
-    <t>08.11.202519</t>
-  </si>
-  <si>
-    <t>08.11.202520</t>
-  </si>
-  <si>
-    <t>08.11.202521</t>
-  </si>
-  <si>
-    <t>08.11.202522</t>
-  </si>
-  <si>
-    <t>08.11.202523</t>
-  </si>
-  <si>
-    <t>08.11.202524</t>
-  </si>
-  <si>
-    <t>08.11.202525</t>
-  </si>
-  <si>
-    <t>08.11.202526</t>
-  </si>
-  <si>
-    <t>08.11.202527</t>
-  </si>
-  <si>
-    <t>08.11.202528</t>
-  </si>
-  <si>
-    <t>08.11.202529</t>
-  </si>
-  <si>
-    <t>08.11.202530</t>
-  </si>
-  <si>
-    <t>08.11.202531</t>
-  </si>
-  <si>
-    <t>08.11.202532</t>
-  </si>
-  <si>
-    <t>08.11.202533</t>
-  </si>
-  <si>
-    <t>08.11.202534</t>
-  </si>
-  <si>
-    <t>08.11.202535</t>
-  </si>
-  <si>
-    <t>08.11.202536</t>
-  </si>
-  <si>
-    <t>08.11.202537</t>
-  </si>
-  <si>
-    <t>08.11.202538</t>
-  </si>
-  <si>
-    <t>08.11.202539</t>
-  </si>
-  <si>
-    <t>08.11.202540</t>
-  </si>
-  <si>
-    <t>08.11.202541</t>
-  </si>
-  <si>
-    <t>08.11.202542</t>
-  </si>
-  <si>
-    <t>08.11.202543</t>
-  </si>
-  <si>
-    <t>08.11.202544</t>
-  </si>
-  <si>
-    <t>08.11.202545</t>
-  </si>
-  <si>
-    <t>08.11.202546</t>
-  </si>
-  <si>
-    <t>08.11.202547</t>
-  </si>
-  <si>
-    <t>08.11.202548</t>
-  </si>
-  <si>
-    <t>08.11.202549</t>
-  </si>
-  <si>
-    <t>08.11.202550</t>
-  </si>
-  <si>
-    <t>08.11.202551</t>
-  </si>
-  <si>
-    <t>08.11.202552</t>
-  </si>
-  <si>
-    <t>08.11.202553</t>
-  </si>
-  <si>
-    <t>08.11.202554</t>
-  </si>
-  <si>
-    <t>08.11.202555</t>
-  </si>
-  <si>
-    <t>08.11.202556</t>
-  </si>
-  <si>
-    <t>08.11.202557</t>
-  </si>
-  <si>
-    <t>08.11.202558</t>
-  </si>
-  <si>
-    <t>08.11.202559</t>
-  </si>
-  <si>
-    <t>08.11.202560</t>
-  </si>
-  <si>
-    <t>08.11.202561</t>
-  </si>
-  <si>
-    <t>08.11.202562</t>
-  </si>
-  <si>
-    <t>08.11.202563</t>
-  </si>
-  <si>
-    <t>08.11.202564</t>
-  </si>
-  <si>
-    <t>08.11.202565</t>
-  </si>
-  <si>
-    <t>08.11.202566</t>
-  </si>
-  <si>
-    <t>08.11.202567</t>
-  </si>
-  <si>
-    <t>08.11.202568</t>
-  </si>
-  <si>
-    <t>08.11.202569</t>
-  </si>
-  <si>
-    <t>08.11.202570</t>
-  </si>
-  <si>
-    <t>08.11.202571</t>
-  </si>
-  <si>
-    <t>08.11.202572</t>
-  </si>
-  <si>
-    <t>08.11.202573</t>
-  </si>
-  <si>
-    <t>08.11.202574</t>
-  </si>
-  <si>
-    <t>08.11.202575</t>
-  </si>
-  <si>
-    <t>08.11.202576</t>
-  </si>
-  <si>
-    <t>08.11.202577</t>
-  </si>
-  <si>
-    <t>08.11.202578</t>
-  </si>
-  <si>
-    <t>08.11.202579</t>
-  </si>
-  <si>
-    <t>08.11.202580</t>
-  </si>
-  <si>
-    <t>08.11.202581</t>
-  </si>
-  <si>
-    <t>08.11.202582</t>
-  </si>
-  <si>
-    <t>08.11.202583</t>
-  </si>
-  <si>
-    <t>08.11.202584</t>
-  </si>
-  <si>
-    <t>08.11.202585</t>
-  </si>
-  <si>
-    <t>08.11.202586</t>
-  </si>
-  <si>
-    <t>08.11.202587</t>
-  </si>
-  <si>
-    <t>08.11.202588</t>
-  </si>
-  <si>
-    <t>08.11.202589</t>
-  </si>
-  <si>
-    <t>08.11.202590</t>
-  </si>
-  <si>
-    <t>08.11.202591</t>
-  </si>
-  <si>
-    <t>08.11.202592</t>
-  </si>
-  <si>
-    <t>08.11.202593</t>
-  </si>
-  <si>
-    <t>08.11.202594</t>
-  </si>
-  <si>
-    <t>08.11.202595</t>
-  </si>
-  <si>
-    <t>08.11.202596</t>
-  </si>
-  <si>
-    <t>09.11.20251</t>
-  </si>
-  <si>
-    <t>09.11.20252</t>
-  </si>
-  <si>
-    <t>09.11.20253</t>
-  </si>
-  <si>
-    <t>09.11.20254</t>
-  </si>
-  <si>
-    <t>09.11.20255</t>
-  </si>
-  <si>
-    <t>09.11.20256</t>
-  </si>
-  <si>
-    <t>09.11.20257</t>
-  </si>
-  <si>
-    <t>09.11.20258</t>
-  </si>
-  <si>
-    <t>09.11.20259</t>
-  </si>
-  <si>
-    <t>09.11.202510</t>
-  </si>
-  <si>
-    <t>09.11.202511</t>
-  </si>
-  <si>
-    <t>09.11.202512</t>
-  </si>
-  <si>
-    <t>09.11.202513</t>
-  </si>
-  <si>
-    <t>09.11.202514</t>
-  </si>
-  <si>
-    <t>09.11.202515</t>
-  </si>
-  <si>
-    <t>09.11.202516</t>
-  </si>
-  <si>
-    <t>09.11.202517</t>
-  </si>
-  <si>
-    <t>09.11.202518</t>
-  </si>
-  <si>
-    <t>09.11.202519</t>
-  </si>
-  <si>
-    <t>09.11.202520</t>
-  </si>
-  <si>
-    <t>09.11.202521</t>
-  </si>
-  <si>
-    <t>09.11.202522</t>
-  </si>
-  <si>
-    <t>09.11.202523</t>
-  </si>
-  <si>
-    <t>09.11.202524</t>
-  </si>
-  <si>
-    <t>09.11.202525</t>
-  </si>
-  <si>
-    <t>09.11.202526</t>
-  </si>
-  <si>
-    <t>09.11.202527</t>
-  </si>
-  <si>
-    <t>09.11.202528</t>
-  </si>
-  <si>
-    <t>09.11.202529</t>
-  </si>
-  <si>
-    <t>09.11.202530</t>
-  </si>
-  <si>
-    <t>09.11.202531</t>
-  </si>
-  <si>
-    <t>09.11.202532</t>
-  </si>
-  <si>
-    <t>09.11.202533</t>
-  </si>
-  <si>
-    <t>09.11.202534</t>
-  </si>
-  <si>
-    <t>09.11.202535</t>
-  </si>
-  <si>
-    <t>09.11.202536</t>
-  </si>
-  <si>
-    <t>09.11.202537</t>
-  </si>
-  <si>
-    <t>09.11.202538</t>
-  </si>
-  <si>
-    <t>09.11.202539</t>
-  </si>
-  <si>
-    <t>09.11.202540</t>
-  </si>
-  <si>
-    <t>09.11.202541</t>
-  </si>
-  <si>
-    <t>09.11.202542</t>
-  </si>
-  <si>
-    <t>09.11.202543</t>
-  </si>
-  <si>
-    <t>09.11.202544</t>
-  </si>
-  <si>
-    <t>09.11.202545</t>
-  </si>
-  <si>
-    <t>09.11.202546</t>
-  </si>
-  <si>
-    <t>09.11.202547</t>
-  </si>
-  <si>
-    <t>09.11.202548</t>
-  </si>
-  <si>
-    <t>09.11.202549</t>
-  </si>
-  <si>
-    <t>09.11.202550</t>
-  </si>
-  <si>
-    <t>09.11.202551</t>
-  </si>
-  <si>
-    <t>09.11.202552</t>
-  </si>
-  <si>
-    <t>09.11.202553</t>
-  </si>
-  <si>
-    <t>09.11.202554</t>
-  </si>
-  <si>
-    <t>09.11.202555</t>
-  </si>
-  <si>
-    <t>09.11.202556</t>
-  </si>
-  <si>
-    <t>09.11.202557</t>
-  </si>
-  <si>
-    <t>09.11.202558</t>
-  </si>
-  <si>
-    <t>09.11.202559</t>
-  </si>
-  <si>
-    <t>09.11.202560</t>
-  </si>
-  <si>
-    <t>09.11.202561</t>
-  </si>
-  <si>
-    <t>09.11.202562</t>
-  </si>
-  <si>
-    <t>09.11.202563</t>
-  </si>
-  <si>
-    <t>09.11.202564</t>
-  </si>
-  <si>
-    <t>09.11.202565</t>
-  </si>
-  <si>
-    <t>09.11.202566</t>
-  </si>
-  <si>
-    <t>09.11.202567</t>
-  </si>
-  <si>
-    <t>09.11.202568</t>
-  </si>
-  <si>
-    <t>09.11.202569</t>
-  </si>
-  <si>
-    <t>09.11.202570</t>
-  </si>
-  <si>
-    <t>09.11.202571</t>
-  </si>
-  <si>
-    <t>09.11.202572</t>
-  </si>
-  <si>
-    <t>09.11.202573</t>
-  </si>
-  <si>
-    <t>09.11.202574</t>
-  </si>
-  <si>
-    <t>09.11.202575</t>
-  </si>
-  <si>
-    <t>09.11.202576</t>
-  </si>
-  <si>
-    <t>09.11.202577</t>
-  </si>
-  <si>
-    <t>09.11.202578</t>
-  </si>
-  <si>
-    <t>09.11.202579</t>
-  </si>
-  <si>
-    <t>09.11.202580</t>
-  </si>
-  <si>
-    <t>09.11.202581</t>
-  </si>
-  <si>
-    <t>09.11.202582</t>
-  </si>
-  <si>
-    <t>09.11.202583</t>
-  </si>
-  <si>
-    <t>09.11.202584</t>
-  </si>
-  <si>
-    <t>09.11.202585</t>
-  </si>
-  <si>
-    <t>09.11.202586</t>
-  </si>
-  <si>
-    <t>09.11.202587</t>
-  </si>
-  <si>
-    <t>09.11.202588</t>
-  </si>
-  <si>
-    <t>09.11.202589</t>
-  </si>
-  <si>
-    <t>09.11.202590</t>
-  </si>
-  <si>
-    <t>09.11.202591</t>
-  </si>
-  <si>
-    <t>09.11.202592</t>
-  </si>
-  <si>
-    <t>09.11.202593</t>
-  </si>
-  <si>
-    <t>09.11.202594</t>
-  </si>
-  <si>
-    <t>09.11.202595</t>
-  </si>
-  <si>
-    <t>09.11.202596</t>
+    <t>11.11.20251</t>
+  </si>
+  <si>
+    <t>11.11.20252</t>
+  </si>
+  <si>
+    <t>11.11.20253</t>
+  </si>
+  <si>
+    <t>11.11.20254</t>
+  </si>
+  <si>
+    <t>11.11.20255</t>
+  </si>
+  <si>
+    <t>11.11.20256</t>
+  </si>
+  <si>
+    <t>11.11.20257</t>
+  </si>
+  <si>
+    <t>11.11.20258</t>
+  </si>
+  <si>
+    <t>11.11.20259</t>
+  </si>
+  <si>
+    <t>11.11.202510</t>
+  </si>
+  <si>
+    <t>11.11.202511</t>
+  </si>
+  <si>
+    <t>11.11.202512</t>
+  </si>
+  <si>
+    <t>11.11.202513</t>
+  </si>
+  <si>
+    <t>11.11.202514</t>
+  </si>
+  <si>
+    <t>11.11.202515</t>
+  </si>
+  <si>
+    <t>11.11.202516</t>
+  </si>
+  <si>
+    <t>11.11.202517</t>
+  </si>
+  <si>
+    <t>11.11.202518</t>
+  </si>
+  <si>
+    <t>11.11.202519</t>
+  </si>
+  <si>
+    <t>11.11.202520</t>
+  </si>
+  <si>
+    <t>11.11.202521</t>
+  </si>
+  <si>
+    <t>11.11.202522</t>
+  </si>
+  <si>
+    <t>11.11.202523</t>
+  </si>
+  <si>
+    <t>11.11.202524</t>
+  </si>
+  <si>
+    <t>11.11.202525</t>
+  </si>
+  <si>
+    <t>11.11.202526</t>
+  </si>
+  <si>
+    <t>11.11.202527</t>
+  </si>
+  <si>
+    <t>11.11.202528</t>
+  </si>
+  <si>
+    <t>11.11.202529</t>
+  </si>
+  <si>
+    <t>11.11.202530</t>
+  </si>
+  <si>
+    <t>11.11.202531</t>
+  </si>
+  <si>
+    <t>11.11.202532</t>
+  </si>
+  <si>
+    <t>11.11.202533</t>
+  </si>
+  <si>
+    <t>11.11.202534</t>
+  </si>
+  <si>
+    <t>11.11.202535</t>
+  </si>
+  <si>
+    <t>11.11.202536</t>
+  </si>
+  <si>
+    <t>11.11.202537</t>
+  </si>
+  <si>
+    <t>11.11.202538</t>
+  </si>
+  <si>
+    <t>11.11.202539</t>
+  </si>
+  <si>
+    <t>11.11.202540</t>
+  </si>
+  <si>
+    <t>11.11.202541</t>
+  </si>
+  <si>
+    <t>11.11.202542</t>
+  </si>
+  <si>
+    <t>11.11.202543</t>
+  </si>
+  <si>
+    <t>11.11.202544</t>
+  </si>
+  <si>
+    <t>11.11.202545</t>
+  </si>
+  <si>
+    <t>11.11.202546</t>
+  </si>
+  <si>
+    <t>11.11.202547</t>
+  </si>
+  <si>
+    <t>11.11.202548</t>
+  </si>
+  <si>
+    <t>11.11.202549</t>
+  </si>
+  <si>
+    <t>11.11.202550</t>
+  </si>
+  <si>
+    <t>11.11.202551</t>
+  </si>
+  <si>
+    <t>11.11.202552</t>
+  </si>
+  <si>
+    <t>11.11.202553</t>
+  </si>
+  <si>
+    <t>11.11.202554</t>
+  </si>
+  <si>
+    <t>11.11.202555</t>
+  </si>
+  <si>
+    <t>11.11.202556</t>
+  </si>
+  <si>
+    <t>11.11.202557</t>
+  </si>
+  <si>
+    <t>11.11.202558</t>
+  </si>
+  <si>
+    <t>11.11.202559</t>
+  </si>
+  <si>
+    <t>11.11.202560</t>
+  </si>
+  <si>
+    <t>11.11.202561</t>
+  </si>
+  <si>
+    <t>11.11.202562</t>
+  </si>
+  <si>
+    <t>11.11.202563</t>
+  </si>
+  <si>
+    <t>11.11.202564</t>
+  </si>
+  <si>
+    <t>11.11.202565</t>
+  </si>
+  <si>
+    <t>11.11.202566</t>
+  </si>
+  <si>
+    <t>11.11.202567</t>
+  </si>
+  <si>
+    <t>11.11.202568</t>
+  </si>
+  <si>
+    <t>11.11.202569</t>
+  </si>
+  <si>
+    <t>11.11.202570</t>
+  </si>
+  <si>
+    <t>11.11.202571</t>
+  </si>
+  <si>
+    <t>11.11.202572</t>
+  </si>
+  <si>
+    <t>11.11.202573</t>
+  </si>
+  <si>
+    <t>11.11.202574</t>
+  </si>
+  <si>
+    <t>11.11.202575</t>
+  </si>
+  <si>
+    <t>11.11.202576</t>
+  </si>
+  <si>
+    <t>11.11.202577</t>
+  </si>
+  <si>
+    <t>11.11.202578</t>
+  </si>
+  <si>
+    <t>11.11.202579</t>
+  </si>
+  <si>
+    <t>11.11.202580</t>
+  </si>
+  <si>
+    <t>11.11.202581</t>
+  </si>
+  <si>
+    <t>11.11.202582</t>
+  </si>
+  <si>
+    <t>11.11.202583</t>
+  </si>
+  <si>
+    <t>11.11.202584</t>
+  </si>
+  <si>
+    <t>11.11.202585</t>
+  </si>
+  <si>
+    <t>11.11.202586</t>
+  </si>
+  <si>
+    <t>11.11.202587</t>
+  </si>
+  <si>
+    <t>11.11.202588</t>
+  </si>
+  <si>
+    <t>11.11.202589</t>
+  </si>
+  <si>
+    <t>11.11.202590</t>
+  </si>
+  <si>
+    <t>11.11.202591</t>
+  </si>
+  <si>
+    <t>11.11.202592</t>
+  </si>
+  <si>
+    <t>11.11.202593</t>
+  </si>
+  <si>
+    <t>11.11.202594</t>
+  </si>
+  <si>
+    <t>11.11.202595</t>
+  </si>
+  <si>
+    <t>11.11.202596</t>
+  </si>
+  <si>
+    <t>12.11.20251</t>
+  </si>
+  <si>
+    <t>12.11.20252</t>
+  </si>
+  <si>
+    <t>12.11.20253</t>
+  </si>
+  <si>
+    <t>12.11.20254</t>
+  </si>
+  <si>
+    <t>12.11.20255</t>
+  </si>
+  <si>
+    <t>12.11.20256</t>
+  </si>
+  <si>
+    <t>12.11.20257</t>
+  </si>
+  <si>
+    <t>12.11.20258</t>
+  </si>
+  <si>
+    <t>12.11.20259</t>
+  </si>
+  <si>
+    <t>12.11.202510</t>
+  </si>
+  <si>
+    <t>12.11.202511</t>
+  </si>
+  <si>
+    <t>12.11.202512</t>
+  </si>
+  <si>
+    <t>12.11.202513</t>
+  </si>
+  <si>
+    <t>12.11.202514</t>
+  </si>
+  <si>
+    <t>12.11.202515</t>
+  </si>
+  <si>
+    <t>12.11.202516</t>
+  </si>
+  <si>
+    <t>12.11.202517</t>
+  </si>
+  <si>
+    <t>12.11.202518</t>
+  </si>
+  <si>
+    <t>12.11.202519</t>
+  </si>
+  <si>
+    <t>12.11.202520</t>
+  </si>
+  <si>
+    <t>12.11.202521</t>
+  </si>
+  <si>
+    <t>12.11.202522</t>
+  </si>
+  <si>
+    <t>12.11.202523</t>
+  </si>
+  <si>
+    <t>12.11.202524</t>
+  </si>
+  <si>
+    <t>12.11.202525</t>
+  </si>
+  <si>
+    <t>12.11.202526</t>
+  </si>
+  <si>
+    <t>12.11.202527</t>
+  </si>
+  <si>
+    <t>12.11.202528</t>
+  </si>
+  <si>
+    <t>12.11.202529</t>
+  </si>
+  <si>
+    <t>12.11.202530</t>
+  </si>
+  <si>
+    <t>12.11.202531</t>
+  </si>
+  <si>
+    <t>12.11.202532</t>
+  </si>
+  <si>
+    <t>12.11.202533</t>
+  </si>
+  <si>
+    <t>12.11.202534</t>
+  </si>
+  <si>
+    <t>12.11.202535</t>
+  </si>
+  <si>
+    <t>12.11.202536</t>
+  </si>
+  <si>
+    <t>12.11.202537</t>
+  </si>
+  <si>
+    <t>12.11.202538</t>
+  </si>
+  <si>
+    <t>12.11.202539</t>
+  </si>
+  <si>
+    <t>12.11.202540</t>
+  </si>
+  <si>
+    <t>12.11.202541</t>
+  </si>
+  <si>
+    <t>12.11.202542</t>
+  </si>
+  <si>
+    <t>12.11.202543</t>
+  </si>
+  <si>
+    <t>12.11.202544</t>
+  </si>
+  <si>
+    <t>12.11.202545</t>
+  </si>
+  <si>
+    <t>12.11.202546</t>
+  </si>
+  <si>
+    <t>12.11.202547</t>
+  </si>
+  <si>
+    <t>12.11.202548</t>
+  </si>
+  <si>
+    <t>12.11.202549</t>
+  </si>
+  <si>
+    <t>12.11.202550</t>
+  </si>
+  <si>
+    <t>12.11.202551</t>
+  </si>
+  <si>
+    <t>12.11.202552</t>
+  </si>
+  <si>
+    <t>12.11.202553</t>
+  </si>
+  <si>
+    <t>12.11.202554</t>
+  </si>
+  <si>
+    <t>12.11.202555</t>
+  </si>
+  <si>
+    <t>12.11.202556</t>
+  </si>
+  <si>
+    <t>12.11.202557</t>
+  </si>
+  <si>
+    <t>12.11.202558</t>
+  </si>
+  <si>
+    <t>12.11.202559</t>
+  </si>
+  <si>
+    <t>12.11.202560</t>
+  </si>
+  <si>
+    <t>12.11.202561</t>
+  </si>
+  <si>
+    <t>12.11.202562</t>
+  </si>
+  <si>
+    <t>12.11.202563</t>
+  </si>
+  <si>
+    <t>12.11.202564</t>
+  </si>
+  <si>
+    <t>12.11.202565</t>
+  </si>
+  <si>
+    <t>12.11.202566</t>
+  </si>
+  <si>
+    <t>12.11.202567</t>
+  </si>
+  <si>
+    <t>12.11.202568</t>
+  </si>
+  <si>
+    <t>12.11.202569</t>
+  </si>
+  <si>
+    <t>12.11.202570</t>
+  </si>
+  <si>
+    <t>12.11.202571</t>
+  </si>
+  <si>
+    <t>12.11.202572</t>
+  </si>
+  <si>
+    <t>12.11.202573</t>
+  </si>
+  <si>
+    <t>12.11.202574</t>
+  </si>
+  <si>
+    <t>12.11.202575</t>
+  </si>
+  <si>
+    <t>12.11.202576</t>
+  </si>
+  <si>
+    <t>12.11.202577</t>
+  </si>
+  <si>
+    <t>12.11.202578</t>
+  </si>
+  <si>
+    <t>12.11.202579</t>
+  </si>
+  <si>
+    <t>12.11.202580</t>
+  </si>
+  <si>
+    <t>12.11.202581</t>
+  </si>
+  <si>
+    <t>12.11.202582</t>
+  </si>
+  <si>
+    <t>12.11.202583</t>
+  </si>
+  <si>
+    <t>12.11.202584</t>
+  </si>
+  <si>
+    <t>12.11.202585</t>
+  </si>
+  <si>
+    <t>12.11.202586</t>
+  </si>
+  <si>
+    <t>12.11.202587</t>
+  </si>
+  <si>
+    <t>12.11.202588</t>
+  </si>
+  <si>
+    <t>12.11.202589</t>
+  </si>
+  <si>
+    <t>12.11.202590</t>
+  </si>
+  <si>
+    <t>12.11.202591</t>
+  </si>
+  <si>
+    <t>12.11.202592</t>
+  </si>
+  <si>
+    <t>12.11.202593</t>
+  </si>
+  <si>
+    <t>12.11.202594</t>
+  </si>
+  <si>
+    <t>12.11.202595</t>
+  </si>
+  <si>
+    <t>12.11.202596</t>
+  </si>
+  <si>
+    <t>13.11.20251</t>
+  </si>
+  <si>
+    <t>13.11.20252</t>
+  </si>
+  <si>
+    <t>13.11.20253</t>
+  </si>
+  <si>
+    <t>13.11.20254</t>
+  </si>
+  <si>
+    <t>13.11.20255</t>
+  </si>
+  <si>
+    <t>13.11.20256</t>
+  </si>
+  <si>
+    <t>13.11.20257</t>
+  </si>
+  <si>
+    <t>13.11.20258</t>
+  </si>
+  <si>
+    <t>13.11.20259</t>
+  </si>
+  <si>
+    <t>13.11.202510</t>
+  </si>
+  <si>
+    <t>13.11.202511</t>
+  </si>
+  <si>
+    <t>13.11.202512</t>
+  </si>
+  <si>
+    <t>13.11.202513</t>
+  </si>
+  <si>
+    <t>13.11.202514</t>
+  </si>
+  <si>
+    <t>13.11.202515</t>
+  </si>
+  <si>
+    <t>13.11.202516</t>
+  </si>
+  <si>
+    <t>13.11.202517</t>
+  </si>
+  <si>
+    <t>13.11.202518</t>
+  </si>
+  <si>
+    <t>13.11.202519</t>
+  </si>
+  <si>
+    <t>13.11.202520</t>
+  </si>
+  <si>
+    <t>13.11.202521</t>
+  </si>
+  <si>
+    <t>13.11.202522</t>
+  </si>
+  <si>
+    <t>13.11.202523</t>
+  </si>
+  <si>
+    <t>13.11.202524</t>
+  </si>
+  <si>
+    <t>13.11.202525</t>
+  </si>
+  <si>
+    <t>13.11.202526</t>
+  </si>
+  <si>
+    <t>13.11.202527</t>
+  </si>
+  <si>
+    <t>13.11.202528</t>
+  </si>
+  <si>
+    <t>13.11.202529</t>
+  </si>
+  <si>
+    <t>13.11.202530</t>
+  </si>
+  <si>
+    <t>13.11.202531</t>
+  </si>
+  <si>
+    <t>13.11.202532</t>
+  </si>
+  <si>
+    <t>13.11.202533</t>
+  </si>
+  <si>
+    <t>13.11.202534</t>
+  </si>
+  <si>
+    <t>13.11.202535</t>
+  </si>
+  <si>
+    <t>13.11.202536</t>
+  </si>
+  <si>
+    <t>13.11.202537</t>
+  </si>
+  <si>
+    <t>13.11.202538</t>
+  </si>
+  <si>
+    <t>13.11.202539</t>
+  </si>
+  <si>
+    <t>13.11.202540</t>
+  </si>
+  <si>
+    <t>13.11.202541</t>
+  </si>
+  <si>
+    <t>13.11.202542</t>
+  </si>
+  <si>
+    <t>13.11.202543</t>
+  </si>
+  <si>
+    <t>13.11.202544</t>
+  </si>
+  <si>
+    <t>13.11.202545</t>
+  </si>
+  <si>
+    <t>13.11.202546</t>
+  </si>
+  <si>
+    <t>13.11.202547</t>
+  </si>
+  <si>
+    <t>13.11.202548</t>
+  </si>
+  <si>
+    <t>13.11.202549</t>
+  </si>
+  <si>
+    <t>13.11.202550</t>
+  </si>
+  <si>
+    <t>13.11.202551</t>
+  </si>
+  <si>
+    <t>13.11.202552</t>
+  </si>
+  <si>
+    <t>13.11.202553</t>
+  </si>
+  <si>
+    <t>13.11.202554</t>
+  </si>
+  <si>
+    <t>13.11.202555</t>
+  </si>
+  <si>
+    <t>13.11.202556</t>
+  </si>
+  <si>
+    <t>13.11.202557</t>
+  </si>
+  <si>
+    <t>13.11.202558</t>
+  </si>
+  <si>
+    <t>13.11.202559</t>
+  </si>
+  <si>
+    <t>13.11.202560</t>
+  </si>
+  <si>
+    <t>13.11.202561</t>
+  </si>
+  <si>
+    <t>13.11.202562</t>
+  </si>
+  <si>
+    <t>13.11.202563</t>
+  </si>
+  <si>
+    <t>13.11.202564</t>
+  </si>
+  <si>
+    <t>13.11.202565</t>
+  </si>
+  <si>
+    <t>13.11.202566</t>
+  </si>
+  <si>
+    <t>13.11.202567</t>
+  </si>
+  <si>
+    <t>13.11.202568</t>
+  </si>
+  <si>
+    <t>13.11.202569</t>
+  </si>
+  <si>
+    <t>13.11.202570</t>
+  </si>
+  <si>
+    <t>13.11.202571</t>
+  </si>
+  <si>
+    <t>13.11.202572</t>
+  </si>
+  <si>
+    <t>13.11.202573</t>
+  </si>
+  <si>
+    <t>13.11.202574</t>
+  </si>
+  <si>
+    <t>13.11.202575</t>
+  </si>
+  <si>
+    <t>13.11.202576</t>
+  </si>
+  <si>
+    <t>13.11.202577</t>
+  </si>
+  <si>
+    <t>13.11.202578</t>
+  </si>
+  <si>
+    <t>13.11.202579</t>
+  </si>
+  <si>
+    <t>13.11.202580</t>
+  </si>
+  <si>
+    <t>13.11.202581</t>
+  </si>
+  <si>
+    <t>13.11.202582</t>
+  </si>
+  <si>
+    <t>13.11.202583</t>
+  </si>
+  <si>
+    <t>13.11.202584</t>
+  </si>
+  <si>
+    <t>13.11.202585</t>
+  </si>
+  <si>
+    <t>13.11.202586</t>
+  </si>
+  <si>
+    <t>13.11.202587</t>
+  </si>
+  <si>
+    <t>13.11.202588</t>
+  </si>
+  <si>
+    <t>13.11.202589</t>
+  </si>
+  <si>
+    <t>13.11.202590</t>
+  </si>
+  <si>
+    <t>13.11.202591</t>
+  </si>
+  <si>
+    <t>13.11.202592</t>
+  </si>
+  <si>
+    <t>13.11.202593</t>
+  </si>
+  <si>
+    <t>13.11.202594</t>
+  </si>
+  <si>
+    <t>13.11.202595</t>
+  </si>
+  <si>
+    <t>13.11.202596</t>
   </si>
 </sst>
 </file>
@@ -963,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:D289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -985,10 +1273,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B2">
-        <v>5600</v>
+        <v>5650</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -999,10 +1287,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45969.01041666666</v>
+        <v>45972.01041666666</v>
       </c>
       <c r="B3">
-        <v>5569</v>
+        <v>5544</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1013,10 +1301,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45969.02083333334</v>
+        <v>45972.02083333334</v>
       </c>
       <c r="B4">
-        <v>5557</v>
+        <v>5538</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1027,10 +1315,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45969.03125</v>
+        <v>45972.03125</v>
       </c>
       <c r="B5">
-        <v>5475</v>
+        <v>5500</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1041,10 +1329,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45969.04166666666</v>
+        <v>45972.04166666666</v>
       </c>
       <c r="B6">
-        <v>5469</v>
+        <v>5502</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1055,10 +1343,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45969.05208333334</v>
+        <v>45972.05208333334</v>
       </c>
       <c r="B7">
-        <v>5449</v>
+        <v>5509</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1069,10 +1357,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45969.0625</v>
+        <v>45972.0625</v>
       </c>
       <c r="B8">
-        <v>5412</v>
+        <v>5500</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1083,10 +1371,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45969.07291666666</v>
+        <v>45972.07291666666</v>
       </c>
       <c r="B9">
-        <v>5365</v>
+        <v>5435</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1097,10 +1385,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45969.08333333334</v>
+        <v>45972.08333333334</v>
       </c>
       <c r="B10">
-        <v>5403</v>
+        <v>5440</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1111,10 +1399,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45969.09375</v>
+        <v>45972.09375</v>
       </c>
       <c r="B11">
-        <v>5364</v>
+        <v>5478</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1125,10 +1413,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45969.10416666666</v>
+        <v>45972.10416666666</v>
       </c>
       <c r="B12">
-        <v>5399</v>
+        <v>5455</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1139,10 +1427,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45969.11458333334</v>
+        <v>45972.11458333334</v>
       </c>
       <c r="B13">
-        <v>5391</v>
+        <v>5478</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1153,10 +1441,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45969.125</v>
+        <v>45972.125</v>
       </c>
       <c r="B14">
-        <v>5423</v>
+        <v>5443</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1167,10 +1455,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45969.13541666666</v>
+        <v>45972.13541666666</v>
       </c>
       <c r="B15">
-        <v>5402</v>
+        <v>5462</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1181,10 +1469,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45969.14583333334</v>
+        <v>45972.14583333334</v>
       </c>
       <c r="B16">
-        <v>5421</v>
+        <v>5496</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1195,10 +1483,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45969.15625</v>
+        <v>45972.15625</v>
       </c>
       <c r="B17">
-        <v>5401</v>
+        <v>5475</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1209,10 +1497,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45969.16666666666</v>
+        <v>45972.16666666666</v>
       </c>
       <c r="B18">
-        <v>5457</v>
+        <v>5555</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1223,10 +1511,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45969.17708333334</v>
+        <v>45972.17708333334</v>
       </c>
       <c r="B19">
-        <v>5475</v>
+        <v>5629</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1237,10 +1525,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45969.1875</v>
+        <v>45972.1875</v>
       </c>
       <c r="B20">
-        <v>5481</v>
+        <v>5714</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1251,10 +1539,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45969.19791666666</v>
+        <v>45972.19791666666</v>
       </c>
       <c r="B21">
-        <v>5526</v>
+        <v>5809</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1265,10 +1553,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45969.20833333334</v>
+        <v>45972.20833333334</v>
       </c>
       <c r="B22">
-        <v>5485</v>
+        <v>6059</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1279,10 +1567,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45969.21875</v>
+        <v>45972.21875</v>
       </c>
       <c r="B23">
-        <v>5534</v>
+        <v>6161</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1293,10 +1581,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45969.22916666666</v>
+        <v>45972.22916666666</v>
       </c>
       <c r="B24">
-        <v>5588</v>
+        <v>6268</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1307,10 +1595,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45969.23958333334</v>
+        <v>45972.23958333334</v>
       </c>
       <c r="B25">
-        <v>5636</v>
+        <v>6505</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1321,10 +1609,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45969.25</v>
+        <v>45972.25</v>
       </c>
       <c r="B26">
-        <v>5744</v>
+        <v>6827</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1335,10 +1623,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45969.26041666666</v>
+        <v>45972.26041666666</v>
       </c>
       <c r="B27">
-        <v>5821</v>
+        <v>6989</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1349,10 +1637,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45969.27083333334</v>
+        <v>45972.27083333334</v>
       </c>
       <c r="B28">
-        <v>5843</v>
+        <v>7138</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1363,10 +1651,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45969.28125</v>
+        <v>45972.28125</v>
       </c>
       <c r="B29">
-        <v>5915</v>
+        <v>7195</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1377,10 +1665,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45969.29166666666</v>
+        <v>45972.29166666666</v>
       </c>
       <c r="B30">
-        <v>5985</v>
+        <v>7275</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1391,10 +1679,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45969.30208333334</v>
+        <v>45972.30208333334</v>
       </c>
       <c r="B31">
-        <v>6024</v>
+        <v>7380</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1405,10 +1693,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45969.3125</v>
+        <v>45972.3125</v>
       </c>
       <c r="B32">
-        <v>6101</v>
+        <v>7419</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1419,10 +1707,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45969.32291666666</v>
+        <v>45972.32291666666</v>
       </c>
       <c r="B33">
-        <v>6070</v>
+        <v>7470</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1433,10 +1721,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45969.33333333334</v>
+        <v>45972.33333333334</v>
       </c>
       <c r="B34">
-        <v>6135</v>
+        <v>7497</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1447,10 +1735,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45969.34375</v>
+        <v>45972.34375</v>
       </c>
       <c r="B35">
-        <v>6216</v>
+        <v>7529</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1461,10 +1749,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45969.35416666666</v>
+        <v>45972.35416666666</v>
       </c>
       <c r="B36">
-        <v>6162</v>
+        <v>7520</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1475,10 +1763,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45969.36458333334</v>
+        <v>45972.36458333334</v>
       </c>
       <c r="B37">
-        <v>6193</v>
+        <v>7465</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1489,10 +1777,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45969.375</v>
+        <v>45972.375</v>
       </c>
       <c r="B38">
-        <v>6169</v>
+        <v>7300</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1503,10 +1791,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45969.38541666666</v>
+        <v>45972.38541666666</v>
       </c>
       <c r="B39">
-        <v>6216</v>
+        <v>7276</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1517,10 +1805,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45969.39583333334</v>
+        <v>45972.39583333334</v>
       </c>
       <c r="B40">
-        <v>6234</v>
+        <v>7256</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1531,10 +1819,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45969.40625</v>
+        <v>45972.40625</v>
       </c>
       <c r="B41">
-        <v>6306</v>
+        <v>7077</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1545,10 +1833,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45969.41666666666</v>
+        <v>45972.41666666666</v>
       </c>
       <c r="B42">
-        <v>6141</v>
+        <v>6969</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1559,10 +1847,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45969.42708333334</v>
+        <v>45972.42708333334</v>
       </c>
       <c r="B43">
-        <v>6195</v>
+        <v>6952</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1573,10 +1861,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45969.4375</v>
+        <v>45972.4375</v>
       </c>
       <c r="B44">
-        <v>6223</v>
+        <v>6880</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1587,10 +1875,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45969.44791666666</v>
+        <v>45972.44791666666</v>
       </c>
       <c r="B45">
-        <v>6282</v>
+        <v>6863</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1601,10 +1889,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45969.45833333334</v>
+        <v>45972.45833333334</v>
       </c>
       <c r="B46">
-        <v>6210</v>
+        <v>6747</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1615,10 +1903,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45969.46875</v>
+        <v>45972.46875</v>
       </c>
       <c r="B47">
-        <v>6222</v>
+        <v>6726</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1629,10 +1917,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45969.47916666666</v>
+        <v>45972.47916666666</v>
       </c>
       <c r="B48">
-        <v>6267</v>
+        <v>6837</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1643,10 +1931,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45969.48958333334</v>
+        <v>45972.48958333334</v>
       </c>
       <c r="B49">
-        <v>6266</v>
+        <v>6853</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1657,10 +1945,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45969.5</v>
+        <v>45972.5</v>
       </c>
       <c r="B50">
-        <v>6253</v>
+        <v>6825</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1671,10 +1959,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45969.51041666666</v>
+        <v>45972.51041666666</v>
       </c>
       <c r="B51">
-        <v>6218</v>
+        <v>6899</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1685,10 +1973,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45969.52083333334</v>
+        <v>45972.52083333334</v>
       </c>
       <c r="B52">
-        <v>6257</v>
+        <v>6876</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1699,10 +1987,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45969.53125</v>
+        <v>45972.53125</v>
       </c>
       <c r="B53">
-        <v>6248</v>
+        <v>6854</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -1713,10 +2001,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45969.54166666666</v>
+        <v>45972.54166666666</v>
       </c>
       <c r="B54">
-        <v>6286</v>
+        <v>6862</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -1727,10 +2015,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45969.55208333334</v>
+        <v>45972.55208333334</v>
       </c>
       <c r="B55">
-        <v>6255</v>
+        <v>6904</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -1741,10 +2029,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45969.5625</v>
+        <v>45972.5625</v>
       </c>
       <c r="B56">
-        <v>6282</v>
+        <v>6892</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -1755,10 +2043,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45969.57291666666</v>
+        <v>45972.57291666666</v>
       </c>
       <c r="B57">
-        <v>6283</v>
+        <v>6778</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -1769,10 +2057,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45969.58333333334</v>
+        <v>45972.58333333334</v>
       </c>
       <c r="B58">
-        <v>6309</v>
+        <v>6510</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -1783,10 +2071,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45969.59375</v>
+        <v>45972.59375</v>
       </c>
       <c r="B59">
-        <v>6305</v>
+        <v>6782</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -1797,10 +2085,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45969.60416666666</v>
+        <v>45972.60416666666</v>
       </c>
       <c r="B60">
-        <v>6380</v>
+        <v>7148</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -1811,10 +2099,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45969.61458333334</v>
+        <v>45972.61458333334</v>
       </c>
       <c r="B61">
-        <v>6418</v>
+        <v>7219</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -1825,10 +2113,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45969.625</v>
+        <v>45972.625</v>
       </c>
       <c r="B62">
-        <v>6511</v>
+        <v>7342</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -1839,10 +2127,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45969.63541666666</v>
+        <v>45972.63541666666</v>
       </c>
       <c r="B63">
-        <v>6533</v>
+        <v>7344</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -1853,10 +2141,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45969.64583333334</v>
+        <v>45972.64583333334</v>
       </c>
       <c r="B64">
-        <v>6611</v>
+        <v>7365</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -1867,10 +2155,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45969.65625</v>
+        <v>45972.65625</v>
       </c>
       <c r="B65">
-        <v>6703</v>
+        <v>7504</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -1881,10 +2169,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45969.66666666666</v>
+        <v>45972.66666666666</v>
       </c>
       <c r="B66">
-        <v>6806</v>
+        <v>7546</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -1895,10 +2183,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45969.67708333334</v>
+        <v>45972.67708333334</v>
       </c>
       <c r="B67">
-        <v>6874</v>
+        <v>7762</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -1909,10 +2197,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45969.6875</v>
+        <v>45972.6875</v>
       </c>
       <c r="B68">
-        <v>6954</v>
+        <v>7830</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -1923,10 +2211,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45969.69791666666</v>
+        <v>45972.69791666666</v>
       </c>
       <c r="B69">
-        <v>7006</v>
+        <v>7800</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -1937,10 +2225,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45969.70833333334</v>
+        <v>45972.70833333334</v>
       </c>
       <c r="B70">
-        <v>7002</v>
+        <v>7825</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -1951,10 +2239,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45969.71875</v>
+        <v>45972.71875</v>
       </c>
       <c r="B71">
-        <v>6964</v>
+        <v>7858</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -1965,10 +2253,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45969.72916666666</v>
+        <v>45972.72916666666</v>
       </c>
       <c r="B72">
-        <v>6913</v>
+        <v>7812</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -1979,10 +2267,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45969.73958333334</v>
+        <v>45972.73958333334</v>
       </c>
       <c r="B73">
-        <v>6930</v>
+        <v>7768</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -1993,10 +2281,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45969.75</v>
+        <v>45972.75</v>
       </c>
       <c r="B74">
-        <v>6912</v>
+        <v>7765</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -2007,10 +2295,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45969.76041666666</v>
+        <v>45972.76041666666</v>
       </c>
       <c r="B75">
-        <v>6842</v>
+        <v>7764</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -2021,10 +2309,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45969.77083333334</v>
+        <v>45972.77083333334</v>
       </c>
       <c r="B76">
-        <v>6818</v>
+        <v>7738</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -2035,10 +2323,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45969.78125</v>
+        <v>45972.78125</v>
       </c>
       <c r="B77">
-        <v>6791</v>
+        <v>7707</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -2049,10 +2337,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45969.79166666666</v>
+        <v>45972.79166666666</v>
       </c>
       <c r="B78">
-        <v>6752</v>
+        <v>7617</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -2063,10 +2351,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45969.80208333334</v>
+        <v>45972.80208333334</v>
       </c>
       <c r="B79">
-        <v>6713</v>
+        <v>7596</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -2077,10 +2365,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45969.8125</v>
+        <v>45972.8125</v>
       </c>
       <c r="B80">
-        <v>6668</v>
+        <v>7500</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -2091,10 +2379,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45969.82291666666</v>
+        <v>45972.82291666666</v>
       </c>
       <c r="B81">
-        <v>6630</v>
+        <v>7418</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -2105,10 +2393,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45969.83333333334</v>
+        <v>45972.83333333334</v>
       </c>
       <c r="B82">
-        <v>6516</v>
+        <v>7316</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -2119,10 +2407,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45969.84375</v>
+        <v>45972.84375</v>
       </c>
       <c r="B83">
-        <v>6440</v>
+        <v>7215</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -2133,10 +2421,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45969.85416666666</v>
+        <v>45972.85416666666</v>
       </c>
       <c r="B84">
-        <v>6318</v>
+        <v>7010</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -2147,10 +2435,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45969.86458333334</v>
+        <v>45972.86458333334</v>
       </c>
       <c r="B85">
-        <v>6230</v>
+        <v>6896</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -2161,10 +2449,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45969.875</v>
+        <v>45972.875</v>
       </c>
       <c r="B86">
-        <v>6092</v>
+        <v>6767</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -2175,10 +2463,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45969.88541666666</v>
+        <v>45972.88541666666</v>
       </c>
       <c r="B87">
-        <v>6015</v>
+        <v>6589</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -2189,10 +2477,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45969.89583333334</v>
+        <v>45972.89583333334</v>
       </c>
       <c r="B88">
-        <v>5918</v>
+        <v>6519</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -2203,10 +2491,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45969.90625</v>
+        <v>45972.90625</v>
       </c>
       <c r="B89">
-        <v>5795</v>
+        <v>6310</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -2217,10 +2505,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45969.91666666666</v>
+        <v>45972.91666666666</v>
       </c>
       <c r="B90">
-        <v>5712</v>
+        <v>6156</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -2231,10 +2519,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45969.92708333334</v>
+        <v>45972.92708333334</v>
       </c>
       <c r="B91">
-        <v>5607</v>
+        <v>6062</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -2245,10 +2533,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45969.9375</v>
+        <v>45972.9375</v>
       </c>
       <c r="B92">
-        <v>5517</v>
+        <v>5953</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -2259,10 +2547,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45969.94791666666</v>
+        <v>45972.94791666666</v>
       </c>
       <c r="B93">
-        <v>5439</v>
+        <v>5908</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -2273,10 +2561,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45969.95833333334</v>
+        <v>45972.95833333334</v>
       </c>
       <c r="B94">
-        <v>5424</v>
+        <v>5787</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -2287,10 +2575,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45969.96875</v>
+        <v>45972.96875</v>
       </c>
       <c r="B95">
-        <v>5455</v>
+        <v>5752</v>
       </c>
       <c r="C95">
         <v>94</v>
@@ -2301,10 +2589,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45969.97916666666</v>
+        <v>45972.97916666666</v>
       </c>
       <c r="B96">
-        <v>5430</v>
+        <v>5664</v>
       </c>
       <c r="C96">
         <v>95</v>
@@ -2315,10 +2603,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>45969.98958333334</v>
+        <v>45972.98958333334</v>
       </c>
       <c r="B97">
-        <v>5337</v>
+        <v>5591</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -2329,10 +2617,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>45970</v>
+        <v>45973</v>
       </c>
       <c r="B98">
-        <v>5216</v>
+        <v>5619</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2343,10 +2631,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>45970.01041666666</v>
+        <v>45973.01041666666</v>
       </c>
       <c r="B99">
-        <v>5126</v>
+        <v>5572</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2357,10 +2645,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>45970.02083333334</v>
+        <v>45973.02083333334</v>
       </c>
       <c r="B100">
-        <v>5129</v>
+        <v>5550</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2371,10 +2659,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>45970.03125</v>
+        <v>45973.03125</v>
       </c>
       <c r="B101">
-        <v>5037</v>
+        <v>5492</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2385,10 +2673,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>45970.04166666666</v>
+        <v>45973.04166666666</v>
       </c>
       <c r="B102">
-        <v>5048</v>
+        <v>5459</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2399,10 +2687,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>45970.05208333334</v>
+        <v>45973.05208333334</v>
       </c>
       <c r="B103">
-        <v>5060</v>
+        <v>5455</v>
       </c>
       <c r="C103">
         <v>6</v>
@@ -2413,10 +2701,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>45970.0625</v>
+        <v>45973.0625</v>
       </c>
       <c r="B104">
-        <v>5022</v>
+        <v>5375</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -2427,10 +2715,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>45970.07291666666</v>
+        <v>45973.07291666666</v>
       </c>
       <c r="B105">
-        <v>5029</v>
+        <v>5373</v>
       </c>
       <c r="C105">
         <v>8</v>
@@ -2441,10 +2729,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>45970.08333333334</v>
+        <v>45973.08333333334</v>
       </c>
       <c r="B106">
-        <v>4966</v>
+        <v>5432</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -2455,10 +2743,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>45970.09375</v>
+        <v>45973.09375</v>
       </c>
       <c r="B107">
-        <v>4994</v>
+        <v>5408</v>
       </c>
       <c r="C107">
         <v>10</v>
@@ -2469,10 +2757,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>45970.10416666666</v>
+        <v>45973.10416666666</v>
       </c>
       <c r="B108">
-        <v>4913</v>
+        <v>5381</v>
       </c>
       <c r="C108">
         <v>11</v>
@@ -2483,10 +2771,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>45970.11458333334</v>
+        <v>45973.11458333334</v>
       </c>
       <c r="B109">
-        <v>4884</v>
+        <v>5408</v>
       </c>
       <c r="C109">
         <v>12</v>
@@ -2497,10 +2785,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>45970.125</v>
+        <v>45973.125</v>
       </c>
       <c r="B110">
-        <v>4913</v>
+        <v>5367</v>
       </c>
       <c r="C110">
         <v>13</v>
@@ -2511,10 +2799,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>45970.13541666666</v>
+        <v>45973.13541666666</v>
       </c>
       <c r="B111">
-        <v>4897</v>
+        <v>5431</v>
       </c>
       <c r="C111">
         <v>14</v>
@@ -2525,10 +2813,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>45970.14583333334</v>
+        <v>45973.14583333334</v>
       </c>
       <c r="B112">
-        <v>4904</v>
+        <v>5482</v>
       </c>
       <c r="C112">
         <v>15</v>
@@ -2539,10 +2827,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>45970.15625</v>
+        <v>45973.15625</v>
       </c>
       <c r="B113">
-        <v>4886</v>
+        <v>5558</v>
       </c>
       <c r="C113">
         <v>16</v>
@@ -2553,10 +2841,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>45970.16666666666</v>
+        <v>45973.16666666666</v>
       </c>
       <c r="B114">
-        <v>4956</v>
+        <v>5543</v>
       </c>
       <c r="C114">
         <v>17</v>
@@ -2567,10 +2855,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>45970.17708333334</v>
+        <v>45973.17708333334</v>
       </c>
       <c r="B115">
-        <v>4906</v>
+        <v>5681</v>
       </c>
       <c r="C115">
         <v>18</v>
@@ -2581,10 +2869,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>45970.1875</v>
+        <v>45973.1875</v>
       </c>
       <c r="B116">
-        <v>4948</v>
+        <v>5810</v>
       </c>
       <c r="C116">
         <v>19</v>
@@ -2595,10 +2883,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>45970.19791666666</v>
+        <v>45973.19791666666</v>
       </c>
       <c r="B117">
-        <v>4986</v>
+        <v>5809</v>
       </c>
       <c r="C117">
         <v>20</v>
@@ -2609,10 +2897,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>45970.20833333334</v>
+        <v>45973.20833333334</v>
       </c>
       <c r="B118">
-        <v>5046</v>
+        <v>6030</v>
       </c>
       <c r="C118">
         <v>21</v>
@@ -2623,10 +2911,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>45970.21875</v>
+        <v>45973.21875</v>
       </c>
       <c r="B119">
-        <v>5055</v>
+        <v>6233</v>
       </c>
       <c r="C119">
         <v>22</v>
@@ -2637,10 +2925,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>45970.22916666666</v>
+        <v>45973.22916666666</v>
       </c>
       <c r="B120">
-        <v>5116</v>
+        <v>6395</v>
       </c>
       <c r="C120">
         <v>23</v>
@@ -2651,10 +2939,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>45970.23958333334</v>
+        <v>45973.23958333334</v>
       </c>
       <c r="B121">
-        <v>5102</v>
+        <v>6572</v>
       </c>
       <c r="C121">
         <v>24</v>
@@ -2665,10 +2953,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>45970.25</v>
+        <v>45973.25</v>
       </c>
       <c r="B122">
-        <v>5093</v>
+        <v>6826</v>
       </c>
       <c r="C122">
         <v>25</v>
@@ -2679,10 +2967,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>45970.26041666666</v>
+        <v>45973.26041666666</v>
       </c>
       <c r="B123">
-        <v>5143</v>
+        <v>7003</v>
       </c>
       <c r="C123">
         <v>26</v>
@@ -2693,10 +2981,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>45970.27083333334</v>
+        <v>45973.27083333334</v>
       </c>
       <c r="B124">
-        <v>5207</v>
+        <v>7124</v>
       </c>
       <c r="C124">
         <v>27</v>
@@ -2707,10 +2995,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>45970.28125</v>
+        <v>45973.28125</v>
       </c>
       <c r="B125">
-        <v>5258</v>
+        <v>7167</v>
       </c>
       <c r="C125">
         <v>28</v>
@@ -2721,10 +3009,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>45970.29166666666</v>
+        <v>45973.29166666666</v>
       </c>
       <c r="B126">
-        <v>5269</v>
+        <v>7333</v>
       </c>
       <c r="C126">
         <v>29</v>
@@ -2735,10 +3023,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>45970.30208333334</v>
+        <v>45973.30208333334</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>7456</v>
       </c>
       <c r="C127">
         <v>30</v>
@@ -2749,10 +3037,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>45970.3125</v>
+        <v>45973.3125</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>7542</v>
       </c>
       <c r="C128">
         <v>31</v>
@@ -2763,10 +3051,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>45970.32291666666</v>
+        <v>45973.32291666666</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>7496</v>
       </c>
       <c r="C129">
         <v>32</v>
@@ -2777,10 +3065,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>45970.33333333334</v>
+        <v>45973.33333333334</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>7486</v>
       </c>
       <c r="C130">
         <v>33</v>
@@ -2791,10 +3079,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>45970.34375</v>
+        <v>45973.34375</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>7418</v>
       </c>
       <c r="C131">
         <v>34</v>
@@ -2805,10 +3093,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>45970.35416666666</v>
+        <v>45973.35416666666</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>7406</v>
       </c>
       <c r="C132">
         <v>35</v>
@@ -2819,10 +3107,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>45970.36458333334</v>
+        <v>45973.36458333334</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>7294</v>
       </c>
       <c r="C133">
         <v>36</v>
@@ -2833,10 +3121,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>45970.375</v>
+        <v>45973.375</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>7113</v>
       </c>
       <c r="C134">
         <v>37</v>
@@ -2847,10 +3135,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>45970.38541666666</v>
+        <v>45973.38541666666</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>7157</v>
       </c>
       <c r="C135">
         <v>38</v>
@@ -2861,10 +3149,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>45970.39583333334</v>
+        <v>45973.39583333334</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>7097</v>
       </c>
       <c r="C136">
         <v>39</v>
@@ -2875,10 +3163,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>45970.40625</v>
+        <v>45973.40625</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>7060</v>
       </c>
       <c r="C137">
         <v>40</v>
@@ -2889,10 +3177,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>45970.41666666666</v>
+        <v>45973.41666666666</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>7015</v>
       </c>
       <c r="C138">
         <v>41</v>
@@ -2903,10 +3191,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>45970.42708333334</v>
+        <v>45973.42708333334</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>6938</v>
       </c>
       <c r="C139">
         <v>42</v>
@@ -2917,10 +3205,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>45970.4375</v>
+        <v>45973.4375</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>6910</v>
       </c>
       <c r="C140">
         <v>43</v>
@@ -2931,10 +3219,10 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>45970.44791666666</v>
+        <v>45973.44791666666</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>6887</v>
       </c>
       <c r="C141">
         <v>44</v>
@@ -2945,10 +3233,10 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>45970.45833333334</v>
+        <v>45973.45833333334</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>6792</v>
       </c>
       <c r="C142">
         <v>45</v>
@@ -2959,10 +3247,10 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>45970.46875</v>
+        <v>45973.46875</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>6770</v>
       </c>
       <c r="C143">
         <v>46</v>
@@ -2973,10 +3261,10 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>45970.47916666666</v>
+        <v>45973.47916666666</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>6826</v>
       </c>
       <c r="C144">
         <v>47</v>
@@ -2987,10 +3275,10 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>45970.48958333334</v>
+        <v>45973.48958333334</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>6910</v>
       </c>
       <c r="C145">
         <v>48</v>
@@ -3001,10 +3289,10 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>45970.5</v>
+        <v>45973.5</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>6859</v>
       </c>
       <c r="C146">
         <v>49</v>
@@ -3015,10 +3303,10 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>45970.51041666666</v>
+        <v>45973.51041666666</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>6999</v>
       </c>
       <c r="C147">
         <v>50</v>
@@ -3029,10 +3317,10 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>45970.52083333334</v>
+        <v>45973.52083333334</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>6992</v>
       </c>
       <c r="C148">
         <v>51</v>
@@ -3043,10 +3331,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>45970.53125</v>
+        <v>45973.53125</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>6997</v>
       </c>
       <c r="C149">
         <v>52</v>
@@ -3057,10 +3345,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>45970.54166666666</v>
+        <v>45973.54166666666</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>7010</v>
       </c>
       <c r="C150">
         <v>53</v>
@@ -3071,10 +3359,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>45970.55208333334</v>
+        <v>45973.55208333334</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>7013</v>
       </c>
       <c r="C151">
         <v>54</v>
@@ -3085,10 +3373,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>45970.5625</v>
+        <v>45973.5625</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>7030</v>
       </c>
       <c r="C152">
         <v>55</v>
@@ -3099,10 +3387,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>45970.57291666666</v>
+        <v>45973.57291666666</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>7110</v>
       </c>
       <c r="C153">
         <v>56</v>
@@ -3113,10 +3401,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>45970.58333333334</v>
+        <v>45973.58333333334</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>7038</v>
       </c>
       <c r="C154">
         <v>57</v>
@@ -3127,10 +3415,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>45970.59375</v>
+        <v>45973.59375</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>7119</v>
       </c>
       <c r="C155">
         <v>58</v>
@@ -3141,10 +3429,10 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>45970.60416666666</v>
+        <v>45973.60416666666</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>7176</v>
       </c>
       <c r="C156">
         <v>59</v>
@@ -3155,10 +3443,10 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>45970.61458333334</v>
+        <v>45973.61458333334</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>7235</v>
       </c>
       <c r="C157">
         <v>60</v>
@@ -3169,10 +3457,10 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>45970.625</v>
+        <v>45973.625</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>7325</v>
       </c>
       <c r="C158">
         <v>61</v>
@@ -3183,10 +3471,10 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>45970.63541666666</v>
+        <v>45973.63541666666</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>7351</v>
       </c>
       <c r="C159">
         <v>62</v>
@@ -3197,10 +3485,10 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>45970.64583333334</v>
+        <v>45973.64583333334</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>7418</v>
       </c>
       <c r="C160">
         <v>63</v>
@@ -3211,10 +3499,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>45970.65625</v>
+        <v>45973.65625</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>7553</v>
       </c>
       <c r="C161">
         <v>64</v>
@@ -3225,10 +3513,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>45970.66666666666</v>
+        <v>45973.66666666666</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>7657</v>
       </c>
       <c r="C162">
         <v>65</v>
@@ -3239,10 +3527,10 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>45970.67708333334</v>
+        <v>45973.67708333334</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>7778</v>
       </c>
       <c r="C163">
         <v>66</v>
@@ -3253,10 +3541,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>45970.6875</v>
+        <v>45973.6875</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>7852</v>
       </c>
       <c r="C164">
         <v>67</v>
@@ -3267,10 +3555,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>45970.69791666666</v>
+        <v>45973.69791666666</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>7881</v>
       </c>
       <c r="C165">
         <v>68</v>
@@ -3281,10 +3569,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>45970.70833333334</v>
+        <v>45973.70833333334</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>7879</v>
       </c>
       <c r="C166">
         <v>69</v>
@@ -3295,10 +3583,10 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>45970.71875</v>
+        <v>45973.71875</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>7829</v>
       </c>
       <c r="C167">
         <v>70</v>
@@ -3309,10 +3597,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>45970.72916666666</v>
+        <v>45973.72916666666</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>7843</v>
       </c>
       <c r="C168">
         <v>71</v>
@@ -3323,10 +3611,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>45970.73958333334</v>
+        <v>45973.73958333334</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>7869</v>
       </c>
       <c r="C169">
         <v>72</v>
@@ -3337,10 +3625,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>45970.75</v>
+        <v>45973.75</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>7761</v>
       </c>
       <c r="C170">
         <v>73</v>
@@ -3351,10 +3639,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>45970.76041666666</v>
+        <v>45973.76041666666</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>7768</v>
       </c>
       <c r="C171">
         <v>74</v>
@@ -3365,10 +3653,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>45970.77083333334</v>
+        <v>45973.77083333334</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>7755</v>
       </c>
       <c r="C172">
         <v>75</v>
@@ -3379,10 +3667,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>45970.78125</v>
+        <v>45973.78125</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>7795</v>
       </c>
       <c r="C173">
         <v>76</v>
@@ -3393,10 +3681,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>45970.79166666666</v>
+        <v>45973.79166666666</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>7696</v>
       </c>
       <c r="C174">
         <v>77</v>
@@ -3407,10 +3695,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>45970.80208333334</v>
+        <v>45973.80208333334</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>7644</v>
       </c>
       <c r="C175">
         <v>78</v>
@@ -3421,10 +3709,10 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>45970.8125</v>
+        <v>45973.8125</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>7591</v>
       </c>
       <c r="C176">
         <v>79</v>
@@ -3435,10 +3723,10 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>45970.82291666666</v>
+        <v>45973.82291666666</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>7478</v>
       </c>
       <c r="C177">
         <v>80</v>
@@ -3449,10 +3737,10 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>45970.83333333334</v>
+        <v>45973.83333333334</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>7358</v>
       </c>
       <c r="C178">
         <v>81</v>
@@ -3463,10 +3751,10 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>45970.84375</v>
+        <v>45973.84375</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>7262</v>
       </c>
       <c r="C179">
         <v>82</v>
@@ -3477,10 +3765,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>45970.85416666666</v>
+        <v>45973.85416666666</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>7168</v>
       </c>
       <c r="C180">
         <v>83</v>
@@ -3491,10 +3779,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>45970.86458333334</v>
+        <v>45973.86458333334</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>7017</v>
       </c>
       <c r="C181">
         <v>84</v>
@@ -3505,10 +3793,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>45970.875</v>
+        <v>45973.875</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>6847</v>
       </c>
       <c r="C182">
         <v>85</v>
@@ -3519,10 +3807,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>45970.88541666666</v>
+        <v>45973.88541666666</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>6661</v>
       </c>
       <c r="C183">
         <v>86</v>
@@ -3533,10 +3821,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>45970.89583333334</v>
+        <v>45973.89583333334</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>6509</v>
       </c>
       <c r="C184">
         <v>87</v>
@@ -3547,10 +3835,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>45970.90625</v>
+        <v>45973.90625</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>6356</v>
       </c>
       <c r="C185">
         <v>88</v>
@@ -3561,10 +3849,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>45970.91666666666</v>
+        <v>45973.91666666666</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>6248</v>
       </c>
       <c r="C186">
         <v>89</v>
@@ -3575,10 +3863,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>45970.92708333334</v>
+        <v>45973.92708333334</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>6104</v>
       </c>
       <c r="C187">
         <v>90</v>
@@ -3589,10 +3877,10 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>45970.9375</v>
+        <v>45973.9375</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>6048</v>
       </c>
       <c r="C188">
         <v>91</v>
@@ -3603,10 +3891,10 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>45970.94791666666</v>
+        <v>45973.94791666666</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>5947</v>
       </c>
       <c r="C189">
         <v>92</v>
@@ -3617,10 +3905,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>45970.95833333334</v>
+        <v>45973.95833333334</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>5894</v>
       </c>
       <c r="C190">
         <v>93</v>
@@ -3631,10 +3919,10 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>45970.96875</v>
+        <v>45973.96875</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>5814</v>
       </c>
       <c r="C191">
         <v>94</v>
@@ -3645,10 +3933,10 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>45970.97916666666</v>
+        <v>45973.97916666666</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>5757</v>
       </c>
       <c r="C192">
         <v>95</v>
@@ -3659,16 +3947,1360 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>45970.98958333334</v>
+        <v>45973.98958333334</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>5707</v>
       </c>
       <c r="C193">
         <v>96</v>
       </c>
       <c r="D193" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
+        <v>45974</v>
+      </c>
+      <c r="B194">
+        <v>5667</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
+        <v>45974.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>5580</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+      <c r="D195" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
+        <v>45974.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>5539</v>
+      </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
+      <c r="D196" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
+        <v>45974.03125</v>
+      </c>
+      <c r="B197">
+        <v>5549</v>
+      </c>
+      <c r="C197">
+        <v>4</v>
+      </c>
+      <c r="D197" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
+        <v>45974.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>5534</v>
+      </c>
+      <c r="C198">
+        <v>5</v>
+      </c>
+      <c r="D198" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
+        <v>45974.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>5514</v>
+      </c>
+      <c r="C199">
+        <v>6</v>
+      </c>
+      <c r="D199" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
+        <v>45974.0625</v>
+      </c>
+      <c r="B200">
+        <v>5515</v>
+      </c>
+      <c r="C200">
+        <v>7</v>
+      </c>
+      <c r="D200" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
+        <v>45974.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>5469</v>
+      </c>
+      <c r="C201">
+        <v>8</v>
+      </c>
+      <c r="D201" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
+        <v>45974.08333333334</v>
+      </c>
+      <c r="B202">
+        <v>5493</v>
+      </c>
+      <c r="C202">
+        <v>9</v>
+      </c>
+      <c r="D202" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
+        <v>45974.09375</v>
+      </c>
+      <c r="B203">
+        <v>5503</v>
+      </c>
+      <c r="C203">
+        <v>10</v>
+      </c>
+      <c r="D203" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
+        <v>45974.10416666666</v>
+      </c>
+      <c r="B204">
+        <v>5478</v>
+      </c>
+      <c r="C204">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
+        <v>45974.11458333334</v>
+      </c>
+      <c r="B205">
+        <v>5530</v>
+      </c>
+      <c r="C205">
+        <v>12</v>
+      </c>
+      <c r="D205" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
+        <v>45974.125</v>
+      </c>
+      <c r="B206">
+        <v>5552</v>
+      </c>
+      <c r="C206">
+        <v>13</v>
+      </c>
+      <c r="D206" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
+        <v>45974.13541666666</v>
+      </c>
+      <c r="B207">
+        <v>5578</v>
+      </c>
+      <c r="C207">
+        <v>14</v>
+      </c>
+      <c r="D207" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
+        <v>45974.14583333334</v>
+      </c>
+      <c r="B208">
+        <v>5584</v>
+      </c>
+      <c r="C208">
+        <v>15</v>
+      </c>
+      <c r="D208" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
+        <v>45974.15625</v>
+      </c>
+      <c r="B209">
+        <v>5627</v>
+      </c>
+      <c r="C209">
+        <v>16</v>
+      </c>
+      <c r="D209" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
+        <v>45974.16666666666</v>
+      </c>
+      <c r="B210">
+        <v>5708</v>
+      </c>
+      <c r="C210">
+        <v>17</v>
+      </c>
+      <c r="D210" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
+        <v>45974.17708333334</v>
+      </c>
+      <c r="B211">
+        <v>5801</v>
+      </c>
+      <c r="C211">
+        <v>18</v>
+      </c>
+      <c r="D211" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
+        <v>45974.1875</v>
+      </c>
+      <c r="B212">
+        <v>5875</v>
+      </c>
+      <c r="C212">
+        <v>19</v>
+      </c>
+      <c r="D212" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
+        <v>45974.19791666666</v>
+      </c>
+      <c r="B213">
+        <v>5982</v>
+      </c>
+      <c r="C213">
+        <v>20</v>
+      </c>
+      <c r="D213" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
+        <v>45974.20833333334</v>
+      </c>
+      <c r="B214">
+        <v>6173</v>
+      </c>
+      <c r="C214">
+        <v>21</v>
+      </c>
+      <c r="D214" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
+        <v>45974.21875</v>
+      </c>
+      <c r="B215">
+        <v>6326</v>
+      </c>
+      <c r="C215">
+        <v>22</v>
+      </c>
+      <c r="D215" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
+        <v>45974.22916666666</v>
+      </c>
+      <c r="B216">
+        <v>6473</v>
+      </c>
+      <c r="C216">
+        <v>23</v>
+      </c>
+      <c r="D216" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
+        <v>45974.23958333334</v>
+      </c>
+      <c r="B217">
+        <v>6640</v>
+      </c>
+      <c r="C217">
+        <v>24</v>
+      </c>
+      <c r="D217" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
+        <v>45974.25</v>
+      </c>
+      <c r="B218">
+        <v>6943</v>
+      </c>
+      <c r="C218">
+        <v>25</v>
+      </c>
+      <c r="D218" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
+        <v>45974.26041666666</v>
+      </c>
+      <c r="B219">
+        <v>7072</v>
+      </c>
+      <c r="C219">
+        <v>26</v>
+      </c>
+      <c r="D219" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
+        <v>45974.27083333334</v>
+      </c>
+      <c r="B220">
+        <v>7189</v>
+      </c>
+      <c r="C220">
+        <v>27</v>
+      </c>
+      <c r="D220" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
+        <v>45974.28125</v>
+      </c>
+      <c r="B221">
+        <v>7224</v>
+      </c>
+      <c r="C221">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
+        <v>45974.29166666666</v>
+      </c>
+      <c r="B222">
+        <v>7362</v>
+      </c>
+      <c r="C222">
+        <v>29</v>
+      </c>
+      <c r="D222" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
+        <v>45974.30208333334</v>
+      </c>
+      <c r="B223">
+        <v>7438</v>
+      </c>
+      <c r="C223">
+        <v>30</v>
+      </c>
+      <c r="D223" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
+        <v>45974.3125</v>
+      </c>
+      <c r="B224">
+        <v>7436</v>
+      </c>
+      <c r="C224">
+        <v>31</v>
+      </c>
+      <c r="D224" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
+        <v>45974.32291666666</v>
+      </c>
+      <c r="B225">
+        <v>7376</v>
+      </c>
+      <c r="C225">
+        <v>32</v>
+      </c>
+      <c r="D225" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
+        <v>45974.33333333334</v>
+      </c>
+      <c r="B226">
+        <v>7329</v>
+      </c>
+      <c r="C226">
+        <v>33</v>
+      </c>
+      <c r="D226" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
+        <v>45974.34375</v>
+      </c>
+      <c r="B227">
+        <v>7228</v>
+      </c>
+      <c r="C227">
+        <v>34</v>
+      </c>
+      <c r="D227" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
+        <v>45974.35416666666</v>
+      </c>
+      <c r="B228">
+        <v>7165</v>
+      </c>
+      <c r="C228">
+        <v>35</v>
+      </c>
+      <c r="D228" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
+        <v>45974.36458333334</v>
+      </c>
+      <c r="B229">
+        <v>7066</v>
+      </c>
+      <c r="C229">
+        <v>36</v>
+      </c>
+      <c r="D229" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
+        <v>45974.375</v>
+      </c>
+      <c r="B230">
+        <v>7041</v>
+      </c>
+      <c r="C230">
+        <v>37</v>
+      </c>
+      <c r="D230" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="2">
+        <v>45974.38541666666</v>
+      </c>
+      <c r="B231">
+        <v>6910</v>
+      </c>
+      <c r="C231">
+        <v>38</v>
+      </c>
+      <c r="D231" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="2">
+        <v>45974.39583333334</v>
+      </c>
+      <c r="B232">
+        <v>6788</v>
+      </c>
+      <c r="C232">
+        <v>39</v>
+      </c>
+      <c r="D232" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="2">
+        <v>45974.40625</v>
+      </c>
+      <c r="B233">
+        <v>6692</v>
+      </c>
+      <c r="C233">
+        <v>40</v>
+      </c>
+      <c r="D233" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="2">
+        <v>45974.41666666666</v>
+      </c>
+      <c r="B234">
+        <v>6588</v>
+      </c>
+      <c r="C234">
+        <v>41</v>
+      </c>
+      <c r="D234" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="2">
+        <v>45974.42708333334</v>
+      </c>
+      <c r="B235">
+        <v>6563</v>
+      </c>
+      <c r="C235">
+        <v>42</v>
+      </c>
+      <c r="D235" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="2">
+        <v>45974.4375</v>
+      </c>
+      <c r="B236">
+        <v>6524</v>
+      </c>
+      <c r="C236">
+        <v>43</v>
+      </c>
+      <c r="D236" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="2">
+        <v>45974.44791666666</v>
+      </c>
+      <c r="B237">
+        <v>6535</v>
+      </c>
+      <c r="C237">
+        <v>44</v>
+      </c>
+      <c r="D237" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="2">
+        <v>45974.45833333334</v>
+      </c>
+      <c r="B238">
+        <v>6479</v>
+      </c>
+      <c r="C238">
+        <v>45</v>
+      </c>
+      <c r="D238" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="2">
+        <v>45974.46875</v>
+      </c>
+      <c r="B239">
+        <v>6450</v>
+      </c>
+      <c r="C239">
+        <v>46</v>
+      </c>
+      <c r="D239" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="2">
+        <v>45974.47916666666</v>
+      </c>
+      <c r="B240">
+        <v>6392</v>
+      </c>
+      <c r="C240">
+        <v>47</v>
+      </c>
+      <c r="D240" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="2">
+        <v>45974.48958333334</v>
+      </c>
+      <c r="B241">
+        <v>6457</v>
+      </c>
+      <c r="C241">
+        <v>48</v>
+      </c>
+      <c r="D241" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
+        <v>45974.5</v>
+      </c>
+      <c r="B242">
+        <v>6424</v>
+      </c>
+      <c r="C242">
+        <v>49</v>
+      </c>
+      <c r="D242" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
+        <v>45974.51041666666</v>
+      </c>
+      <c r="B243">
+        <v>6497</v>
+      </c>
+      <c r="C243">
+        <v>50</v>
+      </c>
+      <c r="D243" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
+        <v>45974.52083333334</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <v>51</v>
+      </c>
+      <c r="D244" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
+        <v>45974.53125</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>52</v>
+      </c>
+      <c r="D245" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
+        <v>45974.54166666666</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>53</v>
+      </c>
+      <c r="D246" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
+        <v>45974.55208333334</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>54</v>
+      </c>
+      <c r="D247" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
+        <v>45974.5625</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+      <c r="C248">
+        <v>55</v>
+      </c>
+      <c r="D248" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="2">
+        <v>45974.57291666666</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>56</v>
+      </c>
+      <c r="D249" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="2">
+        <v>45974.58333333334</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <v>57</v>
+      </c>
+      <c r="D250" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="2">
+        <v>45974.59375</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>58</v>
+      </c>
+      <c r="D251" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="2">
+        <v>45974.60416666666</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+      <c r="C252">
+        <v>59</v>
+      </c>
+      <c r="D252" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="2">
+        <v>45974.61458333334</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>60</v>
+      </c>
+      <c r="D253" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="2">
+        <v>45974.625</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>61</v>
+      </c>
+      <c r="D254" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="2">
+        <v>45974.63541666666</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>62</v>
+      </c>
+      <c r="D255" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="2">
+        <v>45974.64583333334</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <v>63</v>
+      </c>
+      <c r="D256" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="2">
+        <v>45974.65625</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+      <c r="C257">
+        <v>64</v>
+      </c>
+      <c r="D257" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="2">
+        <v>45974.66666666666</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <v>65</v>
+      </c>
+      <c r="D258" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="2">
+        <v>45974.67708333334</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+      <c r="C259">
+        <v>66</v>
+      </c>
+      <c r="D259" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="2">
+        <v>45974.6875</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <v>67</v>
+      </c>
+      <c r="D260" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="2">
+        <v>45974.69791666666</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+      <c r="C261">
+        <v>68</v>
+      </c>
+      <c r="D261" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="2">
+        <v>45974.70833333334</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+      <c r="C262">
+        <v>69</v>
+      </c>
+      <c r="D262" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="2">
+        <v>45974.71875</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <v>70</v>
+      </c>
+      <c r="D263" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="2">
+        <v>45974.72916666666</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <v>71</v>
+      </c>
+      <c r="D264" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="2">
+        <v>45974.73958333334</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>72</v>
+      </c>
+      <c r="D265" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="2">
+        <v>45974.75</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>73</v>
+      </c>
+      <c r="D266" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="2">
+        <v>45974.76041666666</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>74</v>
+      </c>
+      <c r="D267" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="2">
+        <v>45974.77083333334</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>75</v>
+      </c>
+      <c r="D268" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="2">
+        <v>45974.78125</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>76</v>
+      </c>
+      <c r="D269" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="2">
+        <v>45974.79166666666</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>77</v>
+      </c>
+      <c r="D270" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="2">
+        <v>45974.80208333334</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>78</v>
+      </c>
+      <c r="D271" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="2">
+        <v>45974.8125</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+      <c r="C272">
+        <v>79</v>
+      </c>
+      <c r="D272" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="2">
+        <v>45974.82291666666</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>80</v>
+      </c>
+      <c r="D273" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="2">
+        <v>45974.83333333334</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+      <c r="C274">
+        <v>81</v>
+      </c>
+      <c r="D274" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="2">
+        <v>45974.84375</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>82</v>
+      </c>
+      <c r="D275" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="2">
+        <v>45974.85416666666</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <v>83</v>
+      </c>
+      <c r="D276" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="2">
+        <v>45974.86458333334</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <v>84</v>
+      </c>
+      <c r="D277" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="2">
+        <v>45974.875</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>85</v>
+      </c>
+      <c r="D278" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="2">
+        <v>45974.88541666666</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>86</v>
+      </c>
+      <c r="D279" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="2">
+        <v>45974.89583333334</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+      <c r="C280">
+        <v>87</v>
+      </c>
+      <c r="D280" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="2">
+        <v>45974.90625</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <v>88</v>
+      </c>
+      <c r="D281" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="2">
+        <v>45974.91666666666</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <v>89</v>
+      </c>
+      <c r="D282" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="2">
+        <v>45974.92708333334</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <v>90</v>
+      </c>
+      <c r="D283" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="2">
+        <v>45974.9375</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>91</v>
+      </c>
+      <c r="D284" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="2">
+        <v>45974.94791666666</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <v>92</v>
+      </c>
+      <c r="D285" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="2">
+        <v>45974.95833333334</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <v>93</v>
+      </c>
+      <c r="D286" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="2">
+        <v>45974.96875</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>94</v>
+      </c>
+      <c r="D287" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="2">
+        <v>45974.97916666666</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <v>95</v>
+      </c>
+      <c r="D288" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="2">
+        <v>45974.98958333334</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>96</v>
+      </c>
+      <c r="D289" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
@@ -28,580 +28,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>20.11.20251</t>
-  </si>
-  <si>
-    <t>20.11.20252</t>
-  </si>
-  <si>
-    <t>20.11.20253</t>
-  </si>
-  <si>
-    <t>20.11.20254</t>
-  </si>
-  <si>
-    <t>20.11.20255</t>
-  </si>
-  <si>
-    <t>20.11.20256</t>
-  </si>
-  <si>
-    <t>20.11.20257</t>
-  </si>
-  <si>
-    <t>20.11.20258</t>
-  </si>
-  <si>
-    <t>20.11.20259</t>
-  </si>
-  <si>
-    <t>20.11.202510</t>
-  </si>
-  <si>
-    <t>20.11.202511</t>
-  </si>
-  <si>
-    <t>20.11.202512</t>
-  </si>
-  <si>
-    <t>20.11.202513</t>
-  </si>
-  <si>
-    <t>20.11.202514</t>
-  </si>
-  <si>
-    <t>20.11.202515</t>
-  </si>
-  <si>
-    <t>20.11.202516</t>
-  </si>
-  <si>
-    <t>20.11.202517</t>
-  </si>
-  <si>
-    <t>20.11.202518</t>
-  </si>
-  <si>
-    <t>20.11.202519</t>
-  </si>
-  <si>
-    <t>20.11.202520</t>
-  </si>
-  <si>
-    <t>20.11.202521</t>
-  </si>
-  <si>
-    <t>20.11.202522</t>
-  </si>
-  <si>
-    <t>20.11.202523</t>
-  </si>
-  <si>
-    <t>20.11.202524</t>
-  </si>
-  <si>
-    <t>20.11.202525</t>
-  </si>
-  <si>
-    <t>20.11.202526</t>
-  </si>
-  <si>
-    <t>20.11.202527</t>
-  </si>
-  <si>
-    <t>20.11.202528</t>
-  </si>
-  <si>
-    <t>20.11.202529</t>
-  </si>
-  <si>
-    <t>20.11.202530</t>
-  </si>
-  <si>
-    <t>20.11.202531</t>
-  </si>
-  <si>
-    <t>20.11.202532</t>
-  </si>
-  <si>
-    <t>20.11.202533</t>
-  </si>
-  <si>
-    <t>20.11.202534</t>
-  </si>
-  <si>
-    <t>20.11.202535</t>
-  </si>
-  <si>
-    <t>20.11.202536</t>
-  </si>
-  <si>
-    <t>20.11.202537</t>
-  </si>
-  <si>
-    <t>20.11.202538</t>
-  </si>
-  <si>
-    <t>20.11.202539</t>
-  </si>
-  <si>
-    <t>20.11.202540</t>
-  </si>
-  <si>
-    <t>20.11.202541</t>
-  </si>
-  <si>
-    <t>20.11.202542</t>
-  </si>
-  <si>
-    <t>20.11.202543</t>
-  </si>
-  <si>
-    <t>20.11.202544</t>
-  </si>
-  <si>
-    <t>20.11.202545</t>
-  </si>
-  <si>
-    <t>20.11.202546</t>
-  </si>
-  <si>
-    <t>20.11.202547</t>
-  </si>
-  <si>
-    <t>20.11.202548</t>
-  </si>
-  <si>
-    <t>20.11.202549</t>
-  </si>
-  <si>
-    <t>20.11.202550</t>
-  </si>
-  <si>
-    <t>20.11.202551</t>
-  </si>
-  <si>
-    <t>20.11.202552</t>
-  </si>
-  <si>
-    <t>20.11.202553</t>
-  </si>
-  <si>
-    <t>20.11.202554</t>
-  </si>
-  <si>
-    <t>20.11.202555</t>
-  </si>
-  <si>
-    <t>20.11.202556</t>
-  </si>
-  <si>
-    <t>20.11.202557</t>
-  </si>
-  <si>
-    <t>20.11.202558</t>
-  </si>
-  <si>
-    <t>20.11.202559</t>
-  </si>
-  <si>
-    <t>20.11.202560</t>
-  </si>
-  <si>
-    <t>20.11.202561</t>
-  </si>
-  <si>
-    <t>20.11.202562</t>
-  </si>
-  <si>
-    <t>20.11.202563</t>
-  </si>
-  <si>
-    <t>20.11.202564</t>
-  </si>
-  <si>
-    <t>20.11.202565</t>
-  </si>
-  <si>
-    <t>20.11.202566</t>
-  </si>
-  <si>
-    <t>20.11.202567</t>
-  </si>
-  <si>
-    <t>20.11.202568</t>
-  </si>
-  <si>
-    <t>20.11.202569</t>
-  </si>
-  <si>
-    <t>20.11.202570</t>
-  </si>
-  <si>
-    <t>20.11.202571</t>
-  </si>
-  <si>
-    <t>20.11.202572</t>
-  </si>
-  <si>
-    <t>20.11.202573</t>
-  </si>
-  <si>
-    <t>20.11.202574</t>
-  </si>
-  <si>
-    <t>20.11.202575</t>
-  </si>
-  <si>
-    <t>20.11.202576</t>
-  </si>
-  <si>
-    <t>20.11.202577</t>
-  </si>
-  <si>
-    <t>20.11.202578</t>
-  </si>
-  <si>
-    <t>20.11.202579</t>
-  </si>
-  <si>
-    <t>20.11.202580</t>
-  </si>
-  <si>
-    <t>20.11.202581</t>
-  </si>
-  <si>
-    <t>20.11.202582</t>
-  </si>
-  <si>
-    <t>20.11.202583</t>
-  </si>
-  <si>
-    <t>20.11.202584</t>
-  </si>
-  <si>
-    <t>20.11.202585</t>
-  </si>
-  <si>
-    <t>20.11.202586</t>
-  </si>
-  <si>
-    <t>20.11.202587</t>
-  </si>
-  <si>
-    <t>20.11.202588</t>
-  </si>
-  <si>
-    <t>20.11.202589</t>
-  </si>
-  <si>
-    <t>20.11.202590</t>
-  </si>
-  <si>
-    <t>20.11.202591</t>
-  </si>
-  <si>
-    <t>20.11.202592</t>
-  </si>
-  <si>
-    <t>20.11.202593</t>
-  </si>
-  <si>
-    <t>20.11.202594</t>
-  </si>
-  <si>
-    <t>20.11.202595</t>
-  </si>
-  <si>
-    <t>20.11.202596</t>
-  </si>
-  <si>
-    <t>21.11.20251</t>
-  </si>
-  <si>
-    <t>21.11.20252</t>
-  </si>
-  <si>
-    <t>21.11.20253</t>
-  </si>
-  <si>
-    <t>21.11.20254</t>
-  </si>
-  <si>
-    <t>21.11.20255</t>
-  </si>
-  <si>
-    <t>21.11.20256</t>
-  </si>
-  <si>
-    <t>21.11.20257</t>
-  </si>
-  <si>
-    <t>21.11.20258</t>
-  </si>
-  <si>
-    <t>21.11.20259</t>
-  </si>
-  <si>
-    <t>21.11.202510</t>
-  </si>
-  <si>
-    <t>21.11.202511</t>
-  </si>
-  <si>
-    <t>21.11.202512</t>
-  </si>
-  <si>
-    <t>21.11.202513</t>
-  </si>
-  <si>
-    <t>21.11.202514</t>
-  </si>
-  <si>
-    <t>21.11.202515</t>
-  </si>
-  <si>
-    <t>21.11.202516</t>
-  </si>
-  <si>
-    <t>21.11.202517</t>
-  </si>
-  <si>
-    <t>21.11.202518</t>
-  </si>
-  <si>
-    <t>21.11.202519</t>
-  </si>
-  <si>
-    <t>21.11.202520</t>
-  </si>
-  <si>
-    <t>21.11.202521</t>
-  </si>
-  <si>
-    <t>21.11.202522</t>
-  </si>
-  <si>
-    <t>21.11.202523</t>
-  </si>
-  <si>
-    <t>21.11.202524</t>
-  </si>
-  <si>
-    <t>21.11.202525</t>
-  </si>
-  <si>
-    <t>21.11.202526</t>
-  </si>
-  <si>
-    <t>21.11.202527</t>
-  </si>
-  <si>
-    <t>21.11.202528</t>
-  </si>
-  <si>
-    <t>21.11.202529</t>
-  </si>
-  <si>
-    <t>21.11.202530</t>
-  </si>
-  <si>
-    <t>21.11.202531</t>
-  </si>
-  <si>
-    <t>21.11.202532</t>
-  </si>
-  <si>
-    <t>21.11.202533</t>
-  </si>
-  <si>
-    <t>21.11.202534</t>
-  </si>
-  <si>
-    <t>21.11.202535</t>
-  </si>
-  <si>
-    <t>21.11.202536</t>
-  </si>
-  <si>
-    <t>21.11.202537</t>
-  </si>
-  <si>
-    <t>21.11.202538</t>
-  </si>
-  <si>
-    <t>21.11.202539</t>
-  </si>
-  <si>
-    <t>21.11.202540</t>
-  </si>
-  <si>
-    <t>21.11.202541</t>
-  </si>
-  <si>
-    <t>21.11.202542</t>
-  </si>
-  <si>
-    <t>21.11.202543</t>
-  </si>
-  <si>
-    <t>21.11.202544</t>
-  </si>
-  <si>
-    <t>21.11.202545</t>
-  </si>
-  <si>
-    <t>21.11.202546</t>
-  </si>
-  <si>
-    <t>21.11.202547</t>
-  </si>
-  <si>
-    <t>21.11.202548</t>
-  </si>
-  <si>
-    <t>21.11.202549</t>
-  </si>
-  <si>
-    <t>21.11.202550</t>
-  </si>
-  <si>
-    <t>21.11.202551</t>
-  </si>
-  <si>
-    <t>21.11.202552</t>
-  </si>
-  <si>
-    <t>21.11.202553</t>
-  </si>
-  <si>
-    <t>21.11.202554</t>
-  </si>
-  <si>
-    <t>21.11.202555</t>
-  </si>
-  <si>
-    <t>21.11.202556</t>
-  </si>
-  <si>
-    <t>21.11.202557</t>
-  </si>
-  <si>
-    <t>21.11.202558</t>
-  </si>
-  <si>
-    <t>21.11.202559</t>
-  </si>
-  <si>
-    <t>21.11.202560</t>
-  </si>
-  <si>
-    <t>21.11.202561</t>
-  </si>
-  <si>
-    <t>21.11.202562</t>
-  </si>
-  <si>
-    <t>21.11.202563</t>
-  </si>
-  <si>
-    <t>21.11.202564</t>
-  </si>
-  <si>
-    <t>21.11.202565</t>
-  </si>
-  <si>
-    <t>21.11.202566</t>
-  </si>
-  <si>
-    <t>21.11.202567</t>
-  </si>
-  <si>
-    <t>21.11.202568</t>
-  </si>
-  <si>
-    <t>21.11.202569</t>
-  </si>
-  <si>
-    <t>21.11.202570</t>
-  </si>
-  <si>
-    <t>21.11.202571</t>
-  </si>
-  <si>
-    <t>21.11.202572</t>
-  </si>
-  <si>
-    <t>21.11.202573</t>
-  </si>
-  <si>
-    <t>21.11.202574</t>
-  </si>
-  <si>
-    <t>21.11.202575</t>
-  </si>
-  <si>
-    <t>21.11.202576</t>
-  </si>
-  <si>
-    <t>21.11.202577</t>
-  </si>
-  <si>
-    <t>21.11.202578</t>
-  </si>
-  <si>
-    <t>21.11.202579</t>
-  </si>
-  <si>
-    <t>21.11.202580</t>
-  </si>
-  <si>
-    <t>21.11.202581</t>
-  </si>
-  <si>
-    <t>21.11.202582</t>
-  </si>
-  <si>
-    <t>21.11.202583</t>
-  </si>
-  <si>
-    <t>21.11.202584</t>
-  </si>
-  <si>
-    <t>21.11.202585</t>
-  </si>
-  <si>
-    <t>21.11.202586</t>
-  </si>
-  <si>
-    <t>21.11.202587</t>
-  </si>
-  <si>
-    <t>21.11.202588</t>
-  </si>
-  <si>
-    <t>21.11.202589</t>
-  </si>
-  <si>
-    <t>21.11.202590</t>
-  </si>
-  <si>
-    <t>21.11.202591</t>
-  </si>
-  <si>
-    <t>21.11.202592</t>
-  </si>
-  <si>
-    <t>21.11.202593</t>
-  </si>
-  <si>
-    <t>21.11.202594</t>
-  </si>
-  <si>
-    <t>21.11.202595</t>
-  </si>
-  <si>
-    <t>21.11.202596</t>
+    <t>23.11.20251</t>
+  </si>
+  <si>
+    <t>23.11.20252</t>
+  </si>
+  <si>
+    <t>23.11.20253</t>
+  </si>
+  <si>
+    <t>23.11.20254</t>
+  </si>
+  <si>
+    <t>23.11.20255</t>
+  </si>
+  <si>
+    <t>23.11.20256</t>
+  </si>
+  <si>
+    <t>23.11.20257</t>
+  </si>
+  <si>
+    <t>23.11.20258</t>
+  </si>
+  <si>
+    <t>23.11.20259</t>
+  </si>
+  <si>
+    <t>23.11.202510</t>
+  </si>
+  <si>
+    <t>23.11.202511</t>
+  </si>
+  <si>
+    <t>23.11.202512</t>
+  </si>
+  <si>
+    <t>23.11.202513</t>
+  </si>
+  <si>
+    <t>23.11.202514</t>
+  </si>
+  <si>
+    <t>23.11.202515</t>
+  </si>
+  <si>
+    <t>23.11.202516</t>
+  </si>
+  <si>
+    <t>23.11.202517</t>
+  </si>
+  <si>
+    <t>23.11.202518</t>
+  </si>
+  <si>
+    <t>23.11.202519</t>
+  </si>
+  <si>
+    <t>23.11.202520</t>
+  </si>
+  <si>
+    <t>23.11.202521</t>
+  </si>
+  <si>
+    <t>23.11.202522</t>
+  </si>
+  <si>
+    <t>23.11.202523</t>
+  </si>
+  <si>
+    <t>23.11.202524</t>
+  </si>
+  <si>
+    <t>23.11.202525</t>
+  </si>
+  <si>
+    <t>23.11.202526</t>
+  </si>
+  <si>
+    <t>23.11.202527</t>
+  </si>
+  <si>
+    <t>23.11.202528</t>
+  </si>
+  <si>
+    <t>23.11.202529</t>
+  </si>
+  <si>
+    <t>23.11.202530</t>
+  </si>
+  <si>
+    <t>23.11.202531</t>
+  </si>
+  <si>
+    <t>23.11.202532</t>
+  </si>
+  <si>
+    <t>23.11.202533</t>
+  </si>
+  <si>
+    <t>23.11.202534</t>
+  </si>
+  <si>
+    <t>23.11.202535</t>
+  </si>
+  <si>
+    <t>23.11.202536</t>
+  </si>
+  <si>
+    <t>23.11.202537</t>
+  </si>
+  <si>
+    <t>23.11.202538</t>
+  </si>
+  <si>
+    <t>23.11.202539</t>
+  </si>
+  <si>
+    <t>23.11.202540</t>
+  </si>
+  <si>
+    <t>23.11.202541</t>
+  </si>
+  <si>
+    <t>23.11.202542</t>
+  </si>
+  <si>
+    <t>23.11.202543</t>
+  </si>
+  <si>
+    <t>23.11.202544</t>
+  </si>
+  <si>
+    <t>23.11.202545</t>
+  </si>
+  <si>
+    <t>23.11.202546</t>
+  </si>
+  <si>
+    <t>23.11.202547</t>
+  </si>
+  <si>
+    <t>23.11.202548</t>
+  </si>
+  <si>
+    <t>23.11.202549</t>
+  </si>
+  <si>
+    <t>23.11.202550</t>
+  </si>
+  <si>
+    <t>23.11.202551</t>
+  </si>
+  <si>
+    <t>23.11.202552</t>
+  </si>
+  <si>
+    <t>23.11.202553</t>
+  </si>
+  <si>
+    <t>23.11.202554</t>
+  </si>
+  <si>
+    <t>23.11.202555</t>
+  </si>
+  <si>
+    <t>23.11.202556</t>
+  </si>
+  <si>
+    <t>23.11.202557</t>
+  </si>
+  <si>
+    <t>23.11.202558</t>
+  </si>
+  <si>
+    <t>23.11.202559</t>
+  </si>
+  <si>
+    <t>23.11.202560</t>
+  </si>
+  <si>
+    <t>23.11.202561</t>
+  </si>
+  <si>
+    <t>23.11.202562</t>
+  </si>
+  <si>
+    <t>23.11.202563</t>
+  </si>
+  <si>
+    <t>23.11.202564</t>
+  </si>
+  <si>
+    <t>23.11.202565</t>
+  </si>
+  <si>
+    <t>23.11.202566</t>
+  </si>
+  <si>
+    <t>23.11.202567</t>
+  </si>
+  <si>
+    <t>23.11.202568</t>
+  </si>
+  <si>
+    <t>23.11.202569</t>
+  </si>
+  <si>
+    <t>23.11.202570</t>
+  </si>
+  <si>
+    <t>23.11.202571</t>
+  </si>
+  <si>
+    <t>23.11.202572</t>
+  </si>
+  <si>
+    <t>23.11.202573</t>
+  </si>
+  <si>
+    <t>23.11.202574</t>
+  </si>
+  <si>
+    <t>23.11.202575</t>
+  </si>
+  <si>
+    <t>23.11.202576</t>
+  </si>
+  <si>
+    <t>23.11.202577</t>
+  </si>
+  <si>
+    <t>23.11.202578</t>
+  </si>
+  <si>
+    <t>23.11.202579</t>
+  </si>
+  <si>
+    <t>23.11.202580</t>
+  </si>
+  <si>
+    <t>23.11.202581</t>
+  </si>
+  <si>
+    <t>23.11.202582</t>
+  </si>
+  <si>
+    <t>23.11.202583</t>
+  </si>
+  <si>
+    <t>23.11.202584</t>
+  </si>
+  <si>
+    <t>23.11.202585</t>
+  </si>
+  <si>
+    <t>23.11.202586</t>
+  </si>
+  <si>
+    <t>23.11.202587</t>
+  </si>
+  <si>
+    <t>23.11.202588</t>
+  </si>
+  <si>
+    <t>23.11.202589</t>
+  </si>
+  <si>
+    <t>23.11.202590</t>
+  </si>
+  <si>
+    <t>23.11.202591</t>
+  </si>
+  <si>
+    <t>23.11.202592</t>
+  </si>
+  <si>
+    <t>23.11.202593</t>
+  </si>
+  <si>
+    <t>23.11.202594</t>
+  </si>
+  <si>
+    <t>23.11.202595</t>
+  </si>
+  <si>
+    <t>23.11.202596</t>
+  </si>
+  <si>
+    <t>24.11.20251</t>
+  </si>
+  <si>
+    <t>24.11.20252</t>
+  </si>
+  <si>
+    <t>24.11.20253</t>
+  </si>
+  <si>
+    <t>24.11.20254</t>
+  </si>
+  <si>
+    <t>24.11.20255</t>
+  </si>
+  <si>
+    <t>24.11.20256</t>
+  </si>
+  <si>
+    <t>24.11.20257</t>
+  </si>
+  <si>
+    <t>24.11.20258</t>
+  </si>
+  <si>
+    <t>24.11.20259</t>
+  </si>
+  <si>
+    <t>24.11.202510</t>
+  </si>
+  <si>
+    <t>24.11.202511</t>
+  </si>
+  <si>
+    <t>24.11.202512</t>
+  </si>
+  <si>
+    <t>24.11.202513</t>
+  </si>
+  <si>
+    <t>24.11.202514</t>
+  </si>
+  <si>
+    <t>24.11.202515</t>
+  </si>
+  <si>
+    <t>24.11.202516</t>
+  </si>
+  <si>
+    <t>24.11.202517</t>
+  </si>
+  <si>
+    <t>24.11.202518</t>
+  </si>
+  <si>
+    <t>24.11.202519</t>
+  </si>
+  <si>
+    <t>24.11.202520</t>
+  </si>
+  <si>
+    <t>24.11.202521</t>
+  </si>
+  <si>
+    <t>24.11.202522</t>
+  </si>
+  <si>
+    <t>24.11.202523</t>
+  </si>
+  <si>
+    <t>24.11.202524</t>
+  </si>
+  <si>
+    <t>24.11.202525</t>
+  </si>
+  <si>
+    <t>24.11.202526</t>
+  </si>
+  <si>
+    <t>24.11.202527</t>
+  </si>
+  <si>
+    <t>24.11.202528</t>
+  </si>
+  <si>
+    <t>24.11.202529</t>
+  </si>
+  <si>
+    <t>24.11.202530</t>
+  </si>
+  <si>
+    <t>24.11.202531</t>
+  </si>
+  <si>
+    <t>24.11.202532</t>
+  </si>
+  <si>
+    <t>24.11.202533</t>
+  </si>
+  <si>
+    <t>24.11.202534</t>
+  </si>
+  <si>
+    <t>24.11.202535</t>
+  </si>
+  <si>
+    <t>24.11.202536</t>
+  </si>
+  <si>
+    <t>24.11.202537</t>
+  </si>
+  <si>
+    <t>24.11.202538</t>
+  </si>
+  <si>
+    <t>24.11.202539</t>
+  </si>
+  <si>
+    <t>24.11.202540</t>
+  </si>
+  <si>
+    <t>24.11.202541</t>
+  </si>
+  <si>
+    <t>24.11.202542</t>
+  </si>
+  <si>
+    <t>24.11.202543</t>
+  </si>
+  <si>
+    <t>24.11.202544</t>
+  </si>
+  <si>
+    <t>24.11.202545</t>
+  </si>
+  <si>
+    <t>24.11.202546</t>
+  </si>
+  <si>
+    <t>24.11.202547</t>
+  </si>
+  <si>
+    <t>24.11.202548</t>
+  </si>
+  <si>
+    <t>24.11.202549</t>
+  </si>
+  <si>
+    <t>24.11.202550</t>
+  </si>
+  <si>
+    <t>24.11.202551</t>
+  </si>
+  <si>
+    <t>24.11.202552</t>
+  </si>
+  <si>
+    <t>24.11.202553</t>
+  </si>
+  <si>
+    <t>24.11.202554</t>
+  </si>
+  <si>
+    <t>24.11.202555</t>
+  </si>
+  <si>
+    <t>24.11.202556</t>
+  </si>
+  <si>
+    <t>24.11.202557</t>
+  </si>
+  <si>
+    <t>24.11.202558</t>
+  </si>
+  <si>
+    <t>24.11.202559</t>
+  </si>
+  <si>
+    <t>24.11.202560</t>
+  </si>
+  <si>
+    <t>24.11.202561</t>
+  </si>
+  <si>
+    <t>24.11.202562</t>
+  </si>
+  <si>
+    <t>24.11.202563</t>
+  </si>
+  <si>
+    <t>24.11.202564</t>
+  </si>
+  <si>
+    <t>24.11.202565</t>
+  </si>
+  <si>
+    <t>24.11.202566</t>
+  </si>
+  <si>
+    <t>24.11.202567</t>
+  </si>
+  <si>
+    <t>24.11.202568</t>
+  </si>
+  <si>
+    <t>24.11.202569</t>
+  </si>
+  <si>
+    <t>24.11.202570</t>
+  </si>
+  <si>
+    <t>24.11.202571</t>
+  </si>
+  <si>
+    <t>24.11.202572</t>
+  </si>
+  <si>
+    <t>24.11.202573</t>
+  </si>
+  <si>
+    <t>24.11.202574</t>
+  </si>
+  <si>
+    <t>24.11.202575</t>
+  </si>
+  <si>
+    <t>24.11.202576</t>
+  </si>
+  <si>
+    <t>24.11.202577</t>
+  </si>
+  <si>
+    <t>24.11.202578</t>
+  </si>
+  <si>
+    <t>24.11.202579</t>
+  </si>
+  <si>
+    <t>24.11.202580</t>
+  </si>
+  <si>
+    <t>24.11.202581</t>
+  </si>
+  <si>
+    <t>24.11.202582</t>
+  </si>
+  <si>
+    <t>24.11.202583</t>
+  </si>
+  <si>
+    <t>24.11.202584</t>
+  </si>
+  <si>
+    <t>24.11.202585</t>
+  </si>
+  <si>
+    <t>24.11.202586</t>
+  </si>
+  <si>
+    <t>24.11.202587</t>
+  </si>
+  <si>
+    <t>24.11.202588</t>
+  </si>
+  <si>
+    <t>24.11.202589</t>
+  </si>
+  <si>
+    <t>24.11.202590</t>
+  </si>
+  <si>
+    <t>24.11.202591</t>
+  </si>
+  <si>
+    <t>24.11.202592</t>
+  </si>
+  <si>
+    <t>24.11.202593</t>
+  </si>
+  <si>
+    <t>24.11.202594</t>
+  </si>
+  <si>
+    <t>24.11.202595</t>
+  </si>
+  <si>
+    <t>24.11.202596</t>
   </si>
 </sst>
 </file>
@@ -985,10 +985,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45981</v>
+        <v>45984</v>
       </c>
       <c r="B2">
-        <v>5754</v>
+        <v>5380</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -999,10 +999,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45981.01041666666</v>
+        <v>45984.01041666666</v>
       </c>
       <c r="B3">
-        <v>5735</v>
+        <v>5334</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45981.02083333334</v>
+        <v>45984.02083333334</v>
       </c>
       <c r="B4">
-        <v>5693</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45981.03125</v>
+        <v>45984.03125</v>
       </c>
       <c r="B5">
-        <v>5635</v>
+        <v>5272</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45981.04166666666</v>
+        <v>45984.04166666666</v>
       </c>
       <c r="B6">
-        <v>5637</v>
+        <v>5270</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45981.05208333334</v>
+        <v>45984.05208333334</v>
       </c>
       <c r="B7">
-        <v>5629</v>
+        <v>5262</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45981.0625</v>
+        <v>45984.0625</v>
       </c>
       <c r="B8">
-        <v>5572</v>
+        <v>5273</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45981.07291666666</v>
+        <v>45984.07291666666</v>
       </c>
       <c r="B9">
-        <v>5558</v>
+        <v>5219</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45981.08333333334</v>
+        <v>45984.08333333334</v>
       </c>
       <c r="B10">
-        <v>5557</v>
+        <v>5177</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1111,10 +1111,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45981.09375</v>
+        <v>45984.09375</v>
       </c>
       <c r="B11">
-        <v>5580</v>
+        <v>5147</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45981.10416666666</v>
+        <v>45984.10416666666</v>
       </c>
       <c r="B12">
-        <v>5542</v>
+        <v>5114</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1139,10 +1139,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45981.11458333334</v>
+        <v>45984.11458333334</v>
       </c>
       <c r="B13">
-        <v>5566</v>
+        <v>5132</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45981.125</v>
+        <v>45984.125</v>
       </c>
       <c r="B14">
-        <v>5607</v>
+        <v>5188</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45981.13541666666</v>
+        <v>45984.13541666666</v>
       </c>
       <c r="B15">
-        <v>5637</v>
+        <v>5215</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1181,10 +1181,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45981.14583333334</v>
+        <v>45984.14583333334</v>
       </c>
       <c r="B16">
-        <v>5609</v>
+        <v>5220</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45981.15625</v>
+        <v>45984.15625</v>
       </c>
       <c r="B17">
-        <v>5695</v>
+        <v>5215</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1209,10 +1209,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45981.16666666666</v>
+        <v>45984.16666666666</v>
       </c>
       <c r="B18">
-        <v>5805</v>
+        <v>5249</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1223,10 +1223,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45981.17708333334</v>
+        <v>45984.17708333334</v>
       </c>
       <c r="B19">
-        <v>5875</v>
+        <v>5250</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1237,10 +1237,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45981.1875</v>
+        <v>45984.1875</v>
       </c>
       <c r="B20">
-        <v>5895</v>
+        <v>5283</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45981.19791666666</v>
+        <v>45984.19791666666</v>
       </c>
       <c r="B21">
-        <v>6029</v>
+        <v>5345</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45981.20833333334</v>
+        <v>45984.20833333334</v>
       </c>
       <c r="B22">
-        <v>6211</v>
+        <v>5442</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45981.21875</v>
+        <v>45984.21875</v>
       </c>
       <c r="B23">
-        <v>6361</v>
+        <v>5458</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1293,10 +1293,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45981.22916666666</v>
+        <v>45984.22916666666</v>
       </c>
       <c r="B24">
-        <v>6529</v>
+        <v>5517</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45981.23958333334</v>
+        <v>45984.23958333334</v>
       </c>
       <c r="B25">
-        <v>6700</v>
+        <v>5608</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45981.25</v>
+        <v>45984.25</v>
       </c>
       <c r="B26">
-        <v>7004</v>
+        <v>5474</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45981.26041666666</v>
+        <v>45984.26041666666</v>
       </c>
       <c r="B27">
-        <v>7212</v>
+        <v>5539</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45981.27083333334</v>
+        <v>45984.27083333334</v>
       </c>
       <c r="B28">
-        <v>7325</v>
+        <v>5566</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45981.28125</v>
+        <v>45984.28125</v>
       </c>
       <c r="B29">
-        <v>7377</v>
+        <v>5620</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45981.29166666666</v>
+        <v>45984.29166666666</v>
       </c>
       <c r="B30">
-        <v>7559</v>
+        <v>5696</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1391,10 +1391,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45981.30208333334</v>
+        <v>45984.30208333334</v>
       </c>
       <c r="B31">
-        <v>7651</v>
+        <v>5751</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45981.3125</v>
+        <v>45984.3125</v>
       </c>
       <c r="B32">
-        <v>7713</v>
+        <v>5805</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1419,10 +1419,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45981.32291666666</v>
+        <v>45984.32291666666</v>
       </c>
       <c r="B33">
-        <v>7673</v>
+        <v>5866</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1433,10 +1433,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45981.33333333334</v>
+        <v>45984.33333333334</v>
       </c>
       <c r="B34">
-        <v>7725</v>
+        <v>5941</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1447,10 +1447,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45981.34375</v>
+        <v>45984.34375</v>
       </c>
       <c r="B35">
-        <v>7648</v>
+        <v>5980</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45981.35416666666</v>
+        <v>45984.35416666666</v>
       </c>
       <c r="B36">
-        <v>7696</v>
+        <v>5992</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45981.36458333334</v>
+        <v>45984.36458333334</v>
       </c>
       <c r="B37">
-        <v>7610</v>
+        <v>5995</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1489,10 +1489,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45981.375</v>
+        <v>45984.375</v>
       </c>
       <c r="B38">
-        <v>7577</v>
+        <v>6024</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45981.38541666666</v>
+        <v>45984.38541666666</v>
       </c>
       <c r="B39">
-        <v>7553</v>
+        <v>6004</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45981.39583333334</v>
+        <v>45984.39583333334</v>
       </c>
       <c r="B40">
-        <v>7496</v>
+        <v>5987</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45981.40625</v>
+        <v>45984.40625</v>
       </c>
       <c r="B41">
-        <v>7394</v>
+        <v>5994</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45981.41666666666</v>
+        <v>45984.41666666666</v>
       </c>
       <c r="B42">
-        <v>7384</v>
+        <v>6004</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45981.42708333334</v>
+        <v>45984.42708333334</v>
       </c>
       <c r="B43">
-        <v>7333</v>
+        <v>6104</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45981.4375</v>
+        <v>45984.4375</v>
       </c>
       <c r="B44">
-        <v>7300</v>
+        <v>6148</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45981.44791666666</v>
+        <v>45984.44791666666</v>
       </c>
       <c r="B45">
-        <v>7217</v>
+        <v>6195</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45981.45833333334</v>
+        <v>45984.45833333334</v>
       </c>
       <c r="B46">
-        <v>7156</v>
+        <v>6153</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45981.46875</v>
+        <v>45984.46875</v>
       </c>
       <c r="B47">
-        <v>6997</v>
+        <v>6158</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45981.47916666666</v>
+        <v>45984.47916666666</v>
       </c>
       <c r="B48">
-        <v>7219</v>
+        <v>6138</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1643,10 +1643,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45981.48958333334</v>
+        <v>45984.48958333334</v>
       </c>
       <c r="B49">
-        <v>7132</v>
+        <v>6175</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45981.5</v>
+        <v>45984.5</v>
       </c>
       <c r="B50">
-        <v>7050</v>
+        <v>6148</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1671,10 +1671,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45981.51041666666</v>
+        <v>45984.51041666666</v>
       </c>
       <c r="B51">
-        <v>7182</v>
+        <v>6149</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45981.52083333334</v>
+        <v>45984.52083333334</v>
       </c>
       <c r="B52">
-        <v>7208</v>
+        <v>6130</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1699,10 +1699,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45981.53125</v>
+        <v>45984.53125</v>
       </c>
       <c r="B53">
-        <v>7194</v>
+        <v>6136</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45981.54166666666</v>
+        <v>45984.54166666666</v>
       </c>
       <c r="B54">
-        <v>7240</v>
+        <v>6128</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45981.55208333334</v>
+        <v>45984.55208333334</v>
       </c>
       <c r="B55">
-        <v>7285</v>
+        <v>6153</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45981.5625</v>
+        <v>45984.5625</v>
       </c>
       <c r="B56">
-        <v>7338</v>
+        <v>6162</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -1755,10 +1755,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45981.57291666666</v>
+        <v>45984.57291666666</v>
       </c>
       <c r="B57">
-        <v>7352</v>
+        <v>6181</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45981.58333333334</v>
+        <v>45984.58333333334</v>
       </c>
       <c r="B58">
-        <v>7444</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45981.59375</v>
+        <v>45984.59375</v>
       </c>
       <c r="B59">
-        <v>7506</v>
+        <v>6193</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45981.60416666666</v>
+        <v>45984.60416666666</v>
       </c>
       <c r="B60">
-        <v>7544</v>
+        <v>6219</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -1811,10 +1811,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45981.61458333334</v>
+        <v>45984.61458333334</v>
       </c>
       <c r="B61">
-        <v>7606</v>
+        <v>6267</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45981.625</v>
+        <v>45984.625</v>
       </c>
       <c r="B62">
-        <v>7570</v>
+        <v>6314</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45981.63541666666</v>
+        <v>45984.63541666666</v>
       </c>
       <c r="B63">
-        <v>7677</v>
+        <v>6416</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -1853,10 +1853,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45981.64583333334</v>
+        <v>45984.64583333334</v>
       </c>
       <c r="B64">
-        <v>7721</v>
+        <v>6523</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45981.65625</v>
+        <v>45984.65625</v>
       </c>
       <c r="B65">
-        <v>7876</v>
+        <v>6687</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45981.66666666666</v>
+        <v>45984.66666666666</v>
       </c>
       <c r="B66">
-        <v>7969</v>
+        <v>6817</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45981.67708333334</v>
+        <v>45984.67708333334</v>
       </c>
       <c r="B67">
-        <v>8106</v>
+        <v>6925</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45981.6875</v>
+        <v>45984.6875</v>
       </c>
       <c r="B68">
-        <v>8143</v>
+        <v>6970</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45981.69791666666</v>
+        <v>45984.69791666666</v>
       </c>
       <c r="B69">
-        <v>8170</v>
+        <v>6942</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45981.70833333334</v>
+        <v>45984.70833333334</v>
       </c>
       <c r="B70">
-        <v>8081</v>
+        <v>6973</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45981.71875</v>
+        <v>45984.71875</v>
       </c>
       <c r="B71">
-        <v>8113</v>
+        <v>6970</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45981.72916666666</v>
+        <v>45984.72916666666</v>
       </c>
       <c r="B72">
-        <v>8095</v>
+        <v>6968</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45981.73958333334</v>
+        <v>45984.73958333334</v>
       </c>
       <c r="B73">
-        <v>8085</v>
+        <v>6942</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45981.75</v>
+        <v>45984.75</v>
       </c>
       <c r="B74">
-        <v>7984</v>
+        <v>6936</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -2007,10 +2007,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45981.76041666666</v>
+        <v>45984.76041666666</v>
       </c>
       <c r="B75">
-        <v>7997</v>
+        <v>6917</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45981.77083333334</v>
+        <v>45984.77083333334</v>
       </c>
       <c r="B76">
-        <v>7973</v>
+        <v>6916</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45981.78125</v>
+        <v>45984.78125</v>
       </c>
       <c r="B77">
-        <v>7963</v>
+        <v>6893</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -2049,10 +2049,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45981.79166666666</v>
+        <v>45984.79166666666</v>
       </c>
       <c r="B78">
-        <v>7833</v>
+        <v>6822</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45981.80208333334</v>
+        <v>45984.80208333334</v>
       </c>
       <c r="B79">
-        <v>7838</v>
+        <v>6770</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45981.8125</v>
+        <v>45984.8125</v>
       </c>
       <c r="B80">
-        <v>7792</v>
+        <v>6711</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45981.82291666666</v>
+        <v>45984.82291666666</v>
       </c>
       <c r="B81">
-        <v>7705</v>
+        <v>6642</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -2105,10 +2105,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45981.83333333334</v>
+        <v>45984.83333333334</v>
       </c>
       <c r="B82">
-        <v>7588</v>
+        <v>6622</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45981.84375</v>
+        <v>45984.84375</v>
       </c>
       <c r="B83">
-        <v>7579</v>
+        <v>6551</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -2133,10 +2133,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45981.85416666666</v>
+        <v>45984.85416666666</v>
       </c>
       <c r="B84">
-        <v>7469</v>
+        <v>6449</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45981.86458333334</v>
+        <v>45984.86458333334</v>
       </c>
       <c r="B85">
-        <v>7332</v>
+        <v>6367</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -2161,10 +2161,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45981.875</v>
+        <v>45984.875</v>
       </c>
       <c r="B86">
-        <v>7082</v>
+        <v>6163</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45981.88541666666</v>
+        <v>45984.88541666666</v>
       </c>
       <c r="B87">
-        <v>6916</v>
+        <v>6048</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -2189,10 +2189,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45981.89583333334</v>
+        <v>45984.89583333334</v>
       </c>
       <c r="B88">
-        <v>6789</v>
+        <v>5957</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45981.90625</v>
+        <v>45984.90625</v>
       </c>
       <c r="B89">
-        <v>6617</v>
+        <v>5903</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45981.91666666666</v>
+        <v>45984.91666666666</v>
       </c>
       <c r="B90">
-        <v>6429</v>
+        <v>5735</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45981.92708333334</v>
+        <v>45984.92708333334</v>
       </c>
       <c r="B91">
-        <v>6262</v>
+        <v>5693</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45981.9375</v>
+        <v>45984.9375</v>
       </c>
       <c r="B92">
-        <v>6206</v>
+        <v>5612</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45981.94791666666</v>
+        <v>45984.94791666666</v>
       </c>
       <c r="B93">
-        <v>6130</v>
+        <v>5557</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -2273,10 +2273,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45981.95833333334</v>
+        <v>45984.95833333334</v>
       </c>
       <c r="B94">
-        <v>5945</v>
+        <v>5446</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45981.96875</v>
+        <v>45984.96875</v>
       </c>
       <c r="B95">
-        <v>5897</v>
+        <v>5375</v>
       </c>
       <c r="C95">
         <v>94</v>
@@ -2301,10 +2301,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45981.97916666666</v>
+        <v>45984.97916666666</v>
       </c>
       <c r="B96">
-        <v>5855</v>
+        <v>5363</v>
       </c>
       <c r="C96">
         <v>95</v>
@@ -2315,10 +2315,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>45981.98958333334</v>
+        <v>45984.98958333334</v>
       </c>
       <c r="B97">
-        <v>5806</v>
+        <v>5282</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B98">
-        <v>5758</v>
+        <v>5156</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>45982.01041666666</v>
+        <v>45985.01041666666</v>
       </c>
       <c r="B99">
-        <v>5705</v>
+        <v>0</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>45982.02083333334</v>
+        <v>45985.02083333334</v>
       </c>
       <c r="B100">
-        <v>5655</v>
+        <v>5140</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2371,10 +2371,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>45982.03125</v>
+        <v>45985.03125</v>
       </c>
       <c r="B101">
-        <v>5652</v>
+        <v>5156</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>45982.04166666666</v>
+        <v>45985.04166666666</v>
       </c>
       <c r="B102">
-        <v>5625</v>
+        <v>5189</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>45982.05208333334</v>
+        <v>45985.05208333334</v>
       </c>
       <c r="B103">
-        <v>5586</v>
+        <v>5161</v>
       </c>
       <c r="C103">
         <v>6</v>
@@ -2413,10 +2413,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>45982.0625</v>
+        <v>45985.0625</v>
       </c>
       <c r="B104">
-        <v>5576</v>
+        <v>5133</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -2427,10 +2427,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>45982.07291666666</v>
+        <v>45985.07291666666</v>
       </c>
       <c r="B105">
-        <v>5578</v>
+        <v>5092</v>
       </c>
       <c r="C105">
         <v>8</v>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>45982.08333333334</v>
+        <v>45985.08333333334</v>
       </c>
       <c r="B106">
-        <v>5552</v>
+        <v>5076</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -2455,10 +2455,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>45982.09375</v>
+        <v>45985.09375</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>5069</v>
       </c>
       <c r="C107">
         <v>10</v>
@@ -2469,10 +2469,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>45982.10416666666</v>
+        <v>45985.10416666666</v>
       </c>
       <c r="B108">
-        <v>5546</v>
+        <v>5081</v>
       </c>
       <c r="C108">
         <v>11</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>45982.11458333334</v>
+        <v>45985.11458333334</v>
       </c>
       <c r="B109">
-        <v>5577</v>
+        <v>5108</v>
       </c>
       <c r="C109">
         <v>12</v>
@@ -2497,10 +2497,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>45982.125</v>
+        <v>45985.125</v>
       </c>
       <c r="B110">
-        <v>5583</v>
+        <v>5145</v>
       </c>
       <c r="C110">
         <v>13</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>45982.13541666666</v>
+        <v>45985.13541666666</v>
       </c>
       <c r="B111">
-        <v>5624</v>
+        <v>5176</v>
       </c>
       <c r="C111">
         <v>14</v>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>45982.14583333334</v>
+        <v>45985.14583333334</v>
       </c>
       <c r="B112">
-        <v>5644</v>
+        <v>5204</v>
       </c>
       <c r="C112">
         <v>15</v>
@@ -2539,10 +2539,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>45982.15625</v>
+        <v>45985.15625</v>
       </c>
       <c r="B113">
-        <v>5687</v>
+        <v>5243</v>
       </c>
       <c r="C113">
         <v>16</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>45982.16666666666</v>
+        <v>45985.16666666666</v>
       </c>
       <c r="B114">
-        <v>5715</v>
+        <v>5337</v>
       </c>
       <c r="C114">
         <v>17</v>
@@ -2567,10 +2567,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>45982.17708333334</v>
+        <v>45985.17708333334</v>
       </c>
       <c r="B115">
-        <v>5775</v>
+        <v>5416</v>
       </c>
       <c r="C115">
         <v>18</v>
@@ -2581,10 +2581,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>45982.1875</v>
+        <v>45985.1875</v>
       </c>
       <c r="B116">
-        <v>5860</v>
+        <v>5529</v>
       </c>
       <c r="C116">
         <v>19</v>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>45982.19791666666</v>
+        <v>45985.19791666666</v>
       </c>
       <c r="B117">
-        <v>5961</v>
+        <v>5662</v>
       </c>
       <c r="C117">
         <v>20</v>
@@ -2609,10 +2609,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>45982.20833333334</v>
+        <v>45985.20833333334</v>
       </c>
       <c r="B118">
-        <v>6188</v>
+        <v>5999</v>
       </c>
       <c r="C118">
         <v>21</v>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>45982.21875</v>
+        <v>45985.21875</v>
       </c>
       <c r="B119">
-        <v>6326</v>
+        <v>6193</v>
       </c>
       <c r="C119">
         <v>22</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>45982.22916666666</v>
+        <v>45985.22916666666</v>
       </c>
       <c r="B120">
-        <v>6458</v>
+        <v>6403</v>
       </c>
       <c r="C120">
         <v>23</v>
@@ -2651,10 +2651,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>45982.23958333334</v>
+        <v>45985.23958333334</v>
       </c>
       <c r="B121">
-        <v>6656</v>
+        <v>6607</v>
       </c>
       <c r="C121">
         <v>24</v>
@@ -2665,10 +2665,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>45982.25</v>
+        <v>45985.25</v>
       </c>
       <c r="B122">
-        <v>6906</v>
+        <v>6884</v>
       </c>
       <c r="C122">
         <v>25</v>
@@ -2679,10 +2679,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>45982.26041666666</v>
+        <v>45985.26041666666</v>
       </c>
       <c r="B123">
-        <v>7043</v>
+        <v>7170</v>
       </c>
       <c r="C123">
         <v>26</v>
@@ -2693,10 +2693,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>45982.27083333334</v>
+        <v>45985.27083333334</v>
       </c>
       <c r="B124">
-        <v>7201</v>
+        <v>7266</v>
       </c>
       <c r="C124">
         <v>27</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>45982.28125</v>
+        <v>45985.28125</v>
       </c>
       <c r="B125">
-        <v>7228</v>
+        <v>7437</v>
       </c>
       <c r="C125">
         <v>28</v>
@@ -2721,10 +2721,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>45982.29166666666</v>
+        <v>45985.29166666666</v>
       </c>
       <c r="B126">
-        <v>7346</v>
+        <v>7638</v>
       </c>
       <c r="C126">
         <v>29</v>
@@ -2735,10 +2735,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>45982.30208333334</v>
+        <v>45985.30208333334</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>7777</v>
       </c>
       <c r="C127">
         <v>30</v>
@@ -2749,10 +2749,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>45982.3125</v>
+        <v>45985.3125</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>7747</v>
       </c>
       <c r="C128">
         <v>31</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>45982.32291666666</v>
+        <v>45985.32291666666</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>7659</v>
       </c>
       <c r="C129">
         <v>32</v>
@@ -2777,10 +2777,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>45982.33333333334</v>
+        <v>45985.33333333334</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>7642</v>
       </c>
       <c r="C130">
         <v>33</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>45982.34375</v>
+        <v>45985.34375</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>7657</v>
       </c>
       <c r="C131">
         <v>34</v>
@@ -2805,10 +2805,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>45982.35416666666</v>
+        <v>45985.35416666666</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>7567</v>
       </c>
       <c r="C132">
         <v>35</v>
@@ -2819,10 +2819,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>45982.36458333334</v>
+        <v>45985.36458333334</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>7491</v>
       </c>
       <c r="C133">
         <v>36</v>
@@ -2833,10 +2833,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>45982.375</v>
+        <v>45985.375</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>7377</v>
       </c>
       <c r="C134">
         <v>37</v>
@@ -2847,10 +2847,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>45982.38541666666</v>
+        <v>45985.38541666666</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>7236</v>
       </c>
       <c r="C135">
         <v>38</v>
@@ -2861,10 +2861,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>45982.39583333334</v>
+        <v>45985.39583333334</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>7181</v>
       </c>
       <c r="C136">
         <v>39</v>
@@ -2875,10 +2875,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>45982.40625</v>
+        <v>45985.40625</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>7067</v>
       </c>
       <c r="C137">
         <v>40</v>
@@ -2889,10 +2889,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>45982.41666666666</v>
+        <v>45985.41666666666</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>6967</v>
       </c>
       <c r="C138">
         <v>41</v>
@@ -2903,10 +2903,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>45982.42708333334</v>
+        <v>45985.42708333334</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>6857</v>
       </c>
       <c r="C139">
         <v>42</v>
@@ -2917,10 +2917,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>45982.4375</v>
+        <v>45985.4375</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>6774</v>
       </c>
       <c r="C140">
         <v>43</v>
@@ -2931,10 +2931,10 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>45982.44791666666</v>
+        <v>45985.44791666666</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>6714</v>
       </c>
       <c r="C141">
         <v>44</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>45982.45833333334</v>
+        <v>45985.45833333334</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>6519</v>
       </c>
       <c r="C142">
         <v>45</v>
@@ -2959,10 +2959,10 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>45982.46875</v>
+        <v>45985.46875</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="C143">
         <v>46</v>
@@ -2973,10 +2973,10 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>45982.47916666666</v>
+        <v>45985.47916666666</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>6637</v>
       </c>
       <c r="C144">
         <v>47</v>
@@ -2987,10 +2987,10 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>45982.48958333334</v>
+        <v>45985.48958333334</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>6638</v>
       </c>
       <c r="C145">
         <v>48</v>
@@ -3001,10 +3001,10 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>45982.5</v>
+        <v>45985.5</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>6615</v>
       </c>
       <c r="C146">
         <v>49</v>
@@ -3015,10 +3015,10 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>45982.51041666666</v>
+        <v>45985.51041666666</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>6660</v>
       </c>
       <c r="C147">
         <v>50</v>
@@ -3029,10 +3029,10 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>45982.52083333334</v>
+        <v>45985.52083333334</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>6720</v>
       </c>
       <c r="C148">
         <v>51</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>45982.53125</v>
+        <v>45985.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>45982.54166666666</v>
+        <v>45985.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>45982.55208333334</v>
+        <v>45985.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>45982.5625</v>
+        <v>45985.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>45982.57291666666</v>
+        <v>45985.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>45982.58333333334</v>
+        <v>45985.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>45982.59375</v>
+        <v>45985.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>45982.60416666666</v>
+        <v>45985.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>45982.61458333334</v>
+        <v>45985.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>45982.625</v>
+        <v>45985.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>45982.63541666666</v>
+        <v>45985.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>45982.64583333334</v>
+        <v>45985.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>45982.65625</v>
+        <v>45985.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>45982.66666666666</v>
+        <v>45985.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>45982.67708333334</v>
+        <v>45985.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>45982.6875</v>
+        <v>45985.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>45982.69791666666</v>
+        <v>45985.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>45982.70833333334</v>
+        <v>45985.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>45982.71875</v>
+        <v>45985.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>45982.72916666666</v>
+        <v>45985.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>45982.73958333334</v>
+        <v>45985.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>45982.75</v>
+        <v>45985.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>45982.76041666666</v>
+        <v>45985.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>45982.77083333334</v>
+        <v>45985.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>45982.78125</v>
+        <v>45985.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>45982.79166666666</v>
+        <v>45985.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>45982.80208333334</v>
+        <v>45985.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>45982.8125</v>
+        <v>45985.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>45982.82291666666</v>
+        <v>45985.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>45982.83333333334</v>
+        <v>45985.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>45982.84375</v>
+        <v>45985.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>45982.85416666666</v>
+        <v>45985.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>45982.86458333334</v>
+        <v>45985.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>45982.875</v>
+        <v>45985.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>45982.88541666666</v>
+        <v>45985.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>45982.89583333334</v>
+        <v>45985.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>45982.90625</v>
+        <v>45985.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>45982.91666666666</v>
+        <v>45985.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>45982.92708333334</v>
+        <v>45985.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>45982.9375</v>
+        <v>45985.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>45982.94791666666</v>
+        <v>45985.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>45982.95833333334</v>
+        <v>45985.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>45982.96875</v>
+        <v>45985.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>45982.97916666666</v>
+        <v>45985.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>45982.98958333334</v>
+        <v>45985.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="484">
   <si>
     <t>Timestamp</t>
   </si>
@@ -28,580 +28,1444 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>03.12.20251</t>
-  </si>
-  <si>
-    <t>03.12.20252</t>
-  </si>
-  <si>
-    <t>03.12.20253</t>
-  </si>
-  <si>
-    <t>03.12.20254</t>
-  </si>
-  <si>
-    <t>03.12.20255</t>
-  </si>
-  <si>
-    <t>03.12.20256</t>
-  </si>
-  <si>
-    <t>03.12.20257</t>
-  </si>
-  <si>
-    <t>03.12.20258</t>
-  </si>
-  <si>
-    <t>03.12.20259</t>
-  </si>
-  <si>
-    <t>03.12.202510</t>
-  </si>
-  <si>
-    <t>03.12.202511</t>
-  </si>
-  <si>
-    <t>03.12.202512</t>
-  </si>
-  <si>
-    <t>03.12.202513</t>
-  </si>
-  <si>
-    <t>03.12.202514</t>
-  </si>
-  <si>
-    <t>03.12.202515</t>
-  </si>
-  <si>
-    <t>03.12.202516</t>
-  </si>
-  <si>
-    <t>03.12.202517</t>
-  </si>
-  <si>
-    <t>03.12.202518</t>
-  </si>
-  <si>
-    <t>03.12.202519</t>
-  </si>
-  <si>
-    <t>03.12.202520</t>
-  </si>
-  <si>
-    <t>03.12.202521</t>
-  </si>
-  <si>
-    <t>03.12.202522</t>
-  </si>
-  <si>
-    <t>03.12.202523</t>
-  </si>
-  <si>
-    <t>03.12.202524</t>
-  </si>
-  <si>
-    <t>03.12.202525</t>
-  </si>
-  <si>
-    <t>03.12.202526</t>
-  </si>
-  <si>
-    <t>03.12.202527</t>
-  </si>
-  <si>
-    <t>03.12.202528</t>
-  </si>
-  <si>
-    <t>03.12.202529</t>
-  </si>
-  <si>
-    <t>03.12.202530</t>
-  </si>
-  <si>
-    <t>03.12.202531</t>
-  </si>
-  <si>
-    <t>03.12.202532</t>
-  </si>
-  <si>
-    <t>03.12.202533</t>
-  </si>
-  <si>
-    <t>03.12.202534</t>
-  </si>
-  <si>
-    <t>03.12.202535</t>
-  </si>
-  <si>
-    <t>03.12.202536</t>
-  </si>
-  <si>
-    <t>03.12.202537</t>
-  </si>
-  <si>
-    <t>03.12.202538</t>
-  </si>
-  <si>
-    <t>03.12.202539</t>
-  </si>
-  <si>
-    <t>03.12.202540</t>
-  </si>
-  <si>
-    <t>03.12.202541</t>
-  </si>
-  <si>
-    <t>03.12.202542</t>
-  </si>
-  <si>
-    <t>03.12.202543</t>
-  </si>
-  <si>
-    <t>03.12.202544</t>
-  </si>
-  <si>
-    <t>03.12.202545</t>
-  </si>
-  <si>
-    <t>03.12.202546</t>
-  </si>
-  <si>
-    <t>03.12.202547</t>
-  </si>
-  <si>
-    <t>03.12.202548</t>
-  </si>
-  <si>
-    <t>03.12.202549</t>
-  </si>
-  <si>
-    <t>03.12.202550</t>
-  </si>
-  <si>
-    <t>03.12.202551</t>
-  </si>
-  <si>
-    <t>03.12.202552</t>
-  </si>
-  <si>
-    <t>03.12.202553</t>
-  </si>
-  <si>
-    <t>03.12.202554</t>
-  </si>
-  <si>
-    <t>03.12.202555</t>
-  </si>
-  <si>
-    <t>03.12.202556</t>
-  </si>
-  <si>
-    <t>03.12.202557</t>
-  </si>
-  <si>
-    <t>03.12.202558</t>
-  </si>
-  <si>
-    <t>03.12.202559</t>
-  </si>
-  <si>
-    <t>03.12.202560</t>
-  </si>
-  <si>
-    <t>03.12.202561</t>
-  </si>
-  <si>
-    <t>03.12.202562</t>
-  </si>
-  <si>
-    <t>03.12.202563</t>
-  </si>
-  <si>
-    <t>03.12.202564</t>
-  </si>
-  <si>
-    <t>03.12.202565</t>
-  </si>
-  <si>
-    <t>03.12.202566</t>
-  </si>
-  <si>
-    <t>03.12.202567</t>
-  </si>
-  <si>
-    <t>03.12.202568</t>
-  </si>
-  <si>
-    <t>03.12.202569</t>
-  </si>
-  <si>
-    <t>03.12.202570</t>
-  </si>
-  <si>
-    <t>03.12.202571</t>
-  </si>
-  <si>
-    <t>03.12.202572</t>
-  </si>
-  <si>
-    <t>03.12.202573</t>
-  </si>
-  <si>
-    <t>03.12.202574</t>
-  </si>
-  <si>
-    <t>03.12.202575</t>
-  </si>
-  <si>
-    <t>03.12.202576</t>
-  </si>
-  <si>
-    <t>03.12.202577</t>
-  </si>
-  <si>
-    <t>03.12.202578</t>
-  </si>
-  <si>
-    <t>03.12.202579</t>
-  </si>
-  <si>
-    <t>03.12.202580</t>
-  </si>
-  <si>
-    <t>03.12.202581</t>
-  </si>
-  <si>
-    <t>03.12.202582</t>
-  </si>
-  <si>
-    <t>03.12.202583</t>
-  </si>
-  <si>
-    <t>03.12.202584</t>
-  </si>
-  <si>
-    <t>03.12.202585</t>
-  </si>
-  <si>
-    <t>03.12.202586</t>
-  </si>
-  <si>
-    <t>03.12.202587</t>
-  </si>
-  <si>
-    <t>03.12.202588</t>
-  </si>
-  <si>
-    <t>03.12.202589</t>
-  </si>
-  <si>
-    <t>03.12.202590</t>
-  </si>
-  <si>
-    <t>03.12.202591</t>
-  </si>
-  <si>
-    <t>03.12.202592</t>
-  </si>
-  <si>
-    <t>03.12.202593</t>
-  </si>
-  <si>
-    <t>03.12.202594</t>
-  </si>
-  <si>
-    <t>03.12.202595</t>
-  </si>
-  <si>
-    <t>03.12.202596</t>
-  </si>
-  <si>
-    <t>04.12.20251</t>
-  </si>
-  <si>
-    <t>04.12.20252</t>
-  </si>
-  <si>
-    <t>04.12.20253</t>
-  </si>
-  <si>
-    <t>04.12.20254</t>
-  </si>
-  <si>
-    <t>04.12.20255</t>
-  </si>
-  <si>
-    <t>04.12.20256</t>
-  </si>
-  <si>
-    <t>04.12.20257</t>
-  </si>
-  <si>
-    <t>04.12.20258</t>
-  </si>
-  <si>
-    <t>04.12.20259</t>
-  </si>
-  <si>
-    <t>04.12.202510</t>
-  </si>
-  <si>
-    <t>04.12.202511</t>
-  </si>
-  <si>
-    <t>04.12.202512</t>
-  </si>
-  <si>
-    <t>04.12.202513</t>
-  </si>
-  <si>
-    <t>04.12.202514</t>
-  </si>
-  <si>
-    <t>04.12.202515</t>
-  </si>
-  <si>
-    <t>04.12.202516</t>
-  </si>
-  <si>
-    <t>04.12.202517</t>
-  </si>
-  <si>
-    <t>04.12.202518</t>
-  </si>
-  <si>
-    <t>04.12.202519</t>
-  </si>
-  <si>
-    <t>04.12.202520</t>
-  </si>
-  <si>
-    <t>04.12.202521</t>
-  </si>
-  <si>
-    <t>04.12.202522</t>
-  </si>
-  <si>
-    <t>04.12.202523</t>
-  </si>
-  <si>
-    <t>04.12.202524</t>
-  </si>
-  <si>
-    <t>04.12.202525</t>
-  </si>
-  <si>
-    <t>04.12.202526</t>
-  </si>
-  <si>
-    <t>04.12.202527</t>
-  </si>
-  <si>
-    <t>04.12.202528</t>
-  </si>
-  <si>
-    <t>04.12.202529</t>
-  </si>
-  <si>
-    <t>04.12.202530</t>
-  </si>
-  <si>
-    <t>04.12.202531</t>
-  </si>
-  <si>
-    <t>04.12.202532</t>
-  </si>
-  <si>
-    <t>04.12.202533</t>
-  </si>
-  <si>
-    <t>04.12.202534</t>
-  </si>
-  <si>
-    <t>04.12.202535</t>
-  </si>
-  <si>
-    <t>04.12.202536</t>
-  </si>
-  <si>
-    <t>04.12.202537</t>
-  </si>
-  <si>
-    <t>04.12.202538</t>
-  </si>
-  <si>
-    <t>04.12.202539</t>
-  </si>
-  <si>
-    <t>04.12.202540</t>
-  </si>
-  <si>
-    <t>04.12.202541</t>
-  </si>
-  <si>
-    <t>04.12.202542</t>
-  </si>
-  <si>
-    <t>04.12.202543</t>
-  </si>
-  <si>
-    <t>04.12.202544</t>
-  </si>
-  <si>
-    <t>04.12.202545</t>
-  </si>
-  <si>
-    <t>04.12.202546</t>
-  </si>
-  <si>
-    <t>04.12.202547</t>
-  </si>
-  <si>
-    <t>04.12.202548</t>
-  </si>
-  <si>
-    <t>04.12.202549</t>
-  </si>
-  <si>
-    <t>04.12.202550</t>
-  </si>
-  <si>
-    <t>04.12.202551</t>
-  </si>
-  <si>
-    <t>04.12.202552</t>
-  </si>
-  <si>
-    <t>04.12.202553</t>
-  </si>
-  <si>
-    <t>04.12.202554</t>
-  </si>
-  <si>
-    <t>04.12.202555</t>
-  </si>
-  <si>
-    <t>04.12.202556</t>
-  </si>
-  <si>
-    <t>04.12.202557</t>
-  </si>
-  <si>
-    <t>04.12.202558</t>
-  </si>
-  <si>
-    <t>04.12.202559</t>
-  </si>
-  <si>
-    <t>04.12.202560</t>
-  </si>
-  <si>
-    <t>04.12.202561</t>
-  </si>
-  <si>
-    <t>04.12.202562</t>
-  </si>
-  <si>
-    <t>04.12.202563</t>
-  </si>
-  <si>
-    <t>04.12.202564</t>
-  </si>
-  <si>
-    <t>04.12.202565</t>
-  </si>
-  <si>
-    <t>04.12.202566</t>
-  </si>
-  <si>
-    <t>04.12.202567</t>
-  </si>
-  <si>
-    <t>04.12.202568</t>
-  </si>
-  <si>
-    <t>04.12.202569</t>
-  </si>
-  <si>
-    <t>04.12.202570</t>
-  </si>
-  <si>
-    <t>04.12.202571</t>
-  </si>
-  <si>
-    <t>04.12.202572</t>
-  </si>
-  <si>
-    <t>04.12.202573</t>
-  </si>
-  <si>
-    <t>04.12.202574</t>
-  </si>
-  <si>
-    <t>04.12.202575</t>
-  </si>
-  <si>
-    <t>04.12.202576</t>
-  </si>
-  <si>
-    <t>04.12.202577</t>
-  </si>
-  <si>
-    <t>04.12.202578</t>
-  </si>
-  <si>
-    <t>04.12.202579</t>
-  </si>
-  <si>
-    <t>04.12.202580</t>
-  </si>
-  <si>
-    <t>04.12.202581</t>
-  </si>
-  <si>
-    <t>04.12.202582</t>
-  </si>
-  <si>
-    <t>04.12.202583</t>
-  </si>
-  <si>
-    <t>04.12.202584</t>
-  </si>
-  <si>
-    <t>04.12.202585</t>
-  </si>
-  <si>
-    <t>04.12.202586</t>
-  </si>
-  <si>
-    <t>04.12.202587</t>
-  </si>
-  <si>
-    <t>04.12.202588</t>
-  </si>
-  <si>
-    <t>04.12.202589</t>
-  </si>
-  <si>
-    <t>04.12.202590</t>
-  </si>
-  <si>
-    <t>04.12.202591</t>
-  </si>
-  <si>
-    <t>04.12.202592</t>
-  </si>
-  <si>
-    <t>04.12.202593</t>
-  </si>
-  <si>
-    <t>04.12.202594</t>
-  </si>
-  <si>
-    <t>04.12.202595</t>
-  </si>
-  <si>
-    <t>04.12.202596</t>
+    <t>11.12.20251</t>
+  </si>
+  <si>
+    <t>11.12.20252</t>
+  </si>
+  <si>
+    <t>11.12.20253</t>
+  </si>
+  <si>
+    <t>11.12.20254</t>
+  </si>
+  <si>
+    <t>11.12.20255</t>
+  </si>
+  <si>
+    <t>11.12.20256</t>
+  </si>
+  <si>
+    <t>11.12.20257</t>
+  </si>
+  <si>
+    <t>11.12.20258</t>
+  </si>
+  <si>
+    <t>11.12.20259</t>
+  </si>
+  <si>
+    <t>11.12.202510</t>
+  </si>
+  <si>
+    <t>11.12.202511</t>
+  </si>
+  <si>
+    <t>11.12.202512</t>
+  </si>
+  <si>
+    <t>11.12.202513</t>
+  </si>
+  <si>
+    <t>11.12.202514</t>
+  </si>
+  <si>
+    <t>11.12.202515</t>
+  </si>
+  <si>
+    <t>11.12.202516</t>
+  </si>
+  <si>
+    <t>11.12.202517</t>
+  </si>
+  <si>
+    <t>11.12.202518</t>
+  </si>
+  <si>
+    <t>11.12.202519</t>
+  </si>
+  <si>
+    <t>11.12.202520</t>
+  </si>
+  <si>
+    <t>11.12.202521</t>
+  </si>
+  <si>
+    <t>11.12.202522</t>
+  </si>
+  <si>
+    <t>11.12.202523</t>
+  </si>
+  <si>
+    <t>11.12.202524</t>
+  </si>
+  <si>
+    <t>11.12.202525</t>
+  </si>
+  <si>
+    <t>11.12.202526</t>
+  </si>
+  <si>
+    <t>11.12.202527</t>
+  </si>
+  <si>
+    <t>11.12.202528</t>
+  </si>
+  <si>
+    <t>11.12.202529</t>
+  </si>
+  <si>
+    <t>11.12.202530</t>
+  </si>
+  <si>
+    <t>11.12.202531</t>
+  </si>
+  <si>
+    <t>11.12.202532</t>
+  </si>
+  <si>
+    <t>11.12.202533</t>
+  </si>
+  <si>
+    <t>11.12.202534</t>
+  </si>
+  <si>
+    <t>11.12.202535</t>
+  </si>
+  <si>
+    <t>11.12.202536</t>
+  </si>
+  <si>
+    <t>11.12.202537</t>
+  </si>
+  <si>
+    <t>11.12.202538</t>
+  </si>
+  <si>
+    <t>11.12.202539</t>
+  </si>
+  <si>
+    <t>11.12.202540</t>
+  </si>
+  <si>
+    <t>11.12.202541</t>
+  </si>
+  <si>
+    <t>11.12.202542</t>
+  </si>
+  <si>
+    <t>11.12.202543</t>
+  </si>
+  <si>
+    <t>11.12.202544</t>
+  </si>
+  <si>
+    <t>11.12.202545</t>
+  </si>
+  <si>
+    <t>11.12.202546</t>
+  </si>
+  <si>
+    <t>11.12.202547</t>
+  </si>
+  <si>
+    <t>11.12.202548</t>
+  </si>
+  <si>
+    <t>11.12.202549</t>
+  </si>
+  <si>
+    <t>11.12.202550</t>
+  </si>
+  <si>
+    <t>11.12.202551</t>
+  </si>
+  <si>
+    <t>11.12.202552</t>
+  </si>
+  <si>
+    <t>11.12.202553</t>
+  </si>
+  <si>
+    <t>11.12.202554</t>
+  </si>
+  <si>
+    <t>11.12.202555</t>
+  </si>
+  <si>
+    <t>11.12.202556</t>
+  </si>
+  <si>
+    <t>11.12.202557</t>
+  </si>
+  <si>
+    <t>11.12.202558</t>
+  </si>
+  <si>
+    <t>11.12.202559</t>
+  </si>
+  <si>
+    <t>11.12.202560</t>
+  </si>
+  <si>
+    <t>11.12.202561</t>
+  </si>
+  <si>
+    <t>11.12.202562</t>
+  </si>
+  <si>
+    <t>11.12.202563</t>
+  </si>
+  <si>
+    <t>11.12.202564</t>
+  </si>
+  <si>
+    <t>11.12.202565</t>
+  </si>
+  <si>
+    <t>11.12.202566</t>
+  </si>
+  <si>
+    <t>11.12.202567</t>
+  </si>
+  <si>
+    <t>11.12.202568</t>
+  </si>
+  <si>
+    <t>11.12.202569</t>
+  </si>
+  <si>
+    <t>11.12.202570</t>
+  </si>
+  <si>
+    <t>11.12.202571</t>
+  </si>
+  <si>
+    <t>11.12.202572</t>
+  </si>
+  <si>
+    <t>11.12.202573</t>
+  </si>
+  <si>
+    <t>11.12.202574</t>
+  </si>
+  <si>
+    <t>11.12.202575</t>
+  </si>
+  <si>
+    <t>11.12.202576</t>
+  </si>
+  <si>
+    <t>11.12.202577</t>
+  </si>
+  <si>
+    <t>11.12.202578</t>
+  </si>
+  <si>
+    <t>11.12.202579</t>
+  </si>
+  <si>
+    <t>11.12.202580</t>
+  </si>
+  <si>
+    <t>11.12.202581</t>
+  </si>
+  <si>
+    <t>11.12.202582</t>
+  </si>
+  <si>
+    <t>11.12.202583</t>
+  </si>
+  <si>
+    <t>11.12.202584</t>
+  </si>
+  <si>
+    <t>11.12.202585</t>
+  </si>
+  <si>
+    <t>11.12.202586</t>
+  </si>
+  <si>
+    <t>11.12.202587</t>
+  </si>
+  <si>
+    <t>11.12.202588</t>
+  </si>
+  <si>
+    <t>11.12.202589</t>
+  </si>
+  <si>
+    <t>11.12.202590</t>
+  </si>
+  <si>
+    <t>11.12.202591</t>
+  </si>
+  <si>
+    <t>11.12.202592</t>
+  </si>
+  <si>
+    <t>11.12.202593</t>
+  </si>
+  <si>
+    <t>11.12.202594</t>
+  </si>
+  <si>
+    <t>11.12.202595</t>
+  </si>
+  <si>
+    <t>11.12.202596</t>
+  </si>
+  <si>
+    <t>12.12.20251</t>
+  </si>
+  <si>
+    <t>12.12.20252</t>
+  </si>
+  <si>
+    <t>12.12.20253</t>
+  </si>
+  <si>
+    <t>12.12.20254</t>
+  </si>
+  <si>
+    <t>12.12.20255</t>
+  </si>
+  <si>
+    <t>12.12.20256</t>
+  </si>
+  <si>
+    <t>12.12.20257</t>
+  </si>
+  <si>
+    <t>12.12.20258</t>
+  </si>
+  <si>
+    <t>12.12.20259</t>
+  </si>
+  <si>
+    <t>12.12.202510</t>
+  </si>
+  <si>
+    <t>12.12.202511</t>
+  </si>
+  <si>
+    <t>12.12.202512</t>
+  </si>
+  <si>
+    <t>12.12.202513</t>
+  </si>
+  <si>
+    <t>12.12.202514</t>
+  </si>
+  <si>
+    <t>12.12.202515</t>
+  </si>
+  <si>
+    <t>12.12.202516</t>
+  </si>
+  <si>
+    <t>12.12.202517</t>
+  </si>
+  <si>
+    <t>12.12.202518</t>
+  </si>
+  <si>
+    <t>12.12.202519</t>
+  </si>
+  <si>
+    <t>12.12.202520</t>
+  </si>
+  <si>
+    <t>12.12.202521</t>
+  </si>
+  <si>
+    <t>12.12.202522</t>
+  </si>
+  <si>
+    <t>12.12.202523</t>
+  </si>
+  <si>
+    <t>12.12.202524</t>
+  </si>
+  <si>
+    <t>12.12.202525</t>
+  </si>
+  <si>
+    <t>12.12.202526</t>
+  </si>
+  <si>
+    <t>12.12.202527</t>
+  </si>
+  <si>
+    <t>12.12.202528</t>
+  </si>
+  <si>
+    <t>12.12.202529</t>
+  </si>
+  <si>
+    <t>12.12.202530</t>
+  </si>
+  <si>
+    <t>12.12.202531</t>
+  </si>
+  <si>
+    <t>12.12.202532</t>
+  </si>
+  <si>
+    <t>12.12.202533</t>
+  </si>
+  <si>
+    <t>12.12.202534</t>
+  </si>
+  <si>
+    <t>12.12.202535</t>
+  </si>
+  <si>
+    <t>12.12.202536</t>
+  </si>
+  <si>
+    <t>12.12.202537</t>
+  </si>
+  <si>
+    <t>12.12.202538</t>
+  </si>
+  <si>
+    <t>12.12.202539</t>
+  </si>
+  <si>
+    <t>12.12.202540</t>
+  </si>
+  <si>
+    <t>12.12.202541</t>
+  </si>
+  <si>
+    <t>12.12.202542</t>
+  </si>
+  <si>
+    <t>12.12.202543</t>
+  </si>
+  <si>
+    <t>12.12.202544</t>
+  </si>
+  <si>
+    <t>12.12.202545</t>
+  </si>
+  <si>
+    <t>12.12.202546</t>
+  </si>
+  <si>
+    <t>12.12.202547</t>
+  </si>
+  <si>
+    <t>12.12.202548</t>
+  </si>
+  <si>
+    <t>12.12.202549</t>
+  </si>
+  <si>
+    <t>12.12.202550</t>
+  </si>
+  <si>
+    <t>12.12.202551</t>
+  </si>
+  <si>
+    <t>12.12.202552</t>
+  </si>
+  <si>
+    <t>12.12.202553</t>
+  </si>
+  <si>
+    <t>12.12.202554</t>
+  </si>
+  <si>
+    <t>12.12.202555</t>
+  </si>
+  <si>
+    <t>12.12.202556</t>
+  </si>
+  <si>
+    <t>12.12.202557</t>
+  </si>
+  <si>
+    <t>12.12.202558</t>
+  </si>
+  <si>
+    <t>12.12.202559</t>
+  </si>
+  <si>
+    <t>12.12.202560</t>
+  </si>
+  <si>
+    <t>12.12.202561</t>
+  </si>
+  <si>
+    <t>12.12.202562</t>
+  </si>
+  <si>
+    <t>12.12.202563</t>
+  </si>
+  <si>
+    <t>12.12.202564</t>
+  </si>
+  <si>
+    <t>12.12.202565</t>
+  </si>
+  <si>
+    <t>12.12.202566</t>
+  </si>
+  <si>
+    <t>12.12.202567</t>
+  </si>
+  <si>
+    <t>12.12.202568</t>
+  </si>
+  <si>
+    <t>12.12.202569</t>
+  </si>
+  <si>
+    <t>12.12.202570</t>
+  </si>
+  <si>
+    <t>12.12.202571</t>
+  </si>
+  <si>
+    <t>12.12.202572</t>
+  </si>
+  <si>
+    <t>12.12.202573</t>
+  </si>
+  <si>
+    <t>12.12.202574</t>
+  </si>
+  <si>
+    <t>12.12.202575</t>
+  </si>
+  <si>
+    <t>12.12.202576</t>
+  </si>
+  <si>
+    <t>12.12.202577</t>
+  </si>
+  <si>
+    <t>12.12.202578</t>
+  </si>
+  <si>
+    <t>12.12.202579</t>
+  </si>
+  <si>
+    <t>12.12.202580</t>
+  </si>
+  <si>
+    <t>12.12.202581</t>
+  </si>
+  <si>
+    <t>12.12.202582</t>
+  </si>
+  <si>
+    <t>12.12.202583</t>
+  </si>
+  <si>
+    <t>12.12.202584</t>
+  </si>
+  <si>
+    <t>12.12.202585</t>
+  </si>
+  <si>
+    <t>12.12.202586</t>
+  </si>
+  <si>
+    <t>12.12.202587</t>
+  </si>
+  <si>
+    <t>12.12.202588</t>
+  </si>
+  <si>
+    <t>12.12.202589</t>
+  </si>
+  <si>
+    <t>12.12.202590</t>
+  </si>
+  <si>
+    <t>12.12.202591</t>
+  </si>
+  <si>
+    <t>12.12.202592</t>
+  </si>
+  <si>
+    <t>12.12.202593</t>
+  </si>
+  <si>
+    <t>12.12.202594</t>
+  </si>
+  <si>
+    <t>12.12.202595</t>
+  </si>
+  <si>
+    <t>12.12.202596</t>
+  </si>
+  <si>
+    <t>13.12.20251</t>
+  </si>
+  <si>
+    <t>13.12.20252</t>
+  </si>
+  <si>
+    <t>13.12.20253</t>
+  </si>
+  <si>
+    <t>13.12.20254</t>
+  </si>
+  <si>
+    <t>13.12.20255</t>
+  </si>
+  <si>
+    <t>13.12.20256</t>
+  </si>
+  <si>
+    <t>13.12.20257</t>
+  </si>
+  <si>
+    <t>13.12.20258</t>
+  </si>
+  <si>
+    <t>13.12.20259</t>
+  </si>
+  <si>
+    <t>13.12.202510</t>
+  </si>
+  <si>
+    <t>13.12.202511</t>
+  </si>
+  <si>
+    <t>13.12.202512</t>
+  </si>
+  <si>
+    <t>13.12.202513</t>
+  </si>
+  <si>
+    <t>13.12.202514</t>
+  </si>
+  <si>
+    <t>13.12.202515</t>
+  </si>
+  <si>
+    <t>13.12.202516</t>
+  </si>
+  <si>
+    <t>13.12.202517</t>
+  </si>
+  <si>
+    <t>13.12.202518</t>
+  </si>
+  <si>
+    <t>13.12.202519</t>
+  </si>
+  <si>
+    <t>13.12.202520</t>
+  </si>
+  <si>
+    <t>13.12.202521</t>
+  </si>
+  <si>
+    <t>13.12.202522</t>
+  </si>
+  <si>
+    <t>13.12.202523</t>
+  </si>
+  <si>
+    <t>13.12.202524</t>
+  </si>
+  <si>
+    <t>13.12.202525</t>
+  </si>
+  <si>
+    <t>13.12.202526</t>
+  </si>
+  <si>
+    <t>13.12.202527</t>
+  </si>
+  <si>
+    <t>13.12.202528</t>
+  </si>
+  <si>
+    <t>13.12.202529</t>
+  </si>
+  <si>
+    <t>13.12.202530</t>
+  </si>
+  <si>
+    <t>13.12.202531</t>
+  </si>
+  <si>
+    <t>13.12.202532</t>
+  </si>
+  <si>
+    <t>13.12.202533</t>
+  </si>
+  <si>
+    <t>13.12.202534</t>
+  </si>
+  <si>
+    <t>13.12.202535</t>
+  </si>
+  <si>
+    <t>13.12.202536</t>
+  </si>
+  <si>
+    <t>13.12.202537</t>
+  </si>
+  <si>
+    <t>13.12.202538</t>
+  </si>
+  <si>
+    <t>13.12.202539</t>
+  </si>
+  <si>
+    <t>13.12.202540</t>
+  </si>
+  <si>
+    <t>13.12.202541</t>
+  </si>
+  <si>
+    <t>13.12.202542</t>
+  </si>
+  <si>
+    <t>13.12.202543</t>
+  </si>
+  <si>
+    <t>13.12.202544</t>
+  </si>
+  <si>
+    <t>13.12.202545</t>
+  </si>
+  <si>
+    <t>13.12.202546</t>
+  </si>
+  <si>
+    <t>13.12.202547</t>
+  </si>
+  <si>
+    <t>13.12.202548</t>
+  </si>
+  <si>
+    <t>13.12.202549</t>
+  </si>
+  <si>
+    <t>13.12.202550</t>
+  </si>
+  <si>
+    <t>13.12.202551</t>
+  </si>
+  <si>
+    <t>13.12.202552</t>
+  </si>
+  <si>
+    <t>13.12.202553</t>
+  </si>
+  <si>
+    <t>13.12.202554</t>
+  </si>
+  <si>
+    <t>13.12.202555</t>
+  </si>
+  <si>
+    <t>13.12.202556</t>
+  </si>
+  <si>
+    <t>13.12.202557</t>
+  </si>
+  <si>
+    <t>13.12.202558</t>
+  </si>
+  <si>
+    <t>13.12.202559</t>
+  </si>
+  <si>
+    <t>13.12.202560</t>
+  </si>
+  <si>
+    <t>13.12.202561</t>
+  </si>
+  <si>
+    <t>13.12.202562</t>
+  </si>
+  <si>
+    <t>13.12.202563</t>
+  </si>
+  <si>
+    <t>13.12.202564</t>
+  </si>
+  <si>
+    <t>13.12.202565</t>
+  </si>
+  <si>
+    <t>13.12.202566</t>
+  </si>
+  <si>
+    <t>13.12.202567</t>
+  </si>
+  <si>
+    <t>13.12.202568</t>
+  </si>
+  <si>
+    <t>13.12.202569</t>
+  </si>
+  <si>
+    <t>13.12.202570</t>
+  </si>
+  <si>
+    <t>13.12.202571</t>
+  </si>
+  <si>
+    <t>13.12.202572</t>
+  </si>
+  <si>
+    <t>13.12.202573</t>
+  </si>
+  <si>
+    <t>13.12.202574</t>
+  </si>
+  <si>
+    <t>13.12.202575</t>
+  </si>
+  <si>
+    <t>13.12.202576</t>
+  </si>
+  <si>
+    <t>13.12.202577</t>
+  </si>
+  <si>
+    <t>13.12.202578</t>
+  </si>
+  <si>
+    <t>13.12.202579</t>
+  </si>
+  <si>
+    <t>13.12.202580</t>
+  </si>
+  <si>
+    <t>13.12.202581</t>
+  </si>
+  <si>
+    <t>13.12.202582</t>
+  </si>
+  <si>
+    <t>13.12.202583</t>
+  </si>
+  <si>
+    <t>13.12.202584</t>
+  </si>
+  <si>
+    <t>13.12.202585</t>
+  </si>
+  <si>
+    <t>13.12.202586</t>
+  </si>
+  <si>
+    <t>13.12.202587</t>
+  </si>
+  <si>
+    <t>13.12.202588</t>
+  </si>
+  <si>
+    <t>13.12.202589</t>
+  </si>
+  <si>
+    <t>13.12.202590</t>
+  </si>
+  <si>
+    <t>13.12.202591</t>
+  </si>
+  <si>
+    <t>13.12.202592</t>
+  </si>
+  <si>
+    <t>13.12.202593</t>
+  </si>
+  <si>
+    <t>13.12.202594</t>
+  </si>
+  <si>
+    <t>13.12.202595</t>
+  </si>
+  <si>
+    <t>13.12.202596</t>
+  </si>
+  <si>
+    <t>14.12.20251</t>
+  </si>
+  <si>
+    <t>14.12.20252</t>
+  </si>
+  <si>
+    <t>14.12.20253</t>
+  </si>
+  <si>
+    <t>14.12.20254</t>
+  </si>
+  <si>
+    <t>14.12.20255</t>
+  </si>
+  <si>
+    <t>14.12.20256</t>
+  </si>
+  <si>
+    <t>14.12.20257</t>
+  </si>
+  <si>
+    <t>14.12.20258</t>
+  </si>
+  <si>
+    <t>14.12.20259</t>
+  </si>
+  <si>
+    <t>14.12.202510</t>
+  </si>
+  <si>
+    <t>14.12.202511</t>
+  </si>
+  <si>
+    <t>14.12.202512</t>
+  </si>
+  <si>
+    <t>14.12.202513</t>
+  </si>
+  <si>
+    <t>14.12.202514</t>
+  </si>
+  <si>
+    <t>14.12.202515</t>
+  </si>
+  <si>
+    <t>14.12.202516</t>
+  </si>
+  <si>
+    <t>14.12.202517</t>
+  </si>
+  <si>
+    <t>14.12.202518</t>
+  </si>
+  <si>
+    <t>14.12.202519</t>
+  </si>
+  <si>
+    <t>14.12.202520</t>
+  </si>
+  <si>
+    <t>14.12.202521</t>
+  </si>
+  <si>
+    <t>14.12.202522</t>
+  </si>
+  <si>
+    <t>14.12.202523</t>
+  </si>
+  <si>
+    <t>14.12.202524</t>
+  </si>
+  <si>
+    <t>14.12.202525</t>
+  </si>
+  <si>
+    <t>14.12.202526</t>
+  </si>
+  <si>
+    <t>14.12.202527</t>
+  </si>
+  <si>
+    <t>14.12.202528</t>
+  </si>
+  <si>
+    <t>14.12.202529</t>
+  </si>
+  <si>
+    <t>14.12.202530</t>
+  </si>
+  <si>
+    <t>14.12.202531</t>
+  </si>
+  <si>
+    <t>14.12.202532</t>
+  </si>
+  <si>
+    <t>14.12.202533</t>
+  </si>
+  <si>
+    <t>14.12.202534</t>
+  </si>
+  <si>
+    <t>14.12.202535</t>
+  </si>
+  <si>
+    <t>14.12.202536</t>
+  </si>
+  <si>
+    <t>14.12.202537</t>
+  </si>
+  <si>
+    <t>14.12.202538</t>
+  </si>
+  <si>
+    <t>14.12.202539</t>
+  </si>
+  <si>
+    <t>14.12.202540</t>
+  </si>
+  <si>
+    <t>14.12.202541</t>
+  </si>
+  <si>
+    <t>14.12.202542</t>
+  </si>
+  <si>
+    <t>14.12.202543</t>
+  </si>
+  <si>
+    <t>14.12.202544</t>
+  </si>
+  <si>
+    <t>14.12.202545</t>
+  </si>
+  <si>
+    <t>14.12.202546</t>
+  </si>
+  <si>
+    <t>14.12.202547</t>
+  </si>
+  <si>
+    <t>14.12.202548</t>
+  </si>
+  <si>
+    <t>14.12.202549</t>
+  </si>
+  <si>
+    <t>14.12.202550</t>
+  </si>
+  <si>
+    <t>14.12.202551</t>
+  </si>
+  <si>
+    <t>14.12.202552</t>
+  </si>
+  <si>
+    <t>14.12.202553</t>
+  </si>
+  <si>
+    <t>14.12.202554</t>
+  </si>
+  <si>
+    <t>14.12.202555</t>
+  </si>
+  <si>
+    <t>14.12.202556</t>
+  </si>
+  <si>
+    <t>14.12.202557</t>
+  </si>
+  <si>
+    <t>14.12.202558</t>
+  </si>
+  <si>
+    <t>14.12.202559</t>
+  </si>
+  <si>
+    <t>14.12.202560</t>
+  </si>
+  <si>
+    <t>14.12.202561</t>
+  </si>
+  <si>
+    <t>14.12.202562</t>
+  </si>
+  <si>
+    <t>14.12.202563</t>
+  </si>
+  <si>
+    <t>14.12.202564</t>
+  </si>
+  <si>
+    <t>14.12.202565</t>
+  </si>
+  <si>
+    <t>14.12.202566</t>
+  </si>
+  <si>
+    <t>14.12.202567</t>
+  </si>
+  <si>
+    <t>14.12.202568</t>
+  </si>
+  <si>
+    <t>14.12.202569</t>
+  </si>
+  <si>
+    <t>14.12.202570</t>
+  </si>
+  <si>
+    <t>14.12.202571</t>
+  </si>
+  <si>
+    <t>14.12.202572</t>
+  </si>
+  <si>
+    <t>14.12.202573</t>
+  </si>
+  <si>
+    <t>14.12.202574</t>
+  </si>
+  <si>
+    <t>14.12.202575</t>
+  </si>
+  <si>
+    <t>14.12.202576</t>
+  </si>
+  <si>
+    <t>14.12.202577</t>
+  </si>
+  <si>
+    <t>14.12.202578</t>
+  </si>
+  <si>
+    <t>14.12.202579</t>
+  </si>
+  <si>
+    <t>14.12.202580</t>
+  </si>
+  <si>
+    <t>14.12.202581</t>
+  </si>
+  <si>
+    <t>14.12.202582</t>
+  </si>
+  <si>
+    <t>14.12.202583</t>
+  </si>
+  <si>
+    <t>14.12.202584</t>
+  </si>
+  <si>
+    <t>14.12.202585</t>
+  </si>
+  <si>
+    <t>14.12.202586</t>
+  </si>
+  <si>
+    <t>14.12.202587</t>
+  </si>
+  <si>
+    <t>14.12.202588</t>
+  </si>
+  <si>
+    <t>14.12.202589</t>
+  </si>
+  <si>
+    <t>14.12.202590</t>
+  </si>
+  <si>
+    <t>14.12.202591</t>
+  </si>
+  <si>
+    <t>14.12.202592</t>
+  </si>
+  <si>
+    <t>14.12.202593</t>
+  </si>
+  <si>
+    <t>14.12.202594</t>
+  </si>
+  <si>
+    <t>14.12.202595</t>
+  </si>
+  <si>
+    <t>14.12.202596</t>
+  </si>
+  <si>
+    <t>15.12.20251</t>
+  </si>
+  <si>
+    <t>15.12.20252</t>
+  </si>
+  <si>
+    <t>15.12.20253</t>
+  </si>
+  <si>
+    <t>15.12.20254</t>
+  </si>
+  <si>
+    <t>15.12.20255</t>
+  </si>
+  <si>
+    <t>15.12.20256</t>
+  </si>
+  <si>
+    <t>15.12.20257</t>
+  </si>
+  <si>
+    <t>15.12.20258</t>
+  </si>
+  <si>
+    <t>15.12.20259</t>
+  </si>
+  <si>
+    <t>15.12.202510</t>
+  </si>
+  <si>
+    <t>15.12.202511</t>
+  </si>
+  <si>
+    <t>15.12.202512</t>
+  </si>
+  <si>
+    <t>15.12.202513</t>
+  </si>
+  <si>
+    <t>15.12.202514</t>
+  </si>
+  <si>
+    <t>15.12.202515</t>
+  </si>
+  <si>
+    <t>15.12.202516</t>
+  </si>
+  <si>
+    <t>15.12.202517</t>
+  </si>
+  <si>
+    <t>15.12.202518</t>
+  </si>
+  <si>
+    <t>15.12.202519</t>
+  </si>
+  <si>
+    <t>15.12.202520</t>
+  </si>
+  <si>
+    <t>15.12.202521</t>
+  </si>
+  <si>
+    <t>15.12.202522</t>
+  </si>
+  <si>
+    <t>15.12.202523</t>
+  </si>
+  <si>
+    <t>15.12.202524</t>
+  </si>
+  <si>
+    <t>15.12.202525</t>
+  </si>
+  <si>
+    <t>15.12.202526</t>
+  </si>
+  <si>
+    <t>15.12.202527</t>
+  </si>
+  <si>
+    <t>15.12.202528</t>
+  </si>
+  <si>
+    <t>15.12.202529</t>
+  </si>
+  <si>
+    <t>15.12.202530</t>
+  </si>
+  <si>
+    <t>15.12.202531</t>
+  </si>
+  <si>
+    <t>15.12.202532</t>
+  </si>
+  <si>
+    <t>15.12.202533</t>
+  </si>
+  <si>
+    <t>15.12.202534</t>
+  </si>
+  <si>
+    <t>15.12.202535</t>
+  </si>
+  <si>
+    <t>15.12.202536</t>
+  </si>
+  <si>
+    <t>15.12.202537</t>
+  </si>
+  <si>
+    <t>15.12.202538</t>
+  </si>
+  <si>
+    <t>15.12.202539</t>
+  </si>
+  <si>
+    <t>15.12.202540</t>
+  </si>
+  <si>
+    <t>15.12.202541</t>
+  </si>
+  <si>
+    <t>15.12.202542</t>
+  </si>
+  <si>
+    <t>15.12.202543</t>
+  </si>
+  <si>
+    <t>15.12.202544</t>
+  </si>
+  <si>
+    <t>15.12.202545</t>
+  </si>
+  <si>
+    <t>15.12.202546</t>
+  </si>
+  <si>
+    <t>15.12.202547</t>
+  </si>
+  <si>
+    <t>15.12.202548</t>
+  </si>
+  <si>
+    <t>15.12.202549</t>
+  </si>
+  <si>
+    <t>15.12.202550</t>
+  </si>
+  <si>
+    <t>15.12.202551</t>
+  </si>
+  <si>
+    <t>15.12.202552</t>
+  </si>
+  <si>
+    <t>15.12.202553</t>
+  </si>
+  <si>
+    <t>15.12.202554</t>
+  </si>
+  <si>
+    <t>15.12.202555</t>
+  </si>
+  <si>
+    <t>15.12.202556</t>
+  </si>
+  <si>
+    <t>15.12.202557</t>
+  </si>
+  <si>
+    <t>15.12.202558</t>
+  </si>
+  <si>
+    <t>15.12.202559</t>
+  </si>
+  <si>
+    <t>15.12.202560</t>
+  </si>
+  <si>
+    <t>15.12.202561</t>
+  </si>
+  <si>
+    <t>15.12.202562</t>
+  </si>
+  <si>
+    <t>15.12.202563</t>
+  </si>
+  <si>
+    <t>15.12.202564</t>
+  </si>
+  <si>
+    <t>15.12.202565</t>
+  </si>
+  <si>
+    <t>15.12.202566</t>
+  </si>
+  <si>
+    <t>15.12.202567</t>
+  </si>
+  <si>
+    <t>15.12.202568</t>
+  </si>
+  <si>
+    <t>15.12.202569</t>
+  </si>
+  <si>
+    <t>15.12.202570</t>
+  </si>
+  <si>
+    <t>15.12.202571</t>
+  </si>
+  <si>
+    <t>15.12.202572</t>
+  </si>
+  <si>
+    <t>15.12.202573</t>
+  </si>
+  <si>
+    <t>15.12.202574</t>
+  </si>
+  <si>
+    <t>15.12.202575</t>
+  </si>
+  <si>
+    <t>15.12.202576</t>
+  </si>
+  <si>
+    <t>15.12.202577</t>
+  </si>
+  <si>
+    <t>15.12.202578</t>
+  </si>
+  <si>
+    <t>15.12.202579</t>
+  </si>
+  <si>
+    <t>15.12.202580</t>
+  </si>
+  <si>
+    <t>15.12.202581</t>
+  </si>
+  <si>
+    <t>15.12.202582</t>
+  </si>
+  <si>
+    <t>15.12.202583</t>
+  </si>
+  <si>
+    <t>15.12.202584</t>
+  </si>
+  <si>
+    <t>15.12.202585</t>
+  </si>
+  <si>
+    <t>15.12.202586</t>
+  </si>
+  <si>
+    <t>15.12.202587</t>
+  </si>
+  <si>
+    <t>15.12.202588</t>
+  </si>
+  <si>
+    <t>15.12.202589</t>
+  </si>
+  <si>
+    <t>15.12.202590</t>
+  </si>
+  <si>
+    <t>15.12.202591</t>
+  </si>
+  <si>
+    <t>15.12.202592</t>
+  </si>
+  <si>
+    <t>15.12.202593</t>
+  </si>
+  <si>
+    <t>15.12.202594</t>
+  </si>
+  <si>
+    <t>15.12.202595</t>
+  </si>
+  <si>
+    <t>15.12.202596</t>
   </si>
 </sst>
 </file>
@@ -963,7 +1827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -985,10 +1849,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45994</v>
+        <v>46002</v>
       </c>
       <c r="B2">
-        <v>5767</v>
+        <v>5959</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -999,10 +1863,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45994.01041666666</v>
+        <v>46002.01041666666</v>
       </c>
       <c r="B3">
-        <v>5729</v>
+        <v>5932</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1013,10 +1877,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45994.02083333334</v>
+        <v>46002.02083333334</v>
       </c>
       <c r="B4">
-        <v>5666</v>
+        <v>5874</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1027,10 +1891,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45994.03125</v>
+        <v>46002.03125</v>
       </c>
       <c r="B5">
-        <v>5691</v>
+        <v>5856</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1041,10 +1905,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45994.04166666666</v>
+        <v>46002.04166666666</v>
       </c>
       <c r="B6">
-        <v>5643</v>
+        <v>5886</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1055,10 +1919,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45994.05208333334</v>
+        <v>46002.05208333334</v>
       </c>
       <c r="B7">
-        <v>5636</v>
+        <v>5821</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1069,10 +1933,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45994.0625</v>
+        <v>46002.0625</v>
       </c>
       <c r="B8">
-        <v>5604</v>
+        <v>5740</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1083,10 +1947,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45994.07291666666</v>
+        <v>46002.07291666666</v>
       </c>
       <c r="B9">
-        <v>5624</v>
+        <v>5733</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1097,10 +1961,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45994.08333333334</v>
+        <v>46002.08333333334</v>
       </c>
       <c r="B10">
-        <v>5620</v>
+        <v>5754</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1111,10 +1975,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45994.09375</v>
+        <v>46002.09375</v>
       </c>
       <c r="B11">
-        <v>5584</v>
+        <v>5725</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1125,10 +1989,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45994.10416666666</v>
+        <v>46002.10416666666</v>
       </c>
       <c r="B12">
-        <v>5582</v>
+        <v>5730</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1139,10 +2003,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45994.11458333334</v>
+        <v>46002.11458333334</v>
       </c>
       <c r="B13">
-        <v>5598</v>
+        <v>5743</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1153,10 +2017,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45994.125</v>
+        <v>46002.125</v>
       </c>
       <c r="B14">
-        <v>5617</v>
+        <v>5795</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1167,10 +2031,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45994.13541666666</v>
+        <v>46002.13541666666</v>
       </c>
       <c r="B15">
-        <v>5604</v>
+        <v>5781</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1181,10 +2045,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45994.14583333334</v>
+        <v>46002.14583333334</v>
       </c>
       <c r="B16">
-        <v>5677</v>
+        <v>5810</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1195,10 +2059,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45994.15625</v>
+        <v>46002.15625</v>
       </c>
       <c r="B17">
-        <v>5673</v>
+        <v>5817</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1209,10 +2073,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45994.16666666666</v>
+        <v>46002.16666666666</v>
       </c>
       <c r="B18">
-        <v>5786</v>
+        <v>5891</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1223,10 +2087,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45994.17708333334</v>
+        <v>46002.17708333334</v>
       </c>
       <c r="B19">
-        <v>5840</v>
+        <v>5963</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1237,10 +2101,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45994.1875</v>
+        <v>46002.1875</v>
       </c>
       <c r="B20">
-        <v>5936</v>
+        <v>6124</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1251,10 +2115,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45994.19791666666</v>
+        <v>46002.19791666666</v>
       </c>
       <c r="B21">
-        <v>6084</v>
+        <v>6172</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1265,10 +2129,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45994.20833333334</v>
+        <v>46002.20833333334</v>
       </c>
       <c r="B22">
-        <v>6306</v>
+        <v>6387</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1279,10 +2143,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45994.21875</v>
+        <v>46002.21875</v>
       </c>
       <c r="B23">
-        <v>6433</v>
+        <v>6588</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1293,10 +2157,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45994.22916666666</v>
+        <v>46002.22916666666</v>
       </c>
       <c r="B24">
-        <v>6628</v>
+        <v>6787</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1307,10 +2171,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45994.23958333334</v>
+        <v>46002.23958333334</v>
       </c>
       <c r="B25">
-        <v>6808</v>
+        <v>7050</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1321,10 +2185,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45994.25</v>
+        <v>46002.25</v>
       </c>
       <c r="B26">
-        <v>7130</v>
+        <v>7322</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1335,10 +2199,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45994.26041666666</v>
+        <v>46002.26041666666</v>
       </c>
       <c r="B27">
-        <v>7305</v>
+        <v>7528</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1349,10 +2213,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45994.27083333334</v>
+        <v>46002.27083333334</v>
       </c>
       <c r="B28">
-        <v>7422</v>
+        <v>7628</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1363,10 +2227,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45994.28125</v>
+        <v>46002.28125</v>
       </c>
       <c r="B29">
-        <v>7490</v>
+        <v>7708</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1377,10 +2241,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45994.29166666666</v>
+        <v>46002.29166666666</v>
       </c>
       <c r="B30">
-        <v>7709</v>
+        <v>7913</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1391,10 +2255,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45994.30208333334</v>
+        <v>46002.30208333334</v>
       </c>
       <c r="B31">
-        <v>7826</v>
+        <v>7973</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1405,10 +2269,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45994.3125</v>
+        <v>46002.3125</v>
       </c>
       <c r="B32">
-        <v>7953</v>
+        <v>8030</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1419,10 +2283,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45994.32291666666</v>
+        <v>46002.32291666666</v>
       </c>
       <c r="B33">
-        <v>7897</v>
+        <v>8094</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1433,10 +2297,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45994.33333333334</v>
+        <v>46002.33333333334</v>
       </c>
       <c r="B34">
-        <v>7965</v>
+        <v>8063</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1447,10 +2311,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45994.34375</v>
+        <v>46002.34375</v>
       </c>
       <c r="B35">
-        <v>7999</v>
+        <v>8099</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1461,10 +2325,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45994.35416666666</v>
+        <v>46002.35416666666</v>
       </c>
       <c r="B36">
-        <v>7944</v>
+        <v>8019</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1475,10 +2339,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45994.36458333334</v>
+        <v>46002.36458333334</v>
       </c>
       <c r="B37">
-        <v>7884</v>
+        <v>7918</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1489,10 +2353,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45994.375</v>
+        <v>46002.375</v>
       </c>
       <c r="B38">
-        <v>8044</v>
+        <v>7838</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1503,10 +2367,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45994.38541666666</v>
+        <v>46002.38541666666</v>
       </c>
       <c r="B39">
-        <v>7690</v>
+        <v>7773</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1517,10 +2381,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45994.39583333334</v>
+        <v>46002.39583333334</v>
       </c>
       <c r="B40">
-        <v>7979</v>
+        <v>7708</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1531,10 +2395,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45994.40625</v>
+        <v>46002.40625</v>
       </c>
       <c r="B41">
-        <v>7567</v>
+        <v>7629</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1545,10 +2409,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45994.41666666666</v>
+        <v>46002.41666666666</v>
       </c>
       <c r="B42">
-        <v>7663</v>
+        <v>7489</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1559,10 +2423,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45994.42708333334</v>
+        <v>46002.42708333334</v>
       </c>
       <c r="B43">
-        <v>7822</v>
+        <v>7456</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1573,10 +2437,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45994.4375</v>
+        <v>46002.4375</v>
       </c>
       <c r="B44">
-        <v>7698</v>
+        <v>7393</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1587,10 +2451,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45994.44791666666</v>
+        <v>46002.44791666666</v>
       </c>
       <c r="B45">
-        <v>7603</v>
+        <v>7315</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1601,10 +2465,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45994.45833333334</v>
+        <v>46002.45833333334</v>
       </c>
       <c r="B46">
-        <v>7572</v>
+        <v>7207</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1615,10 +2479,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45994.46875</v>
+        <v>46002.46875</v>
       </c>
       <c r="B47">
-        <v>7676</v>
+        <v>7112</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1629,10 +2493,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45994.47916666666</v>
+        <v>46002.47916666666</v>
       </c>
       <c r="B48">
-        <v>7602</v>
+        <v>7133</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1643,10 +2507,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45994.48958333334</v>
+        <v>46002.48958333334</v>
       </c>
       <c r="B49">
-        <v>7682</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1657,10 +2521,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45994.5</v>
+        <v>46002.5</v>
       </c>
       <c r="B50">
-        <v>7647</v>
+        <v>7127</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1671,10 +2535,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45994.51041666666</v>
+        <v>46002.51041666666</v>
       </c>
       <c r="B51">
-        <v>7710</v>
+        <v>7078</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1685,10 +2549,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45994.52083333334</v>
+        <v>46002.52083333334</v>
       </c>
       <c r="B52">
-        <v>7669</v>
+        <v>7101</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1699,10 +2563,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45994.53125</v>
+        <v>46002.53125</v>
       </c>
       <c r="B53">
-        <v>7696</v>
+        <v>7150</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -1713,10 +2577,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45994.54166666666</v>
+        <v>46002.54166666666</v>
       </c>
       <c r="B54">
-        <v>7716</v>
+        <v>7153</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -1727,10 +2591,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45994.55208333334</v>
+        <v>46002.55208333334</v>
       </c>
       <c r="B55">
-        <v>7741</v>
+        <v>7269</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -1741,10 +2605,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45994.5625</v>
+        <v>46002.5625</v>
       </c>
       <c r="B56">
-        <v>7716</v>
+        <v>7289</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -1755,10 +2619,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45994.57291666666</v>
+        <v>46002.57291666666</v>
       </c>
       <c r="B57">
-        <v>7712</v>
+        <v>7273</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -1769,10 +2633,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45994.58333333334</v>
+        <v>46002.58333333334</v>
       </c>
       <c r="B58">
-        <v>7691</v>
+        <v>7393</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -1783,10 +2647,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45994.59375</v>
+        <v>46002.59375</v>
       </c>
       <c r="B59">
-        <v>7804</v>
+        <v>7532</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -1797,10 +2661,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45994.60416666666</v>
+        <v>46002.60416666666</v>
       </c>
       <c r="B60">
-        <v>7724</v>
+        <v>7620</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -1811,10 +2675,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45994.61458333334</v>
+        <v>46002.61458333334</v>
       </c>
       <c r="B61">
-        <v>7802</v>
+        <v>7695</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -1825,10 +2689,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45994.625</v>
+        <v>46002.625</v>
       </c>
       <c r="B62">
-        <v>7862</v>
+        <v>7807</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -1839,10 +2703,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45994.63541666666</v>
+        <v>46002.63541666666</v>
       </c>
       <c r="B63">
-        <v>7910</v>
+        <v>7924</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -1853,10 +2717,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45994.64583333334</v>
+        <v>46002.64583333334</v>
       </c>
       <c r="B64">
-        <v>7935</v>
+        <v>7999</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -1867,10 +2731,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45994.65625</v>
+        <v>46002.65625</v>
       </c>
       <c r="B65">
-        <v>8055</v>
+        <v>8111</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -1881,10 +2745,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45994.66666666666</v>
+        <v>46002.66666666666</v>
       </c>
       <c r="B66">
-        <v>8215</v>
+        <v>8237</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -1895,10 +2759,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45994.67708333334</v>
+        <v>46002.67708333334</v>
       </c>
       <c r="B67">
-        <v>8255</v>
+        <v>8329</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -1909,10 +2773,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45994.6875</v>
+        <v>46002.6875</v>
       </c>
       <c r="B68">
-        <v>8226</v>
+        <v>8408</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -1923,10 +2787,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45994.69791666666</v>
+        <v>46002.69791666666</v>
       </c>
       <c r="B69">
-        <v>8217</v>
+        <v>8349</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -1937,10 +2801,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45994.70833333334</v>
+        <v>46002.70833333334</v>
       </c>
       <c r="B70">
-        <v>8174</v>
+        <v>8332</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -1951,10 +2815,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45994.71875</v>
+        <v>46002.71875</v>
       </c>
       <c r="B71">
-        <v>8150</v>
+        <v>8285</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -1965,10 +2829,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45994.72916666666</v>
+        <v>46002.72916666666</v>
       </c>
       <c r="B72">
-        <v>8180</v>
+        <v>8315</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -1979,10 +2843,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45994.73958333334</v>
+        <v>46002.73958333334</v>
       </c>
       <c r="B73">
-        <v>8081</v>
+        <v>8307</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -1993,10 +2857,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45994.75</v>
+        <v>46002.75</v>
       </c>
       <c r="B74">
-        <v>8061</v>
+        <v>8242</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -2007,10 +2871,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45994.76041666666</v>
+        <v>46002.76041666666</v>
       </c>
       <c r="B75">
-        <v>8030</v>
+        <v>8250</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -2021,10 +2885,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45994.77083333334</v>
+        <v>46002.77083333334</v>
       </c>
       <c r="B76">
-        <v>8022</v>
+        <v>8228</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -2035,10 +2899,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45994.78125</v>
+        <v>46002.78125</v>
       </c>
       <c r="B77">
-        <v>7982</v>
+        <v>8174</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -2049,10 +2913,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45994.79166666666</v>
+        <v>46002.79166666666</v>
       </c>
       <c r="B78">
-        <v>7907</v>
+        <v>8058</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -2063,10 +2927,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45994.80208333334</v>
+        <v>46002.80208333334</v>
       </c>
       <c r="B79">
-        <v>7919</v>
+        <v>8072</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -2077,10 +2941,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45994.8125</v>
+        <v>46002.8125</v>
       </c>
       <c r="B80">
-        <v>7808</v>
+        <v>7999</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -2091,10 +2955,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45994.82291666666</v>
+        <v>46002.82291666666</v>
       </c>
       <c r="B81">
-        <v>7740</v>
+        <v>7895</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -2105,10 +2969,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45994.83333333334</v>
+        <v>46002.83333333334</v>
       </c>
       <c r="B82">
-        <v>7581</v>
+        <v>7740</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -2119,10 +2983,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45994.84375</v>
+        <v>46002.84375</v>
       </c>
       <c r="B83">
-        <v>7491</v>
+        <v>7657</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -2133,10 +2997,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45994.85416666666</v>
+        <v>46002.85416666666</v>
       </c>
       <c r="B84">
-        <v>7348</v>
+        <v>7538</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -2147,10 +3011,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45994.86458333334</v>
+        <v>46002.86458333334</v>
       </c>
       <c r="B85">
-        <v>7295</v>
+        <v>7385</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -2161,10 +3025,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45994.875</v>
+        <v>46002.875</v>
       </c>
       <c r="B86">
-        <v>7123</v>
+        <v>7245</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -2175,10 +3039,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45994.88541666666</v>
+        <v>46002.88541666666</v>
       </c>
       <c r="B87">
-        <v>6931</v>
+        <v>7005</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -2189,10 +3053,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45994.89583333334</v>
+        <v>46002.89583333334</v>
       </c>
       <c r="B88">
-        <v>6759</v>
+        <v>6826</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -2203,10 +3067,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45994.90625</v>
+        <v>46002.90625</v>
       </c>
       <c r="B89">
-        <v>6665</v>
+        <v>6719</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -2217,10 +3081,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45994.91666666666</v>
+        <v>46002.91666666666</v>
       </c>
       <c r="B90">
-        <v>6514</v>
+        <v>6621</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -2231,10 +3095,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45994.92708333334</v>
+        <v>46002.92708333334</v>
       </c>
       <c r="B91">
-        <v>6389</v>
+        <v>6495</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -2245,10 +3109,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45994.9375</v>
+        <v>46002.9375</v>
       </c>
       <c r="B92">
-        <v>6301</v>
+        <v>6377</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -2259,10 +3123,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45994.94791666666</v>
+        <v>46002.94791666666</v>
       </c>
       <c r="B93">
-        <v>6225</v>
+        <v>6246</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -2273,10 +3137,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45994.95833333334</v>
+        <v>46002.95833333334</v>
       </c>
       <c r="B94">
-        <v>6097</v>
+        <v>6145</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -2287,10 +3151,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45994.96875</v>
+        <v>46002.96875</v>
       </c>
       <c r="B95">
-        <v>6047</v>
+        <v>6105</v>
       </c>
       <c r="C95">
         <v>94</v>
@@ -2301,10 +3165,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45994.97916666666</v>
+        <v>46002.97916666666</v>
       </c>
       <c r="B96">
-        <v>5968</v>
+        <v>6026</v>
       </c>
       <c r="C96">
         <v>95</v>
@@ -2315,10 +3179,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>45994.98958333334</v>
+        <v>46002.98958333334</v>
       </c>
       <c r="B97">
-        <v>5957</v>
+        <v>6071</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -2329,10 +3193,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>45995</v>
+        <v>46003</v>
       </c>
       <c r="B98">
-        <v>5848</v>
+        <v>5946</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2343,10 +3207,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>45995.01041666666</v>
+        <v>46003.01041666666</v>
       </c>
       <c r="B99">
-        <v>5824</v>
+        <v>5856</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2357,10 +3221,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>45995.02083333334</v>
+        <v>46003.02083333334</v>
       </c>
       <c r="B100">
-        <v>5811</v>
+        <v>5902</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2371,10 +3235,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>45995.03125</v>
+        <v>46003.03125</v>
       </c>
       <c r="B101">
-        <v>5780</v>
+        <v>5830</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2385,10 +3249,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>45995.04166666666</v>
+        <v>46003.04166666666</v>
       </c>
       <c r="B102">
-        <v>5649</v>
+        <v>5800</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2399,10 +3263,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>45995.05208333334</v>
+        <v>46003.05208333334</v>
       </c>
       <c r="B103">
-        <v>5596</v>
+        <v>5734</v>
       </c>
       <c r="C103">
         <v>6</v>
@@ -2413,10 +3277,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>45995.0625</v>
+        <v>46003.0625</v>
       </c>
       <c r="B104">
-        <v>5626</v>
+        <v>5686</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -2427,10 +3291,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>45995.07291666666</v>
+        <v>46003.07291666666</v>
       </c>
       <c r="B105">
-        <v>5650</v>
+        <v>5721</v>
       </c>
       <c r="C105">
         <v>8</v>
@@ -2441,10 +3305,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>45995.08333333334</v>
+        <v>46003.08333333334</v>
       </c>
       <c r="B106">
-        <v>5580</v>
+        <v>5710</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -2455,10 +3319,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>45995.09375</v>
+        <v>46003.09375</v>
       </c>
       <c r="B107">
-        <v>5525</v>
+        <v>5627</v>
       </c>
       <c r="C107">
         <v>10</v>
@@ -2469,10 +3333,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>45995.10416666666</v>
+        <v>46003.10416666666</v>
       </c>
       <c r="B108">
-        <v>5577</v>
+        <v>5639</v>
       </c>
       <c r="C108">
         <v>11</v>
@@ -2483,10 +3347,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>45995.11458333334</v>
+        <v>46003.11458333334</v>
       </c>
       <c r="B109">
-        <v>5655</v>
+        <v>5696</v>
       </c>
       <c r="C109">
         <v>12</v>
@@ -2497,10 +3361,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>45995.125</v>
+        <v>46003.125</v>
       </c>
       <c r="B110">
-        <v>5565</v>
+        <v>5730</v>
       </c>
       <c r="C110">
         <v>13</v>
@@ -2511,10 +3375,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>45995.13541666666</v>
+        <v>46003.13541666666</v>
       </c>
       <c r="B111">
-        <v>5634</v>
+        <v>5723</v>
       </c>
       <c r="C111">
         <v>14</v>
@@ -2525,10 +3389,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>45995.14583333334</v>
+        <v>46003.14583333334</v>
       </c>
       <c r="B112">
-        <v>5707</v>
+        <v>5731</v>
       </c>
       <c r="C112">
         <v>15</v>
@@ -2539,10 +3403,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>45995.15625</v>
+        <v>46003.15625</v>
       </c>
       <c r="B113">
-        <v>5687</v>
+        <v>5763</v>
       </c>
       <c r="C113">
         <v>16</v>
@@ -2553,10 +3417,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>45995.16666666666</v>
+        <v>46003.16666666666</v>
       </c>
       <c r="B114">
-        <v>5821</v>
+        <v>5826</v>
       </c>
       <c r="C114">
         <v>17</v>
@@ -2567,10 +3431,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>45995.17708333334</v>
+        <v>46003.17708333334</v>
       </c>
       <c r="B115">
-        <v>5852</v>
+        <v>5886</v>
       </c>
       <c r="C115">
         <v>18</v>
@@ -2581,10 +3445,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>45995.1875</v>
+        <v>46003.1875</v>
       </c>
       <c r="B116">
-        <v>6012</v>
+        <v>5981</v>
       </c>
       <c r="C116">
         <v>19</v>
@@ -2595,10 +3459,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>45995.19791666666</v>
+        <v>46003.19791666666</v>
       </c>
       <c r="B117">
-        <v>6037</v>
+        <v>6063</v>
       </c>
       <c r="C117">
         <v>20</v>
@@ -2609,10 +3473,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>45995.20833333334</v>
+        <v>46003.20833333334</v>
       </c>
       <c r="B118">
-        <v>6316</v>
+        <v>6241</v>
       </c>
       <c r="C118">
         <v>21</v>
@@ -2623,10 +3487,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>45995.21875</v>
+        <v>46003.21875</v>
       </c>
       <c r="B119">
-        <v>6460</v>
+        <v>6447</v>
       </c>
       <c r="C119">
         <v>22</v>
@@ -2637,10 +3501,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>45995.22916666666</v>
+        <v>46003.22916666666</v>
       </c>
       <c r="B120">
-        <v>6647</v>
+        <v>6615</v>
       </c>
       <c r="C120">
         <v>23</v>
@@ -2651,10 +3515,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>45995.23958333334</v>
+        <v>46003.23958333334</v>
       </c>
       <c r="B121">
-        <v>6829</v>
+        <v>6813</v>
       </c>
       <c r="C121">
         <v>24</v>
@@ -2665,10 +3529,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>45995.25</v>
+        <v>46003.25</v>
       </c>
       <c r="B122">
-        <v>7063</v>
+        <v>7145</v>
       </c>
       <c r="C122">
         <v>25</v>
@@ -2679,10 +3543,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>45995.26041666666</v>
+        <v>46003.26041666666</v>
       </c>
       <c r="B123">
-        <v>7369</v>
+        <v>7301</v>
       </c>
       <c r="C123">
         <v>26</v>
@@ -2693,10 +3557,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>45995.27083333334</v>
+        <v>46003.27083333334</v>
       </c>
       <c r="B124">
-        <v>7385</v>
+        <v>7443</v>
       </c>
       <c r="C124">
         <v>27</v>
@@ -2707,10 +3571,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>45995.28125</v>
+        <v>46003.28125</v>
       </c>
       <c r="B125">
-        <v>7492</v>
+        <v>7646</v>
       </c>
       <c r="C125">
         <v>28</v>
@@ -2721,10 +3585,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>45995.29166666666</v>
+        <v>46003.29166666666</v>
       </c>
       <c r="B126">
-        <v>7599</v>
+        <v>7804</v>
       </c>
       <c r="C126">
         <v>29</v>
@@ -2735,10 +3599,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>45995.30208333334</v>
+        <v>46003.30208333334</v>
       </c>
       <c r="B127">
-        <v>7736</v>
+        <v>7938</v>
       </c>
       <c r="C127">
         <v>30</v>
@@ -2749,10 +3613,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>45995.3125</v>
+        <v>46003.3125</v>
       </c>
       <c r="B128">
-        <v>7782</v>
+        <v>7920</v>
       </c>
       <c r="C128">
         <v>31</v>
@@ -2763,10 +3627,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>45995.32291666666</v>
+        <v>46003.32291666666</v>
       </c>
       <c r="B129">
-        <v>7792</v>
+        <v>7936</v>
       </c>
       <c r="C129">
         <v>32</v>
@@ -2777,10 +3641,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>45995.33333333334</v>
+        <v>46003.33333333334</v>
       </c>
       <c r="B130">
-        <v>7798</v>
+        <v>7987</v>
       </c>
       <c r="C130">
         <v>33</v>
@@ -2791,10 +3655,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>45995.34375</v>
+        <v>46003.34375</v>
       </c>
       <c r="B131">
-        <v>7769</v>
+        <v>8048</v>
       </c>
       <c r="C131">
         <v>34</v>
@@ -2805,10 +3669,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>45995.35416666666</v>
+        <v>46003.35416666666</v>
       </c>
       <c r="B132">
-        <v>7738</v>
+        <v>8090</v>
       </c>
       <c r="C132">
         <v>35</v>
@@ -2819,10 +3683,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>45995.36458333334</v>
+        <v>46003.36458333334</v>
       </c>
       <c r="B133">
-        <v>7696</v>
+        <v>8122</v>
       </c>
       <c r="C133">
         <v>36</v>
@@ -2833,10 +3697,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>45995.375</v>
+        <v>46003.375</v>
       </c>
       <c r="B134">
-        <v>7635</v>
+        <v>8034</v>
       </c>
       <c r="C134">
         <v>37</v>
@@ -2847,10 +3711,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>45995.38541666666</v>
+        <v>46003.38541666666</v>
       </c>
       <c r="B135">
-        <v>7527</v>
+        <v>7978</v>
       </c>
       <c r="C135">
         <v>38</v>
@@ -2861,10 +3725,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>45995.39583333334</v>
+        <v>46003.39583333334</v>
       </c>
       <c r="B136">
-        <v>7453</v>
+        <v>7906</v>
       </c>
       <c r="C136">
         <v>39</v>
@@ -2875,10 +3739,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>45995.40625</v>
+        <v>46003.40625</v>
       </c>
       <c r="B137">
-        <v>7452</v>
+        <v>7887</v>
       </c>
       <c r="C137">
         <v>40</v>
@@ -2889,10 +3753,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>45995.41666666666</v>
+        <v>46003.41666666666</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>7851</v>
       </c>
       <c r="C138">
         <v>41</v>
@@ -2903,10 +3767,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>45995.42708333334</v>
+        <v>46003.42708333334</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>7831</v>
       </c>
       <c r="C139">
         <v>42</v>
@@ -2917,10 +3781,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>45995.4375</v>
+        <v>46003.4375</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>7835</v>
       </c>
       <c r="C140">
         <v>43</v>
@@ -2931,10 +3795,10 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>45995.44791666666</v>
+        <v>46003.44791666666</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>7710</v>
       </c>
       <c r="C141">
         <v>44</v>
@@ -2945,10 +3809,10 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>45995.45833333334</v>
+        <v>46003.45833333334</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>7673</v>
       </c>
       <c r="C142">
         <v>45</v>
@@ -2959,10 +3823,10 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>45995.46875</v>
+        <v>46003.46875</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>7648</v>
       </c>
       <c r="C143">
         <v>46</v>
@@ -2973,10 +3837,10 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>45995.47916666666</v>
+        <v>46003.47916666666</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>7680</v>
       </c>
       <c r="C144">
         <v>47</v>
@@ -2987,10 +3851,10 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>45995.48958333334</v>
+        <v>46003.48958333334</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>7591</v>
       </c>
       <c r="C145">
         <v>48</v>
@@ -3001,10 +3865,10 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>45995.5</v>
+        <v>46003.5</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>7664</v>
       </c>
       <c r="C146">
         <v>49</v>
@@ -3015,10 +3879,10 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>45995.51041666666</v>
+        <v>46003.51041666666</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>7705</v>
       </c>
       <c r="C147">
         <v>50</v>
@@ -3029,10 +3893,10 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>45995.52083333334</v>
+        <v>46003.52083333334</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>7708</v>
       </c>
       <c r="C148">
         <v>51</v>
@@ -3043,10 +3907,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>45995.53125</v>
+        <v>46003.53125</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>7697</v>
       </c>
       <c r="C149">
         <v>52</v>
@@ -3057,10 +3921,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>45995.54166666666</v>
+        <v>46003.54166666666</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>7618</v>
       </c>
       <c r="C150">
         <v>53</v>
@@ -3071,10 +3935,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>45995.55208333334</v>
+        <v>46003.55208333334</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>7596</v>
       </c>
       <c r="C151">
         <v>54</v>
@@ -3085,10 +3949,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>45995.5625</v>
+        <v>46003.5625</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>7564</v>
       </c>
       <c r="C152">
         <v>55</v>
@@ -3099,10 +3963,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>45995.57291666666</v>
+        <v>46003.57291666666</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>7572</v>
       </c>
       <c r="C153">
         <v>56</v>
@@ -3113,10 +3977,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>45995.58333333334</v>
+        <v>46003.58333333334</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>7611</v>
       </c>
       <c r="C154">
         <v>57</v>
@@ -3127,10 +3991,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>45995.59375</v>
+        <v>46003.59375</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>7700</v>
       </c>
       <c r="C155">
         <v>58</v>
@@ -3141,10 +4005,10 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>45995.60416666666</v>
+        <v>46003.60416666666</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>7724</v>
       </c>
       <c r="C156">
         <v>59</v>
@@ -3155,10 +4019,10 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>45995.61458333334</v>
+        <v>46003.61458333334</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>7729</v>
       </c>
       <c r="C157">
         <v>60</v>
@@ -3169,10 +4033,10 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>45995.625</v>
+        <v>46003.625</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>7730</v>
       </c>
       <c r="C158">
         <v>61</v>
@@ -3183,10 +4047,10 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>45995.63541666666</v>
+        <v>46003.63541666666</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>7815</v>
       </c>
       <c r="C159">
         <v>62</v>
@@ -3197,10 +4061,10 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>45995.64583333334</v>
+        <v>46003.64583333334</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>7856</v>
       </c>
       <c r="C160">
         <v>63</v>
@@ -3211,10 +4075,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>45995.65625</v>
+        <v>46003.65625</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>8029</v>
       </c>
       <c r="C161">
         <v>64</v>
@@ -3225,10 +4089,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>45995.66666666666</v>
+        <v>46003.66666666666</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>8138</v>
       </c>
       <c r="C162">
         <v>65</v>
@@ -3239,10 +4103,10 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>45995.67708333334</v>
+        <v>46003.67708333334</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>8144</v>
       </c>
       <c r="C163">
         <v>66</v>
@@ -3253,10 +4117,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>45995.6875</v>
+        <v>46003.6875</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>8171</v>
       </c>
       <c r="C164">
         <v>67</v>
@@ -3267,10 +4131,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>45995.69791666666</v>
+        <v>46003.69791666666</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>8214</v>
       </c>
       <c r="C165">
         <v>68</v>
@@ -3281,10 +4145,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>45995.70833333334</v>
+        <v>46003.70833333334</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>8127</v>
       </c>
       <c r="C166">
         <v>69</v>
@@ -3295,10 +4159,10 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>45995.71875</v>
+        <v>46003.71875</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>8146</v>
       </c>
       <c r="C167">
         <v>70</v>
@@ -3309,10 +4173,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>45995.72916666666</v>
+        <v>46003.72916666666</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>8114</v>
       </c>
       <c r="C168">
         <v>71</v>
@@ -3323,10 +4187,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>45995.73958333334</v>
+        <v>46003.73958333334</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>8054</v>
       </c>
       <c r="C169">
         <v>72</v>
@@ -3337,10 +4201,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>45995.75</v>
+        <v>46003.75</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>8049</v>
       </c>
       <c r="C170">
         <v>73</v>
@@ -3351,10 +4215,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>45995.76041666666</v>
+        <v>46003.76041666666</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>8050</v>
       </c>
       <c r="C171">
         <v>74</v>
@@ -3365,10 +4229,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>45995.77083333334</v>
+        <v>46003.77083333334</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>8033</v>
       </c>
       <c r="C172">
         <v>75</v>
@@ -3379,10 +4243,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>45995.78125</v>
+        <v>46003.78125</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>8026</v>
       </c>
       <c r="C173">
         <v>76</v>
@@ -3393,10 +4257,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>45995.79166666666</v>
+        <v>46003.79166666666</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>7875</v>
       </c>
       <c r="C174">
         <v>77</v>
@@ -3407,10 +4271,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>45995.80208333334</v>
+        <v>46003.80208333334</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>7800</v>
       </c>
       <c r="C175">
         <v>78</v>
@@ -3421,10 +4285,10 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>45995.8125</v>
+        <v>46003.8125</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>7780</v>
       </c>
       <c r="C176">
         <v>79</v>
@@ -3435,10 +4299,10 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>45995.82291666666</v>
+        <v>46003.82291666666</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>7685</v>
       </c>
       <c r="C177">
         <v>80</v>
@@ -3449,10 +4313,10 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>45995.83333333334</v>
+        <v>46003.83333333334</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>7604</v>
       </c>
       <c r="C178">
         <v>81</v>
@@ -3463,10 +4327,10 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>45995.84375</v>
+        <v>46003.84375</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>7465</v>
       </c>
       <c r="C179">
         <v>82</v>
@@ -3477,10 +4341,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>45995.85416666666</v>
+        <v>46003.85416666666</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>7345</v>
       </c>
       <c r="C180">
         <v>83</v>
@@ -3491,10 +4355,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>45995.86458333334</v>
+        <v>46003.86458333334</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>7225</v>
       </c>
       <c r="C181">
         <v>84</v>
@@ -3505,10 +4369,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>45995.875</v>
+        <v>46003.875</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>7039</v>
       </c>
       <c r="C182">
         <v>85</v>
@@ -3519,10 +4383,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>45995.88541666666</v>
+        <v>46003.88541666666</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>6900</v>
       </c>
       <c r="C183">
         <v>86</v>
@@ -3533,10 +4397,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>45995.89583333334</v>
+        <v>46003.89583333334</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>6725</v>
       </c>
       <c r="C184">
         <v>87</v>
@@ -3547,10 +4411,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>45995.90625</v>
+        <v>46003.90625</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>6624</v>
       </c>
       <c r="C185">
         <v>88</v>
@@ -3561,10 +4425,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>45995.91666666666</v>
+        <v>46003.91666666666</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>6482</v>
       </c>
       <c r="C186">
         <v>89</v>
@@ -3575,10 +4439,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>45995.92708333334</v>
+        <v>46003.92708333334</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>6436</v>
       </c>
       <c r="C187">
         <v>90</v>
@@ -3589,10 +4453,10 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>45995.9375</v>
+        <v>46003.9375</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>6279</v>
       </c>
       <c r="C188">
         <v>91</v>
@@ -3603,10 +4467,10 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>45995.94791666666</v>
+        <v>46003.94791666666</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>6186</v>
       </c>
       <c r="C189">
         <v>92</v>
@@ -3617,10 +4481,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>45995.95833333334</v>
+        <v>46003.95833333334</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>6085</v>
       </c>
       <c r="C190">
         <v>93</v>
@@ -3631,10 +4495,10 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>45995.96875</v>
+        <v>46003.96875</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>5974</v>
       </c>
       <c r="C191">
         <v>94</v>
@@ -3645,10 +4509,10 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>45995.97916666666</v>
+        <v>46003.97916666666</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>5915</v>
       </c>
       <c r="C192">
         <v>95</v>
@@ -3659,16 +4523,4048 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>45995.98958333334</v>
+        <v>46003.98958333334</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>5877</v>
       </c>
       <c r="C193">
         <v>96</v>
       </c>
       <c r="D193" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
+        <v>46004</v>
+      </c>
+      <c r="B194">
+        <v>5844</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
+        <v>46004.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>5809</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+      <c r="D195" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
+        <v>46004.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>5828</v>
+      </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
+      <c r="D196" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
+        <v>46004.03125</v>
+      </c>
+      <c r="B197">
+        <v>5773</v>
+      </c>
+      <c r="C197">
+        <v>4</v>
+      </c>
+      <c r="D197" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
+        <v>46004.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>5723</v>
+      </c>
+      <c r="C198">
+        <v>5</v>
+      </c>
+      <c r="D198" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
+        <v>46004.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>5692</v>
+      </c>
+      <c r="C199">
+        <v>6</v>
+      </c>
+      <c r="D199" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
+        <v>46004.0625</v>
+      </c>
+      <c r="B200">
+        <v>5688</v>
+      </c>
+      <c r="C200">
+        <v>7</v>
+      </c>
+      <c r="D200" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
+        <v>46004.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>5664</v>
+      </c>
+      <c r="C201">
+        <v>8</v>
+      </c>
+      <c r="D201" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
+        <v>46004.08333333334</v>
+      </c>
+      <c r="B202">
+        <v>5673</v>
+      </c>
+      <c r="C202">
+        <v>9</v>
+      </c>
+      <c r="D202" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
+        <v>46004.09375</v>
+      </c>
+      <c r="B203">
+        <v>5656</v>
+      </c>
+      <c r="C203">
+        <v>10</v>
+      </c>
+      <c r="D203" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
+        <v>46004.10416666666</v>
+      </c>
+      <c r="B204">
+        <v>5593</v>
+      </c>
+      <c r="C204">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
+        <v>46004.11458333334</v>
+      </c>
+      <c r="B205">
+        <v>5645</v>
+      </c>
+      <c r="C205">
+        <v>12</v>
+      </c>
+      <c r="D205" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
+        <v>46004.125</v>
+      </c>
+      <c r="B206">
+        <v>5634</v>
+      </c>
+      <c r="C206">
+        <v>13</v>
+      </c>
+      <c r="D206" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
+        <v>46004.13541666666</v>
+      </c>
+      <c r="B207">
+        <v>5609</v>
+      </c>
+      <c r="C207">
+        <v>14</v>
+      </c>
+      <c r="D207" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
+        <v>46004.14583333334</v>
+      </c>
+      <c r="B208">
+        <v>5605</v>
+      </c>
+      <c r="C208">
+        <v>15</v>
+      </c>
+      <c r="D208" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
+        <v>46004.15625</v>
+      </c>
+      <c r="B209">
+        <v>5624</v>
+      </c>
+      <c r="C209">
+        <v>16</v>
+      </c>
+      <c r="D209" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
+        <v>46004.16666666666</v>
+      </c>
+      <c r="B210">
+        <v>5662</v>
+      </c>
+      <c r="C210">
+        <v>17</v>
+      </c>
+      <c r="D210" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
+        <v>46004.17708333334</v>
+      </c>
+      <c r="B211">
+        <v>5674</v>
+      </c>
+      <c r="C211">
+        <v>18</v>
+      </c>
+      <c r="D211" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
+        <v>46004.1875</v>
+      </c>
+      <c r="B212">
+        <v>5726</v>
+      </c>
+      <c r="C212">
+        <v>19</v>
+      </c>
+      <c r="D212" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
+        <v>46004.19791666666</v>
+      </c>
+      <c r="B213">
+        <v>5756</v>
+      </c>
+      <c r="C213">
+        <v>20</v>
+      </c>
+      <c r="D213" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
+        <v>46004.20833333334</v>
+      </c>
+      <c r="B214">
+        <v>5905</v>
+      </c>
+      <c r="C214">
+        <v>21</v>
+      </c>
+      <c r="D214" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
+        <v>46004.21875</v>
+      </c>
+      <c r="B215">
+        <v>5897</v>
+      </c>
+      <c r="C215">
+        <v>22</v>
+      </c>
+      <c r="D215" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
+        <v>46004.22916666666</v>
+      </c>
+      <c r="B216">
+        <v>5991</v>
+      </c>
+      <c r="C216">
+        <v>23</v>
+      </c>
+      <c r="D216" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
+        <v>46004.23958333334</v>
+      </c>
+      <c r="B217">
+        <v>6010</v>
+      </c>
+      <c r="C217">
+        <v>24</v>
+      </c>
+      <c r="D217" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
+        <v>46004.25</v>
+      </c>
+      <c r="B218">
+        <v>6233</v>
+      </c>
+      <c r="C218">
+        <v>25</v>
+      </c>
+      <c r="D218" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
+        <v>46004.26041666666</v>
+      </c>
+      <c r="B219">
+        <v>6353</v>
+      </c>
+      <c r="C219">
+        <v>26</v>
+      </c>
+      <c r="D219" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
+        <v>46004.27083333334</v>
+      </c>
+      <c r="B220">
+        <v>6434</v>
+      </c>
+      <c r="C220">
+        <v>27</v>
+      </c>
+      <c r="D220" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
+        <v>46004.28125</v>
+      </c>
+      <c r="B221">
+        <v>6528</v>
+      </c>
+      <c r="C221">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
+        <v>46004.29166666666</v>
+      </c>
+      <c r="B222">
+        <v>6604</v>
+      </c>
+      <c r="C222">
+        <v>29</v>
+      </c>
+      <c r="D222" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
+        <v>46004.30208333334</v>
+      </c>
+      <c r="B223">
+        <v>6683</v>
+      </c>
+      <c r="C223">
+        <v>30</v>
+      </c>
+      <c r="D223" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
+        <v>46004.3125</v>
+      </c>
+      <c r="B224">
+        <v>6746</v>
+      </c>
+      <c r="C224">
+        <v>31</v>
+      </c>
+      <c r="D224" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
+        <v>46004.32291666666</v>
+      </c>
+      <c r="B225">
+        <v>6758</v>
+      </c>
+      <c r="C225">
+        <v>32</v>
+      </c>
+      <c r="D225" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
+        <v>46004.33333333334</v>
+      </c>
+      <c r="B226">
+        <v>6844</v>
+      </c>
+      <c r="C226">
+        <v>33</v>
+      </c>
+      <c r="D226" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
+        <v>46004.34375</v>
+      </c>
+      <c r="B227">
+        <v>6863</v>
+      </c>
+      <c r="C227">
+        <v>34</v>
+      </c>
+      <c r="D227" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
+        <v>46004.35416666666</v>
+      </c>
+      <c r="B228">
+        <v>6931</v>
+      </c>
+      <c r="C228">
+        <v>35</v>
+      </c>
+      <c r="D228" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
+        <v>46004.36458333334</v>
+      </c>
+      <c r="B229">
+        <v>6905</v>
+      </c>
+      <c r="C229">
+        <v>36</v>
+      </c>
+      <c r="D229" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
+        <v>46004.375</v>
+      </c>
+      <c r="B230">
+        <v>6784</v>
+      </c>
+      <c r="C230">
+        <v>37</v>
+      </c>
+      <c r="D230" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="2">
+        <v>46004.38541666666</v>
+      </c>
+      <c r="B231">
+        <v>6798</v>
+      </c>
+      <c r="C231">
+        <v>38</v>
+      </c>
+      <c r="D231" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="2">
+        <v>46004.39583333334</v>
+      </c>
+      <c r="B232">
+        <v>6771</v>
+      </c>
+      <c r="C232">
+        <v>39</v>
+      </c>
+      <c r="D232" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="2">
+        <v>46004.40625</v>
+      </c>
+      <c r="B233">
+        <v>6759</v>
+      </c>
+      <c r="C233">
+        <v>40</v>
+      </c>
+      <c r="D233" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="2">
+        <v>46004.41666666666</v>
+      </c>
+      <c r="B234">
+        <v>6725</v>
+      </c>
+      <c r="C234">
+        <v>41</v>
+      </c>
+      <c r="D234" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="2">
+        <v>46004.42708333334</v>
+      </c>
+      <c r="B235">
+        <v>6714</v>
+      </c>
+      <c r="C235">
+        <v>42</v>
+      </c>
+      <c r="D235" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="2">
+        <v>46004.4375</v>
+      </c>
+      <c r="B236">
+        <v>6657</v>
+      </c>
+      <c r="C236">
+        <v>43</v>
+      </c>
+      <c r="D236" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="2">
+        <v>46004.44791666666</v>
+      </c>
+      <c r="B237">
+        <v>6647</v>
+      </c>
+      <c r="C237">
+        <v>44</v>
+      </c>
+      <c r="D237" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="2">
+        <v>46004.45833333334</v>
+      </c>
+      <c r="B238">
+        <v>6534</v>
+      </c>
+      <c r="C238">
+        <v>45</v>
+      </c>
+      <c r="D238" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="2">
+        <v>46004.46875</v>
+      </c>
+      <c r="B239">
+        <v>6539</v>
+      </c>
+      <c r="C239">
+        <v>46</v>
+      </c>
+      <c r="D239" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="2">
+        <v>46004.47916666666</v>
+      </c>
+      <c r="B240">
+        <v>6528</v>
+      </c>
+      <c r="C240">
+        <v>47</v>
+      </c>
+      <c r="D240" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="2">
+        <v>46004.48958333334</v>
+      </c>
+      <c r="B241">
+        <v>6490</v>
+      </c>
+      <c r="C241">
+        <v>48</v>
+      </c>
+      <c r="D241" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
+        <v>46004.5</v>
+      </c>
+      <c r="B242">
+        <v>6556</v>
+      </c>
+      <c r="C242">
+        <v>49</v>
+      </c>
+      <c r="D242" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
+        <v>46004.51041666666</v>
+      </c>
+      <c r="B243">
+        <v>6561</v>
+      </c>
+      <c r="C243">
+        <v>50</v>
+      </c>
+      <c r="D243" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
+        <v>46004.52083333334</v>
+      </c>
+      <c r="B244">
+        <v>6559</v>
+      </c>
+      <c r="C244">
+        <v>51</v>
+      </c>
+      <c r="D244" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
+        <v>46004.53125</v>
+      </c>
+      <c r="B245">
+        <v>6564</v>
+      </c>
+      <c r="C245">
+        <v>52</v>
+      </c>
+      <c r="D245" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
+        <v>46004.54166666666</v>
+      </c>
+      <c r="B246">
+        <v>6543</v>
+      </c>
+      <c r="C246">
+        <v>53</v>
+      </c>
+      <c r="D246" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
+        <v>46004.55208333334</v>
+      </c>
+      <c r="B247">
+        <v>6581</v>
+      </c>
+      <c r="C247">
+        <v>54</v>
+      </c>
+      <c r="D247" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
+        <v>46004.5625</v>
+      </c>
+      <c r="B248">
+        <v>6653</v>
+      </c>
+      <c r="C248">
+        <v>55</v>
+      </c>
+      <c r="D248" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="2">
+        <v>46004.57291666666</v>
+      </c>
+      <c r="B249">
+        <v>6700</v>
+      </c>
+      <c r="C249">
+        <v>56</v>
+      </c>
+      <c r="D249" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="2">
+        <v>46004.58333333334</v>
+      </c>
+      <c r="B250">
+        <v>6772</v>
+      </c>
+      <c r="C250">
+        <v>57</v>
+      </c>
+      <c r="D250" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="2">
+        <v>46004.59375</v>
+      </c>
+      <c r="B251">
+        <v>6811</v>
+      </c>
+      <c r="C251">
+        <v>58</v>
+      </c>
+      <c r="D251" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="2">
+        <v>46004.60416666666</v>
+      </c>
+      <c r="B252">
+        <v>6918</v>
+      </c>
+      <c r="C252">
+        <v>59</v>
+      </c>
+      <c r="D252" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="2">
+        <v>46004.61458333334</v>
+      </c>
+      <c r="B253">
+        <v>6984</v>
+      </c>
+      <c r="C253">
+        <v>60</v>
+      </c>
+      <c r="D253" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="2">
+        <v>46004.625</v>
+      </c>
+      <c r="B254">
+        <v>7065</v>
+      </c>
+      <c r="C254">
+        <v>61</v>
+      </c>
+      <c r="D254" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="2">
+        <v>46004.63541666666</v>
+      </c>
+      <c r="B255">
+        <v>7147</v>
+      </c>
+      <c r="C255">
+        <v>62</v>
+      </c>
+      <c r="D255" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="2">
+        <v>46004.64583333334</v>
+      </c>
+      <c r="B256">
+        <v>7269</v>
+      </c>
+      <c r="C256">
+        <v>63</v>
+      </c>
+      <c r="D256" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="2">
+        <v>46004.65625</v>
+      </c>
+      <c r="B257">
+        <v>7416</v>
+      </c>
+      <c r="C257">
+        <v>64</v>
+      </c>
+      <c r="D257" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="2">
+        <v>46004.66666666666</v>
+      </c>
+      <c r="B258">
+        <v>7586</v>
+      </c>
+      <c r="C258">
+        <v>65</v>
+      </c>
+      <c r="D258" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="2">
+        <v>46004.67708333334</v>
+      </c>
+      <c r="B259">
+        <v>7679</v>
+      </c>
+      <c r="C259">
+        <v>66</v>
+      </c>
+      <c r="D259" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="2">
+        <v>46004.6875</v>
+      </c>
+      <c r="B260">
+        <v>7694</v>
+      </c>
+      <c r="C260">
+        <v>67</v>
+      </c>
+      <c r="D260" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="2">
+        <v>46004.69791666666</v>
+      </c>
+      <c r="B261">
+        <v>7698</v>
+      </c>
+      <c r="C261">
+        <v>68</v>
+      </c>
+      <c r="D261" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="2">
+        <v>46004.70833333334</v>
+      </c>
+      <c r="B262">
+        <v>7696</v>
+      </c>
+      <c r="C262">
+        <v>69</v>
+      </c>
+      <c r="D262" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="2">
+        <v>46004.71875</v>
+      </c>
+      <c r="B263">
+        <v>7664</v>
+      </c>
+      <c r="C263">
+        <v>70</v>
+      </c>
+      <c r="D263" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="2">
+        <v>46004.72916666666</v>
+      </c>
+      <c r="B264">
+        <v>7648</v>
+      </c>
+      <c r="C264">
+        <v>71</v>
+      </c>
+      <c r="D264" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="2">
+        <v>46004.73958333334</v>
+      </c>
+      <c r="B265">
+        <v>7644</v>
+      </c>
+      <c r="C265">
+        <v>72</v>
+      </c>
+      <c r="D265" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="2">
+        <v>46004.75</v>
+      </c>
+      <c r="B266">
+        <v>7637</v>
+      </c>
+      <c r="C266">
+        <v>73</v>
+      </c>
+      <c r="D266" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="2">
+        <v>46004.76041666666</v>
+      </c>
+      <c r="B267">
+        <v>7613</v>
+      </c>
+      <c r="C267">
+        <v>74</v>
+      </c>
+      <c r="D267" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="2">
+        <v>46004.77083333334</v>
+      </c>
+      <c r="B268">
+        <v>7624</v>
+      </c>
+      <c r="C268">
+        <v>75</v>
+      </c>
+      <c r="D268" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="2">
+        <v>46004.78125</v>
+      </c>
+      <c r="B269">
+        <v>7534</v>
+      </c>
+      <c r="C269">
+        <v>76</v>
+      </c>
+      <c r="D269" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="2">
+        <v>46004.79166666666</v>
+      </c>
+      <c r="B270">
+        <v>7501</v>
+      </c>
+      <c r="C270">
+        <v>77</v>
+      </c>
+      <c r="D270" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="2">
+        <v>46004.80208333334</v>
+      </c>
+      <c r="B271">
+        <v>7409</v>
+      </c>
+      <c r="C271">
+        <v>78</v>
+      </c>
+      <c r="D271" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="2">
+        <v>46004.8125</v>
+      </c>
+      <c r="B272">
+        <v>7378</v>
+      </c>
+      <c r="C272">
+        <v>79</v>
+      </c>
+      <c r="D272" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="2">
+        <v>46004.82291666666</v>
+      </c>
+      <c r="B273">
+        <v>7329</v>
+      </c>
+      <c r="C273">
+        <v>80</v>
+      </c>
+      <c r="D273" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="2">
+        <v>46004.83333333334</v>
+      </c>
+      <c r="B274">
+        <v>7191</v>
+      </c>
+      <c r="C274">
+        <v>81</v>
+      </c>
+      <c r="D274" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="2">
+        <v>46004.84375</v>
+      </c>
+      <c r="B275">
+        <v>7094</v>
+      </c>
+      <c r="C275">
+        <v>82</v>
+      </c>
+      <c r="D275" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="2">
+        <v>46004.85416666666</v>
+      </c>
+      <c r="B276">
+        <v>6995</v>
+      </c>
+      <c r="C276">
+        <v>83</v>
+      </c>
+      <c r="D276" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="2">
+        <v>46004.86458333334</v>
+      </c>
+      <c r="B277">
+        <v>7007</v>
+      </c>
+      <c r="C277">
+        <v>84</v>
+      </c>
+      <c r="D277" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="2">
+        <v>46004.875</v>
+      </c>
+      <c r="B278">
+        <v>6802</v>
+      </c>
+      <c r="C278">
+        <v>85</v>
+      </c>
+      <c r="D278" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="2">
+        <v>46004.88541666666</v>
+      </c>
+      <c r="B279">
+        <v>6607</v>
+      </c>
+      <c r="C279">
+        <v>86</v>
+      </c>
+      <c r="D279" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="2">
+        <v>46004.89583333334</v>
+      </c>
+      <c r="B280">
+        <v>6498</v>
+      </c>
+      <c r="C280">
+        <v>87</v>
+      </c>
+      <c r="D280" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="2">
+        <v>46004.90625</v>
+      </c>
+      <c r="B281">
+        <v>6371</v>
+      </c>
+      <c r="C281">
+        <v>88</v>
+      </c>
+      <c r="D281" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="2">
+        <v>46004.91666666666</v>
+      </c>
+      <c r="B282">
+        <v>6284</v>
+      </c>
+      <c r="C282">
+        <v>89</v>
+      </c>
+      <c r="D282" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="2">
+        <v>46004.92708333334</v>
+      </c>
+      <c r="B283">
+        <v>6139</v>
+      </c>
+      <c r="C283">
+        <v>90</v>
+      </c>
+      <c r="D283" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="2">
+        <v>46004.9375</v>
+      </c>
+      <c r="B284">
+        <v>6094</v>
+      </c>
+      <c r="C284">
+        <v>91</v>
+      </c>
+      <c r="D284" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="2">
+        <v>46004.94791666666</v>
+      </c>
+      <c r="B285">
+        <v>6039</v>
+      </c>
+      <c r="C285">
+        <v>92</v>
+      </c>
+      <c r="D285" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="2">
+        <v>46004.95833333334</v>
+      </c>
+      <c r="B286">
+        <v>5917</v>
+      </c>
+      <c r="C286">
+        <v>93</v>
+      </c>
+      <c r="D286" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="2">
+        <v>46004.96875</v>
+      </c>
+      <c r="B287">
+        <v>5850</v>
+      </c>
+      <c r="C287">
+        <v>94</v>
+      </c>
+      <c r="D287" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="2">
+        <v>46004.97916666666</v>
+      </c>
+      <c r="B288">
+        <v>5757</v>
+      </c>
+      <c r="C288">
+        <v>95</v>
+      </c>
+      <c r="D288" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="2">
+        <v>46004.98958333334</v>
+      </c>
+      <c r="B289">
+        <v>5723</v>
+      </c>
+      <c r="C289">
+        <v>96</v>
+      </c>
+      <c r="D289" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="2">
+        <v>46005</v>
+      </c>
+      <c r="B290">
+        <v>5665</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="2">
+        <v>46005.01041666666</v>
+      </c>
+      <c r="B291">
+        <v>5605</v>
+      </c>
+      <c r="C291">
+        <v>2</v>
+      </c>
+      <c r="D291" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="2">
+        <v>46005.02083333334</v>
+      </c>
+      <c r="B292">
+        <v>5601</v>
+      </c>
+      <c r="C292">
+        <v>3</v>
+      </c>
+      <c r="D292" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="2">
+        <v>46005.03125</v>
+      </c>
+      <c r="B293">
+        <v>5584</v>
+      </c>
+      <c r="C293">
+        <v>4</v>
+      </c>
+      <c r="D293" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="2">
+        <v>46005.04166666666</v>
+      </c>
+      <c r="B294">
+        <v>5456</v>
+      </c>
+      <c r="C294">
+        <v>5</v>
+      </c>
+      <c r="D294" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="2">
+        <v>46005.05208333334</v>
+      </c>
+      <c r="B295">
+        <v>5416</v>
+      </c>
+      <c r="C295">
+        <v>6</v>
+      </c>
+      <c r="D295" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="2">
+        <v>46005.0625</v>
+      </c>
+      <c r="B296">
+        <v>5440</v>
+      </c>
+      <c r="C296">
+        <v>7</v>
+      </c>
+      <c r="D296" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="2">
+        <v>46005.07291666666</v>
+      </c>
+      <c r="B297">
+        <v>5453</v>
+      </c>
+      <c r="C297">
+        <v>8</v>
+      </c>
+      <c r="D297" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="2">
+        <v>46005.08333333334</v>
+      </c>
+      <c r="B298">
+        <v>5419</v>
+      </c>
+      <c r="C298">
+        <v>9</v>
+      </c>
+      <c r="D298" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="2">
+        <v>46005.09375</v>
+      </c>
+      <c r="B299">
+        <v>5388</v>
+      </c>
+      <c r="C299">
+        <v>10</v>
+      </c>
+      <c r="D299" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="2">
+        <v>46005.10416666666</v>
+      </c>
+      <c r="B300">
+        <v>5363</v>
+      </c>
+      <c r="C300">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="2">
+        <v>46005.11458333334</v>
+      </c>
+      <c r="B301">
+        <v>5416</v>
+      </c>
+      <c r="C301">
+        <v>12</v>
+      </c>
+      <c r="D301" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="2">
+        <v>46005.125</v>
+      </c>
+      <c r="B302">
+        <v>5338</v>
+      </c>
+      <c r="C302">
+        <v>13</v>
+      </c>
+      <c r="D302" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="2">
+        <v>46005.13541666666</v>
+      </c>
+      <c r="B303">
+        <v>5372</v>
+      </c>
+      <c r="C303">
+        <v>14</v>
+      </c>
+      <c r="D303" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="2">
+        <v>46005.14583333334</v>
+      </c>
+      <c r="B304">
+        <v>5365</v>
+      </c>
+      <c r="C304">
+        <v>15</v>
+      </c>
+      <c r="D304" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="2">
+        <v>46005.15625</v>
+      </c>
+      <c r="B305">
+        <v>5406</v>
+      </c>
+      <c r="C305">
+        <v>16</v>
+      </c>
+      <c r="D305" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="2">
+        <v>46005.16666666666</v>
+      </c>
+      <c r="B306">
+        <v>5360</v>
+      </c>
+      <c r="C306">
+        <v>17</v>
+      </c>
+      <c r="D306" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="2">
+        <v>46005.17708333334</v>
+      </c>
+      <c r="B307">
+        <v>5405</v>
+      </c>
+      <c r="C307">
+        <v>18</v>
+      </c>
+      <c r="D307" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="2">
+        <v>46005.1875</v>
+      </c>
+      <c r="B308">
+        <v>5450</v>
+      </c>
+      <c r="C308">
+        <v>19</v>
+      </c>
+      <c r="D308" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="2">
+        <v>46005.19791666666</v>
+      </c>
+      <c r="B309">
+        <v>5469</v>
+      </c>
+      <c r="C309">
+        <v>20</v>
+      </c>
+      <c r="D309" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="2">
+        <v>46005.20833333334</v>
+      </c>
+      <c r="B310">
+        <v>5487</v>
+      </c>
+      <c r="C310">
+        <v>21</v>
+      </c>
+      <c r="D310" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="2">
+        <v>46005.21875</v>
+      </c>
+      <c r="B311">
+        <v>5556</v>
+      </c>
+      <c r="C311">
+        <v>22</v>
+      </c>
+      <c r="D311" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="2">
+        <v>46005.22916666666</v>
+      </c>
+      <c r="B312">
+        <v>5598</v>
+      </c>
+      <c r="C312">
+        <v>23</v>
+      </c>
+      <c r="D312" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="2">
+        <v>46005.23958333334</v>
+      </c>
+      <c r="B313">
+        <v>5668</v>
+      </c>
+      <c r="C313">
+        <v>24</v>
+      </c>
+      <c r="D313" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="2">
+        <v>46005.25</v>
+      </c>
+      <c r="B314">
+        <v>5766</v>
+      </c>
+      <c r="C314">
+        <v>25</v>
+      </c>
+      <c r="D314" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="2">
+        <v>46005.26041666666</v>
+      </c>
+      <c r="B315">
+        <v>5800</v>
+      </c>
+      <c r="C315">
+        <v>26</v>
+      </c>
+      <c r="D315" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="2">
+        <v>46005.27083333334</v>
+      </c>
+      <c r="B316">
+        <v>5869</v>
+      </c>
+      <c r="C316">
+        <v>27</v>
+      </c>
+      <c r="D316" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="2">
+        <v>46005.28125</v>
+      </c>
+      <c r="B317">
+        <v>5896</v>
+      </c>
+      <c r="C317">
+        <v>28</v>
+      </c>
+      <c r="D317" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="2">
+        <v>46005.29166666666</v>
+      </c>
+      <c r="B318">
+        <v>5978</v>
+      </c>
+      <c r="C318">
+        <v>29</v>
+      </c>
+      <c r="D318" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="2">
+        <v>46005.30208333334</v>
+      </c>
+      <c r="B319">
+        <v>6017</v>
+      </c>
+      <c r="C319">
+        <v>30</v>
+      </c>
+      <c r="D319" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="2">
+        <v>46005.3125</v>
+      </c>
+      <c r="B320">
+        <v>5986</v>
+      </c>
+      <c r="C320">
+        <v>31</v>
+      </c>
+      <c r="D320" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="2">
+        <v>46005.32291666666</v>
+      </c>
+      <c r="B321">
+        <v>6067</v>
+      </c>
+      <c r="C321">
+        <v>32</v>
+      </c>
+      <c r="D321" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="2">
+        <v>46005.33333333334</v>
+      </c>
+      <c r="B322">
+        <v>6155</v>
+      </c>
+      <c r="C322">
+        <v>33</v>
+      </c>
+      <c r="D322" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="2">
+        <v>46005.34375</v>
+      </c>
+      <c r="B323">
+        <v>6187</v>
+      </c>
+      <c r="C323">
+        <v>34</v>
+      </c>
+      <c r="D323" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="2">
+        <v>46005.35416666666</v>
+      </c>
+      <c r="B324">
+        <v>6174</v>
+      </c>
+      <c r="C324">
+        <v>35</v>
+      </c>
+      <c r="D324" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="2">
+        <v>46005.36458333334</v>
+      </c>
+      <c r="B325">
+        <v>6179</v>
+      </c>
+      <c r="C325">
+        <v>36</v>
+      </c>
+      <c r="D325" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="2">
+        <v>46005.375</v>
+      </c>
+      <c r="B326">
+        <v>6196</v>
+      </c>
+      <c r="C326">
+        <v>37</v>
+      </c>
+      <c r="D326" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="2">
+        <v>46005.38541666666</v>
+      </c>
+      <c r="B327">
+        <v>6269</v>
+      </c>
+      <c r="C327">
+        <v>38</v>
+      </c>
+      <c r="D327" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="2">
+        <v>46005.39583333334</v>
+      </c>
+      <c r="B328">
+        <v>6194</v>
+      </c>
+      <c r="C328">
+        <v>39</v>
+      </c>
+      <c r="D328" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="2">
+        <v>46005.40625</v>
+      </c>
+      <c r="B329">
+        <v>6216</v>
+      </c>
+      <c r="C329">
+        <v>40</v>
+      </c>
+      <c r="D329" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="2">
+        <v>46005.41666666666</v>
+      </c>
+      <c r="B330">
+        <v>6194</v>
+      </c>
+      <c r="C330">
+        <v>41</v>
+      </c>
+      <c r="D330" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="2">
+        <v>46005.42708333334</v>
+      </c>
+      <c r="B331">
+        <v>6183</v>
+      </c>
+      <c r="C331">
+        <v>42</v>
+      </c>
+      <c r="D331" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="2">
+        <v>46005.4375</v>
+      </c>
+      <c r="B332">
+        <v>6171</v>
+      </c>
+      <c r="C332">
+        <v>43</v>
+      </c>
+      <c r="D332" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="2">
+        <v>46005.44791666666</v>
+      </c>
+      <c r="B333">
+        <v>6119</v>
+      </c>
+      <c r="C333">
+        <v>44</v>
+      </c>
+      <c r="D333" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="2">
+        <v>46005.45833333334</v>
+      </c>
+      <c r="B334">
+        <v>6159</v>
+      </c>
+      <c r="C334">
+        <v>45</v>
+      </c>
+      <c r="D334" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="2">
+        <v>46005.46875</v>
+      </c>
+      <c r="B335">
+        <v>6146</v>
+      </c>
+      <c r="C335">
+        <v>46</v>
+      </c>
+      <c r="D335" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="2">
+        <v>46005.47916666666</v>
+      </c>
+      <c r="B336">
+        <v>6215</v>
+      </c>
+      <c r="C336">
+        <v>47</v>
+      </c>
+      <c r="D336" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="2">
+        <v>46005.48958333334</v>
+      </c>
+      <c r="B337">
+        <v>6216</v>
+      </c>
+      <c r="C337">
+        <v>48</v>
+      </c>
+      <c r="D337" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="2">
+        <v>46005.5</v>
+      </c>
+      <c r="B338">
+        <v>6255</v>
+      </c>
+      <c r="C338">
+        <v>49</v>
+      </c>
+      <c r="D338" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="2">
+        <v>46005.51041666666</v>
+      </c>
+      <c r="B339">
+        <v>6269</v>
+      </c>
+      <c r="C339">
+        <v>50</v>
+      </c>
+      <c r="D339" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="2">
+        <v>46005.52083333334</v>
+      </c>
+      <c r="B340">
+        <v>6311</v>
+      </c>
+      <c r="C340">
+        <v>51</v>
+      </c>
+      <c r="D340" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="2">
+        <v>46005.53125</v>
+      </c>
+      <c r="B341">
+        <v>6289</v>
+      </c>
+      <c r="C341">
+        <v>52</v>
+      </c>
+      <c r="D341" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="2">
+        <v>46005.54166666666</v>
+      </c>
+      <c r="B342">
+        <v>6292</v>
+      </c>
+      <c r="C342">
+        <v>53</v>
+      </c>
+      <c r="D342" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="2">
+        <v>46005.55208333334</v>
+      </c>
+      <c r="B343">
+        <v>6328</v>
+      </c>
+      <c r="C343">
+        <v>54</v>
+      </c>
+      <c r="D343" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="2">
+        <v>46005.5625</v>
+      </c>
+      <c r="B344">
+        <v>6382</v>
+      </c>
+      <c r="C344">
+        <v>55</v>
+      </c>
+      <c r="D344" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="2">
+        <v>46005.57291666666</v>
+      </c>
+      <c r="B345">
+        <v>6395</v>
+      </c>
+      <c r="C345">
+        <v>56</v>
+      </c>
+      <c r="D345" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="2">
+        <v>46005.58333333334</v>
+      </c>
+      <c r="B346">
+        <v>6429</v>
+      </c>
+      <c r="C346">
+        <v>57</v>
+      </c>
+      <c r="D346" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="2">
+        <v>46005.59375</v>
+      </c>
+      <c r="B347">
+        <v>6426</v>
+      </c>
+      <c r="C347">
+        <v>58</v>
+      </c>
+      <c r="D347" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="2">
+        <v>46005.60416666666</v>
+      </c>
+      <c r="B348">
+        <v>6512</v>
+      </c>
+      <c r="C348">
+        <v>59</v>
+      </c>
+      <c r="D348" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="2">
+        <v>46005.61458333334</v>
+      </c>
+      <c r="B349">
+        <v>6658</v>
+      </c>
+      <c r="C349">
+        <v>60</v>
+      </c>
+      <c r="D349" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="2">
+        <v>46005.625</v>
+      </c>
+      <c r="B350">
+        <v>6653</v>
+      </c>
+      <c r="C350">
+        <v>61</v>
+      </c>
+      <c r="D350" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="2">
+        <v>46005.63541666666</v>
+      </c>
+      <c r="B351">
+        <v>6720</v>
+      </c>
+      <c r="C351">
+        <v>62</v>
+      </c>
+      <c r="D351" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="2">
+        <v>46005.64583333334</v>
+      </c>
+      <c r="B352">
+        <v>6867</v>
+      </c>
+      <c r="C352">
+        <v>63</v>
+      </c>
+      <c r="D352" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="2">
+        <v>46005.65625</v>
+      </c>
+      <c r="B353">
+        <v>7049</v>
+      </c>
+      <c r="C353">
+        <v>64</v>
+      </c>
+      <c r="D353" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="2">
+        <v>46005.66666666666</v>
+      </c>
+      <c r="B354">
+        <v>7116</v>
+      </c>
+      <c r="C354">
+        <v>65</v>
+      </c>
+      <c r="D354" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="2">
+        <v>46005.67708333334</v>
+      </c>
+      <c r="B355">
+        <v>7234</v>
+      </c>
+      <c r="C355">
+        <v>66</v>
+      </c>
+      <c r="D355" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="2">
+        <v>46005.6875</v>
+      </c>
+      <c r="B356">
+        <v>7271</v>
+      </c>
+      <c r="C356">
+        <v>67</v>
+      </c>
+      <c r="D356" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="2">
+        <v>46005.69791666666</v>
+      </c>
+      <c r="B357">
+        <v>7232</v>
+      </c>
+      <c r="C357">
+        <v>68</v>
+      </c>
+      <c r="D357" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="2">
+        <v>46005.70833333334</v>
+      </c>
+      <c r="B358">
+        <v>7204</v>
+      </c>
+      <c r="C358">
+        <v>69</v>
+      </c>
+      <c r="D358" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="2">
+        <v>46005.71875</v>
+      </c>
+      <c r="B359">
+        <v>7206</v>
+      </c>
+      <c r="C359">
+        <v>70</v>
+      </c>
+      <c r="D359" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="2">
+        <v>46005.72916666666</v>
+      </c>
+      <c r="B360">
+        <v>7165</v>
+      </c>
+      <c r="C360">
+        <v>71</v>
+      </c>
+      <c r="D360" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="2">
+        <v>46005.73958333334</v>
+      </c>
+      <c r="B361">
+        <v>7116</v>
+      </c>
+      <c r="C361">
+        <v>72</v>
+      </c>
+      <c r="D361" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="2">
+        <v>46005.75</v>
+      </c>
+      <c r="B362">
+        <v>7083</v>
+      </c>
+      <c r="C362">
+        <v>73</v>
+      </c>
+      <c r="D362" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="2">
+        <v>46005.76041666666</v>
+      </c>
+      <c r="B363">
+        <v>7061</v>
+      </c>
+      <c r="C363">
+        <v>74</v>
+      </c>
+      <c r="D363" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="2">
+        <v>46005.77083333334</v>
+      </c>
+      <c r="B364">
+        <v>7128</v>
+      </c>
+      <c r="C364">
+        <v>75</v>
+      </c>
+      <c r="D364" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="2">
+        <v>46005.78125</v>
+      </c>
+      <c r="B365">
+        <v>7112</v>
+      </c>
+      <c r="C365">
+        <v>76</v>
+      </c>
+      <c r="D365" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="2">
+        <v>46005.79166666666</v>
+      </c>
+      <c r="B366">
+        <v>7037</v>
+      </c>
+      <c r="C366">
+        <v>77</v>
+      </c>
+      <c r="D366" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="2">
+        <v>46005.80208333334</v>
+      </c>
+      <c r="B367">
+        <v>6954</v>
+      </c>
+      <c r="C367">
+        <v>78</v>
+      </c>
+      <c r="D367" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
+        <v>46005.8125</v>
+      </c>
+      <c r="B368">
+        <v>6956</v>
+      </c>
+      <c r="C368">
+        <v>79</v>
+      </c>
+      <c r="D368" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
+        <v>46005.82291666666</v>
+      </c>
+      <c r="B369">
+        <v>6908</v>
+      </c>
+      <c r="C369">
+        <v>80</v>
+      </c>
+      <c r="D369" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
+        <v>46005.83333333334</v>
+      </c>
+      <c r="B370">
+        <v>6913</v>
+      </c>
+      <c r="C370">
+        <v>81</v>
+      </c>
+      <c r="D370" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
+        <v>46005.84375</v>
+      </c>
+      <c r="B371">
+        <v>6779</v>
+      </c>
+      <c r="C371">
+        <v>82</v>
+      </c>
+      <c r="D371" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
+        <v>46005.85416666666</v>
+      </c>
+      <c r="B372">
+        <v>6699</v>
+      </c>
+      <c r="C372">
+        <v>83</v>
+      </c>
+      <c r="D372" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
+        <v>46005.86458333334</v>
+      </c>
+      <c r="B373">
+        <v>6604</v>
+      </c>
+      <c r="C373">
+        <v>84</v>
+      </c>
+      <c r="D373" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
+        <v>46005.875</v>
+      </c>
+      <c r="B374">
+        <v>6472</v>
+      </c>
+      <c r="C374">
+        <v>85</v>
+      </c>
+      <c r="D374" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
+        <v>46005.88541666666</v>
+      </c>
+      <c r="B375">
+        <v>6336</v>
+      </c>
+      <c r="C375">
+        <v>86</v>
+      </c>
+      <c r="D375" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
+        <v>46005.89583333334</v>
+      </c>
+      <c r="B376">
+        <v>6202</v>
+      </c>
+      <c r="C376">
+        <v>87</v>
+      </c>
+      <c r="D376" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
+        <v>46005.90625</v>
+      </c>
+      <c r="B377">
+        <v>6117</v>
+      </c>
+      <c r="C377">
+        <v>88</v>
+      </c>
+      <c r="D377" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
+        <v>46005.91666666666</v>
+      </c>
+      <c r="B378">
+        <v>6045</v>
+      </c>
+      <c r="C378">
+        <v>89</v>
+      </c>
+      <c r="D378" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
+        <v>46005.92708333334</v>
+      </c>
+      <c r="B379">
+        <v>5935</v>
+      </c>
+      <c r="C379">
+        <v>90</v>
+      </c>
+      <c r="D379" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
+        <v>46005.9375</v>
+      </c>
+      <c r="B380">
+        <v>5879</v>
+      </c>
+      <c r="C380">
+        <v>91</v>
+      </c>
+      <c r="D380" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
+        <v>46005.94791666666</v>
+      </c>
+      <c r="B381">
+        <v>5759</v>
+      </c>
+      <c r="C381">
+        <v>92</v>
+      </c>
+      <c r="D381" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
+        <v>46005.95833333334</v>
+      </c>
+      <c r="B382">
+        <v>5633</v>
+      </c>
+      <c r="C382">
+        <v>93</v>
+      </c>
+      <c r="D382" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
+        <v>46005.96875</v>
+      </c>
+      <c r="B383">
+        <v>5628</v>
+      </c>
+      <c r="C383">
+        <v>94</v>
+      </c>
+      <c r="D383" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
+        <v>46005.97916666666</v>
+      </c>
+      <c r="B384">
+        <v>5572</v>
+      </c>
+      <c r="C384">
+        <v>95</v>
+      </c>
+      <c r="D384" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
+        <v>46005.98958333334</v>
+      </c>
+      <c r="B385">
+        <v>5529</v>
+      </c>
+      <c r="C385">
+        <v>96</v>
+      </c>
+      <c r="D385" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
+        <v>46006</v>
+      </c>
+      <c r="B386">
+        <v>5518</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
+        <v>46006.01041666666</v>
+      </c>
+      <c r="B387">
+        <v>5451</v>
+      </c>
+      <c r="C387">
+        <v>2</v>
+      </c>
+      <c r="D387" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
+        <v>46006.02083333334</v>
+      </c>
+      <c r="B388">
+        <v>5382</v>
+      </c>
+      <c r="C388">
+        <v>3</v>
+      </c>
+      <c r="D388" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
+        <v>46006.03125</v>
+      </c>
+      <c r="B389">
+        <v>5370</v>
+      </c>
+      <c r="C389">
+        <v>4</v>
+      </c>
+      <c r="D389" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="2">
+        <v>46006.04166666666</v>
+      </c>
+      <c r="B390">
+        <v>5346</v>
+      </c>
+      <c r="C390">
+        <v>5</v>
+      </c>
+      <c r="D390" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="2">
+        <v>46006.05208333334</v>
+      </c>
+      <c r="B391">
+        <v>5326</v>
+      </c>
+      <c r="C391">
+        <v>6</v>
+      </c>
+      <c r="D391" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="2">
+        <v>46006.0625</v>
+      </c>
+      <c r="B392">
+        <v>5306</v>
+      </c>
+      <c r="C392">
+        <v>7</v>
+      </c>
+      <c r="D392" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="2">
+        <v>46006.07291666666</v>
+      </c>
+      <c r="B393">
+        <v>5345</v>
+      </c>
+      <c r="C393">
+        <v>8</v>
+      </c>
+      <c r="D393" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="2">
+        <v>46006.08333333334</v>
+      </c>
+      <c r="B394">
+        <v>5335</v>
+      </c>
+      <c r="C394">
+        <v>9</v>
+      </c>
+      <c r="D394" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="2">
+        <v>46006.09375</v>
+      </c>
+      <c r="B395">
+        <v>5296</v>
+      </c>
+      <c r="C395">
+        <v>10</v>
+      </c>
+      <c r="D395" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="2">
+        <v>46006.10416666666</v>
+      </c>
+      <c r="B396">
+        <v>5253</v>
+      </c>
+      <c r="C396">
+        <v>11</v>
+      </c>
+      <c r="D396" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" s="2">
+        <v>46006.11458333334</v>
+      </c>
+      <c r="B397">
+        <v>5284</v>
+      </c>
+      <c r="C397">
+        <v>12</v>
+      </c>
+      <c r="D397" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="2">
+        <v>46006.125</v>
+      </c>
+      <c r="B398">
+        <v>5296</v>
+      </c>
+      <c r="C398">
+        <v>13</v>
+      </c>
+      <c r="D398" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" s="2">
+        <v>46006.13541666666</v>
+      </c>
+      <c r="B399">
+        <v>5318</v>
+      </c>
+      <c r="C399">
+        <v>14</v>
+      </c>
+      <c r="D399" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" s="2">
+        <v>46006.14583333334</v>
+      </c>
+      <c r="B400">
+        <v>5363</v>
+      </c>
+      <c r="C400">
+        <v>15</v>
+      </c>
+      <c r="D400" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" s="2">
+        <v>46006.15625</v>
+      </c>
+      <c r="B401">
+        <v>5389</v>
+      </c>
+      <c r="C401">
+        <v>16</v>
+      </c>
+      <c r="D401" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="2">
+        <v>46006.16666666666</v>
+      </c>
+      <c r="B402">
+        <v>5489</v>
+      </c>
+      <c r="C402">
+        <v>17</v>
+      </c>
+      <c r="D402" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="2">
+        <v>46006.17708333334</v>
+      </c>
+      <c r="B403">
+        <v>5589</v>
+      </c>
+      <c r="C403">
+        <v>18</v>
+      </c>
+      <c r="D403" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" s="2">
+        <v>46006.1875</v>
+      </c>
+      <c r="B404">
+        <v>5717</v>
+      </c>
+      <c r="C404">
+        <v>19</v>
+      </c>
+      <c r="D404" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="2">
+        <v>46006.19791666666</v>
+      </c>
+      <c r="B405">
+        <v>5817</v>
+      </c>
+      <c r="C405">
+        <v>20</v>
+      </c>
+      <c r="D405" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="2">
+        <v>46006.20833333334</v>
+      </c>
+      <c r="B406">
+        <v>6075</v>
+      </c>
+      <c r="C406">
+        <v>21</v>
+      </c>
+      <c r="D406" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="2">
+        <v>46006.21875</v>
+      </c>
+      <c r="B407">
+        <v>6336</v>
+      </c>
+      <c r="C407">
+        <v>22</v>
+      </c>
+      <c r="D407" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="2">
+        <v>46006.22916666666</v>
+      </c>
+      <c r="B408">
+        <v>6537</v>
+      </c>
+      <c r="C408">
+        <v>23</v>
+      </c>
+      <c r="D408" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="2">
+        <v>46006.23958333334</v>
+      </c>
+      <c r="B409">
+        <v>6791</v>
+      </c>
+      <c r="C409">
+        <v>24</v>
+      </c>
+      <c r="D409" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="2">
+        <v>46006.25</v>
+      </c>
+      <c r="B410">
+        <v>7161</v>
+      </c>
+      <c r="C410">
+        <v>25</v>
+      </c>
+      <c r="D410" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="2">
+        <v>46006.26041666666</v>
+      </c>
+      <c r="B411">
+        <v>7394</v>
+      </c>
+      <c r="C411">
+        <v>26</v>
+      </c>
+      <c r="D411" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="2">
+        <v>46006.27083333334</v>
+      </c>
+      <c r="B412">
+        <v>7638</v>
+      </c>
+      <c r="C412">
+        <v>27</v>
+      </c>
+      <c r="D412" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="2">
+        <v>46006.28125</v>
+      </c>
+      <c r="B413">
+        <v>7748</v>
+      </c>
+      <c r="C413">
+        <v>28</v>
+      </c>
+      <c r="D413" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="2">
+        <v>46006.29166666666</v>
+      </c>
+      <c r="B414">
+        <v>0</v>
+      </c>
+      <c r="C414">
+        <v>29</v>
+      </c>
+      <c r="D414" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="2">
+        <v>46006.30208333334</v>
+      </c>
+      <c r="B415">
+        <v>0</v>
+      </c>
+      <c r="C415">
+        <v>30</v>
+      </c>
+      <c r="D415" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="2">
+        <v>46006.3125</v>
+      </c>
+      <c r="B416">
+        <v>0</v>
+      </c>
+      <c r="C416">
+        <v>31</v>
+      </c>
+      <c r="D416" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="2">
+        <v>46006.32291666666</v>
+      </c>
+      <c r="B417">
+        <v>0</v>
+      </c>
+      <c r="C417">
+        <v>32</v>
+      </c>
+      <c r="D417" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="2">
+        <v>46006.33333333334</v>
+      </c>
+      <c r="B418">
+        <v>0</v>
+      </c>
+      <c r="C418">
+        <v>33</v>
+      </c>
+      <c r="D418" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="2">
+        <v>46006.34375</v>
+      </c>
+      <c r="B419">
+        <v>0</v>
+      </c>
+      <c r="C419">
+        <v>34</v>
+      </c>
+      <c r="D419" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="2">
+        <v>46006.35416666666</v>
+      </c>
+      <c r="B420">
+        <v>0</v>
+      </c>
+      <c r="C420">
+        <v>35</v>
+      </c>
+      <c r="D420" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="2">
+        <v>46006.36458333334</v>
+      </c>
+      <c r="B421">
+        <v>0</v>
+      </c>
+      <c r="C421">
+        <v>36</v>
+      </c>
+      <c r="D421" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="2">
+        <v>46006.375</v>
+      </c>
+      <c r="B422">
+        <v>0</v>
+      </c>
+      <c r="C422">
+        <v>37</v>
+      </c>
+      <c r="D422" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="2">
+        <v>46006.38541666666</v>
+      </c>
+      <c r="B423">
+        <v>0</v>
+      </c>
+      <c r="C423">
+        <v>38</v>
+      </c>
+      <c r="D423" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="2">
+        <v>46006.39583333334</v>
+      </c>
+      <c r="B424">
+        <v>0</v>
+      </c>
+      <c r="C424">
+        <v>39</v>
+      </c>
+      <c r="D424" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="2">
+        <v>46006.40625</v>
+      </c>
+      <c r="B425">
+        <v>0</v>
+      </c>
+      <c r="C425">
+        <v>40</v>
+      </c>
+      <c r="D425" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="2">
+        <v>46006.41666666666</v>
+      </c>
+      <c r="B426">
+        <v>0</v>
+      </c>
+      <c r="C426">
+        <v>41</v>
+      </c>
+      <c r="D426" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="2">
+        <v>46006.42708333334</v>
+      </c>
+      <c r="B427">
+        <v>0</v>
+      </c>
+      <c r="C427">
+        <v>42</v>
+      </c>
+      <c r="D427" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="2">
+        <v>46006.4375</v>
+      </c>
+      <c r="B428">
+        <v>0</v>
+      </c>
+      <c r="C428">
+        <v>43</v>
+      </c>
+      <c r="D428" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="2">
+        <v>46006.44791666666</v>
+      </c>
+      <c r="B429">
+        <v>0</v>
+      </c>
+      <c r="C429">
+        <v>44</v>
+      </c>
+      <c r="D429" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="2">
+        <v>46006.45833333334</v>
+      </c>
+      <c r="B430">
+        <v>0</v>
+      </c>
+      <c r="C430">
+        <v>45</v>
+      </c>
+      <c r="D430" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="2">
+        <v>46006.46875</v>
+      </c>
+      <c r="B431">
+        <v>0</v>
+      </c>
+      <c r="C431">
+        <v>46</v>
+      </c>
+      <c r="D431" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="2">
+        <v>46006.47916666666</v>
+      </c>
+      <c r="B432">
+        <v>0</v>
+      </c>
+      <c r="C432">
+        <v>47</v>
+      </c>
+      <c r="D432" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="2">
+        <v>46006.48958333334</v>
+      </c>
+      <c r="B433">
+        <v>0</v>
+      </c>
+      <c r="C433">
+        <v>48</v>
+      </c>
+      <c r="D433" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="2">
+        <v>46006.5</v>
+      </c>
+      <c r="B434">
+        <v>0</v>
+      </c>
+      <c r="C434">
+        <v>49</v>
+      </c>
+      <c r="D434" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="2">
+        <v>46006.51041666666</v>
+      </c>
+      <c r="B435">
+        <v>0</v>
+      </c>
+      <c r="C435">
+        <v>50</v>
+      </c>
+      <c r="D435" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="2">
+        <v>46006.52083333334</v>
+      </c>
+      <c r="B436">
+        <v>0</v>
+      </c>
+      <c r="C436">
+        <v>51</v>
+      </c>
+      <c r="D436" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="2">
+        <v>46006.53125</v>
+      </c>
+      <c r="B437">
+        <v>0</v>
+      </c>
+      <c r="C437">
+        <v>52</v>
+      </c>
+      <c r="D437" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="2">
+        <v>46006.54166666666</v>
+      </c>
+      <c r="B438">
+        <v>0</v>
+      </c>
+      <c r="C438">
+        <v>53</v>
+      </c>
+      <c r="D438" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="2">
+        <v>46006.55208333334</v>
+      </c>
+      <c r="B439">
+        <v>0</v>
+      </c>
+      <c r="C439">
+        <v>54</v>
+      </c>
+      <c r="D439" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="2">
+        <v>46006.5625</v>
+      </c>
+      <c r="B440">
+        <v>0</v>
+      </c>
+      <c r="C440">
+        <v>55</v>
+      </c>
+      <c r="D440" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="2">
+        <v>46006.57291666666</v>
+      </c>
+      <c r="B441">
+        <v>0</v>
+      </c>
+      <c r="C441">
+        <v>56</v>
+      </c>
+      <c r="D441" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="2">
+        <v>46006.58333333334</v>
+      </c>
+      <c r="B442">
+        <v>0</v>
+      </c>
+      <c r="C442">
+        <v>57</v>
+      </c>
+      <c r="D442" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="2">
+        <v>46006.59375</v>
+      </c>
+      <c r="B443">
+        <v>0</v>
+      </c>
+      <c r="C443">
+        <v>58</v>
+      </c>
+      <c r="D443" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="2">
+        <v>46006.60416666666</v>
+      </c>
+      <c r="B444">
+        <v>0</v>
+      </c>
+      <c r="C444">
+        <v>59</v>
+      </c>
+      <c r="D444" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="2">
+        <v>46006.61458333334</v>
+      </c>
+      <c r="B445">
+        <v>0</v>
+      </c>
+      <c r="C445">
+        <v>60</v>
+      </c>
+      <c r="D445" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="2">
+        <v>46006.625</v>
+      </c>
+      <c r="B446">
+        <v>0</v>
+      </c>
+      <c r="C446">
+        <v>61</v>
+      </c>
+      <c r="D446" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="2">
+        <v>46006.63541666666</v>
+      </c>
+      <c r="B447">
+        <v>0</v>
+      </c>
+      <c r="C447">
+        <v>62</v>
+      </c>
+      <c r="D447" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="2">
+        <v>46006.64583333334</v>
+      </c>
+      <c r="B448">
+        <v>0</v>
+      </c>
+      <c r="C448">
+        <v>63</v>
+      </c>
+      <c r="D448" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="2">
+        <v>46006.65625</v>
+      </c>
+      <c r="B449">
+        <v>0</v>
+      </c>
+      <c r="C449">
+        <v>64</v>
+      </c>
+      <c r="D449" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="2">
+        <v>46006.66666666666</v>
+      </c>
+      <c r="B450">
+        <v>0</v>
+      </c>
+      <c r="C450">
+        <v>65</v>
+      </c>
+      <c r="D450" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="2">
+        <v>46006.67708333334</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
+      </c>
+      <c r="C451">
+        <v>66</v>
+      </c>
+      <c r="D451" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="2">
+        <v>46006.6875</v>
+      </c>
+      <c r="B452">
+        <v>0</v>
+      </c>
+      <c r="C452">
+        <v>67</v>
+      </c>
+      <c r="D452" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="2">
+        <v>46006.69791666666</v>
+      </c>
+      <c r="B453">
+        <v>0</v>
+      </c>
+      <c r="C453">
+        <v>68</v>
+      </c>
+      <c r="D453" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="2">
+        <v>46006.70833333334</v>
+      </c>
+      <c r="B454">
+        <v>0</v>
+      </c>
+      <c r="C454">
+        <v>69</v>
+      </c>
+      <c r="D454" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="2">
+        <v>46006.71875</v>
+      </c>
+      <c r="B455">
+        <v>0</v>
+      </c>
+      <c r="C455">
+        <v>70</v>
+      </c>
+      <c r="D455" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="2">
+        <v>46006.72916666666</v>
+      </c>
+      <c r="B456">
+        <v>0</v>
+      </c>
+      <c r="C456">
+        <v>71</v>
+      </c>
+      <c r="D456" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="2">
+        <v>46006.73958333334</v>
+      </c>
+      <c r="B457">
+        <v>0</v>
+      </c>
+      <c r="C457">
+        <v>72</v>
+      </c>
+      <c r="D457" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="2">
+        <v>46006.75</v>
+      </c>
+      <c r="B458">
+        <v>0</v>
+      </c>
+      <c r="C458">
+        <v>73</v>
+      </c>
+      <c r="D458" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="2">
+        <v>46006.76041666666</v>
+      </c>
+      <c r="B459">
+        <v>0</v>
+      </c>
+      <c r="C459">
+        <v>74</v>
+      </c>
+      <c r="D459" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="2">
+        <v>46006.77083333334</v>
+      </c>
+      <c r="B460">
+        <v>0</v>
+      </c>
+      <c r="C460">
+        <v>75</v>
+      </c>
+      <c r="D460" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="2">
+        <v>46006.78125</v>
+      </c>
+      <c r="B461">
+        <v>0</v>
+      </c>
+      <c r="C461">
+        <v>76</v>
+      </c>
+      <c r="D461" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="2">
+        <v>46006.79166666666</v>
+      </c>
+      <c r="B462">
+        <v>0</v>
+      </c>
+      <c r="C462">
+        <v>77</v>
+      </c>
+      <c r="D462" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="2">
+        <v>46006.80208333334</v>
+      </c>
+      <c r="B463">
+        <v>0</v>
+      </c>
+      <c r="C463">
+        <v>78</v>
+      </c>
+      <c r="D463" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="2">
+        <v>46006.8125</v>
+      </c>
+      <c r="B464">
+        <v>0</v>
+      </c>
+      <c r="C464">
+        <v>79</v>
+      </c>
+      <c r="D464" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="2">
+        <v>46006.82291666666</v>
+      </c>
+      <c r="B465">
+        <v>0</v>
+      </c>
+      <c r="C465">
+        <v>80</v>
+      </c>
+      <c r="D465" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="2">
+        <v>46006.83333333334</v>
+      </c>
+      <c r="B466">
+        <v>0</v>
+      </c>
+      <c r="C466">
+        <v>81</v>
+      </c>
+      <c r="D466" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="2">
+        <v>46006.84375</v>
+      </c>
+      <c r="B467">
+        <v>0</v>
+      </c>
+      <c r="C467">
+        <v>82</v>
+      </c>
+      <c r="D467" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="2">
+        <v>46006.85416666666</v>
+      </c>
+      <c r="B468">
+        <v>0</v>
+      </c>
+      <c r="C468">
+        <v>83</v>
+      </c>
+      <c r="D468" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="2">
+        <v>46006.86458333334</v>
+      </c>
+      <c r="B469">
+        <v>0</v>
+      </c>
+      <c r="C469">
+        <v>84</v>
+      </c>
+      <c r="D469" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="2">
+        <v>46006.875</v>
+      </c>
+      <c r="B470">
+        <v>0</v>
+      </c>
+      <c r="C470">
+        <v>85</v>
+      </c>
+      <c r="D470" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="2">
+        <v>46006.88541666666</v>
+      </c>
+      <c r="B471">
+        <v>0</v>
+      </c>
+      <c r="C471">
+        <v>86</v>
+      </c>
+      <c r="D471" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="2">
+        <v>46006.89583333334</v>
+      </c>
+      <c r="B472">
+        <v>0</v>
+      </c>
+      <c r="C472">
+        <v>87</v>
+      </c>
+      <c r="D472" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="2">
+        <v>46006.90625</v>
+      </c>
+      <c r="B473">
+        <v>0</v>
+      </c>
+      <c r="C473">
+        <v>88</v>
+      </c>
+      <c r="D473" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="2">
+        <v>46006.91666666666</v>
+      </c>
+      <c r="B474">
+        <v>0</v>
+      </c>
+      <c r="C474">
+        <v>89</v>
+      </c>
+      <c r="D474" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="2">
+        <v>46006.92708333334</v>
+      </c>
+      <c r="B475">
+        <v>0</v>
+      </c>
+      <c r="C475">
+        <v>90</v>
+      </c>
+      <c r="D475" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="2">
+        <v>46006.9375</v>
+      </c>
+      <c r="B476">
+        <v>0</v>
+      </c>
+      <c r="C476">
+        <v>91</v>
+      </c>
+      <c r="D476" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="2">
+        <v>46006.94791666666</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+      <c r="C477">
+        <v>92</v>
+      </c>
+      <c r="D477" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="2">
+        <v>46006.95833333334</v>
+      </c>
+      <c r="B478">
+        <v>0</v>
+      </c>
+      <c r="C478">
+        <v>93</v>
+      </c>
+      <c r="D478" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="2">
+        <v>46006.96875</v>
+      </c>
+      <c r="B479">
+        <v>0</v>
+      </c>
+      <c r="C479">
+        <v>94</v>
+      </c>
+      <c r="D479" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" s="2">
+        <v>46006.97916666666</v>
+      </c>
+      <c r="B480">
+        <v>0</v>
+      </c>
+      <c r="C480">
+        <v>95</v>
+      </c>
+      <c r="D480" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="2">
+        <v>46006.98958333334</v>
+      </c>
+      <c r="B481">
+        <v>0</v>
+      </c>
+      <c r="C481">
+        <v>96</v>
+      </c>
+      <c r="D481" t="s">
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
@@ -28,580 +28,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>30.12.20251</t>
-  </si>
-  <si>
-    <t>30.12.20252</t>
-  </si>
-  <si>
-    <t>30.12.20253</t>
-  </si>
-  <si>
-    <t>30.12.20254</t>
-  </si>
-  <si>
-    <t>30.12.20255</t>
-  </si>
-  <si>
-    <t>30.12.20256</t>
-  </si>
-  <si>
-    <t>30.12.20257</t>
-  </si>
-  <si>
-    <t>30.12.20258</t>
-  </si>
-  <si>
-    <t>30.12.20259</t>
-  </si>
-  <si>
-    <t>30.12.202510</t>
-  </si>
-  <si>
-    <t>30.12.202511</t>
-  </si>
-  <si>
-    <t>30.12.202512</t>
-  </si>
-  <si>
-    <t>30.12.202513</t>
-  </si>
-  <si>
-    <t>30.12.202514</t>
-  </si>
-  <si>
-    <t>30.12.202515</t>
-  </si>
-  <si>
-    <t>30.12.202516</t>
-  </si>
-  <si>
-    <t>30.12.202517</t>
-  </si>
-  <si>
-    <t>30.12.202518</t>
-  </si>
-  <si>
-    <t>30.12.202519</t>
-  </si>
-  <si>
-    <t>30.12.202520</t>
-  </si>
-  <si>
-    <t>30.12.202521</t>
-  </si>
-  <si>
-    <t>30.12.202522</t>
-  </si>
-  <si>
-    <t>30.12.202523</t>
-  </si>
-  <si>
-    <t>30.12.202524</t>
-  </si>
-  <si>
-    <t>30.12.202525</t>
-  </si>
-  <si>
-    <t>30.12.202526</t>
-  </si>
-  <si>
-    <t>30.12.202527</t>
-  </si>
-  <si>
-    <t>30.12.202528</t>
-  </si>
-  <si>
-    <t>30.12.202529</t>
-  </si>
-  <si>
-    <t>30.12.202530</t>
-  </si>
-  <si>
-    <t>30.12.202531</t>
-  </si>
-  <si>
-    <t>30.12.202532</t>
-  </si>
-  <si>
-    <t>30.12.202533</t>
-  </si>
-  <si>
-    <t>30.12.202534</t>
-  </si>
-  <si>
-    <t>30.12.202535</t>
-  </si>
-  <si>
-    <t>30.12.202536</t>
-  </si>
-  <si>
-    <t>30.12.202537</t>
-  </si>
-  <si>
-    <t>30.12.202538</t>
-  </si>
-  <si>
-    <t>30.12.202539</t>
-  </si>
-  <si>
-    <t>30.12.202540</t>
-  </si>
-  <si>
-    <t>30.12.202541</t>
-  </si>
-  <si>
-    <t>30.12.202542</t>
-  </si>
-  <si>
-    <t>30.12.202543</t>
-  </si>
-  <si>
-    <t>30.12.202544</t>
-  </si>
-  <si>
-    <t>30.12.202545</t>
-  </si>
-  <si>
-    <t>30.12.202546</t>
-  </si>
-  <si>
-    <t>30.12.202547</t>
-  </si>
-  <si>
-    <t>30.12.202548</t>
-  </si>
-  <si>
-    <t>30.12.202549</t>
-  </si>
-  <si>
-    <t>30.12.202550</t>
-  </si>
-  <si>
-    <t>30.12.202551</t>
-  </si>
-  <si>
-    <t>30.12.202552</t>
-  </si>
-  <si>
-    <t>30.12.202553</t>
-  </si>
-  <si>
-    <t>30.12.202554</t>
-  </si>
-  <si>
-    <t>30.12.202555</t>
-  </si>
-  <si>
-    <t>30.12.202556</t>
-  </si>
-  <si>
-    <t>30.12.202557</t>
-  </si>
-  <si>
-    <t>30.12.202558</t>
-  </si>
-  <si>
-    <t>30.12.202559</t>
-  </si>
-  <si>
-    <t>30.12.202560</t>
-  </si>
-  <si>
-    <t>30.12.202561</t>
-  </si>
-  <si>
-    <t>30.12.202562</t>
-  </si>
-  <si>
-    <t>30.12.202563</t>
-  </si>
-  <si>
-    <t>30.12.202564</t>
-  </si>
-  <si>
-    <t>30.12.202565</t>
-  </si>
-  <si>
-    <t>30.12.202566</t>
-  </si>
-  <si>
-    <t>30.12.202567</t>
-  </si>
-  <si>
-    <t>30.12.202568</t>
-  </si>
-  <si>
-    <t>30.12.202569</t>
-  </si>
-  <si>
-    <t>30.12.202570</t>
-  </si>
-  <si>
-    <t>30.12.202571</t>
-  </si>
-  <si>
-    <t>30.12.202572</t>
-  </si>
-  <si>
-    <t>30.12.202573</t>
-  </si>
-  <si>
-    <t>30.12.202574</t>
-  </si>
-  <si>
-    <t>30.12.202575</t>
-  </si>
-  <si>
-    <t>30.12.202576</t>
-  </si>
-  <si>
-    <t>30.12.202577</t>
-  </si>
-  <si>
-    <t>30.12.202578</t>
-  </si>
-  <si>
-    <t>30.12.202579</t>
-  </si>
-  <si>
-    <t>30.12.202580</t>
-  </si>
-  <si>
-    <t>30.12.202581</t>
-  </si>
-  <si>
-    <t>30.12.202582</t>
-  </si>
-  <si>
-    <t>30.12.202583</t>
-  </si>
-  <si>
-    <t>30.12.202584</t>
-  </si>
-  <si>
-    <t>30.12.202585</t>
-  </si>
-  <si>
-    <t>30.12.202586</t>
-  </si>
-  <si>
-    <t>30.12.202587</t>
-  </si>
-  <si>
-    <t>30.12.202588</t>
-  </si>
-  <si>
-    <t>30.12.202589</t>
-  </si>
-  <si>
-    <t>30.12.202590</t>
-  </si>
-  <si>
-    <t>30.12.202591</t>
-  </si>
-  <si>
-    <t>30.12.202592</t>
-  </si>
-  <si>
-    <t>30.12.202593</t>
-  </si>
-  <si>
-    <t>30.12.202594</t>
-  </si>
-  <si>
-    <t>30.12.202595</t>
-  </si>
-  <si>
-    <t>30.12.202596</t>
-  </si>
-  <si>
-    <t>31.12.20251</t>
-  </si>
-  <si>
-    <t>31.12.20252</t>
-  </si>
-  <si>
-    <t>31.12.20253</t>
-  </si>
-  <si>
-    <t>31.12.20254</t>
-  </si>
-  <si>
-    <t>31.12.20255</t>
-  </si>
-  <si>
-    <t>31.12.20256</t>
-  </si>
-  <si>
-    <t>31.12.20257</t>
-  </si>
-  <si>
-    <t>31.12.20258</t>
-  </si>
-  <si>
-    <t>31.12.20259</t>
-  </si>
-  <si>
-    <t>31.12.202510</t>
-  </si>
-  <si>
-    <t>31.12.202511</t>
-  </si>
-  <si>
-    <t>31.12.202512</t>
-  </si>
-  <si>
-    <t>31.12.202513</t>
-  </si>
-  <si>
-    <t>31.12.202514</t>
-  </si>
-  <si>
-    <t>31.12.202515</t>
-  </si>
-  <si>
-    <t>31.12.202516</t>
-  </si>
-  <si>
-    <t>31.12.202517</t>
-  </si>
-  <si>
-    <t>31.12.202518</t>
-  </si>
-  <si>
-    <t>31.12.202519</t>
-  </si>
-  <si>
-    <t>31.12.202520</t>
-  </si>
-  <si>
-    <t>31.12.202521</t>
-  </si>
-  <si>
-    <t>31.12.202522</t>
-  </si>
-  <si>
-    <t>31.12.202523</t>
-  </si>
-  <si>
-    <t>31.12.202524</t>
-  </si>
-  <si>
-    <t>31.12.202525</t>
-  </si>
-  <si>
-    <t>31.12.202526</t>
-  </si>
-  <si>
-    <t>31.12.202527</t>
-  </si>
-  <si>
-    <t>31.12.202528</t>
-  </si>
-  <si>
-    <t>31.12.202529</t>
-  </si>
-  <si>
-    <t>31.12.202530</t>
-  </si>
-  <si>
-    <t>31.12.202531</t>
-  </si>
-  <si>
-    <t>31.12.202532</t>
-  </si>
-  <si>
-    <t>31.12.202533</t>
-  </si>
-  <si>
-    <t>31.12.202534</t>
-  </si>
-  <si>
-    <t>31.12.202535</t>
-  </si>
-  <si>
-    <t>31.12.202536</t>
-  </si>
-  <si>
-    <t>31.12.202537</t>
-  </si>
-  <si>
-    <t>31.12.202538</t>
-  </si>
-  <si>
-    <t>31.12.202539</t>
-  </si>
-  <si>
-    <t>31.12.202540</t>
-  </si>
-  <si>
-    <t>31.12.202541</t>
-  </si>
-  <si>
-    <t>31.12.202542</t>
-  </si>
-  <si>
-    <t>31.12.202543</t>
-  </si>
-  <si>
-    <t>31.12.202544</t>
-  </si>
-  <si>
-    <t>31.12.202545</t>
-  </si>
-  <si>
-    <t>31.12.202546</t>
-  </si>
-  <si>
-    <t>31.12.202547</t>
-  </si>
-  <si>
-    <t>31.12.202548</t>
-  </si>
-  <si>
-    <t>31.12.202549</t>
-  </si>
-  <si>
-    <t>31.12.202550</t>
-  </si>
-  <si>
-    <t>31.12.202551</t>
-  </si>
-  <si>
-    <t>31.12.202552</t>
-  </si>
-  <si>
-    <t>31.12.202553</t>
-  </si>
-  <si>
-    <t>31.12.202554</t>
-  </si>
-  <si>
-    <t>31.12.202555</t>
-  </si>
-  <si>
-    <t>31.12.202556</t>
-  </si>
-  <si>
-    <t>31.12.202557</t>
-  </si>
-  <si>
-    <t>31.12.202558</t>
-  </si>
-  <si>
-    <t>31.12.202559</t>
-  </si>
-  <si>
-    <t>31.12.202560</t>
-  </si>
-  <si>
-    <t>31.12.202561</t>
-  </si>
-  <si>
-    <t>31.12.202562</t>
-  </si>
-  <si>
-    <t>31.12.202563</t>
-  </si>
-  <si>
-    <t>31.12.202564</t>
-  </si>
-  <si>
-    <t>31.12.202565</t>
-  </si>
-  <si>
-    <t>31.12.202566</t>
-  </si>
-  <si>
-    <t>31.12.202567</t>
-  </si>
-  <si>
-    <t>31.12.202568</t>
-  </si>
-  <si>
-    <t>31.12.202569</t>
-  </si>
-  <si>
-    <t>31.12.202570</t>
-  </si>
-  <si>
-    <t>31.12.202571</t>
-  </si>
-  <si>
-    <t>31.12.202572</t>
-  </si>
-  <si>
-    <t>31.12.202573</t>
-  </si>
-  <si>
-    <t>31.12.202574</t>
-  </si>
-  <si>
-    <t>31.12.202575</t>
-  </si>
-  <si>
-    <t>31.12.202576</t>
-  </si>
-  <si>
-    <t>31.12.202577</t>
-  </si>
-  <si>
-    <t>31.12.202578</t>
-  </si>
-  <si>
-    <t>31.12.202579</t>
-  </si>
-  <si>
-    <t>31.12.202580</t>
-  </si>
-  <si>
-    <t>31.12.202581</t>
-  </si>
-  <si>
-    <t>31.12.202582</t>
-  </si>
-  <si>
-    <t>31.12.202583</t>
-  </si>
-  <si>
-    <t>31.12.202584</t>
-  </si>
-  <si>
-    <t>31.12.202585</t>
-  </si>
-  <si>
-    <t>31.12.202586</t>
-  </si>
-  <si>
-    <t>31.12.202587</t>
-  </si>
-  <si>
-    <t>31.12.202588</t>
-  </si>
-  <si>
-    <t>31.12.202589</t>
-  </si>
-  <si>
-    <t>31.12.202590</t>
-  </si>
-  <si>
-    <t>31.12.202591</t>
-  </si>
-  <si>
-    <t>31.12.202592</t>
-  </si>
-  <si>
-    <t>31.12.202593</t>
-  </si>
-  <si>
-    <t>31.12.202594</t>
-  </si>
-  <si>
-    <t>31.12.202595</t>
-  </si>
-  <si>
-    <t>31.12.202596</t>
+    <t>21.01.20261</t>
+  </si>
+  <si>
+    <t>21.01.20262</t>
+  </si>
+  <si>
+    <t>21.01.20263</t>
+  </si>
+  <si>
+    <t>21.01.20264</t>
+  </si>
+  <si>
+    <t>21.01.20265</t>
+  </si>
+  <si>
+    <t>21.01.20266</t>
+  </si>
+  <si>
+    <t>21.01.20267</t>
+  </si>
+  <si>
+    <t>21.01.20268</t>
+  </si>
+  <si>
+    <t>21.01.20269</t>
+  </si>
+  <si>
+    <t>21.01.202610</t>
+  </si>
+  <si>
+    <t>21.01.202611</t>
+  </si>
+  <si>
+    <t>21.01.202612</t>
+  </si>
+  <si>
+    <t>21.01.202613</t>
+  </si>
+  <si>
+    <t>21.01.202614</t>
+  </si>
+  <si>
+    <t>21.01.202615</t>
+  </si>
+  <si>
+    <t>21.01.202616</t>
+  </si>
+  <si>
+    <t>21.01.202617</t>
+  </si>
+  <si>
+    <t>21.01.202618</t>
+  </si>
+  <si>
+    <t>21.01.202619</t>
+  </si>
+  <si>
+    <t>21.01.202620</t>
+  </si>
+  <si>
+    <t>21.01.202621</t>
+  </si>
+  <si>
+    <t>21.01.202622</t>
+  </si>
+  <si>
+    <t>21.01.202623</t>
+  </si>
+  <si>
+    <t>21.01.202624</t>
+  </si>
+  <si>
+    <t>21.01.202625</t>
+  </si>
+  <si>
+    <t>21.01.202626</t>
+  </si>
+  <si>
+    <t>21.01.202627</t>
+  </si>
+  <si>
+    <t>21.01.202628</t>
+  </si>
+  <si>
+    <t>21.01.202629</t>
+  </si>
+  <si>
+    <t>21.01.202630</t>
+  </si>
+  <si>
+    <t>21.01.202631</t>
+  </si>
+  <si>
+    <t>21.01.202632</t>
+  </si>
+  <si>
+    <t>21.01.202633</t>
+  </si>
+  <si>
+    <t>21.01.202634</t>
+  </si>
+  <si>
+    <t>21.01.202635</t>
+  </si>
+  <si>
+    <t>21.01.202636</t>
+  </si>
+  <si>
+    <t>21.01.202637</t>
+  </si>
+  <si>
+    <t>21.01.202638</t>
+  </si>
+  <si>
+    <t>21.01.202639</t>
+  </si>
+  <si>
+    <t>21.01.202640</t>
+  </si>
+  <si>
+    <t>21.01.202641</t>
+  </si>
+  <si>
+    <t>21.01.202642</t>
+  </si>
+  <si>
+    <t>21.01.202643</t>
+  </si>
+  <si>
+    <t>21.01.202644</t>
+  </si>
+  <si>
+    <t>21.01.202645</t>
+  </si>
+  <si>
+    <t>21.01.202646</t>
+  </si>
+  <si>
+    <t>21.01.202647</t>
+  </si>
+  <si>
+    <t>21.01.202648</t>
+  </si>
+  <si>
+    <t>21.01.202649</t>
+  </si>
+  <si>
+    <t>21.01.202650</t>
+  </si>
+  <si>
+    <t>21.01.202651</t>
+  </si>
+  <si>
+    <t>21.01.202652</t>
+  </si>
+  <si>
+    <t>21.01.202653</t>
+  </si>
+  <si>
+    <t>21.01.202654</t>
+  </si>
+  <si>
+    <t>21.01.202655</t>
+  </si>
+  <si>
+    <t>21.01.202656</t>
+  </si>
+  <si>
+    <t>21.01.202657</t>
+  </si>
+  <si>
+    <t>21.01.202658</t>
+  </si>
+  <si>
+    <t>21.01.202659</t>
+  </si>
+  <si>
+    <t>21.01.202660</t>
+  </si>
+  <si>
+    <t>21.01.202661</t>
+  </si>
+  <si>
+    <t>21.01.202662</t>
+  </si>
+  <si>
+    <t>21.01.202663</t>
+  </si>
+  <si>
+    <t>21.01.202664</t>
+  </si>
+  <si>
+    <t>21.01.202665</t>
+  </si>
+  <si>
+    <t>21.01.202666</t>
+  </si>
+  <si>
+    <t>21.01.202667</t>
+  </si>
+  <si>
+    <t>21.01.202668</t>
+  </si>
+  <si>
+    <t>21.01.202669</t>
+  </si>
+  <si>
+    <t>21.01.202670</t>
+  </si>
+  <si>
+    <t>21.01.202671</t>
+  </si>
+  <si>
+    <t>21.01.202672</t>
+  </si>
+  <si>
+    <t>21.01.202673</t>
+  </si>
+  <si>
+    <t>21.01.202674</t>
+  </si>
+  <si>
+    <t>21.01.202675</t>
+  </si>
+  <si>
+    <t>21.01.202676</t>
+  </si>
+  <si>
+    <t>21.01.202677</t>
+  </si>
+  <si>
+    <t>21.01.202678</t>
+  </si>
+  <si>
+    <t>21.01.202679</t>
+  </si>
+  <si>
+    <t>21.01.202680</t>
+  </si>
+  <si>
+    <t>21.01.202681</t>
+  </si>
+  <si>
+    <t>21.01.202682</t>
+  </si>
+  <si>
+    <t>21.01.202683</t>
+  </si>
+  <si>
+    <t>21.01.202684</t>
+  </si>
+  <si>
+    <t>21.01.202685</t>
+  </si>
+  <si>
+    <t>21.01.202686</t>
+  </si>
+  <si>
+    <t>21.01.202687</t>
+  </si>
+  <si>
+    <t>21.01.202688</t>
+  </si>
+  <si>
+    <t>21.01.202689</t>
+  </si>
+  <si>
+    <t>21.01.202690</t>
+  </si>
+  <si>
+    <t>21.01.202691</t>
+  </si>
+  <si>
+    <t>21.01.202692</t>
+  </si>
+  <si>
+    <t>21.01.202693</t>
+  </si>
+  <si>
+    <t>21.01.202694</t>
+  </si>
+  <si>
+    <t>21.01.202695</t>
+  </si>
+  <si>
+    <t>21.01.202696</t>
+  </si>
+  <si>
+    <t>22.01.20261</t>
+  </si>
+  <si>
+    <t>22.01.20262</t>
+  </si>
+  <si>
+    <t>22.01.20263</t>
+  </si>
+  <si>
+    <t>22.01.20264</t>
+  </si>
+  <si>
+    <t>22.01.20265</t>
+  </si>
+  <si>
+    <t>22.01.20266</t>
+  </si>
+  <si>
+    <t>22.01.20267</t>
+  </si>
+  <si>
+    <t>22.01.20268</t>
+  </si>
+  <si>
+    <t>22.01.20269</t>
+  </si>
+  <si>
+    <t>22.01.202610</t>
+  </si>
+  <si>
+    <t>22.01.202611</t>
+  </si>
+  <si>
+    <t>22.01.202612</t>
+  </si>
+  <si>
+    <t>22.01.202613</t>
+  </si>
+  <si>
+    <t>22.01.202614</t>
+  </si>
+  <si>
+    <t>22.01.202615</t>
+  </si>
+  <si>
+    <t>22.01.202616</t>
+  </si>
+  <si>
+    <t>22.01.202617</t>
+  </si>
+  <si>
+    <t>22.01.202618</t>
+  </si>
+  <si>
+    <t>22.01.202619</t>
+  </si>
+  <si>
+    <t>22.01.202620</t>
+  </si>
+  <si>
+    <t>22.01.202621</t>
+  </si>
+  <si>
+    <t>22.01.202622</t>
+  </si>
+  <si>
+    <t>22.01.202623</t>
+  </si>
+  <si>
+    <t>22.01.202624</t>
+  </si>
+  <si>
+    <t>22.01.202625</t>
+  </si>
+  <si>
+    <t>22.01.202626</t>
+  </si>
+  <si>
+    <t>22.01.202627</t>
+  </si>
+  <si>
+    <t>22.01.202628</t>
+  </si>
+  <si>
+    <t>22.01.202629</t>
+  </si>
+  <si>
+    <t>22.01.202630</t>
+  </si>
+  <si>
+    <t>22.01.202631</t>
+  </si>
+  <si>
+    <t>22.01.202632</t>
+  </si>
+  <si>
+    <t>22.01.202633</t>
+  </si>
+  <si>
+    <t>22.01.202634</t>
+  </si>
+  <si>
+    <t>22.01.202635</t>
+  </si>
+  <si>
+    <t>22.01.202636</t>
+  </si>
+  <si>
+    <t>22.01.202637</t>
+  </si>
+  <si>
+    <t>22.01.202638</t>
+  </si>
+  <si>
+    <t>22.01.202639</t>
+  </si>
+  <si>
+    <t>22.01.202640</t>
+  </si>
+  <si>
+    <t>22.01.202641</t>
+  </si>
+  <si>
+    <t>22.01.202642</t>
+  </si>
+  <si>
+    <t>22.01.202643</t>
+  </si>
+  <si>
+    <t>22.01.202644</t>
+  </si>
+  <si>
+    <t>22.01.202645</t>
+  </si>
+  <si>
+    <t>22.01.202646</t>
+  </si>
+  <si>
+    <t>22.01.202647</t>
+  </si>
+  <si>
+    <t>22.01.202648</t>
+  </si>
+  <si>
+    <t>22.01.202649</t>
+  </si>
+  <si>
+    <t>22.01.202650</t>
+  </si>
+  <si>
+    <t>22.01.202651</t>
+  </si>
+  <si>
+    <t>22.01.202652</t>
+  </si>
+  <si>
+    <t>22.01.202653</t>
+  </si>
+  <si>
+    <t>22.01.202654</t>
+  </si>
+  <si>
+    <t>22.01.202655</t>
+  </si>
+  <si>
+    <t>22.01.202656</t>
+  </si>
+  <si>
+    <t>22.01.202657</t>
+  </si>
+  <si>
+    <t>22.01.202658</t>
+  </si>
+  <si>
+    <t>22.01.202659</t>
+  </si>
+  <si>
+    <t>22.01.202660</t>
+  </si>
+  <si>
+    <t>22.01.202661</t>
+  </si>
+  <si>
+    <t>22.01.202662</t>
+  </si>
+  <si>
+    <t>22.01.202663</t>
+  </si>
+  <si>
+    <t>22.01.202664</t>
+  </si>
+  <si>
+    <t>22.01.202665</t>
+  </si>
+  <si>
+    <t>22.01.202666</t>
+  </si>
+  <si>
+    <t>22.01.202667</t>
+  </si>
+  <si>
+    <t>22.01.202668</t>
+  </si>
+  <si>
+    <t>22.01.202669</t>
+  </si>
+  <si>
+    <t>22.01.202670</t>
+  </si>
+  <si>
+    <t>22.01.202671</t>
+  </si>
+  <si>
+    <t>22.01.202672</t>
+  </si>
+  <si>
+    <t>22.01.202673</t>
+  </si>
+  <si>
+    <t>22.01.202674</t>
+  </si>
+  <si>
+    <t>22.01.202675</t>
+  </si>
+  <si>
+    <t>22.01.202676</t>
+  </si>
+  <si>
+    <t>22.01.202677</t>
+  </si>
+  <si>
+    <t>22.01.202678</t>
+  </si>
+  <si>
+    <t>22.01.202679</t>
+  </si>
+  <si>
+    <t>22.01.202680</t>
+  </si>
+  <si>
+    <t>22.01.202681</t>
+  </si>
+  <si>
+    <t>22.01.202682</t>
+  </si>
+  <si>
+    <t>22.01.202683</t>
+  </si>
+  <si>
+    <t>22.01.202684</t>
+  </si>
+  <si>
+    <t>22.01.202685</t>
+  </si>
+  <si>
+    <t>22.01.202686</t>
+  </si>
+  <si>
+    <t>22.01.202687</t>
+  </si>
+  <si>
+    <t>22.01.202688</t>
+  </si>
+  <si>
+    <t>22.01.202689</t>
+  </si>
+  <si>
+    <t>22.01.202690</t>
+  </si>
+  <si>
+    <t>22.01.202691</t>
+  </si>
+  <si>
+    <t>22.01.202692</t>
+  </si>
+  <si>
+    <t>22.01.202693</t>
+  </si>
+  <si>
+    <t>22.01.202694</t>
+  </si>
+  <si>
+    <t>22.01.202695</t>
+  </si>
+  <si>
+    <t>22.01.202696</t>
   </si>
 </sst>
 </file>
@@ -985,10 +985,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>46021</v>
+        <v>46043</v>
       </c>
       <c r="B2">
-        <v>5646</v>
+        <v>6746</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -999,10 +999,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>46021.01041666666</v>
+        <v>46043.01041666666</v>
       </c>
       <c r="B3">
-        <v>5621</v>
+        <v>6766</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>46021.02083333334</v>
+        <v>46043.02083333334</v>
       </c>
       <c r="B4">
-        <v>5568</v>
+        <v>6706</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>46021.03125</v>
+        <v>46043.03125</v>
       </c>
       <c r="B5">
-        <v>5530</v>
+        <v>6666</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>46021.04166666666</v>
+        <v>46043.04166666666</v>
       </c>
       <c r="B6">
-        <v>5480</v>
+        <v>6653</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>46021.05208333334</v>
+        <v>46043.05208333334</v>
       </c>
       <c r="B7">
-        <v>5460</v>
+        <v>6623</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>46021.0625</v>
+        <v>46043.0625</v>
       </c>
       <c r="B8">
-        <v>5447</v>
+        <v>6598</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>46021.07291666666</v>
+        <v>46043.07291666666</v>
       </c>
       <c r="B9">
-        <v>5450</v>
+        <v>6570</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>46021.08333333334</v>
+        <v>46043.08333333334</v>
       </c>
       <c r="B10">
-        <v>5428</v>
+        <v>6670</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1111,10 +1111,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>46021.09375</v>
+        <v>46043.09375</v>
       </c>
       <c r="B11">
-        <v>5419</v>
+        <v>6624</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>46021.10416666666</v>
+        <v>46043.10416666666</v>
       </c>
       <c r="B12">
-        <v>5412</v>
+        <v>6628</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1139,10 +1139,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>46021.11458333334</v>
+        <v>46043.11458333334</v>
       </c>
       <c r="B13">
-        <v>5391</v>
+        <v>6591</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>46021.125</v>
+        <v>46043.125</v>
       </c>
       <c r="B14">
-        <v>5395</v>
+        <v>6658</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>46021.13541666666</v>
+        <v>46043.13541666666</v>
       </c>
       <c r="B15">
-        <v>5409</v>
+        <v>6697</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1181,10 +1181,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>46021.14583333334</v>
+        <v>46043.14583333334</v>
       </c>
       <c r="B16">
-        <v>5445</v>
+        <v>6744</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>46021.15625</v>
+        <v>46043.15625</v>
       </c>
       <c r="B17">
-        <v>5468</v>
+        <v>6770</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1209,10 +1209,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>46021.16666666666</v>
+        <v>46043.16666666666</v>
       </c>
       <c r="B18">
-        <v>5513</v>
+        <v>6837</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1223,10 +1223,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>46021.17708333334</v>
+        <v>46043.17708333334</v>
       </c>
       <c r="B19">
-        <v>5544</v>
+        <v>6949</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1237,10 +1237,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>46021.1875</v>
+        <v>46043.1875</v>
       </c>
       <c r="B20">
-        <v>5606</v>
+        <v>6999</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>46021.19791666666</v>
+        <v>46043.19791666666</v>
       </c>
       <c r="B21">
-        <v>5683</v>
+        <v>7049</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>46021.20833333334</v>
+        <v>46043.20833333334</v>
       </c>
       <c r="B22">
-        <v>5810</v>
+        <v>7248</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>46021.21875</v>
+        <v>46043.21875</v>
       </c>
       <c r="B23">
-        <v>5928</v>
+        <v>7462</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1293,10 +1293,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>46021.22916666666</v>
+        <v>46043.22916666666</v>
       </c>
       <c r="B24">
-        <v>6003</v>
+        <v>7626</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>46021.23958333334</v>
+        <v>46043.23958333334</v>
       </c>
       <c r="B25">
-        <v>6124</v>
+        <v>7901</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>46021.25</v>
+        <v>46043.25</v>
       </c>
       <c r="B26">
-        <v>6232</v>
+        <v>8235</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>46021.26041666666</v>
+        <v>46043.26041666666</v>
       </c>
       <c r="B27">
-        <v>6354</v>
+        <v>8424</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>46021.27083333334</v>
+        <v>46043.27083333334</v>
       </c>
       <c r="B28">
-        <v>6455</v>
+        <v>8559</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>46021.28125</v>
+        <v>46043.28125</v>
       </c>
       <c r="B29">
-        <v>6544</v>
+        <v>8636</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>46021.29166666666</v>
+        <v>46043.29166666666</v>
       </c>
       <c r="B30">
-        <v>6709</v>
+        <v>8881</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1391,10 +1391,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>46021.30208333334</v>
+        <v>46043.30208333334</v>
       </c>
       <c r="B31">
-        <v>6805</v>
+        <v>9019</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>46021.3125</v>
+        <v>46043.3125</v>
       </c>
       <c r="B32">
-        <v>6859</v>
+        <v>9057</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1419,10 +1419,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>46021.32291666666</v>
+        <v>46043.32291666666</v>
       </c>
       <c r="B33">
-        <v>6913</v>
+        <v>9114</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1433,10 +1433,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>46021.33333333334</v>
+        <v>46043.33333333334</v>
       </c>
       <c r="B34">
-        <v>6906</v>
+        <v>9183</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1447,10 +1447,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>46021.34375</v>
+        <v>46043.34375</v>
       </c>
       <c r="B35">
-        <v>6874</v>
+        <v>9296</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>46021.35416666666</v>
+        <v>46043.35416666666</v>
       </c>
       <c r="B36">
-        <v>6832</v>
+        <v>9208</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>46021.36458333334</v>
+        <v>46043.36458333334</v>
       </c>
       <c r="B37">
-        <v>6748</v>
+        <v>9144</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1489,10 +1489,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>46021.375</v>
+        <v>46043.375</v>
       </c>
       <c r="B38">
-        <v>6695</v>
+        <v>9100</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>46021.38541666666</v>
+        <v>46043.38541666666</v>
       </c>
       <c r="B39">
-        <v>6635</v>
+        <v>9148</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>46021.39583333334</v>
+        <v>46043.39583333334</v>
       </c>
       <c r="B40">
-        <v>6594</v>
+        <v>9048</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>46021.40625</v>
+        <v>46043.40625</v>
       </c>
       <c r="B41">
-        <v>6552</v>
+        <v>8989</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>46021.41666666666</v>
+        <v>46043.41666666666</v>
       </c>
       <c r="B42">
-        <v>6569</v>
+        <v>8967</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>46021.42708333334</v>
+        <v>46043.42708333334</v>
       </c>
       <c r="B43">
-        <v>6522</v>
+        <v>8949</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>46021.4375</v>
+        <v>46043.4375</v>
       </c>
       <c r="B44">
-        <v>6506</v>
+        <v>8830</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>46021.44791666666</v>
+        <v>46043.44791666666</v>
       </c>
       <c r="B45">
-        <v>6462</v>
+        <v>8834</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>46021.45833333334</v>
+        <v>46043.45833333334</v>
       </c>
       <c r="B46">
-        <v>6447</v>
+        <v>8771</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>46021.46875</v>
+        <v>46043.46875</v>
       </c>
       <c r="B47">
-        <v>6393</v>
+        <v>8724</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>46021.47916666666</v>
+        <v>46043.47916666666</v>
       </c>
       <c r="B48">
-        <v>6394</v>
+        <v>8678</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1643,10 +1643,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>46021.48958333334</v>
+        <v>46043.48958333334</v>
       </c>
       <c r="B49">
-        <v>6401</v>
+        <v>8659</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>46021.5</v>
+        <v>46043.5</v>
       </c>
       <c r="B50">
-        <v>6501</v>
+        <v>8573</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1671,10 +1671,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>46021.51041666666</v>
+        <v>46043.51041666666</v>
       </c>
       <c r="B51">
-        <v>6539</v>
+        <v>8534</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>46021.52083333334</v>
+        <v>46043.52083333334</v>
       </c>
       <c r="B52">
-        <v>6567</v>
+        <v>8466</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1699,10 +1699,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>46021.53125</v>
+        <v>46043.53125</v>
       </c>
       <c r="B53">
-        <v>6637</v>
+        <v>8437</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>46021.54166666666</v>
+        <v>46043.54166666666</v>
       </c>
       <c r="B54">
-        <v>6678</v>
+        <v>8363</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>46021.55208333334</v>
+        <v>46043.55208333334</v>
       </c>
       <c r="B55">
-        <v>6728</v>
+        <v>8375</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>46021.5625</v>
+        <v>46043.5625</v>
       </c>
       <c r="B56">
-        <v>6775</v>
+        <v>8351</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -1755,10 +1755,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>46021.57291666666</v>
+        <v>46043.57291666666</v>
       </c>
       <c r="B57">
-        <v>6845</v>
+        <v>8363</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>46021.58333333334</v>
+        <v>46043.58333333334</v>
       </c>
       <c r="B58">
-        <v>6883</v>
+        <v>8355</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>46021.59375</v>
+        <v>46043.59375</v>
       </c>
       <c r="B59">
-        <v>6947</v>
+        <v>8506</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>46021.60416666666</v>
+        <v>46043.60416666666</v>
       </c>
       <c r="B60">
-        <v>7018</v>
+        <v>8401</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -1811,10 +1811,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>46021.61458333334</v>
+        <v>46043.61458333334</v>
       </c>
       <c r="B61">
-        <v>7115</v>
+        <v>8489</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>46021.625</v>
+        <v>46043.625</v>
       </c>
       <c r="B62">
-        <v>7233</v>
+        <v>8551</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>46021.63541666666</v>
+        <v>46043.63541666666</v>
       </c>
       <c r="B63">
-        <v>7338</v>
+        <v>8673</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -1853,10 +1853,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>46021.64583333334</v>
+        <v>46043.64583333334</v>
       </c>
       <c r="B64">
-        <v>7463</v>
+        <v>8665</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>46021.65625</v>
+        <v>46043.65625</v>
       </c>
       <c r="B65">
-        <v>7582</v>
+        <v>8769</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>46021.66666666666</v>
+        <v>46043.66666666666</v>
       </c>
       <c r="B66">
-        <v>7763</v>
+        <v>8802</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>46021.67708333334</v>
+        <v>46043.67708333334</v>
       </c>
       <c r="B67">
-        <v>7885</v>
+        <v>8977</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>46021.6875</v>
+        <v>46043.6875</v>
       </c>
       <c r="B68">
-        <v>7934</v>
+        <v>9051</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>46021.69791666666</v>
+        <v>46043.69791666666</v>
       </c>
       <c r="B69">
-        <v>7973</v>
+        <v>9124</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>46021.70833333334</v>
+        <v>46043.70833333334</v>
       </c>
       <c r="B70">
-        <v>7978</v>
+        <v>9128</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>46021.71875</v>
+        <v>46043.71875</v>
       </c>
       <c r="B71">
-        <v>7955</v>
+        <v>9182</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>46021.72916666666</v>
+        <v>46043.72916666666</v>
       </c>
       <c r="B72">
-        <v>7927</v>
+        <v>9120</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>46021.73958333334</v>
+        <v>46043.73958333334</v>
       </c>
       <c r="B73">
-        <v>7887</v>
+        <v>9123</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>46021.75</v>
+        <v>46043.75</v>
       </c>
       <c r="B74">
-        <v>7878</v>
+        <v>9100</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -2007,10 +2007,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>46021.76041666666</v>
+        <v>46043.76041666666</v>
       </c>
       <c r="B75">
-        <v>7863</v>
+        <v>9060</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>46021.77083333334</v>
+        <v>46043.77083333334</v>
       </c>
       <c r="B76">
-        <v>7865</v>
+        <v>8982</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>46021.78125</v>
+        <v>46043.78125</v>
       </c>
       <c r="B77">
-        <v>7808</v>
+        <v>8952</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -2049,10 +2049,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>46021.79166666666</v>
+        <v>46043.79166666666</v>
       </c>
       <c r="B78">
-        <v>7735</v>
+        <v>8876</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>46021.80208333334</v>
+        <v>46043.80208333334</v>
       </c>
       <c r="B79">
-        <v>7695</v>
+        <v>8841</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>46021.8125</v>
+        <v>46043.8125</v>
       </c>
       <c r="B80">
-        <v>7650</v>
+        <v>8738</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>46021.82291666666</v>
+        <v>46043.82291666666</v>
       </c>
       <c r="B81">
-        <v>7618</v>
+        <v>8620</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -2105,10 +2105,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>46021.83333333334</v>
+        <v>46043.83333333334</v>
       </c>
       <c r="B82">
-        <v>7526</v>
+        <v>8512</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>46021.84375</v>
+        <v>46043.84375</v>
       </c>
       <c r="B83">
-        <v>7438</v>
+        <v>8379</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -2133,10 +2133,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>46021.85416666666</v>
+        <v>46043.85416666666</v>
       </c>
       <c r="B84">
-        <v>7288</v>
+        <v>8273</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>46021.86458333334</v>
+        <v>46043.86458333334</v>
       </c>
       <c r="B85">
-        <v>7183</v>
+        <v>8143</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -2161,10 +2161,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>46021.875</v>
+        <v>46043.875</v>
       </c>
       <c r="B86">
-        <v>6951</v>
+        <v>7962</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>46021.88541666666</v>
+        <v>46043.88541666666</v>
       </c>
       <c r="B87">
-        <v>6805</v>
+        <v>7804</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -2189,10 +2189,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>46021.89583333334</v>
+        <v>46043.89583333334</v>
       </c>
       <c r="B88">
-        <v>6660</v>
+        <v>7640</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>46021.90625</v>
+        <v>46043.90625</v>
       </c>
       <c r="B89">
-        <v>6547</v>
+        <v>7475</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>46021.91666666666</v>
+        <v>46043.91666666666</v>
       </c>
       <c r="B90">
-        <v>6412</v>
+        <v>7313</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>46021.92708333334</v>
+        <v>46043.92708333334</v>
       </c>
       <c r="B91">
-        <v>6307</v>
+        <v>7253</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>46021.9375</v>
+        <v>46043.9375</v>
       </c>
       <c r="B92">
-        <v>6204</v>
+        <v>7107</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>46021.94791666666</v>
+        <v>46043.94791666666</v>
       </c>
       <c r="B93">
-        <v>6138</v>
+        <v>7010</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -2273,10 +2273,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>46021.95833333334</v>
+        <v>46043.95833333334</v>
       </c>
       <c r="B94">
-        <v>6064</v>
+        <v>6819</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>46021.96875</v>
+        <v>46043.96875</v>
       </c>
       <c r="B95">
-        <v>5998</v>
+        <v>6756</v>
       </c>
       <c r="C95">
         <v>94</v>
@@ -2301,10 +2301,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>46021.97916666666</v>
+        <v>46043.97916666666</v>
       </c>
       <c r="B96">
-        <v>5876</v>
+        <v>6657</v>
       </c>
       <c r="C96">
         <v>95</v>
@@ -2315,10 +2315,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>46021.98958333334</v>
+        <v>46043.98958333334</v>
       </c>
       <c r="B97">
-        <v>5837</v>
+        <v>6677</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>46022</v>
+        <v>46044</v>
       </c>
       <c r="B98">
-        <v>5819</v>
+        <v>6627</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>46022.01041666666</v>
+        <v>46044.01041666666</v>
       </c>
       <c r="B99">
-        <v>5748</v>
+        <v>6604</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>46022.02083333334</v>
+        <v>46044.02083333334</v>
       </c>
       <c r="B100">
-        <v>5704</v>
+        <v>6507</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2371,10 +2371,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>46022.03125</v>
+        <v>46044.03125</v>
       </c>
       <c r="B101">
-        <v>5663</v>
+        <v>6530</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>46022.04166666666</v>
+        <v>46044.04166666666</v>
       </c>
       <c r="B102">
-        <v>5569</v>
+        <v>6440</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>46022.05208333334</v>
+        <v>46044.05208333334</v>
       </c>
       <c r="B103">
-        <v>5523</v>
+        <v>6493</v>
       </c>
       <c r="C103">
         <v>6</v>
@@ -2413,10 +2413,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>46022.0625</v>
+        <v>46044.0625</v>
       </c>
       <c r="B104">
-        <v>5487</v>
+        <v>6426</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -2427,10 +2427,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>46022.07291666666</v>
+        <v>46044.07291666666</v>
       </c>
       <c r="B105">
-        <v>5459</v>
+        <v>6432</v>
       </c>
       <c r="C105">
         <v>8</v>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>46022.08333333334</v>
+        <v>46044.08333333334</v>
       </c>
       <c r="B106">
-        <v>5418</v>
+        <v>6453</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -2455,10 +2455,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>46022.09375</v>
+        <v>46044.09375</v>
       </c>
       <c r="B107">
-        <v>5409</v>
+        <v>6455</v>
       </c>
       <c r="C107">
         <v>10</v>
@@ -2469,10 +2469,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>46022.10416666666</v>
+        <v>46044.10416666666</v>
       </c>
       <c r="B108">
-        <v>5387</v>
+        <v>6473</v>
       </c>
       <c r="C108">
         <v>11</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>46022.11458333334</v>
+        <v>46044.11458333334</v>
       </c>
       <c r="B109">
-        <v>5368</v>
+        <v>6544</v>
       </c>
       <c r="C109">
         <v>12</v>
@@ -2497,10 +2497,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>46022.125</v>
+        <v>46044.125</v>
       </c>
       <c r="B110">
-        <v>5355</v>
+        <v>6535</v>
       </c>
       <c r="C110">
         <v>13</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>46022.13541666666</v>
+        <v>46044.13541666666</v>
       </c>
       <c r="B111">
-        <v>5403</v>
+        <v>6496</v>
       </c>
       <c r="C111">
         <v>14</v>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>46022.14583333334</v>
+        <v>46044.14583333334</v>
       </c>
       <c r="B112">
-        <v>5434</v>
+        <v>6555</v>
       </c>
       <c r="C112">
         <v>15</v>
@@ -2539,10 +2539,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>46022.15625</v>
+        <v>46044.15625</v>
       </c>
       <c r="B113">
-        <v>5425</v>
+        <v>6584</v>
       </c>
       <c r="C113">
         <v>16</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>46022.16666666666</v>
+        <v>46044.16666666666</v>
       </c>
       <c r="B114">
-        <v>5478</v>
+        <v>6646</v>
       </c>
       <c r="C114">
         <v>17</v>
@@ -2567,10 +2567,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>46022.17708333334</v>
+        <v>46044.17708333334</v>
       </c>
       <c r="B115">
-        <v>5516</v>
+        <v>6557</v>
       </c>
       <c r="C115">
         <v>18</v>
@@ -2581,10 +2581,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>46022.1875</v>
+        <v>46044.1875</v>
       </c>
       <c r="B116">
-        <v>5553</v>
+        <v>6601</v>
       </c>
       <c r="C116">
         <v>19</v>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>46022.19791666666</v>
+        <v>46044.19791666666</v>
       </c>
       <c r="B117">
-        <v>5606</v>
+        <v>6712</v>
       </c>
       <c r="C117">
         <v>20</v>
@@ -2609,10 +2609,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>46022.20833333334</v>
+        <v>46044.20833333334</v>
       </c>
       <c r="B118">
-        <v>5723</v>
+        <v>6989</v>
       </c>
       <c r="C118">
         <v>21</v>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>46022.21875</v>
+        <v>46044.21875</v>
       </c>
       <c r="B119">
-        <v>5804</v>
+        <v>7189</v>
       </c>
       <c r="C119">
         <v>22</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>46022.22916666666</v>
+        <v>46044.22916666666</v>
       </c>
       <c r="B120">
-        <v>5865</v>
+        <v>7353</v>
       </c>
       <c r="C120">
         <v>23</v>
@@ -2651,10 +2651,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>46022.23958333334</v>
+        <v>46044.23958333334</v>
       </c>
       <c r="B121">
-        <v>5920</v>
+        <v>7609</v>
       </c>
       <c r="C121">
         <v>24</v>
@@ -2665,10 +2665,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>46022.25</v>
+        <v>46044.25</v>
       </c>
       <c r="B122">
-        <v>5950</v>
+        <v>7945</v>
       </c>
       <c r="C122">
         <v>25</v>
@@ -2679,10 +2679,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>46022.26041666666</v>
+        <v>46044.26041666666</v>
       </c>
       <c r="B123">
-        <v>6051</v>
+        <v>8141</v>
       </c>
       <c r="C123">
         <v>26</v>
@@ -2693,10 +2693,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>46022.27083333334</v>
+        <v>46044.27083333334</v>
       </c>
       <c r="B124">
-        <v>6146</v>
+        <v>8286</v>
       </c>
       <c r="C124">
         <v>27</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>46022.28125</v>
+        <v>46044.28125</v>
       </c>
       <c r="B125">
-        <v>6243</v>
+        <v>8404</v>
       </c>
       <c r="C125">
         <v>28</v>
@@ -2721,10 +2721,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>46022.29166666666</v>
+        <v>46044.29166666666</v>
       </c>
       <c r="B126">
-        <v>6346</v>
+        <v>8562</v>
       </c>
       <c r="C126">
         <v>29</v>
@@ -2735,10 +2735,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>46022.30208333334</v>
+        <v>46044.30208333334</v>
       </c>
       <c r="B127">
-        <v>6419</v>
+        <v>0</v>
       </c>
       <c r="C127">
         <v>30</v>
@@ -2749,10 +2749,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>46022.3125</v>
+        <v>46044.3125</v>
       </c>
       <c r="B128">
-        <v>6477</v>
+        <v>0</v>
       </c>
       <c r="C128">
         <v>31</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>46022.32291666666</v>
+        <v>46044.32291666666</v>
       </c>
       <c r="B129">
-        <v>6497</v>
+        <v>0</v>
       </c>
       <c r="C129">
         <v>32</v>
@@ -2777,10 +2777,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>46022.33333333334</v>
+        <v>46044.33333333334</v>
       </c>
       <c r="B130">
-        <v>6519</v>
+        <v>0</v>
       </c>
       <c r="C130">
         <v>33</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>46022.34375</v>
+        <v>46044.34375</v>
       </c>
       <c r="B131">
-        <v>6494</v>
+        <v>0</v>
       </c>
       <c r="C131">
         <v>34</v>
@@ -2805,10 +2805,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>46022.35416666666</v>
+        <v>46044.35416666666</v>
       </c>
       <c r="B132">
-        <v>6461</v>
+        <v>0</v>
       </c>
       <c r="C132">
         <v>35</v>
@@ -2819,10 +2819,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>46022.36458333334</v>
+        <v>46044.36458333334</v>
       </c>
       <c r="B133">
-        <v>6414</v>
+        <v>0</v>
       </c>
       <c r="C133">
         <v>36</v>
@@ -2833,10 +2833,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>46022.375</v>
+        <v>46044.375</v>
       </c>
       <c r="B134">
-        <v>6386</v>
+        <v>0</v>
       </c>
       <c r="C134">
         <v>37</v>
@@ -2847,10 +2847,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>46022.38541666666</v>
+        <v>46044.38541666666</v>
       </c>
       <c r="B135">
-        <v>6354</v>
+        <v>0</v>
       </c>
       <c r="C135">
         <v>38</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>46022.39583333334</v>
+        <v>46044.39583333334</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>46022.40625</v>
+        <v>46044.40625</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>46022.41666666666</v>
+        <v>46044.41666666666</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>46022.42708333334</v>
+        <v>46044.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>46022.4375</v>
+        <v>46044.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>46022.44791666666</v>
+        <v>46044.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>46022.45833333334</v>
+        <v>46044.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>46022.46875</v>
+        <v>46044.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>46022.47916666666</v>
+        <v>46044.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>46022.48958333334</v>
+        <v>46044.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>46022.5</v>
+        <v>46044.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>46022.51041666666</v>
+        <v>46044.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>46022.52083333334</v>
+        <v>46044.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>46022.53125</v>
+        <v>46044.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>46022.54166666666</v>
+        <v>46044.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>46022.55208333334</v>
+        <v>46044.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>46022.5625</v>
+        <v>46044.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>46022.57291666666</v>
+        <v>46044.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>46022.58333333334</v>
+        <v>46044.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>46022.59375</v>
+        <v>46044.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>46022.60416666666</v>
+        <v>46044.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>46022.61458333334</v>
+        <v>46044.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>46022.625</v>
+        <v>46044.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>46022.63541666666</v>
+        <v>46044.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>46022.64583333334</v>
+        <v>46044.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>46022.65625</v>
+        <v>46044.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>46022.66666666666</v>
+        <v>46044.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>46022.67708333334</v>
+        <v>46044.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>46022.6875</v>
+        <v>46044.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>46022.69791666666</v>
+        <v>46044.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>46022.70833333334</v>
+        <v>46044.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>46022.71875</v>
+        <v>46044.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>46022.72916666666</v>
+        <v>46044.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>46022.73958333334</v>
+        <v>46044.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>46022.75</v>
+        <v>46044.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>46022.76041666666</v>
+        <v>46044.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>46022.77083333334</v>
+        <v>46044.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>46022.78125</v>
+        <v>46044.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>46022.79166666666</v>
+        <v>46044.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>46022.80208333334</v>
+        <v>46044.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>46022.8125</v>
+        <v>46044.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>46022.82291666666</v>
+        <v>46044.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>46022.83333333334</v>
+        <v>46044.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>46022.84375</v>
+        <v>46044.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>46022.85416666666</v>
+        <v>46044.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>46022.86458333334</v>
+        <v>46044.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>46022.875</v>
+        <v>46044.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>46022.88541666666</v>
+        <v>46044.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>46022.89583333334</v>
+        <v>46044.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>46022.90625</v>
+        <v>46044.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>46022.91666666666</v>
+        <v>46044.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>46022.92708333334</v>
+        <v>46044.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>46022.9375</v>
+        <v>46044.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>46022.94791666666</v>
+        <v>46044.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>46022.95833333334</v>
+        <v>46044.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>46022.96875</v>
+        <v>46044.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>46022.97916666666</v>
+        <v>46044.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>46022.98958333334</v>
+        <v>46044.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual_Historical.xlsx
@@ -28,580 +28,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>21.01.20261</t>
-  </si>
-  <si>
-    <t>21.01.20262</t>
-  </si>
-  <si>
-    <t>21.01.20263</t>
-  </si>
-  <si>
-    <t>21.01.20264</t>
-  </si>
-  <si>
-    <t>21.01.20265</t>
-  </si>
-  <si>
-    <t>21.01.20266</t>
-  </si>
-  <si>
-    <t>21.01.20267</t>
-  </si>
-  <si>
-    <t>21.01.20268</t>
-  </si>
-  <si>
-    <t>21.01.20269</t>
-  </si>
-  <si>
-    <t>21.01.202610</t>
-  </si>
-  <si>
-    <t>21.01.202611</t>
-  </si>
-  <si>
-    <t>21.01.202612</t>
-  </si>
-  <si>
-    <t>21.01.202613</t>
-  </si>
-  <si>
-    <t>21.01.202614</t>
-  </si>
-  <si>
-    <t>21.01.202615</t>
-  </si>
-  <si>
-    <t>21.01.202616</t>
-  </si>
-  <si>
-    <t>21.01.202617</t>
-  </si>
-  <si>
-    <t>21.01.202618</t>
-  </si>
-  <si>
-    <t>21.01.202619</t>
-  </si>
-  <si>
-    <t>21.01.202620</t>
-  </si>
-  <si>
-    <t>21.01.202621</t>
-  </si>
-  <si>
-    <t>21.01.202622</t>
-  </si>
-  <si>
-    <t>21.01.202623</t>
-  </si>
-  <si>
-    <t>21.01.202624</t>
-  </si>
-  <si>
-    <t>21.01.202625</t>
-  </si>
-  <si>
-    <t>21.01.202626</t>
-  </si>
-  <si>
-    <t>21.01.202627</t>
-  </si>
-  <si>
-    <t>21.01.202628</t>
-  </si>
-  <si>
-    <t>21.01.202629</t>
-  </si>
-  <si>
-    <t>21.01.202630</t>
-  </si>
-  <si>
-    <t>21.01.202631</t>
-  </si>
-  <si>
-    <t>21.01.202632</t>
-  </si>
-  <si>
-    <t>21.01.202633</t>
-  </si>
-  <si>
-    <t>21.01.202634</t>
-  </si>
-  <si>
-    <t>21.01.202635</t>
-  </si>
-  <si>
-    <t>21.01.202636</t>
-  </si>
-  <si>
-    <t>21.01.202637</t>
-  </si>
-  <si>
-    <t>21.01.202638</t>
-  </si>
-  <si>
-    <t>21.01.202639</t>
-  </si>
-  <si>
-    <t>21.01.202640</t>
-  </si>
-  <si>
-    <t>21.01.202641</t>
-  </si>
-  <si>
-    <t>21.01.202642</t>
-  </si>
-  <si>
-    <t>21.01.202643</t>
-  </si>
-  <si>
-    <t>21.01.202644</t>
-  </si>
-  <si>
-    <t>21.01.202645</t>
-  </si>
-  <si>
-    <t>21.01.202646</t>
-  </si>
-  <si>
-    <t>21.01.202647</t>
-  </si>
-  <si>
-    <t>21.01.202648</t>
-  </si>
-  <si>
-    <t>21.01.202649</t>
-  </si>
-  <si>
-    <t>21.01.202650</t>
-  </si>
-  <si>
-    <t>21.01.202651</t>
-  </si>
-  <si>
-    <t>21.01.202652</t>
-  </si>
-  <si>
-    <t>21.01.202653</t>
-  </si>
-  <si>
-    <t>21.01.202654</t>
-  </si>
-  <si>
-    <t>21.01.202655</t>
-  </si>
-  <si>
-    <t>21.01.202656</t>
-  </si>
-  <si>
-    <t>21.01.202657</t>
-  </si>
-  <si>
-    <t>21.01.202658</t>
-  </si>
-  <si>
-    <t>21.01.202659</t>
-  </si>
-  <si>
-    <t>21.01.202660</t>
-  </si>
-  <si>
-    <t>21.01.202661</t>
-  </si>
-  <si>
-    <t>21.01.202662</t>
-  </si>
-  <si>
-    <t>21.01.202663</t>
-  </si>
-  <si>
-    <t>21.01.202664</t>
-  </si>
-  <si>
-    <t>21.01.202665</t>
-  </si>
-  <si>
-    <t>21.01.202666</t>
-  </si>
-  <si>
-    <t>21.01.202667</t>
-  </si>
-  <si>
-    <t>21.01.202668</t>
-  </si>
-  <si>
-    <t>21.01.202669</t>
-  </si>
-  <si>
-    <t>21.01.202670</t>
-  </si>
-  <si>
-    <t>21.01.202671</t>
-  </si>
-  <si>
-    <t>21.01.202672</t>
-  </si>
-  <si>
-    <t>21.01.202673</t>
-  </si>
-  <si>
-    <t>21.01.202674</t>
-  </si>
-  <si>
-    <t>21.01.202675</t>
-  </si>
-  <si>
-    <t>21.01.202676</t>
-  </si>
-  <si>
-    <t>21.01.202677</t>
-  </si>
-  <si>
-    <t>21.01.202678</t>
-  </si>
-  <si>
-    <t>21.01.202679</t>
-  </si>
-  <si>
-    <t>21.01.202680</t>
-  </si>
-  <si>
-    <t>21.01.202681</t>
-  </si>
-  <si>
-    <t>21.01.202682</t>
-  </si>
-  <si>
-    <t>21.01.202683</t>
-  </si>
-  <si>
-    <t>21.01.202684</t>
-  </si>
-  <si>
-    <t>21.01.202685</t>
-  </si>
-  <si>
-    <t>21.01.202686</t>
-  </si>
-  <si>
-    <t>21.01.202687</t>
-  </si>
-  <si>
-    <t>21.01.202688</t>
-  </si>
-  <si>
-    <t>21.01.202689</t>
-  </si>
-  <si>
-    <t>21.01.202690</t>
-  </si>
-  <si>
-    <t>21.01.202691</t>
-  </si>
-  <si>
-    <t>21.01.202692</t>
-  </si>
-  <si>
-    <t>21.01.202693</t>
-  </si>
-  <si>
-    <t>21.01.202694</t>
-  </si>
-  <si>
-    <t>21.01.202695</t>
-  </si>
-  <si>
-    <t>21.01.202696</t>
-  </si>
-  <si>
-    <t>22.01.20261</t>
-  </si>
-  <si>
-    <t>22.01.20262</t>
-  </si>
-  <si>
-    <t>22.01.20263</t>
-  </si>
-  <si>
-    <t>22.01.20264</t>
-  </si>
-  <si>
-    <t>22.01.20265</t>
-  </si>
-  <si>
-    <t>22.01.20266</t>
-  </si>
-  <si>
-    <t>22.01.20267</t>
-  </si>
-  <si>
-    <t>22.01.20268</t>
-  </si>
-  <si>
-    <t>22.01.20269</t>
-  </si>
-  <si>
-    <t>22.01.202610</t>
-  </si>
-  <si>
-    <t>22.01.202611</t>
-  </si>
-  <si>
-    <t>22.01.202612</t>
-  </si>
-  <si>
-    <t>22.01.202613</t>
-  </si>
-  <si>
-    <t>22.01.202614</t>
-  </si>
-  <si>
-    <t>22.01.202615</t>
-  </si>
-  <si>
-    <t>22.01.202616</t>
-  </si>
-  <si>
-    <t>22.01.202617</t>
-  </si>
-  <si>
-    <t>22.01.202618</t>
-  </si>
-  <si>
-    <t>22.01.202619</t>
-  </si>
-  <si>
-    <t>22.01.202620</t>
-  </si>
-  <si>
-    <t>22.01.202621</t>
-  </si>
-  <si>
-    <t>22.01.202622</t>
-  </si>
-  <si>
-    <t>22.01.202623</t>
-  </si>
-  <si>
-    <t>22.01.202624</t>
-  </si>
-  <si>
-    <t>22.01.202625</t>
-  </si>
-  <si>
-    <t>22.01.202626</t>
-  </si>
-  <si>
-    <t>22.01.202627</t>
-  </si>
-  <si>
-    <t>22.01.202628</t>
-  </si>
-  <si>
-    <t>22.01.202629</t>
-  </si>
-  <si>
-    <t>22.01.202630</t>
-  </si>
-  <si>
-    <t>22.01.202631</t>
-  </si>
-  <si>
-    <t>22.01.202632</t>
-  </si>
-  <si>
-    <t>22.01.202633</t>
-  </si>
-  <si>
-    <t>22.01.202634</t>
-  </si>
-  <si>
-    <t>22.01.202635</t>
-  </si>
-  <si>
-    <t>22.01.202636</t>
-  </si>
-  <si>
-    <t>22.01.202637</t>
-  </si>
-  <si>
-    <t>22.01.202638</t>
-  </si>
-  <si>
-    <t>22.01.202639</t>
-  </si>
-  <si>
-    <t>22.01.202640</t>
-  </si>
-  <si>
-    <t>22.01.202641</t>
-  </si>
-  <si>
-    <t>22.01.202642</t>
-  </si>
-  <si>
-    <t>22.01.202643</t>
-  </si>
-  <si>
-    <t>22.01.202644</t>
-  </si>
-  <si>
-    <t>22.01.202645</t>
-  </si>
-  <si>
-    <t>22.01.202646</t>
-  </si>
-  <si>
-    <t>22.01.202647</t>
-  </si>
-  <si>
-    <t>22.01.202648</t>
-  </si>
-  <si>
-    <t>22.01.202649</t>
-  </si>
-  <si>
-    <t>22.01.202650</t>
-  </si>
-  <si>
-    <t>22.01.202651</t>
-  </si>
-  <si>
-    <t>22.01.202652</t>
-  </si>
-  <si>
-    <t>22.01.202653</t>
-  </si>
-  <si>
-    <t>22.01.202654</t>
-  </si>
-  <si>
-    <t>22.01.202655</t>
-  </si>
-  <si>
-    <t>22.01.202656</t>
-  </si>
-  <si>
-    <t>22.01.202657</t>
-  </si>
-  <si>
-    <t>22.01.202658</t>
-  </si>
-  <si>
-    <t>22.01.202659</t>
-  </si>
-  <si>
-    <t>22.01.202660</t>
-  </si>
-  <si>
-    <t>22.01.202661</t>
-  </si>
-  <si>
-    <t>22.01.202662</t>
-  </si>
-  <si>
-    <t>22.01.202663</t>
-  </si>
-  <si>
-    <t>22.01.202664</t>
-  </si>
-  <si>
-    <t>22.01.202665</t>
-  </si>
-  <si>
-    <t>22.01.202666</t>
-  </si>
-  <si>
-    <t>22.01.202667</t>
-  </si>
-  <si>
-    <t>22.01.202668</t>
-  </si>
-  <si>
-    <t>22.01.202669</t>
-  </si>
-  <si>
-    <t>22.01.202670</t>
-  </si>
-  <si>
-    <t>22.01.202671</t>
-  </si>
-  <si>
-    <t>22.01.202672</t>
-  </si>
-  <si>
-    <t>22.01.202673</t>
-  </si>
-  <si>
-    <t>22.01.202674</t>
-  </si>
-  <si>
-    <t>22.01.202675</t>
-  </si>
-  <si>
-    <t>22.01.202676</t>
-  </si>
-  <si>
-    <t>22.01.202677</t>
-  </si>
-  <si>
-    <t>22.01.202678</t>
-  </si>
-  <si>
-    <t>22.01.202679</t>
-  </si>
-  <si>
-    <t>22.01.202680</t>
-  </si>
-  <si>
-    <t>22.01.202681</t>
-  </si>
-  <si>
-    <t>22.01.202682</t>
-  </si>
-  <si>
-    <t>22.01.202683</t>
-  </si>
-  <si>
-    <t>22.01.202684</t>
-  </si>
-  <si>
-    <t>22.01.202685</t>
-  </si>
-  <si>
-    <t>22.01.202686</t>
-  </si>
-  <si>
-    <t>22.01.202687</t>
-  </si>
-  <si>
-    <t>22.01.202688</t>
-  </si>
-  <si>
-    <t>22.01.202689</t>
-  </si>
-  <si>
-    <t>22.01.202690</t>
-  </si>
-  <si>
-    <t>22.01.202691</t>
-  </si>
-  <si>
-    <t>22.01.202692</t>
-  </si>
-  <si>
-    <t>22.01.202693</t>
-  </si>
-  <si>
-    <t>22.01.202694</t>
-  </si>
-  <si>
-    <t>22.01.202695</t>
-  </si>
-  <si>
-    <t>22.01.202696</t>
+    <t>23.01.20261</t>
+  </si>
+  <si>
+    <t>23.01.20262</t>
+  </si>
+  <si>
+    <t>23.01.20263</t>
+  </si>
+  <si>
+    <t>23.01.20264</t>
+  </si>
+  <si>
+    <t>23.01.20265</t>
+  </si>
+  <si>
+    <t>23.01.20266</t>
+  </si>
+  <si>
+    <t>23.01.20267</t>
+  </si>
+  <si>
+    <t>23.01.20268</t>
+  </si>
+  <si>
+    <t>23.01.20269</t>
+  </si>
+  <si>
+    <t>23.01.202610</t>
+  </si>
+  <si>
+    <t>23.01.202611</t>
+  </si>
+  <si>
+    <t>23.01.202612</t>
+  </si>
+  <si>
+    <t>23.01.202613</t>
+  </si>
+  <si>
+    <t>23.01.202614</t>
+  </si>
+  <si>
+    <t>23.01.202615</t>
+  </si>
+  <si>
+    <t>23.01.202616</t>
+  </si>
+  <si>
+    <t>23.01.202617</t>
+  </si>
+  <si>
+    <t>23.01.202618</t>
+  </si>
+  <si>
+    <t>23.01.202619</t>
+  </si>
+  <si>
+    <t>23.01.202620</t>
+  </si>
+  <si>
+    <t>23.01.202621</t>
+  </si>
+  <si>
+    <t>23.01.202622</t>
+  </si>
+  <si>
+    <t>23.01.202623</t>
+  </si>
+  <si>
+    <t>23.01.202624</t>
+  </si>
+  <si>
+    <t>23.01.202625</t>
+  </si>
+  <si>
+    <t>23.01.202626</t>
+  </si>
+  <si>
+    <t>23.01.202627</t>
+  </si>
+  <si>
+    <t>23.01.202628</t>
+  </si>
+  <si>
+    <t>23.01.202629</t>
+  </si>
+  <si>
+    <t>23.01.202630</t>
+  </si>
+  <si>
+    <t>23.01.202631</t>
+  </si>
+  <si>
+    <t>23.01.202632</t>
+  </si>
+  <si>
+    <t>23.01.202633</t>
+  </si>
+  <si>
+    <t>23.01.202634</t>
+  </si>
+  <si>
+    <t>23.01.202635</t>
+  </si>
+  <si>
+    <t>23.01.202636</t>
+  </si>
+  <si>
+    <t>23.01.202637</t>
+  </si>
+  <si>
+    <t>23.01.202638</t>
+  </si>
+  <si>
+    <t>23.01.202639</t>
+  </si>
+  <si>
+    <t>23.01.202640</t>
+  </si>
+  <si>
+    <t>23.01.202641</t>
+  </si>
+  <si>
+    <t>23.01.202642</t>
+  </si>
+  <si>
+    <t>23.01.202643</t>
+  </si>
+  <si>
+    <t>23.01.202644</t>
+  </si>
+  <si>
+    <t>23.01.202645</t>
+  </si>
+  <si>
+    <t>23.01.202646</t>
+  </si>
+  <si>
+    <t>23.01.202647</t>
+  </si>
+  <si>
+    <t>23.01.202648</t>
+  </si>
+  <si>
+    <t>23.01.202649</t>
+  </si>
+  <si>
+    <t>23.01.202650</t>
+  </si>
+  <si>
+    <t>23.01.202651</t>
+  </si>
+  <si>
+    <t>23.01.202652</t>
+  </si>
+  <si>
+    <t>23.01.202653</t>
+  </si>
+  <si>
+    <t>23.01.202654</t>
+  </si>
+  <si>
+    <t>23.01.202655</t>
+  </si>
+  <si>
+    <t>23.01.202656</t>
+  </si>
+  <si>
+    <t>23.01.202657</t>
+  </si>
+  <si>
+    <t>23.01.202658</t>
+  </si>
+  <si>
+    <t>23.01.202659</t>
+  </si>
+  <si>
+    <t>23.01.202660</t>
+  </si>
+  <si>
+    <t>23.01.202661</t>
+  </si>
+  <si>
+    <t>23.01.202662</t>
+  </si>
+  <si>
+    <t>23.01.202663</t>
+  </si>
+  <si>
+    <t>23.01.202664</t>
+  </si>
+  <si>
+    <t>23.01.202665</t>
+  </si>
+  <si>
+    <t>23.01.202666</t>
+  </si>
+  <si>
+    <t>23.01.202667</t>
+  </si>
+  <si>
+    <t>23.01.202668</t>
+  </si>
+  <si>
+    <t>23.01.202669</t>
+  </si>
+  <si>
+    <t>23.01.202670</t>
+  </si>
+  <si>
+    <t>23.01.202671</t>
+  </si>
+  <si>
+    <t>23.01.202672</t>
+  </si>
+  <si>
+    <t>23.01.202673</t>
+  </si>
+  <si>
+    <t>23.01.202674</t>
+  </si>
+  <si>
+    <t>23.01.202675</t>
+  </si>
+  <si>
+    <t>23.01.202676</t>
+  </si>
+  <si>
+    <t>23.01.202677</t>
+  </si>
+  <si>
+    <t>23.01.202678</t>
+  </si>
+  <si>
+    <t>23.01.202679</t>
+  </si>
+  <si>
+    <t>23.01.202680</t>
+  </si>
+  <si>
+    <t>23.01.202681</t>
+  </si>
+  <si>
+    <t>23.01.202682</t>
+  </si>
+  <si>
+    <t>23.01.202683</t>
+  </si>
+  <si>
+    <t>23.01.202684</t>
+  </si>
+  <si>
+    <t>23.01.202685</t>
+  </si>
+  <si>
+    <t>23.01.202686</t>
+  </si>
+  <si>
+    <t>23.01.202687</t>
+  </si>
+  <si>
+    <t>23.01.202688</t>
+  </si>
+  <si>
+    <t>23.01.202689</t>
+  </si>
+  <si>
+    <t>23.01.202690</t>
+  </si>
+  <si>
+    <t>23.01.202691</t>
+  </si>
+  <si>
+    <t>23.01.202692</t>
+  </si>
+  <si>
+    <t>23.01.202693</t>
+  </si>
+  <si>
+    <t>23.01.202694</t>
+  </si>
+  <si>
+    <t>23.01.202695</t>
+  </si>
+  <si>
+    <t>23.01.202696</t>
+  </si>
+  <si>
+    <t>24.01.20261</t>
+  </si>
+  <si>
+    <t>24.01.20262</t>
+  </si>
+  <si>
+    <t>24.01.20263</t>
+  </si>
+  <si>
+    <t>24.01.20264</t>
+  </si>
+  <si>
+    <t>24.01.20265</t>
+  </si>
+  <si>
+    <t>24.01.20266</t>
+  </si>
+  <si>
+    <t>24.01.20267</t>
+  </si>
+  <si>
+    <t>24.01.20268</t>
+  </si>
+  <si>
+    <t>24.01.20269</t>
+  </si>
+  <si>
+    <t>24.01.202610</t>
+  </si>
+  <si>
+    <t>24.01.202611</t>
+  </si>
+  <si>
+    <t>24.01.202612</t>
+  </si>
+  <si>
+    <t>24.01.202613</t>
+  </si>
+  <si>
+    <t>24.01.202614</t>
+  </si>
+  <si>
+    <t>24.01.202615</t>
+  </si>
+  <si>
+    <t>24.01.202616</t>
+  </si>
+  <si>
+    <t>24.01.202617</t>
+  </si>
+  <si>
+    <t>24.01.202618</t>
+  </si>
+  <si>
+    <t>24.01.202619</t>
+  </si>
+  <si>
+    <t>24.01.202620</t>
+  </si>
+  <si>
+    <t>24.01.202621</t>
+  </si>
+  <si>
+    <t>24.01.202622</t>
+  </si>
+  <si>
+    <t>24.01.202623</t>
+  </si>
+  <si>
+    <t>24.01.202624</t>
+  </si>
+  <si>
+    <t>24.01.202625</t>
+  </si>
+  <si>
+    <t>24.01.202626</t>
+  </si>
+  <si>
+    <t>24.01.202627</t>
+  </si>
+  <si>
+    <t>24.01.202628</t>
+  </si>
+  <si>
+    <t>24.01.202629</t>
+  </si>
+  <si>
+    <t>24.01.202630</t>
+  </si>
+  <si>
+    <t>24.01.202631</t>
+  </si>
+  <si>
+    <t>24.01.202632</t>
+  </si>
+  <si>
+    <t>24.01.202633</t>
+  </si>
+  <si>
+    <t>24.01.202634</t>
+  </si>
+  <si>
+    <t>24.01.202635</t>
+  </si>
+  <si>
+    <t>24.01.202636</t>
+  </si>
+  <si>
+    <t>24.01.202637</t>
+  </si>
+  <si>
+    <t>24.01.202638</t>
+  </si>
+  <si>
+    <t>24.01.202639</t>
+  </si>
+  <si>
+    <t>24.01.202640</t>
+  </si>
+  <si>
+    <t>24.01.202641</t>
+  </si>
+  <si>
+    <t>24.01.202642</t>
+  </si>
+  <si>
+    <t>24.01.202643</t>
+  </si>
+  <si>
+    <t>24.01.202644</t>
+  </si>
+  <si>
+    <t>24.01.202645</t>
+  </si>
+  <si>
+    <t>24.01.202646</t>
+  </si>
+  <si>
+    <t>24.01.202647</t>
+  </si>
+  <si>
+    <t>24.01.202648</t>
+  </si>
+  <si>
+    <t>24.01.202649</t>
+  </si>
+  <si>
+    <t>24.01.202650</t>
+  </si>
+  <si>
+    <t>24.01.202651</t>
+  </si>
+  <si>
+    <t>24.01.202652</t>
+  </si>
+  <si>
+    <t>24.01.202653</t>
+  </si>
+  <si>
+    <t>24.01.202654</t>
+  </si>
+  <si>
+    <t>24.01.202655</t>
+  </si>
+  <si>
+    <t>24.01.202656</t>
+  </si>
+  <si>
+    <t>24.01.202657</t>
+  </si>
+  <si>
+    <t>24.01.202658</t>
+  </si>
+  <si>
+    <t>24.01.202659</t>
+  </si>
+  <si>
+    <t>24.01.202660</t>
+  </si>
+  <si>
+    <t>24.01.202661</t>
+  </si>
+  <si>
+    <t>24.01.202662</t>
+  </si>
+  <si>
+    <t>24.01.202663</t>
+  </si>
+  <si>
+    <t>24.01.202664</t>
+  </si>
+  <si>
+    <t>24.01.202665</t>
+  </si>
+  <si>
+    <t>24.01.202666</t>
+  </si>
+  <si>
+    <t>24.01.202667</t>
+  </si>
+  <si>
+    <t>24.01.202668</t>
+  </si>
+  <si>
+    <t>24.01.202669</t>
+  </si>
+  <si>
+    <t>24.01.202670</t>
+  </si>
+  <si>
+    <t>24.01.202671</t>
+  </si>
+  <si>
+    <t>24.01.202672</t>
+  </si>
+  <si>
+    <t>24.01.202673</t>
+  </si>
+  <si>
+    <t>24.01.202674</t>
+  </si>
+  <si>
+    <t>24.01.202675</t>
+  </si>
+  <si>
+    <t>24.01.202676</t>
+  </si>
+  <si>
+    <t>24.01.202677</t>
+  </si>
+  <si>
+    <t>24.01.202678</t>
+  </si>
+  <si>
+    <t>24.01.202679</t>
+  </si>
+  <si>
+    <t>24.01.202680</t>
+  </si>
+  <si>
+    <t>24.01.202681</t>
+  </si>
+  <si>
+    <t>24.01.202682</t>
+  </si>
+  <si>
+    <t>24.01.202683</t>
+  </si>
+  <si>
+    <t>24.01.202684</t>
+  </si>
+  <si>
+    <t>24.01.202685</t>
+  </si>
+  <si>
+    <t>24.01.202686</t>
+  </si>
+  <si>
+    <t>24.01.202687</t>
+  </si>
+  <si>
+    <t>24.01.202688</t>
+  </si>
+  <si>
+    <t>24.01.202689</t>
+  </si>
+  <si>
+    <t>24.01.202690</t>
+  </si>
+  <si>
+    <t>24.01.202691</t>
+  </si>
+  <si>
+    <t>24.01.202692</t>
+  </si>
+  <si>
+    <t>24.01.202693</t>
+  </si>
+  <si>
+    <t>24.01.202694</t>
+  </si>
+  <si>
+    <t>24.01.202695</t>
+  </si>
+  <si>
+    <t>24.01.202696</t>
   </si>
 </sst>
 </file>
@@ -985,10 +985,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>46043</v>
+        <v>46045</v>
       </c>
       <c r="B2">
-        <v>6746</v>
+        <v>6484</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -999,10 +999,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>46043.01041666666</v>
+        <v>46045.01041666666</v>
       </c>
       <c r="B3">
-        <v>6766</v>
+        <v>6483</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>46043.02083333334</v>
+        <v>46045.02083333334</v>
       </c>
       <c r="B4">
-        <v>6706</v>
+        <v>6456</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>46043.03125</v>
+        <v>46045.03125</v>
       </c>
       <c r="B5">
-        <v>6666</v>
+        <v>6402</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>46043.04166666666</v>
+        <v>46045.04166666666</v>
       </c>
       <c r="B6">
-        <v>6653</v>
+        <v>6339</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>46043.05208333334</v>
+        <v>46045.05208333334</v>
       </c>
       <c r="B7">
-        <v>6623</v>
+        <v>6325</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>46043.0625</v>
+        <v>46045.0625</v>
       </c>
       <c r="B8">
-        <v>6598</v>
+        <v>6271</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>46043.07291666666</v>
+        <v>46045.07291666666</v>
       </c>
       <c r="B9">
-        <v>6570</v>
+        <v>6230</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>46043.08333333334</v>
+        <v>46045.08333333334</v>
       </c>
       <c r="B10">
-        <v>6670</v>
+        <v>6220</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1111,10 +1111,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>46043.09375</v>
+        <v>46045.09375</v>
       </c>
       <c r="B11">
-        <v>6624</v>
+        <v>6203</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>46043.10416666666</v>
+        <v>46045.10416666666</v>
       </c>
       <c r="B12">
-        <v>6628</v>
+        <v>6228</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1139,10 +1139,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>46043.11458333334</v>
+        <v>46045.11458333334</v>
       </c>
       <c r="B13">
-        <v>6591</v>
+        <v>6237</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>46043.125</v>
+        <v>46045.125</v>
       </c>
       <c r="B14">
-        <v>6658</v>
+        <v>6270</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>46043.13541666666</v>
+        <v>46045.13541666666</v>
       </c>
       <c r="B15">
-        <v>6697</v>
+        <v>6312</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1181,10 +1181,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>46043.14583333334</v>
+        <v>46045.14583333334</v>
       </c>
       <c r="B16">
-        <v>6744</v>
+        <v>6320</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>46043.15625</v>
+        <v>46045.15625</v>
       </c>
       <c r="B17">
-        <v>6770</v>
+        <v>6376</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1209,10 +1209,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>46043.16666666666</v>
+        <v>46045.16666666666</v>
       </c>
       <c r="B18">
-        <v>6837</v>
+        <v>6512</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1223,10 +1223,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>46043.17708333334</v>
+        <v>46045.17708333334</v>
       </c>
       <c r="B19">
-        <v>6949</v>
+        <v>6536</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1237,10 +1237,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>46043.1875</v>
+        <v>46045.1875</v>
       </c>
       <c r="B20">
-        <v>6999</v>
+        <v>6643</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>46043.19791666666</v>
+        <v>46045.19791666666</v>
       </c>
       <c r="B21">
-        <v>7049</v>
+        <v>6634</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>46043.20833333334</v>
+        <v>46045.20833333334</v>
       </c>
       <c r="B22">
-        <v>7248</v>
+        <v>6849</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>46043.21875</v>
+        <v>46045.21875</v>
       </c>
       <c r="B23">
-        <v>7462</v>
+        <v>6989</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1293,10 +1293,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>46043.22916666666</v>
+        <v>46045.22916666666</v>
       </c>
       <c r="B24">
-        <v>7626</v>
+        <v>7200</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>46043.23958333334</v>
+        <v>46045.23958333334</v>
       </c>
       <c r="B25">
-        <v>7901</v>
+        <v>7406</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>46043.25</v>
+        <v>46045.25</v>
       </c>
       <c r="B26">
-        <v>8235</v>
+        <v>7780</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>46043.26041666666</v>
+        <v>46045.26041666666</v>
       </c>
       <c r="B27">
-        <v>8424</v>
+        <v>7961</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>46043.27083333334</v>
+        <v>46045.27083333334</v>
       </c>
       <c r="B28">
-        <v>8559</v>
+        <v>8119</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>46043.28125</v>
+        <v>46045.28125</v>
       </c>
       <c r="B29">
-        <v>8636</v>
+        <v>8194</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>46043.29166666666</v>
+        <v>46045.29166666666</v>
       </c>
       <c r="B30">
-        <v>8881</v>
+        <v>8428</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1391,10 +1391,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>46043.30208333334</v>
+        <v>46045.30208333334</v>
       </c>
       <c r="B31">
-        <v>9019</v>
+        <v>8553</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>46043.3125</v>
+        <v>46045.3125</v>
       </c>
       <c r="B32">
-        <v>9057</v>
+        <v>8725</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1419,10 +1419,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>46043.32291666666</v>
+        <v>46045.32291666666</v>
       </c>
       <c r="B33">
-        <v>9114</v>
+        <v>8841</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1433,10 +1433,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>46043.33333333334</v>
+        <v>46045.33333333334</v>
       </c>
       <c r="B34">
-        <v>9183</v>
+        <v>8871</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1447,10 +1447,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>46043.34375</v>
+        <v>46045.34375</v>
       </c>
       <c r="B35">
-        <v>9296</v>
+        <v>8868</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>46043.35416666666</v>
+        <v>46045.35416666666</v>
       </c>
       <c r="B36">
-        <v>9208</v>
+        <v>8879</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>46043.36458333334</v>
+        <v>46045.36458333334</v>
       </c>
       <c r="B37">
-        <v>9144</v>
+        <v>8885</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1489,10 +1489,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>46043.375</v>
+        <v>46045.375</v>
       </c>
       <c r="B38">
-        <v>9100</v>
+        <v>8803</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>46043.38541666666</v>
+        <v>46045.38541666666</v>
       </c>
       <c r="B39">
-        <v>9148</v>
+        <v>8826</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>46043.39583333334</v>
+        <v>46045.39583333334</v>
       </c>
       <c r="B40">
-        <v>9048</v>
+        <v>8770</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>46043.40625</v>
+        <v>46045.40625</v>
       </c>
       <c r="B41">
-        <v>8989</v>
+        <v>8689</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>46043.41666666666</v>
+        <v>46045.41666666666</v>
       </c>
       <c r="B42">
-        <v>8967</v>
+        <v>8588</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>46043.42708333334</v>
+        <v>46045.42708333334</v>
       </c>
       <c r="B43">
-        <v>8949</v>
+        <v>8576</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>46043.4375</v>
+        <v>46045.4375</v>
       </c>
       <c r="B44">
-        <v>8830</v>
+        <v>8596</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>46043.44791666666</v>
+        <v>46045.44791666666</v>
       </c>
       <c r="B45">
-        <v>8834</v>
+        <v>8519</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>46043.45833333334</v>
+        <v>46045.45833333334</v>
       </c>
       <c r="B46">
-        <v>8771</v>
+        <v>8417</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>46043.46875</v>
+        <v>46045.46875</v>
       </c>
       <c r="B47">
-        <v>8724</v>
+        <v>8454</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>46043.47916666666</v>
+        <v>46045.47916666666</v>
       </c>
       <c r="B48">
-        <v>8678</v>
+        <v>8400</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1643,10 +1643,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>46043.48958333334</v>
+        <v>46045.48958333334</v>
       </c>
       <c r="B49">
-        <v>8659</v>
+        <v>8442</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>46043.5</v>
+        <v>46045.5</v>
       </c>
       <c r="B50">
-        <v>8573</v>
+        <v>8655</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1671,10 +1671,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>46043.51041666666</v>
+        <v>46045.51041666666</v>
       </c>
       <c r="B51">
-        <v>8534</v>
+        <v>8630</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>46043.52083333334</v>
+        <v>46045.52083333334</v>
       </c>
       <c r="B52">
-        <v>8466</v>
+        <v>8588</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1699,10 +1699,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>46043.53125</v>
+        <v>46045.53125</v>
       </c>
       <c r="B53">
-        <v>8437</v>
+        <v>8602</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>46043.54166666666</v>
+        <v>46045.54166666666</v>
       </c>
       <c r="B54">
-        <v>8363</v>
+        <v>8577</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>46043.55208333334</v>
+        <v>46045.55208333334</v>
       </c>
       <c r="B55">
-        <v>8375</v>
+        <v>8526</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>46043.5625</v>
+        <v>46045.5625</v>
       </c>
       <c r="B56">
-        <v>8351</v>
+        <v>8505</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -1755,10 +1755,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>46043.57291666666</v>
+        <v>46045.57291666666</v>
       </c>
       <c r="B57">
-        <v>8363</v>
+        <v>8467</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>46043.58333333334</v>
+        <v>46045.58333333334</v>
       </c>
       <c r="B58">
-        <v>8355</v>
+        <v>8252</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>46043.59375</v>
+        <v>46045.59375</v>
       </c>
       <c r="B59">
-        <v>8506</v>
+        <v>8265</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>46043.60416666666</v>
+        <v>46045.60416666666</v>
       </c>
       <c r="B60">
-        <v>8401</v>
+        <v>8237</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -1811,10 +1811,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>46043.61458333334</v>
+        <v>46045.61458333334</v>
       </c>
       <c r="B61">
-        <v>8489</v>
+        <v>8296</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>46043.625</v>
+        <v>46045.625</v>
       </c>
       <c r="B62">
-        <v>8551</v>
+        <v>8350</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>46043.63541666666</v>
+        <v>46045.63541666666</v>
       </c>
       <c r="B63">
-        <v>8673</v>
+        <v>8333</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -1853,10 +1853,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>46043.64583333334</v>
+        <v>46045.64583333334</v>
       </c>
       <c r="B64">
-        <v>8665</v>
+        <v>8353</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>46043.65625</v>
+        <v>46045.65625</v>
       </c>
       <c r="B65">
-        <v>8769</v>
+        <v>8403</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>46043.66666666666</v>
+        <v>46045.66666666666</v>
       </c>
       <c r="B66">
-        <v>8802</v>
+        <v>8525</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>46043.67708333334</v>
+        <v>46045.67708333334</v>
       </c>
       <c r="B67">
-        <v>8977</v>
+        <v>8584</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>46043.6875</v>
+        <v>46045.6875</v>
       </c>
       <c r="B68">
-        <v>9051</v>
+        <v>8732</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>46043.69791666666</v>
+        <v>46045.69791666666</v>
       </c>
       <c r="B69">
-        <v>9124</v>
+        <v>8760</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>46043.70833333334</v>
+        <v>46045.70833333334</v>
       </c>
       <c r="B70">
-        <v>9128</v>
+        <v>8748</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>46043.71875</v>
+        <v>46045.71875</v>
       </c>
       <c r="B71">
-        <v>9182</v>
+        <v>8710</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>46043.72916666666</v>
+        <v>46045.72916666666</v>
       </c>
       <c r="B72">
-        <v>9120</v>
+        <v>8786</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>46043.73958333334</v>
+        <v>46045.73958333334</v>
       </c>
       <c r="B73">
-        <v>9123</v>
+        <v>8686</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>46043.75</v>
+        <v>46045.75</v>
       </c>
       <c r="B74">
-        <v>9100</v>
+        <v>8587</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -2007,10 +2007,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>46043.76041666666</v>
+        <v>46045.76041666666</v>
       </c>
       <c r="B75">
-        <v>9060</v>
+        <v>8608</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>46043.77083333334</v>
+        <v>46045.77083333334</v>
       </c>
       <c r="B76">
-        <v>8982</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>46043.78125</v>
+        <v>46045.78125</v>
       </c>
       <c r="B77">
-        <v>8952</v>
+        <v>8555</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -2049,10 +2049,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>46043.79166666666</v>
+        <v>46045.79166666666</v>
       </c>
       <c r="B78">
-        <v>8876</v>
+        <v>8455</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>46043.80208333334</v>
+        <v>46045.80208333334</v>
       </c>
       <c r="B79">
-        <v>8841</v>
+        <v>8464</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>46043.8125</v>
+        <v>46045.8125</v>
       </c>
       <c r="B80">
-        <v>8738</v>
+        <v>8352</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>46043.82291666666</v>
+        <v>46045.82291666666</v>
       </c>
       <c r="B81">
-        <v>8620</v>
+        <v>8252</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -2105,10 +2105,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>46043.83333333334</v>
+        <v>46045.83333333334</v>
       </c>
       <c r="B82">
-        <v>8512</v>
+        <v>8063</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>46043.84375</v>
+        <v>46045.84375</v>
       </c>
       <c r="B83">
-        <v>8379</v>
+        <v>8017</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -2133,10 +2133,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>46043.85416666666</v>
+        <v>46045.85416666666</v>
       </c>
       <c r="B84">
-        <v>8273</v>
+        <v>7915</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>46043.86458333334</v>
+        <v>46045.86458333334</v>
       </c>
       <c r="B85">
-        <v>8143</v>
+        <v>7782</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -2161,10 +2161,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>46043.875</v>
+        <v>46045.875</v>
       </c>
       <c r="B86">
-        <v>7962</v>
+        <v>7551</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>46043.88541666666</v>
+        <v>46045.88541666666</v>
       </c>
       <c r="B87">
-        <v>7804</v>
+        <v>7428</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -2189,10 +2189,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>46043.89583333334</v>
+        <v>46045.89583333334</v>
       </c>
       <c r="B88">
-        <v>7640</v>
+        <v>7278</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>46043.90625</v>
+        <v>46045.90625</v>
       </c>
       <c r="B89">
-        <v>7475</v>
+        <v>7198</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>46043.91666666666</v>
+        <v>46045.91666666666</v>
       </c>
       <c r="B90">
-        <v>7313</v>
+        <v>7037</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>46043.92708333334</v>
+        <v>46045.92708333334</v>
       </c>
       <c r="B91">
-        <v>7253</v>
+        <v>6925</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>46043.9375</v>
+        <v>46045.9375</v>
       </c>
       <c r="B92">
-        <v>7107</v>
+        <v>6791</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>46043.94791666666</v>
+        <v>46045.94791666666</v>
       </c>
       <c r="B93">
-        <v>7010</v>
+        <v>6760</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -2273,10 +2273,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>46043.95833333334</v>
+        <v>46045.95833333334</v>
       </c>
       <c r="B94">
-        <v>6819</v>
+        <v>6566</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>46043.96875</v>
+        <v>46045.96875</v>
       </c>
       <c r="B95">
-        <v>6756</v>
+        <v>6556</v>
       </c>
       <c r="C95">
         <v>94</v>
@@ -2301,10 +2301,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>46043.97916666666</v>
+        <v>46045.97916666666</v>
       </c>
       <c r="B96">
-        <v>6657</v>
+        <v>6434</v>
       </c>
       <c r="C96">
         <v>95</v>
@@ -2315,10 +2315,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>46043.98958333334</v>
+        <v>46045.98958333334</v>
       </c>
       <c r="B97">
-        <v>6677</v>
+        <v>6396</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>46044</v>
+        <v>46046</v>
       </c>
       <c r="B98">
-        <v>6627</v>
+        <v>6320</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>46044.01041666666</v>
+        <v>46046.01041666666</v>
       </c>
       <c r="B99">
-        <v>6604</v>
+        <v>6219</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>46044.02083333334</v>
+        <v>46046.02083333334</v>
       </c>
       <c r="B100">
-        <v>6507</v>
+        <v>6208</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2371,10 +2371,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>46044.03125</v>
+        <v>46046.03125</v>
       </c>
       <c r="B101">
-        <v>6530</v>
+        <v>6156</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>46044.04166666666</v>
+        <v>46046.04166666666</v>
       </c>
       <c r="B102">
-        <v>6440</v>
+        <v>6211</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>46044.05208333334</v>
+        <v>46046.05208333334</v>
       </c>
       <c r="B103">
-        <v>6493</v>
+        <v>6160</v>
       </c>
       <c r="C103">
         <v>6</v>
@@ -2413,10 +2413,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>46044.0625</v>
+        <v>46046.0625</v>
       </c